--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,9 +53,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>_0.975178</t>
+  </si>
+  <si>
+    <t>Completley Disregard but does not look like SAE will help only hurt</t>
+  </si>
+  <si>
+    <t>﻿0.975178</t>
+  </si>
+  <si>
+    <t>LSTM with first 8 indicators, 100 units, 5 cells)</t>
   </si>
 </sst>
 </file>
@@ -375,3342 +384,5853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.97099155000000004</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0.98550859999999996</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.97150199999999998</v>
       </c>
       <c r="B3">
         <v>0.96900399999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0.98757640000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.96900399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.97180370000000005</v>
       </c>
       <c r="B4">
         <v>0.984456</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0.98905396000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.984456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.97260636</v>
       </c>
       <c r="B5">
         <v>0.98441299999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0.99043815999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.98441299999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97358080000000002</v>
       </c>
       <c r="B6">
         <v>0.99852200000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0.99274236000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.99852200000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97455656999999996</v>
       </c>
       <c r="B7">
         <v>1.00454</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0.99518459999999997</v>
+      </c>
+      <c r="E7">
+        <v>1.00454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97525066000000005</v>
       </c>
       <c r="B8">
         <v>1.00691</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0.99838210000000005</v>
+      </c>
+      <c r="E8">
+        <v>1.00691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97576589999999996</v>
       </c>
       <c r="B9">
         <v>1.00644</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1.0006546999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.00644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97638970000000003</v>
       </c>
       <c r="B10">
         <v>1.0048699999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>1.0024599000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.0048699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97705995999999995</v>
       </c>
       <c r="B11">
         <v>1.0139499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1.0036075</v>
+      </c>
+      <c r="E11">
+        <v>1.0139499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97779329999999998</v>
       </c>
       <c r="B12">
         <v>1.0135000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>1.0036761999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.0135000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97823757</v>
       </c>
       <c r="B13">
         <v>1.01762</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1.0055692000000001</v>
+      </c>
+      <c r="E13">
+        <v>1.01762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97857236999999997</v>
       </c>
       <c r="B14">
         <v>1.01647</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1.0070429000000001</v>
+      </c>
+      <c r="E14">
+        <v>1.01647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97901819999999995</v>
       </c>
       <c r="B15">
         <v>1.0142599999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>1.0082789999999999</v>
+      </c>
+      <c r="E15">
+        <v>1.0142599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97968084</v>
       </c>
       <c r="B16">
         <v>1.0098499999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1.0088436999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.0098499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.98058440000000002</v>
       </c>
       <c r="B17">
         <v>1.0189699999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1.0091783999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.0189699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.98153466</v>
       </c>
       <c r="B18">
         <v>1.01217</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>1.0098503000000001</v>
+      </c>
+      <c r="E18">
+        <v>1.01217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.98224412999999999</v>
       </c>
       <c r="B19">
         <v>1.00563</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1.0093961</v>
+      </c>
+      <c r="E19">
+        <v>1.00563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.98255320000000002</v>
       </c>
       <c r="B20">
         <v>1.0074000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>1.0074236000000001</v>
+      </c>
+      <c r="E20">
+        <v>1.0074000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98284079999999996</v>
       </c>
       <c r="B21">
         <v>0.986344</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>1.0071003000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.986344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98285610000000001</v>
       </c>
       <c r="B22">
         <v>0.99212199999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1.0018418</v>
+      </c>
+      <c r="E22">
+        <v>0.99212199999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98284786999999996</v>
       </c>
       <c r="B23">
         <v>0.96717900000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>1.0000686999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.96717900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98268955999999996</v>
       </c>
       <c r="B24">
         <v>0.96440700000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0.99629829999999997</v>
+      </c>
+      <c r="E24">
+        <v>0.96440700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98256449999999995</v>
       </c>
       <c r="B25">
         <v>0.98258900000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0.99569960000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.98258900000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98294619999999999</v>
       </c>
       <c r="B26">
         <v>0.97371399999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0.99592060000000004</v>
+      </c>
+      <c r="E26">
+        <v>0.97371399999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98345654999999998</v>
       </c>
       <c r="B27">
         <v>0.993367</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0.99568109999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.993367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98399853999999998</v>
       </c>
       <c r="B28">
         <v>0.98848000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>0.99604093999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.98848000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98438859999999995</v>
       </c>
       <c r="B29">
         <v>1.0063200000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>0.99712639999999997</v>
+      </c>
+      <c r="E29">
+        <v>1.0063200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98442929999999995</v>
       </c>
       <c r="B30">
         <v>0.999081</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>0.99587559999999997</v>
+      </c>
+      <c r="E30">
+        <v>0.999081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98425054999999995</v>
       </c>
       <c r="B31">
         <v>1.0124</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>0.99792623999999996</v>
+      </c>
+      <c r="E31">
+        <v>1.0124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98417069999999995</v>
       </c>
       <c r="B32">
         <v>1.00979</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>0.998803</v>
+      </c>
+      <c r="E32">
+        <v>1.00979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98401810000000001</v>
       </c>
       <c r="B33">
         <v>1.0006600000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1.0018061</v>
+      </c>
+      <c r="E33">
+        <v>1.0006600000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98382769999999997</v>
       </c>
       <c r="B34">
         <v>0.97912399999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1.0027961999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.97912399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98361200000000004</v>
       </c>
       <c r="B35">
         <v>0.97565800000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>0.99963873999999997</v>
+      </c>
+      <c r="E35">
+        <v>0.97565800000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98328775000000002</v>
       </c>
       <c r="B36">
         <v>0.97910200000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>0.99713814000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.97910200000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98314743999999998</v>
       </c>
       <c r="B37">
         <v>0.99693799999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>0.99731979999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.99693799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98334580000000005</v>
       </c>
       <c r="B38">
         <v>0.98396099999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>0.99791589999999997</v>
+      </c>
+      <c r="E38">
+        <v>0.98396099999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98371410000000004</v>
       </c>
       <c r="B39">
         <v>0.97816199999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>0.9979671</v>
+      </c>
+      <c r="E39">
+        <v>0.97816199999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98371017000000005</v>
       </c>
       <c r="B40">
         <v>0.98330300000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>0.99636749999999996</v>
+      </c>
+      <c r="E40">
+        <v>0.98330300000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98339765999999995</v>
       </c>
       <c r="B41">
         <v>0.99296300000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>0.99614800000000003</v>
+      </c>
+      <c r="E41">
+        <v>0.99296300000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98303289999999999</v>
       </c>
       <c r="B42">
         <v>0.98992999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>0.99573283999999995</v>
+      </c>
+      <c r="E42">
+        <v>0.98992999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98286753999999998</v>
       </c>
       <c r="B43">
         <v>0.993869</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>0.99730395999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.993869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98300432999999998</v>
       </c>
       <c r="B44">
         <v>1.0004299999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>0.99857569999999996</v>
+      </c>
+      <c r="E44">
+        <v>1.0004299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.9832651</v>
       </c>
       <c r="B45">
         <v>1.00813</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>0.99952209999999997</v>
+      </c>
+      <c r="E45">
+        <v>1.00813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98372643999999998</v>
       </c>
       <c r="B46">
         <v>1.00132</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>1.0032458</v>
+      </c>
+      <c r="E46">
+        <v>1.00132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98432560000000002</v>
       </c>
       <c r="B47">
         <v>1.00373</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1.0046062</v>
+      </c>
+      <c r="E47">
+        <v>1.00373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98475860000000004</v>
       </c>
       <c r="B48">
         <v>1.01136</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>1.0046234999999999</v>
+      </c>
+      <c r="E48">
+        <v>1.01136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.98492480000000004</v>
       </c>
       <c r="B49">
         <v>1.0102</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>1.0051981999999999</v>
+      </c>
+      <c r="E49">
+        <v>1.0102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98489547</v>
       </c>
       <c r="B50">
         <v>0.99335899999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1.0062120000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.99335899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98475820000000003</v>
       </c>
       <c r="B51">
         <v>1.00695</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>1.003323</v>
+      </c>
+      <c r="E51">
+        <v>1.00695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98481363</v>
       </c>
       <c r="B52">
         <v>1.00475</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>1.0032656</v>
+      </c>
+      <c r="E52">
+        <v>1.00475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.9850875</v>
       </c>
       <c r="B53">
         <v>1.0123</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>1.0045909</v>
+      </c>
+      <c r="E53">
+        <v>1.0123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98536449999999998</v>
       </c>
       <c r="B54">
         <v>1.0158100000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>1.0054755</v>
+      </c>
+      <c r="E54">
+        <v>1.0158100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98559750000000002</v>
       </c>
       <c r="B55">
         <v>1.01918</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>1.0069615000000001</v>
+      </c>
+      <c r="E55">
+        <v>1.01918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.9857051</v>
       </c>
       <c r="B56">
         <v>1.01298</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>1.0092346999999999</v>
+      </c>
+      <c r="E56">
+        <v>1.01298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.98565130000000001</v>
       </c>
       <c r="B57">
         <v>1.01711</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>1.0093846</v>
+      </c>
+      <c r="E57">
+        <v>1.01711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98549973999999996</v>
       </c>
       <c r="B58">
         <v>1.0115099999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>1.0083408</v>
+      </c>
+      <c r="E58">
+        <v>1.0115099999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98522779999999999</v>
       </c>
       <c r="B59">
         <v>0.99642200000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>1.0072867000000001</v>
+      </c>
+      <c r="E59">
+        <v>0.99642200000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.98444646999999996</v>
       </c>
       <c r="B60">
         <v>1.0125299999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>1.0031717</v>
+      </c>
+      <c r="E60">
+        <v>1.0125299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98378679999999996</v>
       </c>
       <c r="B61">
         <v>1.01692</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>1.0031760000000001</v>
+      </c>
+      <c r="E61">
+        <v>1.01692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98387910000000001</v>
       </c>
       <c r="B62">
         <v>0.99921499999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>1.0067761</v>
+      </c>
+      <c r="E62">
+        <v>0.99921499999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98397403999999999</v>
       </c>
       <c r="B63">
         <v>0.99263100000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>1.0051589000000001</v>
+      </c>
+      <c r="E63">
+        <v>0.99263100000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98311510000000002</v>
       </c>
       <c r="B64">
         <v>0.99818300000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>1.0012169</v>
+      </c>
+      <c r="E64">
+        <v>0.99818300000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98196923999999997</v>
       </c>
       <c r="B65">
         <v>1.0180499999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>0.99985725000000003</v>
+      </c>
+      <c r="E65">
+        <v>1.0180499999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98182570000000002</v>
       </c>
       <c r="B66">
         <v>1.01044</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>1.0018648999999999</v>
+      </c>
+      <c r="E66">
+        <v>1.01044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98213433999999999</v>
       </c>
       <c r="B67">
         <v>1.0060500000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>1.0048338999999999</v>
+      </c>
+      <c r="E67">
+        <v>1.0060500000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.9820468</v>
       </c>
       <c r="B68">
         <v>1.00559</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>1.0042519999999999</v>
+      </c>
+      <c r="E68">
+        <v>1.00559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98158659999999998</v>
       </c>
       <c r="B69">
         <v>1.02159</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>1.0045831000000001</v>
+      </c>
+      <c r="E69">
+        <v>1.02159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98121685000000003</v>
       </c>
       <c r="B70">
         <v>1.02274</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>1.0062306000000001</v>
+      </c>
+      <c r="E70">
+        <v>1.02274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98107100000000003</v>
       </c>
       <c r="B71">
         <v>1.02732</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>1.0093485</v>
+      </c>
+      <c r="E71">
+        <v>1.02732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.98125476</v>
       </c>
       <c r="B72">
         <v>1.0263500000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>1.0114216</v>
+      </c>
+      <c r="E72">
+        <v>1.0263500000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98163986000000003</v>
       </c>
       <c r="B73">
         <v>1.02495</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>1.0124476</v>
+      </c>
+      <c r="E73">
+        <v>1.02495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98200410000000005</v>
       </c>
       <c r="B74">
         <v>1.0284599999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>1.0127303999999999</v>
+      </c>
+      <c r="E74">
+        <v>1.0284599999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98241100000000003</v>
       </c>
       <c r="B75">
         <v>1.0250999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>1.0130060000000001</v>
+      </c>
+      <c r="E75">
+        <v>1.0250999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98286790000000002</v>
       </c>
       <c r="B76">
         <v>1.0096400000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>1.0137400999999999</v>
+      </c>
+      <c r="E76">
+        <v>1.0096400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98338102999999999</v>
       </c>
       <c r="B77">
         <v>1.0232699999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>1.0110923999999999</v>
+      </c>
+      <c r="E77">
+        <v>1.0232699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98389950000000004</v>
       </c>
       <c r="B78">
         <v>1.0213699999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>1.0102321000000001</v>
+      </c>
+      <c r="E78">
+        <v>1.0213699999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98431873000000003</v>
       </c>
       <c r="B79">
         <v>1.01189</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>1.0108284999999999</v>
+      </c>
+      <c r="E79">
+        <v>1.01189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98454370000000002</v>
       </c>
       <c r="B80">
         <v>1.0149600000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>1.0096206999999999</v>
+      </c>
+      <c r="E80">
+        <v>1.0149600000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98472499999999996</v>
       </c>
       <c r="B81">
         <v>1.01346</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>1.0090371</v>
+      </c>
+      <c r="E81">
+        <v>1.01346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.9847243</v>
       </c>
       <c r="B82">
         <v>1.0166200000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>1.0080294999999999</v>
+      </c>
+      <c r="E82">
+        <v>1.0166200000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98449500000000001</v>
       </c>
       <c r="B83">
         <v>1.00373</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>1.0084740999999999</v>
+      </c>
+      <c r="E83">
+        <v>1.00373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98391819999999997</v>
       </c>
       <c r="B84">
         <v>1.0016</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>1.0062005999999999</v>
+      </c>
+      <c r="E84">
+        <v>1.0016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98308605000000004</v>
       </c>
       <c r="B85">
         <v>0.99201600000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>1.0043483</v>
+      </c>
+      <c r="E85">
+        <v>0.99201600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.98196300000000003</v>
       </c>
       <c r="B86">
         <v>0.99263100000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>1.0029916999999999</v>
+      </c>
+      <c r="E86">
+        <v>0.99263100000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98071059999999999</v>
       </c>
       <c r="B87">
         <v>1.0103500000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>1.0021272000000001</v>
+      </c>
+      <c r="E87">
+        <v>1.0103500000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98030229999999996</v>
       </c>
       <c r="B88">
         <v>1.0129300000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>1.0022715</v>
+      </c>
+      <c r="E88">
+        <v>1.0129300000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98065959999999996</v>
       </c>
       <c r="B89">
         <v>1.0024999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>1.0051975</v>
+      </c>
+      <c r="E89">
+        <v>1.0024999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98071193999999995</v>
       </c>
       <c r="B90">
         <v>0.99565800000000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>1.0054885</v>
+      </c>
+      <c r="E90">
+        <v>0.99565800000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.97984766999999995</v>
       </c>
       <c r="B91">
         <v>1.0040500000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>1.0032341</v>
+      </c>
+      <c r="E91">
+        <v>1.0040500000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.97908704999999996</v>
       </c>
       <c r="B92">
         <v>1.00698</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>1.0030384000000001</v>
+      </c>
+      <c r="E92">
+        <v>1.00698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.97884300000000002</v>
       </c>
       <c r="B93">
         <v>1.02169</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>1.0038347999999999</v>
+      </c>
+      <c r="E93">
+        <v>1.02169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.97900039999999999</v>
       </c>
       <c r="B94">
         <v>1.01373</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>1.0058085999999999</v>
+      </c>
+      <c r="E94">
+        <v>1.01373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97906053000000004</v>
       </c>
       <c r="B95">
         <v>1.0228299999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>1.0073194999999999</v>
+      </c>
+      <c r="E95">
+        <v>1.0228299999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97900719999999997</v>
       </c>
       <c r="B96">
         <v>1.0237799999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>1.008939</v>
+      </c>
+      <c r="E96">
+        <v>1.0237799999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97931109999999999</v>
       </c>
       <c r="B97">
         <v>1.01274</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>1.0108969000000001</v>
+      </c>
+      <c r="E97">
+        <v>1.01274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97974159999999999</v>
       </c>
       <c r="B98">
         <v>1.0083</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>1.0104582</v>
+      </c>
+      <c r="E98">
+        <v>1.0083</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97993330000000001</v>
       </c>
       <c r="B99">
         <v>1.0077199999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>1.0094835</v>
+      </c>
+      <c r="E99">
+        <v>1.0077199999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97969764000000004</v>
       </c>
       <c r="B100">
         <v>0.97671200000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>1.0077176000000001</v>
+      </c>
+      <c r="E100">
+        <v>0.97671200000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97793596999999999</v>
       </c>
       <c r="B101">
         <v>0.98058000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>1.0017681000000001</v>
+      </c>
+      <c r="E101">
+        <v>0.98058000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97617259999999995</v>
       </c>
       <c r="B102">
         <v>0.99070000000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>0.99923360000000006</v>
+      </c>
+      <c r="E102">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97623150000000003</v>
       </c>
       <c r="B103">
         <v>0.99024800000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>0.99961310000000003</v>
+      </c>
+      <c r="E103">
+        <v>0.99024800000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97707679999999997</v>
       </c>
       <c r="B104">
         <v>0.98457600000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>1.0012521999999999</v>
+      </c>
+      <c r="E104">
+        <v>0.98457600000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97745514</v>
       </c>
       <c r="B105">
         <v>0.99347300000000005</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>1.0008965000000001</v>
+      </c>
+      <c r="E105">
+        <v>0.99347300000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97696110000000003</v>
       </c>
       <c r="B106">
         <v>0.96896099999999996</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>0.99828539999999999</v>
+      </c>
+      <c r="E106">
+        <v>0.96896099999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97576605999999999</v>
       </c>
       <c r="B107">
         <v>0.97223599999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>0.99607979999999996</v>
+      </c>
+      <c r="E107">
+        <v>0.97223599999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97488629999999998</v>
       </c>
       <c r="B108">
         <v>0.99013499999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>0.99555737</v>
+      </c>
+      <c r="E108">
+        <v>0.99013499999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97477650000000005</v>
       </c>
       <c r="B109">
         <v>1.0063899999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>0.99607056000000005</v>
+      </c>
+      <c r="E109">
+        <v>1.0063899999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97557044000000004</v>
       </c>
       <c r="B110">
         <v>1.0129999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>0.99858829999999998</v>
+      </c>
+      <c r="E110">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97673255000000003</v>
       </c>
       <c r="B111">
         <v>1.0119</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>1.0024082999999999</v>
+      </c>
+      <c r="E111">
+        <v>1.0119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97761030000000004</v>
       </c>
       <c r="B112">
         <v>1.0238499999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>1.0052121999999999</v>
+      </c>
+      <c r="E112">
+        <v>1.0238499999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97834580000000004</v>
       </c>
       <c r="B113">
         <v>1.0255099999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>1.0072296000000001</v>
+      </c>
+      <c r="E113">
+        <v>1.0255099999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97910260000000005</v>
       </c>
       <c r="B114">
         <v>1.02667</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>1.0091821999999999</v>
+      </c>
+      <c r="E114">
+        <v>1.02667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97996780000000006</v>
       </c>
       <c r="B115">
         <v>1.0202500000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>1.0104455999999999</v>
+      </c>
+      <c r="E115">
+        <v>1.0202500000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.9808017</v>
       </c>
       <c r="B116">
         <v>1.01668</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <v>1.0106212999999999</v>
+      </c>
+      <c r="E116">
+        <v>1.01668</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.98146533999999996</v>
       </c>
       <c r="B117">
         <v>1.0081899999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>1.0106436999999999</v>
+      </c>
+      <c r="E117">
+        <v>1.0081899999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.98195619999999995</v>
       </c>
       <c r="B118">
         <v>0.99227699999999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>1.0098007</v>
+      </c>
+      <c r="E118">
+        <v>0.99227699999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.98239124</v>
       </c>
       <c r="B119">
         <v>0.98378399999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <v>1.0074715999999999</v>
+      </c>
+      <c r="E119">
+        <v>0.98378399999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9825874</v>
       </c>
       <c r="B120">
         <v>1.0019</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <v>1.0058222000000001</v>
+      </c>
+      <c r="E120">
+        <v>1.0019</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98263029999999996</v>
       </c>
       <c r="B121">
         <v>1.0127299999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <v>1.0046451999999999</v>
+      </c>
+      <c r="E121">
+        <v>1.0127299999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98298450000000004</v>
       </c>
       <c r="B122">
         <v>1.0127699999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <v>1.0058336000000001</v>
+      </c>
+      <c r="E122">
+        <v>1.0127699999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98353460000000004</v>
       </c>
       <c r="B123">
         <v>1.0093799999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <v>1.0070682</v>
+      </c>
+      <c r="E123">
+        <v>1.0093799999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.98405050000000005</v>
       </c>
       <c r="B124">
         <v>1.00528</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <v>1.0080625000000001</v>
+      </c>
+      <c r="E124">
+        <v>1.00528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98429626000000003</v>
       </c>
       <c r="B125">
         <v>1.0019400000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <v>1.0073873</v>
+      </c>
+      <c r="E125">
+        <v>1.0019400000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98426913999999999</v>
       </c>
       <c r="B126">
         <v>1.0065599999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <v>1.0068755</v>
+      </c>
+      <c r="E126">
+        <v>1.0065599999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98429429999999996</v>
       </c>
       <c r="B127">
         <v>0.99504300000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <v>1.0068713</v>
+      </c>
+      <c r="E127">
+        <v>0.99504300000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98417840000000001</v>
       </c>
       <c r="B128">
         <v>0.99080599999999996</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <v>1.0048275</v>
+      </c>
+      <c r="E128">
+        <v>0.99080599999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98372369999999998</v>
       </c>
       <c r="B129">
         <v>1.00962</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <v>1.0035103999999999</v>
+      </c>
+      <c r="E129">
+        <v>1.00962</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98357570000000005</v>
       </c>
       <c r="B130">
         <v>0.99540300000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <v>1.0042728999999999</v>
+      </c>
+      <c r="E130">
+        <v>0.99540300000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98368542999999997</v>
       </c>
       <c r="B131">
         <v>0.99680299999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <v>1.0038765999999999</v>
+      </c>
+      <c r="E131">
+        <v>0.99680299999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98327949999999997</v>
       </c>
       <c r="B132">
         <v>0.99492199999999997</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <v>1.0009638999999999</v>
+      </c>
+      <c r="E132">
+        <v>0.99492199999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98277073999999998</v>
       </c>
       <c r="B133">
         <v>1.0006900000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <v>1.0020761</v>
+      </c>
+      <c r="E133">
+        <v>1.0006900000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98254269999999999</v>
       </c>
       <c r="B134">
         <v>1.0083899999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <v>1.0039431000000001</v>
+      </c>
+      <c r="E134">
+        <v>1.0083899999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98247397000000003</v>
       </c>
       <c r="B135">
         <v>1.0044900000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>1.0049872</v>
+      </c>
+      <c r="E135">
+        <v>1.0044900000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98264300000000004</v>
       </c>
       <c r="B136">
         <v>0.99224900000000005</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <v>1.0070748</v>
+      </c>
+      <c r="E136">
+        <v>0.99224900000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98228073000000005</v>
       </c>
       <c r="B137">
         <v>0.96121800000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>1.0046625</v>
+      </c>
+      <c r="E137">
+        <v>0.96121800000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.97903110000000004</v>
       </c>
       <c r="B138">
         <v>0.91536300000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>0.99717409999999995</v>
+      </c>
+      <c r="E138">
+        <v>0.91536300000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.97004630000000003</v>
       </c>
       <c r="B139">
         <v>0.86042799999999997</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>0.98718773999999998</v>
+      </c>
+      <c r="E139">
+        <v>0.86042799999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.9547544</v>
       </c>
       <c r="B140">
         <v>0.84232399999999996</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>0.97483969999999998</v>
+      </c>
+      <c r="E140">
+        <v>0.84232399999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.93693346</v>
       </c>
       <c r="B141">
         <v>0.89387899999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>0.96812819999999999</v>
+      </c>
+      <c r="E141">
+        <v>0.89387899999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.92407969999999995</v>
       </c>
       <c r="B142">
         <v>0.92722300000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>0.96590259999999994</v>
+      </c>
+      <c r="E142">
+        <v>0.92722300000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.92545204999999997</v>
       </c>
       <c r="B143">
         <v>0.92807799999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>0.96841149999999998</v>
+      </c>
+      <c r="E143">
+        <v>0.92807799999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.933639</v>
       </c>
       <c r="B144">
         <v>0.91627499999999995</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>0.97421663999999997</v>
+      </c>
+      <c r="E144">
+        <v>0.91627499999999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93672144000000002</v>
       </c>
       <c r="B145">
         <v>0.87502500000000005</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>0.97727489999999995</v>
+      </c>
+      <c r="E145">
+        <v>0.87502500000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92697589999999996</v>
       </c>
       <c r="B146">
         <v>0.89978400000000003</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <v>0.97199254999999996</v>
+      </c>
+      <c r="E146">
+        <v>0.89978400000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.91321622999999996</v>
       </c>
       <c r="B147">
         <v>0.901389</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <v>0.97011035999999995</v>
+      </c>
+      <c r="E147">
+        <v>0.901389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.90451545</v>
       </c>
       <c r="B148">
         <v>0.88023700000000005</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <v>0.97098799999999996</v>
+      </c>
+      <c r="E148">
+        <v>0.88023700000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.89857799999999999</v>
       </c>
       <c r="B149">
         <v>0.91431600000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>0.97022819999999999</v>
+      </c>
+      <c r="E149">
+        <v>0.91431600000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.90034729999999996</v>
       </c>
       <c r="B150">
         <v>0.89496100000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <v>0.96926003999999999</v>
+      </c>
+      <c r="E150">
+        <v>0.89496100000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.90802103000000001</v>
       </c>
       <c r="B151">
         <v>0.90220900000000004</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>0.96871626</v>
+      </c>
+      <c r="E151">
+        <v>0.90220900000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.91741079999999997</v>
       </c>
       <c r="B152">
         <v>0.90840399999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <v>0.97080469999999996</v>
+      </c>
+      <c r="E152">
+        <v>0.90840399999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.92375510000000005</v>
       </c>
       <c r="B153">
         <v>0.90273300000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>0.97403395000000004</v>
+      </c>
+      <c r="E153">
+        <v>0.90273300000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.92515199999999997</v>
       </c>
       <c r="B154">
         <v>0.92045500000000002</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <v>0.97706305999999998</v>
+      </c>
+      <c r="E154">
+        <v>0.92045500000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.92614399999999997</v>
       </c>
       <c r="B155">
         <v>0.93263300000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <v>0.97902613999999999</v>
+      </c>
+      <c r="E155">
+        <v>0.93263300000000005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.93095874999999995</v>
       </c>
       <c r="B156">
         <v>0.92901900000000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <v>0.98258250000000003</v>
+      </c>
+      <c r="E156">
+        <v>0.92901900000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.93712969999999995</v>
       </c>
       <c r="B157">
         <v>0.90626899999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>0.98410295999999997</v>
+      </c>
+      <c r="E157">
+        <v>0.90626899999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.93991696999999996</v>
       </c>
       <c r="B158">
         <v>0.91259100000000004</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <v>0.98120160000000001</v>
+      </c>
+      <c r="E158">
+        <v>0.91259100000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.94084129999999999</v>
       </c>
       <c r="B159">
         <v>0.89545600000000003</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <v>0.98180044</v>
+      </c>
+      <c r="E159">
+        <v>0.89545600000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.94026430000000005</v>
       </c>
       <c r="B160">
         <v>0.89264100000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <v>0.97916435999999996</v>
+      </c>
+      <c r="E160">
+        <v>0.89264100000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.94110380000000005</v>
       </c>
       <c r="B161">
         <v>0.88802999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <v>0.97845994999999997</v>
+      </c>
+      <c r="E161">
+        <v>0.88802999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.94173353999999998</v>
       </c>
       <c r="B162">
         <v>0.88739400000000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <v>0.97599100000000005</v>
+      </c>
+      <c r="E162">
+        <v>0.88739400000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94368196000000004</v>
       </c>
       <c r="B163">
         <v>0.85233800000000004</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <v>0.97455800000000004</v>
+      </c>
+      <c r="E163">
+        <v>0.85233800000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94127249999999996</v>
       </c>
       <c r="B164">
         <v>0.85397900000000004</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <v>0.96884625999999996</v>
+      </c>
+      <c r="E164">
+        <v>0.85397900000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.93782215999999996</v>
       </c>
       <c r="B165">
         <v>0.87939500000000004</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <v>0.96602940000000004</v>
+      </c>
+      <c r="E165">
+        <v>0.87939500000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.93808895000000003</v>
       </c>
       <c r="B166">
         <v>0.88207500000000005</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <v>0.96568319999999996</v>
+      </c>
+      <c r="E166">
+        <v>0.88207500000000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.93920802999999997</v>
       </c>
       <c r="B167">
         <v>0.90155200000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <v>0.96753049999999996</v>
+      </c>
+      <c r="E167">
+        <v>0.90155200000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.93959300000000001</v>
       </c>
       <c r="B168">
         <v>0.92679100000000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <v>0.96652322999999996</v>
+      </c>
+      <c r="E168">
+        <v>0.92679100000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.94315260000000001</v>
       </c>
       <c r="B169">
         <v>0.92174900000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>0.96961343</v>
+      </c>
+      <c r="E169">
+        <v>0.92174900000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.94766163999999997</v>
       </c>
       <c r="B170">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>0.97487219999999997</v>
+      </c>
+      <c r="E170">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.95133719999999999</v>
       </c>
       <c r="B171">
         <v>0.94544700000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <v>0.97879039999999995</v>
+      </c>
+      <c r="E171">
+        <v>0.94544700000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.95438230000000002</v>
       </c>
       <c r="B172">
         <v>0.94647999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <v>0.98166525000000004</v>
+      </c>
+      <c r="E172">
+        <v>0.94647999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.95731500000000003</v>
       </c>
       <c r="B173">
         <v>0.94829699999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <v>0.98540676000000005</v>
+      </c>
+      <c r="E173">
+        <v>0.94829699999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.95968229999999999</v>
       </c>
       <c r="B174">
         <v>0.93855900000000003</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <v>0.98887800000000003</v>
+      </c>
+      <c r="E174">
+        <v>0.93855900000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.96201610000000004</v>
       </c>
       <c r="B175">
         <v>0.93187600000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <v>0.98966544999999995</v>
+      </c>
+      <c r="E175">
+        <v>0.93187600000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.96395209999999998</v>
       </c>
       <c r="B176">
         <v>0.95282299999999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <v>0.98980992999999995</v>
+      </c>
+      <c r="E176">
+        <v>0.95282299999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.96586989999999995</v>
       </c>
       <c r="B177">
         <v>0.95936500000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <v>0.98986180000000001</v>
+      </c>
+      <c r="E177">
+        <v>0.95936500000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.96764075999999999</v>
       </c>
       <c r="B178">
         <v>0.959754</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <v>0.99242854000000003</v>
+      </c>
+      <c r="E178">
+        <v>0.959754</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96969530000000004</v>
       </c>
       <c r="B179">
         <v>0.95770999999999995</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <v>0.99510319999999997</v>
+      </c>
+      <c r="E179">
+        <v>0.95770999999999995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.97170460000000003</v>
       </c>
       <c r="B180">
         <v>0.94934399999999997</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <v>0.99713819999999997</v>
+      </c>
+      <c r="E180">
+        <v>0.94934399999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.97299707000000002</v>
       </c>
       <c r="B181">
         <v>0.97308399999999995</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <v>0.99731590000000003</v>
+      </c>
+      <c r="E181">
+        <v>0.97308399999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.97433950000000003</v>
       </c>
       <c r="B182">
         <v>0.98909499999999995</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <v>0.99716382999999997</v>
+      </c>
+      <c r="E182">
+        <v>0.98909499999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.97554255000000001</v>
       </c>
       <c r="B183">
         <v>0.98628800000000005</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <v>0.99980469999999999</v>
+      </c>
+      <c r="E183">
+        <v>0.98628800000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97656359999999998</v>
       </c>
       <c r="B184">
         <v>0.98254600000000003</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <v>1.0032274999999999</v>
+      </c>
+      <c r="E184">
+        <v>0.98254600000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97792214</v>
       </c>
       <c r="B185">
         <v>0.99984399999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <v>1.0041758999999999</v>
+      </c>
+      <c r="E185">
+        <v>0.99984399999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.9793828</v>
       </c>
       <c r="B186">
         <v>0.99917999999999996</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <v>1.0038609999999999</v>
+      </c>
+      <c r="E186">
+        <v>0.99917999999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.98040729999999998</v>
       </c>
       <c r="B187">
         <v>0.99207199999999995</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <v>1.0054479999999999</v>
+      </c>
+      <c r="E187">
+        <v>0.99207199999999995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.98111605999999996</v>
       </c>
       <c r="B188">
         <v>1.00953</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <v>1.0059613000000001</v>
+      </c>
+      <c r="E188">
+        <v>1.00953</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.98187243999999996</v>
       </c>
       <c r="B189">
         <v>1.01359</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <v>1.0061218999999999</v>
+      </c>
+      <c r="E189">
+        <v>1.01359</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.98256403000000003</v>
       </c>
       <c r="B190">
         <v>1.0083</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <v>1.0070405</v>
+      </c>
+      <c r="E190">
+        <v>1.0083</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98312259999999996</v>
       </c>
       <c r="B191">
         <v>1.0066200000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <v>1.0078009999999999</v>
+      </c>
+      <c r="E191">
+        <v>1.0066200000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98375254999999995</v>
       </c>
       <c r="B192">
         <v>1.0061</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <v>1.0079777000000001</v>
+      </c>
+      <c r="E192">
+        <v>1.0061</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98449209999999998</v>
       </c>
       <c r="B193">
         <v>0.99152099999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <v>1.0076603</v>
+      </c>
+      <c r="E193">
+        <v>0.99152099999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98514500000000005</v>
       </c>
       <c r="B194">
         <v>0.99374099999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <v>1.005727</v>
+      </c>
+      <c r="E194">
+        <v>0.99374099999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98565453000000003</v>
       </c>
       <c r="B195">
         <v>0.98898900000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <v>1.0049939000000001</v>
+      </c>
+      <c r="E195">
+        <v>0.98898900000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98607814000000005</v>
       </c>
       <c r="B196">
         <v>0.96845899999999996</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <v>1.0045028</v>
+      </c>
+      <c r="E196">
+        <v>0.96845899999999996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98608105999999995</v>
       </c>
       <c r="B197">
         <v>0.95224299999999995</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <v>1.0000606000000001</v>
+      </c>
+      <c r="E197">
+        <v>0.95224299999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98535790000000001</v>
       </c>
       <c r="B198">
         <v>0.97356500000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <v>0.99504285999999997</v>
+      </c>
+      <c r="E198">
+        <v>0.97356500000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98483220000000005</v>
       </c>
       <c r="B199">
         <v>0.97162000000000004</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <v>0.99224970000000001</v>
+      </c>
+      <c r="E199">
+        <v>0.97162000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98502339999999999</v>
       </c>
       <c r="B200">
         <v>0.99505699999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <v>0.99213445</v>
+      </c>
+      <c r="E200">
+        <v>0.99505699999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98543809999999998</v>
       </c>
       <c r="B201">
         <v>0.99340200000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <v>0.99245240000000001</v>
+      </c>
+      <c r="E201">
+        <v>0.99340200000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98574779999999995</v>
       </c>
       <c r="B202">
         <v>0.99900999999999995</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <v>0.99500750000000004</v>
+      </c>
+      <c r="E202">
+        <v>0.99900999999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98582709999999996</v>
       </c>
       <c r="B203">
         <v>0.99718499999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <v>0.99631219999999998</v>
+      </c>
+      <c r="E203">
+        <v>0.99718499999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98575102999999997</v>
       </c>
       <c r="B204">
         <v>0.99898900000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <v>0.99698125999999998</v>
+      </c>
+      <c r="E204">
+        <v>0.99898900000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98565930000000002</v>
       </c>
       <c r="B205">
         <v>0.99879799999999996</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <v>0.99603766000000005</v>
+      </c>
+      <c r="E205">
+        <v>0.99879799999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98564845000000001</v>
       </c>
       <c r="B206">
         <v>0.99967499999999998</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <v>0.99739783999999998</v>
+      </c>
+      <c r="E206">
+        <v>0.99967499999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98571235000000001</v>
       </c>
       <c r="B207">
         <v>0.992815</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <v>0.99915606000000001</v>
+      </c>
+      <c r="E207">
+        <v>0.992815</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98587716000000003</v>
       </c>
       <c r="B208">
         <v>1.0085299999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <v>0.99802080000000004</v>
+      </c>
+      <c r="E208">
+        <v>1.0085299999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98601127</v>
       </c>
       <c r="B209">
         <v>0.992178</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <v>0.99727315000000005</v>
+      </c>
+      <c r="E209">
+        <v>0.992178</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98605670000000001</v>
       </c>
       <c r="B210">
         <v>0.97104000000000001</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <v>0.9956062</v>
+      </c>
+      <c r="E210">
+        <v>0.97104000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98566529999999997</v>
       </c>
       <c r="B211">
         <v>1.0007900000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <v>0.99051710000000004</v>
+      </c>
+      <c r="E211">
+        <v>1.0007900000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98518830000000002</v>
       </c>
       <c r="B212">
         <v>0.99045300000000003</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <v>0.98808609999999997</v>
+      </c>
+      <c r="E212">
+        <v>0.99045300000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98497619999999997</v>
       </c>
       <c r="B213">
         <v>0.98092000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <v>0.9882457</v>
+      </c>
+      <c r="E213">
+        <v>0.98092000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98432993999999996</v>
       </c>
       <c r="B214">
         <v>0.96962599999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <v>0.9857842</v>
+      </c>
+      <c r="E214">
+        <v>0.96962599999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98297506999999995</v>
       </c>
       <c r="B215">
         <v>0.97288600000000003</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <v>0.98106720000000003</v>
+      </c>
+      <c r="E215">
+        <v>0.97288600000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98185619999999996</v>
       </c>
       <c r="B216">
         <v>0.94469700000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <v>0.98061156000000005</v>
+      </c>
+      <c r="E216">
+        <v>0.94469700000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.97993699999999995</v>
       </c>
       <c r="B217">
         <v>0.95146500000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <v>0.97661299999999995</v>
+      </c>
+      <c r="E217">
+        <v>0.95146500000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.97773109999999996</v>
       </c>
       <c r="B218">
         <v>0.96664899999999998</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <v>0.97414564999999997</v>
+      </c>
+      <c r="E218">
+        <v>0.96664899999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.97719294000000001</v>
       </c>
       <c r="B219">
         <v>0.98762399999999995</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <v>0.97493284999999996</v>
+      </c>
+      <c r="E219">
+        <v>0.98762399999999995</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.97773339999999997</v>
       </c>
       <c r="B220">
         <v>0.96557400000000004</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <v>0.97720019999999996</v>
+      </c>
+      <c r="E220">
+        <v>0.96557400000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97787120000000005</v>
       </c>
       <c r="B221">
         <v>0.93987399999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <v>0.97795299999999996</v>
+      </c>
+      <c r="E221">
+        <v>0.93987399999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.9758656</v>
       </c>
       <c r="B222">
         <v>0.95090699999999995</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <v>0.97349980000000003</v>
+      </c>
+      <c r="E222">
+        <v>0.95090699999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97317940000000003</v>
       </c>
       <c r="B223">
         <v>0.96350899999999995</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <v>0.97353405000000004</v>
+      </c>
+      <c r="E223">
+        <v>0.96350899999999995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97173726999999999</v>
       </c>
       <c r="B224">
         <v>0.98141500000000004</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <v>0.97583319999999996</v>
+      </c>
+      <c r="E224">
+        <v>0.98141500000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.9718755</v>
       </c>
       <c r="B225">
         <v>0.97908099999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <v>0.97921029999999998</v>
+      </c>
+      <c r="E225">
+        <v>0.97908099999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.97275659999999997</v>
       </c>
       <c r="B226">
         <v>0.97590600000000005</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <v>0.98478929999999998</v>
+      </c>
+      <c r="E226">
+        <v>0.97590600000000005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97297889999999998</v>
       </c>
       <c r="B227">
         <v>0.99136500000000005</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <v>0.98681870000000005</v>
+      </c>
+      <c r="E227">
+        <v>0.99136500000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97284649999999995</v>
       </c>
       <c r="B228">
         <v>0.98075699999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <v>0.98866549999999997</v>
+      </c>
+      <c r="E228">
+        <v>0.98075699999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.97313136</v>
       </c>
       <c r="B229">
         <v>0.96702399999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <v>0.9904655</v>
+      </c>
+      <c r="E229">
+        <v>0.96702399999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97397869999999998</v>
       </c>
       <c r="B230">
         <v>0.94490300000000005</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <v>0.99020856999999995</v>
+      </c>
+      <c r="E230">
+        <v>0.94490300000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97337216000000004</v>
       </c>
       <c r="B231">
         <v>0.94776700000000003</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <v>0.98327284999999998</v>
+      </c>
+      <c r="E231">
+        <v>0.94776700000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.9720879</v>
       </c>
       <c r="B232">
         <v>0.92906100000000003</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <v>0.98144335000000005</v>
+      </c>
+      <c r="E232">
+        <v>0.92906100000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97014034000000005</v>
       </c>
       <c r="B233">
         <v>0.89570300000000003</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <v>0.97869980000000001</v>
+      </c>
+      <c r="E233">
+        <v>0.89570300000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.96636515999999995</v>
       </c>
       <c r="B234">
         <v>0.88080999999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <v>0.97322500000000001</v>
+      </c>
+      <c r="E234">
+        <v>0.88080999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.96120554000000002</v>
       </c>
       <c r="B235">
         <v>0.881969</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <v>0.96936434999999999</v>
+      </c>
+      <c r="E235">
+        <v>0.881969</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.95493567000000001</v>
       </c>
       <c r="B236">
         <v>0.89258400000000004</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <v>0.96759130000000004</v>
+      </c>
+      <c r="E236">
+        <v>0.89258400000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.94963056000000001</v>
       </c>
       <c r="B237">
         <v>0.85835600000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <v>0.96715470000000003</v>
+      </c>
+      <c r="E237">
+        <v>0.85835600000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.94228979999999996</v>
       </c>
       <c r="B238">
         <v>0.88067499999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <v>0.96271366000000003</v>
+      </c>
+      <c r="E238">
+        <v>0.88067499999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.93428235999999998</v>
       </c>
       <c r="B239">
         <v>0.85131999999999997</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <v>0.958735</v>
+      </c>
+      <c r="E239">
+        <v>0.85131999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.92244440000000005</v>
       </c>
       <c r="B240">
         <v>0.85202699999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <v>0.95382016999999997</v>
+      </c>
+      <c r="E240">
+        <v>0.85202699999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.90962129999999997</v>
       </c>
       <c r="B241">
         <v>0.83646900000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <v>0.95234894999999997</v>
+      </c>
+      <c r="E241">
+        <v>0.83646900000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.89433295000000002</v>
       </c>
       <c r="B242">
         <v>0.84330000000000005</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <v>0.94619143000000006</v>
+      </c>
+      <c r="E242">
+        <v>0.84330000000000005</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.87948110000000002</v>
       </c>
       <c r="B243">
         <v>0.87011000000000005</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <v>0.94383229999999996</v>
+      </c>
+      <c r="E243">
+        <v>0.87011000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.86989700000000003</v>
       </c>
       <c r="B244">
         <v>0.84902100000000003</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <v>0.94472562999999998</v>
+      </c>
+      <c r="E244">
+        <v>0.84902100000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.8644366</v>
       </c>
       <c r="B245">
         <v>0.86779700000000004</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <v>0.94634600000000002</v>
+      </c>
+      <c r="E245">
+        <v>0.86779700000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.86798613999999996</v>
       </c>
       <c r="B246">
         <v>0.85317200000000004</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <v>0.94798079999999996</v>
+      </c>
+      <c r="E246">
+        <v>0.85317200000000004</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87286010000000003</v>
       </c>
       <c r="B247">
         <v>0.86053400000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <v>0.94686090000000001</v>
+      </c>
+      <c r="E247">
+        <v>0.86053400000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.87586359999999996</v>
       </c>
       <c r="B248">
         <v>0.89368800000000004</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <v>0.94701579999999996</v>
+      </c>
+      <c r="E248">
+        <v>0.89368800000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.88215639999999995</v>
       </c>
       <c r="B249">
         <v>0.89307899999999996</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <v>0.94902109999999995</v>
+      </c>
+      <c r="E249">
+        <v>0.89307899999999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.89292145000000001</v>
       </c>
       <c r="B250">
         <v>0.86737299999999995</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <v>0.95476084999999999</v>
+      </c>
+      <c r="E250">
+        <v>0.86737299999999995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.89778703000000004</v>
       </c>
       <c r="B251">
         <v>0.87409099999999995</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D251">
+        <v>0.95567210000000002</v>
+      </c>
+      <c r="E251">
+        <v>0.87409099999999995</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.89979105999999998</v>
       </c>
       <c r="B252">
         <v>0.87615600000000005</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D252">
+        <v>0.95339744999999998</v>
+      </c>
+      <c r="E252">
+        <v>0.87615600000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.90518330000000002</v>
       </c>
       <c r="B253">
         <v>0.85112200000000005</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D253">
+        <v>0.95510629999999996</v>
+      </c>
+      <c r="E253">
+        <v>0.85112200000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.9069429</v>
       </c>
       <c r="B254">
         <v>0.83230300000000002</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D254">
+        <v>0.95327689999999998</v>
+      </c>
+      <c r="E254">
+        <v>0.83230300000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.90196759999999998</v>
       </c>
       <c r="B255">
         <v>0.83143299999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D255">
+        <v>0.94652486000000002</v>
+      </c>
+      <c r="E255">
+        <v>0.83143299999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89463972999999997</v>
       </c>
       <c r="B256">
         <v>0.83118599999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D256">
+        <v>0.94262219999999997</v>
+      </c>
+      <c r="E256">
+        <v>0.83118599999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.89197749999999998</v>
       </c>
       <c r="B257">
         <v>0.81507600000000002</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <v>0.94268099999999999</v>
+      </c>
+      <c r="E257">
+        <v>0.81507600000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.88822409999999996</v>
       </c>
       <c r="B258">
         <v>0.84032300000000004</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D258">
+        <v>0.93987149999999997</v>
+      </c>
+      <c r="E258">
+        <v>0.84032300000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.89092505</v>
       </c>
       <c r="B259">
         <v>0.86210399999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D259">
+        <v>0.93995565000000003</v>
+      </c>
+      <c r="E259">
+        <v>0.86210399999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.90219819999999995</v>
       </c>
       <c r="B260">
         <v>0.88419700000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D260">
+        <v>0.94392156999999999</v>
+      </c>
+      <c r="E260">
+        <v>0.88419700000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.91393124999999997</v>
       </c>
       <c r="B261">
         <v>0.87783900000000004</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D261">
+        <v>0.94860960000000005</v>
+      </c>
+      <c r="E261">
+        <v>0.87783900000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.92070680000000005</v>
       </c>
       <c r="B262">
         <v>0.87780400000000003</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D262">
+        <v>0.95427119999999999</v>
+      </c>
+      <c r="E262">
+        <v>0.87780400000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.92520279999999999</v>
       </c>
       <c r="B263">
         <v>0.89740699999999995</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D263">
+        <v>0.95789000000000002</v>
+      </c>
+      <c r="E263">
+        <v>0.89740699999999995</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.93181879999999995</v>
       </c>
       <c r="B264">
         <v>0.88027200000000005</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D264">
+        <v>0.96059919999999999</v>
+      </c>
+      <c r="E264">
+        <v>0.88027200000000005</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.93664895999999997</v>
       </c>
       <c r="B265">
         <v>0.88630399999999998</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D265">
+        <v>0.96222209999999997</v>
+      </c>
+      <c r="E265">
+        <v>0.88630399999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.94140214</v>
       </c>
       <c r="B266">
         <v>0.90179200000000004</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D266">
+        <v>0.96105240000000003</v>
+      </c>
+      <c r="E266">
+        <v>0.90179200000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.94735837000000001</v>
       </c>
       <c r="B267">
         <v>0.89921099999999998</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D267">
+        <v>0.96314233999999999</v>
+      </c>
+      <c r="E267">
+        <v>0.89921099999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.95195174000000005</v>
       </c>
       <c r="B268">
         <v>0.88802300000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D268">
+        <v>0.96668743999999995</v>
+      </c>
+      <c r="E268">
+        <v>0.88802300000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.95576954000000003</v>
       </c>
       <c r="B269">
         <v>0.92063899999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D269">
+        <v>0.96778430000000004</v>
+      </c>
+      <c r="E269">
+        <v>0.92063899999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.96027689999999999</v>
       </c>
       <c r="B270">
         <v>0.92636700000000005</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D270">
+        <v>0.96755729999999995</v>
+      </c>
+      <c r="E270">
+        <v>0.92636700000000005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.96422905000000003</v>
       </c>
       <c r="B271">
         <v>0.93128200000000005</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D271">
+        <v>0.97137309999999999</v>
+      </c>
+      <c r="E271">
+        <v>0.93128200000000005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.96671706000000002</v>
       </c>
       <c r="B272">
         <v>0.93594200000000005</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D272">
+        <v>0.97515136000000002</v>
+      </c>
+      <c r="E272">
+        <v>0.93594200000000005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.96816409999999997</v>
       </c>
       <c r="B273">
         <v>0.93719399999999997</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D273">
+        <v>0.97720695000000002</v>
+      </c>
+      <c r="E273">
+        <v>0.93719399999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96929679999999996</v>
       </c>
       <c r="B274">
         <v>0.92128200000000005</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D274">
+        <v>0.97948650000000004</v>
+      </c>
+      <c r="E274">
+        <v>0.92128200000000005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.9700704</v>
       </c>
       <c r="B275">
         <v>0.92835400000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D275">
+        <v>0.97970325000000003</v>
+      </c>
+      <c r="E275">
+        <v>0.92835400000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.97097354999999996</v>
       </c>
       <c r="B276">
         <v>0.92857299999999998</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D276">
+        <v>0.98124045000000004</v>
+      </c>
+      <c r="E276">
+        <v>0.92857299999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.97236250000000002</v>
       </c>
       <c r="B277">
         <v>0.95164199999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D277">
+        <v>0.98034480000000002</v>
+      </c>
+      <c r="E277">
+        <v>0.95164199999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.97372190000000003</v>
       </c>
       <c r="B278">
         <v>0.94983899999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D278">
+        <v>0.98137490000000005</v>
+      </c>
+      <c r="E278">
+        <v>0.94983899999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.97404086999999995</v>
       </c>
       <c r="B279">
         <v>0.94721500000000003</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D279">
+        <v>0.98489236999999996</v>
+      </c>
+      <c r="E279">
+        <v>0.94721500000000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97437090000000004</v>
       </c>
       <c r="B280">
         <v>0.95519900000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D280">
+        <v>0.98695829999999996</v>
+      </c>
+      <c r="E280">
+        <v>0.95519900000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97535263999999999</v>
       </c>
       <c r="B281">
         <v>0.96465400000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D281">
+        <v>0.98781390000000002</v>
+      </c>
+      <c r="E281">
+        <v>0.96465400000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97585449999999996</v>
       </c>
       <c r="B282">
         <v>0.97101199999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D282">
+        <v>0.98855349999999997</v>
+      </c>
+      <c r="E282">
+        <v>0.97101199999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.9758175</v>
       </c>
       <c r="B283">
         <v>0.972441</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D283">
+        <v>0.98972000000000004</v>
+      </c>
+      <c r="E283">
+        <v>0.972441</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97472689999999995</v>
       </c>
       <c r="B284">
         <v>0.97116800000000003</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D284">
+        <v>0.99225604999999995</v>
+      </c>
+      <c r="E284">
+        <v>0.97116800000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97435210000000005</v>
       </c>
       <c r="B285">
         <v>0.96191099999999996</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D285">
+        <v>0.99329639999999997</v>
+      </c>
+      <c r="E285">
+        <v>0.96191099999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97502480000000002</v>
       </c>
       <c r="B286">
         <v>0.96136600000000005</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D286">
+        <v>0.99300027000000002</v>
+      </c>
+      <c r="E286">
+        <v>0.96136600000000005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.97573244999999997</v>
       </c>
       <c r="B287">
         <v>0.96215099999999998</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D287">
+        <v>0.99218744000000003</v>
+      </c>
+      <c r="E287">
+        <v>0.96215099999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97630053999999999</v>
       </c>
       <c r="B288">
         <v>0.97485200000000005</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D288">
+        <v>0.99245064999999999</v>
+      </c>
+      <c r="E288">
+        <v>0.97485200000000005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97684835999999997</v>
       </c>
       <c r="B289">
         <v>0.98117500000000002</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D289">
+        <v>0.99132967000000005</v>
+      </c>
+      <c r="E289">
+        <v>0.98117500000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97703636000000005</v>
       </c>
       <c r="B290">
         <v>0.97819699999999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D290">
+        <v>0.99259500000000001</v>
+      </c>
+      <c r="E290">
+        <v>0.97819699999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97686580000000001</v>
       </c>
       <c r="B291">
         <v>0.98741900000000005</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D291">
+        <v>0.99364699999999995</v>
+      </c>
+      <c r="E291">
+        <v>0.98741900000000005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97698795999999999</v>
       </c>
       <c r="B292">
         <v>0.98271600000000003</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D292">
+        <v>0.99243592999999997</v>
+      </c>
+      <c r="E292">
+        <v>0.98271600000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97700050000000005</v>
       </c>
       <c r="B293">
         <v>0.967893</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D293">
+        <v>0.99296980000000001</v>
+      </c>
+      <c r="E293">
+        <v>0.967893</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97664399999999996</v>
       </c>
       <c r="B294">
         <v>0.98309100000000005</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D294">
+        <v>0.98995787000000002</v>
+      </c>
+      <c r="E294">
+        <v>0.98309100000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97655619999999999</v>
       </c>
       <c r="B295">
         <v>0.965588</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D295">
+        <v>0.98852989999999996</v>
+      </c>
+      <c r="E295">
+        <v>0.965588</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97605410000000004</v>
       </c>
       <c r="B296">
         <v>0.96961200000000003</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D296">
+        <v>0.98490390000000005</v>
+      </c>
+      <c r="E296">
+        <v>0.96961200000000003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.97562736000000005</v>
       </c>
       <c r="B297">
         <v>0.96564499999999998</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D297">
+        <v>0.98383560000000003</v>
+      </c>
+      <c r="E297">
+        <v>0.96564499999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.97557896</v>
       </c>
       <c r="B298">
         <v>0.97959700000000005</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D298">
+        <v>0.98269426999999998</v>
+      </c>
+      <c r="E298">
+        <v>0.97959700000000005</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.97580385000000003</v>
       </c>
       <c r="B299">
         <v>0.99423600000000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D299">
+        <v>0.98178726000000005</v>
+      </c>
+      <c r="E299">
+        <v>0.99423600000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.97629889999999997</v>
       </c>
       <c r="B300">
         <v>0.99449100000000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D300">
+        <v>0.98391859999999998</v>
+      </c>
+      <c r="E300">
+        <v>0.99449100000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.97639699999999996</v>
       </c>
       <c r="B301">
         <v>0.99304099999999995</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D301">
+        <v>0.98696360000000005</v>
+      </c>
+      <c r="E301">
+        <v>0.99304099999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.97631769999999996</v>
       </c>
       <c r="B302">
         <v>1.00267</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D302">
+        <v>0.98811979999999999</v>
+      </c>
+      <c r="E302">
+        <v>1.00267</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.97649870000000005</v>
       </c>
       <c r="B303">
         <v>1.0072300000000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D303">
+        <v>0.98799735</v>
+      </c>
+      <c r="E303">
+        <v>1.0072300000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.97667420000000005</v>
       </c>
       <c r="B304">
         <v>1.00837</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D304">
+        <v>0.98856500000000003</v>
+      </c>
+      <c r="E304">
+        <v>1.00837</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.97665659999999999</v>
       </c>
       <c r="B305">
         <v>1.00064</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D305">
+        <v>0.98857320000000004</v>
+      </c>
+      <c r="E305">
+        <v>1.00064</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.97653455</v>
       </c>
       <c r="B306">
         <v>1.00071</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D306">
+        <v>0.98763630000000002</v>
+      </c>
+      <c r="E306">
+        <v>1.00071</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.97648729999999995</v>
       </c>
       <c r="B307">
         <v>0.99803399999999998</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D307">
+        <v>0.98694420000000005</v>
+      </c>
+      <c r="E307">
+        <v>0.99803399999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.97666350000000002</v>
       </c>
       <c r="B308">
         <v>1.0007999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D308">
+        <v>0.98654280000000005</v>
+      </c>
+      <c r="E308">
+        <v>1.0007999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.97705774999999995</v>
       </c>
       <c r="B309">
         <v>1.0032399999999999</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D309">
+        <v>0.98692389999999997</v>
+      </c>
+      <c r="E309">
+        <v>1.0032399999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.97749949999999997</v>
       </c>
       <c r="B310">
         <v>0.98956200000000005</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D310">
+        <v>0.98655360000000003</v>
+      </c>
+      <c r="E310">
+        <v>0.98956200000000005</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.97729239999999995</v>
       </c>
       <c r="B311">
         <v>0.98212900000000003</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D311">
+        <v>0.98383664999999998</v>
+      </c>
+      <c r="E311">
+        <v>0.98212900000000003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.97550930000000002</v>
       </c>
       <c r="B312">
         <v>0.99353599999999997</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D312">
+        <v>0.97887780000000002</v>
+      </c>
+      <c r="E312">
+        <v>0.99353599999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.97413653</v>
       </c>
       <c r="B313">
         <v>0.98076399999999997</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D313">
+        <v>0.97789060000000005</v>
+      </c>
+      <c r="E313">
+        <v>0.98076399999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.97274530000000003</v>
       </c>
       <c r="B314">
         <v>0.97210099999999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D314">
+        <v>0.97531754000000004</v>
+      </c>
+      <c r="E314">
+        <v>0.97210099999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.97043495999999996</v>
       </c>
       <c r="B315">
         <v>0.97175500000000004</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D315">
+        <v>0.97310350000000001</v>
+      </c>
+      <c r="E315">
+        <v>0.97175500000000004</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.96884899999999996</v>
       </c>
       <c r="B316">
         <v>0.97635899999999998</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D316">
+        <v>0.97275389999999995</v>
+      </c>
+      <c r="E316">
+        <v>0.97635899999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.96835726</v>
       </c>
       <c r="B317">
         <v>0.97745499999999996</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D317">
+        <v>0.97287109999999999</v>
+      </c>
+      <c r="E317">
+        <v>0.97745499999999996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.96878850000000005</v>
       </c>
       <c r="B318">
         <v>0.99563000000000001</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D318">
+        <v>0.97442656999999999</v>
+      </c>
+      <c r="E318">
+        <v>0.99563000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.96974444000000004</v>
       </c>
       <c r="B319">
         <v>0.98153500000000005</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D319">
+        <v>0.97602904000000001</v>
+      </c>
+      <c r="E319">
+        <v>0.98153500000000005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.96988445999999995</v>
       </c>
       <c r="B320">
         <v>0.98128800000000005</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D320">
+        <v>0.97665113000000003</v>
+      </c>
+      <c r="E320">
+        <v>0.98128800000000005</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.96913755000000001</v>
       </c>
       <c r="B321">
         <v>0.968912</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D321">
+        <v>0.97599994999999995</v>
+      </c>
+      <c r="E321">
+        <v>0.968912</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.96801804999999996</v>
       </c>
       <c r="B322">
         <v>0.98309100000000005</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D322">
+        <v>0.97402339999999998</v>
+      </c>
+      <c r="E322">
+        <v>0.98309100000000005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.96810819999999997</v>
       </c>
       <c r="B323">
         <v>0.96933599999999998</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D323">
+        <v>0.97390189999999999</v>
+      </c>
+      <c r="E323">
+        <v>0.96933599999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.96792023999999999</v>
       </c>
       <c r="B324">
         <v>0.96963299999999997</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D324">
+        <v>0.97237616999999998</v>
+      </c>
+      <c r="E324">
+        <v>0.96963299999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.96698810000000002</v>
       </c>
       <c r="B325">
         <v>0.96426599999999996</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D325">
+        <v>0.97076916999999996</v>
+      </c>
+      <c r="E325">
+        <v>0.96426599999999996</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.96567879999999995</v>
       </c>
       <c r="B326">
         <v>0.97294999999999998</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D326">
+        <v>0.96921670000000004</v>
+      </c>
+      <c r="E326">
+        <v>0.97294999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.96592359999999999</v>
       </c>
       <c r="B327">
         <v>0.96992299999999998</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D327">
+        <v>0.97132945000000004</v>
+      </c>
+      <c r="E327">
+        <v>0.96992299999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.96687173999999998</v>
       </c>
       <c r="B328">
         <v>0.98973900000000004</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D328">
+        <v>0.97470325000000002</v>
+      </c>
+      <c r="E328">
+        <v>0.98973900000000004</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.96827202999999995</v>
       </c>
       <c r="B329">
         <v>0.99997899999999995</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D329">
+        <v>0.97771620000000004</v>
+      </c>
+      <c r="E329">
+        <v>0.99997899999999995</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.969808</v>
       </c>
       <c r="B330">
         <v>0.999668</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D330">
+        <v>0.98253082999999997</v>
+      </c>
+      <c r="E330">
+        <v>0.999668</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.97052349999999998</v>
       </c>
       <c r="B331">
         <v>1.006</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D331">
+        <v>0.98689437000000002</v>
+      </c>
+      <c r="E331">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.97123139999999997</v>
       </c>
       <c r="B332">
         <v>1.0045200000000001</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D332">
+        <v>0.98969333999999998</v>
+      </c>
+      <c r="E332">
+        <v>1.0045200000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.97233550000000002</v>
       </c>
       <c r="B333">
         <v>1.0062</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D333">
+        <v>0.99019396000000004</v>
+      </c>
+      <c r="E333">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.97333395</v>
       </c>
       <c r="B334">
         <v>1.0103899999999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D334">
+        <v>0.99093450000000005</v>
+      </c>
+      <c r="E334">
+        <v>1.0103899999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.97426729999999995</v>
       </c>
       <c r="B335">
         <v>1.0060500000000001</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D335">
+        <v>0.99200964000000003</v>
+      </c>
+      <c r="E335">
+        <v>1.0060500000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.97498339999999994</v>
       </c>
       <c r="B336">
         <v>1.01332</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D336">
+        <v>0.99262863000000001</v>
+      </c>
+      <c r="E336">
+        <v>1.01332</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.97546659999999996</v>
       </c>
       <c r="B337">
         <v>1.01525</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D337">
+        <v>0.99455154000000001</v>
+      </c>
+      <c r="E337">
+        <v>1.01525</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.97600319999999996</v>
       </c>
       <c r="B338">
         <v>1.0201899999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D338">
+        <v>0.99690389999999995</v>
+      </c>
+      <c r="E338">
+        <v>1.0201899999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.97668529999999998</v>
       </c>
       <c r="B339">
         <v>1.01762</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D339">
+        <v>0.99911099999999997</v>
+      </c>
+      <c r="E339">
+        <v>1.01762</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.97734670000000001</v>
       </c>
       <c r="B340">
         <v>1.0038899999999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D340">
+        <v>1.0005434</v>
+      </c>
+      <c r="E340">
+        <v>1.0038899999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.97774079999999997</v>
       </c>
       <c r="B341">
         <v>0.99185999999999996</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D341">
+        <v>0.99901280000000003</v>
+      </c>
+      <c r="E341">
+        <v>0.99185999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.9775104</v>
       </c>
       <c r="B342">
         <v>0.98921499999999996</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D342">
+        <v>0.99640550000000006</v>
+      </c>
+      <c r="E342">
+        <v>0.98921499999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.97654885000000002</v>
       </c>
       <c r="B343">
         <v>0.986514</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D343">
+        <v>0.99316335</v>
+      </c>
+      <c r="E343">
+        <v>0.986514</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.97579895999999999</v>
       </c>
       <c r="B344">
         <v>0.99110399999999998</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D344">
+        <v>0.99207120000000004</v>
+      </c>
+      <c r="E344">
+        <v>0.99110399999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.97529434999999998</v>
       </c>
       <c r="B345">
         <v>0.98631599999999997</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D345">
+        <v>0.99046533999999997</v>
+      </c>
+      <c r="E345">
+        <v>0.98631599999999997</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.97480935000000002</v>
       </c>
       <c r="B346">
         <v>0.99482300000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D346">
+        <v>0.99040030000000001</v>
+      </c>
+      <c r="E346">
+        <v>0.99482300000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.97479737</v>
       </c>
       <c r="B347">
         <v>0.99881900000000001</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D347">
+        <v>0.99179779999999995</v>
+      </c>
+      <c r="E347">
+        <v>0.99881900000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.97511420000000004</v>
       </c>
       <c r="B348">
         <v>0.99637900000000001</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D348">
+        <v>0.99457616000000004</v>
+      </c>
+      <c r="E348">
+        <v>0.99637900000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.97518340000000003</v>
       </c>
       <c r="B349">
         <v>1.0160899999999999</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D349">
+        <v>0.99611795000000003</v>
+      </c>
+      <c r="E349">
+        <v>1.0160899999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.97530890000000003</v>
       </c>
       <c r="B350">
         <v>0.96240599999999998</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D350">
+        <v>0.99722016000000002</v>
+      </c>
+      <c r="E350">
+        <v>0.96240599999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.97224337000000005</v>
       </c>
       <c r="B351">
         <v>0.93633100000000002</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D351">
+        <v>0.98662466000000004</v>
+      </c>
+      <c r="E351">
+        <v>0.93633100000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.96590339999999997</v>
       </c>
       <c r="B352">
         <v>0.96147199999999999</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D352">
+        <v>0.97860190000000002</v>
+      </c>
+      <c r="E352">
+        <v>0.96147199999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.96321296999999995</v>
       </c>
       <c r="B353">
         <v>0.98599800000000004</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D353">
+        <v>0.97767879999999996</v>
+      </c>
+      <c r="E353">
+        <v>0.98599800000000004</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.96538749999999995</v>
       </c>
       <c r="B354">
         <v>1.00586</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D354">
+        <v>0.98098510000000005</v>
+      </c>
+      <c r="E354">
+        <v>1.00586</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.96879404999999996</v>
       </c>
       <c r="B355">
         <v>1.0087600000000001</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D355">
+        <v>0.98616349999999997</v>
+      </c>
+      <c r="E355">
+        <v>1.0087600000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.97070204999999998</v>
       </c>
       <c r="B356">
         <v>0.99857099999999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D356">
+        <v>0.99254140000000002</v>
+      </c>
+      <c r="E356">
+        <v>0.99857099999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.97089630000000005</v>
       </c>
       <c r="B357">
         <v>1.00648</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D357">
+        <v>0.99434429999999996</v>
+      </c>
+      <c r="E357">
+        <v>1.00648</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.97087760000000001</v>
       </c>
       <c r="B358">
         <v>1.00518</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D358">
+        <v>0.99460700000000002</v>
+      </c>
+      <c r="E358">
+        <v>1.00518</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.971665</v>
       </c>
       <c r="B359">
         <v>1.0278099999999999</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D359">
+        <v>0.99606910000000004</v>
+      </c>
+      <c r="E359">
+        <v>1.0278099999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.97328853999999998</v>
       </c>
       <c r="B360">
         <v>1.03295</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D360">
+        <v>0.99762255</v>
+      </c>
+      <c r="E360">
+        <v>1.03295</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.97475959999999995</v>
       </c>
       <c r="B361">
         <v>1.0435399999999999</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D361">
+        <v>1.0014285999999999</v>
+      </c>
+      <c r="E361">
+        <v>1.0435399999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.97580029999999995</v>
       </c>
       <c r="B362">
         <v>1.04375</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D362">
+        <v>1.0039724000000001</v>
+      </c>
+      <c r="E362">
+        <v>1.04375</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.97638740000000002</v>
       </c>
       <c r="B363">
         <v>1.05175</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D363">
+        <v>1.0065824000000001</v>
+      </c>
+      <c r="E363">
+        <v>1.05175</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.97707635000000004</v>
       </c>
       <c r="B364">
         <v>1.05033</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D364">
+        <v>1.0084655</v>
+      </c>
+      <c r="E364">
+        <v>1.05033</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.97819822999999995</v>
       </c>
       <c r="B365">
         <v>1.0539700000000001</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D365">
+        <v>1.0102484</v>
+      </c>
+      <c r="E365">
+        <v>1.0539700000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.97951080000000001</v>
       </c>
       <c r="B366">
         <v>1.0517700000000001</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D366">
+        <v>1.0121941999999999</v>
+      </c>
+      <c r="E366">
+        <v>1.0517700000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.98080425999999998</v>
       </c>
       <c r="B367">
         <v>1.0583100000000001</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D367">
+        <v>1.0137995</v>
+      </c>
+      <c r="E367">
+        <v>1.0583100000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.98196519999999998</v>
       </c>
       <c r="B368">
         <v>1.0527599999999999</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D368">
+        <v>1.0150498999999999</v>
+      </c>
+      <c r="E368">
+        <v>1.0527599999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.98292480000000004</v>
       </c>
       <c r="B369">
         <v>1.0597300000000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D369">
+        <v>1.0156392000000001</v>
+      </c>
+      <c r="E369">
+        <v>1.0597300000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.98375164999999998</v>
       </c>
       <c r="B370">
         <v>1.0550999999999999</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D370">
+        <v>1.0167611000000001</v>
+      </c>
+      <c r="E370">
+        <v>1.0550999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.98455559999999998</v>
       </c>
       <c r="B371">
         <v>1.05559</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D371">
+        <v>1.0175384999999999</v>
+      </c>
+      <c r="E371">
+        <v>1.05559</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.98526970000000003</v>
       </c>
       <c r="B372">
         <v>1.05375</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D372">
+        <v>1.0180163</v>
+      </c>
+      <c r="E372">
+        <v>1.05375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.98582166000000004</v>
       </c>
       <c r="B373">
         <v>1.0562100000000001</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D373">
+        <v>1.0180159</v>
+      </c>
+      <c r="E373">
+        <v>1.0562100000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.98619723000000004</v>
       </c>
       <c r="B374">
         <v>1.0587200000000001</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D374">
+        <v>1.0185360999999999</v>
+      </c>
+      <c r="E374">
+        <v>1.0587200000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.98649900000000001</v>
       </c>
       <c r="B375">
         <v>1.05677</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D375">
+        <v>1.0195105</v>
+      </c>
+      <c r="E375">
+        <v>1.05677</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.98674779999999995</v>
       </c>
       <c r="B376">
         <v>1.0469999999999999</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D376">
+        <v>1.0206127</v>
+      </c>
+      <c r="E376">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.98627379999999998</v>
       </c>
       <c r="B377">
         <v>1.0517799999999999</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D377">
+        <v>1.0164803</v>
+      </c>
+      <c r="E377">
+        <v>1.0517799999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.98551679999999997</v>
       </c>
       <c r="B378">
         <v>1.0521100000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D378">
+        <v>1.0150942999999999</v>
+      </c>
+      <c r="E378">
+        <v>1.0521100000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.98539659999999996</v>
       </c>
       <c r="B379">
         <v>1.0652699999999999</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D379">
+        <v>1.0159786</v>
+      </c>
+      <c r="E379">
+        <v>1.0652699999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.98581620000000003</v>
       </c>
       <c r="B380">
         <v>1.0638700000000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D380">
+        <v>1.0196122000000001</v>
+      </c>
+      <c r="E380">
+        <v>1.0638700000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.98637200000000003</v>
       </c>
       <c r="B381">
         <v>1.06447</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D381">
+        <v>1.0226504999999999</v>
+      </c>
+      <c r="E381">
+        <v>1.06447</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.98662760000000005</v>
       </c>
       <c r="B382">
         <v>1.0600499999999999</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D382">
+        <v>1.0238179999999999</v>
+      </c>
+      <c r="E382">
+        <v>1.0600499999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.98661829999999995</v>
       </c>
       <c r="B383">
         <v>1.06734</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D383">
+        <v>1.0231309</v>
+      </c>
+      <c r="E383">
+        <v>1.06734</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.98651279999999997</v>
       </c>
       <c r="B384">
         <v>1.0661099999999999</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D384">
+        <v>1.0231806000000001</v>
+      </c>
+      <c r="E384">
+        <v>1.0661099999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.98646842999999995</v>
       </c>
       <c r="B385">
         <v>1.0704199999999999</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D385">
+        <v>1.0235707000000001</v>
+      </c>
+      <c r="E385">
+        <v>1.0704199999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.98648190000000002</v>
       </c>
       <c r="B386">
         <v>1.0619400000000001</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D386">
+        <v>1.0241829</v>
+      </c>
+      <c r="E386">
+        <v>1.0619400000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.98642843999999996</v>
       </c>
       <c r="B387">
         <v>1.06481</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D387">
+        <v>1.0234215</v>
+      </c>
+      <c r="E387">
+        <v>1.06481</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.98617213999999997</v>
       </c>
       <c r="B388">
         <v>1.0682100000000001</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D388">
+        <v>1.0223868</v>
+      </c>
+      <c r="E388">
+        <v>1.0682100000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.98593989999999998</v>
       </c>
       <c r="B389">
         <v>1.0659799999999999</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D389">
+        <v>1.0229600000000001</v>
+      </c>
+      <c r="E389">
+        <v>1.0659799999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.98576710000000001</v>
       </c>
       <c r="B390">
         <v>1.06511</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D390">
+        <v>1.0228341000000001</v>
+      </c>
+      <c r="E390">
+        <v>1.06511</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.98563880000000004</v>
       </c>
       <c r="B391">
         <v>1.06812</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D391">
+        <v>1.022829</v>
+      </c>
+      <c r="E391">
+        <v>1.06812</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.98567515999999999</v>
       </c>
       <c r="B392">
         <v>1.06002</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D392">
+        <v>1.0240629999999999</v>
+      </c>
+      <c r="E392">
+        <v>1.06002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.98541179999999995</v>
       </c>
       <c r="B393">
         <v>1.05792</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D393">
+        <v>1.0215358999999999</v>
+      </c>
+      <c r="E393">
+        <v>1.05792</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.98455349999999997</v>
       </c>
       <c r="B394">
         <v>1.05549</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D394">
+        <v>1.0190192</v>
+      </c>
+      <c r="E394">
+        <v>1.05549</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.98377769999999998</v>
       </c>
       <c r="B395">
         <v>1.06351</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D395">
+        <v>1.0164489999999999</v>
+      </c>
+      <c r="E395">
+        <v>1.06351</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.9837089</v>
       </c>
       <c r="B396">
         <v>1.0605</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D396">
+        <v>1.0173863999999999</v>
+      </c>
+      <c r="E396">
+        <v>1.0605</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.98400030000000005</v>
       </c>
       <c r="B397">
         <v>1.05684</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D397">
+        <v>1.0179486</v>
+      </c>
+      <c r="E397">
+        <v>1.05684</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.98391134000000002</v>
       </c>
       <c r="B398">
         <v>1.0567800000000001</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D398">
+        <v>1.0162838000000001</v>
+      </c>
+      <c r="E398">
+        <v>1.0567800000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.98338040000000004</v>
       </c>
       <c r="B399">
         <v>1.0632299999999999</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D399">
+        <v>1.0151300000000001</v>
+      </c>
+      <c r="E399">
+        <v>1.0632299999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.98326469999999999</v>
       </c>
       <c r="B400">
         <v>1.0678300000000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D400">
+        <v>1.017164</v>
+      </c>
+      <c r="E400">
+        <v>1.0678300000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.98359346000000003</v>
       </c>
       <c r="B401">
         <v>1.0676000000000001</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D401">
+        <v>1.019285</v>
+      </c>
+      <c r="E401">
+        <v>1.0676000000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.98378940000000004</v>
       </c>
       <c r="B402">
         <v>1.06416</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D402">
+        <v>1.0207356000000001</v>
+      </c>
+      <c r="E402">
+        <v>1.06416</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.98379930000000004</v>
       </c>
       <c r="B403">
         <v>1.02634</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D403">
+        <v>1.0209272</v>
+      </c>
+      <c r="E403">
+        <v>1.02634</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.98101899999999997</v>
       </c>
       <c r="B404">
         <v>1.0484199999999999</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D404">
+        <v>1.0120339</v>
+      </c>
+      <c r="E404">
+        <v>1.0484199999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.97816723999999999</v>
       </c>
       <c r="B405">
         <v>1.0257799999999999</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D405">
+        <v>1.0074947000000001</v>
+      </c>
+      <c r="E405">
+        <v>1.0257799999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.97710496000000002</v>
       </c>
       <c r="B406">
         <v>1.0248900000000001</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D406">
+        <v>1.0054312000000001</v>
+      </c>
+      <c r="E406">
+        <v>1.0248900000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.97680425999999998</v>
       </c>
       <c r="B407">
         <v>1.04009</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D407">
+        <v>1.0060553999999999</v>
+      </c>
+      <c r="E407">
+        <v>1.04009</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.97728289999999995</v>
       </c>
       <c r="B408">
         <v>1.0343599999999999</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D408">
+        <v>1.0073175000000001</v>
+      </c>
+      <c r="E408">
+        <v>1.0343599999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.97758089999999997</v>
       </c>
       <c r="B409">
         <v>1.03433</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D409">
+        <v>1.0080798</v>
+      </c>
+      <c r="E409">
+        <v>1.03433</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.97770559999999995</v>
       </c>
       <c r="B410">
         <v>1.0347900000000001</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D410">
+        <v>1.0092831</v>
+      </c>
+      <c r="E410">
+        <v>1.0347900000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.97786200000000001</v>
       </c>
       <c r="B411">
         <v>1.05131</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D411">
+        <v>1.010092</v>
+      </c>
+      <c r="E411">
+        <v>1.05131</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.97793699999999995</v>
       </c>
       <c r="B412">
         <v>1.06125</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D412">
+        <v>1.0104926000000001</v>
+      </c>
+      <c r="E412">
+        <v>1.06125</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.97808569999999995</v>
       </c>
       <c r="B413">
         <v>1.0524199999999999</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D413">
+        <v>1.0125436000000001</v>
+      </c>
+      <c r="E413">
+        <v>1.0524199999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.97822229999999999</v>
       </c>
       <c r="B414">
         <v>1.0392699999999999</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D414">
+        <v>1.0140798</v>
+      </c>
+      <c r="E414">
+        <v>1.0392699999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.97795860000000001</v>
       </c>
       <c r="B415">
         <v>1.04905</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D415">
+        <v>1.0134068000000001</v>
+      </c>
+      <c r="E415">
+        <v>1.04905</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.97803753999999998</v>
       </c>
       <c r="B416">
         <v>1.05714</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D416">
+        <v>1.0134238</v>
+      </c>
+      <c r="E416">
+        <v>1.05714</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.97871710000000001</v>
       </c>
       <c r="B417">
         <v>1.0428299999999999</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D417">
+        <v>1.0149300000000001</v>
+      </c>
+      <c r="E417">
+        <v>1.0428299999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D419">
+        <f>CORREL(D2:D417,E2:E417)</f>
+        <v>0.89085548760944933</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.80378798299999998</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -64,7 +64,7 @@
     <t>﻿0.975178</t>
   </si>
   <si>
-    <t>LSTM with first 8 indicators, 100 units, 5 cells)</t>
+    <t>LSTM with first 8 indicators, 100 units, 5 cells, 60 timesteps)</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:E420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>_0.975178</t>
   </si>
@@ -66,12 +66,18 @@
   <si>
     <t>LSTM with first 8 indicators, 100 units, 5 cells, 60 timesteps)</t>
   </si>
+  <si>
+    <t>LSTM 12 Variables 100 epoch</t>
+  </si>
+  <si>
+    <t>LSTM 12 variable 200 epcoh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +89,29 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,13 +131,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,23 +422,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E420"/>
+  <dimension ref="A1:K420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.97099155000000004</v>
       </c>
@@ -413,8 +458,20 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0.94392394999999996</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0.96496784999999996</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.97150199999999998</v>
       </c>
@@ -427,8 +484,20 @@
       <c r="E3">
         <v>0.96900399999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0.94580660000000005</v>
+      </c>
+      <c r="H3">
+        <v>0.96900399999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.96799860000000004</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.96900399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.97180370000000005</v>
       </c>
@@ -441,8 +510,20 @@
       <c r="E4">
         <v>0.984456</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0.9472933</v>
+      </c>
+      <c r="H4">
+        <v>0.984456</v>
+      </c>
+      <c r="J4">
+        <v>0.96892774000000004</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.984456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.97260636</v>
       </c>
@@ -455,8 +536,20 @@
       <c r="E5">
         <v>0.98441299999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0.94917536000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.98441299999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.97122240000000004</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.98441299999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97358080000000002</v>
       </c>
@@ -469,8 +562,20 @@
       <c r="E6">
         <v>0.99852200000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0.95184170000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.99852200000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.97307706000000005</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.99852200000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97455656999999996</v>
       </c>
@@ -483,8 +588,20 @@
       <c r="E7">
         <v>1.00454</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0.95515749999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.00454</v>
+      </c>
+      <c r="J7">
+        <v>0.97590889999999997</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.00454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97525066000000005</v>
       </c>
@@ -497,8 +614,20 @@
       <c r="E8">
         <v>1.00691</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0.95901919999999996</v>
+      </c>
+      <c r="H8">
+        <v>1.00691</v>
+      </c>
+      <c r="J8">
+        <v>0.97879050000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.00691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97576589999999996</v>
       </c>
@@ -511,8 +640,20 @@
       <c r="E9">
         <v>1.00644</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0.96179490000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.00644</v>
+      </c>
+      <c r="J9">
+        <v>0.98076949999999996</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.00644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97638970000000003</v>
       </c>
@@ -525,8 +666,20 @@
       <c r="E10">
         <v>1.0048699999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0.96418179999999998</v>
+      </c>
+      <c r="H10">
+        <v>1.0048699999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.98232149999999996</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.0048699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97705995999999995</v>
       </c>
@@ -539,8 +692,20 @@
       <c r="E11">
         <v>1.0139499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>0.96576989999999996</v>
+      </c>
+      <c r="H11">
+        <v>1.0139499999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.98324776000000003</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.0139499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97779329999999998</v>
       </c>
@@ -553,8 +718,20 @@
       <c r="E12">
         <v>1.0135000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0.96647483000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.98381719999999995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.0135000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97823757</v>
       </c>
@@ -567,8 +744,20 @@
       <c r="E13">
         <v>1.01762</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0.96938413000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.01762</v>
+      </c>
+      <c r="J13">
+        <v>0.98468409999999995</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.01762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97857236999999997</v>
       </c>
@@ -581,8 +770,20 @@
       <c r="E14">
         <v>1.01647</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0.9711919</v>
+      </c>
+      <c r="H14">
+        <v>1.01647</v>
+      </c>
+      <c r="J14">
+        <v>0.98584424999999998</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.01647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97901819999999995</v>
       </c>
@@ -595,8 +796,20 @@
       <c r="E15">
         <v>1.0142599999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0.97254249999999998</v>
+      </c>
+      <c r="H15">
+        <v>1.0142599999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.98646809999999996</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.0142599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97968084</v>
       </c>
@@ -609,8 +822,20 @@
       <c r="E16">
         <v>1.0098499999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0.97307515</v>
+      </c>
+      <c r="H16">
+        <v>1.0098499999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.98650587000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.0098499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.98058440000000002</v>
       </c>
@@ -623,8 +848,20 @@
       <c r="E17">
         <v>1.0189699999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0.973298</v>
+      </c>
+      <c r="H17">
+        <v>1.0189699999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.98613656000000005</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.0189699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.98153466</v>
       </c>
@@ -637,8 +874,20 @@
       <c r="E18">
         <v>1.01217</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0.97428769999999998</v>
+      </c>
+      <c r="H18">
+        <v>1.01217</v>
+      </c>
+      <c r="J18">
+        <v>0.98628260000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.01217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.98224412999999999</v>
       </c>
@@ -651,8 +900,20 @@
       <c r="E19">
         <v>1.00563</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0.97358250000000002</v>
+      </c>
+      <c r="H19">
+        <v>1.00563</v>
+      </c>
+      <c r="J19">
+        <v>0.98619380000000001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.00563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.98255320000000002</v>
       </c>
@@ -665,8 +926,20 @@
       <c r="E20">
         <v>1.0074000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0.97106409999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.0074000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.98361290000000001</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.0074000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98284079999999996</v>
       </c>
@@ -679,8 +952,20 @@
       <c r="E21">
         <v>0.986344</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>0.97105339999999996</v>
+      </c>
+      <c r="H21">
+        <v>0.986344</v>
+      </c>
+      <c r="J21">
+        <v>0.9822649</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.986344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98285610000000001</v>
       </c>
@@ -693,8 +978,20 @@
       <c r="E22">
         <v>0.99212199999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>0.96362990000000004</v>
+      </c>
+      <c r="H22">
+        <v>0.99212199999999995</v>
+      </c>
+      <c r="J22">
+        <v>0.97683730000000002</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.99212199999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98284786999999996</v>
       </c>
@@ -707,8 +1004,20 @@
       <c r="E23">
         <v>0.96717900000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>0.96292626999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.96717900000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.97378516000000004</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.96717900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98268955999999996</v>
       </c>
@@ -721,8 +1030,20 @@
       <c r="E24">
         <v>0.96440700000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0.9575669</v>
+      </c>
+      <c r="H24">
+        <v>0.96440700000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.96998430000000002</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.96440700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98256449999999995</v>
       </c>
@@ -735,8 +1056,20 @@
       <c r="E25">
         <v>0.98258900000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>0.95747890000000002</v>
+      </c>
+      <c r="H25">
+        <v>0.98258900000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.96886720000000004</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.98258900000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98294619999999999</v>
       </c>
@@ -749,8 +1082,20 @@
       <c r="E26">
         <v>0.97371399999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0.95781989999999995</v>
+      </c>
+      <c r="H26">
+        <v>0.97371399999999997</v>
+      </c>
+      <c r="J26">
+        <v>0.97204970000000002</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.97371399999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98345654999999998</v>
       </c>
@@ -763,8 +1108,20 @@
       <c r="E27">
         <v>0.993367</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>0.95706829999999998</v>
+      </c>
+      <c r="H27">
+        <v>0.993367</v>
+      </c>
+      <c r="J27">
+        <v>0.97277570000000002</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.993367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98399853999999998</v>
       </c>
@@ -777,8 +1134,20 @@
       <c r="E28">
         <v>0.98848000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>0.95791804999999997</v>
+      </c>
+      <c r="H28">
+        <v>0.98848000000000003</v>
+      </c>
+      <c r="J28">
+        <v>0.97490202999999998</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.98848000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98438859999999995</v>
       </c>
@@ -791,8 +1160,20 @@
       <c r="E29">
         <v>1.0063200000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>0.95888865000000001</v>
+      </c>
+      <c r="H29">
+        <v>1.0063200000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.97633899999999996</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.0063200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98442929999999995</v>
       </c>
@@ -805,8 +1186,20 @@
       <c r="E30">
         <v>0.999081</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0.95788074000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.999081</v>
+      </c>
+      <c r="J30">
+        <v>0.97731197000000003</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.999081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98425054999999995</v>
       </c>
@@ -819,8 +1212,20 @@
       <c r="E31">
         <v>1.0124</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>0.96075980000000005</v>
+      </c>
+      <c r="H31">
+        <v>1.0124</v>
+      </c>
+      <c r="J31">
+        <v>0.97884070000000001</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1.0124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98417069999999995</v>
       </c>
@@ -833,8 +1238,20 @@
       <c r="E32">
         <v>1.00979</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>0.96152199999999999</v>
+      </c>
+      <c r="H32">
+        <v>1.00979</v>
+      </c>
+      <c r="J32">
+        <v>0.98024153999999997</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.00979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98401810000000001</v>
       </c>
@@ -847,8 +1264,20 @@
       <c r="E33">
         <v>1.0006600000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0.96475250000000001</v>
+      </c>
+      <c r="H33">
+        <v>1.0006600000000001</v>
+      </c>
+      <c r="J33">
+        <v>0.98211205000000001</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.0006600000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98382769999999997</v>
       </c>
@@ -861,8 +1290,20 @@
       <c r="E34">
         <v>0.97912399999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>0.96483859999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.97912399999999999</v>
+      </c>
+      <c r="J34">
+        <v>0.98245300000000002</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.97912399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98361200000000004</v>
       </c>
@@ -875,8 +1316,20 @@
       <c r="E35">
         <v>0.97565800000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>0.96062259999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.97565800000000003</v>
+      </c>
+      <c r="J35">
+        <v>0.97880480000000003</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.97565800000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98328775000000002</v>
       </c>
@@ -889,8 +1342,20 @@
       <c r="E36">
         <v>0.97910200000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>0.95821259999999997</v>
+      </c>
+      <c r="H36">
+        <v>0.97910200000000003</v>
+      </c>
+      <c r="J36">
+        <v>0.9740896</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.97910200000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98314743999999998</v>
       </c>
@@ -903,8 +1368,20 @@
       <c r="E37">
         <v>0.99693799999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>0.95919560000000004</v>
+      </c>
+      <c r="H37">
+        <v>0.99693799999999999</v>
+      </c>
+      <c r="J37">
+        <v>0.97349083000000003</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.99693799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98334580000000005</v>
       </c>
@@ -917,8 +1394,20 @@
       <c r="E38">
         <v>0.98396099999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>0.96036639999999995</v>
+      </c>
+      <c r="H38">
+        <v>0.98396099999999997</v>
+      </c>
+      <c r="J38">
+        <v>0.97579539999999998</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.98396099999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98371410000000004</v>
       </c>
@@ -931,8 +1420,20 @@
       <c r="E39">
         <v>0.97816199999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>0.96040833000000003</v>
+      </c>
+      <c r="H39">
+        <v>0.97816199999999998</v>
+      </c>
+      <c r="J39">
+        <v>0.97638760000000002</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.97816199999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98371017000000005</v>
       </c>
@@ -945,8 +1446,20 @@
       <c r="E40">
         <v>0.98330300000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>0.9582619</v>
+      </c>
+      <c r="H40">
+        <v>0.98330300000000004</v>
+      </c>
+      <c r="J40">
+        <v>0.97456085999999997</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.98330300000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98339765999999995</v>
       </c>
@@ -959,8 +1472,20 @@
       <c r="E41">
         <v>0.99296300000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>0.95871030000000002</v>
+      </c>
+      <c r="H41">
+        <v>0.99296300000000004</v>
+      </c>
+      <c r="J41">
+        <v>0.97489490000000001</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.99296300000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98303289999999999</v>
       </c>
@@ -973,8 +1498,20 @@
       <c r="E42">
         <v>0.98992999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>0.95867115000000003</v>
+      </c>
+      <c r="H42">
+        <v>0.98992999999999998</v>
+      </c>
+      <c r="J42">
+        <v>0.97626089999999999</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.98992999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98286753999999998</v>
       </c>
@@ -987,8 +1524,20 @@
       <c r="E43">
         <v>0.993869</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>0.96069950000000004</v>
+      </c>
+      <c r="H43">
+        <v>0.993869</v>
+      </c>
+      <c r="J43">
+        <v>0.97764574999999998</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.993869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98300432999999998</v>
       </c>
@@ -1001,8 +1550,20 @@
       <c r="E44">
         <v>1.0004299999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>0.96142439999999996</v>
+      </c>
+      <c r="H44">
+        <v>1.0004299999999999</v>
+      </c>
+      <c r="J44">
+        <v>0.97827684999999998</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.0004299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.9832651</v>
       </c>
@@ -1015,8 +1576,20 @@
       <c r="E45">
         <v>1.00813</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>0.96248520000000004</v>
+      </c>
+      <c r="H45">
+        <v>1.00813</v>
+      </c>
+      <c r="J45">
+        <v>0.97809599999999997</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1.00813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98372643999999998</v>
       </c>
@@ -1029,8 +1602,20 @@
       <c r="E46">
         <v>1.00132</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>0.96696950000000004</v>
+      </c>
+      <c r="H46">
+        <v>1.00132</v>
+      </c>
+      <c r="J46">
+        <v>0.97889614000000003</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1.00132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98432560000000002</v>
       </c>
@@ -1043,8 +1628,20 @@
       <c r="E47">
         <v>1.00373</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>0.96833040000000004</v>
+      </c>
+      <c r="H47">
+        <v>1.00373</v>
+      </c>
+      <c r="J47">
+        <v>0.97916186000000005</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1.00373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98475860000000004</v>
       </c>
@@ -1057,8 +1654,20 @@
       <c r="E48">
         <v>1.01136</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>0.96842474000000001</v>
+      </c>
+      <c r="H48">
+        <v>1.01136</v>
+      </c>
+      <c r="J48">
+        <v>0.97780144000000002</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.01136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.98492480000000004</v>
       </c>
@@ -1071,8 +1680,20 @@
       <c r="E49">
         <v>1.0102</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>0.96962154</v>
+      </c>
+      <c r="H49">
+        <v>1.0102</v>
+      </c>
+      <c r="J49">
+        <v>0.97806939999999998</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1.0102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98489547</v>
       </c>
@@ -1085,8 +1706,20 @@
       <c r="E50">
         <v>0.99335899999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>0.97064715999999995</v>
+      </c>
+      <c r="H50">
+        <v>0.99335899999999999</v>
+      </c>
+      <c r="J50">
+        <v>0.97841096000000005</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.99335899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98475820000000003</v>
       </c>
@@ -1099,8 +1732,20 @@
       <c r="E51">
         <v>1.00695</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>0.96628879999999995</v>
+      </c>
+      <c r="H51">
+        <v>1.00695</v>
+      </c>
+      <c r="J51">
+        <v>0.97466945999999999</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1.00695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98481363</v>
       </c>
@@ -1113,8 +1758,20 @@
       <c r="E52">
         <v>1.00475</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>0.96732812999999995</v>
+      </c>
+      <c r="H52">
+        <v>1.00475</v>
+      </c>
+      <c r="J52">
+        <v>0.97448133999999997</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1.00475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.9850875</v>
       </c>
@@ -1127,8 +1784,20 @@
       <c r="E53">
         <v>1.0123</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>0.96914666999999999</v>
+      </c>
+      <c r="H53">
+        <v>1.0123</v>
+      </c>
+      <c r="J53">
+        <v>0.97659090000000004</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1.0123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98536449999999998</v>
       </c>
@@ -1141,8 +1810,20 @@
       <c r="E54">
         <v>1.0158100000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>0.97013044000000004</v>
+      </c>
+      <c r="H54">
+        <v>1.0158100000000001</v>
+      </c>
+      <c r="J54">
+        <v>0.97769689999999998</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1.0158100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98559750000000002</v>
       </c>
@@ -1155,8 +1836,20 @@
       <c r="E55">
         <v>1.01918</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>0.97199254999999996</v>
+      </c>
+      <c r="H55">
+        <v>1.01918</v>
+      </c>
+      <c r="J55">
+        <v>0.97951674</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1.01918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.9857051</v>
       </c>
@@ -1169,8 +1862,20 @@
       <c r="E56">
         <v>1.01298</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>0.97450139999999996</v>
+      </c>
+      <c r="H56">
+        <v>1.01298</v>
+      </c>
+      <c r="J56">
+        <v>0.98142649999999998</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1.01298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.98565130000000001</v>
       </c>
@@ -1183,8 +1888,20 @@
       <c r="E57">
         <v>1.01711</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>0.97429049999999995</v>
+      </c>
+      <c r="H57">
+        <v>1.01711</v>
+      </c>
+      <c r="J57">
+        <v>0.98197376999999997</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1.01711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98549973999999996</v>
       </c>
@@ -1197,8 +1914,20 @@
       <c r="E58">
         <v>1.0115099999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>0.97297350000000005</v>
+      </c>
+      <c r="H58">
+        <v>1.0115099999999999</v>
+      </c>
+      <c r="J58">
+        <v>0.98085009999999995</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1.0115099999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98522779999999999</v>
       </c>
@@ -1211,8 +1940,20 @@
       <c r="E59">
         <v>0.99642200000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>0.97194855999999996</v>
+      </c>
+      <c r="H59">
+        <v>0.99642200000000003</v>
+      </c>
+      <c r="J59">
+        <v>0.97969709999999999</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.99642200000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.98444646999999996</v>
       </c>
@@ -1225,8 +1966,20 @@
       <c r="E60">
         <v>1.0125299999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>0.96628309999999995</v>
+      </c>
+      <c r="H60">
+        <v>1.0125299999999999</v>
+      </c>
+      <c r="J60">
+        <v>0.97507906</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1.0125299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98378679999999996</v>
       </c>
@@ -1239,8 +1992,20 @@
       <c r="E61">
         <v>1.01692</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>0.96773830000000005</v>
+      </c>
+      <c r="H61">
+        <v>1.01692</v>
+      </c>
+      <c r="J61">
+        <v>0.97538245000000001</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1.01692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98387910000000001</v>
       </c>
@@ -1253,8 +2018,20 @@
       <c r="E62">
         <v>0.99921499999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>0.97235229999999995</v>
+      </c>
+      <c r="H62">
+        <v>0.99921499999999996</v>
+      </c>
+      <c r="J62">
+        <v>0.97996985999999997</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.99921499999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98397403999999999</v>
       </c>
@@ -1267,8 +2044,20 @@
       <c r="E63">
         <v>0.99263100000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>0.96884053999999997</v>
+      </c>
+      <c r="H63">
+        <v>0.99263100000000004</v>
+      </c>
+      <c r="J63">
+        <v>0.97821250000000004</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.99263100000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98311510000000002</v>
       </c>
@@ -1281,8 +2070,20 @@
       <c r="E64">
         <v>0.99818300000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>0.96407109999999996</v>
+      </c>
+      <c r="H64">
+        <v>0.99818300000000004</v>
+      </c>
+      <c r="J64">
+        <v>0.97301483</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.99818300000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98196923999999997</v>
       </c>
@@ -1295,8 +2096,20 @@
       <c r="E65">
         <v>1.0180499999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>0.96335249999999994</v>
+      </c>
+      <c r="H65">
+        <v>1.0180499999999999</v>
+      </c>
+      <c r="J65">
+        <v>0.9722073</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1.0180499999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98182570000000002</v>
       </c>
@@ -1309,8 +2122,20 @@
       <c r="E66">
         <v>1.01044</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>0.96683370000000002</v>
+      </c>
+      <c r="H66">
+        <v>1.01044</v>
+      </c>
+      <c r="J66">
+        <v>0.97662722999999996</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1.01044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98213433999999999</v>
       </c>
@@ -1323,8 +2148,20 @@
       <c r="E67">
         <v>1.0060500000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>0.97013587000000001</v>
+      </c>
+      <c r="H67">
+        <v>1.0060500000000001</v>
+      </c>
+      <c r="J67">
+        <v>0.98009860000000004</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1.0060500000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.9820468</v>
       </c>
@@ -1337,8 +2174,20 @@
       <c r="E68">
         <v>1.00559</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>0.96815010000000001</v>
+      </c>
+      <c r="H68">
+        <v>1.00559</v>
+      </c>
+      <c r="J68">
+        <v>0.97892725000000003</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1.00559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98158659999999998</v>
       </c>
@@ -1351,8 +2200,20 @@
       <c r="E69">
         <v>1.02159</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>0.96899950000000001</v>
+      </c>
+      <c r="H69">
+        <v>1.02159</v>
+      </c>
+      <c r="J69">
+        <v>0.97937596000000005</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1.02159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98121685000000003</v>
       </c>
@@ -1365,8 +2226,20 @@
       <c r="E70">
         <v>1.02274</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>0.97167550000000003</v>
+      </c>
+      <c r="H70">
+        <v>1.02274</v>
+      </c>
+      <c r="J70">
+        <v>0.98246144999999996</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1.02274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98107100000000003</v>
       </c>
@@ -1379,8 +2252,20 @@
       <c r="E71">
         <v>1.02732</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>0.97550769999999998</v>
+      </c>
+      <c r="H71">
+        <v>1.02732</v>
+      </c>
+      <c r="J71">
+        <v>0.98500849999999995</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1.02732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.98125476</v>
       </c>
@@ -1393,8 +2278,20 @@
       <c r="E72">
         <v>1.0263500000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>0.97747474999999995</v>
+      </c>
+      <c r="H72">
+        <v>1.0263500000000001</v>
+      </c>
+      <c r="J72">
+        <v>0.98646842999999995</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1.0263500000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98163986000000003</v>
       </c>
@@ -1407,8 +2304,20 @@
       <c r="E73">
         <v>1.02495</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>0.97872484000000004</v>
+      </c>
+      <c r="H73">
+        <v>1.02495</v>
+      </c>
+      <c r="J73">
+        <v>0.98710929999999997</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1.02495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98200410000000005</v>
       </c>
@@ -1421,8 +2330,20 @@
       <c r="E74">
         <v>1.0284599999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>0.97928539999999997</v>
+      </c>
+      <c r="H74">
+        <v>1.0284599999999999</v>
+      </c>
+      <c r="J74">
+        <v>0.98720110000000005</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1.0284599999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98241100000000003</v>
       </c>
@@ -1435,8 +2356,20 @@
       <c r="E75">
         <v>1.0250999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>0.98014146000000002</v>
+      </c>
+      <c r="H75">
+        <v>1.0250999999999999</v>
+      </c>
+      <c r="J75">
+        <v>0.98717546</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1.0250999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98286790000000002</v>
       </c>
@@ -1449,8 +2382,20 @@
       <c r="E76">
         <v>1.0096400000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>0.98113154999999996</v>
+      </c>
+      <c r="H76">
+        <v>1.0096400000000001</v>
+      </c>
+      <c r="J76">
+        <v>0.98715054999999996</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1.0096400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98338102999999999</v>
       </c>
@@ -1463,8 +2408,20 @@
       <c r="E77">
         <v>1.0232699999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>0.97754810000000003</v>
+      </c>
+      <c r="H77">
+        <v>1.0232699999999999</v>
+      </c>
+      <c r="J77">
+        <v>0.98499893999999999</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1.0232699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98389950000000004</v>
       </c>
@@ -1477,8 +2434,20 @@
       <c r="E78">
         <v>1.0213699999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>0.97794800000000004</v>
+      </c>
+      <c r="H78">
+        <v>1.0213699999999999</v>
+      </c>
+      <c r="J78">
+        <v>0.98326265999999996</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1.0213699999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98431873000000003</v>
       </c>
@@ -1491,8 +2460,20 @@
       <c r="E79">
         <v>1.01189</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>0.97909970000000002</v>
+      </c>
+      <c r="H79">
+        <v>1.01189</v>
+      </c>
+      <c r="J79">
+        <v>0.98407409999999995</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1.01189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98454370000000002</v>
       </c>
@@ -1505,8 +2486,20 @@
       <c r="E80">
         <v>1.0149600000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>0.97730899999999998</v>
+      </c>
+      <c r="H80">
+        <v>1.0149600000000001</v>
+      </c>
+      <c r="J80">
+        <v>0.98264859999999998</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1.0149600000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98472499999999996</v>
       </c>
@@ -1519,8 +2512,20 @@
       <c r="E81">
         <v>1.01346</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>0.97688819999999998</v>
+      </c>
+      <c r="H81">
+        <v>1.01346</v>
+      </c>
+      <c r="J81">
+        <v>0.981881</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1.01346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.9847243</v>
       </c>
@@ -1533,8 +2538,20 @@
       <c r="E82">
         <v>1.0166200000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>0.97558814000000005</v>
+      </c>
+      <c r="H82">
+        <v>1.0166200000000001</v>
+      </c>
+      <c r="J82">
+        <v>0.98125934999999997</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1.0166200000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98449500000000001</v>
       </c>
@@ -1547,8 +2564,20 @@
       <c r="E83">
         <v>1.00373</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>0.97674316000000005</v>
+      </c>
+      <c r="H83">
+        <v>1.00373</v>
+      </c>
+      <c r="J83">
+        <v>0.98154604000000001</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1.00373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98391819999999997</v>
       </c>
@@ -1561,8 +2590,20 @@
       <c r="E84">
         <v>1.0016</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>0.97291945999999996</v>
+      </c>
+      <c r="H84">
+        <v>1.0016</v>
+      </c>
+      <c r="J84">
+        <v>0.97826385000000005</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1.0016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98308605000000004</v>
       </c>
@@ -1575,8 +2616,20 @@
       <c r="E85">
         <v>0.99201600000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>0.97088843999999996</v>
+      </c>
+      <c r="H85">
+        <v>0.99201600000000001</v>
+      </c>
+      <c r="J85">
+        <v>0.97437894000000003</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.99201600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.98196300000000003</v>
       </c>
@@ -1589,8 +2642,20 @@
       <c r="E86">
         <v>0.99263100000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>0.96913355999999995</v>
+      </c>
+      <c r="H86">
+        <v>0.99263100000000004</v>
+      </c>
+      <c r="J86">
+        <v>0.97237587000000003</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.99263100000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98071059999999999</v>
       </c>
@@ -1603,8 +2668,20 @@
       <c r="E87">
         <v>1.0103500000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>0.96800684999999997</v>
+      </c>
+      <c r="H87">
+        <v>1.0103500000000001</v>
+      </c>
+      <c r="J87">
+        <v>0.97076810000000002</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1.0103500000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98030229999999996</v>
       </c>
@@ -1617,8 +2694,20 @@
       <c r="E88">
         <v>1.0129300000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>0.96877139999999995</v>
+      </c>
+      <c r="H88">
+        <v>1.0129300000000001</v>
+      </c>
+      <c r="J88">
+        <v>0.97266876999999996</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1.0129300000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98065959999999996</v>
       </c>
@@ -1631,8 +2720,20 @@
       <c r="E89">
         <v>1.0024999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>0.97232085000000001</v>
+      </c>
+      <c r="H89">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="J89">
+        <v>0.97548294000000002</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1.0024999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98071193999999995</v>
       </c>
@@ -1645,8 +2746,20 @@
       <c r="E90">
         <v>0.99565800000000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>0.97146650000000001</v>
+      </c>
+      <c r="H90">
+        <v>0.99565800000000004</v>
+      </c>
+      <c r="J90">
+        <v>0.97457240000000001</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.99565800000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.97984766999999995</v>
       </c>
@@ -1659,8 +2772,20 @@
       <c r="E91">
         <v>1.0040500000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>0.96816796000000005</v>
+      </c>
+      <c r="H91">
+        <v>1.0040500000000001</v>
+      </c>
+      <c r="J91">
+        <v>0.97106289999999995</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1.0040500000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.97908704999999996</v>
       </c>
@@ -1673,8 +2798,20 @@
       <c r="E92">
         <v>1.00698</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>0.96874165999999995</v>
+      </c>
+      <c r="H92">
+        <v>1.00698</v>
+      </c>
+      <c r="J92">
+        <v>0.97157585999999996</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1.00698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.97884300000000002</v>
       </c>
@@ -1687,8 +2824,20 @@
       <c r="E93">
         <v>1.02169</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>0.96987699999999999</v>
+      </c>
+      <c r="H93">
+        <v>1.02169</v>
+      </c>
+      <c r="J93">
+        <v>0.97359180000000001</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1.02169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.97900039999999999</v>
       </c>
@@ -1701,8 +2850,20 @@
       <c r="E94">
         <v>1.01373</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>0.97249289999999999</v>
+      </c>
+      <c r="H94">
+        <v>1.01373</v>
+      </c>
+      <c r="J94">
+        <v>0.97630536999999995</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1.01373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97906053000000004</v>
       </c>
@@ -1715,8 +2876,20 @@
       <c r="E95">
         <v>1.0228299999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>0.97379300000000002</v>
+      </c>
+      <c r="H95">
+        <v>1.0228299999999999</v>
+      </c>
+      <c r="J95">
+        <v>0.97680809999999996</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1.0228299999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97900719999999997</v>
       </c>
@@ -1729,8 +2902,20 @@
       <c r="E96">
         <v>1.0237799999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>0.97545694999999999</v>
+      </c>
+      <c r="H96">
+        <v>1.0237799999999999</v>
+      </c>
+      <c r="J96">
+        <v>0.97750174999999995</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1.0237799999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97931109999999999</v>
       </c>
@@ -1743,8 +2928,20 @@
       <c r="E97">
         <v>1.01274</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>0.97783750000000003</v>
+      </c>
+      <c r="H97">
+        <v>1.01274</v>
+      </c>
+      <c r="J97">
+        <v>0.97936449999999997</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1.01274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97974159999999999</v>
       </c>
@@ -1757,8 +2954,20 @@
       <c r="E98">
         <v>1.0083</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>0.97685659999999996</v>
+      </c>
+      <c r="H98">
+        <v>1.0083</v>
+      </c>
+      <c r="J98">
+        <v>0.97878825999999997</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1.0083</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97993330000000001</v>
       </c>
@@ -1771,8 +2980,20 @@
       <c r="E99">
         <v>1.0077199999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>0.97574079999999996</v>
+      </c>
+      <c r="H99">
+        <v>1.0077199999999999</v>
+      </c>
+      <c r="J99">
+        <v>0.97722030000000004</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1.0077199999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97969764000000004</v>
       </c>
@@ -1785,8 +3006,20 @@
       <c r="E100">
         <v>0.97671200000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>0.97387449999999998</v>
+      </c>
+      <c r="H100">
+        <v>0.97671200000000002</v>
+      </c>
+      <c r="J100">
+        <v>0.97540249999999995</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.97671200000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97793596999999999</v>
       </c>
@@ -1799,8 +3032,20 @@
       <c r="E101">
         <v>0.98058000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>0.96545475999999997</v>
+      </c>
+      <c r="H101">
+        <v>0.98058000000000001</v>
+      </c>
+      <c r="J101">
+        <v>0.96639717000000003</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.98058000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97617259999999995</v>
       </c>
@@ -1813,8 +3058,20 @@
       <c r="E102">
         <v>0.99070000000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>0.96393609999999996</v>
+      </c>
+      <c r="H102">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="J102">
+        <v>0.96237660000000003</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97623150000000003</v>
       </c>
@@ -1827,8 +3084,20 @@
       <c r="E103">
         <v>0.99024800000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>0.96478719999999996</v>
+      </c>
+      <c r="H103">
+        <v>0.99024800000000002</v>
+      </c>
+      <c r="J103">
+        <v>0.96423150000000002</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.99024800000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97707679999999997</v>
       </c>
@@ -1841,8 +3110,20 @@
       <c r="E104">
         <v>0.98457600000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>0.96646980000000005</v>
+      </c>
+      <c r="H104">
+        <v>0.98457600000000001</v>
+      </c>
+      <c r="J104">
+        <v>0.96663666000000004</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0.98457600000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97745514</v>
       </c>
@@ -1855,8 +3136,20 @@
       <c r="E105">
         <v>0.99347300000000005</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>0.96526749999999995</v>
+      </c>
+      <c r="H105">
+        <v>0.99347300000000005</v>
+      </c>
+      <c r="J105">
+        <v>0.96677077</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.99347300000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97696110000000003</v>
       </c>
@@ -1869,8 +3162,20 @@
       <c r="E106">
         <v>0.96896099999999996</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>0.96267164000000005</v>
+      </c>
+      <c r="H106">
+        <v>0.96896099999999996</v>
+      </c>
+      <c r="J106">
+        <v>0.96664786000000003</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.96896099999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97576605999999999</v>
       </c>
@@ -1883,8 +3188,20 @@
       <c r="E107">
         <v>0.97223599999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>0.95994539999999995</v>
+      </c>
+      <c r="H107">
+        <v>0.97223599999999999</v>
+      </c>
+      <c r="J107">
+        <v>0.96372354000000005</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0.97223599999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97488629999999998</v>
       </c>
@@ -1897,8 +3214,20 @@
       <c r="E108">
         <v>0.99013499999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>0.95905620000000003</v>
+      </c>
+      <c r="H108">
+        <v>0.99013499999999999</v>
+      </c>
+      <c r="J108">
+        <v>0.96231973000000004</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0.99013499999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97477650000000005</v>
       </c>
@@ -1911,8 +3240,20 @@
       <c r="E109">
         <v>1.0063899999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>0.95946074000000003</v>
+      </c>
+      <c r="H109">
+        <v>1.0063899999999999</v>
+      </c>
+      <c r="J109">
+        <v>0.96398030000000001</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1.0063899999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97557044000000004</v>
       </c>
@@ -1925,8 +3266,20 @@
       <c r="E110">
         <v>1.0129999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>0.96259030000000001</v>
+      </c>
+      <c r="H110">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="J110">
+        <v>0.96875990000000001</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97673255000000003</v>
       </c>
@@ -1939,8 +3292,20 @@
       <c r="E111">
         <v>1.0119</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>0.96686030000000001</v>
+      </c>
+      <c r="H111">
+        <v>1.0119</v>
+      </c>
+      <c r="J111">
+        <v>0.97385239999999995</v>
+      </c>
+      <c r="K111" s="1">
+        <v>1.0119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97761030000000004</v>
       </c>
@@ -1953,8 +3318,20 @@
       <c r="E112">
         <v>1.0238499999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>0.96942543999999997</v>
+      </c>
+      <c r="H112">
+        <v>1.0238499999999999</v>
+      </c>
+      <c r="J112">
+        <v>0.97719955000000003</v>
+      </c>
+      <c r="K112" s="1">
+        <v>1.0238499999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97834580000000004</v>
       </c>
@@ -1967,8 +3344,20 @@
       <c r="E113">
         <v>1.0255099999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>0.97205185999999999</v>
+      </c>
+      <c r="H113">
+        <v>1.0255099999999999</v>
+      </c>
+      <c r="J113">
+        <v>0.98024389999999995</v>
+      </c>
+      <c r="K113" s="1">
+        <v>1.0255099999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97910260000000005</v>
       </c>
@@ -1981,8 +3370,20 @@
       <c r="E114">
         <v>1.02667</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>0.97448855999999995</v>
+      </c>
+      <c r="H114">
+        <v>1.02667</v>
+      </c>
+      <c r="J114">
+        <v>0.98257470000000002</v>
+      </c>
+      <c r="K114" s="1">
+        <v>1.02667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97996780000000006</v>
       </c>
@@ -1995,8 +3396,20 @@
       <c r="E115">
         <v>1.0202500000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>0.97568125000000006</v>
+      </c>
+      <c r="H115">
+        <v>1.0202500000000001</v>
+      </c>
+      <c r="J115">
+        <v>0.98341155000000002</v>
+      </c>
+      <c r="K115" s="1">
+        <v>1.0202500000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.9808017</v>
       </c>
@@ -2009,8 +3422,20 @@
       <c r="E116">
         <v>1.01668</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>0.97556929999999997</v>
+      </c>
+      <c r="H116">
+        <v>1.01668</v>
+      </c>
+      <c r="J116">
+        <v>0.98332560000000002</v>
+      </c>
+      <c r="K116" s="1">
+        <v>1.01668</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.98146533999999996</v>
       </c>
@@ -2023,8 +3448,20 @@
       <c r="E117">
         <v>1.0081899999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>0.97570009999999996</v>
+      </c>
+      <c r="H117">
+        <v>1.0081899999999999</v>
+      </c>
+      <c r="J117">
+        <v>0.98262143000000002</v>
+      </c>
+      <c r="K117" s="1">
+        <v>1.0081899999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.98195619999999995</v>
       </c>
@@ -2037,8 +3474,20 @@
       <c r="E118">
         <v>0.99227699999999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>0.97483014999999995</v>
+      </c>
+      <c r="H118">
+        <v>0.99227699999999996</v>
+      </c>
+      <c r="J118">
+        <v>0.98162674999999999</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0.99227699999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.98239124</v>
       </c>
@@ -2051,8 +3500,20 @@
       <c r="E119">
         <v>0.98378399999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>0.97201479999999996</v>
+      </c>
+      <c r="H119">
+        <v>0.98378399999999999</v>
+      </c>
+      <c r="J119">
+        <v>0.97847879999999998</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0.98378399999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9825874</v>
       </c>
@@ -2065,8 +3526,20 @@
       <c r="E120">
         <v>1.0019</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>0.9704353</v>
+      </c>
+      <c r="H120">
+        <v>1.0019</v>
+      </c>
+      <c r="J120">
+        <v>0.97464249999999997</v>
+      </c>
+      <c r="K120" s="1">
+        <v>1.0019</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98263029999999996</v>
       </c>
@@ -2079,8 +3552,20 @@
       <c r="E121">
         <v>1.0127299999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>0.96983266000000001</v>
+      </c>
+      <c r="H121">
+        <v>1.0127299999999999</v>
+      </c>
+      <c r="J121">
+        <v>0.97427713999999999</v>
+      </c>
+      <c r="K121" s="1">
+        <v>1.0127299999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98298450000000004</v>
       </c>
@@ -2093,8 +3578,20 @@
       <c r="E122">
         <v>1.0127699999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>0.9721689</v>
+      </c>
+      <c r="H122">
+        <v>1.0127699999999999</v>
+      </c>
+      <c r="J122">
+        <v>0.97694219999999998</v>
+      </c>
+      <c r="K122" s="1">
+        <v>1.0127699999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98353460000000004</v>
       </c>
@@ -2107,8 +3604,20 @@
       <c r="E123">
         <v>1.0093799999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>0.97338519999999995</v>
+      </c>
+      <c r="H123">
+        <v>1.0093799999999999</v>
+      </c>
+      <c r="J123">
+        <v>0.97886680000000004</v>
+      </c>
+      <c r="K123" s="1">
+        <v>1.0093799999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.98405050000000005</v>
       </c>
@@ -2121,8 +3630,20 @@
       <c r="E124">
         <v>1.00528</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>0.97441520000000004</v>
+      </c>
+      <c r="H124">
+        <v>1.00528</v>
+      </c>
+      <c r="J124">
+        <v>0.98007560000000005</v>
+      </c>
+      <c r="K124" s="1">
+        <v>1.00528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98429626000000003</v>
       </c>
@@ -2135,8 +3656,20 @@
       <c r="E125">
         <v>1.0019400000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>0.97328269999999995</v>
+      </c>
+      <c r="H125">
+        <v>1.0019400000000001</v>
+      </c>
+      <c r="J125">
+        <v>0.98007953000000003</v>
+      </c>
+      <c r="K125" s="1">
+        <v>1.0019400000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98426913999999999</v>
       </c>
@@ -2149,8 +3682,20 @@
       <c r="E126">
         <v>1.0065599999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>0.97292053999999994</v>
+      </c>
+      <c r="H126">
+        <v>1.0065599999999999</v>
+      </c>
+      <c r="J126">
+        <v>0.97963060000000002</v>
+      </c>
+      <c r="K126" s="1">
+        <v>1.0065599999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98429429999999996</v>
       </c>
@@ -2163,8 +3708,20 @@
       <c r="E127">
         <v>0.99504300000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>0.97300109999999995</v>
+      </c>
+      <c r="H127">
+        <v>0.99504300000000001</v>
+      </c>
+      <c r="J127">
+        <v>0.9803077</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0.99504300000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98417840000000001</v>
       </c>
@@ -2177,8 +3734,20 @@
       <c r="E128">
         <v>0.99080599999999996</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>0.9698677</v>
+      </c>
+      <c r="H128">
+        <v>0.99080599999999996</v>
+      </c>
+      <c r="J128">
+        <v>0.97770179999999995</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0.99080599999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98372369999999998</v>
       </c>
@@ -2191,8 +3760,20 @@
       <c r="E129">
         <v>1.00962</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>0.96827965999999999</v>
+      </c>
+      <c r="H129">
+        <v>1.00962</v>
+      </c>
+      <c r="J129">
+        <v>0.97433150000000002</v>
+      </c>
+      <c r="K129" s="1">
+        <v>1.00962</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98357570000000005</v>
       </c>
@@ -2205,8 +3786,20 @@
       <c r="E130">
         <v>0.99540300000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>0.97012423999999997</v>
+      </c>
+      <c r="H130">
+        <v>0.99540300000000004</v>
+      </c>
+      <c r="J130">
+        <v>0.97680940000000005</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0.99540300000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98368542999999997</v>
       </c>
@@ -2219,8 +3812,20 @@
       <c r="E131">
         <v>0.99680299999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>0.96936180000000005</v>
+      </c>
+      <c r="H131">
+        <v>0.99680299999999999</v>
+      </c>
+      <c r="J131">
+        <v>0.97725430000000002</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0.99680299999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98327949999999997</v>
       </c>
@@ -2233,8 +3838,20 @@
       <c r="E132">
         <v>0.99492199999999997</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>0.96582829999999997</v>
+      </c>
+      <c r="H132">
+        <v>0.99492199999999997</v>
+      </c>
+      <c r="J132">
+        <v>0.97380149999999999</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0.99492199999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98277073999999998</v>
       </c>
@@ -2247,8 +3864,20 @@
       <c r="E133">
         <v>1.0006900000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>0.96782250000000003</v>
+      </c>
+      <c r="H133">
+        <v>1.0006900000000001</v>
+      </c>
+      <c r="J133">
+        <v>0.97481203000000005</v>
+      </c>
+      <c r="K133" s="1">
+        <v>1.0006900000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98254269999999999</v>
       </c>
@@ -2261,8 +3890,20 @@
       <c r="E134">
         <v>1.0083899999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>0.96965460000000003</v>
+      </c>
+      <c r="H134">
+        <v>1.0083899999999999</v>
+      </c>
+      <c r="J134">
+        <v>0.97738504000000004</v>
+      </c>
+      <c r="K134" s="1">
+        <v>1.0083899999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98247397000000003</v>
       </c>
@@ -2275,8 +3916,20 @@
       <c r="E135">
         <v>1.0044900000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>0.97088956999999998</v>
+      </c>
+      <c r="H135">
+        <v>1.0044900000000001</v>
+      </c>
+      <c r="J135">
+        <v>0.97979260000000001</v>
+      </c>
+      <c r="K135" s="1">
+        <v>1.0044900000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98264300000000004</v>
       </c>
@@ -2289,8 +3942,20 @@
       <c r="E136">
         <v>0.99224900000000005</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>0.97320013999999999</v>
+      </c>
+      <c r="H136">
+        <v>0.99224900000000005</v>
+      </c>
+      <c r="J136">
+        <v>0.98205566</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0.99224900000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98228073000000005</v>
       </c>
@@ -2303,8 +3968,20 @@
       <c r="E137">
         <v>0.96121800000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>0.96935450000000001</v>
+      </c>
+      <c r="H137">
+        <v>0.96121800000000002</v>
+      </c>
+      <c r="J137">
+        <v>0.97980880000000004</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0.96121800000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.97903110000000004</v>
       </c>
@@ -2317,8 +3994,20 @@
       <c r="E138">
         <v>0.91536300000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>0.95972080000000004</v>
+      </c>
+      <c r="H138">
+        <v>0.91536300000000004</v>
+      </c>
+      <c r="J138">
+        <v>0.96890103999999999</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0.91536300000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.97004630000000003</v>
       </c>
@@ -2331,8 +4020,20 @@
       <c r="E139">
         <v>0.86042799999999997</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>0.94830256999999996</v>
+      </c>
+      <c r="H139">
+        <v>0.86042799999999997</v>
+      </c>
+      <c r="J139">
+        <v>0.95287540000000004</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0.86042799999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.9547544</v>
       </c>
@@ -2345,8 +4046,20 @@
       <c r="E140">
         <v>0.84232399999999996</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>0.93439024999999998</v>
+      </c>
+      <c r="H140">
+        <v>0.84232399999999996</v>
+      </c>
+      <c r="J140">
+        <v>0.93184029999999995</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0.84232399999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.93693346</v>
       </c>
@@ -2359,8 +4072,20 @@
       <c r="E141">
         <v>0.89387899999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>0.92752975000000004</v>
+      </c>
+      <c r="H141">
+        <v>0.89387899999999998</v>
+      </c>
+      <c r="J141">
+        <v>0.91842509999999999</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0.89387899999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.92407969999999995</v>
       </c>
@@ -2373,8 +4098,20 @@
       <c r="E142">
         <v>0.92722300000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>0.92516226000000001</v>
+      </c>
+      <c r="H142">
+        <v>0.92722300000000002</v>
+      </c>
+      <c r="J142">
+        <v>0.91724349999999999</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0.92722300000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.92545204999999997</v>
       </c>
@@ -2387,8 +4124,20 @@
       <c r="E143">
         <v>0.92807799999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>0.92773260000000002</v>
+      </c>
+      <c r="H143">
+        <v>0.92807799999999996</v>
+      </c>
+      <c r="J143">
+        <v>0.92759990000000003</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0.92807799999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.933639</v>
       </c>
@@ -2401,8 +4150,20 @@
       <c r="E144">
         <v>0.91627499999999995</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>0.9326586</v>
+      </c>
+      <c r="H144">
+        <v>0.91627499999999995</v>
+      </c>
+      <c r="J144">
+        <v>0.94069469999999999</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0.91627499999999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93672144000000002</v>
       </c>
@@ -2415,8 +4176,20 @@
       <c r="E145">
         <v>0.87502500000000005</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>0.93409883999999999</v>
+      </c>
+      <c r="H145">
+        <v>0.87502500000000005</v>
+      </c>
+      <c r="J145">
+        <v>0.95018599999999998</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0.87502500000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92697589999999996</v>
       </c>
@@ -2429,8 +4202,20 @@
       <c r="E146">
         <v>0.89978400000000003</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <v>0.92672604000000003</v>
+      </c>
+      <c r="H146">
+        <v>0.89978400000000003</v>
+      </c>
+      <c r="J146">
+        <v>0.9485034</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0.89978400000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.91321622999999996</v>
       </c>
@@ -2443,8 +4228,20 @@
       <c r="E147">
         <v>0.901389</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <v>0.92630920000000005</v>
+      </c>
+      <c r="H147">
+        <v>0.901389</v>
+      </c>
+      <c r="J147">
+        <v>0.94994164000000003</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0.901389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.90451545</v>
       </c>
@@ -2457,8 +4254,20 @@
       <c r="E148">
         <v>0.88023700000000005</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <v>0.92760425999999996</v>
+      </c>
+      <c r="H148">
+        <v>0.88023700000000005</v>
+      </c>
+      <c r="J148">
+        <v>0.95198380000000005</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0.88023700000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.89857799999999999</v>
       </c>
@@ -2471,8 +4280,20 @@
       <c r="E149">
         <v>0.91431600000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G149">
+        <v>0.92574537000000001</v>
+      </c>
+      <c r="H149">
+        <v>0.91431600000000002</v>
+      </c>
+      <c r="J149">
+        <v>0.94959150000000003</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0.91431600000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.90034729999999996</v>
       </c>
@@ -2485,8 +4306,20 @@
       <c r="E150">
         <v>0.89496100000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G150">
+        <v>0.92390287000000004</v>
+      </c>
+      <c r="H150">
+        <v>0.89496100000000001</v>
+      </c>
+      <c r="J150">
+        <v>0.94816875</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0.89496100000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.90802103000000001</v>
       </c>
@@ -2499,8 +4332,20 @@
       <c r="E151">
         <v>0.90220900000000004</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <v>0.92306299999999997</v>
+      </c>
+      <c r="H151">
+        <v>0.90220900000000004</v>
+      </c>
+      <c r="J151">
+        <v>0.94612790000000002</v>
+      </c>
+      <c r="K151" s="1">
+        <v>0.90220900000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.91741079999999997</v>
       </c>
@@ -2513,8 +4358,20 @@
       <c r="E152">
         <v>0.90840399999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G152">
+        <v>0.92624044000000005</v>
+      </c>
+      <c r="H152">
+        <v>0.90840399999999999</v>
+      </c>
+      <c r="J152">
+        <v>0.94849443</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0.90840399999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.92375510000000005</v>
       </c>
@@ -2527,8 +4384,20 @@
       <c r="E153">
         <v>0.90273300000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <v>0.93103380000000002</v>
+      </c>
+      <c r="H153">
+        <v>0.90273300000000001</v>
+      </c>
+      <c r="J153">
+        <v>0.95432854</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0.90273300000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.92515199999999997</v>
       </c>
@@ -2541,8 +4410,20 @@
       <c r="E154">
         <v>0.92045500000000002</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G154">
+        <v>0.93442093999999998</v>
+      </c>
+      <c r="H154">
+        <v>0.92045500000000002</v>
+      </c>
+      <c r="J154">
+        <v>0.95840809999999999</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0.92045500000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.92614399999999997</v>
       </c>
@@ -2555,8 +4436,20 @@
       <c r="E155">
         <v>0.93263300000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G155">
+        <v>0.93771046000000002</v>
+      </c>
+      <c r="H155">
+        <v>0.93263300000000005</v>
+      </c>
+      <c r="J155">
+        <v>0.96410059999999997</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0.93263300000000005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.93095874999999995</v>
       </c>
@@ -2569,8 +4462,20 @@
       <c r="E156">
         <v>0.92901900000000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G156">
+        <v>0.9427238</v>
+      </c>
+      <c r="H156">
+        <v>0.92901900000000004</v>
+      </c>
+      <c r="J156">
+        <v>0.96917379999999997</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0.92901900000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.93712969999999995</v>
       </c>
@@ -2583,8 +4488,20 @@
       <c r="E157">
         <v>0.90626899999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G157">
+        <v>0.9451022</v>
+      </c>
+      <c r="H157">
+        <v>0.90626899999999999</v>
+      </c>
+      <c r="J157">
+        <v>0.97179159999999998</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0.90626899999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.93991696999999996</v>
       </c>
@@ -2597,8 +4514,20 @@
       <c r="E158">
         <v>0.91259100000000004</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>0.94187414999999997</v>
+      </c>
+      <c r="H158">
+        <v>0.91259100000000004</v>
+      </c>
+      <c r="J158">
+        <v>0.96687659999999997</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0.91259100000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.94084129999999999</v>
       </c>
@@ -2611,8 +4540,20 @@
       <c r="E159">
         <v>0.89545600000000003</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <v>0.94362754000000004</v>
+      </c>
+      <c r="H159">
+        <v>0.89545600000000003</v>
+      </c>
+      <c r="J159">
+        <v>0.96511245000000001</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0.89545600000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.94026430000000005</v>
       </c>
@@ -2625,8 +4566,20 @@
       <c r="E160">
         <v>0.89264100000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G160">
+        <v>0.94017123999999996</v>
+      </c>
+      <c r="H160">
+        <v>0.89264100000000002</v>
+      </c>
+      <c r="J160">
+        <v>0.95941365000000001</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0.89264100000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.94110380000000005</v>
       </c>
@@ -2639,8 +4592,20 @@
       <c r="E161">
         <v>0.88802999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G161">
+        <v>0.94014240000000004</v>
+      </c>
+      <c r="H161">
+        <v>0.88802999999999999</v>
+      </c>
+      <c r="J161">
+        <v>0.95604073999999994</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0.88802999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.94173353999999998</v>
       </c>
@@ -2653,8 +4618,20 @@
       <c r="E162">
         <v>0.88739400000000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G162">
+        <v>0.93714649999999999</v>
+      </c>
+      <c r="H162">
+        <v>0.88739400000000002</v>
+      </c>
+      <c r="J162">
+        <v>0.95199049999999996</v>
+      </c>
+      <c r="K162" s="1">
+        <v>0.88739400000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94368196000000004</v>
       </c>
@@ -2667,8 +4644,20 @@
       <c r="E163">
         <v>0.85233800000000004</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G163">
+        <v>0.93655485000000005</v>
+      </c>
+      <c r="H163">
+        <v>0.85233800000000004</v>
+      </c>
+      <c r="J163">
+        <v>0.95178149999999995</v>
+      </c>
+      <c r="K163" s="1">
+        <v>0.85233800000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94127249999999996</v>
       </c>
@@ -2681,8 +4670,20 @@
       <c r="E164">
         <v>0.85397900000000004</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G164">
+        <v>0.92989770000000005</v>
+      </c>
+      <c r="H164">
+        <v>0.85397900000000004</v>
+      </c>
+      <c r="J164">
+        <v>0.94368863000000003</v>
+      </c>
+      <c r="K164" s="1">
+        <v>0.85397900000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.93782215999999996</v>
       </c>
@@ -2695,8 +4696,20 @@
       <c r="E165">
         <v>0.87939500000000004</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G165">
+        <v>0.92807649999999997</v>
+      </c>
+      <c r="H165">
+        <v>0.87939500000000004</v>
+      </c>
+      <c r="J165">
+        <v>0.94109569999999998</v>
+      </c>
+      <c r="K165" s="1">
+        <v>0.87939500000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.93808895000000003</v>
       </c>
@@ -2709,8 +4722,20 @@
       <c r="E166">
         <v>0.88207500000000005</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G166">
+        <v>0.92891509999999999</v>
+      </c>
+      <c r="H166">
+        <v>0.88207500000000005</v>
+      </c>
+      <c r="J166">
+        <v>0.94514120000000001</v>
+      </c>
+      <c r="K166" s="1">
+        <v>0.88207500000000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.93920802999999997</v>
       </c>
@@ -2723,8 +4748,20 @@
       <c r="E167">
         <v>0.90155200000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G167">
+        <v>0.93111396000000002</v>
+      </c>
+      <c r="H167">
+        <v>0.90155200000000002</v>
+      </c>
+      <c r="J167">
+        <v>0.94962597000000004</v>
+      </c>
+      <c r="K167" s="1">
+        <v>0.90155200000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.93959300000000001</v>
       </c>
@@ -2737,8 +4774,20 @@
       <c r="E168">
         <v>0.92679100000000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G168">
+        <v>0.92967080000000002</v>
+      </c>
+      <c r="H168">
+        <v>0.92679100000000003</v>
+      </c>
+      <c r="J168">
+        <v>0.95253929999999998</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0.92679100000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.94315260000000001</v>
       </c>
@@ -2751,8 +4800,20 @@
       <c r="E169">
         <v>0.92174900000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G169">
+        <v>0.93464469999999999</v>
+      </c>
+      <c r="H169">
+        <v>0.92174900000000004</v>
+      </c>
+      <c r="J169">
+        <v>0.95982730000000005</v>
+      </c>
+      <c r="K169" s="1">
+        <v>0.92174900000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.94766163999999997</v>
       </c>
@@ -2765,8 +4826,20 @@
       <c r="E170">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G170">
+        <v>0.93998605000000002</v>
+      </c>
+      <c r="H170">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J170">
+        <v>0.96511495000000003</v>
+      </c>
+      <c r="K170" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.95133719999999999</v>
       </c>
@@ -2779,8 +4852,20 @@
       <c r="E171">
         <v>0.94544700000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G171">
+        <v>0.94379029999999997</v>
+      </c>
+      <c r="H171">
+        <v>0.94544700000000004</v>
+      </c>
+      <c r="J171">
+        <v>0.96931624000000005</v>
+      </c>
+      <c r="K171" s="1">
+        <v>0.94544700000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.95438230000000002</v>
       </c>
@@ -2793,8 +4878,20 @@
       <c r="E172">
         <v>0.94647999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <v>0.94714790000000004</v>
+      </c>
+      <c r="H172">
+        <v>0.94647999999999999</v>
+      </c>
+      <c r="J172">
+        <v>0.97250544999999999</v>
+      </c>
+      <c r="K172" s="1">
+        <v>0.94647999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.95731500000000003</v>
       </c>
@@ -2807,8 +4904,20 @@
       <c r="E173">
         <v>0.94829699999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G173">
+        <v>0.95180690000000001</v>
+      </c>
+      <c r="H173">
+        <v>0.94829699999999995</v>
+      </c>
+      <c r="J173">
+        <v>0.97491704999999995</v>
+      </c>
+      <c r="K173" s="1">
+        <v>0.94829699999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.95968229999999999</v>
       </c>
@@ -2821,8 +4930,20 @@
       <c r="E174">
         <v>0.93855900000000003</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G174">
+        <v>0.95572100000000004</v>
+      </c>
+      <c r="H174">
+        <v>0.93855900000000003</v>
+      </c>
+      <c r="J174">
+        <v>0.97681689999999999</v>
+      </c>
+      <c r="K174" s="1">
+        <v>0.93855900000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.96201610000000004</v>
       </c>
@@ -2835,8 +4956,20 @@
       <c r="E175">
         <v>0.93187600000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G175">
+        <v>0.95740073999999997</v>
+      </c>
+      <c r="H175">
+        <v>0.93187600000000004</v>
+      </c>
+      <c r="J175">
+        <v>0.97750545</v>
+      </c>
+      <c r="K175" s="1">
+        <v>0.93187600000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.96395209999999998</v>
       </c>
@@ -2849,8 +4982,20 @@
       <c r="E176">
         <v>0.95282299999999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G176">
+        <v>0.95862449999999999</v>
+      </c>
+      <c r="H176">
+        <v>0.95282299999999998</v>
+      </c>
+      <c r="J176">
+        <v>0.97672440000000005</v>
+      </c>
+      <c r="K176" s="1">
+        <v>0.95282299999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.96586989999999995</v>
       </c>
@@ -2863,8 +5008,20 @@
       <c r="E177">
         <v>0.95936500000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G177">
+        <v>0.95960749999999995</v>
+      </c>
+      <c r="H177">
+        <v>0.95936500000000002</v>
+      </c>
+      <c r="J177">
+        <v>0.97614049999999997</v>
+      </c>
+      <c r="K177" s="1">
+        <v>0.95936500000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.96764075999999999</v>
       </c>
@@ -2877,8 +5034,20 @@
       <c r="E178">
         <v>0.959754</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G178">
+        <v>0.96235800000000005</v>
+      </c>
+      <c r="H178">
+        <v>0.959754</v>
+      </c>
+      <c r="J178">
+        <v>0.97620629999999997</v>
+      </c>
+      <c r="K178" s="1">
+        <v>0.959754</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96969530000000004</v>
       </c>
@@ -2891,8 +5060,20 @@
       <c r="E179">
         <v>0.95770999999999995</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <v>0.96485920000000003</v>
+      </c>
+      <c r="H179">
+        <v>0.95770999999999995</v>
+      </c>
+      <c r="J179">
+        <v>0.97721016000000005</v>
+      </c>
+      <c r="K179" s="1">
+        <v>0.95770999999999995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.97170460000000003</v>
       </c>
@@ -2905,8 +5086,20 @@
       <c r="E180">
         <v>0.94934399999999997</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <v>0.96701029999999999</v>
+      </c>
+      <c r="H180">
+        <v>0.94934399999999997</v>
+      </c>
+      <c r="J180">
+        <v>0.97873867000000003</v>
+      </c>
+      <c r="K180" s="1">
+        <v>0.94934399999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.97299707000000002</v>
       </c>
@@ -2919,8 +5112,20 @@
       <c r="E181">
         <v>0.97308399999999995</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G181">
+        <v>0.96735095999999998</v>
+      </c>
+      <c r="H181">
+        <v>0.97308399999999995</v>
+      </c>
+      <c r="J181">
+        <v>0.97915640000000004</v>
+      </c>
+      <c r="K181" s="1">
+        <v>0.97308399999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.97433950000000003</v>
       </c>
@@ -2933,8 +5138,20 @@
       <c r="E182">
         <v>0.98909499999999995</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G182">
+        <v>0.96858895</v>
+      </c>
+      <c r="H182">
+        <v>0.98909499999999995</v>
+      </c>
+      <c r="J182">
+        <v>0.9805045</v>
+      </c>
+      <c r="K182" s="1">
+        <v>0.98909499999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.97554255000000001</v>
       </c>
@@ -2947,8 +5164,20 @@
       <c r="E183">
         <v>0.98628800000000005</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G183">
+        <v>0.9722267</v>
+      </c>
+      <c r="H183">
+        <v>0.98628800000000005</v>
+      </c>
+      <c r="J183">
+        <v>0.98315920000000001</v>
+      </c>
+      <c r="K183" s="1">
+        <v>0.98628800000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97656359999999998</v>
       </c>
@@ -2961,8 +5190,20 @@
       <c r="E184">
         <v>0.98254600000000003</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G184">
+        <v>0.97515759999999996</v>
+      </c>
+      <c r="H184">
+        <v>0.98254600000000003</v>
+      </c>
+      <c r="J184">
+        <v>0.98484609999999995</v>
+      </c>
+      <c r="K184" s="1">
+        <v>0.98254600000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97792214</v>
       </c>
@@ -2975,8 +5216,20 @@
       <c r="E185">
         <v>0.99984399999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G185">
+        <v>0.97520167000000002</v>
+      </c>
+      <c r="H185">
+        <v>0.99984399999999996</v>
+      </c>
+      <c r="J185">
+        <v>0.98513530000000005</v>
+      </c>
+      <c r="K185" s="1">
+        <v>0.99984399999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.9793828</v>
       </c>
@@ -2989,8 +5242,20 @@
       <c r="E186">
         <v>0.99917999999999996</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G186">
+        <v>0.97497619999999996</v>
+      </c>
+      <c r="H186">
+        <v>0.99917999999999996</v>
+      </c>
+      <c r="J186">
+        <v>0.98534690000000003</v>
+      </c>
+      <c r="K186" s="1">
+        <v>0.99917999999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.98040729999999998</v>
       </c>
@@ -3003,8 +5268,20 @@
       <c r="E187">
         <v>0.99207199999999995</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G187">
+        <v>0.97678290000000001</v>
+      </c>
+      <c r="H187">
+        <v>0.99207199999999995</v>
+      </c>
+      <c r="J187">
+        <v>0.98610914000000005</v>
+      </c>
+      <c r="K187" s="1">
+        <v>0.99207199999999995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.98111605999999996</v>
       </c>
@@ -3017,8 +5294,20 @@
       <c r="E188">
         <v>1.00953</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G188">
+        <v>0.97623879999999996</v>
+      </c>
+      <c r="H188">
+        <v>1.00953</v>
+      </c>
+      <c r="J188">
+        <v>0.98606706</v>
+      </c>
+      <c r="K188" s="1">
+        <v>1.00953</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.98187243999999996</v>
       </c>
@@ -3031,8 +5320,20 @@
       <c r="E189">
         <v>1.01359</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G189">
+        <v>0.97601914000000001</v>
+      </c>
+      <c r="H189">
+        <v>1.01359</v>
+      </c>
+      <c r="J189">
+        <v>0.98575984999999999</v>
+      </c>
+      <c r="K189" s="1">
+        <v>1.01359</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.98256403000000003</v>
       </c>
@@ -3045,8 +5346,20 @@
       <c r="E190">
         <v>1.0083</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G190">
+        <v>0.97707105000000005</v>
+      </c>
+      <c r="H190">
+        <v>1.0083</v>
+      </c>
+      <c r="J190">
+        <v>0.98648654999999996</v>
+      </c>
+      <c r="K190" s="1">
+        <v>1.0083</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98312259999999996</v>
       </c>
@@ -3059,8 +5372,20 @@
       <c r="E191">
         <v>1.0066200000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G191">
+        <v>0.97734840000000001</v>
+      </c>
+      <c r="H191">
+        <v>1.0066200000000001</v>
+      </c>
+      <c r="J191">
+        <v>0.98687720000000001</v>
+      </c>
+      <c r="K191" s="1">
+        <v>1.0066200000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98375254999999995</v>
       </c>
@@ -3073,8 +5398,20 @@
       <c r="E192">
         <v>1.0061</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G192">
+        <v>0.97665049999999998</v>
+      </c>
+      <c r="H192">
+        <v>1.0061</v>
+      </c>
+      <c r="J192">
+        <v>0.98658299999999999</v>
+      </c>
+      <c r="K192" s="1">
+        <v>1.0061</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98449209999999998</v>
       </c>
@@ -3087,8 +5424,20 @@
       <c r="E193">
         <v>0.99152099999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G193">
+        <v>0.97570246000000005</v>
+      </c>
+      <c r="H193">
+        <v>0.99152099999999999</v>
+      </c>
+      <c r="J193">
+        <v>0.98596656000000005</v>
+      </c>
+      <c r="K193" s="1">
+        <v>0.99152099999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98514500000000005</v>
       </c>
@@ -3101,8 +5450,20 @@
       <c r="E194">
         <v>0.99374099999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G194">
+        <v>0.97271717000000002</v>
+      </c>
+      <c r="H194">
+        <v>0.99374099999999999</v>
+      </c>
+      <c r="J194">
+        <v>0.98424279999999997</v>
+      </c>
+      <c r="K194" s="1">
+        <v>0.99374099999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98565453000000003</v>
       </c>
@@ -3115,8 +5476,20 @@
       <c r="E195">
         <v>0.98898900000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G195">
+        <v>0.97149485000000002</v>
+      </c>
+      <c r="H195">
+        <v>0.98898900000000001</v>
+      </c>
+      <c r="J195">
+        <v>0.98223936999999995</v>
+      </c>
+      <c r="K195" s="1">
+        <v>0.98898900000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98607814000000005</v>
       </c>
@@ -3129,8 +5502,20 @@
       <c r="E196">
         <v>0.96845899999999996</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G196">
+        <v>0.97007469999999996</v>
+      </c>
+      <c r="H196">
+        <v>0.96845899999999996</v>
+      </c>
+      <c r="J196">
+        <v>0.98146414999999998</v>
+      </c>
+      <c r="K196" s="1">
+        <v>0.96845899999999996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98608105999999995</v>
       </c>
@@ -3143,8 +5528,20 @@
       <c r="E197">
         <v>0.95224299999999995</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G197">
+        <v>0.96337600000000001</v>
+      </c>
+      <c r="H197">
+        <v>0.95224299999999995</v>
+      </c>
+      <c r="J197">
+        <v>0.97694504000000004</v>
+      </c>
+      <c r="K197" s="1">
+        <v>0.95224299999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98535790000000001</v>
       </c>
@@ -3157,8 +5554,20 @@
       <c r="E198">
         <v>0.97356500000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G198">
+        <v>0.95713720000000002</v>
+      </c>
+      <c r="H198">
+        <v>0.97356500000000001</v>
+      </c>
+      <c r="J198">
+        <v>0.97058929999999999</v>
+      </c>
+      <c r="K198" s="1">
+        <v>0.97356500000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98483220000000005</v>
       </c>
@@ -3171,8 +5580,20 @@
       <c r="E199">
         <v>0.97162000000000004</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G199">
+        <v>0.95446229999999999</v>
+      </c>
+      <c r="H199">
+        <v>0.97162000000000004</v>
+      </c>
+      <c r="J199">
+        <v>0.96984539999999997</v>
+      </c>
+      <c r="K199" s="1">
+        <v>0.97162000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98502339999999999</v>
       </c>
@@ -3185,8 +5606,20 @@
       <c r="E200">
         <v>0.99505699999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G200">
+        <v>0.95457829999999999</v>
+      </c>
+      <c r="H200">
+        <v>0.99505699999999997</v>
+      </c>
+      <c r="J200">
+        <v>0.97233009999999997</v>
+      </c>
+      <c r="K200" s="1">
+        <v>0.99505699999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98543809999999998</v>
       </c>
@@ -3199,8 +5632,20 @@
       <c r="E201">
         <v>0.99340200000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G201">
+        <v>0.95456742999999999</v>
+      </c>
+      <c r="H201">
+        <v>0.99340200000000001</v>
+      </c>
+      <c r="J201">
+        <v>0.97575723999999997</v>
+      </c>
+      <c r="K201" s="1">
+        <v>0.99340200000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98574779999999995</v>
       </c>
@@ -3213,8 +5658,20 @@
       <c r="E202">
         <v>0.99900999999999995</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G202">
+        <v>0.95704579999999995</v>
+      </c>
+      <c r="H202">
+        <v>0.99900999999999995</v>
+      </c>
+      <c r="J202">
+        <v>0.97922469999999995</v>
+      </c>
+      <c r="K202" s="1">
+        <v>0.99900999999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98582709999999996</v>
       </c>
@@ -3227,8 +5684,20 @@
       <c r="E203">
         <v>0.99718499999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G203">
+        <v>0.95801630000000004</v>
+      </c>
+      <c r="H203">
+        <v>0.99718499999999999</v>
+      </c>
+      <c r="J203">
+        <v>0.98199369999999997</v>
+      </c>
+      <c r="K203" s="1">
+        <v>0.99718499999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98575102999999997</v>
       </c>
@@ -3241,8 +5710,20 @@
       <c r="E204">
         <v>0.99898900000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G204">
+        <v>0.95871793999999999</v>
+      </c>
+      <c r="H204">
+        <v>0.99898900000000002</v>
+      </c>
+      <c r="J204">
+        <v>0.98348354999999998</v>
+      </c>
+      <c r="K204" s="1">
+        <v>0.99898900000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98565930000000002</v>
       </c>
@@ -3255,8 +5736,20 @@
       <c r="E205">
         <v>0.99879799999999996</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G205">
+        <v>0.95735930000000002</v>
+      </c>
+      <c r="H205">
+        <v>0.99879799999999996</v>
+      </c>
+      <c r="J205">
+        <v>0.98294722999999995</v>
+      </c>
+      <c r="K205" s="1">
+        <v>0.99879799999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98564845000000001</v>
       </c>
@@ -3269,8 +5762,20 @@
       <c r="E206">
         <v>0.99967499999999998</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G206">
+        <v>0.95923185</v>
+      </c>
+      <c r="H206">
+        <v>0.99967499999999998</v>
+      </c>
+      <c r="J206">
+        <v>0.98268056000000004</v>
+      </c>
+      <c r="K206" s="1">
+        <v>0.99967499999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98571235000000001</v>
       </c>
@@ -3283,8 +5788,20 @@
       <c r="E207">
         <v>0.992815</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G207">
+        <v>0.96068580000000003</v>
+      </c>
+      <c r="H207">
+        <v>0.992815</v>
+      </c>
+      <c r="J207">
+        <v>0.98331665999999995</v>
+      </c>
+      <c r="K207" s="1">
+        <v>0.992815</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98587716000000003</v>
       </c>
@@ -3297,8 +5814,20 @@
       <c r="E208">
         <v>1.0085299999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G208">
+        <v>0.95947086999999998</v>
+      </c>
+      <c r="H208">
+        <v>1.0085299999999999</v>
+      </c>
+      <c r="J208">
+        <v>0.98231329999999994</v>
+      </c>
+      <c r="K208" s="1">
+        <v>1.0085299999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98601127</v>
       </c>
@@ -3311,8 +5840,20 @@
       <c r="E209">
         <v>0.992178</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G209">
+        <v>0.95971393999999999</v>
+      </c>
+      <c r="H209">
+        <v>0.992178</v>
+      </c>
+      <c r="J209">
+        <v>0.98189174999999995</v>
+      </c>
+      <c r="K209" s="1">
+        <v>0.992178</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98605670000000001</v>
       </c>
@@ -3325,8 +5866,20 @@
       <c r="E210">
         <v>0.97104000000000001</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G210">
+        <v>0.95819279999999996</v>
+      </c>
+      <c r="H210">
+        <v>0.97104000000000001</v>
+      </c>
+      <c r="J210">
+        <v>0.98031880000000005</v>
+      </c>
+      <c r="K210" s="1">
+        <v>0.97104000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98566529999999997</v>
       </c>
@@ -3339,8 +5892,20 @@
       <c r="E211">
         <v>1.0007900000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G211">
+        <v>0.95227320000000004</v>
+      </c>
+      <c r="H211">
+        <v>1.0007900000000001</v>
+      </c>
+      <c r="J211">
+        <v>0.97348950000000001</v>
+      </c>
+      <c r="K211" s="1">
+        <v>1.0007900000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98518830000000002</v>
       </c>
@@ -3353,8 +5918,20 @@
       <c r="E212">
         <v>0.99045300000000003</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G212">
+        <v>0.95165889999999997</v>
+      </c>
+      <c r="H212">
+        <v>0.99045300000000003</v>
+      </c>
+      <c r="J212">
+        <v>0.9717382</v>
+      </c>
+      <c r="K212" s="1">
+        <v>0.99045300000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98497619999999997</v>
       </c>
@@ -3367,8 +5944,20 @@
       <c r="E213">
         <v>0.98092000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G213">
+        <v>0.95219229999999999</v>
+      </c>
+      <c r="H213">
+        <v>0.98092000000000001</v>
+      </c>
+      <c r="J213">
+        <v>0.97139489999999995</v>
+      </c>
+      <c r="K213" s="1">
+        <v>0.98092000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98432993999999996</v>
       </c>
@@ -3381,8 +5970,20 @@
       <c r="E214">
         <v>0.96962599999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G214">
+        <v>0.94821820000000001</v>
+      </c>
+      <c r="H214">
+        <v>0.96962599999999999</v>
+      </c>
+      <c r="J214">
+        <v>0.96669793000000004</v>
+      </c>
+      <c r="K214" s="1">
+        <v>0.96962599999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98297506999999995</v>
       </c>
@@ -3395,8 +5996,20 @@
       <c r="E215">
         <v>0.97288600000000003</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G215">
+        <v>0.94231560000000003</v>
+      </c>
+      <c r="H215">
+        <v>0.97288600000000003</v>
+      </c>
+      <c r="J215">
+        <v>0.96078300000000005</v>
+      </c>
+      <c r="K215" s="1">
+        <v>0.97288600000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98185619999999996</v>
       </c>
@@ -3409,8 +6022,20 @@
       <c r="E216">
         <v>0.94469700000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G216">
+        <v>0.94271000000000005</v>
+      </c>
+      <c r="H216">
+        <v>0.94469700000000001</v>
+      </c>
+      <c r="J216">
+        <v>0.96090830000000005</v>
+      </c>
+      <c r="K216" s="1">
+        <v>0.94469700000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.97993699999999995</v>
       </c>
@@ -3423,8 +6048,20 @@
       <c r="E217">
         <v>0.95146500000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G217">
+        <v>0.93702859999999999</v>
+      </c>
+      <c r="H217">
+        <v>0.95146500000000001</v>
+      </c>
+      <c r="J217">
+        <v>0.95293209999999995</v>
+      </c>
+      <c r="K217" s="1">
+        <v>0.95146500000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.97773109999999996</v>
       </c>
@@ -3437,8 +6074,20 @@
       <c r="E218">
         <v>0.96664899999999998</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G218">
+        <v>0.93410130000000002</v>
+      </c>
+      <c r="H218">
+        <v>0.96664899999999998</v>
+      </c>
+      <c r="J218">
+        <v>0.94343290000000002</v>
+      </c>
+      <c r="K218" s="1">
+        <v>0.96664899999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.97719294000000001</v>
       </c>
@@ -3451,8 +6100,20 @@
       <c r="E219">
         <v>0.98762399999999995</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G219">
+        <v>0.93513060000000003</v>
+      </c>
+      <c r="H219">
+        <v>0.98762399999999995</v>
+      </c>
+      <c r="J219">
+        <v>0.94516979999999995</v>
+      </c>
+      <c r="K219" s="1">
+        <v>0.98762399999999995</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.97773339999999997</v>
       </c>
@@ -3465,8 +6126,20 @@
       <c r="E220">
         <v>0.96557400000000004</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G220">
+        <v>0.93756424999999999</v>
+      </c>
+      <c r="H220">
+        <v>0.96557400000000004</v>
+      </c>
+      <c r="J220">
+        <v>0.94784139999999995</v>
+      </c>
+      <c r="K220" s="1">
+        <v>0.96557400000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97787120000000005</v>
       </c>
@@ -3479,8 +6152,20 @@
       <c r="E221">
         <v>0.93987399999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G221">
+        <v>0.93722373000000003</v>
+      </c>
+      <c r="H221">
+        <v>0.93987399999999999</v>
+      </c>
+      <c r="J221">
+        <v>0.94602096000000002</v>
+      </c>
+      <c r="K221" s="1">
+        <v>0.93987399999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.9758656</v>
       </c>
@@ -3493,8 +6178,20 @@
       <c r="E222">
         <v>0.95090699999999995</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G222">
+        <v>0.93068550000000005</v>
+      </c>
+      <c r="H222">
+        <v>0.95090699999999995</v>
+      </c>
+      <c r="J222">
+        <v>0.93526184999999995</v>
+      </c>
+      <c r="K222" s="1">
+        <v>0.95090699999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97317940000000003</v>
       </c>
@@ -3507,8 +6204,20 @@
       <c r="E223">
         <v>0.96350899999999995</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G223">
+        <v>0.93115890000000001</v>
+      </c>
+      <c r="H223">
+        <v>0.96350899999999995</v>
+      </c>
+      <c r="J223">
+        <v>0.93561757000000001</v>
+      </c>
+      <c r="K223" s="1">
+        <v>0.96350899999999995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97173726999999999</v>
       </c>
@@ -3521,8 +6230,20 @@
       <c r="E224">
         <v>0.98141500000000004</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G224">
+        <v>0.93348549999999997</v>
+      </c>
+      <c r="H224">
+        <v>0.98141500000000004</v>
+      </c>
+      <c r="J224">
+        <v>0.94069840000000005</v>
+      </c>
+      <c r="K224" s="1">
+        <v>0.98141500000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.9718755</v>
       </c>
@@ -3535,8 +6256,20 @@
       <c r="E225">
         <v>0.97908099999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G225">
+        <v>0.93714220000000004</v>
+      </c>
+      <c r="H225">
+        <v>0.97908099999999998</v>
+      </c>
+      <c r="J225">
+        <v>0.94780589999999998</v>
+      </c>
+      <c r="K225" s="1">
+        <v>0.97908099999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.97275659999999997</v>
       </c>
@@ -3549,8 +6282,20 @@
       <c r="E226">
         <v>0.97590600000000005</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G226">
+        <v>0.94257559999999996</v>
+      </c>
+      <c r="H226">
+        <v>0.97590600000000005</v>
+      </c>
+      <c r="J226">
+        <v>0.95407856000000002</v>
+      </c>
+      <c r="K226" s="1">
+        <v>0.97590600000000005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97297889999999998</v>
       </c>
@@ -3563,8 +6308,20 @@
       <c r="E227">
         <v>0.99136500000000005</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G227">
+        <v>0.94487803999999997</v>
+      </c>
+      <c r="H227">
+        <v>0.99136500000000005</v>
+      </c>
+      <c r="J227">
+        <v>0.95806455999999995</v>
+      </c>
+      <c r="K227" s="1">
+        <v>0.99136500000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97284649999999995</v>
       </c>
@@ -3577,8 +6334,20 @@
       <c r="E228">
         <v>0.98075699999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G228">
+        <v>0.94812070000000004</v>
+      </c>
+      <c r="H228">
+        <v>0.98075699999999999</v>
+      </c>
+      <c r="J228">
+        <v>0.96300255999999995</v>
+      </c>
+      <c r="K228" s="1">
+        <v>0.98075699999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.97313136</v>
       </c>
@@ -3591,8 +6360,20 @@
       <c r="E229">
         <v>0.96702399999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G229">
+        <v>0.9503296</v>
+      </c>
+      <c r="H229">
+        <v>0.96702399999999999</v>
+      </c>
+      <c r="J229">
+        <v>0.96454154999999997</v>
+      </c>
+      <c r="K229" s="1">
+        <v>0.96702399999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97397869999999998</v>
       </c>
@@ -3605,8 +6386,20 @@
       <c r="E230">
         <v>0.94490300000000005</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G230">
+        <v>0.94955889999999998</v>
+      </c>
+      <c r="H230">
+        <v>0.94490300000000005</v>
+      </c>
+      <c r="J230">
+        <v>0.96237910000000004</v>
+      </c>
+      <c r="K230" s="1">
+        <v>0.94490300000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97337216000000004</v>
       </c>
@@ -3619,8 +6412,20 @@
       <c r="E231">
         <v>0.94776700000000003</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G231">
+        <v>0.94131089999999995</v>
+      </c>
+      <c r="H231">
+        <v>0.94776700000000003</v>
+      </c>
+      <c r="J231">
+        <v>0.9517139</v>
+      </c>
+      <c r="K231" s="1">
+        <v>0.94776700000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.9720879</v>
       </c>
@@ -3633,8 +6438,20 @@
       <c r="E232">
         <v>0.92906100000000003</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G232">
+        <v>0.94125175000000005</v>
+      </c>
+      <c r="H232">
+        <v>0.92906100000000003</v>
+      </c>
+      <c r="J232">
+        <v>0.94790770000000002</v>
+      </c>
+      <c r="K232" s="1">
+        <v>0.92906100000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97014034000000005</v>
       </c>
@@ -3647,8 +6464,20 @@
       <c r="E233">
         <v>0.89570300000000003</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G233">
+        <v>0.93782335999999999</v>
+      </c>
+      <c r="H233">
+        <v>0.89570300000000003</v>
+      </c>
+      <c r="J233">
+        <v>0.94269670000000005</v>
+      </c>
+      <c r="K233" s="1">
+        <v>0.89570300000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.96636515999999995</v>
       </c>
@@ -3661,8 +6490,20 @@
       <c r="E234">
         <v>0.88080999999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G234">
+        <v>0.93076170000000003</v>
+      </c>
+      <c r="H234">
+        <v>0.88080999999999998</v>
+      </c>
+      <c r="J234">
+        <v>0.93180215</v>
+      </c>
+      <c r="K234" s="1">
+        <v>0.88080999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.96120554000000002</v>
       </c>
@@ -3675,8 +6516,20 @@
       <c r="E235">
         <v>0.881969</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G235">
+        <v>0.92646824999999999</v>
+      </c>
+      <c r="H235">
+        <v>0.881969</v>
+      </c>
+      <c r="J235">
+        <v>0.92518604000000004</v>
+      </c>
+      <c r="K235" s="1">
+        <v>0.881969</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.95493567000000001</v>
       </c>
@@ -3689,8 +6542,20 @@
       <c r="E236">
         <v>0.89258400000000004</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G236">
+        <v>0.92445279999999996</v>
+      </c>
+      <c r="H236">
+        <v>0.89258400000000004</v>
+      </c>
+      <c r="J236">
+        <v>0.92374444</v>
+      </c>
+      <c r="K236" s="1">
+        <v>0.89258400000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.94963056000000001</v>
       </c>
@@ -3703,8 +6568,20 @@
       <c r="E237">
         <v>0.85835600000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G237">
+        <v>0.92404496999999997</v>
+      </c>
+      <c r="H237">
+        <v>0.85835600000000001</v>
+      </c>
+      <c r="J237">
+        <v>0.92824600000000002</v>
+      </c>
+      <c r="K237" s="1">
+        <v>0.85835600000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.94228979999999996</v>
       </c>
@@ -3717,8 +6594,20 @@
       <c r="E238">
         <v>0.88067499999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G238">
+        <v>0.91740679999999997</v>
+      </c>
+      <c r="H238">
+        <v>0.88067499999999999</v>
+      </c>
+      <c r="J238">
+        <v>0.92360379999999997</v>
+      </c>
+      <c r="K238" s="1">
+        <v>0.88067499999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.93428235999999998</v>
       </c>
@@ -3731,8 +6620,20 @@
       <c r="E239">
         <v>0.85131999999999997</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G239">
+        <v>0.91330427000000003</v>
+      </c>
+      <c r="H239">
+        <v>0.85131999999999997</v>
+      </c>
+      <c r="J239">
+        <v>0.92291473999999996</v>
+      </c>
+      <c r="K239" s="1">
+        <v>0.85131999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.92244440000000005</v>
       </c>
@@ -3745,8 +6646,20 @@
       <c r="E240">
         <v>0.85202699999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G240">
+        <v>0.90755059999999999</v>
+      </c>
+      <c r="H240">
+        <v>0.85202699999999998</v>
+      </c>
+      <c r="J240">
+        <v>0.91715944000000005</v>
+      </c>
+      <c r="K240" s="1">
+        <v>0.85202699999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.90962129999999997</v>
       </c>
@@ -3759,8 +6672,20 @@
       <c r="E241">
         <v>0.83646900000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G241">
+        <v>0.90606326000000004</v>
+      </c>
+      <c r="H241">
+        <v>0.83646900000000002</v>
+      </c>
+      <c r="J241">
+        <v>0.91703210000000002</v>
+      </c>
+      <c r="K241" s="1">
+        <v>0.83646900000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.89433295000000002</v>
       </c>
@@ -3773,8 +6698,20 @@
       <c r="E242">
         <v>0.84330000000000005</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G242">
+        <v>0.89724267000000002</v>
+      </c>
+      <c r="H242">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="J242">
+        <v>0.90775919999999999</v>
+      </c>
+      <c r="K242" s="1">
+        <v>0.84330000000000005</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.87948110000000002</v>
       </c>
@@ -3787,8 +6724,20 @@
       <c r="E243">
         <v>0.87011000000000005</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G243">
+        <v>0.89513147000000004</v>
+      </c>
+      <c r="H243">
+        <v>0.87011000000000005</v>
+      </c>
+      <c r="J243">
+        <v>0.90973079999999995</v>
+      </c>
+      <c r="K243" s="1">
+        <v>0.87011000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.86989700000000003</v>
       </c>
@@ -3801,8 +6750,20 @@
       <c r="E244">
         <v>0.84902100000000003</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G244">
+        <v>0.89568899999999996</v>
+      </c>
+      <c r="H244">
+        <v>0.84902100000000003</v>
+      </c>
+      <c r="J244">
+        <v>0.91601527000000005</v>
+      </c>
+      <c r="K244" s="1">
+        <v>0.84902100000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.8644366</v>
       </c>
@@ -3815,8 +6776,20 @@
       <c r="E245">
         <v>0.86779700000000004</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G245">
+        <v>0.89655980000000002</v>
+      </c>
+      <c r="H245">
+        <v>0.86779700000000004</v>
+      </c>
+      <c r="J245">
+        <v>0.92114185999999998</v>
+      </c>
+      <c r="K245" s="1">
+        <v>0.86779700000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.86798613999999996</v>
       </c>
@@ -3829,8 +6802,20 @@
       <c r="E246">
         <v>0.85317200000000004</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G246">
+        <v>0.89811695000000002</v>
+      </c>
+      <c r="H246">
+        <v>0.85317200000000004</v>
+      </c>
+      <c r="J246">
+        <v>0.92878649999999996</v>
+      </c>
+      <c r="K246" s="1">
+        <v>0.85317200000000004</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87286010000000003</v>
       </c>
@@ -3843,8 +6828,20 @@
       <c r="E247">
         <v>0.86053400000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G247">
+        <v>0.89641475999999998</v>
+      </c>
+      <c r="H247">
+        <v>0.86053400000000002</v>
+      </c>
+      <c r="J247">
+        <v>0.93026209999999998</v>
+      </c>
+      <c r="K247" s="1">
+        <v>0.86053400000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.87586359999999996</v>
       </c>
@@ -3857,8 +6854,20 @@
       <c r="E248">
         <v>0.89368800000000004</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G248">
+        <v>0.89777010000000002</v>
+      </c>
+      <c r="H248">
+        <v>0.89368800000000004</v>
+      </c>
+      <c r="J248">
+        <v>0.93366134000000001</v>
+      </c>
+      <c r="K248" s="1">
+        <v>0.89368800000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.88215639999999995</v>
       </c>
@@ -3871,8 +6880,20 @@
       <c r="E249">
         <v>0.89307899999999996</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G249">
+        <v>0.90189620000000004</v>
+      </c>
+      <c r="H249">
+        <v>0.89307899999999996</v>
+      </c>
+      <c r="J249">
+        <v>0.94284080000000003</v>
+      </c>
+      <c r="K249" s="1">
+        <v>0.89307899999999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.89292145000000001</v>
       </c>
@@ -3885,8 +6906,20 @@
       <c r="E250">
         <v>0.86737299999999995</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G250">
+        <v>0.90852639999999996</v>
+      </c>
+      <c r="H250">
+        <v>0.86737299999999995</v>
+      </c>
+      <c r="J250">
+        <v>0.94897279999999995</v>
+      </c>
+      <c r="K250" s="1">
+        <v>0.86737299999999995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.89778703000000004</v>
       </c>
@@ -3899,8 +6932,20 @@
       <c r="E251">
         <v>0.87409099999999995</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G251">
+        <v>0.90856499999999996</v>
+      </c>
+      <c r="H251">
+        <v>0.87409099999999995</v>
+      </c>
+      <c r="J251">
+        <v>0.94784380000000001</v>
+      </c>
+      <c r="K251" s="1">
+        <v>0.87409099999999995</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.89979105999999998</v>
       </c>
@@ -3913,8 +6958,20 @@
       <c r="E252">
         <v>0.87615600000000005</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G252">
+        <v>0.90664730000000004</v>
+      </c>
+      <c r="H252">
+        <v>0.87615600000000005</v>
+      </c>
+      <c r="J252">
+        <v>0.94378983999999999</v>
+      </c>
+      <c r="K252" s="1">
+        <v>0.87615600000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.90518330000000002</v>
       </c>
@@ -3927,8 +6984,20 @@
       <c r="E253">
         <v>0.85112200000000005</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G253">
+        <v>0.91080760000000005</v>
+      </c>
+      <c r="H253">
+        <v>0.85112200000000005</v>
+      </c>
+      <c r="J253">
+        <v>0.94668244999999995</v>
+      </c>
+      <c r="K253" s="1">
+        <v>0.85112200000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.9069429</v>
       </c>
@@ -3941,8 +7010,20 @@
       <c r="E254">
         <v>0.83230300000000002</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G254">
+        <v>0.90802293999999995</v>
+      </c>
+      <c r="H254">
+        <v>0.83230300000000002</v>
+      </c>
+      <c r="J254">
+        <v>0.94052210000000003</v>
+      </c>
+      <c r="K254" s="1">
+        <v>0.83230300000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.90196759999999998</v>
       </c>
@@ -3955,8 +7036,20 @@
       <c r="E255">
         <v>0.83143299999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G255">
+        <v>0.9003681</v>
+      </c>
+      <c r="H255">
+        <v>0.83143299999999998</v>
+      </c>
+      <c r="J255">
+        <v>0.92793404999999995</v>
+      </c>
+      <c r="K255" s="1">
+        <v>0.83143299999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89463972999999997</v>
       </c>
@@ -3969,8 +7062,20 @@
       <c r="E256">
         <v>0.83118599999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G256">
+        <v>0.89763623000000003</v>
+      </c>
+      <c r="H256">
+        <v>0.83118599999999998</v>
+      </c>
+      <c r="J256">
+        <v>0.92267513000000001</v>
+      </c>
+      <c r="K256" s="1">
+        <v>0.83118599999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.89197749999999998</v>
       </c>
@@ -3983,8 +7088,20 @@
       <c r="E257">
         <v>0.81507600000000002</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G257">
+        <v>0.89849084999999995</v>
+      </c>
+      <c r="H257">
+        <v>0.81507600000000002</v>
+      </c>
+      <c r="J257">
+        <v>0.92397236999999999</v>
+      </c>
+      <c r="K257" s="1">
+        <v>0.81507600000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.88822409999999996</v>
       </c>
@@ -3997,8 +7114,20 @@
       <c r="E258">
         <v>0.84032300000000004</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G258">
+        <v>0.89445770000000002</v>
+      </c>
+      <c r="H258">
+        <v>0.84032300000000004</v>
+      </c>
+      <c r="J258">
+        <v>0.91919969999999995</v>
+      </c>
+      <c r="K258" s="1">
+        <v>0.84032300000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.89092505</v>
       </c>
@@ -4011,8 +7140,20 @@
       <c r="E259">
         <v>0.86210399999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G259">
+        <v>0.89569639999999995</v>
+      </c>
+      <c r="H259">
+        <v>0.86210399999999998</v>
+      </c>
+      <c r="J259">
+        <v>0.92584489999999997</v>
+      </c>
+      <c r="K259" s="1">
+        <v>0.86210399999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.90219819999999995</v>
       </c>
@@ -4025,8 +7166,20 @@
       <c r="E260">
         <v>0.88419700000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G260">
+        <v>0.90016169999999995</v>
+      </c>
+      <c r="H260">
+        <v>0.88419700000000001</v>
+      </c>
+      <c r="J260">
+        <v>0.93516253999999999</v>
+      </c>
+      <c r="K260" s="1">
+        <v>0.88419700000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.91393124999999997</v>
       </c>
@@ -4039,8 +7192,20 @@
       <c r="E261">
         <v>0.87783900000000004</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G261">
+        <v>0.90569960000000005</v>
+      </c>
+      <c r="H261">
+        <v>0.87783900000000004</v>
+      </c>
+      <c r="J261">
+        <v>0.94605609999999996</v>
+      </c>
+      <c r="K261" s="1">
+        <v>0.87783900000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.92070680000000005</v>
       </c>
@@ -4053,8 +7218,20 @@
       <c r="E262">
         <v>0.87780400000000003</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G262">
+        <v>0.91155684000000003</v>
+      </c>
+      <c r="H262">
+        <v>0.87780400000000003</v>
+      </c>
+      <c r="J262">
+        <v>0.95225596000000001</v>
+      </c>
+      <c r="K262" s="1">
+        <v>0.87780400000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.92520279999999999</v>
       </c>
@@ -4067,8 +7244,20 @@
       <c r="E263">
         <v>0.89740699999999995</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G263">
+        <v>0.91486149999999999</v>
+      </c>
+      <c r="H263">
+        <v>0.89740699999999995</v>
+      </c>
+      <c r="J263">
+        <v>0.95548140000000004</v>
+      </c>
+      <c r="K263" s="1">
+        <v>0.89740699999999995</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.93181879999999995</v>
       </c>
@@ -4081,8 +7270,20 @@
       <c r="E264">
         <v>0.88027200000000005</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G264">
+        <v>0.91933536999999999</v>
+      </c>
+      <c r="H264">
+        <v>0.88027200000000005</v>
+      </c>
+      <c r="J264">
+        <v>0.96050762999999995</v>
+      </c>
+      <c r="K264" s="1">
+        <v>0.88027200000000005</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.93664895999999997</v>
       </c>
@@ -4095,8 +7296,20 @@
       <c r="E265">
         <v>0.88630399999999998</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G265">
+        <v>0.92229229999999995</v>
+      </c>
+      <c r="H265">
+        <v>0.88630399999999998</v>
+      </c>
+      <c r="J265">
+        <v>0.96109080000000002</v>
+      </c>
+      <c r="K265" s="1">
+        <v>0.88630399999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.94140214</v>
       </c>
@@ -4109,8 +7322,20 @@
       <c r="E266">
         <v>0.90179200000000004</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G266">
+        <v>0.92193009999999997</v>
+      </c>
+      <c r="H266">
+        <v>0.90179200000000004</v>
+      </c>
+      <c r="J266">
+        <v>0.95822940000000001</v>
+      </c>
+      <c r="K266" s="1">
+        <v>0.90179200000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.94735837000000001</v>
       </c>
@@ -4123,8 +7348,20 @@
       <c r="E267">
         <v>0.89921099999999998</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G267">
+        <v>0.92611670000000001</v>
+      </c>
+      <c r="H267">
+        <v>0.89921099999999998</v>
+      </c>
+      <c r="J267">
+        <v>0.95919489999999996</v>
+      </c>
+      <c r="K267" s="1">
+        <v>0.89921099999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.95195174000000005</v>
       </c>
@@ -4137,8 +7374,20 @@
       <c r="E268">
         <v>0.88802300000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G268">
+        <v>0.93067069999999996</v>
+      </c>
+      <c r="H268">
+        <v>0.88802300000000001</v>
+      </c>
+      <c r="J268">
+        <v>0.96125316999999999</v>
+      </c>
+      <c r="K268" s="1">
+        <v>0.88802300000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.95576954000000003</v>
       </c>
@@ -4151,8 +7400,20 @@
       <c r="E269">
         <v>0.92063899999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G269">
+        <v>0.93192649999999999</v>
+      </c>
+      <c r="H269">
+        <v>0.92063899999999999</v>
+      </c>
+      <c r="J269">
+        <v>0.96119403999999997</v>
+      </c>
+      <c r="K269" s="1">
+        <v>0.92063899999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.96027689999999999</v>
       </c>
@@ -4165,8 +7426,20 @@
       <c r="E270">
         <v>0.92636700000000005</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G270">
+        <v>0.93310576999999995</v>
+      </c>
+      <c r="H270">
+        <v>0.92636700000000005</v>
+      </c>
+      <c r="J270">
+        <v>0.96262349999999997</v>
+      </c>
+      <c r="K270" s="1">
+        <v>0.92636700000000005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.96422905000000003</v>
       </c>
@@ -4179,8 +7452,20 @@
       <c r="E271">
         <v>0.93128200000000005</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G271">
+        <v>0.93900660000000002</v>
+      </c>
+      <c r="H271">
+        <v>0.93128200000000005</v>
+      </c>
+      <c r="J271">
+        <v>0.96665144000000003</v>
+      </c>
+      <c r="K271" s="1">
+        <v>0.93128200000000005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.96671706000000002</v>
       </c>
@@ -4193,8 +7478,20 @@
       <c r="E272">
         <v>0.93594200000000005</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G272">
+        <v>0.94300353999999997</v>
+      </c>
+      <c r="H272">
+        <v>0.93594200000000005</v>
+      </c>
+      <c r="J272">
+        <v>0.97033429999999998</v>
+      </c>
+      <c r="K272" s="1">
+        <v>0.93594200000000005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.96816409999999997</v>
       </c>
@@ -4207,8 +7504,20 @@
       <c r="E273">
         <v>0.93719399999999997</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G273">
+        <v>0.94508760000000003</v>
+      </c>
+      <c r="H273">
+        <v>0.93719399999999997</v>
+      </c>
+      <c r="J273">
+        <v>0.97253202999999999</v>
+      </c>
+      <c r="K273" s="1">
+        <v>0.93719399999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96929679999999996</v>
       </c>
@@ -4221,8 +7530,20 @@
       <c r="E274">
         <v>0.92128200000000005</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G274">
+        <v>0.94751450000000004</v>
+      </c>
+      <c r="H274">
+        <v>0.92128200000000005</v>
+      </c>
+      <c r="J274">
+        <v>0.97367464999999997</v>
+      </c>
+      <c r="K274" s="1">
+        <v>0.92128200000000005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.9700704</v>
       </c>
@@ -4235,8 +7556,20 @@
       <c r="E275">
         <v>0.92835400000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G275">
+        <v>0.9475114</v>
+      </c>
+      <c r="H275">
+        <v>0.92835400000000001</v>
+      </c>
+      <c r="J275">
+        <v>0.97273814999999997</v>
+      </c>
+      <c r="K275" s="1">
+        <v>0.92835400000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.97097354999999996</v>
       </c>
@@ -4249,8 +7582,20 @@
       <c r="E276">
         <v>0.92857299999999998</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G276">
+        <v>0.94928813000000001</v>
+      </c>
+      <c r="H276">
+        <v>0.92857299999999998</v>
+      </c>
+      <c r="J276">
+        <v>0.97236129999999998</v>
+      </c>
+      <c r="K276" s="1">
+        <v>0.92857299999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.97236250000000002</v>
       </c>
@@ -4263,8 +7608,20 @@
       <c r="E277">
         <v>0.95164199999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G277">
+        <v>0.94827706</v>
+      </c>
+      <c r="H277">
+        <v>0.95164199999999999</v>
+      </c>
+      <c r="J277">
+        <v>0.97140585999999995</v>
+      </c>
+      <c r="K277" s="1">
+        <v>0.95164199999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.97372190000000003</v>
       </c>
@@ -4277,8 +7634,20 @@
       <c r="E278">
         <v>0.94983899999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G278">
+        <v>0.9508105</v>
+      </c>
+      <c r="H278">
+        <v>0.94983899999999999</v>
+      </c>
+      <c r="J278">
+        <v>0.97291576999999996</v>
+      </c>
+      <c r="K278" s="1">
+        <v>0.94983899999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.97404086999999995</v>
       </c>
@@ -4291,8 +7660,20 @@
       <c r="E279">
         <v>0.94721500000000003</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G279">
+        <v>0.95469230000000005</v>
+      </c>
+      <c r="H279">
+        <v>0.94721500000000003</v>
+      </c>
+      <c r="J279">
+        <v>0.97560524999999998</v>
+      </c>
+      <c r="K279" s="1">
+        <v>0.94721500000000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97437090000000004</v>
       </c>
@@ -4305,8 +7686,20 @@
       <c r="E280">
         <v>0.95519900000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G280">
+        <v>0.9561984</v>
+      </c>
+      <c r="H280">
+        <v>0.95519900000000002</v>
+      </c>
+      <c r="J280">
+        <v>0.97716369999999997</v>
+      </c>
+      <c r="K280" s="1">
+        <v>0.95519900000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97535263999999999</v>
       </c>
@@ -4319,8 +7712,20 @@
       <c r="E281">
         <v>0.96465400000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G281">
+        <v>0.95747450000000001</v>
+      </c>
+      <c r="H281">
+        <v>0.96465400000000001</v>
+      </c>
+      <c r="J281">
+        <v>0.97901190000000005</v>
+      </c>
+      <c r="K281" s="1">
+        <v>0.96465400000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97585449999999996</v>
       </c>
@@ -4333,8 +7738,20 @@
       <c r="E282">
         <v>0.97101199999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G282">
+        <v>0.95863794999999996</v>
+      </c>
+      <c r="H282">
+        <v>0.97101199999999999</v>
+      </c>
+      <c r="J282">
+        <v>0.98051595999999996</v>
+      </c>
+      <c r="K282" s="1">
+        <v>0.97101199999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.9758175</v>
       </c>
@@ -4347,8 +7764,20 @@
       <c r="E283">
         <v>0.972441</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G283">
+        <v>0.9601461</v>
+      </c>
+      <c r="H283">
+        <v>0.972441</v>
+      </c>
+      <c r="J283">
+        <v>0.98156330000000003</v>
+      </c>
+      <c r="K283" s="1">
+        <v>0.972441</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97472689999999995</v>
       </c>
@@ -4361,8 +7790,20 @@
       <c r="E284">
         <v>0.97116800000000003</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G284">
+        <v>0.96161569999999996</v>
+      </c>
+      <c r="H284">
+        <v>0.97116800000000003</v>
+      </c>
+      <c r="J284">
+        <v>0.98237275999999996</v>
+      </c>
+      <c r="K284" s="1">
+        <v>0.97116800000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97435210000000005</v>
       </c>
@@ -4375,8 +7816,20 @@
       <c r="E285">
         <v>0.96191099999999996</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G285">
+        <v>0.96191525</v>
+      </c>
+      <c r="H285">
+        <v>0.96191099999999996</v>
+      </c>
+      <c r="J285">
+        <v>0.98277590000000004</v>
+      </c>
+      <c r="K285" s="1">
+        <v>0.96191099999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97502480000000002</v>
       </c>
@@ -4389,8 +7842,20 @@
       <c r="E286">
         <v>0.96136600000000005</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G286">
+        <v>0.96129065999999996</v>
+      </c>
+      <c r="H286">
+        <v>0.96136600000000005</v>
+      </c>
+      <c r="J286">
+        <v>0.9823655</v>
+      </c>
+      <c r="K286" s="1">
+        <v>0.96136600000000005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.97573244999999997</v>
       </c>
@@ -4403,8 +7868,20 @@
       <c r="E287">
         <v>0.96215099999999998</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G287">
+        <v>0.96021425999999999</v>
+      </c>
+      <c r="H287">
+        <v>0.96215099999999998</v>
+      </c>
+      <c r="J287">
+        <v>0.98117520000000003</v>
+      </c>
+      <c r="K287" s="1">
+        <v>0.96215099999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97630053999999999</v>
       </c>
@@ -4417,8 +7894,20 @@
       <c r="E288">
         <v>0.97485200000000005</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G288">
+        <v>0.96037172999999998</v>
+      </c>
+      <c r="H288">
+        <v>0.97485200000000005</v>
+      </c>
+      <c r="J288">
+        <v>0.98103404000000005</v>
+      </c>
+      <c r="K288" s="1">
+        <v>0.97485200000000005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97684835999999997</v>
       </c>
@@ -4431,8 +7920,20 @@
       <c r="E289">
         <v>0.98117500000000002</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G289">
+        <v>0.95928250000000004</v>
+      </c>
+      <c r="H289">
+        <v>0.98117500000000002</v>
+      </c>
+      <c r="J289">
+        <v>0.98152244</v>
+      </c>
+      <c r="K289" s="1">
+        <v>0.98117500000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97703636000000005</v>
       </c>
@@ -4445,8 +7946,20 @@
       <c r="E290">
         <v>0.97819699999999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G290">
+        <v>0.96120083000000001</v>
+      </c>
+      <c r="H290">
+        <v>0.97819699999999998</v>
+      </c>
+      <c r="J290">
+        <v>0.98309100000000005</v>
+      </c>
+      <c r="K290" s="1">
+        <v>0.97819699999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97686580000000001</v>
       </c>
@@ -4459,8 +7972,20 @@
       <c r="E291">
         <v>0.98741900000000005</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G291">
+        <v>0.96162829999999999</v>
+      </c>
+      <c r="H291">
+        <v>0.98741900000000005</v>
+      </c>
+      <c r="J291">
+        <v>0.98464689999999999</v>
+      </c>
+      <c r="K291" s="1">
+        <v>0.98741900000000005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97698795999999999</v>
       </c>
@@ -4473,8 +7998,20 @@
       <c r="E292">
         <v>0.98271600000000003</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G292">
+        <v>0.95974459999999995</v>
+      </c>
+      <c r="H292">
+        <v>0.98271600000000003</v>
+      </c>
+      <c r="J292">
+        <v>0.98459125000000003</v>
+      </c>
+      <c r="K292" s="1">
+        <v>0.98271600000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97700050000000005</v>
       </c>
@@ -4487,8 +8024,20 @@
       <c r="E293">
         <v>0.967893</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G293">
+        <v>0.96019684999999999</v>
+      </c>
+      <c r="H293">
+        <v>0.967893</v>
+      </c>
+      <c r="J293">
+        <v>0.98478745999999995</v>
+      </c>
+      <c r="K293" s="1">
+        <v>0.967893</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97664399999999996</v>
       </c>
@@ -4501,8 +8050,20 @@
       <c r="E294">
         <v>0.98309100000000005</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G294">
+        <v>0.95536100000000002</v>
+      </c>
+      <c r="H294">
+        <v>0.98309100000000005</v>
+      </c>
+      <c r="J294">
+        <v>0.98264479999999998</v>
+      </c>
+      <c r="K294" s="1">
+        <v>0.98309100000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97655619999999999</v>
       </c>
@@ -4515,8 +8076,20 @@
       <c r="E295">
         <v>0.965588</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G295">
+        <v>0.95425903999999995</v>
+      </c>
+      <c r="H295">
+        <v>0.965588</v>
+      </c>
+      <c r="J295">
+        <v>0.98127880000000001</v>
+      </c>
+      <c r="K295" s="1">
+        <v>0.965588</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97605410000000004</v>
       </c>
@@ -4529,8 +8102,20 @@
       <c r="E296">
         <v>0.96961200000000003</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G296">
+        <v>0.94912350000000001</v>
+      </c>
+      <c r="H296">
+        <v>0.96961200000000003</v>
+      </c>
+      <c r="J296">
+        <v>0.97852850000000002</v>
+      </c>
+      <c r="K296" s="1">
+        <v>0.96961200000000003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.97562736000000005</v>
       </c>
@@ -4543,8 +8128,20 @@
       <c r="E297">
         <v>0.96564499999999998</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G297">
+        <v>0.94827497000000005</v>
+      </c>
+      <c r="H297">
+        <v>0.96564499999999998</v>
+      </c>
+      <c r="J297">
+        <v>0.97664154000000003</v>
+      </c>
+      <c r="K297" s="1">
+        <v>0.96564499999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.97557896</v>
       </c>
@@ -4557,8 +8154,20 @@
       <c r="E298">
         <v>0.97959700000000005</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G298">
+        <v>0.94651216000000005</v>
+      </c>
+      <c r="H298">
+        <v>0.97959700000000005</v>
+      </c>
+      <c r="J298">
+        <v>0.97693419999999997</v>
+      </c>
+      <c r="K298" s="1">
+        <v>0.97959700000000005</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.97580385000000003</v>
       </c>
@@ -4571,8 +8180,20 @@
       <c r="E299">
         <v>0.99423600000000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G299">
+        <v>0.94557860000000005</v>
+      </c>
+      <c r="H299">
+        <v>0.99423600000000001</v>
+      </c>
+      <c r="J299">
+        <v>0.97752344999999996</v>
+      </c>
+      <c r="K299" s="1">
+        <v>0.99423600000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.97629889999999997</v>
       </c>
@@ -4585,8 +8206,20 @@
       <c r="E300">
         <v>0.99449100000000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G300">
+        <v>0.94864135999999999</v>
+      </c>
+      <c r="H300">
+        <v>0.99449100000000001</v>
+      </c>
+      <c r="J300">
+        <v>0.98151359999999999</v>
+      </c>
+      <c r="K300" s="1">
+        <v>0.99449100000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.97639699999999996</v>
       </c>
@@ -4599,8 +8232,20 @@
       <c r="E301">
         <v>0.99304099999999995</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G301">
+        <v>0.95102715000000004</v>
+      </c>
+      <c r="H301">
+        <v>0.99304099999999995</v>
+      </c>
+      <c r="J301">
+        <v>0.9846376</v>
+      </c>
+      <c r="K301" s="1">
+        <v>0.99304099999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.97631769999999996</v>
       </c>
@@ -4613,8 +8258,20 @@
       <c r="E302">
         <v>1.00267</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G302">
+        <v>0.95133259999999997</v>
+      </c>
+      <c r="H302">
+        <v>1.00267</v>
+      </c>
+      <c r="J302">
+        <v>0.98506819999999995</v>
+      </c>
+      <c r="K302" s="1">
+        <v>1.00267</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.97649870000000005</v>
       </c>
@@ -4627,8 +8284,20 @@
       <c r="E303">
         <v>1.0072300000000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G303">
+        <v>0.95107233999999996</v>
+      </c>
+      <c r="H303">
+        <v>1.0072300000000001</v>
+      </c>
+      <c r="J303">
+        <v>0.98545919999999998</v>
+      </c>
+      <c r="K303" s="1">
+        <v>1.0072300000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.97667420000000005</v>
       </c>
@@ -4641,8 +8310,20 @@
       <c r="E304">
         <v>1.00837</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G304">
+        <v>0.95231080000000001</v>
+      </c>
+      <c r="H304">
+        <v>1.00837</v>
+      </c>
+      <c r="J304">
+        <v>0.98578670000000002</v>
+      </c>
+      <c r="K304" s="1">
+        <v>1.00837</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.97665659999999999</v>
       </c>
@@ -4655,8 +8336,20 @@
       <c r="E305">
         <v>1.00064</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G305">
+        <v>0.95220906000000005</v>
+      </c>
+      <c r="H305">
+        <v>1.00064</v>
+      </c>
+      <c r="J305">
+        <v>0.98553599999999997</v>
+      </c>
+      <c r="K305" s="1">
+        <v>1.00064</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.97653455</v>
       </c>
@@ -4669,8 +8362,20 @@
       <c r="E306">
         <v>1.00071</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G306">
+        <v>0.95079060000000004</v>
+      </c>
+      <c r="H306">
+        <v>1.00071</v>
+      </c>
+      <c r="J306">
+        <v>0.98376799999999998</v>
+      </c>
+      <c r="K306" s="1">
+        <v>1.00071</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.97648729999999995</v>
       </c>
@@ -4683,8 +8388,20 @@
       <c r="E307">
         <v>0.99803399999999998</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G307">
+        <v>0.95014549999999998</v>
+      </c>
+      <c r="H307">
+        <v>0.99803399999999998</v>
+      </c>
+      <c r="J307">
+        <v>0.98177530000000002</v>
+      </c>
+      <c r="K307" s="1">
+        <v>0.99803399999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.97666350000000002</v>
       </c>
@@ -4697,8 +8414,20 @@
       <c r="E308">
         <v>1.0007999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G308">
+        <v>0.94984405999999999</v>
+      </c>
+      <c r="H308">
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="J308">
+        <v>0.97984530000000003</v>
+      </c>
+      <c r="K308" s="1">
+        <v>1.0007999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.97705774999999995</v>
       </c>
@@ -4711,8 +8440,20 @@
       <c r="E309">
         <v>1.0032399999999999</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G309">
+        <v>0.95061609999999996</v>
+      </c>
+      <c r="H309">
+        <v>1.0032399999999999</v>
+      </c>
+      <c r="J309">
+        <v>0.97314120000000004</v>
+      </c>
+      <c r="K309" s="1">
+        <v>1.0032399999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.97749949999999997</v>
       </c>
@@ -4725,8 +8466,20 @@
       <c r="E310">
         <v>0.98956200000000005</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G310">
+        <v>0.95034379999999996</v>
+      </c>
+      <c r="H310">
+        <v>0.98956200000000005</v>
+      </c>
+      <c r="J310">
+        <v>0.96931780000000001</v>
+      </c>
+      <c r="K310" s="1">
+        <v>0.98956200000000005</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.97729239999999995</v>
       </c>
@@ -4739,8 +8492,20 @@
       <c r="E311">
         <v>0.98212900000000003</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G311">
+        <v>0.94713230000000004</v>
+      </c>
+      <c r="H311">
+        <v>0.98212900000000003</v>
+      </c>
+      <c r="J311">
+        <v>0.96187400000000001</v>
+      </c>
+      <c r="K311" s="1">
+        <v>0.98212900000000003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.97550930000000002</v>
       </c>
@@ -4753,8 +8518,20 @@
       <c r="E312">
         <v>0.99353599999999997</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G312">
+        <v>0.94162659999999998</v>
+      </c>
+      <c r="H312">
+        <v>0.99353599999999997</v>
+      </c>
+      <c r="J312">
+        <v>0.95198059999999995</v>
+      </c>
+      <c r="K312" s="1">
+        <v>0.99353599999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.97413653</v>
       </c>
@@ -4767,8 +8544,20 @@
       <c r="E313">
         <v>0.98076399999999997</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G313">
+        <v>0.94188989999999995</v>
+      </c>
+      <c r="H313">
+        <v>0.98076399999999997</v>
+      </c>
+      <c r="J313">
+        <v>0.95204339999999998</v>
+      </c>
+      <c r="K313" s="1">
+        <v>0.98076399999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.97274530000000003</v>
       </c>
@@ -4781,8 +8570,20 @@
       <c r="E314">
         <v>0.97210099999999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G314">
+        <v>0.93834066000000005</v>
+      </c>
+      <c r="H314">
+        <v>0.97210099999999999</v>
+      </c>
+      <c r="J314">
+        <v>0.94644510000000004</v>
+      </c>
+      <c r="K314" s="1">
+        <v>0.97210099999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.97043495999999996</v>
       </c>
@@ -4795,8 +8596,20 @@
       <c r="E315">
         <v>0.97175500000000004</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G315">
+        <v>0.93578165999999996</v>
+      </c>
+      <c r="H315">
+        <v>0.97175500000000004</v>
+      </c>
+      <c r="J315">
+        <v>0.9419862</v>
+      </c>
+      <c r="K315" s="1">
+        <v>0.97175500000000004</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.96884899999999996</v>
       </c>
@@ -4809,8 +8622,20 @@
       <c r="E316">
         <v>0.97635899999999998</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G316">
+        <v>0.93537634999999997</v>
+      </c>
+      <c r="H316">
+        <v>0.97635899999999998</v>
+      </c>
+      <c r="J316">
+        <v>0.94203099999999995</v>
+      </c>
+      <c r="K316" s="1">
+        <v>0.97635899999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.96835726</v>
       </c>
@@ -4823,8 +8648,20 @@
       <c r="E317">
         <v>0.97745499999999996</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G317">
+        <v>0.9350058</v>
+      </c>
+      <c r="H317">
+        <v>0.97745499999999996</v>
+      </c>
+      <c r="J317">
+        <v>0.94224730000000001</v>
+      </c>
+      <c r="K317" s="1">
+        <v>0.97745499999999996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.96878850000000005</v>
       </c>
@@ -4837,8 +8674,20 @@
       <c r="E318">
         <v>0.99563000000000001</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G318">
+        <v>0.93663730000000001</v>
+      </c>
+      <c r="H318">
+        <v>0.99563000000000001</v>
+      </c>
+      <c r="J318">
+        <v>0.94461819999999996</v>
+      </c>
+      <c r="K318" s="1">
+        <v>0.99563000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.96974444000000004</v>
       </c>
@@ -4851,8 +8700,20 @@
       <c r="E319">
         <v>0.98153500000000005</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G319">
+        <v>0.93849970000000005</v>
+      </c>
+      <c r="H319">
+        <v>0.98153500000000005</v>
+      </c>
+      <c r="J319">
+        <v>0.94875324000000005</v>
+      </c>
+      <c r="K319" s="1">
+        <v>0.98153500000000005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.96988445999999995</v>
       </c>
@@ -4865,8 +8726,20 @@
       <c r="E320">
         <v>0.98128800000000005</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G320">
+        <v>0.93874199999999997</v>
+      </c>
+      <c r="H320">
+        <v>0.98128800000000005</v>
+      </c>
+      <c r="J320">
+        <v>0.94803119999999996</v>
+      </c>
+      <c r="K320" s="1">
+        <v>0.98128800000000005</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.96913755000000001</v>
       </c>
@@ -4879,8 +8752,20 @@
       <c r="E321">
         <v>0.968912</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G321">
+        <v>0.93769749999999996</v>
+      </c>
+      <c r="H321">
+        <v>0.968912</v>
+      </c>
+      <c r="J321">
+        <v>0.94655144000000002</v>
+      </c>
+      <c r="K321" s="1">
+        <v>0.968912</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.96801804999999996</v>
       </c>
@@ -4893,8 +8778,20 @@
       <c r="E322">
         <v>0.98309100000000005</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G322">
+        <v>0.93505859999999996</v>
+      </c>
+      <c r="H322">
+        <v>0.98309100000000005</v>
+      </c>
+      <c r="J322">
+        <v>0.94284486999999995</v>
+      </c>
+      <c r="K322" s="1">
+        <v>0.98309100000000005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.96810819999999997</v>
       </c>
@@ -4907,8 +8804,20 @@
       <c r="E323">
         <v>0.96933599999999998</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G323">
+        <v>0.93559490000000001</v>
+      </c>
+      <c r="H323">
+        <v>0.96933599999999998</v>
+      </c>
+      <c r="J323">
+        <v>0.94457159999999996</v>
+      </c>
+      <c r="K323" s="1">
+        <v>0.96933599999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.96792023999999999</v>
       </c>
@@ -4921,8 +8830,20 @@
       <c r="E324">
         <v>0.96963299999999997</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G324">
+        <v>0.93332404000000002</v>
+      </c>
+      <c r="H324">
+        <v>0.96963299999999997</v>
+      </c>
+      <c r="J324">
+        <v>0.94057893999999997</v>
+      </c>
+      <c r="K324" s="1">
+        <v>0.96963299999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.96698810000000002</v>
       </c>
@@ -4935,8 +8856,20 @@
       <c r="E325">
         <v>0.96426599999999996</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G325">
+        <v>0.93111560000000004</v>
+      </c>
+      <c r="H325">
+        <v>0.96426599999999996</v>
+      </c>
+      <c r="J325">
+        <v>0.93731105000000003</v>
+      </c>
+      <c r="K325" s="1">
+        <v>0.96426599999999996</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.96567879999999995</v>
       </c>
@@ -4949,8 +8882,20 @@
       <c r="E326">
         <v>0.97294999999999998</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G326">
+        <v>0.92904980000000004</v>
+      </c>
+      <c r="H326">
+        <v>0.97294999999999998</v>
+      </c>
+      <c r="J326">
+        <v>0.9339653</v>
+      </c>
+      <c r="K326" s="1">
+        <v>0.97294999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.96592359999999999</v>
       </c>
@@ -4963,8 +8908,20 @@
       <c r="E327">
         <v>0.96992299999999998</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G327">
+        <v>0.93192589999999997</v>
+      </c>
+      <c r="H327">
+        <v>0.96992299999999998</v>
+      </c>
+      <c r="J327">
+        <v>0.9398166</v>
+      </c>
+      <c r="K327" s="1">
+        <v>0.96992299999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.96687173999999998</v>
       </c>
@@ -4977,8 +8934,20 @@
       <c r="E328">
         <v>0.98973900000000004</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G328">
+        <v>0.93500983999999998</v>
+      </c>
+      <c r="H328">
+        <v>0.98973900000000004</v>
+      </c>
+      <c r="J328">
+        <v>0.94351196000000004</v>
+      </c>
+      <c r="K328" s="1">
+        <v>0.98973900000000004</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.96827202999999995</v>
       </c>
@@ -4991,8 +8960,20 @@
       <c r="E329">
         <v>0.99997899999999995</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G329">
+        <v>0.93821940000000004</v>
+      </c>
+      <c r="H329">
+        <v>0.99997899999999995</v>
+      </c>
+      <c r="J329">
+        <v>0.95049644</v>
+      </c>
+      <c r="K329" s="1">
+        <v>0.99997899999999995</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.969808</v>
       </c>
@@ -5005,8 +8986,20 @@
       <c r="E330">
         <v>0.999668</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G330">
+        <v>0.94385180000000002</v>
+      </c>
+      <c r="H330">
+        <v>0.999668</v>
+      </c>
+      <c r="J330">
+        <v>0.95715534999999996</v>
+      </c>
+      <c r="K330" s="1">
+        <v>0.999668</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.97052349999999998</v>
       </c>
@@ -5019,8 +9012,20 @@
       <c r="E331">
         <v>1.006</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G331">
+        <v>0.94781612999999998</v>
+      </c>
+      <c r="H331">
+        <v>1.006</v>
+      </c>
+      <c r="J331">
+        <v>0.96043825000000005</v>
+      </c>
+      <c r="K331" s="1">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.97123139999999997</v>
       </c>
@@ -5033,8 +9038,20 @@
       <c r="E332">
         <v>1.0045200000000001</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G332">
+        <v>0.95036905999999999</v>
+      </c>
+      <c r="H332">
+        <v>1.0045200000000001</v>
+      </c>
+      <c r="J332">
+        <v>0.96351624000000002</v>
+      </c>
+      <c r="K332" s="1">
+        <v>1.0045200000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.97233550000000002</v>
       </c>
@@ -5047,8 +9064,20 @@
       <c r="E333">
         <v>1.0062</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G333">
+        <v>0.95078110000000005</v>
+      </c>
+      <c r="H333">
+        <v>1.0062</v>
+      </c>
+      <c r="J333">
+        <v>0.96484840000000005</v>
+      </c>
+      <c r="K333" s="1">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.97333395</v>
       </c>
@@ -5061,8 +9090,20 @@
       <c r="E334">
         <v>1.0103899999999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G334">
+        <v>0.95137035999999997</v>
+      </c>
+      <c r="H334">
+        <v>1.0103899999999999</v>
+      </c>
+      <c r="J334">
+        <v>0.96528290000000005</v>
+      </c>
+      <c r="K334" s="1">
+        <v>1.0103899999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.97426729999999995</v>
       </c>
@@ -5075,8 +9116,20 @@
       <c r="E335">
         <v>1.0060500000000001</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G335">
+        <v>0.95260359999999999</v>
+      </c>
+      <c r="H335">
+        <v>1.0060500000000001</v>
+      </c>
+      <c r="J335">
+        <v>0.96641030000000006</v>
+      </c>
+      <c r="K335" s="1">
+        <v>1.0060500000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.97498339999999994</v>
       </c>
@@ -5089,8 +9142,20 @@
       <c r="E336">
         <v>1.01332</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G336">
+        <v>0.95334399999999997</v>
+      </c>
+      <c r="H336">
+        <v>1.01332</v>
+      </c>
+      <c r="J336">
+        <v>0.96688485000000002</v>
+      </c>
+      <c r="K336" s="1">
+        <v>1.01332</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.97546659999999996</v>
       </c>
@@ -5103,8 +9168,20 @@
       <c r="E337">
         <v>1.01525</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G337">
+        <v>0.95592105000000005</v>
+      </c>
+      <c r="H337">
+        <v>1.01525</v>
+      </c>
+      <c r="J337">
+        <v>0.96895600000000004</v>
+      </c>
+      <c r="K337" s="1">
+        <v>1.01525</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.97600319999999996</v>
       </c>
@@ -5117,8 +9194,20 @@
       <c r="E338">
         <v>1.0201899999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G338">
+        <v>0.95861339999999995</v>
+      </c>
+      <c r="H338">
+        <v>1.0201899999999999</v>
+      </c>
+      <c r="J338">
+        <v>0.97145473999999998</v>
+      </c>
+      <c r="K338" s="1">
+        <v>1.0201899999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.97668529999999998</v>
       </c>
@@ -5131,8 +9220,20 @@
       <c r="E339">
         <v>1.01762</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G339">
+        <v>0.96110759999999995</v>
+      </c>
+      <c r="H339">
+        <v>1.01762</v>
+      </c>
+      <c r="J339">
+        <v>0.97375060000000002</v>
+      </c>
+      <c r="K339" s="1">
+        <v>1.01762</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.97734670000000001</v>
       </c>
@@ -5145,8 +9246,20 @@
       <c r="E340">
         <v>1.0038899999999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G340">
+        <v>0.9625378</v>
+      </c>
+      <c r="H340">
+        <v>1.0038899999999999</v>
+      </c>
+      <c r="J340">
+        <v>0.97526955999999998</v>
+      </c>
+      <c r="K340" s="1">
+        <v>1.0038899999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.97774079999999997</v>
       </c>
@@ -5159,8 +9272,20 @@
       <c r="E341">
         <v>0.99185999999999996</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G341">
+        <v>0.96027136000000002</v>
+      </c>
+      <c r="H341">
+        <v>0.99185999999999996</v>
+      </c>
+      <c r="J341">
+        <v>0.97367764000000001</v>
+      </c>
+      <c r="K341" s="1">
+        <v>0.99185999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.9775104</v>
       </c>
@@ -5173,8 +9298,20 @@
       <c r="E342">
         <v>0.98921499999999996</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G342">
+        <v>0.95711789999999997</v>
+      </c>
+      <c r="H342">
+        <v>0.98921499999999996</v>
+      </c>
+      <c r="J342">
+        <v>0.96959819999999997</v>
+      </c>
+      <c r="K342" s="1">
+        <v>0.98921499999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.97654885000000002</v>
       </c>
@@ -5187,8 +9324,20 @@
       <c r="E343">
         <v>0.986514</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G343">
+        <v>0.95336509999999997</v>
+      </c>
+      <c r="H343">
+        <v>0.986514</v>
+      </c>
+      <c r="J343">
+        <v>0.96495604999999995</v>
+      </c>
+      <c r="K343" s="1">
+        <v>0.986514</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.97579895999999999</v>
       </c>
@@ -5201,8 +9350,20 @@
       <c r="E344">
         <v>0.99110399999999998</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G344">
+        <v>0.95286020000000005</v>
+      </c>
+      <c r="H344">
+        <v>0.99110399999999998</v>
+      </c>
+      <c r="J344">
+        <v>0.96459099999999998</v>
+      </c>
+      <c r="K344" s="1">
+        <v>0.99110399999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.97529434999999998</v>
       </c>
@@ -5215,8 +9376,20 @@
       <c r="E345">
         <v>0.98631599999999997</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G345">
+        <v>0.95087920000000004</v>
+      </c>
+      <c r="H345">
+        <v>0.98631599999999997</v>
+      </c>
+      <c r="J345">
+        <v>0.96361244000000001</v>
+      </c>
+      <c r="K345" s="1">
+        <v>0.98631599999999997</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.97480935000000002</v>
       </c>
@@ -5229,8 +9402,20 @@
       <c r="E346">
         <v>0.99482300000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G346">
+        <v>0.9512005</v>
+      </c>
+      <c r="H346">
+        <v>0.99482300000000001</v>
+      </c>
+      <c r="J346">
+        <v>0.96389174</v>
+      </c>
+      <c r="K346" s="1">
+        <v>0.99482300000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.97479737</v>
       </c>
@@ -5243,8 +9428,20 @@
       <c r="E347">
         <v>0.99881900000000001</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G347">
+        <v>0.9525207</v>
+      </c>
+      <c r="H347">
+        <v>0.99881900000000001</v>
+      </c>
+      <c r="J347">
+        <v>0.96651350000000003</v>
+      </c>
+      <c r="K347" s="1">
+        <v>0.99881900000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.97511420000000004</v>
       </c>
@@ -5257,8 +9454,20 @@
       <c r="E348">
         <v>0.99637900000000001</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G348">
+        <v>0.95568394999999995</v>
+      </c>
+      <c r="H348">
+        <v>0.99637900000000001</v>
+      </c>
+      <c r="J348">
+        <v>0.96942569999999995</v>
+      </c>
+      <c r="K348" s="1">
+        <v>0.99637900000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.97518340000000003</v>
       </c>
@@ -5271,8 +9480,20 @@
       <c r="E349">
         <v>1.0160899999999999</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G349">
+        <v>0.95684650000000004</v>
+      </c>
+      <c r="H349">
+        <v>1.0160899999999999</v>
+      </c>
+      <c r="J349">
+        <v>0.97118439999999995</v>
+      </c>
+      <c r="K349" s="1">
+        <v>1.0160899999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.97530890000000003</v>
       </c>
@@ -5285,8 +9506,20 @@
       <c r="E350">
         <v>0.96240599999999998</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G350">
+        <v>0.95847190000000004</v>
+      </c>
+      <c r="H350">
+        <v>0.96240599999999998</v>
+      </c>
+      <c r="J350">
+        <v>0.97388110000000006</v>
+      </c>
+      <c r="K350" s="1">
+        <v>0.96240599999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.97224337000000005</v>
       </c>
@@ -5299,8 +9532,20 @@
       <c r="E351">
         <v>0.93633100000000002</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G351">
+        <v>0.94526060000000001</v>
+      </c>
+      <c r="H351">
+        <v>0.93633100000000002</v>
+      </c>
+      <c r="J351">
+        <v>0.96238460000000003</v>
+      </c>
+      <c r="K351" s="1">
+        <v>0.93633100000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.96590339999999997</v>
       </c>
@@ -5313,8 +9558,20 @@
       <c r="E352">
         <v>0.96147199999999999</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G352">
+        <v>0.93657809999999997</v>
+      </c>
+      <c r="H352">
+        <v>0.96147199999999999</v>
+      </c>
+      <c r="J352">
+        <v>0.94592595000000002</v>
+      </c>
+      <c r="K352" s="1">
+        <v>0.96147199999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.96321296999999995</v>
       </c>
@@ -5327,8 +9584,20 @@
       <c r="E353">
         <v>0.98599800000000004</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G353">
+        <v>0.9364131</v>
+      </c>
+      <c r="H353">
+        <v>0.98599800000000004</v>
+      </c>
+      <c r="J353">
+        <v>0.94485783999999995</v>
+      </c>
+      <c r="K353" s="1">
+        <v>0.98599800000000004</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.96538749999999995</v>
       </c>
@@ -5341,8 +9610,20 @@
       <c r="E354">
         <v>1.00586</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G354">
+        <v>0.94029810000000003</v>
+      </c>
+      <c r="H354">
+        <v>1.00586</v>
+      </c>
+      <c r="J354">
+        <v>0.95206679999999999</v>
+      </c>
+      <c r="K354" s="1">
+        <v>1.00586</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.96879404999999996</v>
       </c>
@@ -5355,8 +9636,20 @@
       <c r="E355">
         <v>1.0087600000000001</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G355">
+        <v>0.94588446999999998</v>
+      </c>
+      <c r="H355">
+        <v>1.0087600000000001</v>
+      </c>
+      <c r="J355">
+        <v>0.96110010000000001</v>
+      </c>
+      <c r="K355" s="1">
+        <v>1.0087600000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.97070204999999998</v>
       </c>
@@ -5369,8 +9662,20 @@
       <c r="E356">
         <v>0.99857099999999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G356">
+        <v>0.95185465000000002</v>
+      </c>
+      <c r="H356">
+        <v>0.99857099999999999</v>
+      </c>
+      <c r="J356">
+        <v>0.96805680000000005</v>
+      </c>
+      <c r="K356" s="1">
+        <v>0.99857099999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.97089630000000005</v>
       </c>
@@ -5383,8 +9688,20 @@
       <c r="E357">
         <v>1.00648</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G357">
+        <v>0.95359397000000001</v>
+      </c>
+      <c r="H357">
+        <v>1.00648</v>
+      </c>
+      <c r="J357">
+        <v>0.97168089999999996</v>
+      </c>
+      <c r="K357" s="1">
+        <v>1.00648</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.97087760000000001</v>
       </c>
@@ -5397,8 +9714,20 @@
       <c r="E358">
         <v>1.00518</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G358">
+        <v>0.95420945000000001</v>
+      </c>
+      <c r="H358">
+        <v>1.00518</v>
+      </c>
+      <c r="J358">
+        <v>0.97304535000000003</v>
+      </c>
+      <c r="K358" s="1">
+        <v>1.00518</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.971665</v>
       </c>
@@ -5411,8 +9740,20 @@
       <c r="E359">
         <v>1.0278099999999999</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G359">
+        <v>0.95601325999999998</v>
+      </c>
+      <c r="H359">
+        <v>1.0278099999999999</v>
+      </c>
+      <c r="J359">
+        <v>0.97402489999999997</v>
+      </c>
+      <c r="K359" s="1">
+        <v>1.0278099999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.97328853999999998</v>
       </c>
@@ -5425,8 +9766,20 @@
       <c r="E360">
         <v>1.03295</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G360">
+        <v>0.95820190000000005</v>
+      </c>
+      <c r="H360">
+        <v>1.03295</v>
+      </c>
+      <c r="J360">
+        <v>0.97629929999999998</v>
+      </c>
+      <c r="K360" s="1">
+        <v>1.03295</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.97475959999999995</v>
       </c>
@@ -5439,8 +9792,20 @@
       <c r="E361">
         <v>1.0435399999999999</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G361">
+        <v>0.96321429999999997</v>
+      </c>
+      <c r="H361">
+        <v>1.0435399999999999</v>
+      </c>
+      <c r="J361">
+        <v>0.97942220000000002</v>
+      </c>
+      <c r="K361" s="1">
+        <v>1.0435399999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.97580029999999995</v>
       </c>
@@ -5453,8 +9818,20 @@
       <c r="E362">
         <v>1.04375</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G362">
+        <v>0.96653180000000005</v>
+      </c>
+      <c r="H362">
+        <v>1.04375</v>
+      </c>
+      <c r="J362">
+        <v>0.98209449999999998</v>
+      </c>
+      <c r="K362" s="1">
+        <v>1.04375</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.97638740000000002</v>
       </c>
@@ -5467,8 +9844,20 @@
       <c r="E363">
         <v>1.05175</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G363">
+        <v>0.97005580000000002</v>
+      </c>
+      <c r="H363">
+        <v>1.05175</v>
+      </c>
+      <c r="J363">
+        <v>0.98411369999999998</v>
+      </c>
+      <c r="K363" s="1">
+        <v>1.05175</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.97707635000000004</v>
       </c>
@@ -5481,8 +9870,20 @@
       <c r="E364">
         <v>1.05033</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G364">
+        <v>0.97266083999999997</v>
+      </c>
+      <c r="H364">
+        <v>1.05033</v>
+      </c>
+      <c r="J364">
+        <v>0.98579835999999998</v>
+      </c>
+      <c r="K364" s="1">
+        <v>1.05033</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.97819822999999995</v>
       </c>
@@ -5495,8 +9896,20 @@
       <c r="E365">
         <v>1.0539700000000001</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G365">
+        <v>0.9752094</v>
+      </c>
+      <c r="H365">
+        <v>1.0539700000000001</v>
+      </c>
+      <c r="J365">
+        <v>0.98693909999999996</v>
+      </c>
+      <c r="K365" s="1">
+        <v>1.0539700000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.97951080000000001</v>
       </c>
@@ -5509,8 +9922,20 @@
       <c r="E366">
         <v>1.0517700000000001</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G366">
+        <v>0.97767824000000003</v>
+      </c>
+      <c r="H366">
+        <v>1.0517700000000001</v>
+      </c>
+      <c r="J366">
+        <v>0.98755515000000005</v>
+      </c>
+      <c r="K366" s="1">
+        <v>1.0517700000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.98080425999999998</v>
       </c>
@@ -5523,8 +9948,20 @@
       <c r="E367">
         <v>1.0583100000000001</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G367">
+        <v>0.97971355999999998</v>
+      </c>
+      <c r="H367">
+        <v>1.0583100000000001</v>
+      </c>
+      <c r="J367">
+        <v>0.98812449999999996</v>
+      </c>
+      <c r="K367" s="1">
+        <v>1.0583100000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.98196519999999998</v>
       </c>
@@ -5537,8 +9974,20 @@
       <c r="E368">
         <v>1.0527599999999999</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G368">
+        <v>0.98157729999999999</v>
+      </c>
+      <c r="H368">
+        <v>1.0527599999999999</v>
+      </c>
+      <c r="J368">
+        <v>0.98854255999999996</v>
+      </c>
+      <c r="K368" s="1">
+        <v>1.0527599999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.98292480000000004</v>
       </c>
@@ -5551,8 +10000,20 @@
       <c r="E369">
         <v>1.0597300000000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G369">
+        <v>0.98261949999999998</v>
+      </c>
+      <c r="H369">
+        <v>1.0597300000000001</v>
+      </c>
+      <c r="J369">
+        <v>0.98883560000000004</v>
+      </c>
+      <c r="K369" s="1">
+        <v>1.0597300000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.98375164999999998</v>
       </c>
@@ -5565,8 +10026,20 @@
       <c r="E370">
         <v>1.0550999999999999</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G370">
+        <v>0.98441699999999999</v>
+      </c>
+      <c r="H370">
+        <v>1.0550999999999999</v>
+      </c>
+      <c r="J370">
+        <v>0.98862110000000003</v>
+      </c>
+      <c r="K370" s="1">
+        <v>1.0550999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.98455559999999998</v>
       </c>
@@ -5579,8 +10052,20 @@
       <c r="E371">
         <v>1.05559</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G371">
+        <v>0.98557099999999997</v>
+      </c>
+      <c r="H371">
+        <v>1.05559</v>
+      </c>
+      <c r="J371">
+        <v>0.9889715</v>
+      </c>
+      <c r="K371" s="1">
+        <v>1.05559</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.98526970000000003</v>
       </c>
@@ -5593,8 +10078,20 @@
       <c r="E372">
         <v>1.05375</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G372">
+        <v>0.98643700000000001</v>
+      </c>
+      <c r="H372">
+        <v>1.05375</v>
+      </c>
+      <c r="J372">
+        <v>0.98857019999999995</v>
+      </c>
+      <c r="K372" s="1">
+        <v>1.05375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.98582166000000004</v>
       </c>
@@ -5607,8 +10104,20 @@
       <c r="E373">
         <v>1.0562100000000001</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G373">
+        <v>0.98672115999999999</v>
+      </c>
+      <c r="H373">
+        <v>1.0562100000000001</v>
+      </c>
+      <c r="J373">
+        <v>0.98837686000000002</v>
+      </c>
+      <c r="K373" s="1">
+        <v>1.0562100000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.98619723000000004</v>
       </c>
@@ -5621,8 +10130,20 @@
       <c r="E374">
         <v>1.0587200000000001</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G374">
+        <v>0.98755110000000002</v>
+      </c>
+      <c r="H374">
+        <v>1.0587200000000001</v>
+      </c>
+      <c r="J374">
+        <v>0.98793220000000004</v>
+      </c>
+      <c r="K374" s="1">
+        <v>1.0587200000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.98649900000000001</v>
       </c>
@@ -5635,8 +10156,20 @@
       <c r="E375">
         <v>1.05677</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G375">
+        <v>0.98908529999999995</v>
+      </c>
+      <c r="H375">
+        <v>1.05677</v>
+      </c>
+      <c r="J375">
+        <v>0.98825574000000005</v>
+      </c>
+      <c r="K375" s="1">
+        <v>1.05677</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.98674779999999995</v>
       </c>
@@ -5649,8 +10182,20 @@
       <c r="E376">
         <v>1.0469999999999999</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G376">
+        <v>0.99033479999999996</v>
+      </c>
+      <c r="H376">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="J376">
+        <v>0.98888299999999996</v>
+      </c>
+      <c r="K376" s="1">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.98627379999999998</v>
       </c>
@@ -5663,8 +10208,20 @@
       <c r="E377">
         <v>1.0517799999999999</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G377">
+        <v>0.98385495000000001</v>
+      </c>
+      <c r="H377">
+        <v>1.0517799999999999</v>
+      </c>
+      <c r="J377">
+        <v>0.98520123999999998</v>
+      </c>
+      <c r="K377" s="1">
+        <v>1.0517799999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.98551679999999997</v>
       </c>
@@ -5677,8 +10234,20 @@
       <c r="E378">
         <v>1.0521100000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G378">
+        <v>0.98354900000000001</v>
+      </c>
+      <c r="H378">
+        <v>1.0521100000000001</v>
+      </c>
+      <c r="J378">
+        <v>0.98197639999999997</v>
+      </c>
+      <c r="K378" s="1">
+        <v>1.0521100000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.98539659999999996</v>
       </c>
@@ -5691,8 +10260,20 @@
       <c r="E379">
         <v>1.0652699999999999</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G379">
+        <v>0.98506459999999996</v>
+      </c>
+      <c r="H379">
+        <v>1.0652699999999999</v>
+      </c>
+      <c r="J379">
+        <v>0.98442450000000004</v>
+      </c>
+      <c r="K379" s="1">
+        <v>1.0652699999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.98581620000000003</v>
       </c>
@@ -5705,8 +10286,20 @@
       <c r="E380">
         <v>1.0638700000000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G380">
+        <v>0.99016979999999999</v>
+      </c>
+      <c r="H380">
+        <v>1.0638700000000001</v>
+      </c>
+      <c r="J380">
+        <v>0.9867821</v>
+      </c>
+      <c r="K380" s="1">
+        <v>1.0638700000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.98637200000000003</v>
       </c>
@@ -5719,8 +10312,20 @@
       <c r="E381">
         <v>1.06447</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G381">
+        <v>0.99345773000000004</v>
+      </c>
+      <c r="H381">
+        <v>1.06447</v>
+      </c>
+      <c r="J381">
+        <v>0.99074923999999998</v>
+      </c>
+      <c r="K381" s="1">
+        <v>1.06447</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.98662760000000005</v>
       </c>
@@ -5733,8 +10338,20 @@
       <c r="E382">
         <v>1.0600499999999999</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G382">
+        <v>0.99445490000000003</v>
+      </c>
+      <c r="H382">
+        <v>1.0600499999999999</v>
+      </c>
+      <c r="J382">
+        <v>0.99016594999999996</v>
+      </c>
+      <c r="K382" s="1">
+        <v>1.0600499999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.98661829999999995</v>
       </c>
@@ -5747,8 +10364,20 @@
       <c r="E383">
         <v>1.06734</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G383">
+        <v>0.99329363999999998</v>
+      </c>
+      <c r="H383">
+        <v>1.06734</v>
+      </c>
+      <c r="J383">
+        <v>0.99013054</v>
+      </c>
+      <c r="K383" s="1">
+        <v>1.06734</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.98651279999999997</v>
       </c>
@@ -5761,8 +10390,20 @@
       <c r="E384">
         <v>1.0661099999999999</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G384">
+        <v>0.99397533999999998</v>
+      </c>
+      <c r="H384">
+        <v>1.0661099999999999</v>
+      </c>
+      <c r="J384">
+        <v>0.98905160000000003</v>
+      </c>
+      <c r="K384" s="1">
+        <v>1.0661099999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.98646842999999995</v>
       </c>
@@ -5775,8 +10416,20 @@
       <c r="E385">
         <v>1.0704199999999999</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G385">
+        <v>0.99458670000000005</v>
+      </c>
+      <c r="H385">
+        <v>1.0704199999999999</v>
+      </c>
+      <c r="J385">
+        <v>0.98988222999999997</v>
+      </c>
+      <c r="K385" s="1">
+        <v>1.0704199999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.98648190000000002</v>
       </c>
@@ -5789,8 +10442,20 @@
       <c r="E386">
         <v>1.0619400000000001</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G386">
+        <v>0.99560152999999996</v>
+      </c>
+      <c r="H386">
+        <v>1.0619400000000001</v>
+      </c>
+      <c r="J386">
+        <v>0.98931170000000002</v>
+      </c>
+      <c r="K386" s="1">
+        <v>1.0619400000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.98642843999999996</v>
       </c>
@@ -5803,8 +10468,20 @@
       <c r="E387">
         <v>1.06481</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G387">
+        <v>0.99447626</v>
+      </c>
+      <c r="H387">
+        <v>1.06481</v>
+      </c>
+      <c r="J387">
+        <v>0.98944529999999997</v>
+      </c>
+      <c r="K387" s="1">
+        <v>1.06481</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.98617213999999997</v>
       </c>
@@ -5817,8 +10494,20 @@
       <c r="E388">
         <v>1.0682100000000001</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G388">
+        <v>0.99359710000000001</v>
+      </c>
+      <c r="H388">
+        <v>1.0682100000000001</v>
+      </c>
+      <c r="J388">
+        <v>0.98765650000000005</v>
+      </c>
+      <c r="K388" s="1">
+        <v>1.0682100000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.98593989999999998</v>
       </c>
@@ -5831,8 +10520,20 @@
       <c r="E389">
         <v>1.0659799999999999</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G389">
+        <v>0.99510540000000003</v>
+      </c>
+      <c r="H389">
+        <v>1.0659799999999999</v>
+      </c>
+      <c r="J389">
+        <v>0.98811232999999998</v>
+      </c>
+      <c r="K389" s="1">
+        <v>1.0659799999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.98576710000000001</v>
       </c>
@@ -5845,8 +10546,20 @@
       <c r="E390">
         <v>1.06511</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G390">
+        <v>0.99481410000000003</v>
+      </c>
+      <c r="H390">
+        <v>1.06511</v>
+      </c>
+      <c r="J390">
+        <v>0.98869560000000001</v>
+      </c>
+      <c r="K390" s="1">
+        <v>1.06511</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.98563880000000004</v>
       </c>
@@ -5859,8 +10572,20 @@
       <c r="E391">
         <v>1.06812</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G391">
+        <v>0.99501759999999995</v>
+      </c>
+      <c r="H391">
+        <v>1.06812</v>
+      </c>
+      <c r="J391">
+        <v>0.9879154</v>
+      </c>
+      <c r="K391" s="1">
+        <v>1.06812</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.98567515999999999</v>
       </c>
@@ -5873,8 +10598,20 @@
       <c r="E392">
         <v>1.06002</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G392">
+        <v>0.99713236000000005</v>
+      </c>
+      <c r="H392">
+        <v>1.06002</v>
+      </c>
+      <c r="J392">
+        <v>0.98891090000000004</v>
+      </c>
+      <c r="K392" s="1">
+        <v>1.06002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.98541179999999995</v>
       </c>
@@ -5887,8 +10624,20 @@
       <c r="E393">
         <v>1.05792</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G393">
+        <v>0.99304769999999998</v>
+      </c>
+      <c r="H393">
+        <v>1.05792</v>
+      </c>
+      <c r="J393">
+        <v>0.98832319999999996</v>
+      </c>
+      <c r="K393" s="1">
+        <v>1.05792</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.98455349999999997</v>
       </c>
@@ -5901,8 +10650,20 @@
       <c r="E394">
         <v>1.05549</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G394">
+        <v>0.99033459999999995</v>
+      </c>
+      <c r="H394">
+        <v>1.05549</v>
+      </c>
+      <c r="J394">
+        <v>0.98388960000000003</v>
+      </c>
+      <c r="K394" s="1">
+        <v>1.05549</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.98377769999999998</v>
       </c>
@@ -5915,8 +10676,20 @@
       <c r="E395">
         <v>1.06351</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G395">
+        <v>0.98769839999999998</v>
+      </c>
+      <c r="H395">
+        <v>1.06351</v>
+      </c>
+      <c r="J395">
+        <v>0.98304270000000005</v>
+      </c>
+      <c r="K395" s="1">
+        <v>1.06351</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.9837089</v>
       </c>
@@ -5929,8 +10702,20 @@
       <c r="E396">
         <v>1.0605</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G396">
+        <v>0.98999470000000001</v>
+      </c>
+      <c r="H396">
+        <v>1.0605</v>
+      </c>
+      <c r="J396">
+        <v>0.98366153000000001</v>
+      </c>
+      <c r="K396" s="1">
+        <v>1.0605</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.98400030000000005</v>
       </c>
@@ -5943,8 +10728,20 @@
       <c r="E397">
         <v>1.05684</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G397">
+        <v>0.99037359999999997</v>
+      </c>
+      <c r="H397">
+        <v>1.05684</v>
+      </c>
+      <c r="J397">
+        <v>0.98544229999999999</v>
+      </c>
+      <c r="K397" s="1">
+        <v>1.05684</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.98391134000000002</v>
       </c>
@@ -5957,8 +10754,20 @@
       <c r="E398">
         <v>1.0567800000000001</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G398">
+        <v>0.98773193000000004</v>
+      </c>
+      <c r="H398">
+        <v>1.0567800000000001</v>
+      </c>
+      <c r="J398">
+        <v>0.98347459999999998</v>
+      </c>
+      <c r="K398" s="1">
+        <v>1.0567800000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.98338040000000004</v>
       </c>
@@ -5971,8 +10780,20 @@
       <c r="E399">
         <v>1.0632299999999999</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G399">
+        <v>0.9865218</v>
+      </c>
+      <c r="H399">
+        <v>1.0632299999999999</v>
+      </c>
+      <c r="J399">
+        <v>0.98253654999999995</v>
+      </c>
+      <c r="K399" s="1">
+        <v>1.0632299999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.98326469999999999</v>
       </c>
@@ -5985,8 +10806,20 @@
       <c r="E400">
         <v>1.0678300000000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G400">
+        <v>0.98972505</v>
+      </c>
+      <c r="H400">
+        <v>1.0678300000000001</v>
+      </c>
+      <c r="J400">
+        <v>0.98489389999999999</v>
+      </c>
+      <c r="K400" s="1">
+        <v>1.0678300000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.98359346000000003</v>
       </c>
@@ -5999,8 +10832,20 @@
       <c r="E401">
         <v>1.0676000000000001</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G401">
+        <v>0.99203706000000003</v>
+      </c>
+      <c r="H401">
+        <v>1.0676000000000001</v>
+      </c>
+      <c r="J401">
+        <v>0.9880892</v>
+      </c>
+      <c r="K401" s="1">
+        <v>1.0676000000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.98378940000000004</v>
       </c>
@@ -6013,8 +10858,20 @@
       <c r="E402">
         <v>1.06416</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G402">
+        <v>0.99343769999999998</v>
+      </c>
+      <c r="H402">
+        <v>1.06416</v>
+      </c>
+      <c r="J402">
+        <v>0.98851999999999995</v>
+      </c>
+      <c r="K402" s="1">
+        <v>1.06416</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.98379930000000004</v>
       </c>
@@ -6027,8 +10884,20 @@
       <c r="E403">
         <v>1.02634</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G403">
+        <v>0.99325079999999999</v>
+      </c>
+      <c r="H403">
+        <v>1.02634</v>
+      </c>
+      <c r="J403">
+        <v>0.98884510000000003</v>
+      </c>
+      <c r="K403" s="1">
+        <v>1.02634</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.98101899999999997</v>
       </c>
@@ -6041,8 +10910,20 @@
       <c r="E404">
         <v>1.0484199999999999</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G404">
+        <v>0.98066759999999997</v>
+      </c>
+      <c r="H404">
+        <v>1.0484199999999999</v>
+      </c>
+      <c r="J404">
+        <v>0.98087000000000002</v>
+      </c>
+      <c r="K404" s="1">
+        <v>1.0484199999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.97816723999999999</v>
       </c>
@@ -6055,8 +10936,20 @@
       <c r="E405">
         <v>1.0257799999999999</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G405">
+        <v>0.97782500000000006</v>
+      </c>
+      <c r="H405">
+        <v>1.0257799999999999</v>
+      </c>
+      <c r="J405">
+        <v>0.97572327000000003</v>
+      </c>
+      <c r="K405" s="1">
+        <v>1.0257799999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.97710496000000002</v>
       </c>
@@ -6069,8 +10962,20 @@
       <c r="E406">
         <v>1.0248900000000001</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G406">
+        <v>0.97548619999999997</v>
+      </c>
+      <c r="H406">
+        <v>1.0248900000000001</v>
+      </c>
+      <c r="J406">
+        <v>0.9739312</v>
+      </c>
+      <c r="K406" s="1">
+        <v>1.0248900000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.97680425999999998</v>
       </c>
@@ -6083,8 +10988,20 @@
       <c r="E407">
         <v>1.04009</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G407">
+        <v>0.97626349999999995</v>
+      </c>
+      <c r="H407">
+        <v>1.04009</v>
+      </c>
+      <c r="J407">
+        <v>0.97233164000000005</v>
+      </c>
+      <c r="K407" s="1">
+        <v>1.04009</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.97728289999999995</v>
       </c>
@@ -6097,8 +11014,20 @@
       <c r="E408">
         <v>1.0343599999999999</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G408">
+        <v>0.97732585999999999</v>
+      </c>
+      <c r="H408">
+        <v>1.0343599999999999</v>
+      </c>
+      <c r="J408">
+        <v>0.97461103999999998</v>
+      </c>
+      <c r="K408" s="1">
+        <v>1.0343599999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.97758089999999997</v>
       </c>
@@ -6111,8 +11040,20 @@
       <c r="E409">
         <v>1.03433</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G409">
+        <v>0.97762499999999997</v>
+      </c>
+      <c r="H409">
+        <v>1.03433</v>
+      </c>
+      <c r="J409">
+        <v>0.97523870000000001</v>
+      </c>
+      <c r="K409" s="1">
+        <v>1.03433</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.97770559999999995</v>
       </c>
@@ -6125,8 +11066,20 @@
       <c r="E410">
         <v>1.0347900000000001</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G410">
+        <v>0.97812049999999995</v>
+      </c>
+      <c r="H410">
+        <v>1.0347900000000001</v>
+      </c>
+      <c r="J410">
+        <v>0.97602460000000002</v>
+      </c>
+      <c r="K410" s="1">
+        <v>1.0347900000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.97786200000000001</v>
       </c>
@@ -6139,8 +11092,20 @@
       <c r="E411">
         <v>1.05131</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G411">
+        <v>0.97843694999999997</v>
+      </c>
+      <c r="H411">
+        <v>1.05131</v>
+      </c>
+      <c r="J411">
+        <v>0.97615669999999999</v>
+      </c>
+      <c r="K411" s="1">
+        <v>1.05131</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.97793699999999995</v>
       </c>
@@ -6153,8 +11118,20 @@
       <c r="E412">
         <v>1.06125</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G412">
+        <v>0.97935885</v>
+      </c>
+      <c r="H412">
+        <v>1.06125</v>
+      </c>
+      <c r="J412">
+        <v>0.97786784000000004</v>
+      </c>
+      <c r="K412" s="1">
+        <v>1.06125</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.97808569999999995</v>
       </c>
@@ -6167,8 +11144,20 @@
       <c r="E413">
         <v>1.0524199999999999</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G413">
+        <v>0.98210489999999995</v>
+      </c>
+      <c r="H413">
+        <v>1.0524199999999999</v>
+      </c>
+      <c r="J413">
+        <v>0.98046339999999998</v>
+      </c>
+      <c r="K413" s="1">
+        <v>1.0524199999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.97822229999999999</v>
       </c>
@@ -6181,8 +11170,20 @@
       <c r="E414">
         <v>1.0392699999999999</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G414">
+        <v>0.98362159999999998</v>
+      </c>
+      <c r="H414">
+        <v>1.0392699999999999</v>
+      </c>
+      <c r="J414">
+        <v>0.98168350000000004</v>
+      </c>
+      <c r="K414" s="1">
+        <v>1.0392699999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.97795860000000001</v>
       </c>
@@ -6195,8 +11196,20 @@
       <c r="E415">
         <v>1.04905</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G415">
+        <v>0.98228042999999998</v>
+      </c>
+      <c r="H415">
+        <v>1.04905</v>
+      </c>
+      <c r="J415">
+        <v>0.98051980000000005</v>
+      </c>
+      <c r="K415" s="1">
+        <v>1.04905</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.97803753999999998</v>
       </c>
@@ -6209,8 +11222,20 @@
       <c r="E416">
         <v>1.05714</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G416">
+        <v>0.98273074999999999</v>
+      </c>
+      <c r="H416">
+        <v>1.05714</v>
+      </c>
+      <c r="J416">
+        <v>0.98015344000000004</v>
+      </c>
+      <c r="K416" s="1">
+        <v>1.05714</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.97871710000000001</v>
       </c>
@@ -6223,17 +11248,38 @@
       <c r="E417">
         <v>1.0428299999999999</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G417">
+        <v>0.98510103999999998</v>
+      </c>
+      <c r="H417">
+        <v>1.0428299999999999</v>
+      </c>
+      <c r="J417">
+        <v>0.98204016999999999</v>
+      </c>
+      <c r="K417" s="1">
+        <v>1.0428299999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K418" s="1"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D419">
         <f>CORREL(D2:D417,E2:E417)</f>
         <v>0.89085548760944933</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K419" s="1"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.80378798299999998</v>
       </c>
+      <c r="G420">
+        <f>CORREL(G2:G417,H2:H417)</f>
+        <v>0.88234100905618196</v>
+      </c>
+      <c r="K420" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>_0.975178</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>LSTM 12 variable 200 epcoh</t>
+  </si>
+  <si>
+    <t>.6 -e4</t>
   </si>
 </sst>
 </file>
@@ -131,22 +134,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K420"/>
+  <dimension ref="A1:P420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -444,8 +456,12 @@
         <v>5</v>
       </c>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.97099155000000004</v>
       </c>
@@ -470,8 +486,20 @@
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>0.96715600000000002</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>6.2890000000000005E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.97150199999999998</v>
       </c>
@@ -496,8 +524,14 @@
       <c r="K3" s="1">
         <v>0.96900399999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>0.96869886000000005</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.96900399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.97180370000000005</v>
       </c>
@@ -522,8 +556,14 @@
       <c r="K4" s="1">
         <v>0.984456</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0.97035532999999996</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.984456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.97260636</v>
       </c>
@@ -548,8 +588,14 @@
       <c r="K5" s="1">
         <v>0.98441299999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0.97395915</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.98441299999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97358080000000002</v>
       </c>
@@ -574,8 +620,14 @@
       <c r="K6" s="1">
         <v>0.99852200000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0.97604619999999997</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.99852200000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97455656999999996</v>
       </c>
@@ -600,8 +652,14 @@
       <c r="K7" s="1">
         <v>1.00454</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0.97976790000000002</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.00454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97525066000000005</v>
       </c>
@@ -626,8 +684,14 @@
       <c r="K8" s="1">
         <v>1.00691</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>0.98305374000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.00691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97576589999999996</v>
       </c>
@@ -652,8 +716,14 @@
       <c r="K9" s="1">
         <v>1.00644</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0.98500233999999998</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.00644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97638970000000003</v>
       </c>
@@ -678,8 +748,14 @@
       <c r="K10" s="1">
         <v>1.0048699999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0.98722730000000003</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.0048699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97705995999999995</v>
       </c>
@@ -704,8 +780,14 @@
       <c r="K11" s="1">
         <v>1.0139499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0.98868420000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.0139499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97779329999999998</v>
       </c>
@@ -730,8 +812,14 @@
       <c r="K12" s="1">
         <v>1.0135000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0.98934626999999997</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.0135000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97823757</v>
       </c>
@@ -756,8 +844,14 @@
       <c r="K13" s="1">
         <v>1.01762</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0.9920776</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.01762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97857236999999997</v>
       </c>
@@ -782,8 +876,14 @@
       <c r="K14" s="1">
         <v>1.01647</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0.99301839999999997</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.01647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97901819999999995</v>
       </c>
@@ -808,8 +908,14 @@
       <c r="K15" s="1">
         <v>1.0142599999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0.9936547</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.0142599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97968084</v>
       </c>
@@ -834,8 +940,14 @@
       <c r="K16" s="1">
         <v>1.0098499999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>0.99396119999999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.0098499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.98058440000000002</v>
       </c>
@@ -860,8 +972,14 @@
       <c r="K17" s="1">
         <v>1.0189699999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0.99398779999999998</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.0189699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.98153466</v>
       </c>
@@ -886,8 +1004,14 @@
       <c r="K18" s="1">
         <v>1.01217</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>0.995421</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.01217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.98224412999999999</v>
       </c>
@@ -912,8 +1036,14 @@
       <c r="K19" s="1">
         <v>1.00563</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0.99345899999999998</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.00563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.98255320000000002</v>
       </c>
@@ -938,8 +1068,14 @@
       <c r="K20" s="1">
         <v>1.0074000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>0.98994269999999995</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.0074000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98284079999999996</v>
       </c>
@@ -964,8 +1100,14 @@
       <c r="K21" s="1">
         <v>0.986344</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0.99137275999999996</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.986344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98285610000000001</v>
       </c>
@@ -990,8 +1132,14 @@
       <c r="K22" s="1">
         <v>0.99212199999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0.98039030000000005</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.99212199999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98284786999999996</v>
       </c>
@@ -1016,8 +1164,14 @@
       <c r="K23" s="1">
         <v>0.96717900000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0.98248804000000001</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.96717900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98268955999999996</v>
       </c>
@@ -1042,8 +1196,14 @@
       <c r="K24" s="1">
         <v>0.96440700000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>0.97477555000000005</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.96440700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98256449999999995</v>
       </c>
@@ -1068,8 +1228,14 @@
       <c r="K25" s="1">
         <v>0.98258900000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0.97499499999999995</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.98258900000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98294619999999999</v>
       </c>
@@ -1094,8 +1260,14 @@
       <c r="K26" s="1">
         <v>0.97371399999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>0.97611784999999995</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.97371399999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98345654999999998</v>
       </c>
@@ -1120,8 +1292,14 @@
       <c r="K27" s="1">
         <v>0.993367</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0.97301459999999995</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.993367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98399853999999998</v>
       </c>
@@ -1146,8 +1324,14 @@
       <c r="K28" s="1">
         <v>0.98848000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0.97561944</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.98848000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98438859999999995</v>
       </c>
@@ -1172,8 +1356,14 @@
       <c r="K29" s="1">
         <v>1.0063200000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0.97595399999999999</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.0063200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98442929999999995</v>
       </c>
@@ -1198,8 +1388,14 @@
       <c r="K30" s="1">
         <v>0.999081</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>0.97602886</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.999081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98425054999999995</v>
       </c>
@@ -1224,8 +1420,14 @@
       <c r="K31" s="1">
         <v>1.0124</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0.97981470000000004</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.0124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98417069999999995</v>
       </c>
@@ -1250,8 +1452,14 @@
       <c r="K32" s="1">
         <v>1.00979</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0.98013399999999995</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.00979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98401810000000001</v>
       </c>
@@ -1276,8 +1484,14 @@
       <c r="K33" s="1">
         <v>1.0006600000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0.98506839999999996</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.0006600000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98382769999999997</v>
       </c>
@@ -1302,8 +1516,14 @@
       <c r="K34" s="1">
         <v>0.97912399999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0.98374490000000003</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.97912399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98361200000000004</v>
       </c>
@@ -1328,8 +1548,14 @@
       <c r="K35" s="1">
         <v>0.97565800000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0.9794117</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.97565800000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98328775000000002</v>
       </c>
@@ -1354,8 +1580,14 @@
       <c r="K36" s="1">
         <v>0.97910200000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0.97881260000000003</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.97910200000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98314743999999998</v>
       </c>
@@ -1380,8 +1612,14 @@
       <c r="K37" s="1">
         <v>0.99693799999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0.98113865</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.99693799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98334580000000005</v>
       </c>
@@ -1406,8 +1644,14 @@
       <c r="K38" s="1">
         <v>0.98396099999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0.98232600000000003</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.98396099999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98371410000000004</v>
       </c>
@@ -1432,8 +1676,14 @@
       <c r="K39" s="1">
         <v>0.97816199999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0.98016906000000004</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.97816199999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98371017000000005</v>
       </c>
@@ -1458,8 +1708,14 @@
       <c r="K40" s="1">
         <v>0.98330300000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0.97783370000000003</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.98330300000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98339765999999995</v>
       </c>
@@ -1484,8 +1740,14 @@
       <c r="K41" s="1">
         <v>0.99296300000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0.98041356000000002</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.99296300000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98303289999999999</v>
       </c>
@@ -1510,8 +1772,14 @@
       <c r="K42" s="1">
         <v>0.98992999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0.98027872999999999</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.98992999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98286753999999998</v>
       </c>
@@ -1536,8 +1804,14 @@
       <c r="K43" s="1">
         <v>0.993869</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0.98200184000000001</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.993869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98300432999999998</v>
       </c>
@@ -1562,8 +1836,14 @@
       <c r="K44" s="1">
         <v>1.0004299999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0.98237459999999999</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1.0004299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.9832651</v>
       </c>
@@ -1588,8 +1868,14 @@
       <c r="K45" s="1">
         <v>1.00813</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>0.98462760000000005</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1.00813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98372643999999998</v>
       </c>
@@ -1614,8 +1900,14 @@
       <c r="K46" s="1">
         <v>1.00132</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>0.99082254999999997</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1.00132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98432560000000002</v>
       </c>
@@ -1640,8 +1932,14 @@
       <c r="K47" s="1">
         <v>1.00373</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>0.98947655999999995</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.00373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98475860000000004</v>
       </c>
@@ -1666,8 +1964,14 @@
       <c r="K48" s="1">
         <v>1.01136</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>0.99029040000000002</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.01136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.98492480000000004</v>
       </c>
@@ -1692,8 +1996,14 @@
       <c r="K49" s="1">
         <v>1.0102</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>0.99321926000000005</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1.0102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98489547</v>
       </c>
@@ -1718,8 +2028,14 @@
       <c r="K50" s="1">
         <v>0.99335899999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>0.99318669999999998</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.99335899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98475820000000003</v>
       </c>
@@ -1744,8 +2060,14 @@
       <c r="K51" s="1">
         <v>1.00695</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0.98707544999999997</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1.00695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98481363</v>
       </c>
@@ -1770,8 +2092,14 @@
       <c r="K52" s="1">
         <v>1.00475</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>0.99150925999999995</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.00475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.9850875</v>
       </c>
@@ -1796,8 +2124,14 @@
       <c r="K53" s="1">
         <v>1.0123</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>0.99225890000000005</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1.0123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98536449999999998</v>
       </c>
@@ -1822,8 +2156,14 @@
       <c r="K54" s="1">
         <v>1.0158100000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0.99196930000000005</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1.0158100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98559750000000002</v>
       </c>
@@ -1848,8 +2188,14 @@
       <c r="K55" s="1">
         <v>1.01918</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>0.9948707</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1.01918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.9857051</v>
       </c>
@@ -1874,8 +2220,14 @@
       <c r="K56" s="1">
         <v>1.01298</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>0.99709539999999997</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1.01298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.98565130000000001</v>
       </c>
@@ -1900,8 +2252,14 @@
       <c r="K57" s="1">
         <v>1.01711</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0.99582190000000004</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1.01711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98549973999999996</v>
       </c>
@@ -1926,8 +2284,14 @@
       <c r="K58" s="1">
         <v>1.0115099999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0.99487144000000005</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1.0115099999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98522779999999999</v>
       </c>
@@ -1952,8 +2316,14 @@
       <c r="K59" s="1">
         <v>0.99642200000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0.99459003999999995</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0.99642200000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.98444646999999996</v>
       </c>
@@ -1978,8 +2348,14 @@
       <c r="K60" s="1">
         <v>1.0125299999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>0.98730859999999998</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1.0125299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98378679999999996</v>
       </c>
@@ -2004,8 +2380,14 @@
       <c r="K61" s="1">
         <v>1.01692</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>0.99252295000000001</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1.01692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98387910000000001</v>
       </c>
@@ -2030,8 +2412,14 @@
       <c r="K62" s="1">
         <v>0.99921499999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0.99675243999999996</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.99921499999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98397403999999999</v>
       </c>
@@ -2056,8 +2444,14 @@
       <c r="K63" s="1">
         <v>0.99263100000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0.98769313000000003</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0.99263100000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98311510000000002</v>
       </c>
@@ -2082,8 +2476,14 @@
       <c r="K64" s="1">
         <v>0.99818300000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0.98529445999999998</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.99818300000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98196923999999997</v>
       </c>
@@ -2108,8 +2508,14 @@
       <c r="K65" s="1">
         <v>1.0180499999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>0.98762589999999995</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1.0180499999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98182570000000002</v>
       </c>
@@ -2134,8 +2540,14 @@
       <c r="K66" s="1">
         <v>1.01044</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0.99221740000000003</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1.01044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98213433999999999</v>
       </c>
@@ -2160,8 +2572,14 @@
       <c r="K67" s="1">
         <v>1.0060500000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>0.99231060000000004</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1.0060500000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.9820468</v>
       </c>
@@ -2186,8 +2604,14 @@
       <c r="K68" s="1">
         <v>1.00559</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>0.98883829999999995</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1.00559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98158659999999998</v>
       </c>
@@ -2212,8 +2636,14 @@
       <c r="K69" s="1">
         <v>1.02159</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>0.99308470000000004</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1.02159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98121685000000003</v>
       </c>
@@ -2238,8 +2668,14 @@
       <c r="K70" s="1">
         <v>1.02274</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>0.99686914999999998</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1.02274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98107100000000003</v>
       </c>
@@ -2264,8 +2700,14 @@
       <c r="K71" s="1">
         <v>1.02732</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <v>0.99891640000000004</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1.02732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.98125476</v>
       </c>
@@ -2290,8 +2732,14 @@
       <c r="K72" s="1">
         <v>1.0263500000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>1.0005611000000001</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1.0263500000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98163986000000003</v>
       </c>
@@ -2316,8 +2764,14 @@
       <c r="K73" s="1">
         <v>1.02495</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>1.0018879999999999</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1.02495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98200410000000005</v>
       </c>
@@ -2342,8 +2796,14 @@
       <c r="K74" s="1">
         <v>1.0284599999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <v>1.0028745999999999</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1.0284599999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98241100000000003</v>
       </c>
@@ -2368,8 +2828,14 @@
       <c r="K75" s="1">
         <v>1.0250999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <v>1.0038023</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1.0250999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98286790000000002</v>
       </c>
@@ -2394,8 +2860,14 @@
       <c r="K76" s="1">
         <v>1.0096400000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>1.0045603999999999</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1.0096400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98338102999999999</v>
       </c>
@@ -2420,8 +2892,14 @@
       <c r="K77" s="1">
         <v>1.0232699999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <v>1.000006</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1.0232699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98389950000000004</v>
       </c>
@@ -2446,8 +2924,14 @@
       <c r="K78" s="1">
         <v>1.0213699999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>1.0022389</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1.0213699999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98431873000000003</v>
       </c>
@@ -2472,8 +2956,14 @@
       <c r="K79" s="1">
         <v>1.01189</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>1.0026504000000001</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1.01189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98454370000000002</v>
       </c>
@@ -2498,8 +2988,14 @@
       <c r="K80" s="1">
         <v>1.0149600000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>0.99871909999999997</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1.0149600000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98472499999999996</v>
       </c>
@@ -2524,8 +3020,14 @@
       <c r="K81" s="1">
         <v>1.01346</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>0.99977755999999995</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1.01346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.9847243</v>
       </c>
@@ -2550,8 +3052,14 @@
       <c r="K82" s="1">
         <v>1.0166200000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>0.99788414999999997</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1.0166200000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98449500000000001</v>
       </c>
@@ -2576,8 +3084,14 @@
       <c r="K83" s="1">
         <v>1.00373</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>0.99921936</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1.00373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98391819999999997</v>
       </c>
@@ -2602,8 +3116,14 @@
       <c r="K84" s="1">
         <v>1.0016</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>0.99346659999999998</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1.0016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98308605000000004</v>
       </c>
@@ -2628,8 +3148,14 @@
       <c r="K85" s="1">
         <v>0.99201600000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>0.99262552999999998</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0.99201600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.98196300000000003</v>
       </c>
@@ -2654,8 +3180,14 @@
       <c r="K86" s="1">
         <v>0.99263100000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>0.99164839999999999</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0.99263100000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98071059999999999</v>
       </c>
@@ -2680,8 +3212,14 @@
       <c r="K87" s="1">
         <v>1.0103500000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>0.99020249999999999</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1.0103500000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98030229999999996</v>
       </c>
@@ -2706,8 +3244,14 @@
       <c r="K88" s="1">
         <v>1.0129300000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>0.99256299999999997</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1.0129300000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98065959999999996</v>
       </c>
@@ -2732,8 +3276,14 @@
       <c r="K89" s="1">
         <v>1.0024999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>0.9954577</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1.0024999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98071193999999995</v>
       </c>
@@ -2758,8 +3308,14 @@
       <c r="K90" s="1">
         <v>0.99565800000000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>0.99228360000000004</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0.99565800000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.97984766999999995</v>
       </c>
@@ -2784,8 +3340,14 @@
       <c r="K91" s="1">
         <v>1.0040500000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>0.98946506000000001</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1.0040500000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.97908704999999996</v>
       </c>
@@ -2810,8 +3372,14 @@
       <c r="K92" s="1">
         <v>1.00698</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>0.99310100000000001</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1.00698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.97884300000000002</v>
       </c>
@@ -2836,8 +3404,14 @@
       <c r="K93" s="1">
         <v>1.02169</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>0.99371076000000003</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1.02169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.97900039999999999</v>
       </c>
@@ -2862,8 +3436,14 @@
       <c r="K94" s="1">
         <v>1.01373</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>0.99653309999999995</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1.01373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97906053000000004</v>
       </c>
@@ -2888,8 +3468,14 @@
       <c r="K95" s="1">
         <v>1.0228299999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>0.99595449999999996</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1.0228299999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97900719999999997</v>
       </c>
@@ -2914,8 +3500,14 @@
       <c r="K96" s="1">
         <v>1.0237799999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>0.99865749999999998</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1.0237799999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97931109999999999</v>
       </c>
@@ -2940,8 +3532,14 @@
       <c r="K97" s="1">
         <v>1.01274</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>1.000564</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1.01274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97974159999999999</v>
       </c>
@@ -2966,8 +3564,14 @@
       <c r="K98" s="1">
         <v>1.0083</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>0.99847969999999997</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1.0083</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97993330000000001</v>
       </c>
@@ -2992,8 +3596,14 @@
       <c r="K99" s="1">
         <v>1.0077199999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>0.9982065</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1.0077199999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97969764000000004</v>
       </c>
@@ -3018,8 +3628,14 @@
       <c r="K100" s="1">
         <v>0.97671200000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>0.99657640000000003</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0.97671200000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97793596999999999</v>
       </c>
@@ -3044,8 +3660,14 @@
       <c r="K101" s="1">
         <v>0.98058000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <v>0.98678184000000002</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0.98058000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97617259999999995</v>
       </c>
@@ -3070,8 +3692,14 @@
       <c r="K102" s="1">
         <v>0.99070000000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>0.98743755</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97623150000000003</v>
       </c>
@@ -3096,8 +3724,14 @@
       <c r="K103" s="1">
         <v>0.99024800000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>0.98875546000000003</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0.99024800000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97707679999999997</v>
       </c>
@@ -3122,8 +3756,14 @@
       <c r="K104" s="1">
         <v>0.98457600000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>0.98825556000000003</v>
+      </c>
+      <c r="O104" s="1">
+        <v>0.98457600000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97745514</v>
       </c>
@@ -3148,8 +3788,14 @@
       <c r="K105" s="1">
         <v>0.99347300000000005</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>0.98592900000000006</v>
+      </c>
+      <c r="O105" s="1">
+        <v>0.99347300000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97696110000000003</v>
       </c>
@@ -3174,8 +3820,14 @@
       <c r="K106" s="1">
         <v>0.96896099999999996</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>0.98491980000000001</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0.96896099999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97576605999999999</v>
       </c>
@@ -3200,8 +3852,14 @@
       <c r="K107" s="1">
         <v>0.97223599999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>0.98215470000000005</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0.97223599999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97488629999999998</v>
       </c>
@@ -3226,8 +3884,14 @@
       <c r="K108" s="1">
         <v>0.99013499999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>0.98144615000000002</v>
+      </c>
+      <c r="O108" s="1">
+        <v>0.99013499999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97477650000000005</v>
       </c>
@@ -3252,8 +3916,14 @@
       <c r="K109" s="1">
         <v>1.0063899999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <v>0.98266710000000002</v>
+      </c>
+      <c r="O109" s="1">
+        <v>1.0063899999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97557044000000004</v>
       </c>
@@ -3278,8 +3948,14 @@
       <c r="K110" s="1">
         <v>1.0129999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>0.98651820000000001</v>
+      </c>
+      <c r="O110" s="1">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97673255000000003</v>
       </c>
@@ -3304,8 +3980,14 @@
       <c r="K111" s="1">
         <v>1.0119</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>0.99051040000000001</v>
+      </c>
+      <c r="O111" s="1">
+        <v>1.0119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97761030000000004</v>
       </c>
@@ -3330,8 +4012,14 @@
       <c r="K112" s="1">
         <v>1.0238499999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>0.99248080000000005</v>
+      </c>
+      <c r="O112" s="1">
+        <v>1.0238499999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97834580000000004</v>
       </c>
@@ -3356,8 +4044,14 @@
       <c r="K113" s="1">
         <v>1.0255099999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>0.99663966999999998</v>
+      </c>
+      <c r="O113" s="1">
+        <v>1.0255099999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97910260000000005</v>
       </c>
@@ -3382,8 +4076,14 @@
       <c r="K114" s="1">
         <v>1.02667</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>0.99905694</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1.02667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97996780000000006</v>
       </c>
@@ -3408,8 +4108,14 @@
       <c r="K115" s="1">
         <v>1.0202500000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>1.0001853999999999</v>
+      </c>
+      <c r="O115" s="1">
+        <v>1.0202500000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.9808017</v>
       </c>
@@ -3434,8 +4140,14 @@
       <c r="K116" s="1">
         <v>1.01668</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>1.0005725999999999</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1.01668</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.98146533999999996</v>
       </c>
@@ -3460,8 +4172,14 @@
       <c r="K117" s="1">
         <v>1.0081899999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>1.0012405</v>
+      </c>
+      <c r="O117" s="1">
+        <v>1.0081899999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.98195619999999995</v>
       </c>
@@ -3486,8 +4204,14 @@
       <c r="K118" s="1">
         <v>0.99227699999999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>1.0005040999999999</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0.99227699999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.98239124</v>
       </c>
@@ -3512,8 +4236,14 @@
       <c r="K119" s="1">
         <v>0.98378399999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>0.99706936000000002</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0.98378399999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9825874</v>
       </c>
@@ -3538,8 +4268,14 @@
       <c r="K120" s="1">
         <v>1.0019</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>0.99530549999999995</v>
+      </c>
+      <c r="O120" s="1">
+        <v>1.0019</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98263029999999996</v>
       </c>
@@ -3564,8 +4300,14 @@
       <c r="K121" s="1">
         <v>1.0127299999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>0.99541824999999995</v>
+      </c>
+      <c r="O121" s="1">
+        <v>1.0127299999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98298450000000004</v>
       </c>
@@ -3590,8 +4332,14 @@
       <c r="K122" s="1">
         <v>1.0127699999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>0.99713719999999995</v>
+      </c>
+      <c r="O122" s="1">
+        <v>1.0127699999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98353460000000004</v>
       </c>
@@ -3616,8 +4364,14 @@
       <c r="K123" s="1">
         <v>1.0093799999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>0.99657119999999999</v>
+      </c>
+      <c r="O123" s="1">
+        <v>1.0093799999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.98405050000000005</v>
       </c>
@@ -3642,8 +4396,14 @@
       <c r="K124" s="1">
         <v>1.00528</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>0.99731183000000001</v>
+      </c>
+      <c r="O124" s="1">
+        <v>1.00528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98429626000000003</v>
       </c>
@@ -3668,8 +4428,14 @@
       <c r="K125" s="1">
         <v>1.0019400000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>0.99604570000000003</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1.0019400000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98426913999999999</v>
       </c>
@@ -3694,8 +4460,14 @@
       <c r="K126" s="1">
         <v>1.0065599999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>0.99643504999999999</v>
+      </c>
+      <c r="O126" s="1">
+        <v>1.0065599999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98429429999999996</v>
       </c>
@@ -3720,8 +4492,14 @@
       <c r="K127" s="1">
         <v>0.99504300000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>0.99732799999999999</v>
+      </c>
+      <c r="O127" s="1">
+        <v>0.99504300000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98417840000000001</v>
       </c>
@@ -3746,8 +4524,14 @@
       <c r="K128" s="1">
         <v>0.99080599999999996</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>0.99269870000000004</v>
+      </c>
+      <c r="O128" s="1">
+        <v>0.99080599999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98372369999999998</v>
       </c>
@@ -3772,8 +4556,14 @@
       <c r="K129" s="1">
         <v>1.00962</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>0.99201799999999996</v>
+      </c>
+      <c r="O129" s="1">
+        <v>1.00962</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98357570000000005</v>
       </c>
@@ -3798,8 +4588,14 @@
       <c r="K130" s="1">
         <v>0.99540300000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <v>0.99629140000000005</v>
+      </c>
+      <c r="O130" s="1">
+        <v>0.99540300000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98368542999999997</v>
       </c>
@@ -3824,8 +4620,14 @@
       <c r="K131" s="1">
         <v>0.99680299999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <v>0.99233353000000002</v>
+      </c>
+      <c r="O131" s="1">
+        <v>0.99680299999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98327949999999997</v>
       </c>
@@ -3850,8 +4652,14 @@
       <c r="K132" s="1">
         <v>0.99492199999999997</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>0.98861449999999995</v>
+      </c>
+      <c r="O132" s="1">
+        <v>0.99492199999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98277073999999998</v>
       </c>
@@ -3876,8 +4684,14 @@
       <c r="K133" s="1">
         <v>1.0006900000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>0.99343336000000004</v>
+      </c>
+      <c r="O133" s="1">
+        <v>1.0006900000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98254269999999999</v>
       </c>
@@ -3902,8 +4716,14 @@
       <c r="K134" s="1">
         <v>1.0083899999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <v>0.99398242999999997</v>
+      </c>
+      <c r="O134" s="1">
+        <v>1.0083899999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98247397000000003</v>
       </c>
@@ -3928,8 +4748,14 @@
       <c r="K135" s="1">
         <v>1.0044900000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>0.99522120000000003</v>
+      </c>
+      <c r="O135" s="1">
+        <v>1.0044900000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98264300000000004</v>
       </c>
@@ -3954,8 +4780,14 @@
       <c r="K136" s="1">
         <v>0.99224900000000005</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <v>0.99800789999999995</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0.99224900000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98228073000000005</v>
       </c>
@@ -3980,8 +4812,14 @@
       <c r="K137" s="1">
         <v>0.96121800000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>0.99266374000000002</v>
+      </c>
+      <c r="O137" s="1">
+        <v>0.96121800000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.97903110000000004</v>
       </c>
@@ -4006,8 +4844,14 @@
       <c r="K138" s="1">
         <v>0.91536300000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <v>0.98299899999999996</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0.91536300000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.97004630000000003</v>
       </c>
@@ -4032,8 +4876,14 @@
       <c r="K139" s="1">
         <v>0.86042799999999997</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <v>0.97335669999999996</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0.86042799999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.9547544</v>
       </c>
@@ -4058,8 +4908,14 @@
       <c r="K140" s="1">
         <v>0.84232399999999996</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <v>0.95869870000000001</v>
+      </c>
+      <c r="O140" s="1">
+        <v>0.84232399999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.93693346</v>
       </c>
@@ -4084,8 +4940,14 @@
       <c r="K141" s="1">
         <v>0.89387899999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <v>0.95011276</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0.89387899999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.92407969999999995</v>
       </c>
@@ -4110,8 +4972,14 @@
       <c r="K142" s="1">
         <v>0.92722300000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <v>0.94305810000000001</v>
+      </c>
+      <c r="O142" s="1">
+        <v>0.92722300000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.92545204999999997</v>
       </c>
@@ -4136,8 +5004,14 @@
       <c r="K143" s="1">
         <v>0.92807799999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <v>0.94156589999999996</v>
+      </c>
+      <c r="O143" s="1">
+        <v>0.92807799999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.933639</v>
       </c>
@@ -4162,8 +5036,14 @@
       <c r="K144" s="1">
         <v>0.91627499999999995</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <v>0.94413829999999999</v>
+      </c>
+      <c r="O144" s="1">
+        <v>0.91627499999999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93672144000000002</v>
       </c>
@@ -4188,8 +5068,14 @@
       <c r="K145" s="1">
         <v>0.87502500000000005</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <v>0.94587796999999996</v>
+      </c>
+      <c r="O145" s="1">
+        <v>0.87502500000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92697589999999996</v>
       </c>
@@ -4214,8 +5100,14 @@
       <c r="K146" s="1">
         <v>0.89978400000000003</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <v>0.93989659999999997</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0.89978400000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.91321622999999996</v>
       </c>
@@ -4240,8 +5132,14 @@
       <c r="K147" s="1">
         <v>0.901389</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <v>0.94597595999999995</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0.901389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.90451545</v>
       </c>
@@ -4266,8 +5164,14 @@
       <c r="K148" s="1">
         <v>0.88023700000000005</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <v>0.94934136000000002</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0.88023700000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.89857799999999999</v>
       </c>
@@ -4292,8 +5196,14 @@
       <c r="K149" s="1">
         <v>0.91431600000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <v>0.94712439999999998</v>
+      </c>
+      <c r="O149" s="1">
+        <v>0.91431600000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.90034729999999996</v>
       </c>
@@ -4318,8 +5228,14 @@
       <c r="K150" s="1">
         <v>0.89496100000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>0.94919350000000002</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0.89496100000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.90802103000000001</v>
       </c>
@@ -4344,8 +5260,14 @@
       <c r="K151" s="1">
         <v>0.90220900000000004</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <v>0.95005786000000003</v>
+      </c>
+      <c r="O151" s="1">
+        <v>0.90220900000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.91741079999999997</v>
       </c>
@@ -4370,8 +5292,14 @@
       <c r="K152" s="1">
         <v>0.90840399999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>0.95417980000000002</v>
+      </c>
+      <c r="O152" s="1">
+        <v>0.90840399999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.92375510000000005</v>
       </c>
@@ -4396,8 +5324,14 @@
       <c r="K153" s="1">
         <v>0.90273300000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <v>0.95986252999999999</v>
+      </c>
+      <c r="O153" s="1">
+        <v>0.90273300000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.92515199999999997</v>
       </c>
@@ -4422,8 +5356,14 @@
       <c r="K154" s="1">
         <v>0.92045500000000002</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <v>0.96273403999999996</v>
+      </c>
+      <c r="O154" s="1">
+        <v>0.92045500000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.92614399999999997</v>
       </c>
@@ -4448,8 +5388,14 @@
       <c r="K155" s="1">
         <v>0.93263300000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <v>0.96840349999999997</v>
+      </c>
+      <c r="O155" s="1">
+        <v>0.93263300000000005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.93095874999999995</v>
       </c>
@@ -4474,8 +5420,14 @@
       <c r="K156" s="1">
         <v>0.92901900000000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>0.97427713999999999</v>
+      </c>
+      <c r="O156" s="1">
+        <v>0.92901900000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.93712969999999995</v>
       </c>
@@ -4500,8 +5452,14 @@
       <c r="K157" s="1">
         <v>0.90626899999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <v>0.97600450000000005</v>
+      </c>
+      <c r="O157" s="1">
+        <v>0.90626899999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.93991696999999996</v>
       </c>
@@ -4526,8 +5484,14 @@
       <c r="K158" s="1">
         <v>0.91259100000000004</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>0.97025627000000003</v>
+      </c>
+      <c r="O158" s="1">
+        <v>0.91259100000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.94084129999999999</v>
       </c>
@@ -4552,8 +5516,14 @@
       <c r="K159" s="1">
         <v>0.89545600000000003</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <v>0.97529553999999996</v>
+      </c>
+      <c r="O159" s="1">
+        <v>0.89545600000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.94026430000000005</v>
       </c>
@@ -4578,8 +5548,14 @@
       <c r="K160" s="1">
         <v>0.89264100000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <v>0.96780909999999998</v>
+      </c>
+      <c r="O160" s="1">
+        <v>0.89264100000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.94110380000000005</v>
       </c>
@@ -4604,8 +5580,14 @@
       <c r="K161" s="1">
         <v>0.88802999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <v>0.96755349999999996</v>
+      </c>
+      <c r="O161" s="1">
+        <v>0.88802999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.94173353999999998</v>
       </c>
@@ -4630,8 +5612,14 @@
       <c r="K162" s="1">
         <v>0.88739400000000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <v>0.96261589999999997</v>
+      </c>
+      <c r="O162" s="1">
+        <v>0.88739400000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94368196000000004</v>
       </c>
@@ -4656,8 +5644,14 @@
       <c r="K163" s="1">
         <v>0.85233800000000004</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <v>0.96201899999999996</v>
+      </c>
+      <c r="O163" s="1">
+        <v>0.85233800000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94127249999999996</v>
       </c>
@@ -4682,8 +5676,14 @@
       <c r="K164" s="1">
         <v>0.85397900000000004</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>0.9507196</v>
+      </c>
+      <c r="O164" s="1">
+        <v>0.85397900000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.93782215999999996</v>
       </c>
@@ -4708,8 +5708,14 @@
       <c r="K165" s="1">
         <v>0.87939500000000004</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <v>0.94882803999999998</v>
+      </c>
+      <c r="O165" s="1">
+        <v>0.87939500000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.93808895000000003</v>
       </c>
@@ -4734,8 +5740,14 @@
       <c r="K166" s="1">
         <v>0.88207500000000005</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <v>0.94957124999999998</v>
+      </c>
+      <c r="O166" s="1">
+        <v>0.88207500000000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.93920802999999997</v>
       </c>
@@ -4760,8 +5772,14 @@
       <c r="K167" s="1">
         <v>0.90155200000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <v>0.94894624000000005</v>
+      </c>
+      <c r="O167" s="1">
+        <v>0.90155200000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.93959300000000001</v>
       </c>
@@ -4786,8 +5804,14 @@
       <c r="K168" s="1">
         <v>0.92679100000000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>0.94646509999999995</v>
+      </c>
+      <c r="O168" s="1">
+        <v>0.92679100000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.94315260000000001</v>
       </c>
@@ -4812,8 +5836,14 @@
       <c r="K169" s="1">
         <v>0.92174900000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <v>0.95444344999999997</v>
+      </c>
+      <c r="O169" s="1">
+        <v>0.92174900000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.94766163999999997</v>
       </c>
@@ -4838,8 +5868,14 @@
       <c r="K170" s="1">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <v>0.95798640000000002</v>
+      </c>
+      <c r="O170" s="1">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.95133719999999999</v>
       </c>
@@ -4864,8 +5900,14 @@
       <c r="K171" s="1">
         <v>0.94544700000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>0.96244850000000004</v>
+      </c>
+      <c r="O171" s="1">
+        <v>0.94544700000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.95438230000000002</v>
       </c>
@@ -4890,8 +5932,14 @@
       <c r="K172" s="1">
         <v>0.94647999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>0.96808285000000005</v>
+      </c>
+      <c r="O172" s="1">
+        <v>0.94647999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.95731500000000003</v>
       </c>
@@ -4916,8 +5964,14 @@
       <c r="K173" s="1">
         <v>0.94829699999999995</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <v>0.97327982999999996</v>
+      </c>
+      <c r="O173" s="1">
+        <v>0.94829699999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.95968229999999999</v>
       </c>
@@ -4942,8 +5996,14 @@
       <c r="K174" s="1">
         <v>0.93855900000000003</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>0.9774699</v>
+      </c>
+      <c r="O174" s="1">
+        <v>0.93855900000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.96201610000000004</v>
       </c>
@@ -4968,8 +6028,14 @@
       <c r="K175" s="1">
         <v>0.93187600000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>0.97912679999999996</v>
+      </c>
+      <c r="O175" s="1">
+        <v>0.93187600000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.96395209999999998</v>
       </c>
@@ -4994,8 +6060,14 @@
       <c r="K176" s="1">
         <v>0.95282299999999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>0.98021159999999996</v>
+      </c>
+      <c r="O176" s="1">
+        <v>0.95282299999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.96586989999999995</v>
       </c>
@@ -5020,8 +6092,14 @@
       <c r="K177" s="1">
         <v>0.95936500000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>0.98126316000000002</v>
+      </c>
+      <c r="O177" s="1">
+        <v>0.95936500000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.96764075999999999</v>
       </c>
@@ -5046,8 +6124,14 @@
       <c r="K178" s="1">
         <v>0.959754</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>0.98271489999999995</v>
+      </c>
+      <c r="O178" s="1">
+        <v>0.959754</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96969530000000004</v>
       </c>
@@ -5072,8 +6156,14 @@
       <c r="K179" s="1">
         <v>0.95770999999999995</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>0.9840449</v>
+      </c>
+      <c r="O179" s="1">
+        <v>0.95770999999999995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.97170460000000003</v>
       </c>
@@ -5098,8 +6188,14 @@
       <c r="K180" s="1">
         <v>0.94934399999999997</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>0.98527414000000002</v>
+      </c>
+      <c r="O180" s="1">
+        <v>0.94934399999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.97299707000000002</v>
       </c>
@@ -5124,8 +6220,14 @@
       <c r="K181" s="1">
         <v>0.97308399999999995</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <v>0.98434010000000005</v>
+      </c>
+      <c r="O181" s="1">
+        <v>0.97308399999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.97433950000000003</v>
       </c>
@@ -5150,8 +6252,14 @@
       <c r="K182" s="1">
         <v>0.98909499999999995</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>0.98623479999999997</v>
+      </c>
+      <c r="O182" s="1">
+        <v>0.98909499999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.97554255000000001</v>
       </c>
@@ -5176,8 +6284,14 @@
       <c r="K183" s="1">
         <v>0.98628800000000005</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>0.98937494000000004</v>
+      </c>
+      <c r="O183" s="1">
+        <v>0.98628800000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97656359999999998</v>
       </c>
@@ -5202,8 +6316,14 @@
       <c r="K184" s="1">
         <v>0.98254600000000003</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>0.98954149999999996</v>
+      </c>
+      <c r="O184" s="1">
+        <v>0.98254600000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97792214</v>
       </c>
@@ -5228,8 +6348,14 @@
       <c r="K185" s="1">
         <v>0.99984399999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>0.98877970000000004</v>
+      </c>
+      <c r="O185" s="1">
+        <v>0.99984399999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.9793828</v>
       </c>
@@ -5254,8 +6380,14 @@
       <c r="K186" s="1">
         <v>0.99917999999999996</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>0.99037063000000003</v>
+      </c>
+      <c r="O186" s="1">
+        <v>0.99917999999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.98040729999999998</v>
       </c>
@@ -5280,8 +6412,14 @@
       <c r="K187" s="1">
         <v>0.99207199999999995</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>0.99238795000000002</v>
+      </c>
+      <c r="O187" s="1">
+        <v>0.99207199999999995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.98111605999999996</v>
       </c>
@@ -5306,8 +6444,14 @@
       <c r="K188" s="1">
         <v>1.00953</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>0.99065599999999998</v>
+      </c>
+      <c r="O188" s="1">
+        <v>1.00953</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.98187243999999996</v>
       </c>
@@ -5332,8 +6476,14 @@
       <c r="K189" s="1">
         <v>1.01359</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <v>0.99206024000000004</v>
+      </c>
+      <c r="O189" s="1">
+        <v>1.01359</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.98256403000000003</v>
       </c>
@@ -5358,8 +6508,14 @@
       <c r="K190" s="1">
         <v>1.0083</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <v>0.99379629999999997</v>
+      </c>
+      <c r="O190" s="1">
+        <v>1.0083</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98312259999999996</v>
       </c>
@@ -5384,8 +6540,14 @@
       <c r="K191" s="1">
         <v>1.0066200000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <v>0.99376386000000005</v>
+      </c>
+      <c r="O191" s="1">
+        <v>1.0066200000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98375254999999995</v>
       </c>
@@ -5410,8 +6572,14 @@
       <c r="K192" s="1">
         <v>1.0061</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <v>0.99353915000000004</v>
+      </c>
+      <c r="O192" s="1">
+        <v>1.0061</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98449209999999998</v>
       </c>
@@ -5436,8 +6604,14 @@
       <c r="K193" s="1">
         <v>0.99152099999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <v>0.99357366999999996</v>
+      </c>
+      <c r="O193" s="1">
+        <v>0.99152099999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98514500000000005</v>
       </c>
@@ -5462,8 +6636,14 @@
       <c r="K194" s="1">
         <v>0.99374099999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>0.99101209999999995</v>
+      </c>
+      <c r="O194" s="1">
+        <v>0.99374099999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98565453000000003</v>
       </c>
@@ -5488,8 +6668,14 @@
       <c r="K195" s="1">
         <v>0.98898900000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>0.99074669999999998</v>
+      </c>
+      <c r="O195" s="1">
+        <v>0.98898900000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98607814000000005</v>
       </c>
@@ -5514,8 +6700,14 @@
       <c r="K196" s="1">
         <v>0.96845899999999996</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>0.99019690000000005</v>
+      </c>
+      <c r="O196" s="1">
+        <v>0.96845899999999996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98608105999999995</v>
       </c>
@@ -5540,8 +6732,14 @@
       <c r="K197" s="1">
         <v>0.95224299999999995</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>0.98212520000000003</v>
+      </c>
+      <c r="O197" s="1">
+        <v>0.95224299999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98535790000000001</v>
       </c>
@@ -5566,8 +6764,14 @@
       <c r="K198" s="1">
         <v>0.97356500000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <v>0.97714542999999998</v>
+      </c>
+      <c r="O198" s="1">
+        <v>0.97356500000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98483220000000005</v>
       </c>
@@ -5592,8 +6796,14 @@
       <c r="K199" s="1">
         <v>0.97162000000000004</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>0.97678679999999996</v>
+      </c>
+      <c r="O199" s="1">
+        <v>0.97162000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98502339999999999</v>
       </c>
@@ -5618,8 +6828,14 @@
       <c r="K200" s="1">
         <v>0.99505699999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>0.97417810000000005</v>
+      </c>
+      <c r="O200" s="1">
+        <v>0.99505699999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98543809999999998</v>
       </c>
@@ -5644,8 +6860,14 @@
       <c r="K201" s="1">
         <v>0.99340200000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>0.97253100000000003</v>
+      </c>
+      <c r="O201" s="1">
+        <v>0.99340200000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98574779999999995</v>
       </c>
@@ -5670,8 +6892,14 @@
       <c r="K202" s="1">
         <v>0.99900999999999995</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <v>0.97401243000000004</v>
+      </c>
+      <c r="O202" s="1">
+        <v>0.99900999999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98582709999999996</v>
       </c>
@@ -5696,8 +6924,14 @@
       <c r="K203" s="1">
         <v>0.99718499999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <v>0.97458900000000004</v>
+      </c>
+      <c r="O203" s="1">
+        <v>0.99718499999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98575102999999997</v>
       </c>
@@ -5722,8 +6956,14 @@
       <c r="K204" s="1">
         <v>0.99898900000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <v>0.97559476000000001</v>
+      </c>
+      <c r="O204" s="1">
+        <v>0.99898900000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98565930000000002</v>
       </c>
@@ -5748,8 +6988,14 @@
       <c r="K205" s="1">
         <v>0.99879799999999996</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>0.97424257000000003</v>
+      </c>
+      <c r="O205" s="1">
+        <v>0.99879799999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98564845000000001</v>
       </c>
@@ -5774,8 +7020,14 @@
       <c r="K206" s="1">
         <v>0.99967499999999998</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <v>0.97804539999999995</v>
+      </c>
+      <c r="O206" s="1">
+        <v>0.99967499999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98571235000000001</v>
       </c>
@@ -5800,8 +7052,14 @@
       <c r="K207" s="1">
         <v>0.992815</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>0.97905949999999997</v>
+      </c>
+      <c r="O207" s="1">
+        <v>0.992815</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98587716000000003</v>
       </c>
@@ -5826,8 +7084,14 @@
       <c r="K208" s="1">
         <v>1.0085299999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <v>0.97626820000000003</v>
+      </c>
+      <c r="O208" s="1">
+        <v>1.0085299999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98601127</v>
       </c>
@@ -5852,8 +7116,14 @@
       <c r="K209" s="1">
         <v>0.992178</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>0.9797631</v>
+      </c>
+      <c r="O209" s="1">
+        <v>0.992178</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98605670000000001</v>
       </c>
@@ -5878,8 +7148,14 @@
       <c r="K210" s="1">
         <v>0.97104000000000001</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <v>0.97623294999999999</v>
+      </c>
+      <c r="O210" s="1">
+        <v>0.97104000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98566529999999997</v>
       </c>
@@ -5904,8 +7180,14 @@
       <c r="K211" s="1">
         <v>1.0007900000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <v>0.96792244999999999</v>
+      </c>
+      <c r="O211" s="1">
+        <v>1.0007900000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98518830000000002</v>
       </c>
@@ -5930,8 +7212,14 @@
       <c r="K212" s="1">
         <v>0.99045300000000003</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <v>0.9715009</v>
+      </c>
+      <c r="O212" s="1">
+        <v>0.99045300000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98497619999999997</v>
       </c>
@@ -5956,8 +7244,14 @@
       <c r="K213" s="1">
         <v>0.98092000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <v>0.96949934999999998</v>
+      </c>
+      <c r="O213" s="1">
+        <v>0.98092000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98432993999999996</v>
       </c>
@@ -5982,8 +7276,14 @@
       <c r="K214" s="1">
         <v>0.96962599999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <v>0.9616133</v>
+      </c>
+      <c r="O214" s="1">
+        <v>0.96962599999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98297506999999995</v>
       </c>
@@ -6008,8 +7308,14 @@
       <c r="K215" s="1">
         <v>0.97288600000000003</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <v>0.95801044000000002</v>
+      </c>
+      <c r="O215" s="1">
+        <v>0.97288600000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98185619999999996</v>
       </c>
@@ -6034,8 +7340,14 @@
       <c r="K216" s="1">
         <v>0.94469700000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <v>0.96161059999999998</v>
+      </c>
+      <c r="O216" s="1">
+        <v>0.94469700000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.97993699999999995</v>
       </c>
@@ -6060,8 +7372,14 @@
       <c r="K217" s="1">
         <v>0.95146500000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <v>0.95168763000000001</v>
+      </c>
+      <c r="O217" s="1">
+        <v>0.95146500000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.97773109999999996</v>
       </c>
@@ -6086,8 +7404,14 @@
       <c r="K218" s="1">
         <v>0.96664899999999998</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <v>0.95068129999999995</v>
+      </c>
+      <c r="O218" s="1">
+        <v>0.96664899999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.97719294000000001</v>
       </c>
@@ -6112,8 +7436,14 @@
       <c r="K219" s="1">
         <v>0.98762399999999995</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <v>0.95554309999999998</v>
+      </c>
+      <c r="O219" s="1">
+        <v>0.98762399999999995</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.97773339999999997</v>
       </c>
@@ -6138,8 +7468,14 @@
       <c r="K220" s="1">
         <v>0.96557400000000004</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>0.95757559999999997</v>
+      </c>
+      <c r="O220" s="1">
+        <v>0.96557400000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97787120000000005</v>
       </c>
@@ -6164,8 +7500,14 @@
       <c r="K221" s="1">
         <v>0.93987399999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <v>0.95508623000000004</v>
+      </c>
+      <c r="O221" s="1">
+        <v>0.93987399999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.9758656</v>
       </c>
@@ -6190,8 +7532,14 @@
       <c r="K222" s="1">
         <v>0.95090699999999995</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <v>0.94643204999999997</v>
+      </c>
+      <c r="O222" s="1">
+        <v>0.95090699999999995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97317940000000003</v>
       </c>
@@ -6216,8 +7564,14 @@
       <c r="K223" s="1">
         <v>0.96350899999999995</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <v>0.95386325999999999</v>
+      </c>
+      <c r="O223" s="1">
+        <v>0.96350899999999995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97173726999999999</v>
       </c>
@@ -6242,8 +7596,14 @@
       <c r="K224" s="1">
         <v>0.98141500000000004</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>0.95636429999999995</v>
+      </c>
+      <c r="O224" s="1">
+        <v>0.98141500000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.9718755</v>
       </c>
@@ -6268,8 +7628,14 @@
       <c r="K225" s="1">
         <v>0.97908099999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <v>0.96035700000000002</v>
+      </c>
+      <c r="O225" s="1">
+        <v>0.97908099999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.97275659999999997</v>
       </c>
@@ -6294,8 +7660,14 @@
       <c r="K226" s="1">
         <v>0.97590600000000005</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>0.96688379999999996</v>
+      </c>
+      <c r="O226" s="1">
+        <v>0.97590600000000005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97297889999999998</v>
       </c>
@@ -6320,8 +7692,14 @@
       <c r="K227" s="1">
         <v>0.99136500000000005</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <v>0.96835077000000003</v>
+      </c>
+      <c r="O227" s="1">
+        <v>0.99136500000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97284649999999995</v>
       </c>
@@ -6346,8 +7724,14 @@
       <c r="K228" s="1">
         <v>0.98075699999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <v>0.97471297000000001</v>
+      </c>
+      <c r="O228" s="1">
+        <v>0.98075699999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.97313136</v>
       </c>
@@ -6372,8 +7756,14 @@
       <c r="K229" s="1">
         <v>0.96702399999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <v>0.97542490000000004</v>
+      </c>
+      <c r="O229" s="1">
+        <v>0.96702399999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97397869999999998</v>
       </c>
@@ -6398,8 +7788,14 @@
       <c r="K230" s="1">
         <v>0.94490300000000005</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>0.97359775999999998</v>
+      </c>
+      <c r="O230" s="1">
+        <v>0.94490300000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97337216000000004</v>
       </c>
@@ -6424,8 +7820,14 @@
       <c r="K231" s="1">
         <v>0.94776700000000003</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <v>0.96385454999999998</v>
+      </c>
+      <c r="O231" s="1">
+        <v>0.94776700000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.9720879</v>
       </c>
@@ -6450,8 +7852,14 @@
       <c r="K232" s="1">
         <v>0.92906100000000003</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>0.96718364999999995</v>
+      </c>
+      <c r="O232" s="1">
+        <v>0.92906100000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97014034000000005</v>
       </c>
@@ -6476,8 +7884,14 @@
       <c r="K233" s="1">
         <v>0.89570300000000003</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <v>0.96050630000000004</v>
+      </c>
+      <c r="O233" s="1">
+        <v>0.89570300000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.96636515999999995</v>
       </c>
@@ -6502,8 +7916,14 @@
       <c r="K234" s="1">
         <v>0.88080999999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <v>0.94977860000000003</v>
+      </c>
+      <c r="O234" s="1">
+        <v>0.88080999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.96120554000000002</v>
       </c>
@@ -6528,8 +7948,14 @@
       <c r="K235" s="1">
         <v>0.881969</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <v>0.94586539999999997</v>
+      </c>
+      <c r="O235" s="1">
+        <v>0.881969</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.95493567000000001</v>
       </c>
@@ -6554,8 +7980,14 @@
       <c r="K236" s="1">
         <v>0.89258400000000004</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <v>0.94232800000000005</v>
+      </c>
+      <c r="O236" s="1">
+        <v>0.89258400000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.94963056000000001</v>
       </c>
@@ -6580,8 +8012,14 @@
       <c r="K237" s="1">
         <v>0.85835600000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <v>0.94048900000000002</v>
+      </c>
+      <c r="O237" s="1">
+        <v>0.85835600000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.94228979999999996</v>
       </c>
@@ -6606,8 +8044,14 @@
       <c r="K238" s="1">
         <v>0.88067499999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>0.92999893</v>
+      </c>
+      <c r="O238" s="1">
+        <v>0.88067499999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.93428235999999998</v>
       </c>
@@ -6632,8 +8076,14 @@
       <c r="K239" s="1">
         <v>0.85131999999999997</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <v>0.92677319999999996</v>
+      </c>
+      <c r="O239" s="1">
+        <v>0.85131999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.92244440000000005</v>
       </c>
@@ -6658,8 +8108,14 @@
       <c r="K240" s="1">
         <v>0.85202699999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <v>0.91920835000000001</v>
+      </c>
+      <c r="O240" s="1">
+        <v>0.85202699999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.90962129999999997</v>
       </c>
@@ -6684,8 +8140,14 @@
       <c r="K241" s="1">
         <v>0.83646900000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <v>0.91713124999999995</v>
+      </c>
+      <c r="O241" s="1">
+        <v>0.83646900000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.89433295000000002</v>
       </c>
@@ -6710,8 +8172,14 @@
       <c r="K242" s="1">
         <v>0.84330000000000005</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <v>0.90468293</v>
+      </c>
+      <c r="O242" s="1">
+        <v>0.84330000000000005</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.87948110000000002</v>
       </c>
@@ -6736,8 +8204,14 @@
       <c r="K243" s="1">
         <v>0.87011000000000005</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <v>0.90605780000000002</v>
+      </c>
+      <c r="O243" s="1">
+        <v>0.87011000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.86989700000000003</v>
       </c>
@@ -6762,8 +8236,14 @@
       <c r="K244" s="1">
         <v>0.84902100000000003</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <v>0.90788720000000001</v>
+      </c>
+      <c r="O244" s="1">
+        <v>0.84902100000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.8644366</v>
       </c>
@@ -6788,8 +8268,14 @@
       <c r="K245" s="1">
         <v>0.86779700000000004</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <v>0.90788084000000002</v>
+      </c>
+      <c r="O245" s="1">
+        <v>0.86779700000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.86798613999999996</v>
       </c>
@@ -6814,8 +8300,14 @@
       <c r="K246" s="1">
         <v>0.85317200000000004</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <v>0.91265189999999996</v>
+      </c>
+      <c r="O246" s="1">
+        <v>0.85317200000000004</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87286010000000003</v>
       </c>
@@ -6840,8 +8332,14 @@
       <c r="K247" s="1">
         <v>0.86053400000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <v>0.91238410000000003</v>
+      </c>
+      <c r="O247" s="1">
+        <v>0.86053400000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.87586359999999996</v>
       </c>
@@ -6866,8 +8364,14 @@
       <c r="K248" s="1">
         <v>0.89368800000000004</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <v>0.91720919999999995</v>
+      </c>
+      <c r="O248" s="1">
+        <v>0.89368800000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.88215639999999995</v>
       </c>
@@ -6892,8 +8396,14 @@
       <c r="K249" s="1">
         <v>0.89307899999999996</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <v>0.92697054000000001</v>
+      </c>
+      <c r="O249" s="1">
+        <v>0.89307899999999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.89292145000000001</v>
       </c>
@@ -6918,8 +8428,14 @@
       <c r="K250" s="1">
         <v>0.86737299999999995</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <v>0.93339430000000001</v>
+      </c>
+      <c r="O250" s="1">
+        <v>0.86737299999999995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.89778703000000004</v>
       </c>
@@ -6944,8 +8460,14 @@
       <c r="K251" s="1">
         <v>0.87409099999999995</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <v>0.93105090000000001</v>
+      </c>
+      <c r="O251" s="1">
+        <v>0.87409099999999995</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.89979105999999998</v>
       </c>
@@ -6970,8 +8492,14 @@
       <c r="K252" s="1">
         <v>0.87615600000000005</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <v>0.93127114</v>
+      </c>
+      <c r="O252" s="1">
+        <v>0.87615600000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.90518330000000002</v>
       </c>
@@ -6996,8 +8524,14 @@
       <c r="K253" s="1">
         <v>0.85112200000000005</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <v>0.93939905999999995</v>
+      </c>
+      <c r="O253" s="1">
+        <v>0.85112200000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.9069429</v>
       </c>
@@ -7022,8 +8556,14 @@
       <c r="K254" s="1">
         <v>0.83230300000000002</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <v>0.93117963999999998</v>
+      </c>
+      <c r="O254" s="1">
+        <v>0.83230300000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.90196759999999998</v>
       </c>
@@ -7048,8 +8588,14 @@
       <c r="K255" s="1">
         <v>0.83143299999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <v>0.92083764000000001</v>
+      </c>
+      <c r="O255" s="1">
+        <v>0.83143299999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89463972999999997</v>
       </c>
@@ -7074,8 +8620,14 @@
       <c r="K256" s="1">
         <v>0.83118599999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <v>0.9207476</v>
+      </c>
+      <c r="O256" s="1">
+        <v>0.83118599999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.89197749999999998</v>
       </c>
@@ -7100,8 +8652,14 @@
       <c r="K257" s="1">
         <v>0.81507600000000002</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <v>0.9206685</v>
+      </c>
+      <c r="O257" s="1">
+        <v>0.81507600000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.88822409999999996</v>
       </c>
@@ -7126,8 +8684,14 @@
       <c r="K258" s="1">
         <v>0.84032300000000004</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <v>0.91014605999999998</v>
+      </c>
+      <c r="O258" s="1">
+        <v>0.84032300000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.89092505</v>
       </c>
@@ -7152,8 +8716,14 @@
       <c r="K259" s="1">
         <v>0.86210399999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <v>0.91400630000000005</v>
+      </c>
+      <c r="O259" s="1">
+        <v>0.86210399999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.90219819999999995</v>
       </c>
@@ -7178,8 +8748,14 @@
       <c r="K260" s="1">
         <v>0.88419700000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <v>0.91900499999999996</v>
+      </c>
+      <c r="O260" s="1">
+        <v>0.88419700000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.91393124999999997</v>
       </c>
@@ -7204,8 +8780,14 @@
       <c r="K261" s="1">
         <v>0.87783900000000004</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <v>0.92446130000000004</v>
+      </c>
+      <c r="O261" s="1">
+        <v>0.87783900000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.92070680000000005</v>
       </c>
@@ -7230,8 +8812,14 @@
       <c r="K262" s="1">
         <v>0.87780400000000003</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <v>0.92991482999999997</v>
+      </c>
+      <c r="O262" s="1">
+        <v>0.87780400000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.92520279999999999</v>
       </c>
@@ -7256,8 +8844,14 @@
       <c r="K263" s="1">
         <v>0.89740699999999995</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <v>0.93409880000000001</v>
+      </c>
+      <c r="O263" s="1">
+        <v>0.89740699999999995</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.93181879999999995</v>
       </c>
@@ -7282,8 +8876,14 @@
       <c r="K264" s="1">
         <v>0.88027200000000005</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <v>0.94258976000000005</v>
+      </c>
+      <c r="O264" s="1">
+        <v>0.88027200000000005</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.93664895999999997</v>
       </c>
@@ -7308,8 +8908,14 @@
       <c r="K265" s="1">
         <v>0.88630399999999998</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <v>0.94417549999999995</v>
+      </c>
+      <c r="O265" s="1">
+        <v>0.88630399999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.94140214</v>
       </c>
@@ -7334,8 +8940,14 @@
       <c r="K266" s="1">
         <v>0.90179200000000004</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <v>0.94312989999999997</v>
+      </c>
+      <c r="O266" s="1">
+        <v>0.90179200000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.94735837000000001</v>
       </c>
@@ -7360,8 +8972,14 @@
       <c r="K267" s="1">
         <v>0.89921099999999998</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <v>0.94976484999999999</v>
+      </c>
+      <c r="O267" s="1">
+        <v>0.89921099999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.95195174000000005</v>
       </c>
@@ -7386,8 +9004,14 @@
       <c r="K268" s="1">
         <v>0.88802300000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <v>0.95226233999999998</v>
+      </c>
+      <c r="O268" s="1">
+        <v>0.88802300000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.95576954000000003</v>
       </c>
@@ -7412,8 +9036,14 @@
       <c r="K269" s="1">
         <v>0.92063899999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <v>0.95093095000000005</v>
+      </c>
+      <c r="O269" s="1">
+        <v>0.92063899999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.96027689999999999</v>
       </c>
@@ -7438,8 +9068,14 @@
       <c r="K270" s="1">
         <v>0.92636700000000005</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <v>0.95332307000000005</v>
+      </c>
+      <c r="O270" s="1">
+        <v>0.92636700000000005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.96422905000000003</v>
       </c>
@@ -7464,8 +9100,14 @@
       <c r="K271" s="1">
         <v>0.93128200000000005</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <v>0.95871249999999997</v>
+      </c>
+      <c r="O271" s="1">
+        <v>0.93128200000000005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.96671706000000002</v>
       </c>
@@ -7490,8 +9132,14 @@
       <c r="K272" s="1">
         <v>0.93594200000000005</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <v>0.95976835000000005</v>
+      </c>
+      <c r="O272" s="1">
+        <v>0.93594200000000005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.96816409999999997</v>
       </c>
@@ -7516,8 +9164,14 @@
       <c r="K273" s="1">
         <v>0.93719399999999997</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <v>0.96072453000000002</v>
+      </c>
+      <c r="O273" s="1">
+        <v>0.93719399999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96929679999999996</v>
       </c>
@@ -7542,8 +9196,14 @@
       <c r="K274" s="1">
         <v>0.92128200000000005</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <v>0.96330059999999995</v>
+      </c>
+      <c r="O274" s="1">
+        <v>0.92128200000000005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.9700704</v>
       </c>
@@ -7568,8 +9228,14 @@
       <c r="K275" s="1">
         <v>0.92835400000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <v>0.9611035</v>
+      </c>
+      <c r="O275" s="1">
+        <v>0.92835400000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.97097354999999996</v>
       </c>
@@ -7594,8 +9260,14 @@
       <c r="K276" s="1">
         <v>0.92857299999999998</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <v>0.96300940000000002</v>
+      </c>
+      <c r="O276" s="1">
+        <v>0.92857299999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.97236250000000002</v>
       </c>
@@ -7620,8 +9292,14 @@
       <c r="K277" s="1">
         <v>0.95164199999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <v>0.96063732999999996</v>
+      </c>
+      <c r="O277" s="1">
+        <v>0.95164199999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.97372190000000003</v>
       </c>
@@ -7646,8 +9324,14 @@
       <c r="K278" s="1">
         <v>0.94983899999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <v>0.96420527</v>
+      </c>
+      <c r="O278" s="1">
+        <v>0.94983899999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.97404086999999995</v>
       </c>
@@ -7672,8 +9356,14 @@
       <c r="K279" s="1">
         <v>0.94721500000000003</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <v>0.96676419999999996</v>
+      </c>
+      <c r="O279" s="1">
+        <v>0.94721500000000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97437090000000004</v>
       </c>
@@ -7698,8 +9388,14 @@
       <c r="K280" s="1">
         <v>0.95519900000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <v>0.96652760000000004</v>
+      </c>
+      <c r="O280" s="1">
+        <v>0.95519900000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97535263999999999</v>
       </c>
@@ -7724,8 +9420,14 @@
       <c r="K281" s="1">
         <v>0.96465400000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <v>0.96923079999999995</v>
+      </c>
+      <c r="O281" s="1">
+        <v>0.96465400000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97585449999999996</v>
       </c>
@@ -7750,8 +9452,14 @@
       <c r="K282" s="1">
         <v>0.97101199999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <v>0.97069543999999996</v>
+      </c>
+      <c r="O282" s="1">
+        <v>0.97101199999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.9758175</v>
       </c>
@@ -7776,8 +9484,14 @@
       <c r="K283" s="1">
         <v>0.972441</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <v>0.97152629999999995</v>
+      </c>
+      <c r="O283" s="1">
+        <v>0.972441</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97472689999999995</v>
       </c>
@@ -7802,8 +9516,14 @@
       <c r="K284" s="1">
         <v>0.97116800000000003</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <v>0.97441690000000003</v>
+      </c>
+      <c r="O284" s="1">
+        <v>0.97116800000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97435210000000005</v>
       </c>
@@ -7828,8 +9548,14 @@
       <c r="K285" s="1">
         <v>0.96191099999999996</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N285">
+        <v>0.97410810000000003</v>
+      </c>
+      <c r="O285" s="1">
+        <v>0.96191099999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97502480000000002</v>
       </c>
@@ -7854,8 +9580,14 @@
       <c r="K286" s="1">
         <v>0.96136600000000005</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <v>0.9739449</v>
+      </c>
+      <c r="O286" s="1">
+        <v>0.96136600000000005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.97573244999999997</v>
       </c>
@@ -7880,8 +9612,14 @@
       <c r="K287" s="1">
         <v>0.96215099999999998</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N287">
+        <v>0.97392880000000004</v>
+      </c>
+      <c r="O287" s="1">
+        <v>0.96215099999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97630053999999999</v>
       </c>
@@ -7906,8 +9644,14 @@
       <c r="K288" s="1">
         <v>0.97485200000000005</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <v>0.97551670000000001</v>
+      </c>
+      <c r="O288" s="1">
+        <v>0.97485200000000005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97684835999999997</v>
       </c>
@@ -7932,8 +9676,14 @@
       <c r="K289" s="1">
         <v>0.98117500000000002</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N289">
+        <v>0.97464645000000005</v>
+      </c>
+      <c r="O289" s="1">
+        <v>0.98117500000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97703636000000005</v>
       </c>
@@ -7958,8 +9708,14 @@
       <c r="K290" s="1">
         <v>0.97819699999999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <v>0.97854779999999997</v>
+      </c>
+      <c r="O290" s="1">
+        <v>0.97819699999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97686580000000001</v>
       </c>
@@ -7984,8 +9740,14 @@
       <c r="K291" s="1">
         <v>0.98741900000000005</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N291">
+        <v>0.97765760000000002</v>
+      </c>
+      <c r="O291" s="1">
+        <v>0.98741900000000005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97698795999999999</v>
       </c>
@@ -8010,8 +9772,14 @@
       <c r="K292" s="1">
         <v>0.98271600000000003</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N292">
+        <v>0.97596550000000004</v>
+      </c>
+      <c r="O292" s="1">
+        <v>0.98271600000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97700050000000005</v>
       </c>
@@ -8036,8 +9804,14 @@
       <c r="K293" s="1">
         <v>0.967893</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N293">
+        <v>0.97782796999999999</v>
+      </c>
+      <c r="O293" s="1">
+        <v>0.967893</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97664399999999996</v>
       </c>
@@ -8062,8 +9836,14 @@
       <c r="K294" s="1">
         <v>0.98309100000000005</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N294">
+        <v>0.96976770000000001</v>
+      </c>
+      <c r="O294" s="1">
+        <v>0.98309100000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97655619999999999</v>
       </c>
@@ -8088,8 +9868,14 @@
       <c r="K295" s="1">
         <v>0.965588</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <v>0.97140870000000001</v>
+      </c>
+      <c r="O295" s="1">
+        <v>0.965588</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97605410000000004</v>
       </c>
@@ -8114,8 +9900,14 @@
       <c r="K296" s="1">
         <v>0.96961200000000003</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <v>0.9625842</v>
+      </c>
+      <c r="O296" s="1">
+        <v>0.96961200000000003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.97562736000000005</v>
       </c>
@@ -8140,8 +9932,14 @@
       <c r="K297" s="1">
         <v>0.96564499999999998</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <v>0.9629607</v>
+      </c>
+      <c r="O297" s="1">
+        <v>0.96564499999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.97557896</v>
       </c>
@@ -8166,8 +9964,14 @@
       <c r="K298" s="1">
         <v>0.97959700000000005</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <v>0.96007640000000005</v>
+      </c>
+      <c r="O298" s="1">
+        <v>0.97959700000000005</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.97580385000000003</v>
       </c>
@@ -8192,8 +9996,14 @@
       <c r="K299" s="1">
         <v>0.99423600000000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <v>0.95923519999999995</v>
+      </c>
+      <c r="O299" s="1">
+        <v>0.99423600000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.97629889999999997</v>
       </c>
@@ -8218,8 +10028,14 @@
       <c r="K300" s="1">
         <v>0.99449100000000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <v>0.96525276000000004</v>
+      </c>
+      <c r="O300" s="1">
+        <v>0.99449100000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.97639699999999996</v>
       </c>
@@ -8244,8 +10060,14 @@
       <c r="K301" s="1">
         <v>0.99304099999999995</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <v>0.96551370000000003</v>
+      </c>
+      <c r="O301" s="1">
+        <v>0.99304099999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.97631769999999996</v>
       </c>
@@ -8270,8 +10092,14 @@
       <c r="K302" s="1">
         <v>1.00267</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <v>0.96547114999999994</v>
+      </c>
+      <c r="O302" s="1">
+        <v>1.00267</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.97649870000000005</v>
       </c>
@@ -8296,8 +10124,14 @@
       <c r="K303" s="1">
         <v>1.0072300000000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <v>0.96819460000000002</v>
+      </c>
+      <c r="O303" s="1">
+        <v>1.0072300000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.97667420000000005</v>
       </c>
@@ -8322,8 +10156,14 @@
       <c r="K304" s="1">
         <v>1.00837</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <v>0.97038230000000003</v>
+      </c>
+      <c r="O304" s="1">
+        <v>1.00837</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.97665659999999999</v>
       </c>
@@ -8348,8 +10188,14 @@
       <c r="K305" s="1">
         <v>1.00064</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <v>0.96998200000000001</v>
+      </c>
+      <c r="O305" s="1">
+        <v>1.00064</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.97653455</v>
       </c>
@@ -8374,8 +10220,14 @@
       <c r="K306" s="1">
         <v>1.00071</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <v>0.96879020000000005</v>
+      </c>
+      <c r="O306" s="1">
+        <v>1.00071</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.97648729999999995</v>
       </c>
@@ -8400,8 +10252,14 @@
       <c r="K307" s="1">
         <v>0.99803399999999998</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <v>0.96981340000000005</v>
+      </c>
+      <c r="O307" s="1">
+        <v>0.99803399999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.97666350000000002</v>
       </c>
@@ -8426,8 +10284,14 @@
       <c r="K308" s="1">
         <v>1.0007999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <v>0.97008720000000004</v>
+      </c>
+      <c r="O308" s="1">
+        <v>1.0007999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.97705774999999995</v>
       </c>
@@ -8452,8 +10316,14 @@
       <c r="K309" s="1">
         <v>1.0032399999999999</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <v>0.97166870000000005</v>
+      </c>
+      <c r="O309" s="1">
+        <v>1.0032399999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.97749949999999997</v>
       </c>
@@ -8478,8 +10348,14 @@
       <c r="K310" s="1">
         <v>0.98956200000000005</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <v>0.97132366999999997</v>
+      </c>
+      <c r="O310" s="1">
+        <v>0.98956200000000005</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.97729239999999995</v>
       </c>
@@ -8504,8 +10380,14 @@
       <c r="K311" s="1">
         <v>0.98212900000000003</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <v>0.96723974000000001</v>
+      </c>
+      <c r="O311" s="1">
+        <v>0.98212900000000003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.97550930000000002</v>
       </c>
@@ -8530,8 +10412,14 @@
       <c r="K312" s="1">
         <v>0.99353599999999997</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <v>0.96073640000000005</v>
+      </c>
+      <c r="O312" s="1">
+        <v>0.99353599999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.97413653</v>
       </c>
@@ -8556,8 +10444,14 @@
       <c r="K313" s="1">
         <v>0.98076399999999997</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <v>0.96569020000000005</v>
+      </c>
+      <c r="O313" s="1">
+        <v>0.98076399999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.97274530000000003</v>
       </c>
@@ -8582,8 +10476,14 @@
       <c r="K314" s="1">
         <v>0.97210099999999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <v>0.95812660000000005</v>
+      </c>
+      <c r="O314" s="1">
+        <v>0.97210099999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.97043495999999996</v>
       </c>
@@ -8608,8 +10508,14 @@
       <c r="K315" s="1">
         <v>0.97175500000000004</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <v>0.95603245000000003</v>
+      </c>
+      <c r="O315" s="1">
+        <v>0.97175500000000004</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.96884899999999996</v>
       </c>
@@ -8634,8 +10540,14 @@
       <c r="K316" s="1">
         <v>0.97635899999999998</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <v>0.95803930000000004</v>
+      </c>
+      <c r="O316" s="1">
+        <v>0.97635899999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.96835726</v>
       </c>
@@ -8660,8 +10572,14 @@
       <c r="K317" s="1">
         <v>0.97745499999999996</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <v>0.95743953999999998</v>
+      </c>
+      <c r="O317" s="1">
+        <v>0.97745499999999996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.96878850000000005</v>
       </c>
@@ -8686,8 +10604,14 @@
       <c r="K318" s="1">
         <v>0.99563000000000001</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <v>0.96008210000000005</v>
+      </c>
+      <c r="O318" s="1">
+        <v>0.99563000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.96974444000000004</v>
       </c>
@@ -8712,8 +10636,14 @@
       <c r="K319" s="1">
         <v>0.98153500000000005</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <v>0.96381519999999998</v>
+      </c>
+      <c r="O319" s="1">
+        <v>0.98153500000000005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.96988445999999995</v>
       </c>
@@ -8738,8 +10668,14 @@
       <c r="K320" s="1">
         <v>0.98128800000000005</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <v>0.96204054000000006</v>
+      </c>
+      <c r="O320" s="1">
+        <v>0.98128800000000005</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.96913755000000001</v>
       </c>
@@ -8764,8 +10700,14 @@
       <c r="K321" s="1">
         <v>0.968912</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <v>0.96169039999999995</v>
+      </c>
+      <c r="O321" s="1">
+        <v>0.968912</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.96801804999999996</v>
       </c>
@@ -8790,8 +10732,14 @@
       <c r="K322" s="1">
         <v>0.98309100000000005</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <v>0.95921754999999997</v>
+      </c>
+      <c r="O322" s="1">
+        <v>0.98309100000000005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.96810819999999997</v>
       </c>
@@ -8816,8 +10764,14 @@
       <c r="K323" s="1">
         <v>0.96933599999999998</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <v>0.96233009999999997</v>
+      </c>
+      <c r="O323" s="1">
+        <v>0.96933599999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.96792023999999999</v>
       </c>
@@ -8842,8 +10796,14 @@
       <c r="K324" s="1">
         <v>0.96963299999999997</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <v>0.95710200000000001</v>
+      </c>
+      <c r="O324" s="1">
+        <v>0.96963299999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.96698810000000002</v>
       </c>
@@ -8868,8 +10828,14 @@
       <c r="K325" s="1">
         <v>0.96426599999999996</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <v>0.95559364999999996</v>
+      </c>
+      <c r="O325" s="1">
+        <v>0.96426599999999996</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.96567879999999995</v>
       </c>
@@ -8894,8 +10860,14 @@
       <c r="K326" s="1">
         <v>0.97294999999999998</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <v>0.95357776000000005</v>
+      </c>
+      <c r="O326" s="1">
+        <v>0.97294999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.96592359999999999</v>
       </c>
@@ -8920,8 +10892,14 @@
       <c r="K327" s="1">
         <v>0.96992299999999998</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <v>0.95933895999999996</v>
+      </c>
+      <c r="O327" s="1">
+        <v>0.96992299999999998</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.96687173999999998</v>
       </c>
@@ -8946,8 +10924,14 @@
       <c r="K328" s="1">
         <v>0.98973900000000004</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <v>0.96031529999999998</v>
+      </c>
+      <c r="O328" s="1">
+        <v>0.98973900000000004</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.96827202999999995</v>
       </c>
@@ -8972,8 +10956,14 @@
       <c r="K329" s="1">
         <v>0.99997899999999995</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <v>0.96562329999999996</v>
+      </c>
+      <c r="O329" s="1">
+        <v>0.99997899999999995</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.969808</v>
       </c>
@@ -8998,8 +10988,14 @@
       <c r="K330" s="1">
         <v>0.999668</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <v>0.97187864999999996</v>
+      </c>
+      <c r="O330" s="1">
+        <v>0.999668</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.97052349999999998</v>
       </c>
@@ -9024,8 +11020,14 @@
       <c r="K331" s="1">
         <v>1.006</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <v>0.97365789999999997</v>
+      </c>
+      <c r="O331" s="1">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.97123139999999997</v>
       </c>
@@ -9050,8 +11052,14 @@
       <c r="K332" s="1">
         <v>1.0045200000000001</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <v>0.97680789999999995</v>
+      </c>
+      <c r="O332" s="1">
+        <v>1.0045200000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.97233550000000002</v>
       </c>
@@ -9076,8 +11084,14 @@
       <c r="K333" s="1">
         <v>1.0062</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <v>0.97729485999999999</v>
+      </c>
+      <c r="O333" s="1">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.97333395</v>
       </c>
@@ -9102,8 +11116,14 @@
       <c r="K334" s="1">
         <v>1.0103899999999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <v>0.97881940000000001</v>
+      </c>
+      <c r="O334" s="1">
+        <v>1.0103899999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.97426729999999995</v>
       </c>
@@ -9128,8 +11148,14 @@
       <c r="K335" s="1">
         <v>1.0060500000000001</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <v>0.98007524000000001</v>
+      </c>
+      <c r="O335" s="1">
+        <v>1.0060500000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.97498339999999994</v>
       </c>
@@ -9154,8 +11180,14 @@
       <c r="K336" s="1">
         <v>1.01332</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <v>0.98006740000000003</v>
+      </c>
+      <c r="O336" s="1">
+        <v>1.01332</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.97546659999999996</v>
       </c>
@@ -9180,8 +11212,14 @@
       <c r="K337" s="1">
         <v>1.01525</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N337">
+        <v>0.98312515</v>
+      </c>
+      <c r="O337" s="1">
+        <v>1.01525</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.97600319999999996</v>
       </c>
@@ -9206,8 +11244,14 @@
       <c r="K338" s="1">
         <v>1.0201899999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N338">
+        <v>0.98493330000000001</v>
+      </c>
+      <c r="O338" s="1">
+        <v>1.0201899999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.97668529999999998</v>
       </c>
@@ -9232,8 +11276,14 @@
       <c r="K339" s="1">
         <v>1.01762</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N339">
+        <v>0.98683209999999999</v>
+      </c>
+      <c r="O339" s="1">
+        <v>1.01762</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.97734670000000001</v>
       </c>
@@ -9258,8 +11308,14 @@
       <c r="K340" s="1">
         <v>1.0038899999999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N340">
+        <v>0.9879291</v>
+      </c>
+      <c r="O340" s="1">
+        <v>1.0038899999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.97774079999999997</v>
       </c>
@@ -9284,8 +11340,14 @@
       <c r="K341" s="1">
         <v>0.99185999999999996</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N341">
+        <v>0.98445046000000003</v>
+      </c>
+      <c r="O341" s="1">
+        <v>0.99185999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.9775104</v>
       </c>
@@ -9310,8 +11372,14 @@
       <c r="K342" s="1">
         <v>0.98921499999999996</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N342">
+        <v>0.98115903000000004</v>
+      </c>
+      <c r="O342" s="1">
+        <v>0.98921499999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.97654885000000002</v>
       </c>
@@ -9336,8 +11404,14 @@
       <c r="K343" s="1">
         <v>0.986514</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N343">
+        <v>0.97737470000000004</v>
+      </c>
+      <c r="O343" s="1">
+        <v>0.986514</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.97579895999999999</v>
       </c>
@@ -9362,8 +11436,14 @@
       <c r="K344" s="1">
         <v>0.99110399999999998</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N344">
+        <v>0.97827629999999999</v>
+      </c>
+      <c r="O344" s="1">
+        <v>0.99110399999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.97529434999999998</v>
       </c>
@@ -9388,8 +11468,14 @@
       <c r="K345" s="1">
         <v>0.98631599999999997</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <v>0.97468449999999995</v>
+      </c>
+      <c r="O345" s="1">
+        <v>0.98631599999999997</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.97480935000000002</v>
       </c>
@@ -9414,8 +11500,14 @@
       <c r="K346" s="1">
         <v>0.99482300000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N346">
+        <v>0.97478246999999996</v>
+      </c>
+      <c r="O346" s="1">
+        <v>0.99482300000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.97479737</v>
       </c>
@@ -9440,8 +11532,14 @@
       <c r="K347" s="1">
         <v>0.99881900000000001</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <v>0.97748869999999999</v>
+      </c>
+      <c r="O347" s="1">
+        <v>0.99881900000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.97511420000000004</v>
       </c>
@@ -9466,8 +11564,14 @@
       <c r="K348" s="1">
         <v>0.99637900000000001</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N348">
+        <v>0.97901296999999998</v>
+      </c>
+      <c r="O348" s="1">
+        <v>0.99637900000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.97518340000000003</v>
       </c>
@@ -9492,8 +11596,14 @@
       <c r="K349" s="1">
         <v>1.0160899999999999</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <v>0.97968820000000001</v>
+      </c>
+      <c r="O349" s="1">
+        <v>1.0160899999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.97530890000000003</v>
       </c>
@@ -9518,8 +11628,14 @@
       <c r="K350" s="1">
         <v>0.96240599999999998</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N350">
+        <v>0.98324120000000004</v>
+      </c>
+      <c r="O350" s="1">
+        <v>0.96240599999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.97224337000000005</v>
       </c>
@@ -9544,8 +11660,14 @@
       <c r="K351" s="1">
         <v>0.93633100000000002</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N351">
+        <v>0.96310085000000001</v>
+      </c>
+      <c r="O351" s="1">
+        <v>0.93633100000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.96590339999999997</v>
       </c>
@@ -9570,8 +11692,14 @@
       <c r="K352" s="1">
         <v>0.96147199999999999</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N352">
+        <v>0.95853036999999996</v>
+      </c>
+      <c r="O352" s="1">
+        <v>0.96147199999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.96321296999999995</v>
       </c>
@@ -9596,8 +11724,14 @@
       <c r="K353" s="1">
         <v>0.98599800000000004</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N353">
+        <v>0.96197814000000004</v>
+      </c>
+      <c r="O353" s="1">
+        <v>0.98599800000000004</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.96538749999999995</v>
       </c>
@@ -9622,8 +11756,14 @@
       <c r="K354" s="1">
         <v>1.00586</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N354">
+        <v>0.96359514999999996</v>
+      </c>
+      <c r="O354" s="1">
+        <v>1.00586</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.96879404999999996</v>
       </c>
@@ -9648,8 +11788,14 @@
       <c r="K355" s="1">
         <v>1.0087600000000001</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N355">
+        <v>0.9681651</v>
+      </c>
+      <c r="O355" s="1">
+        <v>1.0087600000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.97070204999999998</v>
       </c>
@@ -9674,8 +11820,14 @@
       <c r="K356" s="1">
         <v>0.99857099999999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N356">
+        <v>0.97433627</v>
+      </c>
+      <c r="O356" s="1">
+        <v>0.99857099999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.97089630000000005</v>
       </c>
@@ -9700,8 +11852,14 @@
       <c r="K357" s="1">
         <v>1.00648</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N357">
+        <v>0.97529155000000001</v>
+      </c>
+      <c r="O357" s="1">
+        <v>1.00648</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.97087760000000001</v>
       </c>
@@ -9726,8 +11884,14 @@
       <c r="K358" s="1">
         <v>1.00518</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N358">
+        <v>0.97823583999999997</v>
+      </c>
+      <c r="O358" s="1">
+        <v>1.00518</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.971665</v>
       </c>
@@ -9752,8 +11916,14 @@
       <c r="K359" s="1">
         <v>1.0278099999999999</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N359">
+        <v>0.98164189999999996</v>
+      </c>
+      <c r="O359" s="1">
+        <v>1.0278099999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.97328853999999998</v>
       </c>
@@ -9778,8 +11948,14 @@
       <c r="K360" s="1">
         <v>1.03295</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N360">
+        <v>0.9848943</v>
+      </c>
+      <c r="O360" s="1">
+        <v>1.03295</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.97475959999999995</v>
       </c>
@@ -9804,8 +11980,14 @@
       <c r="K361" s="1">
         <v>1.0435399999999999</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N361">
+        <v>0.98980904000000003</v>
+      </c>
+      <c r="O361" s="1">
+        <v>1.0435399999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.97580029999999995</v>
       </c>
@@ -9830,8 +12012,14 @@
       <c r="K362" s="1">
         <v>1.04375</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <v>0.99225556999999998</v>
+      </c>
+      <c r="O362" s="1">
+        <v>1.04375</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.97638740000000002</v>
       </c>
@@ -9856,8 +12044,14 @@
       <c r="K363" s="1">
         <v>1.05175</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N363">
+        <v>0.99583626000000003</v>
+      </c>
+      <c r="O363" s="1">
+        <v>1.05175</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.97707635000000004</v>
       </c>
@@ -9882,8 +12076,14 @@
       <c r="K364" s="1">
         <v>1.05033</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <v>0.99852585999999999</v>
+      </c>
+      <c r="O364" s="1">
+        <v>1.05033</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.97819822999999995</v>
       </c>
@@ -9908,8 +12108,14 @@
       <c r="K365" s="1">
         <v>1.0539700000000001</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N365">
+        <v>1.0006520000000001</v>
+      </c>
+      <c r="O365" s="1">
+        <v>1.0539700000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.97951080000000001</v>
       </c>
@@ -9934,8 +12140,14 @@
       <c r="K366" s="1">
         <v>1.0517700000000001</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N366">
+        <v>1.0029849</v>
+      </c>
+      <c r="O366" s="1">
+        <v>1.0517700000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.98080425999999998</v>
       </c>
@@ -9960,8 +12172,14 @@
       <c r="K367" s="1">
         <v>1.0583100000000001</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N367">
+        <v>1.0047238999999999</v>
+      </c>
+      <c r="O367" s="1">
+        <v>1.0583100000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.98196519999999998</v>
       </c>
@@ -9986,8 +12204,14 @@
       <c r="K368" s="1">
         <v>1.0527599999999999</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N368">
+        <v>1.0065036999999999</v>
+      </c>
+      <c r="O368" s="1">
+        <v>1.0527599999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.98292480000000004</v>
       </c>
@@ -10012,8 +12236,14 @@
       <c r="K369" s="1">
         <v>1.0597300000000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N369">
+        <v>1.0070030999999999</v>
+      </c>
+      <c r="O369" s="1">
+        <v>1.0597300000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.98375164999999998</v>
       </c>
@@ -10038,8 +12268,14 @@
       <c r="K370" s="1">
         <v>1.0550999999999999</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N370">
+        <v>1.0086744000000001</v>
+      </c>
+      <c r="O370" s="1">
+        <v>1.0550999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.98455559999999998</v>
       </c>
@@ -10064,8 +12300,14 @@
       <c r="K371" s="1">
         <v>1.05559</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N371">
+        <v>1.0091815</v>
+      </c>
+      <c r="O371" s="1">
+        <v>1.05559</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.98526970000000003</v>
       </c>
@@ -10090,8 +12332,14 @@
       <c r="K372" s="1">
         <v>1.05375</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N372">
+        <v>1.0093350000000001</v>
+      </c>
+      <c r="O372" s="1">
+        <v>1.05375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.98582166000000004</v>
       </c>
@@ -10116,8 +12364,14 @@
       <c r="K373" s="1">
         <v>1.0562100000000001</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N373">
+        <v>1.0094401</v>
+      </c>
+      <c r="O373" s="1">
+        <v>1.0562100000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.98619723000000004</v>
       </c>
@@ -10142,8 +12396,14 @@
       <c r="K374" s="1">
         <v>1.0587200000000001</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N374">
+        <v>1.0099845000000001</v>
+      </c>
+      <c r="O374" s="1">
+        <v>1.0587200000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.98649900000000001</v>
       </c>
@@ -10168,8 +12428,14 @@
       <c r="K375" s="1">
         <v>1.05677</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N375">
+        <v>1.011204</v>
+      </c>
+      <c r="O375" s="1">
+        <v>1.05677</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.98674779999999995</v>
       </c>
@@ -10194,8 +12460,14 @@
       <c r="K376" s="1">
         <v>1.0469999999999999</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N376">
+        <v>1.011646</v>
+      </c>
+      <c r="O376" s="1">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.98627379999999998</v>
       </c>
@@ -10220,8 +12492,14 @@
       <c r="K377" s="1">
         <v>1.0517799999999999</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N377">
+        <v>1.0028497999999999</v>
+      </c>
+      <c r="O377" s="1">
+        <v>1.0517799999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.98551679999999997</v>
       </c>
@@ -10246,8 +12524,14 @@
       <c r="K378" s="1">
         <v>1.0521100000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N378">
+        <v>1.0058993000000001</v>
+      </c>
+      <c r="O378" s="1">
+        <v>1.0521100000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.98539659999999996</v>
       </c>
@@ -10272,8 +12556,14 @@
       <c r="K379" s="1">
         <v>1.0652699999999999</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N379">
+        <v>1.0085188</v>
+      </c>
+      <c r="O379" s="1">
+        <v>1.0652699999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.98581620000000003</v>
       </c>
@@ -10298,8 +12588,14 @@
       <c r="K380" s="1">
         <v>1.0638700000000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N380">
+        <v>1.012486</v>
+      </c>
+      <c r="O380" s="1">
+        <v>1.0638700000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.98637200000000003</v>
       </c>
@@ -10324,8 +12620,14 @@
       <c r="K381" s="1">
         <v>1.06447</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N381">
+        <v>1.0136810000000001</v>
+      </c>
+      <c r="O381" s="1">
+        <v>1.06447</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.98662760000000005</v>
       </c>
@@ -10350,8 +12652,14 @@
       <c r="K382" s="1">
         <v>1.0600499999999999</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N382">
+        <v>1.0135894999999999</v>
+      </c>
+      <c r="O382" s="1">
+        <v>1.0600499999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.98661829999999995</v>
       </c>
@@ -10376,8 +12684,14 @@
       <c r="K383" s="1">
         <v>1.06734</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N383">
+        <v>1.0135430999999999</v>
+      </c>
+      <c r="O383" s="1">
+        <v>1.06734</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.98651279999999997</v>
       </c>
@@ -10402,8 +12716,14 @@
       <c r="K384" s="1">
         <v>1.0661099999999999</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N384">
+        <v>1.0149752000000001</v>
+      </c>
+      <c r="O384" s="1">
+        <v>1.0661099999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.98646842999999995</v>
       </c>
@@ -10428,8 +12748,14 @@
       <c r="K385" s="1">
         <v>1.0704199999999999</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N385">
+        <v>1.0154289999999999</v>
+      </c>
+      <c r="O385" s="1">
+        <v>1.0704199999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.98648190000000002</v>
       </c>
@@ -10454,8 +12780,14 @@
       <c r="K386" s="1">
         <v>1.0619400000000001</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N386">
+        <v>1.0159545999999999</v>
+      </c>
+      <c r="O386" s="1">
+        <v>1.0619400000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.98642843999999996</v>
       </c>
@@ -10480,8 +12812,14 @@
       <c r="K387" s="1">
         <v>1.06481</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N387">
+        <v>1.0148440000000001</v>
+      </c>
+      <c r="O387" s="1">
+        <v>1.06481</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.98617213999999997</v>
       </c>
@@ -10506,8 +12844,14 @@
       <c r="K388" s="1">
         <v>1.0682100000000001</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N388">
+        <v>1.0142822</v>
+      </c>
+      <c r="O388" s="1">
+        <v>1.0682100000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.98593989999999998</v>
       </c>
@@ -10532,8 +12876,14 @@
       <c r="K389" s="1">
         <v>1.0659799999999999</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N389">
+        <v>1.0168022000000001</v>
+      </c>
+      <c r="O389" s="1">
+        <v>1.0659799999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.98576710000000001</v>
       </c>
@@ -10558,8 +12908,14 @@
       <c r="K390" s="1">
         <v>1.06511</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N390">
+        <v>1.0155771</v>
+      </c>
+      <c r="O390" s="1">
+        <v>1.06511</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.98563880000000004</v>
       </c>
@@ -10584,8 +12940,14 @@
       <c r="K391" s="1">
         <v>1.06812</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N391">
+        <v>1.0157986000000001</v>
+      </c>
+      <c r="O391" s="1">
+        <v>1.06812</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.98567515999999999</v>
       </c>
@@ -10610,8 +12972,14 @@
       <c r="K392" s="1">
         <v>1.06002</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N392">
+        <v>1.0189503</v>
+      </c>
+      <c r="O392" s="1">
+        <v>1.06002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.98541179999999995</v>
       </c>
@@ -10636,8 +13004,14 @@
       <c r="K393" s="1">
         <v>1.05792</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N393">
+        <v>1.0129739</v>
+      </c>
+      <c r="O393" s="1">
+        <v>1.05792</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.98455349999999997</v>
       </c>
@@ -10662,8 +13036,14 @@
       <c r="K394" s="1">
         <v>1.05549</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N394">
+        <v>1.0117836</v>
+      </c>
+      <c r="O394" s="1">
+        <v>1.05549</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.98377769999999998</v>
       </c>
@@ -10688,8 +13068,14 @@
       <c r="K395" s="1">
         <v>1.06351</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N395">
+        <v>1.0121473999999999</v>
+      </c>
+      <c r="O395" s="1">
+        <v>1.06351</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.9837089</v>
       </c>
@@ -10714,8 +13100,14 @@
       <c r="K396" s="1">
         <v>1.0605</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N396">
+        <v>1.0136997000000001</v>
+      </c>
+      <c r="O396" s="1">
+        <v>1.0605</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.98400030000000005</v>
       </c>
@@ -10740,8 +13132,14 @@
       <c r="K397" s="1">
         <v>1.05684</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N397">
+        <v>1.0131173</v>
+      </c>
+      <c r="O397" s="1">
+        <v>1.05684</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.98391134000000002</v>
       </c>
@@ -10766,8 +13164,14 @@
       <c r="K398" s="1">
         <v>1.0567800000000001</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N398">
+        <v>1.0099444</v>
+      </c>
+      <c r="O398" s="1">
+        <v>1.0567800000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.98338040000000004</v>
       </c>
@@ -10792,8 +13196,14 @@
       <c r="K399" s="1">
         <v>1.0632299999999999</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N399">
+        <v>1.0111595</v>
+      </c>
+      <c r="O399" s="1">
+        <v>1.0632299999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.98326469999999999</v>
       </c>
@@ -10818,8 +13228,14 @@
       <c r="K400" s="1">
         <v>1.0678300000000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N400">
+        <v>1.0151315999999999</v>
+      </c>
+      <c r="O400" s="1">
+        <v>1.0678300000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.98359346000000003</v>
       </c>
@@ -10844,8 +13260,14 @@
       <c r="K401" s="1">
         <v>1.0676000000000001</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N401">
+        <v>1.0156255999999999</v>
+      </c>
+      <c r="O401" s="1">
+        <v>1.0676000000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.98378940000000004</v>
       </c>
@@ -10870,8 +13292,14 @@
       <c r="K402" s="1">
         <v>1.06416</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N402">
+        <v>1.0160301</v>
+      </c>
+      <c r="O402" s="1">
+        <v>1.06416</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.98379930000000004</v>
       </c>
@@ -10896,8 +13324,14 @@
       <c r="K403" s="1">
         <v>1.02634</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N403">
+        <v>1.0164909</v>
+      </c>
+      <c r="O403" s="1">
+        <v>1.02634</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.98101899999999997</v>
       </c>
@@ -10922,8 +13356,14 @@
       <c r="K404" s="1">
         <v>1.0484199999999999</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N404">
+        <v>1.0028093</v>
+      </c>
+      <c r="O404" s="1">
+        <v>1.0484199999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.97816723999999999</v>
       </c>
@@ -10948,8 +13388,14 @@
       <c r="K405" s="1">
         <v>1.0257799999999999</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N405">
+        <v>1.0051053999999999</v>
+      </c>
+      <c r="O405" s="1">
+        <v>1.0257799999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.97710496000000002</v>
       </c>
@@ -10974,8 +13420,14 @@
       <c r="K406" s="1">
         <v>1.0248900000000001</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N406">
+        <v>1.0025903</v>
+      </c>
+      <c r="O406" s="1">
+        <v>1.0248900000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.97680425999999998</v>
       </c>
@@ -11000,8 +13452,14 @@
       <c r="K407" s="1">
         <v>1.04009</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N407">
+        <v>1.0008115</v>
+      </c>
+      <c r="O407" s="1">
+        <v>1.04009</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.97728289999999995</v>
       </c>
@@ -11026,8 +13484,14 @@
       <c r="K408" s="1">
         <v>1.0343599999999999</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N408">
+        <v>1.0029823</v>
+      </c>
+      <c r="O408" s="1">
+        <v>1.0343599999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.97758089999999997</v>
       </c>
@@ -11052,8 +13516,14 @@
       <c r="K409" s="1">
         <v>1.03433</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N409">
+        <v>1.0018587999999999</v>
+      </c>
+      <c r="O409" s="1">
+        <v>1.03433</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.97770559999999995</v>
       </c>
@@ -11078,8 +13548,14 @@
       <c r="K410" s="1">
         <v>1.0347900000000001</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N410">
+        <v>1.0036115999999999</v>
+      </c>
+      <c r="O410" s="1">
+        <v>1.0347900000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.97786200000000001</v>
       </c>
@@ -11104,8 +13580,14 @@
       <c r="K411" s="1">
         <v>1.05131</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N411">
+        <v>1.0042150000000001</v>
+      </c>
+      <c r="O411" s="1">
+        <v>1.05131</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.97793699999999995</v>
       </c>
@@ -11130,8 +13612,14 @@
       <c r="K412" s="1">
         <v>1.06125</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N412">
+        <v>1.0063844</v>
+      </c>
+      <c r="O412" s="1">
+        <v>1.06125</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.97808569999999995</v>
       </c>
@@ -11156,8 +13644,14 @@
       <c r="K413" s="1">
         <v>1.0524199999999999</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N413">
+        <v>1.0093498000000001</v>
+      </c>
+      <c r="O413" s="1">
+        <v>1.0524199999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.97822229999999999</v>
       </c>
@@ -11182,8 +13676,14 @@
       <c r="K414" s="1">
         <v>1.0392699999999999</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N414">
+        <v>1.0099693999999999</v>
+      </c>
+      <c r="O414" s="1">
+        <v>1.0392699999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.97795860000000001</v>
       </c>
@@ -11208,8 +13708,14 @@
       <c r="K415" s="1">
         <v>1.04905</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N415">
+        <v>1.0089011999999999</v>
+      </c>
+      <c r="O415" s="1">
+        <v>1.04905</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.97803753999999998</v>
       </c>
@@ -11234,8 +13740,14 @@
       <c r="K416" s="1">
         <v>1.05714</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N416">
+        <v>1.0109315000000001</v>
+      </c>
+      <c r="O416" s="1">
+        <v>1.05714</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.97871710000000001</v>
       </c>
@@ -11260,18 +13772,26 @@
       <c r="K417" s="1">
         <v>1.0428299999999999</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N417">
+        <v>1.0136153999999999</v>
+      </c>
+      <c r="O417" s="1">
+        <v>1.0428299999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K418" s="1"/>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O418" s="1"/>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D419">
         <f>CORREL(D2:D417,E2:E417)</f>
         <v>0.89085548760944933</v>
       </c>
       <c r="K419" s="1"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O419" s="1"/>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.80378798299999998</v>
       </c>
@@ -11280,6 +13800,7 @@
         <v>0.88234100905618196</v>
       </c>
       <c r="K420" s="1"/>
+      <c r="O420" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="15">
   <si>
     <t>_0.975178</t>
   </si>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO422"/>
+  <dimension ref="A1:AV422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +635,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -744,8 +744,26 @@
       <c r="AO1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -854,12 +872,30 @@
       <c r="AO2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ2">
+        <v>100</v>
+      </c>
+      <c r="AR2">
+        <v>60</v>
+      </c>
+      <c r="AS2">
+        <v>5</v>
+      </c>
+      <c r="AT2">
+        <v>200</v>
+      </c>
+      <c r="AU2">
+        <v>16</v>
+      </c>
+      <c r="AV2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -906,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -973,8 +1009,14 @@
         <v>14</v>
       </c>
       <c r="AN6" s="4"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -1015,8 +1057,18 @@
         <f>CORREL(AJ6:AJ421,AK6:AK421)</f>
         <v>0.8835194498971749</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ7">
+        <v>0.96602297000000004</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <f>CORREL(AQ7:AQ422,AR7:AR422)</f>
+        <v>0.89930220779623327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -1053,8 +1105,14 @@
       <c r="AK8">
         <v>0.984456</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ8">
+        <v>0.96847205999999997</v>
+      </c>
+      <c r="AR8">
+        <v>0.96900399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -1091,8 +1149,14 @@
       <c r="AK9">
         <v>0.98441299999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ9">
+        <v>0.96968350000000003</v>
+      </c>
+      <c r="AR9">
+        <v>0.984456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -1129,8 +1193,14 @@
       <c r="AK10">
         <v>0.99852200000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ10">
+        <v>0.97154415000000005</v>
+      </c>
+      <c r="AR10">
+        <v>0.98441299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -1167,8 +1237,14 @@
       <c r="AK11">
         <v>1.00454</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ11">
+        <v>0.97407805999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.99852200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -1205,8 +1281,14 @@
       <c r="AK12">
         <v>1.00691</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ12">
+        <v>0.97813594000000004</v>
+      </c>
+      <c r="AR12">
+        <v>1.00454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -1243,8 +1325,14 @@
       <c r="AK13">
         <v>1.00644</v>
       </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ13">
+        <v>0.98355309999999996</v>
+      </c>
+      <c r="AR13">
+        <v>1.00691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -1281,8 +1369,14 @@
       <c r="AK14">
         <v>1.0048699999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ14">
+        <v>0.98743380000000003</v>
+      </c>
+      <c r="AR14">
+        <v>1.00644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -1319,8 +1413,14 @@
       <c r="AK15">
         <v>1.0139499999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AQ15">
+        <v>0.99118704000000002</v>
+      </c>
+      <c r="AR15">
+        <v>1.0048699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -1357,8 +1457,14 @@
       <c r="AK16">
         <v>1.0135000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ16">
+        <v>0.99324270000000003</v>
+      </c>
+      <c r="AR16">
+        <v>1.0139499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.97823757</v>
       </c>
@@ -1395,8 +1501,14 @@
       <c r="AK17">
         <v>1.01762</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ17">
+        <v>0.99365550000000002</v>
+      </c>
+      <c r="AR17">
+        <v>1.0135000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.97857236999999997</v>
       </c>
@@ -1433,8 +1545,14 @@
       <c r="AK18">
         <v>1.01647</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ18">
+        <v>0.99637299999999995</v>
+      </c>
+      <c r="AR18">
+        <v>1.01762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.97901819999999995</v>
       </c>
@@ -1471,8 +1589,14 @@
       <c r="AK19">
         <v>1.0142599999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ19">
+        <v>0.99789879999999997</v>
+      </c>
+      <c r="AR19">
+        <v>1.01647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.97968084</v>
       </c>
@@ -1509,8 +1633,14 @@
       <c r="AK20">
         <v>1.0098499999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ20">
+        <v>0.99921625999999997</v>
+      </c>
+      <c r="AR20">
+        <v>1.0142599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98058440000000002</v>
       </c>
@@ -1547,8 +1677,14 @@
       <c r="AK21">
         <v>1.0189699999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ21">
+        <v>0.99964459999999999</v>
+      </c>
+      <c r="AR21">
+        <v>1.0098499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98153466</v>
       </c>
@@ -1585,8 +1721,14 @@
       <c r="AK22">
         <v>1.01217</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ22">
+        <v>0.99939310000000003</v>
+      </c>
+      <c r="AR22">
+        <v>1.0189699999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98224412999999999</v>
       </c>
@@ -1623,8 +1765,14 @@
       <c r="AK23">
         <v>1.00563</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ23">
+        <v>1.0000509</v>
+      </c>
+      <c r="AR23">
+        <v>1.01217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98255320000000002</v>
       </c>
@@ -1661,8 +1809,14 @@
       <c r="AK24">
         <v>1.0074000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ24">
+        <v>0.99880146999999997</v>
+      </c>
+      <c r="AR24">
+        <v>1.00563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98284079999999996</v>
       </c>
@@ -1699,8 +1853,14 @@
       <c r="AK25">
         <v>0.986344</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ25">
+        <v>0.99552260000000004</v>
+      </c>
+      <c r="AR25">
+        <v>1.0074000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98285610000000001</v>
       </c>
@@ -1737,8 +1897,14 @@
       <c r="AK26">
         <v>0.99212199999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ26">
+        <v>0.99455243000000004</v>
+      </c>
+      <c r="AR26">
+        <v>0.986344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98284786999999996</v>
       </c>
@@ -1775,8 +1941,14 @@
       <c r="AK27">
         <v>0.96717900000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ27">
+        <v>0.9866355</v>
+      </c>
+      <c r="AR27">
+        <v>0.99212199999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98268955999999996</v>
       </c>
@@ -1813,8 +1985,14 @@
       <c r="AK28">
         <v>0.96440700000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ28">
+        <v>0.98399440000000005</v>
+      </c>
+      <c r="AR28">
+        <v>0.96717900000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98256449999999995</v>
       </c>
@@ -1851,8 +2029,14 @@
       <c r="AK29">
         <v>0.98258900000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ29">
+        <v>0.97740689999999997</v>
+      </c>
+      <c r="AR29">
+        <v>0.96440700000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98294619999999999</v>
       </c>
@@ -1889,8 +2073,14 @@
       <c r="AK30">
         <v>0.97371399999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ30">
+        <v>0.97552059999999996</v>
+      </c>
+      <c r="AR30">
+        <v>0.98258900000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98345654999999998</v>
       </c>
@@ -1927,8 +2117,14 @@
       <c r="AK31">
         <v>0.993367</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ31">
+        <v>0.97514509999999999</v>
+      </c>
+      <c r="AR31">
+        <v>0.97371399999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98399853999999998</v>
       </c>
@@ -1965,8 +2161,14 @@
       <c r="AK32">
         <v>0.98848000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ32">
+        <v>0.97398560000000001</v>
+      </c>
+      <c r="AR32">
+        <v>0.993367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98438859999999995</v>
       </c>
@@ -2003,8 +2205,14 @@
       <c r="AK33">
         <v>1.0063200000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ33">
+        <v>0.9745471</v>
+      </c>
+      <c r="AR33">
+        <v>0.98848000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98442929999999995</v>
       </c>
@@ -2041,8 +2249,14 @@
       <c r="AK34">
         <v>0.999081</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ34">
+        <v>0.97576499999999999</v>
+      </c>
+      <c r="AR34">
+        <v>1.0063200000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98425054999999995</v>
       </c>
@@ -2079,8 +2293,14 @@
       <c r="AK35">
         <v>1.0124</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ35">
+        <v>0.97428380000000003</v>
+      </c>
+      <c r="AR35">
+        <v>0.999081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98417069999999995</v>
       </c>
@@ -2117,8 +2337,14 @@
       <c r="AK36">
         <v>1.00979</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ36">
+        <v>0.97668403000000004</v>
+      </c>
+      <c r="AR36">
+        <v>1.0124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98401810000000001</v>
       </c>
@@ -2155,8 +2381,14 @@
       <c r="AK37">
         <v>1.0006600000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ37">
+        <v>0.97757870000000002</v>
+      </c>
+      <c r="AR37">
+        <v>1.00979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98382769999999997</v>
       </c>
@@ -2193,8 +2425,14 @@
       <c r="AK38">
         <v>0.97912399999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ38">
+        <v>0.9814853</v>
+      </c>
+      <c r="AR38">
+        <v>1.0006600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98361200000000004</v>
       </c>
@@ -2231,8 +2469,14 @@
       <c r="AK39">
         <v>0.97565800000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ39">
+        <v>0.9829698</v>
+      </c>
+      <c r="AR39">
+        <v>0.97912399999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98328775000000002</v>
       </c>
@@ -2269,8 +2513,14 @@
       <c r="AK40">
         <v>0.97910200000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ40">
+        <v>0.97866450000000005</v>
+      </c>
+      <c r="AR40">
+        <v>0.97565800000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98314743999999998</v>
       </c>
@@ -2307,8 +2557,14 @@
       <c r="AK41">
         <v>0.99693799999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ41">
+        <v>0.97621400000000003</v>
+      </c>
+      <c r="AR41">
+        <v>0.97910200000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98334580000000005</v>
       </c>
@@ -2345,8 +2601,14 @@
       <c r="AK42">
         <v>0.98396099999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ42">
+        <v>0.97739816000000002</v>
+      </c>
+      <c r="AR42">
+        <v>0.99693799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98371410000000004</v>
       </c>
@@ -2383,8 +2645,14 @@
       <c r="AK43">
         <v>0.97816199999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ43">
+        <v>0.97935170000000005</v>
+      </c>
+      <c r="AR43">
+        <v>0.98396099999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98371017000000005</v>
       </c>
@@ -2421,8 +2689,14 @@
       <c r="AK44">
         <v>0.98330300000000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ44">
+        <v>0.98022264000000003</v>
+      </c>
+      <c r="AR44">
+        <v>0.97816199999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.98339765999999995</v>
       </c>
@@ -2459,8 +2733,14 @@
       <c r="AK45">
         <v>0.99296300000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ45">
+        <v>0.97856854999999998</v>
+      </c>
+      <c r="AR45">
+        <v>0.98330300000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98303289999999999</v>
       </c>
@@ -2497,8 +2777,14 @@
       <c r="AK46">
         <v>0.98992999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ46">
+        <v>0.97888649999999999</v>
+      </c>
+      <c r="AR46">
+        <v>0.99296300000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98286753999999998</v>
       </c>
@@ -2535,8 +2821,14 @@
       <c r="AK47">
         <v>0.993869</v>
       </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ47">
+        <v>0.97848769999999996</v>
+      </c>
+      <c r="AR47">
+        <v>0.98992999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98300432999999998</v>
       </c>
@@ -2573,8 +2865,14 @@
       <c r="AK48">
         <v>1.0004299999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ48">
+        <v>0.98063699999999998</v>
+      </c>
+      <c r="AR48">
+        <v>0.993869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.9832651</v>
       </c>
@@ -2611,8 +2909,14 @@
       <c r="AK49">
         <v>1.00813</v>
       </c>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ49">
+        <v>0.98219299999999998</v>
+      </c>
+      <c r="AR49">
+        <v>1.0004299999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98372643999999998</v>
       </c>
@@ -2649,8 +2953,14 @@
       <c r="AK50">
         <v>1.00132</v>
       </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ50">
+        <v>0.98377199999999998</v>
+      </c>
+      <c r="AR50">
+        <v>1.00813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98432560000000002</v>
       </c>
@@ -2687,8 +2997,14 @@
       <c r="AK51">
         <v>1.00373</v>
       </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ51">
+        <v>0.98937989999999998</v>
+      </c>
+      <c r="AR51">
+        <v>1.00132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98475860000000004</v>
       </c>
@@ -2725,8 +3041,14 @@
       <c r="AK52">
         <v>1.01136</v>
       </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ52">
+        <v>0.99184762999999998</v>
+      </c>
+      <c r="AR52">
+        <v>1.00373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.98492480000000004</v>
       </c>
@@ -2763,8 +3085,14 @@
       <c r="AK53">
         <v>1.0102</v>
       </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ53">
+        <v>0.99309236000000001</v>
+      </c>
+      <c r="AR53">
+        <v>1.01136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98489547</v>
       </c>
@@ -2801,8 +3129,14 @@
       <c r="AK54">
         <v>0.99335899999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ54">
+        <v>0.99481770000000003</v>
+      </c>
+      <c r="AR54">
+        <v>1.0102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98475820000000003</v>
       </c>
@@ -2839,8 +3173,14 @@
       <c r="AK55">
         <v>1.00695</v>
       </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ55">
+        <v>0.99614769999999997</v>
+      </c>
+      <c r="AR55">
+        <v>0.99335899999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.98481363</v>
       </c>
@@ -2877,8 +3217,14 @@
       <c r="AK56">
         <v>1.00475</v>
       </c>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ56">
+        <v>0.99216709999999997</v>
+      </c>
+      <c r="AR56">
+        <v>1.00695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.9850875</v>
       </c>
@@ -2915,8 +3261,14 @@
       <c r="AK57">
         <v>1.0123</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ57">
+        <v>0.99298423999999996</v>
+      </c>
+      <c r="AR57">
+        <v>1.00475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98536449999999998</v>
       </c>
@@ -2953,8 +3305,14 @@
       <c r="AK58">
         <v>1.0158100000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ58">
+        <v>0.99500935999999995</v>
+      </c>
+      <c r="AR58">
+        <v>1.0123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98559750000000002</v>
       </c>
@@ -2991,8 +3349,14 @@
       <c r="AK59">
         <v>1.01918</v>
       </c>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ59">
+        <v>0.9966045</v>
+      </c>
+      <c r="AR59">
+        <v>1.0158100000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.9857051</v>
       </c>
@@ -3029,8 +3393,14 @@
       <c r="AK60">
         <v>1.01298</v>
       </c>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ60">
+        <v>0.99898419999999999</v>
+      </c>
+      <c r="AR60">
+        <v>1.01918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98565130000000001</v>
       </c>
@@ -3067,8 +3437,14 @@
       <c r="AK61">
         <v>1.01711</v>
       </c>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ61">
+        <v>1.0023922000000001</v>
+      </c>
+      <c r="AR61">
+        <v>1.01298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98549973999999996</v>
       </c>
@@ -3105,8 +3481,14 @@
       <c r="AK62">
         <v>1.0115099999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ62">
+        <v>1.0025706000000001</v>
+      </c>
+      <c r="AR62">
+        <v>1.01711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98522779999999999</v>
       </c>
@@ -3143,8 +3525,14 @@
       <c r="AK63">
         <v>0.99642200000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ63">
+        <v>1.00115</v>
+      </c>
+      <c r="AR63">
+        <v>1.0115099999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98444646999999996</v>
       </c>
@@ -3181,8 +3569,14 @@
       <c r="AK64">
         <v>1.0125299999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ64">
+        <v>0.9997007</v>
+      </c>
+      <c r="AR64">
+        <v>0.99642200000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98378679999999996</v>
       </c>
@@ -3219,8 +3613,14 @@
       <c r="AK65">
         <v>1.01692</v>
       </c>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ65">
+        <v>0.99393030000000004</v>
+      </c>
+      <c r="AR65">
+        <v>1.0125299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98387910000000001</v>
       </c>
@@ -3257,8 +3657,14 @@
       <c r="AK66">
         <v>0.99921499999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ66">
+        <v>0.99392634999999996</v>
+      </c>
+      <c r="AR66">
+        <v>1.01692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98397403999999999</v>
       </c>
@@ -3295,8 +3701,14 @@
       <c r="AK67">
         <v>0.99263100000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ67">
+        <v>0.99831630000000005</v>
+      </c>
+      <c r="AR67">
+        <v>0.99921499999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.98311510000000002</v>
       </c>
@@ -3333,8 +3745,14 @@
       <c r="AK68">
         <v>0.99818300000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ68">
+        <v>0.99595549999999999</v>
+      </c>
+      <c r="AR68">
+        <v>0.99263100000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98196923999999997</v>
       </c>
@@ -3371,8 +3789,14 @@
       <c r="AK69">
         <v>1.0180499999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ69">
+        <v>0.99092409999999997</v>
+      </c>
+      <c r="AR69">
+        <v>0.99818300000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98182570000000002</v>
       </c>
@@ -3409,8 +3833,14 @@
       <c r="AK70">
         <v>1.01044</v>
       </c>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ70">
+        <v>0.98921049999999999</v>
+      </c>
+      <c r="AR70">
+        <v>1.0180499999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98213433999999999</v>
       </c>
@@ -3447,8 +3877,14 @@
       <c r="AK71">
         <v>1.0060500000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ71">
+        <v>0.99187773000000001</v>
+      </c>
+      <c r="AR71">
+        <v>1.01044</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.9820468</v>
       </c>
@@ -3485,8 +3921,14 @@
       <c r="AK72">
         <v>1.00559</v>
       </c>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ72">
+        <v>0.99517434999999999</v>
+      </c>
+      <c r="AR72">
+        <v>1.0060500000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98158659999999998</v>
       </c>
@@ -3523,8 +3965,14 @@
       <c r="AK73">
         <v>1.02159</v>
       </c>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ73">
+        <v>0.99394864000000005</v>
+      </c>
+      <c r="AR73">
+        <v>1.00559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98121685000000003</v>
       </c>
@@ -3561,8 +4009,14 @@
       <c r="AK74">
         <v>1.02274</v>
       </c>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ74">
+        <v>0.99448453999999997</v>
+      </c>
+      <c r="AR74">
+        <v>1.02159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98107100000000003</v>
       </c>
@@ -3599,8 +4053,14 @@
       <c r="AK75">
         <v>1.02732</v>
       </c>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ75">
+        <v>0.99654359999999997</v>
+      </c>
+      <c r="AR75">
+        <v>1.02274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98125476</v>
       </c>
@@ -3637,8 +4097,14 @@
       <c r="AK76">
         <v>1.0263500000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ76">
+        <v>1.0005478000000001</v>
+      </c>
+      <c r="AR76">
+        <v>1.02732</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98163986000000003</v>
       </c>
@@ -3675,8 +4141,14 @@
       <c r="AK77">
         <v>1.02495</v>
       </c>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ77">
+        <v>1.0039399</v>
+      </c>
+      <c r="AR77">
+        <v>1.0263500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98200410000000005</v>
       </c>
@@ -3713,8 +4185,14 @@
       <c r="AK78">
         <v>1.0284599999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ78">
+        <v>1.0057982999999999</v>
+      </c>
+      <c r="AR78">
+        <v>1.02495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98241100000000003</v>
       </c>
@@ -3751,8 +4229,14 @@
       <c r="AK79">
         <v>1.0250999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ79">
+        <v>1.0063263</v>
+      </c>
+      <c r="AR79">
+        <v>1.0284599999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98286790000000002</v>
       </c>
@@ -3789,8 +4273,14 @@
       <c r="AK80">
         <v>1.0096400000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ80">
+        <v>1.0072270999999999</v>
+      </c>
+      <c r="AR80">
+        <v>1.0250999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98338102999999999</v>
       </c>
@@ -3827,8 +4317,14 @@
       <c r="AK81">
         <v>1.0232699999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ81">
+        <v>1.0089022999999999</v>
+      </c>
+      <c r="AR81">
+        <v>1.0096400000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.98389950000000004</v>
       </c>
@@ -3865,8 +4361,14 @@
       <c r="AK82">
         <v>1.0213699999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ82">
+        <v>1.0053890999999999</v>
+      </c>
+      <c r="AR82">
+        <v>1.0232699999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98431873000000003</v>
       </c>
@@ -3903,8 +4405,14 @@
       <c r="AK83">
         <v>1.01189</v>
       </c>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ83">
+        <v>1.0046389</v>
+      </c>
+      <c r="AR83">
+        <v>1.0213699999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98454370000000002</v>
       </c>
@@ -3941,8 +4449,14 @@
       <c r="AK84">
         <v>1.0149600000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ84">
+        <v>1.0054675</v>
+      </c>
+      <c r="AR84">
+        <v>1.01189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98472499999999996</v>
       </c>
@@ -3979,8 +4493,14 @@
       <c r="AK85">
         <v>1.01346</v>
       </c>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ85">
+        <v>1.0037917999999999</v>
+      </c>
+      <c r="AR85">
+        <v>1.0149600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.9847243</v>
       </c>
@@ -4017,8 +4537,14 @@
       <c r="AK86">
         <v>1.0166200000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ86">
+        <v>1.0032487999999999</v>
+      </c>
+      <c r="AR86">
+        <v>1.01346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98449500000000001</v>
       </c>
@@ -4055,8 +4581,14 @@
       <c r="AK87">
         <v>1.00373</v>
       </c>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ87">
+        <v>1.0016224</v>
+      </c>
+      <c r="AR87">
+        <v>1.0166200000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98391819999999997</v>
       </c>
@@ -4093,8 +4625,14 @@
       <c r="AK88">
         <v>1.0016</v>
       </c>
-    </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ88">
+        <v>1.0020837</v>
+      </c>
+      <c r="AR88">
+        <v>1.00373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98308605000000004</v>
       </c>
@@ -4131,8 +4669,14 @@
       <c r="AK89">
         <v>0.99201600000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ89">
+        <v>0.99822469999999996</v>
+      </c>
+      <c r="AR89">
+        <v>1.0016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98196300000000003</v>
       </c>
@@ -4169,8 +4713,14 @@
       <c r="AK90">
         <v>0.99263100000000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ90">
+        <v>0.99532330000000002</v>
+      </c>
+      <c r="AR90">
+        <v>0.99201600000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.98071059999999999</v>
       </c>
@@ -4207,8 +4757,14 @@
       <c r="AK91">
         <v>1.0103500000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ91">
+        <v>0.99288379999999998</v>
+      </c>
+      <c r="AR91">
+        <v>0.99263100000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.98030229999999996</v>
       </c>
@@ -4245,8 +4801,14 @@
       <c r="AK92">
         <v>1.0129300000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ92">
+        <v>0.99099970000000004</v>
+      </c>
+      <c r="AR92">
+        <v>1.0103500000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.98065959999999996</v>
       </c>
@@ -4283,8 +4845,14 @@
       <c r="AK93">
         <v>1.0024999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ93">
+        <v>0.99098419999999998</v>
+      </c>
+      <c r="AR93">
+        <v>1.0129300000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.98071193999999995</v>
       </c>
@@ -4321,8 +4889,14 @@
       <c r="AK94">
         <v>0.99565800000000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ94">
+        <v>0.99480944999999998</v>
+      </c>
+      <c r="AR94">
+        <v>1.0024999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97984766999999995</v>
       </c>
@@ -4359,8 +4933,14 @@
       <c r="AK95">
         <v>1.0040500000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ95">
+        <v>0.99449723999999995</v>
+      </c>
+      <c r="AR95">
+        <v>0.99565800000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97908704999999996</v>
       </c>
@@ -4397,8 +4977,14 @@
       <c r="AK96">
         <v>1.00698</v>
       </c>
-    </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ96">
+        <v>0.99113362999999999</v>
+      </c>
+      <c r="AR96">
+        <v>1.0040500000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97884300000000002</v>
       </c>
@@ -4435,8 +5021,14 @@
       <c r="AK97">
         <v>1.02169</v>
       </c>
-    </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ97">
+        <v>0.99091510000000005</v>
+      </c>
+      <c r="AR97">
+        <v>1.00698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97900039999999999</v>
       </c>
@@ -4473,8 +5065,14 @@
       <c r="AK98">
         <v>1.01373</v>
       </c>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ98">
+        <v>0.99165610000000004</v>
+      </c>
+      <c r="AR98">
+        <v>1.02169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97906053000000004</v>
       </c>
@@ -4511,8 +5109,14 @@
       <c r="AK99">
         <v>1.0228299999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ99">
+        <v>0.99420430000000004</v>
+      </c>
+      <c r="AR99">
+        <v>1.01373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97900719999999997</v>
       </c>
@@ -4549,8 +5153,14 @@
       <c r="AK100">
         <v>1.0237799999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ100">
+        <v>0.99567660000000002</v>
+      </c>
+      <c r="AR100">
+        <v>1.0228299999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97931109999999999</v>
       </c>
@@ -4587,8 +5197,14 @@
       <c r="AK101">
         <v>1.01274</v>
       </c>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ101">
+        <v>0.99813014</v>
+      </c>
+      <c r="AR101">
+        <v>1.0237799999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97974159999999999</v>
       </c>
@@ -4625,8 +5241,14 @@
       <c r="AK102">
         <v>1.0083</v>
       </c>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ102">
+        <v>1.0011680000000001</v>
+      </c>
+      <c r="AR102">
+        <v>1.01274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97993330000000001</v>
       </c>
@@ -4663,8 +5285,14 @@
       <c r="AK103">
         <v>1.0077199999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ103">
+        <v>1.0010351</v>
+      </c>
+      <c r="AR103">
+        <v>1.0083</v>
+      </c>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97969764000000004</v>
       </c>
@@ -4701,8 +5329,14 @@
       <c r="AK104">
         <v>0.97671200000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ104">
+        <v>1.0003188000000001</v>
+      </c>
+      <c r="AR104">
+        <v>1.0077199999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97793596999999999</v>
       </c>
@@ -4739,8 +5373,14 @@
       <c r="AK105">
         <v>0.98058000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ105">
+        <v>0.99793339999999997</v>
+      </c>
+      <c r="AR105">
+        <v>0.97671200000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97617259999999995</v>
       </c>
@@ -4777,8 +5417,14 @@
       <c r="AK106">
         <v>0.99070000000000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ106">
+        <v>0.98887944000000005</v>
+      </c>
+      <c r="AR106">
+        <v>0.98058000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97623150000000003</v>
       </c>
@@ -4815,8 +5461,14 @@
       <c r="AK107">
         <v>0.99024800000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ107">
+        <v>0.98524920000000005</v>
+      </c>
+      <c r="AR107">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97707679999999997</v>
       </c>
@@ -4853,8 +5505,14 @@
       <c r="AK108">
         <v>0.98457600000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ108">
+        <v>0.98561436000000002</v>
+      </c>
+      <c r="AR108">
+        <v>0.99024800000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97745514</v>
       </c>
@@ -4891,8 +5549,14 @@
       <c r="AK109">
         <v>0.99347300000000005</v>
       </c>
-    </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ109">
+        <v>0.98789567</v>
+      </c>
+      <c r="AR109">
+        <v>0.98457600000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97696110000000003</v>
       </c>
@@ -4929,8 +5593,14 @@
       <c r="AK110">
         <v>0.96896099999999996</v>
       </c>
-    </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ110">
+        <v>0.98743504000000004</v>
+      </c>
+      <c r="AR110">
+        <v>0.99347300000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97576605999999999</v>
       </c>
@@ -4967,8 +5637,14 @@
       <c r="AK111">
         <v>0.97223599999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ111">
+        <v>0.98419213000000005</v>
+      </c>
+      <c r="AR111">
+        <v>0.96896099999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97488629999999998</v>
       </c>
@@ -5005,8 +5681,14 @@
       <c r="AK112">
         <v>0.99013499999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ112">
+        <v>0.98039639999999995</v>
+      </c>
+      <c r="AR112">
+        <v>0.97223599999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97477650000000005</v>
       </c>
@@ -5043,8 +5725,14 @@
       <c r="AK113">
         <v>1.0063899999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ113">
+        <v>0.97848283999999996</v>
+      </c>
+      <c r="AR113">
+        <v>0.99013499999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97557044000000004</v>
       </c>
@@ -5081,8 +5769,14 @@
       <c r="AK114">
         <v>1.0129999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ114">
+        <v>0.97871757000000004</v>
+      </c>
+      <c r="AR114">
+        <v>1.0063899999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97673255000000003</v>
       </c>
@@ -5119,8 +5813,14 @@
       <c r="AK115">
         <v>1.0119</v>
       </c>
-    </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ115">
+        <v>0.98262510000000003</v>
+      </c>
+      <c r="AR115">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.97761030000000004</v>
       </c>
@@ -5157,8 +5857,14 @@
       <c r="AK116">
         <v>1.0238499999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ116">
+        <v>0.98814769999999996</v>
+      </c>
+      <c r="AR116">
+        <v>1.0119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.97834580000000004</v>
       </c>
@@ -5195,8 +5901,14 @@
       <c r="AK117">
         <v>1.0255099999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ117">
+        <v>0.99215275000000003</v>
+      </c>
+      <c r="AR117">
+        <v>1.0238499999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.97910260000000005</v>
       </c>
@@ -5233,8 +5945,14 @@
       <c r="AK118">
         <v>1.02667</v>
       </c>
-    </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ118">
+        <v>0.99633603999999998</v>
+      </c>
+      <c r="AR118">
+        <v>1.0255099999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.97996780000000006</v>
       </c>
@@ -5271,8 +5989,14 @@
       <c r="AK119">
         <v>1.0202500000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ119">
+        <v>1.0000443000000001</v>
+      </c>
+      <c r="AR119">
+        <v>1.02667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9808017</v>
       </c>
@@ -5309,8 +6033,14 @@
       <c r="AK120">
         <v>1.01668</v>
       </c>
-    </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ120">
+        <v>1.0023215999999999</v>
+      </c>
+      <c r="AR120">
+        <v>1.0202500000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98146533999999996</v>
       </c>
@@ -5347,8 +6077,14 @@
       <c r="AK121">
         <v>1.0081899999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ121">
+        <v>1.0031196</v>
+      </c>
+      <c r="AR121">
+        <v>1.01668</v>
+      </c>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98195619999999995</v>
       </c>
@@ -5385,8 +6121,14 @@
       <c r="AK122">
         <v>0.99227699999999996</v>
       </c>
-    </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ122">
+        <v>1.0037453000000001</v>
+      </c>
+      <c r="AR122">
+        <v>1.0081899999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98239124</v>
       </c>
@@ -5423,8 +6165,14 @@
       <c r="AK123">
         <v>0.98378399999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ123">
+        <v>1.0025630999999999</v>
+      </c>
+      <c r="AR123">
+        <v>0.99227699999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.9825874</v>
       </c>
@@ -5461,8 +6209,14 @@
       <c r="AK124">
         <v>1.0019</v>
       </c>
-    </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ124">
+        <v>0.99958813000000002</v>
+      </c>
+      <c r="AR124">
+        <v>0.98378399999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98263029999999996</v>
       </c>
@@ -5499,8 +6253,14 @@
       <c r="AK125">
         <v>1.0127299999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ125">
+        <v>0.99756365999999996</v>
+      </c>
+      <c r="AR125">
+        <v>1.0019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98298450000000004</v>
       </c>
@@ -5537,8 +6297,14 @@
       <c r="AK126">
         <v>1.0127699999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ126">
+        <v>0.99655970000000005</v>
+      </c>
+      <c r="AR126">
+        <v>1.0127299999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98353460000000004</v>
       </c>
@@ -5575,8 +6341,14 @@
       <c r="AK127">
         <v>1.0093799999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ127">
+        <v>0.99841179999999996</v>
+      </c>
+      <c r="AR127">
+        <v>1.0127699999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98405050000000005</v>
       </c>
@@ -5613,8 +6385,14 @@
       <c r="AK128">
         <v>1.00528</v>
       </c>
-    </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ128">
+        <v>0.99989927000000001</v>
+      </c>
+      <c r="AR128">
+        <v>1.0093799999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98429626000000003</v>
       </c>
@@ -5651,8 +6429,14 @@
       <c r="AK129">
         <v>1.0019400000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ129">
+        <v>1.0011319000000001</v>
+      </c>
+      <c r="AR129">
+        <v>1.00528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98426913999999999</v>
       </c>
@@ -5689,8 +6473,14 @@
       <c r="AK130">
         <v>1.0065599999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ130">
+        <v>0.99982994999999997</v>
+      </c>
+      <c r="AR130">
+        <v>1.0019400000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98429429999999996</v>
       </c>
@@ -5727,8 +6517,14 @@
       <c r="AK131">
         <v>0.99504300000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ131">
+        <v>0.99872110000000003</v>
+      </c>
+      <c r="AR131">
+        <v>1.0065599999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98417840000000001</v>
       </c>
@@ -5765,8 +6561,14 @@
       <c r="AK132">
         <v>0.99080599999999996</v>
       </c>
-    </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ132">
+        <v>0.99811749999999999</v>
+      </c>
+      <c r="AR132">
+        <v>0.99504300000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98372369999999998</v>
       </c>
@@ -5803,8 +6605,14 @@
       <c r="AK133">
         <v>1.00962</v>
       </c>
-    </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ133">
+        <v>0.99469775000000005</v>
+      </c>
+      <c r="AR133">
+        <v>0.99080599999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98357570000000005</v>
       </c>
@@ -5841,8 +6649,14 @@
       <c r="AK134">
         <v>0.99540300000000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ134">
+        <v>0.99261049999999995</v>
+      </c>
+      <c r="AR134">
+        <v>1.00962</v>
+      </c>
+    </row>
+    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98368542999999997</v>
       </c>
@@ -5879,8 +6693,14 @@
       <c r="AK135">
         <v>0.99680299999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ135">
+        <v>0.99382347000000004</v>
+      </c>
+      <c r="AR135">
+        <v>0.99540300000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98327949999999997</v>
       </c>
@@ -5917,8 +6737,14 @@
       <c r="AK136">
         <v>0.99492199999999997</v>
       </c>
-    </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ136">
+        <v>0.99322540000000004</v>
+      </c>
+      <c r="AR136">
+        <v>0.99680299999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98277073999999998</v>
       </c>
@@ -5955,8 +6781,14 @@
       <c r="AK137">
         <v>1.0006900000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ137">
+        <v>0.99007683999999996</v>
+      </c>
+      <c r="AR137">
+        <v>0.99492199999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.98254269999999999</v>
       </c>
@@ -5993,8 +6825,14 @@
       <c r="AK138">
         <v>1.0083899999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ138">
+        <v>0.99141973000000005</v>
+      </c>
+      <c r="AR138">
+        <v>1.0006900000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.98247397000000003</v>
       </c>
@@ -6031,8 +6869,14 @@
       <c r="AK139">
         <v>1.0044900000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ139">
+        <v>0.99338420000000005</v>
+      </c>
+      <c r="AR139">
+        <v>1.0083899999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.98264300000000004</v>
       </c>
@@ -6069,8 +6913,14 @@
       <c r="AK140">
         <v>0.99224900000000005</v>
       </c>
-    </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ140">
+        <v>0.99476576000000005</v>
+      </c>
+      <c r="AR140">
+        <v>1.0044900000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.98228073000000005</v>
       </c>
@@ -6107,8 +6957,14 @@
       <c r="AK141">
         <v>0.96121800000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ141">
+        <v>0.99725527000000003</v>
+      </c>
+      <c r="AR141">
+        <v>0.99224900000000005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.97903110000000004</v>
       </c>
@@ -6145,8 +7001,14 @@
       <c r="AK142">
         <v>0.91536300000000004</v>
       </c>
-    </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ142">
+        <v>0.99383604999999997</v>
+      </c>
+      <c r="AR142">
+        <v>0.96121800000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.97004630000000003</v>
       </c>
@@ -6183,8 +7045,14 @@
       <c r="AK143">
         <v>0.86042799999999997</v>
       </c>
-    </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ143">
+        <v>0.98362400000000005</v>
+      </c>
+      <c r="AR143">
+        <v>0.91536300000000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.9547544</v>
       </c>
@@ -6221,8 +7089,14 @@
       <c r="AK144">
         <v>0.84232399999999996</v>
       </c>
-    </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ144">
+        <v>0.96882959999999996</v>
+      </c>
+      <c r="AR144">
+        <v>0.86042799999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93693346</v>
       </c>
@@ -6259,8 +7133,14 @@
       <c r="AK145">
         <v>0.89387899999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ145">
+        <v>0.94989760000000001</v>
+      </c>
+      <c r="AR145">
+        <v>0.84232399999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92407969999999995</v>
       </c>
@@ -6297,8 +7177,14 @@
       <c r="AK146">
         <v>0.92722300000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ146">
+        <v>0.93739516000000001</v>
+      </c>
+      <c r="AR146">
+        <v>0.89387899999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.92545204999999997</v>
       </c>
@@ -6335,8 +7221,14 @@
       <c r="AK147">
         <v>0.92807799999999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ147">
+        <v>0.93214863999999997</v>
+      </c>
+      <c r="AR147">
+        <v>0.92722300000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.933639</v>
       </c>
@@ -6373,8 +7265,14 @@
       <c r="AK148">
         <v>0.91627499999999995</v>
       </c>
-    </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ148">
+        <v>0.93506217000000003</v>
+      </c>
+      <c r="AR148">
+        <v>0.92807799999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.93672144000000002</v>
       </c>
@@ -6411,8 +7309,14 @@
       <c r="AK149">
         <v>0.87502500000000005</v>
       </c>
-    </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ149">
+        <v>0.94193154999999995</v>
+      </c>
+      <c r="AR149">
+        <v>0.91627499999999995</v>
+      </c>
+    </row>
+    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.92697589999999996</v>
       </c>
@@ -6449,8 +7353,14 @@
       <c r="AK150">
         <v>0.89978400000000003</v>
       </c>
-    </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ150">
+        <v>0.94556269999999998</v>
+      </c>
+      <c r="AR150">
+        <v>0.87502500000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.91321622999999996</v>
       </c>
@@ -6487,8 +7397,14 @@
       <c r="AK151">
         <v>0.901389</v>
       </c>
-    </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ151">
+        <v>0.93816980000000005</v>
+      </c>
+      <c r="AR151">
+        <v>0.89978400000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.90451545</v>
       </c>
@@ -6525,8 +7441,14 @@
       <c r="AK152">
         <v>0.88023700000000005</v>
       </c>
-    </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ152">
+        <v>0.93479509999999999</v>
+      </c>
+      <c r="AR152">
+        <v>0.901389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.89857799999999999</v>
       </c>
@@ -6563,8 +7485,14 @@
       <c r="AK153">
         <v>0.91431600000000002</v>
       </c>
-    </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ153">
+        <v>0.93426085000000003</v>
+      </c>
+      <c r="AR153">
+        <v>0.88023700000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.90034729999999996</v>
       </c>
@@ -6601,8 +7529,14 @@
       <c r="AK154">
         <v>0.89496100000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ154">
+        <v>0.93200284</v>
+      </c>
+      <c r="AR154">
+        <v>0.91431600000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.90802103000000001</v>
       </c>
@@ -6639,8 +7573,14 @@
       <c r="AK155">
         <v>0.90220900000000004</v>
       </c>
-    </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ155">
+        <v>0.93157034999999999</v>
+      </c>
+      <c r="AR155">
+        <v>0.89496100000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.91741079999999997</v>
       </c>
@@ -6677,8 +7617,14 @@
       <c r="AK156">
         <v>0.90840399999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ156">
+        <v>0.93143370000000003</v>
+      </c>
+      <c r="AR156">
+        <v>0.90220900000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.92375510000000005</v>
       </c>
@@ -6715,8 +7661,14 @@
       <c r="AK157">
         <v>0.90273300000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ157">
+        <v>0.93611800000000001</v>
+      </c>
+      <c r="AR157">
+        <v>0.90840399999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.92515199999999997</v>
       </c>
@@ -6753,8 +7705,14 @@
       <c r="AK158">
         <v>0.92045500000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ158">
+        <v>0.94340900000000005</v>
+      </c>
+      <c r="AR158">
+        <v>0.90273300000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.92614399999999997</v>
       </c>
@@ -6791,8 +7749,14 @@
       <c r="AK159">
         <v>0.93263300000000005</v>
       </c>
-    </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ159">
+        <v>0.94889265</v>
+      </c>
+      <c r="AR159">
+        <v>0.92045500000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.93095874999999995</v>
       </c>
@@ -6829,8 +7793,14 @@
       <c r="AK160">
         <v>0.92901900000000004</v>
       </c>
-    </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ160">
+        <v>0.95267670000000004</v>
+      </c>
+      <c r="AR160">
+        <v>0.93263300000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.93712969999999995</v>
       </c>
@@ -6867,8 +7837,14 @@
       <c r="AK161">
         <v>0.90626899999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ161">
+        <v>0.95738529999999999</v>
+      </c>
+      <c r="AR161">
+        <v>0.92901900000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.93991696999999996</v>
       </c>
@@ -6905,8 +7881,14 @@
       <c r="AK162">
         <v>0.91259100000000004</v>
       </c>
-    </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ162">
+        <v>0.95960089999999998</v>
+      </c>
+      <c r="AR162">
+        <v>0.90626899999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94084129999999999</v>
       </c>
@@ -6943,8 +7925,14 @@
       <c r="AK163">
         <v>0.89545600000000003</v>
       </c>
-    </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ163">
+        <v>0.9571906</v>
+      </c>
+      <c r="AR163">
+        <v>0.91259100000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94026430000000005</v>
       </c>
@@ -6981,8 +7969,14 @@
       <c r="AK164">
         <v>0.89264100000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ164">
+        <v>0.95841900000000002</v>
+      </c>
+      <c r="AR164">
+        <v>0.89545600000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.94110380000000005</v>
       </c>
@@ -7019,8 +8013,14 @@
       <c r="AK165">
         <v>0.88802999999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ165">
+        <v>0.95520360000000004</v>
+      </c>
+      <c r="AR165">
+        <v>0.89264100000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.94173353999999998</v>
       </c>
@@ -7057,8 +8057,14 @@
       <c r="AK166">
         <v>0.88739400000000002</v>
       </c>
-    </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ166">
+        <v>0.95543310000000004</v>
+      </c>
+      <c r="AR166">
+        <v>0.88802999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.94368196000000004</v>
       </c>
@@ -7095,8 +8101,14 @@
       <c r="AK167">
         <v>0.85233800000000004</v>
       </c>
-    </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ167">
+        <v>0.95250153999999998</v>
+      </c>
+      <c r="AR167">
+        <v>0.88739400000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.94127249999999996</v>
       </c>
@@ -7133,8 +8145,14 @@
       <c r="AK168">
         <v>0.85397900000000004</v>
       </c>
-    </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ168">
+        <v>0.9517504</v>
+      </c>
+      <c r="AR168">
+        <v>0.85233800000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.93782215999999996</v>
       </c>
@@ -7171,8 +8189,14 @@
       <c r="AK169">
         <v>0.87939500000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ169">
+        <v>0.94452935000000005</v>
+      </c>
+      <c r="AR169">
+        <v>0.85397900000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.93808895000000003</v>
       </c>
@@ -7209,8 +8233,14 @@
       <c r="AK170">
         <v>0.88207500000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ170">
+        <v>0.94080430000000004</v>
+      </c>
+      <c r="AR170">
+        <v>0.87939500000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.93920802999999997</v>
       </c>
@@ -7247,8 +8277,14 @@
       <c r="AK171">
         <v>0.90155200000000002</v>
       </c>
-    </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ171">
+        <v>0.94074243000000002</v>
+      </c>
+      <c r="AR171">
+        <v>0.88207500000000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.93959300000000001</v>
       </c>
@@ -7285,8 +8321,14 @@
       <c r="AK172">
         <v>0.92679100000000003</v>
       </c>
-    </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ172">
+        <v>0.94288987000000002</v>
+      </c>
+      <c r="AR172">
+        <v>0.90155200000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.94315260000000001</v>
       </c>
@@ -7323,8 +8365,14 @@
       <c r="AK173">
         <v>0.92174900000000004</v>
       </c>
-    </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ173">
+        <v>0.94179489999999999</v>
+      </c>
+      <c r="AR173">
+        <v>0.92679100000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.94766163999999997</v>
       </c>
@@ -7361,8 +8409,14 @@
       <c r="AK174">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ174">
+        <v>0.94597189999999998</v>
+      </c>
+      <c r="AR174">
+        <v>0.92174900000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.95133719999999999</v>
       </c>
@@ -7399,8 +8453,14 @@
       <c r="AK175">
         <v>0.94544700000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ175">
+        <v>0.95183593</v>
+      </c>
+      <c r="AR175">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.95438230000000002</v>
       </c>
@@ -7437,8 +8497,14 @@
       <c r="AK176">
         <v>0.94647999999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ176">
+        <v>0.95666200000000001</v>
+      </c>
+      <c r="AR176">
+        <v>0.94544700000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.95731500000000003</v>
       </c>
@@ -7475,8 +8541,14 @@
       <c r="AK177">
         <v>0.94829699999999995</v>
       </c>
-    </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ177">
+        <v>0.9610959</v>
+      </c>
+      <c r="AR177">
+        <v>0.94647999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.95968229999999999</v>
       </c>
@@ -7513,8 +8585,14 @@
       <c r="AK178">
         <v>0.93855900000000003</v>
       </c>
-    </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ178">
+        <v>0.96673160000000002</v>
+      </c>
+      <c r="AR178">
+        <v>0.94829699999999995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96201610000000004</v>
       </c>
@@ -7551,8 +8629,14 @@
       <c r="AK179">
         <v>0.93187600000000004</v>
       </c>
-    </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ179">
+        <v>0.97193399999999996</v>
+      </c>
+      <c r="AR179">
+        <v>0.93855900000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.96395209999999998</v>
       </c>
@@ -7589,8 +8673,14 @@
       <c r="AK180">
         <v>0.95282299999999998</v>
       </c>
-    </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ180">
+        <v>0.97341513999999996</v>
+      </c>
+      <c r="AR180">
+        <v>0.93187600000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.96586989999999995</v>
       </c>
@@ -7627,8 +8717,14 @@
       <c r="AK181">
         <v>0.95936500000000002</v>
       </c>
-    </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ181">
+        <v>0.97450110000000001</v>
+      </c>
+      <c r="AR181">
+        <v>0.95282299999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.96764075999999999</v>
       </c>
@@ -7665,8 +8761,14 @@
       <c r="AK182">
         <v>0.959754</v>
       </c>
-    </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ182">
+        <v>0.97559494000000002</v>
+      </c>
+      <c r="AR182">
+        <v>0.95936500000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.96969530000000004</v>
       </c>
@@ -7703,8 +8805,14 @@
       <c r="AK183">
         <v>0.95770999999999995</v>
       </c>
-    </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ183">
+        <v>0.97867477000000003</v>
+      </c>
+      <c r="AR183">
+        <v>0.959754</v>
+      </c>
+    </row>
+    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97170460000000003</v>
       </c>
@@ -7741,8 +8849,14 @@
       <c r="AK184">
         <v>0.94934399999999997</v>
       </c>
-    </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ184">
+        <v>0.98210584999999995</v>
+      </c>
+      <c r="AR184">
+        <v>0.95770999999999995</v>
+      </c>
+    </row>
+    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97299707000000002</v>
       </c>
@@ -7779,8 +8893,14 @@
       <c r="AK185">
         <v>0.97308399999999995</v>
       </c>
-    </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ185">
+        <v>0.9845332</v>
+      </c>
+      <c r="AR185">
+        <v>0.94934399999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.97433950000000003</v>
       </c>
@@ -7817,8 +8937,14 @@
       <c r="AK186">
         <v>0.98909499999999995</v>
       </c>
-    </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ186">
+        <v>0.98402659999999997</v>
+      </c>
+      <c r="AR186">
+        <v>0.97308399999999995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.97554255000000001</v>
       </c>
@@ -7855,8 +8981,14 @@
       <c r="AK187">
         <v>0.98628800000000005</v>
       </c>
-    </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ187">
+        <v>0.98408499999999999</v>
+      </c>
+      <c r="AR187">
+        <v>0.98909499999999995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.97656359999999998</v>
       </c>
@@ -7893,8 +9025,14 @@
       <c r="AK188">
         <v>0.98254600000000003</v>
       </c>
-    </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ188">
+        <v>0.98722319999999997</v>
+      </c>
+      <c r="AR188">
+        <v>0.98628800000000005</v>
+      </c>
+    </row>
+    <row r="189" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.97792214</v>
       </c>
@@ -7931,8 +9069,14 @@
       <c r="AK189">
         <v>0.99984399999999996</v>
       </c>
-    </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ189">
+        <v>0.99078553999999996</v>
+      </c>
+      <c r="AR189">
+        <v>0.98254600000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.9793828</v>
       </c>
@@ -7969,8 +9113,14 @@
       <c r="AK190">
         <v>0.99917999999999996</v>
       </c>
-    </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ190">
+        <v>0.99154819999999999</v>
+      </c>
+      <c r="AR190">
+        <v>0.99984399999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98040729999999998</v>
       </c>
@@ -8007,8 +9157,14 @@
       <c r="AK191">
         <v>0.99207199999999995</v>
       </c>
-    </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ191">
+        <v>0.99123609999999995</v>
+      </c>
+      <c r="AR191">
+        <v>0.99917999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98111605999999996</v>
       </c>
@@ -8045,8 +9201,14 @@
       <c r="AK192">
         <v>1.00953</v>
       </c>
-    </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ192">
+        <v>0.99342070000000005</v>
+      </c>
+      <c r="AR192">
+        <v>0.99207199999999995</v>
+      </c>
+    </row>
+    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98187243999999996</v>
       </c>
@@ -8083,8 +9245,14 @@
       <c r="AK193">
         <v>1.01359</v>
       </c>
-    </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ193">
+        <v>0.99388504</v>
+      </c>
+      <c r="AR193">
+        <v>1.00953</v>
+      </c>
+    </row>
+    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98256403000000003</v>
       </c>
@@ -8121,8 +9289,14 @@
       <c r="AK194">
         <v>1.0083</v>
       </c>
-    </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ194">
+        <v>0.99426709999999996</v>
+      </c>
+      <c r="AR194">
+        <v>1.01359</v>
+      </c>
+    </row>
+    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98312259999999996</v>
       </c>
@@ -8159,8 +9333,14 @@
       <c r="AK195">
         <v>1.0066200000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ195">
+        <v>0.99565899999999996</v>
+      </c>
+      <c r="AR195">
+        <v>1.0083</v>
+      </c>
+    </row>
+    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98375254999999995</v>
       </c>
@@ -8197,8 +9377,14 @@
       <c r="AK196">
         <v>1.0061</v>
       </c>
-    </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ196">
+        <v>0.99628300000000003</v>
+      </c>
+      <c r="AR196">
+        <v>1.0066200000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98449209999999998</v>
       </c>
@@ -8235,8 +9421,14 @@
       <c r="AK197">
         <v>0.99152099999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ197">
+        <v>0.99609833999999997</v>
+      </c>
+      <c r="AR197">
+        <v>1.0061</v>
+      </c>
+    </row>
+    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98514500000000005</v>
       </c>
@@ -8273,8 +9465,14 @@
       <c r="AK198">
         <v>0.99374099999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ198">
+        <v>0.99586509999999995</v>
+      </c>
+      <c r="AR198">
+        <v>0.99152099999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98565453000000003</v>
       </c>
@@ -8311,8 +9509,14 @@
       <c r="AK199">
         <v>0.98898900000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ199">
+        <v>0.99253093999999997</v>
+      </c>
+      <c r="AR199">
+        <v>0.99374099999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98607814000000005</v>
       </c>
@@ -8349,8 +9553,14 @@
       <c r="AK200">
         <v>0.96845899999999996</v>
       </c>
-    </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ200">
+        <v>0.99055104999999999</v>
+      </c>
+      <c r="AR200">
+        <v>0.98898900000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98608105999999995</v>
       </c>
@@ -8387,8 +9597,14 @@
       <c r="AK201">
         <v>0.95224299999999995</v>
       </c>
-    </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ201">
+        <v>0.98911123999999995</v>
+      </c>
+      <c r="AR201">
+        <v>0.96845899999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98535790000000001</v>
       </c>
@@ -8425,8 +9641,14 @@
       <c r="AK202">
         <v>0.97356500000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ202">
+        <v>0.98243999999999998</v>
+      </c>
+      <c r="AR202">
+        <v>0.95224299999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98483220000000005</v>
       </c>
@@ -8463,8 +9685,14 @@
       <c r="AK203">
         <v>0.97162000000000004</v>
       </c>
-    </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ203">
+        <v>0.97435079999999996</v>
+      </c>
+      <c r="AR203">
+        <v>0.97356500000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98502339999999999</v>
       </c>
@@ -8501,8 +9729,14 @@
       <c r="AK204">
         <v>0.99505699999999997</v>
       </c>
-    </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ204">
+        <v>0.96983427</v>
+      </c>
+      <c r="AR204">
+        <v>0.97162000000000004</v>
+      </c>
+    </row>
+    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98543809999999998</v>
       </c>
@@ -8539,8 +9773,14 @@
       <c r="AK205">
         <v>0.99340200000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ205">
+        <v>0.96891380000000005</v>
+      </c>
+      <c r="AR205">
+        <v>0.99505699999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98574779999999995</v>
       </c>
@@ -8577,8 +9817,14 @@
       <c r="AK206">
         <v>0.99900999999999995</v>
       </c>
-    </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ206">
+        <v>0.96900743</v>
+      </c>
+      <c r="AR206">
+        <v>0.99340200000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98582709999999996</v>
       </c>
@@ -8615,8 +9861,14 @@
       <c r="AK207">
         <v>0.99718499999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ207">
+        <v>0.97182745000000004</v>
+      </c>
+      <c r="AR207">
+        <v>0.99900999999999995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98575102999999997</v>
       </c>
@@ -8653,8 +9905,14 @@
       <c r="AK208">
         <v>0.99898900000000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ208">
+        <v>0.97355455000000002</v>
+      </c>
+      <c r="AR208">
+        <v>0.99718499999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98565930000000002</v>
       </c>
@@ -8691,8 +9949,14 @@
       <c r="AK209">
         <v>0.99879799999999996</v>
       </c>
-    </row>
-    <row r="210" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ209">
+        <v>0.97439339999999997</v>
+      </c>
+      <c r="AR209">
+        <v>0.99898900000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98564845000000001</v>
       </c>
@@ -8729,8 +9993,14 @@
       <c r="AK210">
         <v>0.99967499999999998</v>
       </c>
-    </row>
-    <row r="211" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ210">
+        <v>0.97295003999999996</v>
+      </c>
+      <c r="AR210">
+        <v>0.99879799999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98571235000000001</v>
       </c>
@@ -8767,8 +10037,14 @@
       <c r="AK211">
         <v>0.992815</v>
       </c>
-    </row>
-    <row r="212" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ211">
+        <v>0.97506714000000005</v>
+      </c>
+      <c r="AR211">
+        <v>0.99967499999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98587716000000003</v>
       </c>
@@ -8805,8 +10081,14 @@
       <c r="AK212">
         <v>1.0085299999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ212">
+        <v>0.97775434999999999</v>
+      </c>
+      <c r="AR212">
+        <v>0.992815</v>
+      </c>
+    </row>
+    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98601127</v>
       </c>
@@ -8843,8 +10125,14 @@
       <c r="AK213">
         <v>0.992178</v>
       </c>
-    </row>
-    <row r="214" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ213">
+        <v>0.97678330000000002</v>
+      </c>
+      <c r="AR213">
+        <v>1.0085299999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98605670000000001</v>
       </c>
@@ -8881,8 +10169,14 @@
       <c r="AK214">
         <v>0.97104000000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ214">
+        <v>0.97749304999999997</v>
+      </c>
+      <c r="AR214">
+        <v>0.992178</v>
+      </c>
+    </row>
+    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98566529999999997</v>
       </c>
@@ -8919,8 +10213,14 @@
       <c r="AK215">
         <v>1.0007900000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ215">
+        <v>0.97626449999999998</v>
+      </c>
+      <c r="AR215">
+        <v>0.97104000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98518830000000002</v>
       </c>
@@ -8957,8 +10257,14 @@
       <c r="AK216">
         <v>0.99045300000000003</v>
       </c>
-    </row>
-    <row r="217" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ216">
+        <v>0.96992250000000002</v>
+      </c>
+      <c r="AR216">
+        <v>1.0007900000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.98497619999999997</v>
       </c>
@@ -8995,8 +10301,14 @@
       <c r="AK217">
         <v>0.98092000000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ217">
+        <v>0.96813225999999997</v>
+      </c>
+      <c r="AR217">
+        <v>0.99045300000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.98432993999999996</v>
       </c>
@@ -9033,8 +10345,14 @@
       <c r="AK218">
         <v>0.96962599999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ218">
+        <v>0.96821049999999997</v>
+      </c>
+      <c r="AR218">
+        <v>0.98092000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.98297506999999995</v>
       </c>
@@ -9071,8 +10389,14 @@
       <c r="AK219">
         <v>0.97288600000000003</v>
       </c>
-    </row>
-    <row r="220" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ219">
+        <v>0.96513753999999996</v>
+      </c>
+      <c r="AR219">
+        <v>0.96962599999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.98185619999999996</v>
       </c>
@@ -9109,8 +10433,14 @@
       <c r="AK220">
         <v>0.94469700000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ220">
+        <v>0.95926350000000005</v>
+      </c>
+      <c r="AR220">
+        <v>0.97288600000000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97993699999999995</v>
       </c>
@@ -9147,8 +10477,14 @@
       <c r="AK221">
         <v>0.95146500000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ221">
+        <v>0.95876276000000005</v>
+      </c>
+      <c r="AR221">
+        <v>0.94469700000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.97773109999999996</v>
       </c>
@@ -9185,8 +10521,14 @@
       <c r="AK222">
         <v>0.96664899999999998</v>
       </c>
-    </row>
-    <row r="223" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ222">
+        <v>0.95297229999999999</v>
+      </c>
+      <c r="AR222">
+        <v>0.95146500000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97719294000000001</v>
       </c>
@@ -9223,8 +10565,14 @@
       <c r="AK223">
         <v>0.98762399999999995</v>
       </c>
-    </row>
-    <row r="224" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ223">
+        <v>0.94952259999999999</v>
+      </c>
+      <c r="AR223">
+        <v>0.96664899999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97773339999999997</v>
       </c>
@@ -9261,8 +10609,14 @@
       <c r="AK224">
         <v>0.96557400000000004</v>
       </c>
-    </row>
-    <row r="225" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ224">
+        <v>0.95041960000000003</v>
+      </c>
+      <c r="AR224">
+        <v>0.98762399999999995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.97787120000000005</v>
       </c>
@@ -9299,8 +10653,14 @@
       <c r="AK225">
         <v>0.93987399999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ225">
+        <v>0.95391950000000003</v>
+      </c>
+      <c r="AR225">
+        <v>0.96557400000000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.9758656</v>
       </c>
@@ -9337,8 +10697,14 @@
       <c r="AK226">
         <v>0.95090699999999995</v>
       </c>
-    </row>
-    <row r="227" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ226">
+        <v>0.95377679999999998</v>
+      </c>
+      <c r="AR226">
+        <v>0.93987399999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97317940000000003</v>
       </c>
@@ -9375,8 +10741,14 @@
       <c r="AK227">
         <v>0.96350899999999995</v>
       </c>
-    </row>
-    <row r="228" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ227">
+        <v>0.94752740000000002</v>
+      </c>
+      <c r="AR227">
+        <v>0.95090699999999995</v>
+      </c>
+    </row>
+    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97173726999999999</v>
       </c>
@@ -9413,8 +10785,14 @@
       <c r="AK228">
         <v>0.98141500000000004</v>
       </c>
-    </row>
-    <row r="229" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ228">
+        <v>0.94797949999999997</v>
+      </c>
+      <c r="AR228">
+        <v>0.96350899999999995</v>
+      </c>
+    </row>
+    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.9718755</v>
       </c>
@@ -9451,8 +10829,14 @@
       <c r="AK229">
         <v>0.97908099999999998</v>
       </c>
-    </row>
-    <row r="230" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ229">
+        <v>0.95034410000000002</v>
+      </c>
+      <c r="AR229">
+        <v>0.98141500000000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97275659999999997</v>
       </c>
@@ -9489,8 +10873,14 @@
       <c r="AK230">
         <v>0.97590600000000005</v>
       </c>
-    </row>
-    <row r="231" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ230">
+        <v>0.95488523999999997</v>
+      </c>
+      <c r="AR230">
+        <v>0.97908099999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97297889999999998</v>
       </c>
@@ -9527,8 +10917,14 @@
       <c r="AK231">
         <v>0.99136500000000005</v>
       </c>
-    </row>
-    <row r="232" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ231">
+        <v>0.96252819999999994</v>
+      </c>
+      <c r="AR231">
+        <v>0.97590600000000005</v>
+      </c>
+    </row>
+    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.97284649999999995</v>
       </c>
@@ -9565,8 +10961,14 @@
       <c r="AK232">
         <v>0.98075699999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ232">
+        <v>0.96642799999999995</v>
+      </c>
+      <c r="AR232">
+        <v>0.99136500000000005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97313136</v>
       </c>
@@ -9603,8 +11005,14 @@
       <c r="AK233">
         <v>0.96702399999999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ233">
+        <v>0.9703756</v>
+      </c>
+      <c r="AR233">
+        <v>0.98075699999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.97397869999999998</v>
       </c>
@@ -9641,8 +11049,14 @@
       <c r="AK234">
         <v>0.94490300000000005</v>
       </c>
-    </row>
-    <row r="235" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ234">
+        <v>0.97364580000000001</v>
+      </c>
+      <c r="AR234">
+        <v>0.96702399999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.97337216000000004</v>
       </c>
@@ -9679,8 +11093,14 @@
       <c r="AK235">
         <v>0.94776700000000003</v>
       </c>
-    </row>
-    <row r="236" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ235">
+        <v>0.97406596000000001</v>
+      </c>
+      <c r="AR235">
+        <v>0.94490300000000005</v>
+      </c>
+    </row>
+    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.9720879</v>
       </c>
@@ -9717,8 +11137,14 @@
       <c r="AK236">
         <v>0.92906100000000003</v>
       </c>
-    </row>
-    <row r="237" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ236">
+        <v>0.96585869999999996</v>
+      </c>
+      <c r="AR236">
+        <v>0.94776700000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.97014034000000005</v>
       </c>
@@ -9755,8 +11181,14 @@
       <c r="AK237">
         <v>0.89570300000000003</v>
       </c>
-    </row>
-    <row r="238" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ237">
+        <v>0.96333049999999998</v>
+      </c>
+      <c r="AR237">
+        <v>0.92906100000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.96636515999999995</v>
       </c>
@@ -9793,8 +11225,14 @@
       <c r="AK238">
         <v>0.88080999999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ238">
+        <v>0.95890960000000003</v>
+      </c>
+      <c r="AR238">
+        <v>0.89570300000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.96120554000000002</v>
       </c>
@@ -9831,8 +11269,14 @@
       <c r="AK239">
         <v>0.881969</v>
       </c>
-    </row>
-    <row r="240" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ239">
+        <v>0.95129540000000001</v>
+      </c>
+      <c r="AR239">
+        <v>0.88080999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.95493567000000001</v>
       </c>
@@ -9869,8 +11313,14 @@
       <c r="AK240">
         <v>0.89258400000000004</v>
       </c>
-    </row>
-    <row r="241" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ240">
+        <v>0.94545025000000005</v>
+      </c>
+      <c r="AR240">
+        <v>0.881969</v>
+      </c>
+    </row>
+    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.94963056000000001</v>
       </c>
@@ -9907,8 +11357,14 @@
       <c r="AK241">
         <v>0.85835600000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ241">
+        <v>0.94208550000000002</v>
+      </c>
+      <c r="AR241">
+        <v>0.89258400000000004</v>
+      </c>
+    </row>
+    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.94228979999999996</v>
       </c>
@@ -9945,8 +11401,14 @@
       <c r="AK242">
         <v>0.88067499999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ242">
+        <v>0.9405637</v>
+      </c>
+      <c r="AR242">
+        <v>0.85835600000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.93428235999999998</v>
       </c>
@@ -9983,8 +11445,14 @@
       <c r="AK243">
         <v>0.85131999999999997</v>
       </c>
-    </row>
-    <row r="244" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ243">
+        <v>0.93348540000000002</v>
+      </c>
+      <c r="AR243">
+        <v>0.88067499999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.92244440000000005</v>
       </c>
@@ -10021,8 +11489,14 @@
       <c r="AK244">
         <v>0.85202699999999998</v>
       </c>
-    </row>
-    <row r="245" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ244">
+        <v>0.92822649999999995</v>
+      </c>
+      <c r="AR244">
+        <v>0.85131999999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.90962129999999997</v>
       </c>
@@ -10059,8 +11533,14 @@
       <c r="AK245">
         <v>0.83646900000000002</v>
       </c>
-    </row>
-    <row r="246" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ245">
+        <v>0.92045580000000005</v>
+      </c>
+      <c r="AR245">
+        <v>0.85202699999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.89433295000000002</v>
       </c>
@@ -10097,8 +11577,14 @@
       <c r="AK246">
         <v>0.84330000000000005</v>
       </c>
-    </row>
-    <row r="247" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ246">
+        <v>0.91653450000000003</v>
+      </c>
+      <c r="AR246">
+        <v>0.83646900000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87948110000000002</v>
       </c>
@@ -10135,8 +11621,14 @@
       <c r="AK247">
         <v>0.87011000000000005</v>
       </c>
-    </row>
-    <row r="248" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ247">
+        <v>0.90772885000000003</v>
+      </c>
+      <c r="AR247">
+        <v>0.84330000000000005</v>
+      </c>
+    </row>
+    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.86989700000000003</v>
       </c>
@@ -10173,8 +11665,14 @@
       <c r="AK248">
         <v>0.84902100000000003</v>
       </c>
-    </row>
-    <row r="249" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ248">
+        <v>0.90456899999999996</v>
+      </c>
+      <c r="AR248">
+        <v>0.87011000000000005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.8644366</v>
       </c>
@@ -10211,8 +11709,14 @@
       <c r="AK249">
         <v>0.86779700000000004</v>
       </c>
-    </row>
-    <row r="250" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ249">
+        <v>0.90541150000000004</v>
+      </c>
+      <c r="AR249">
+        <v>0.84902100000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.86798613999999996</v>
       </c>
@@ -10249,8 +11753,14 @@
       <c r="AK250">
         <v>0.85317200000000004</v>
       </c>
-    </row>
-    <row r="251" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ250">
+        <v>0.90669686000000005</v>
+      </c>
+      <c r="AR250">
+        <v>0.86779700000000004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.87286010000000003</v>
       </c>
@@ -10287,8 +11797,14 @@
       <c r="AK251">
         <v>0.86053400000000002</v>
       </c>
-    </row>
-    <row r="252" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ251">
+        <v>0.90953636000000004</v>
+      </c>
+      <c r="AR251">
+        <v>0.85317200000000004</v>
+      </c>
+    </row>
+    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.87586359999999996</v>
       </c>
@@ -10325,8 +11841,14 @@
       <c r="AK252">
         <v>0.89368800000000004</v>
       </c>
-    </row>
-    <row r="253" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ252">
+        <v>0.90941994999999998</v>
+      </c>
+      <c r="AR252">
+        <v>0.86053400000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.88215639999999995</v>
       </c>
@@ -10363,8 +11885,14 @@
       <c r="AK253">
         <v>0.89307899999999996</v>
       </c>
-    </row>
-    <row r="254" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ253">
+        <v>0.91037780000000001</v>
+      </c>
+      <c r="AR253">
+        <v>0.89368800000000004</v>
+      </c>
+    </row>
+    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.89292145000000001</v>
       </c>
@@ -10401,8 +11929,14 @@
       <c r="AK254">
         <v>0.86737299999999995</v>
       </c>
-    </row>
-    <row r="255" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ254">
+        <v>0.91380810000000001</v>
+      </c>
+      <c r="AR254">
+        <v>0.89307899999999996</v>
+      </c>
+    </row>
+    <row r="255" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.89778703000000004</v>
       </c>
@@ -10439,8 +11973,14 @@
       <c r="AK255">
         <v>0.87409099999999995</v>
       </c>
-    </row>
-    <row r="256" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ255">
+        <v>0.92074389999999995</v>
+      </c>
+      <c r="AR255">
+        <v>0.86737299999999995</v>
+      </c>
+    </row>
+    <row r="256" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89979105999999998</v>
       </c>
@@ -10477,8 +12017,14 @@
       <c r="AK256">
         <v>0.87615600000000005</v>
       </c>
-    </row>
-    <row r="257" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ256">
+        <v>0.92121569999999997</v>
+      </c>
+      <c r="AR256">
+        <v>0.87409099999999995</v>
+      </c>
+    </row>
+    <row r="257" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.90518330000000002</v>
       </c>
@@ -10515,8 +12061,14 @@
       <c r="AK257">
         <v>0.85112200000000005</v>
       </c>
-    </row>
-    <row r="258" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ257">
+        <v>0.91971899999999995</v>
+      </c>
+      <c r="AR257">
+        <v>0.87615600000000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.9069429</v>
       </c>
@@ -10553,8 +12105,14 @@
       <c r="AK258">
         <v>0.83230300000000002</v>
       </c>
-    </row>
-    <row r="259" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ258">
+        <v>0.92206745999999995</v>
+      </c>
+      <c r="AR258">
+        <v>0.85112200000000005</v>
+      </c>
+    </row>
+    <row r="259" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.90196759999999998</v>
       </c>
@@ -10591,8 +12149,14 @@
       <c r="AK259">
         <v>0.83143299999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ259">
+        <v>0.91992750000000001</v>
+      </c>
+      <c r="AR259">
+        <v>0.83230300000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.89463972999999997</v>
       </c>
@@ -10629,8 +12193,14 @@
       <c r="AK260">
         <v>0.83118599999999998</v>
       </c>
-    </row>
-    <row r="261" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ260">
+        <v>0.91237813000000001</v>
+      </c>
+      <c r="AR260">
+        <v>0.83143299999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.89197749999999998</v>
       </c>
@@ -10667,8 +12237,14 @@
       <c r="AK261">
         <v>0.81507600000000002</v>
       </c>
-    </row>
-    <row r="262" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ261">
+        <v>0.90762849999999995</v>
+      </c>
+      <c r="AR261">
+        <v>0.83118599999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.88822409999999996</v>
       </c>
@@ -10705,8 +12281,14 @@
       <c r="AK262">
         <v>0.84032300000000004</v>
       </c>
-    </row>
-    <row r="263" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ262">
+        <v>0.90698749999999995</v>
+      </c>
+      <c r="AR262">
+        <v>0.81507600000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.89092505</v>
       </c>
@@ -10743,8 +12325,14 @@
       <c r="AK263">
         <v>0.86210399999999998</v>
       </c>
-    </row>
-    <row r="264" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ263">
+        <v>0.90242560000000005</v>
+      </c>
+      <c r="AR263">
+        <v>0.84032300000000004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.90219819999999995</v>
       </c>
@@ -10781,8 +12369,14 @@
       <c r="AK264">
         <v>0.88419700000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ264">
+        <v>0.90302914000000001</v>
+      </c>
+      <c r="AR264">
+        <v>0.86210399999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.91393124999999997</v>
       </c>
@@ -10819,8 +12413,14 @@
       <c r="AK265">
         <v>0.87783900000000004</v>
       </c>
-    </row>
-    <row r="266" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ265">
+        <v>0.90821450000000004</v>
+      </c>
+      <c r="AR265">
+        <v>0.88419700000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.92070680000000005</v>
       </c>
@@ -10857,8 +12457,14 @@
       <c r="AK266">
         <v>0.87780400000000003</v>
       </c>
-    </row>
-    <row r="267" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ266">
+        <v>0.91423659999999995</v>
+      </c>
+      <c r="AR266">
+        <v>0.87783900000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.92520279999999999</v>
       </c>
@@ -10895,8 +12501,14 @@
       <c r="AK267">
         <v>0.89740699999999995</v>
       </c>
-    </row>
-    <row r="268" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ267">
+        <v>0.92052610000000001</v>
+      </c>
+      <c r="AR267">
+        <v>0.87780400000000003</v>
+      </c>
+    </row>
+    <row r="268" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.93181879999999995</v>
       </c>
@@ -10933,8 +12545,14 @@
       <c r="AK268">
         <v>0.88027200000000005</v>
       </c>
-    </row>
-    <row r="269" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ268">
+        <v>0.92579204000000004</v>
+      </c>
+      <c r="AR268">
+        <v>0.89740699999999995</v>
+      </c>
+    </row>
+    <row r="269" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.93664895999999997</v>
       </c>
@@ -10971,8 +12589,14 @@
       <c r="AK269">
         <v>0.88630399999999998</v>
       </c>
-    </row>
-    <row r="270" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ269">
+        <v>0.93110320000000002</v>
+      </c>
+      <c r="AR269">
+        <v>0.88027200000000005</v>
+      </c>
+    </row>
+    <row r="270" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.94140214</v>
       </c>
@@ -11009,8 +12633,14 @@
       <c r="AK270">
         <v>0.90179200000000004</v>
       </c>
-    </row>
-    <row r="271" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ270">
+        <v>0.93368090000000004</v>
+      </c>
+      <c r="AR270">
+        <v>0.88630399999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.94735837000000001</v>
       </c>
@@ -11047,8 +12677,14 @@
       <c r="AK271">
         <v>0.89921099999999998</v>
       </c>
-    </row>
-    <row r="272" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ271">
+        <v>0.93377036000000002</v>
+      </c>
+      <c r="AR271">
+        <v>0.90179200000000004</v>
+      </c>
+    </row>
+    <row r="272" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.95195174000000005</v>
       </c>
@@ -11085,8 +12721,14 @@
       <c r="AK272">
         <v>0.88802300000000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ272">
+        <v>0.93859899999999996</v>
+      </c>
+      <c r="AR272">
+        <v>0.89921099999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.95576954000000003</v>
       </c>
@@ -11123,8 +12765,14 @@
       <c r="AK273">
         <v>0.92063899999999999</v>
       </c>
-    </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ273">
+        <v>0.94395560000000001</v>
+      </c>
+      <c r="AR273">
+        <v>0.88802300000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96027689999999999</v>
       </c>
@@ -11161,8 +12809,14 @@
       <c r="AK274">
         <v>0.92636700000000005</v>
       </c>
-    </row>
-    <row r="275" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ274">
+        <v>0.94608449999999999</v>
+      </c>
+      <c r="AR274">
+        <v>0.92063899999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.96422905000000003</v>
       </c>
@@ -11199,8 +12853,14 @@
       <c r="AK275">
         <v>0.93128200000000005</v>
       </c>
-    </row>
-    <row r="276" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ275">
+        <v>0.94838803999999999</v>
+      </c>
+      <c r="AR275">
+        <v>0.92636700000000005</v>
+      </c>
+    </row>
+    <row r="276" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.96671706000000002</v>
       </c>
@@ -11237,8 +12897,14 @@
       <c r="AK276">
         <v>0.93594200000000005</v>
       </c>
-    </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ276">
+        <v>0.95437550000000004</v>
+      </c>
+      <c r="AR276">
+        <v>0.93128200000000005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.96816409999999997</v>
       </c>
@@ -11275,8 +12941,14 @@
       <c r="AK277">
         <v>0.93719399999999997</v>
       </c>
-    </row>
-    <row r="278" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ277">
+        <v>0.95900269999999999</v>
+      </c>
+      <c r="AR277">
+        <v>0.93594200000000005</v>
+      </c>
+    </row>
+    <row r="278" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.96929679999999996</v>
       </c>
@@ -11313,8 +12985,14 @@
       <c r="AK278">
         <v>0.92128200000000005</v>
       </c>
-    </row>
-    <row r="279" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ278">
+        <v>0.96087009999999995</v>
+      </c>
+      <c r="AR278">
+        <v>0.93719399999999997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.9700704</v>
       </c>
@@ -11351,8 +13029,14 @@
       <c r="AK279">
         <v>0.92835400000000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ279">
+        <v>0.96340099999999995</v>
+      </c>
+      <c r="AR279">
+        <v>0.92128200000000005</v>
+      </c>
+    </row>
+    <row r="280" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97097354999999996</v>
       </c>
@@ -11389,8 +13073,14 @@
       <c r="AK280">
         <v>0.92857299999999998</v>
       </c>
-    </row>
-    <row r="281" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ280">
+        <v>0.96298397000000002</v>
+      </c>
+      <c r="AR280">
+        <v>0.92835400000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97236250000000002</v>
       </c>
@@ -11427,8 +13117,14 @@
       <c r="AK281">
         <v>0.95164199999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ281">
+        <v>0.9640476</v>
+      </c>
+      <c r="AR281">
+        <v>0.92857299999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97372190000000003</v>
       </c>
@@ -11465,8 +13161,14 @@
       <c r="AK282">
         <v>0.94983899999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ282">
+        <v>0.96295315000000004</v>
+      </c>
+      <c r="AR282">
+        <v>0.95164199999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.97404086999999995</v>
       </c>
@@ -11503,8 +13205,14 @@
       <c r="AK283">
         <v>0.94721500000000003</v>
       </c>
-    </row>
-    <row r="284" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ283">
+        <v>0.96528539999999996</v>
+      </c>
+      <c r="AR283">
+        <v>0.94983899999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97437090000000004</v>
       </c>
@@ -11541,8 +13249,14 @@
       <c r="AK284">
         <v>0.95519900000000002</v>
       </c>
-    </row>
-    <row r="285" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ284">
+        <v>0.96924120000000002</v>
+      </c>
+      <c r="AR284">
+        <v>0.94721500000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97535263999999999</v>
       </c>
@@ -11579,8 +13293,14 @@
       <c r="AK285">
         <v>0.96465400000000001</v>
       </c>
-    </row>
-    <row r="286" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ285">
+        <v>0.97166246000000001</v>
+      </c>
+      <c r="AR285">
+        <v>0.95519900000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97585449999999996</v>
       </c>
@@ -11617,8 +13337,14 @@
       <c r="AK286">
         <v>0.97101199999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ286">
+        <v>0.97352886000000005</v>
+      </c>
+      <c r="AR286">
+        <v>0.96465400000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.9758175</v>
       </c>
@@ -11655,8 +13381,14 @@
       <c r="AK287">
         <v>0.972441</v>
       </c>
-    </row>
-    <row r="288" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ287">
+        <v>0.97414153999999997</v>
+      </c>
+      <c r="AR287">
+        <v>0.97101199999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97472689999999995</v>
       </c>
@@ -11693,8 +13425,14 @@
       <c r="AK288">
         <v>0.97116800000000003</v>
       </c>
-    </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ288">
+        <v>0.97490376000000001</v>
+      </c>
+      <c r="AR288">
+        <v>0.972441</v>
+      </c>
+    </row>
+    <row r="289" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97435210000000005</v>
       </c>
@@ -11731,8 +13469,14 @@
       <c r="AK289">
         <v>0.96191099999999996</v>
       </c>
-    </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ289">
+        <v>0.97720426000000005</v>
+      </c>
+      <c r="AR289">
+        <v>0.97116800000000003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97502480000000002</v>
       </c>
@@ -11769,8 +13513,14 @@
       <c r="AK290">
         <v>0.96136600000000005</v>
       </c>
-    </row>
-    <row r="291" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ290">
+        <v>0.97786145999999996</v>
+      </c>
+      <c r="AR290">
+        <v>0.96191099999999996</v>
+      </c>
+    </row>
+    <row r="291" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97573244999999997</v>
       </c>
@@ -11807,8 +13557,14 @@
       <c r="AK291">
         <v>0.96215099999999998</v>
       </c>
-    </row>
-    <row r="292" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ291">
+        <v>0.97713660000000002</v>
+      </c>
+      <c r="AR291">
+        <v>0.96136600000000005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97630053999999999</v>
       </c>
@@ -11845,8 +13601,14 @@
       <c r="AK292">
         <v>0.97485200000000005</v>
       </c>
-    </row>
-    <row r="293" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ292">
+        <v>0.97612893999999994</v>
+      </c>
+      <c r="AR292">
+        <v>0.96215099999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97684835999999997</v>
       </c>
@@ -11883,8 +13645,14 @@
       <c r="AK293">
         <v>0.98117500000000002</v>
       </c>
-    </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ293">
+        <v>0.97662519999999997</v>
+      </c>
+      <c r="AR293">
+        <v>0.97485200000000005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97703636000000005</v>
       </c>
@@ -11921,8 +13689,14 @@
       <c r="AK294">
         <v>0.97819699999999998</v>
       </c>
-    </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ294">
+        <v>0.97591150000000004</v>
+      </c>
+      <c r="AR294">
+        <v>0.98117500000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97686580000000001</v>
       </c>
@@ -11959,8 +13733,14 @@
       <c r="AK295">
         <v>0.98741900000000005</v>
       </c>
-    </row>
-    <row r="296" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ295">
+        <v>0.97759379999999996</v>
+      </c>
+      <c r="AR295">
+        <v>0.97819699999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97698795999999999</v>
       </c>
@@ -11997,8 +13777,14 @@
       <c r="AK296">
         <v>0.98271600000000003</v>
       </c>
-    </row>
-    <row r="297" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ296">
+        <v>0.97831480000000004</v>
+      </c>
+      <c r="AR296">
+        <v>0.98741900000000005</v>
+      </c>
+    </row>
+    <row r="297" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.97700050000000005</v>
       </c>
@@ -12035,8 +13821,14 @@
       <c r="AK297">
         <v>0.967893</v>
       </c>
-    </row>
-    <row r="298" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ297">
+        <v>0.97673743999999996</v>
+      </c>
+      <c r="AR297">
+        <v>0.98271600000000003</v>
+      </c>
+    </row>
+    <row r="298" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.97664399999999996</v>
       </c>
@@ -12073,8 +13865,14 @@
       <c r="AK298">
         <v>0.98309100000000005</v>
       </c>
-    </row>
-    <row r="299" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ298">
+        <v>0.97700520000000002</v>
+      </c>
+      <c r="AR298">
+        <v>0.967893</v>
+      </c>
+    </row>
+    <row r="299" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.97655619999999999</v>
       </c>
@@ -12111,8 +13909,14 @@
       <c r="AK299">
         <v>0.965588</v>
       </c>
-    </row>
-    <row r="300" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ299">
+        <v>0.97195699999999996</v>
+      </c>
+      <c r="AR299">
+        <v>0.98309100000000005</v>
+      </c>
+    </row>
+    <row r="300" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.97605410000000004</v>
       </c>
@@ -12149,8 +13953,14 @@
       <c r="AK300">
         <v>0.96961200000000003</v>
       </c>
-    </row>
-    <row r="301" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ300">
+        <v>0.96975129999999998</v>
+      </c>
+      <c r="AR300">
+        <v>0.965588</v>
+      </c>
+    </row>
+    <row r="301" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.97562736000000005</v>
       </c>
@@ -12187,8 +13997,14 @@
       <c r="AK301">
         <v>0.96564499999999998</v>
       </c>
-    </row>
-    <row r="302" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ301">
+        <v>0.96394999999999997</v>
+      </c>
+      <c r="AR301">
+        <v>0.96961200000000003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.97557896</v>
       </c>
@@ -12225,8 +14041,14 @@
       <c r="AK302">
         <v>0.97959700000000005</v>
       </c>
-    </row>
-    <row r="303" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ302">
+        <v>0.96210370000000001</v>
+      </c>
+      <c r="AR302">
+        <v>0.96564499999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.97580385000000003</v>
       </c>
@@ -12263,8 +14085,14 @@
       <c r="AK303">
         <v>0.99423600000000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ303">
+        <v>0.96021365999999997</v>
+      </c>
+      <c r="AR303">
+        <v>0.97959700000000005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.97629889999999997</v>
       </c>
@@ -12301,8 +14129,14 @@
       <c r="AK304">
         <v>0.99449100000000001</v>
       </c>
-    </row>
-    <row r="305" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ304">
+        <v>0.95950190000000002</v>
+      </c>
+      <c r="AR304">
+        <v>0.99423600000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.97639699999999996</v>
       </c>
@@ -12339,8 +14173,14 @@
       <c r="AK305">
         <v>0.99304099999999995</v>
       </c>
-    </row>
-    <row r="306" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ305">
+        <v>0.96281004000000003</v>
+      </c>
+      <c r="AR305">
+        <v>0.99449100000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.97631769999999996</v>
       </c>
@@ -12377,8 +14217,14 @@
       <c r="AK306">
         <v>1.00267</v>
       </c>
-    </row>
-    <row r="307" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ306">
+        <v>0.96635026000000002</v>
+      </c>
+      <c r="AR306">
+        <v>0.99304099999999995</v>
+      </c>
+    </row>
+    <row r="307" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.97649870000000005</v>
       </c>
@@ -12415,8 +14261,14 @@
       <c r="AK307">
         <v>1.0072300000000001</v>
       </c>
-    </row>
-    <row r="308" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ307">
+        <v>0.96771110000000005</v>
+      </c>
+      <c r="AR307">
+        <v>1.00267</v>
+      </c>
+    </row>
+    <row r="308" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.97667420000000005</v>
       </c>
@@ -12453,8 +14305,14 @@
       <c r="AK308">
         <v>1.00837</v>
       </c>
-    </row>
-    <row r="309" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ308">
+        <v>0.96821230000000003</v>
+      </c>
+      <c r="AR308">
+        <v>1.0072300000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.97665659999999999</v>
       </c>
@@ -12491,8 +14349,14 @@
       <c r="AK309">
         <v>1.00064</v>
       </c>
-    </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ309">
+        <v>0.96926296000000001</v>
+      </c>
+      <c r="AR309">
+        <v>1.00837</v>
+      </c>
+    </row>
+    <row r="310" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.97653455</v>
       </c>
@@ -12529,8 +14393,14 @@
       <c r="AK310">
         <v>1.00071</v>
       </c>
-    </row>
-    <row r="311" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ310">
+        <v>0.96964103000000001</v>
+      </c>
+      <c r="AR310">
+        <v>1.00064</v>
+      </c>
+    </row>
+    <row r="311" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.97648729999999995</v>
       </c>
@@ -12567,8 +14437,14 @@
       <c r="AK311">
         <v>0.99803399999999998</v>
       </c>
-    </row>
-    <row r="312" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ311">
+        <v>0.96905553</v>
+      </c>
+      <c r="AR311">
+        <v>1.00071</v>
+      </c>
+    </row>
+    <row r="312" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.97666350000000002</v>
       </c>
@@ -12605,8 +14481,14 @@
       <c r="AK312">
         <v>1.0007999999999999</v>
       </c>
-    </row>
-    <row r="313" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ312">
+        <v>0.96866726999999997</v>
+      </c>
+      <c r="AR312">
+        <v>0.99803399999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.97705774999999995</v>
       </c>
@@ -12643,8 +14525,14 @@
       <c r="AK313">
         <v>1.0032399999999999</v>
       </c>
-    </row>
-    <row r="314" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ313">
+        <v>0.96901435000000002</v>
+      </c>
+      <c r="AR313">
+        <v>1.0007999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.97749949999999997</v>
       </c>
@@ -12681,8 +14569,14 @@
       <c r="AK314">
         <v>0.98956200000000005</v>
       </c>
-    </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ314">
+        <v>0.97044003000000001</v>
+      </c>
+      <c r="AR314">
+        <v>1.0032399999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.97729239999999995</v>
       </c>
@@ -12719,8 +14613,14 @@
       <c r="AK315">
         <v>0.98212900000000003</v>
       </c>
-    </row>
-    <row r="316" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ315">
+        <v>0.97118859999999996</v>
+      </c>
+      <c r="AR315">
+        <v>0.98956200000000005</v>
+      </c>
+    </row>
+    <row r="316" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.97550930000000002</v>
       </c>
@@ -12757,8 +14657,14 @@
       <c r="AK316">
         <v>0.99353599999999997</v>
       </c>
-    </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ316">
+        <v>0.96826190000000001</v>
+      </c>
+      <c r="AR316">
+        <v>0.98212900000000003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.97413653</v>
       </c>
@@ -12795,8 +14701,14 @@
       <c r="AK317">
         <v>0.98076399999999997</v>
       </c>
-    </row>
-    <row r="318" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ317">
+        <v>0.96227790000000002</v>
+      </c>
+      <c r="AR317">
+        <v>0.99353599999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.97274530000000003</v>
       </c>
@@ -12833,8 +14745,14 @@
       <c r="AK318">
         <v>0.97210099999999999</v>
       </c>
-    </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ318">
+        <v>0.9614568</v>
+      </c>
+      <c r="AR318">
+        <v>0.98076399999999997</v>
+      </c>
+    </row>
+    <row r="319" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.97043495999999996</v>
       </c>
@@ -12871,8 +14789,14 @@
       <c r="AK319">
         <v>0.97175500000000004</v>
       </c>
-    </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ319">
+        <v>0.95806250000000004</v>
+      </c>
+      <c r="AR319">
+        <v>0.97210099999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.96884899999999996</v>
       </c>
@@ -12909,8 +14833,14 @@
       <c r="AK320">
         <v>0.97635899999999998</v>
       </c>
-    </row>
-    <row r="321" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ320">
+        <v>0.95521873000000002</v>
+      </c>
+      <c r="AR320">
+        <v>0.97175500000000004</v>
+      </c>
+    </row>
+    <row r="321" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.96835726</v>
       </c>
@@ -12947,8 +14877,14 @@
       <c r="AK321">
         <v>0.97745499999999996</v>
       </c>
-    </row>
-    <row r="322" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ321">
+        <v>0.95429529999999996</v>
+      </c>
+      <c r="AR321">
+        <v>0.97635899999999998</v>
+      </c>
+    </row>
+    <row r="322" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.96878850000000005</v>
       </c>
@@ -12985,8 +14921,14 @@
       <c r="AK322">
         <v>0.99563000000000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ322">
+        <v>0.95406860000000004</v>
+      </c>
+      <c r="AR322">
+        <v>0.97745499999999996</v>
+      </c>
+    </row>
+    <row r="323" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.96974444000000004</v>
       </c>
@@ -13023,8 +14965,14 @@
       <c r="AK323">
         <v>0.98153500000000005</v>
       </c>
-    </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ323">
+        <v>0.95587449999999996</v>
+      </c>
+      <c r="AR323">
+        <v>0.99563000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.96988445999999995</v>
       </c>
@@ -13061,8 +15009,14 @@
       <c r="AK324">
         <v>0.98128800000000005</v>
       </c>
-    </row>
-    <row r="325" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ324">
+        <v>0.95823305999999997</v>
+      </c>
+      <c r="AR324">
+        <v>0.98153500000000005</v>
+      </c>
+    </row>
+    <row r="325" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.96913755000000001</v>
       </c>
@@ -13099,8 +15053,14 @@
       <c r="AK325">
         <v>0.968912</v>
       </c>
-    </row>
-    <row r="326" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ325">
+        <v>0.95896625999999996</v>
+      </c>
+      <c r="AR325">
+        <v>0.98128800000000005</v>
+      </c>
+    </row>
+    <row r="326" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.96801804999999996</v>
       </c>
@@ -13137,8 +15097,14 @@
       <c r="AK326">
         <v>0.98309100000000005</v>
       </c>
-    </row>
-    <row r="327" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ326">
+        <v>0.95823959999999997</v>
+      </c>
+      <c r="AR326">
+        <v>0.968912</v>
+      </c>
+    </row>
+    <row r="327" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.96810819999999997</v>
       </c>
@@ -13175,8 +15141,14 @@
       <c r="AK327">
         <v>0.96933599999999998</v>
       </c>
-    </row>
-    <row r="328" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ327">
+        <v>0.95527636999999999</v>
+      </c>
+      <c r="AR327">
+        <v>0.98309100000000005</v>
+      </c>
+    </row>
+    <row r="328" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.96792023999999999</v>
       </c>
@@ -13213,8 +15185,14 @@
       <c r="AK328">
         <v>0.96963299999999997</v>
       </c>
-    </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ328">
+        <v>0.95546469999999994</v>
+      </c>
+      <c r="AR328">
+        <v>0.96933599999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.96698810000000002</v>
       </c>
@@ -13251,8 +15229,14 @@
       <c r="AK329">
         <v>0.96426599999999996</v>
       </c>
-    </row>
-    <row r="330" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ329">
+        <v>0.95368755000000005</v>
+      </c>
+      <c r="AR329">
+        <v>0.96963299999999997</v>
+      </c>
+    </row>
+    <row r="330" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.96567879999999995</v>
       </c>
@@ -13289,8 +15273,14 @@
       <c r="AK330">
         <v>0.97294999999999998</v>
       </c>
-    </row>
-    <row r="331" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ330">
+        <v>0.95171623999999999</v>
+      </c>
+      <c r="AR330">
+        <v>0.96426599999999996</v>
+      </c>
+    </row>
+    <row r="331" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.96592359999999999</v>
       </c>
@@ -13327,8 +15317,14 @@
       <c r="AK331">
         <v>0.96992299999999998</v>
       </c>
-    </row>
-    <row r="332" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ331">
+        <v>0.94994579999999995</v>
+      </c>
+      <c r="AR331">
+        <v>0.97294999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.96687173999999998</v>
       </c>
@@ -13365,8 +15361,14 @@
       <c r="AK332">
         <v>0.98973900000000004</v>
       </c>
-    </row>
-    <row r="333" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ332">
+        <v>0.95289100000000004</v>
+      </c>
+      <c r="AR332">
+        <v>0.96992299999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.96827202999999995</v>
       </c>
@@ -13403,8 +15405,14 @@
       <c r="AK333">
         <v>0.99997899999999995</v>
       </c>
-    </row>
-    <row r="334" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ333">
+        <v>0.95672190000000001</v>
+      </c>
+      <c r="AR333">
+        <v>0.98973900000000004</v>
+      </c>
+    </row>
+    <row r="334" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.969808</v>
       </c>
@@ -13441,8 +15449,14 @@
       <c r="AK334">
         <v>0.999668</v>
       </c>
-    </row>
-    <row r="335" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ334">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="AR334">
+        <v>0.99997899999999995</v>
+      </c>
+    </row>
+    <row r="335" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.97052349999999998</v>
       </c>
@@ -13479,8 +15493,14 @@
       <c r="AK335">
         <v>1.006</v>
       </c>
-    </row>
-    <row r="336" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ335">
+        <v>0.96699820000000003</v>
+      </c>
+      <c r="AR335">
+        <v>0.999668</v>
+      </c>
+    </row>
+    <row r="336" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.97123139999999997</v>
       </c>
@@ -13517,8 +15537,14 @@
       <c r="AK336">
         <v>1.0045200000000001</v>
       </c>
-    </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ336">
+        <v>0.97196530000000003</v>
+      </c>
+      <c r="AR336">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="337" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.97233550000000002</v>
       </c>
@@ -13555,8 +15581,14 @@
       <c r="AK337">
         <v>1.0062</v>
       </c>
-    </row>
-    <row r="338" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ337">
+        <v>0.97575369999999995</v>
+      </c>
+      <c r="AR337">
+        <v>1.0045200000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.97333395</v>
       </c>
@@ -13593,8 +15625,14 @@
       <c r="AK338">
         <v>1.0103899999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ338">
+        <v>0.97680670000000003</v>
+      </c>
+      <c r="AR338">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="339" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.97426729999999995</v>
       </c>
@@ -13631,8 +15669,14 @@
       <c r="AK339">
         <v>1.0060500000000001</v>
       </c>
-    </row>
-    <row r="340" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ339">
+        <v>0.97822385999999995</v>
+      </c>
+      <c r="AR339">
+        <v>1.0103899999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.97498339999999994</v>
       </c>
@@ -13669,8 +15713,14 @@
       <c r="AK340">
         <v>1.01332</v>
       </c>
-    </row>
-    <row r="341" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ340">
+        <v>0.97982100000000005</v>
+      </c>
+      <c r="AR340">
+        <v>1.0060500000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.97546659999999996</v>
       </c>
@@ -13707,8 +15757,14 @@
       <c r="AK341">
         <v>1.01525</v>
       </c>
-    </row>
-    <row r="342" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ341">
+        <v>0.98101263999999999</v>
+      </c>
+      <c r="AR341">
+        <v>1.01332</v>
+      </c>
+    </row>
+    <row r="342" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.97600319999999996</v>
       </c>
@@ -13745,8 +15801,14 @@
       <c r="AK342">
         <v>1.0201899999999999</v>
       </c>
-    </row>
-    <row r="343" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ342">
+        <v>0.98424610000000001</v>
+      </c>
+      <c r="AR342">
+        <v>1.01525</v>
+      </c>
+    </row>
+    <row r="343" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.97668529999999998</v>
       </c>
@@ -13783,8 +15845,14 @@
       <c r="AK343">
         <v>1.01762</v>
       </c>
-    </row>
-    <row r="344" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ343">
+        <v>0.98791439999999997</v>
+      </c>
+      <c r="AR343">
+        <v>1.0201899999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.97734670000000001</v>
       </c>
@@ -13821,8 +15889,14 @@
       <c r="AK344">
         <v>1.0038899999999999</v>
       </c>
-    </row>
-    <row r="345" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ344">
+        <v>0.99139964999999997</v>
+      </c>
+      <c r="AR344">
+        <v>1.01762</v>
+      </c>
+    </row>
+    <row r="345" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.97774079999999997</v>
       </c>
@@ -13859,8 +15933,14 @@
       <c r="AK345">
         <v>0.99185999999999996</v>
       </c>
-    </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ345">
+        <v>0.99385809999999997</v>
+      </c>
+      <c r="AR345">
+        <v>1.0038899999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.9775104</v>
       </c>
@@ -13897,8 +15977,14 @@
       <c r="AK346">
         <v>0.98921499999999996</v>
       </c>
-    </row>
-    <row r="347" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ346">
+        <v>0.99162315999999995</v>
+      </c>
+      <c r="AR346">
+        <v>0.99185999999999996</v>
+      </c>
+    </row>
+    <row r="347" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.97654885000000002</v>
       </c>
@@ -13935,8 +16021,14 @@
       <c r="AK347">
         <v>0.986514</v>
       </c>
-    </row>
-    <row r="348" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ347">
+        <v>0.98768526000000001</v>
+      </c>
+      <c r="AR347">
+        <v>0.98921499999999996</v>
+      </c>
+    </row>
+    <row r="348" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.97579895999999999</v>
       </c>
@@ -13973,8 +16065,14 @@
       <c r="AK348">
         <v>0.99110399999999998</v>
       </c>
-    </row>
-    <row r="349" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ348">
+        <v>0.98311740000000003</v>
+      </c>
+      <c r="AR348">
+        <v>0.986514</v>
+      </c>
+    </row>
+    <row r="349" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.97529434999999998</v>
       </c>
@@ -14011,8 +16109,14 @@
       <c r="AK349">
         <v>0.98631599999999997</v>
       </c>
-    </row>
-    <row r="350" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ349">
+        <v>0.98113819999999996</v>
+      </c>
+      <c r="AR349">
+        <v>0.99110399999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.97480935000000002</v>
       </c>
@@ -14049,8 +16153,14 @@
       <c r="AK350">
         <v>0.99482300000000001</v>
       </c>
-    </row>
-    <row r="351" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ350">
+        <v>0.97863719999999998</v>
+      </c>
+      <c r="AR350">
+        <v>0.98631599999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.97479737</v>
       </c>
@@ -14087,8 +16197,14 @@
       <c r="AK351">
         <v>0.99881900000000001</v>
       </c>
-    </row>
-    <row r="352" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ351">
+        <v>0.97789632999999998</v>
+      </c>
+      <c r="AR351">
+        <v>0.99482300000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.97511420000000004</v>
       </c>
@@ -14125,8 +16241,14 @@
       <c r="AK352">
         <v>0.99637900000000001</v>
       </c>
-    </row>
-    <row r="353" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ352">
+        <v>0.97880920000000005</v>
+      </c>
+      <c r="AR352">
+        <v>0.99881900000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.97518340000000003</v>
       </c>
@@ -14163,8 +16285,14 @@
       <c r="AK353">
         <v>1.0160899999999999</v>
       </c>
-    </row>
-    <row r="354" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ353">
+        <v>0.98189680000000001</v>
+      </c>
+      <c r="AR353">
+        <v>0.99637900000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.97530890000000003</v>
       </c>
@@ -14201,8 +16329,14 @@
       <c r="AK354">
         <v>0.96240599999999998</v>
       </c>
-    </row>
-    <row r="355" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ354">
+        <v>0.98334586999999996</v>
+      </c>
+      <c r="AR354">
+        <v>1.0160899999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.97224337000000005</v>
       </c>
@@ -14239,8 +16373,14 @@
       <c r="AK355">
         <v>0.93633100000000002</v>
       </c>
-    </row>
-    <row r="356" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ355">
+        <v>0.98501899999999998</v>
+      </c>
+      <c r="AR355">
+        <v>0.96240599999999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.96590339999999997</v>
       </c>
@@ -14277,8 +16417,14 @@
       <c r="AK356">
         <v>0.96147199999999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ356">
+        <v>0.97041535000000001</v>
+      </c>
+      <c r="AR356">
+        <v>0.93633100000000002</v>
+      </c>
+    </row>
+    <row r="357" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.96321296999999995</v>
       </c>
@@ -14315,8 +16461,14 @@
       <c r="AK357">
         <v>0.98599800000000004</v>
       </c>
-    </row>
-    <row r="358" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ357">
+        <v>0.95813983999999996</v>
+      </c>
+      <c r="AR357">
+        <v>0.96147199999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.96538749999999995</v>
       </c>
@@ -14353,8 +16505,14 @@
       <c r="AK358">
         <v>1.00586</v>
       </c>
-    </row>
-    <row r="359" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ358">
+        <v>0.95518139999999996</v>
+      </c>
+      <c r="AR358">
+        <v>0.98599800000000004</v>
+      </c>
+    </row>
+    <row r="359" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.96879404999999996</v>
       </c>
@@ -14391,8 +16549,14 @@
       <c r="AK359">
         <v>1.0087600000000001</v>
       </c>
-    </row>
-    <row r="360" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ359">
+        <v>0.95891519999999997</v>
+      </c>
+      <c r="AR359">
+        <v>1.00586</v>
+      </c>
+    </row>
+    <row r="360" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.97070204999999998</v>
       </c>
@@ -14429,8 +16593,14 @@
       <c r="AK360">
         <v>0.99857099999999999</v>
       </c>
-    </row>
-    <row r="361" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ360">
+        <v>0.96597829999999996</v>
+      </c>
+      <c r="AR360">
+        <v>1.0087600000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.97089630000000005</v>
       </c>
@@ -14467,8 +16637,14 @@
       <c r="AK361">
         <v>1.00648</v>
       </c>
-    </row>
-    <row r="362" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ361">
+        <v>0.97443679999999999</v>
+      </c>
+      <c r="AR361">
+        <v>0.99857099999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.97087760000000001</v>
       </c>
@@ -14505,8 +16681,14 @@
       <c r="AK362">
         <v>1.00518</v>
       </c>
-    </row>
-    <row r="363" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ362">
+        <v>0.97718554999999996</v>
+      </c>
+      <c r="AR362">
+        <v>1.00648</v>
+      </c>
+    </row>
+    <row r="363" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.971665</v>
       </c>
@@ -14543,8 +16725,14 @@
       <c r="AK363">
         <v>1.0278099999999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ363">
+        <v>0.97820359999999995</v>
+      </c>
+      <c r="AR363">
+        <v>1.00518</v>
+      </c>
+    </row>
+    <row r="364" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.97328853999999998</v>
       </c>
@@ -14581,8 +16769,14 @@
       <c r="AK364">
         <v>1.03295</v>
       </c>
-    </row>
-    <row r="365" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ364">
+        <v>0.9796861</v>
+      </c>
+      <c r="AR364">
+        <v>1.0278099999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.97475959999999995</v>
       </c>
@@ -14619,8 +16813,14 @@
       <c r="AK365">
         <v>1.0435399999999999</v>
       </c>
-    </row>
-    <row r="366" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ365">
+        <v>0.98249540000000002</v>
+      </c>
+      <c r="AR365">
+        <v>1.03295</v>
+      </c>
+    </row>
+    <row r="366" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.97580029999999995</v>
       </c>
@@ -14657,8 +16857,14 @@
       <c r="AK366">
         <v>1.04375</v>
       </c>
-    </row>
-    <row r="367" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ366">
+        <v>0.98841964999999998</v>
+      </c>
+      <c r="AR366">
+        <v>1.0435399999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.97638740000000002</v>
       </c>
@@ -14695,8 +16901,14 @@
       <c r="AK367">
         <v>1.05175</v>
       </c>
-    </row>
-    <row r="368" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ367">
+        <v>0.99231756000000004</v>
+      </c>
+      <c r="AR367">
+        <v>1.04375</v>
+      </c>
+    </row>
+    <row r="368" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.97707635000000004</v>
       </c>
@@ -14733,8 +16945,14 @@
       <c r="AK368">
         <v>1.05033</v>
       </c>
-    </row>
-    <row r="369" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ368">
+        <v>0.99755050000000001</v>
+      </c>
+      <c r="AR368">
+        <v>1.05175</v>
+      </c>
+    </row>
+    <row r="369" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.97819822999999995</v>
       </c>
@@ -14771,8 +16989,14 @@
       <c r="AK369">
         <v>1.0539700000000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ369">
+        <v>1.0023002999999999</v>
+      </c>
+      <c r="AR369">
+        <v>1.05033</v>
+      </c>
+    </row>
+    <row r="370" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.97951080000000001</v>
       </c>
@@ -14809,8 +17033,14 @@
       <c r="AK370">
         <v>1.0517700000000001</v>
       </c>
-    </row>
-    <row r="371" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ370">
+        <v>1.0061952999999999</v>
+      </c>
+      <c r="AR370">
+        <v>1.0539700000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.98080425999999998</v>
       </c>
@@ -14847,8 +17077,14 @@
       <c r="AK371">
         <v>1.0583100000000001</v>
       </c>
-    </row>
-    <row r="372" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ371">
+        <v>1.0097537999999999</v>
+      </c>
+      <c r="AR371">
+        <v>1.0517700000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.98196519999999998</v>
       </c>
@@ -14885,8 +17121,14 @@
       <c r="AK372">
         <v>1.0527599999999999</v>
       </c>
-    </row>
-    <row r="373" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ372">
+        <v>1.0122354</v>
+      </c>
+      <c r="AR372">
+        <v>1.0583100000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.98292480000000004</v>
       </c>
@@ -14923,8 +17165,14 @@
       <c r="AK373">
         <v>1.0597300000000001</v>
       </c>
-    </row>
-    <row r="374" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ373">
+        <v>1.0144937999999999</v>
+      </c>
+      <c r="AR373">
+        <v>1.0527599999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.98375164999999998</v>
       </c>
@@ -14961,8 +17209,14 @@
       <c r="AK374">
         <v>1.0550999999999999</v>
       </c>
-    </row>
-    <row r="375" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ374">
+        <v>1.0157379</v>
+      </c>
+      <c r="AR374">
+        <v>1.0597300000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.98455559999999998</v>
       </c>
@@ -14999,8 +17253,14 @@
       <c r="AK375">
         <v>1.05559</v>
       </c>
-    </row>
-    <row r="376" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ375">
+        <v>1.0179381000000001</v>
+      </c>
+      <c r="AR375">
+        <v>1.0550999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.98526970000000003</v>
       </c>
@@ -15037,8 +17297,14 @@
       <c r="AK376">
         <v>1.05375</v>
       </c>
-    </row>
-    <row r="377" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ376">
+        <v>1.0194714</v>
+      </c>
+      <c r="AR376">
+        <v>1.05559</v>
+      </c>
+    </row>
+    <row r="377" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.98582166000000004</v>
       </c>
@@ -15075,8 +17341,14 @@
       <c r="AK377">
         <v>1.0562100000000001</v>
       </c>
-    </row>
-    <row r="378" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ377">
+        <v>1.0201483</v>
+      </c>
+      <c r="AR377">
+        <v>1.05375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.98619723000000004</v>
       </c>
@@ -15113,8 +17385,14 @@
       <c r="AK378">
         <v>1.0587200000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ378">
+        <v>1.0199271000000001</v>
+      </c>
+      <c r="AR378">
+        <v>1.0562100000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.98649900000000001</v>
       </c>
@@ -15151,8 +17429,14 @@
       <c r="AK379">
         <v>1.05677</v>
       </c>
-    </row>
-    <row r="380" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ379">
+        <v>1.0203286</v>
+      </c>
+      <c r="AR379">
+        <v>1.0587200000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.98674779999999995</v>
       </c>
@@ -15189,8 +17473,14 @@
       <c r="AK380">
         <v>1.0469999999999999</v>
       </c>
-    </row>
-    <row r="381" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ380">
+        <v>1.0214272</v>
+      </c>
+      <c r="AR380">
+        <v>1.05677</v>
+      </c>
+    </row>
+    <row r="381" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.98627379999999998</v>
       </c>
@@ -15227,8 +17517,14 @@
       <c r="AK381">
         <v>1.0517799999999999</v>
       </c>
-    </row>
-    <row r="382" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ381">
+        <v>1.0225766999999999</v>
+      </c>
+      <c r="AR381">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.98551679999999997</v>
       </c>
@@ -15265,8 +17561,14 @@
       <c r="AK382">
         <v>1.0521100000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ382">
+        <v>1.0163553000000001</v>
+      </c>
+      <c r="AR382">
+        <v>1.0517799999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.98539659999999996</v>
       </c>
@@ -15303,8 +17605,14 @@
       <c r="AK383">
         <v>1.0652699999999999</v>
       </c>
-    </row>
-    <row r="384" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ383">
+        <v>1.014616</v>
+      </c>
+      <c r="AR383">
+        <v>1.0521100000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.98581620000000003</v>
       </c>
@@ -15341,8 +17649,14 @@
       <c r="AK384">
         <v>1.0638700000000001</v>
       </c>
-    </row>
-    <row r="385" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ384">
+        <v>1.0153856000000001</v>
+      </c>
+      <c r="AR384">
+        <v>1.0652699999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.98637200000000003</v>
       </c>
@@ -15379,8 +17693,14 @@
       <c r="AK385">
         <v>1.06447</v>
       </c>
-    </row>
-    <row r="386" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ385">
+        <v>1.0203103</v>
+      </c>
+      <c r="AR385">
+        <v>1.0638700000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.98662760000000005</v>
       </c>
@@ -15417,8 +17737,14 @@
       <c r="AK386">
         <v>1.0600499999999999</v>
       </c>
-    </row>
-    <row r="387" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ386">
+        <v>1.024338</v>
+      </c>
+      <c r="AR386">
+        <v>1.06447</v>
+      </c>
+    </row>
+    <row r="387" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.98661829999999995</v>
       </c>
@@ -15455,8 +17781,14 @@
       <c r="AK387">
         <v>1.06734</v>
       </c>
-    </row>
-    <row r="388" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ387">
+        <v>1.0259967000000001</v>
+      </c>
+      <c r="AR387">
+        <v>1.0600499999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.98651279999999997</v>
       </c>
@@ -15493,8 +17825,14 @@
       <c r="AK388">
         <v>1.0661099999999999</v>
       </c>
-    </row>
-    <row r="389" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ388">
+        <v>1.025045</v>
+      </c>
+      <c r="AR388">
+        <v>1.06734</v>
+      </c>
+    </row>
+    <row r="389" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.98646842999999995</v>
       </c>
@@ -15531,8 +17869,14 @@
       <c r="AK389">
         <v>1.0704199999999999</v>
       </c>
-    </row>
-    <row r="390" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ389">
+        <v>1.0254080999999999</v>
+      </c>
+      <c r="AR389">
+        <v>1.0661099999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.98648190000000002</v>
       </c>
@@ -15569,8 +17913,14 @@
       <c r="AK390">
         <v>1.0619400000000001</v>
       </c>
-    </row>
-    <row r="391" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ390">
+        <v>1.0261070000000001</v>
+      </c>
+      <c r="AR390">
+        <v>1.0704199999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.98642843999999996</v>
       </c>
@@ -15607,8 +17957,14 @@
       <c r="AK391">
         <v>1.06481</v>
       </c>
-    </row>
-    <row r="392" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ391">
+        <v>1.0273882000000001</v>
+      </c>
+      <c r="AR391">
+        <v>1.0619400000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.98617213999999997</v>
       </c>
@@ -15645,8 +18001,14 @@
       <c r="AK392">
         <v>1.0682100000000001</v>
       </c>
-    </row>
-    <row r="393" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ392">
+        <v>1.0262507999999999</v>
+      </c>
+      <c r="AR392">
+        <v>1.06481</v>
+      </c>
+    </row>
+    <row r="393" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.98593989999999998</v>
       </c>
@@ -15683,8 +18045,14 @@
       <c r="AK393">
         <v>1.0659799999999999</v>
       </c>
-    </row>
-    <row r="394" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ393">
+        <v>1.0251224999999999</v>
+      </c>
+      <c r="AR393">
+        <v>1.0682100000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.98576710000000001</v>
       </c>
@@ -15721,8 +18089,14 @@
       <c r="AK394">
         <v>1.06511</v>
       </c>
-    </row>
-    <row r="395" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ394">
+        <v>1.0266061</v>
+      </c>
+      <c r="AR394">
+        <v>1.0659799999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.98563880000000004</v>
       </c>
@@ -15759,8 +18133,14 @@
       <c r="AK395">
         <v>1.06812</v>
       </c>
-    </row>
-    <row r="396" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ395">
+        <v>1.026675</v>
+      </c>
+      <c r="AR395">
+        <v>1.06511</v>
+      </c>
+    </row>
+    <row r="396" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.98567515999999999</v>
       </c>
@@ -15797,8 +18177,14 @@
       <c r="AK396">
         <v>1.06002</v>
       </c>
-    </row>
-    <row r="397" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ396">
+        <v>1.0271534</v>
+      </c>
+      <c r="AR396">
+        <v>1.06812</v>
+      </c>
+    </row>
+    <row r="397" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.98541179999999995</v>
       </c>
@@ -15835,8 +18221,14 @@
       <c r="AK397">
         <v>1.05792</v>
       </c>
-    </row>
-    <row r="398" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ397">
+        <v>1.0291737000000001</v>
+      </c>
+      <c r="AR397">
+        <v>1.06002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.98455349999999997</v>
       </c>
@@ -15873,8 +18265,14 @@
       <c r="AK398">
         <v>1.05549</v>
       </c>
-    </row>
-    <row r="399" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ398">
+        <v>1.0252714000000001</v>
+      </c>
+      <c r="AR398">
+        <v>1.05792</v>
+      </c>
+    </row>
+    <row r="399" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.98377769999999998</v>
       </c>
@@ -15911,8 +18309,14 @@
       <c r="AK399">
         <v>1.06351</v>
       </c>
-    </row>
-    <row r="400" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ399">
+        <v>1.0219628999999999</v>
+      </c>
+      <c r="AR399">
+        <v>1.05549</v>
+      </c>
+    </row>
+    <row r="400" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.9837089</v>
       </c>
@@ -15949,8 +18353,14 @@
       <c r="AK400">
         <v>1.0605</v>
       </c>
-    </row>
-    <row r="401" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ400">
+        <v>1.0182313999999999</v>
+      </c>
+      <c r="AR400">
+        <v>1.06351</v>
+      </c>
+    </row>
+    <row r="401" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.98400030000000005</v>
       </c>
@@ -15987,8 +18397,14 @@
       <c r="AK401">
         <v>1.05684</v>
       </c>
-    </row>
-    <row r="402" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ401">
+        <v>1.0196092999999999</v>
+      </c>
+      <c r="AR401">
+        <v>1.0605</v>
+      </c>
+    </row>
+    <row r="402" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.98391134000000002</v>
       </c>
@@ -16025,8 +18441,14 @@
       <c r="AK402">
         <v>1.0567800000000001</v>
       </c>
-    </row>
-    <row r="403" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ402">
+        <v>1.0200171</v>
+      </c>
+      <c r="AR402">
+        <v>1.05684</v>
+      </c>
+    </row>
+    <row r="403" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.98338040000000004</v>
       </c>
@@ -16063,8 +18485,14 @@
       <c r="AK403">
         <v>1.0632299999999999</v>
       </c>
-    </row>
-    <row r="404" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ403">
+        <v>1.0174097</v>
+      </c>
+      <c r="AR403">
+        <v>1.0567800000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.98326469999999999</v>
       </c>
@@ -16101,8 +18529,14 @@
       <c r="AK404">
         <v>1.0678300000000001</v>
       </c>
-    </row>
-    <row r="405" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ404">
+        <v>1.0158261</v>
+      </c>
+      <c r="AR404">
+        <v>1.0632299999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.98359346000000003</v>
       </c>
@@ -16139,8 +18573,14 @@
       <c r="AK405">
         <v>1.0676000000000001</v>
       </c>
-    </row>
-    <row r="406" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ405">
+        <v>1.0184845</v>
+      </c>
+      <c r="AR405">
+        <v>1.0678300000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.98378940000000004</v>
       </c>
@@ -16177,8 +18617,14 @@
       <c r="AK406">
         <v>1.06416</v>
       </c>
-    </row>
-    <row r="407" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ406">
+        <v>1.0209375999999999</v>
+      </c>
+      <c r="AR406">
+        <v>1.0676000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.98379930000000004</v>
       </c>
@@ -16215,8 +18661,14 @@
       <c r="AK407">
         <v>1.02634</v>
       </c>
-    </row>
-    <row r="408" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ407">
+        <v>1.0228415</v>
+      </c>
+      <c r="AR407">
+        <v>1.06416</v>
+      </c>
+    </row>
+    <row r="408" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.98101899999999997</v>
       </c>
@@ -16253,8 +18705,14 @@
       <c r="AK408">
         <v>1.0484199999999999</v>
       </c>
-    </row>
-    <row r="409" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ408">
+        <v>1.0229503</v>
+      </c>
+      <c r="AR408">
+        <v>1.02634</v>
+      </c>
+    </row>
+    <row r="409" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.97816723999999999</v>
       </c>
@@ -16291,8 +18749,14 @@
       <c r="AK409">
         <v>1.0257799999999999</v>
       </c>
-    </row>
-    <row r="410" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ409">
+        <v>1.0097929999999999</v>
+      </c>
+      <c r="AR409">
+        <v>1.0484199999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.97710496000000002</v>
       </c>
@@ -16329,8 +18793,14 @@
       <c r="AK410">
         <v>1.0248900000000001</v>
       </c>
-    </row>
-    <row r="411" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ410">
+        <v>1.0037221999999999</v>
+      </c>
+      <c r="AR410">
+        <v>1.0257799999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.97680425999999998</v>
       </c>
@@ -16367,8 +18837,14 @@
       <c r="AK411">
         <v>1.04009</v>
       </c>
-    </row>
-    <row r="412" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ411">
+        <v>0.99947834000000002</v>
+      </c>
+      <c r="AR411">
+        <v>1.0248900000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.97728289999999995</v>
       </c>
@@ -16405,8 +18881,14 @@
       <c r="AK412">
         <v>1.0343599999999999</v>
       </c>
-    </row>
-    <row r="413" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ412">
+        <v>0.99960439999999995</v>
+      </c>
+      <c r="AR412">
+        <v>1.04009</v>
+      </c>
+    </row>
+    <row r="413" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.97758089999999997</v>
       </c>
@@ -16443,8 +18925,14 @@
       <c r="AK413">
         <v>1.03433</v>
       </c>
-    </row>
-    <row r="414" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ413">
+        <v>1.0010957</v>
+      </c>
+      <c r="AR413">
+        <v>1.0343599999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.97770559999999995</v>
       </c>
@@ -16481,8 +18969,14 @@
       <c r="AK414">
         <v>1.0347900000000001</v>
       </c>
-    </row>
-    <row r="415" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ414">
+        <v>1.0019541000000001</v>
+      </c>
+      <c r="AR414">
+        <v>1.03433</v>
+      </c>
+    </row>
+    <row r="415" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.97786200000000001</v>
       </c>
@@ -16519,8 +19013,14 @@
       <c r="AK415">
         <v>1.05131</v>
       </c>
-    </row>
-    <row r="416" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ415">
+        <v>1.0035763</v>
+      </c>
+      <c r="AR415">
+        <v>1.0347900000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.97793699999999995</v>
       </c>
@@ -16557,8 +19057,14 @@
       <c r="AK416">
         <v>1.06125</v>
       </c>
-    </row>
-    <row r="417" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ416">
+        <v>1.0048367</v>
+      </c>
+      <c r="AR416">
+        <v>1.05131</v>
+      </c>
+    </row>
+    <row r="417" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.97808569999999995</v>
       </c>
@@ -16595,8 +19101,14 @@
       <c r="AK417">
         <v>1.0524199999999999</v>
       </c>
-    </row>
-    <row r="418" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ417">
+        <v>1.0060321000000001</v>
+      </c>
+      <c r="AR417">
+        <v>1.06125</v>
+      </c>
+    </row>
+    <row r="418" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0.97822229999999999</v>
       </c>
@@ -16633,8 +19145,14 @@
       <c r="AK418">
         <v>1.0392699999999999</v>
       </c>
-    </row>
-    <row r="419" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ418">
+        <v>1.0094483999999999</v>
+      </c>
+      <c r="AR418">
+        <v>1.0524199999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0.97795860000000001</v>
       </c>
@@ -16671,8 +19189,14 @@
       <c r="AK419">
         <v>1.04905</v>
       </c>
-    </row>
-    <row r="420" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ419">
+        <v>1.0114483999999999</v>
+      </c>
+      <c r="AR419">
+        <v>1.0392699999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.97803753999999998</v>
       </c>
@@ -16710,8 +19234,14 @@
       <c r="AK420">
         <v>1.05714</v>
       </c>
-    </row>
-    <row r="421" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ420">
+        <v>1.0105318999999999</v>
+      </c>
+      <c r="AR420">
+        <v>1.04905</v>
+      </c>
+    </row>
+    <row r="421" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0.97871710000000001</v>
       </c>
@@ -16749,10 +19279,22 @@
       <c r="AK421">
         <v>1.0428299999999999</v>
       </c>
-    </row>
-    <row r="422" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ421">
+        <v>1.0117928</v>
+      </c>
+      <c r="AR421">
+        <v>1.05714</v>
+      </c>
+    </row>
+    <row r="422" spans="1:44" x14ac:dyDescent="0.2">
       <c r="T422" s="1"/>
       <c r="X422" s="1"/>
+      <c r="AQ422">
+        <v>1.0143979999999999</v>
+      </c>
+      <c r="AR422">
+        <v>1.0428299999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="15">
   <si>
     <t>_0.975178</t>
   </si>
@@ -351,6 +351,3406 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9419769</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AX$7:$AX$421</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="415"/>
+                <c:pt idx="0">
+                  <c:v>0.94627315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9487417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9504345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9523371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9552573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95993906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.964939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96974623</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.973526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9757819</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9785183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9810343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98315793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98429215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9847945</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98561186</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98565465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9840155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98292756</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97788167</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9742574</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96899706</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96587825</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96472824</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96392137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9640859</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96488893</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9643039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9648252</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.965232</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.96737957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96883166</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9666264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96349066</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96265626</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96349955</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9644841</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9640503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.964328</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96444064</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.96575123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.967164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9683615</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97211206</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9752132</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.97726315</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97912544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98077154</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9790574</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9783918</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9793805</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9809761</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.9835226</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.9869726</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.98879194</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98884785</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.988164</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98442125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.98270667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9848841</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9848939</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.9823121</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.9802548</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.9810834</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.9838015</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.98437274</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98476654</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98601</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.9889842</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99193215</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.9937741</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99422807</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.9945617</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99526197</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99289054</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9909104</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99049276</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98929316</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98839056</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.98737687</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.98778224</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.98613256</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.98371655</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9812955</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.97955215</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.9792042</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.9816291</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.9826159</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.98083913</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97952676</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9792551</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.98043674</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9814288</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.982596</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9843919</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9845849</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98364097</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.9813999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9747928</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.96907234</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.96658736</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.967406</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.96805507</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.96647406</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.96331364</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.9605037</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.95925105</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.96074086</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.96468806</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.9687892</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.9726756</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.97625464</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.9790211</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.98044235</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.98121905</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.9807993</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.97898525</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.9772287</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.9761419</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.9773247</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.9793313</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.98132616</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.9816593</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.98109114</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.98031056</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.9777444</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.9752131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.9749125</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.9748626</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.9732658</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.9735342</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.9750629</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.9766014</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.97876346</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.9774776</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.9706349</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.9588715</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.9428812</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.9284641</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.91873544</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.9159695</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.919169</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.92279845</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.920304</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.9166465</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.9137817</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.91034514</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.9075248</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.9059042</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.90796167</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.91365284</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.9200865</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.92533743</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.9303282</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.9337146</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.93311197</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.9329148</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.93074805</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.9296675</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.92783195</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.92686707</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.9231523</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.91996324</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.9185138</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.91905594</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.9187694</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.9209801</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.9256231</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.9304896</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.9349553</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.9399548</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.9449621</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.94815266</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.9500065</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.9512857</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.9540765</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.95788187</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.9616271</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.9636692</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.96488136</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.9672686</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.9704418</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.97212255</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.9722776</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.97358155</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.9747077</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.9756777</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.97708875</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.9783352</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.97905415</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.9791842</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.9774141</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.97578746</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.974685</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.9708578</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.9650615</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.96057105</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.95921755</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.9595185</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.962095</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.9645013</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.9659609</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.9654722</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.96607816</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.96758854</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.9675303</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.96774566</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.9669212</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.96297216</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.9599188</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.95862544</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.9563353</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.9521925</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.95031935</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.9466234</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.9433152</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.94238895</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.9439368</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.9449831</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.94193494</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.94038534</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.9410651</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.9438399</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.94938594</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.9538595</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.9576805</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.96071213</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.96128124</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.9557523</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.9510314</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.94606924</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.9395788</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.9335243</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.9289307</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.9262518</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.92138994</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.9162113</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.9095961</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.9044357</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.89737475</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.8922683</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.8903151</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.890552</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.8929001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.8943099</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.89574116</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.8980602</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.90274656</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.90529203</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.9055612</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.9071888</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.9069039</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.9029081</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.8987881</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.8969362</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.8944139</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.8940203</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.8966835</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.9012337</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.9067033</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.91141254</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.91561294</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.91807365</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.9180656</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.91960835</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.92264843</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.92480576</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.92650175</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.93091315</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.936058</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.93951815</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.9422665</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.9431468</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.94410104</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.9439056</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.94521046</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.9487355</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.95221317</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.95518154</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.9573399</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.9589545</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.9607497</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.96168214</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.96142966</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.9607245</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.9609335</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.9610915</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.96291506</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.96488285</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.96518403</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.9659981</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.96374154</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.96154755</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.9574059</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.95492303</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.95366675</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.9537606</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.95657504</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.96073115</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.9637139</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.96506</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.96614224</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.9663445</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.9654738</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.9641996</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.9636093</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.9645029</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.96582663</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.96506464</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.9613564</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.959348</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.95675546</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.95425373</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.9528324</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.9523709</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.9535475</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.9553388</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.95626056</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.9554818</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.9525302</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.9501831</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.94717395</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.94393677</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.9410325</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.9413116</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.9440146</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.9475004</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.9525916</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.95750284</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.96126217</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.9625025</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.9628873</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.9635621</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.96465504</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.9671925</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.97097206</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.9754118</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.9791957</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.97952676</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.9771114</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.9729521</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.97011</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.96781945</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.9670979</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.96794534</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.97082967</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.9733941</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.9754484</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.96660954</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.95389414</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.9450285</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.94309694</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.94683295</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.95415556</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.9592503</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.9614791</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.96261615</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.96381307</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.9670429</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.97064656</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.97509986</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.97972435</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.9840811</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.98828065</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.9918199</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.99486715</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.9970552</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.99956477</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.0018375</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.0034516</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.0041698</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.0047411</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.006051</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.0077393</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.0045644</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.001814</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.001192</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.0044937</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.008986</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.0119861</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.0123028</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.0120353</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.0119597</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.0124478</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.0118601</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.0106826</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.0113138</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.0118636</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.0126</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.0143278</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.0125443</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.0094018</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.0054506</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.0047951</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.0052414</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.0039638</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.002387</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.0035387</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.0061804</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.0086383</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.0094285</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.0005858</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.9917021</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.9846392</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.98178124</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.98186773</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.98264027</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.98386085</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.9850419</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.9859715</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.98783976</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.9893356</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.9885133</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.9877014</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.9884188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AY$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>﻿0.975178</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AY$7:$AY$421</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="415"/>
+                <c:pt idx="0">
+                  <c:v>0.969004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.984456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.984413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.998522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.00454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.01395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.01647</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.01426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.00985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.01897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.01217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.00563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0074</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.986344</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.992122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.967179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.964407</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.982589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.973714</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.993367</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98848</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.00632</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.999081</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.00979</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.00066</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.979124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.975658</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.979102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.996938</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.983961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.978162</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.983303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.992963</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.993869</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.00043</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.00813</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.00132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.00373</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.01136</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0102</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.993359</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.00695</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.00475</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0123</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.01581</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.01918</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.01298</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.01711</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.01151</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.996422</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.01253</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.01692</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.999215</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.992631</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.998183</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.01805</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.01044</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.00605</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.00559</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.02159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.02274</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.02732</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.02635</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.02495</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.02846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.00964</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.02327</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.02137</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.01189</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.01496</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.01346</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.01662</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.00373</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0016</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.992016</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.992631</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.01035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.01293</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0025</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.995658</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.00405</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.00698</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.02169</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.01373</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.02283</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.02378</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.01274</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0083</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.00772</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.976712</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98058</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9907</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.990248</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.984576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.993473</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.968961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.972236</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.990135</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.00639</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.013</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0119</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.02385</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.02551</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.02667</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.02025</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.01668</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.00819</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.992277</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.983784</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.0019</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.01273</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.01277</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.00938</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.00528</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.00194</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.00656</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.995043</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.990806</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.00962</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.995403</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.996803</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.994922</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.00069</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.00839</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.00449</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.992249</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.961218</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.915363</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.860428</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.842324</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.893879</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.927223</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.928078</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.916275</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.875025</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.899784</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.901389</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.880237</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.914316</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.894961</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.902209</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.908404</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.902733</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.920455</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.932633</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.929019</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.906269</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.912591</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.895456</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.892641</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.88803</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.887394</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.852338</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.853979</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.879395</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.882075</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.901552</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.926791</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.921749</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.945447</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.94648</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.948297</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.938559</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.931876</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.952823</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.959365</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.959754</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.95771</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.949344</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.973084</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.989095</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.986288</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.982546</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.999844</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.99918</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.992072</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.00953</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.01359</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.0083</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.00662</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.0061</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.991521</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.993741</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.988989</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.968459</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.952243</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.973565</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.97162</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.995057</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.993402</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.99901</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.997185</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.998989</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.998798</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.999675</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.992815</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.00853</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.992178</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.97104</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.00079</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.990453</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.98092</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.969626</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.972886</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.944697</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.951465</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.966649</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.987624</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.965574</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.939874</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.950907</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.963509</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.981415</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.979081</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.975906</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.991365</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.980757</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.967024</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.944903</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.947767</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.929061</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.895703</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.88081</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.881969</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.892584</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.858356</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.880675</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.85132</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.852027</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.836469</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.8433</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.87011</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.849021</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.867797</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.853172</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.860534</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.893688</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.893079</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.867373</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.874091</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.876156</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.851122</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.832303</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.831433</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.831186</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.815076</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.840323</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.862104</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.884197</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.877839</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.877804</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.897407</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.880272</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.886304</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.901792</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.899211</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.888023</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.920639</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.926367</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.931282</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.935942</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.937194</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.921282</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.928354</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.928573</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.951642</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.949839</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.947215</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.955199</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.964654</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.971012</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.972441</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.971168</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.961911</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.961366</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.962151</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.974852</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.981175</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.978197</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.987419</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.982716</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.967893</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.983091</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.965588</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.969612</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.965645</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.979597</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.994236</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.994491</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.993041</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.00267</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.00723</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.00837</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.00064</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.00071</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.998034</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.0008</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.00324</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.989562</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.982129</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.993536</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.980764</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.972101</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.971755</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.976359</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.977455</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.99563</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.981535</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.981288</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.968912</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.983091</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.969336</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.969633</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.964266</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.97295</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.969923</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.989739</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.999979</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.999668</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.006</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1.00452</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.0062</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1.01039</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.00605</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.01332</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.01525</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.02019</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.01762</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.00389</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.99186</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.989215</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.986514</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.991104</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.986316</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.994823</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.998819</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.996379</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.01609</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.962406</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.936331</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.961472</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.985998</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.00586</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.00876</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.998571</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.00648</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.00518</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.02781</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.03295</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.04354</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.04375</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.05175</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.05033</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.05397</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.05177</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.05831</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.05276</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.05973</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.0551</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.05559</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.05375</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.05621</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.05872</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.05677</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.047</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.05178</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.05211</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.06527</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.06387</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.06447</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.06005</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.06734</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.06611</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.07042</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.06194</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.06481</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.06821</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.06598</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.06511</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.06812</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.06002</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.05792</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.05549</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.06351</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.0605</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.05684</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.05678</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.06323</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.06783</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.0676</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.06416</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.02634</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.04842</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.02578</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.02489</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.04009</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.03436</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.03433</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.03479</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.05131</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.06125</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.05242</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.03927</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.04905</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.05714</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.04283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1926066624"/>
+        <c:axId val="-1925783232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1926066624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1925783232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1925783232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1926066624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -614,10 +4014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC422"/>
+  <dimension ref="A1:BJ422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView tabSelected="1" topLeftCell="AP2" workbookViewId="0">
+      <selection activeCell="BH24" sqref="BH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +4035,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -780,8 +4180,26 @@
       <c r="BC1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BE1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -926,12 +4344,30 @@
       <c r="BC2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BE2">
+        <v>100</v>
+      </c>
+      <c r="BF2">
+        <v>60</v>
+      </c>
+      <c r="BG2">
+        <v>5</v>
+      </c>
+      <c r="BH2">
+        <v>200</v>
+      </c>
+      <c r="BI2">
+        <v>16</v>
+      </c>
+      <c r="BJ2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -987,7 +4423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -1075,7 +4511,7 @@
         <v>0.9115949734007408</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -1129,7 +4565,7 @@
         <v>0.96900399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -1179,7 +4615,7 @@
         <v>0.984456</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -1229,7 +4665,7 @@
         <v>0.98441299999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -1279,7 +4715,7 @@
         <v>0.99852200000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -1329,7 +4765,7 @@
         <v>1.00454</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -1379,7 +4815,7 @@
         <v>1.00691</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -1429,7 +4865,7 @@
         <v>1.00644</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -1479,7 +4915,7 @@
         <v>1.0048699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -1529,7 +4965,7 @@
         <v>1.0139499999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -21837,6 +25273,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
   <si>
     <t>_0.975178</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Groud Truth</t>
+  </si>
+  <si>
+    <t>predict</t>
   </si>
 </sst>
 </file>
@@ -5988,7 +5991,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.00733984251968505"/>
+          <c:y val="0.0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6020,7 +6030,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.173913070866142"/>
+          <c:y val="0.019900433641447"/>
+          <c:w val="0.682086929133858"/>
+          <c:h val="0.59698020084446"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -6029,7 +6049,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BS$6</c:f>
+              <c:f>Sheet1!$BL$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6052,7 +6072,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BS$7:$BS$421</c:f>
+              <c:f>Sheet1!$BL$7:$BL$421</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="415"/>
@@ -7311,7 +7331,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BT$6</c:f>
+              <c:f>Sheet1!$BM$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7334,7 +7354,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BT$7:$BT$421</c:f>
+              <c:f>Sheet1!$BM$7:$BM$421</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="415"/>
@@ -10487,11 +10507,11 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -10515,16 +10535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10809,10 +10829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU422"/>
+  <dimension ref="A1:BX422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BT421" activeCellId="1" sqref="BS6:BS421 BT6:BT421"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="87" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="BW29" sqref="BW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10830,7 +10850,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11011,8 +11031,26 @@
       <c r="BQ1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BS1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11193,12 +11231,30 @@
       <c r="BQ2">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BS2">
+        <v>100</v>
+      </c>
+      <c r="BT2">
+        <v>60</v>
+      </c>
+      <c r="BU2">
+        <v>5</v>
+      </c>
+      <c r="BV2">
+        <v>200</v>
+      </c>
+      <c r="BW2">
+        <v>16</v>
+      </c>
+      <c r="BX2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11260,17 +11316,23 @@
         <f>CORREL(BE6:BE421,BF6:BF421)</f>
         <v>0.89887756211268244</v>
       </c>
+      <c r="BL5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>14</v>
+      </c>
       <c r="BS5" t="s">
-        <v>10</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BU5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -11363,18 +11425,28 @@
       <c r="BF6" t="s">
         <v>1</v>
       </c>
+      <c r="BL6">
+        <v>0.99557905999999996</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <f>CORREL(BL6:BL421,BM6:BM421)</f>
+        <v>0.92466342760294862</v>
+      </c>
       <c r="BS6">
-        <v>0.99557905999999996</v>
+        <v>0.97684145</v>
       </c>
       <c r="BT6" t="s">
         <v>1</v>
       </c>
       <c r="BU6">
         <f>CORREL(BS6:BS421,BT6:BT421)</f>
-        <v>0.92466342760294862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
+        <v>0.83431019465093093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -11433,14 +11505,20 @@
       <c r="BF7">
         <v>0.96900399999999998</v>
       </c>
+      <c r="BL7">
+        <v>0.99796563000000005</v>
+      </c>
+      <c r="BM7">
+        <v>0.96900399999999998</v>
+      </c>
       <c r="BS7">
-        <v>0.99796563000000005</v>
+        <v>0.97940576000000001</v>
       </c>
       <c r="BT7">
         <v>0.96900399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -11495,14 +11573,20 @@
       <c r="BF8">
         <v>0.984456</v>
       </c>
+      <c r="BL8">
+        <v>0.99940353999999998</v>
+      </c>
+      <c r="BM8">
+        <v>0.984456</v>
+      </c>
       <c r="BS8">
-        <v>0.99940353999999998</v>
+        <v>0.98023503999999995</v>
       </c>
       <c r="BT8">
         <v>0.984456</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -11557,14 +11641,20 @@
       <c r="BF9">
         <v>0.98441299999999998</v>
       </c>
+      <c r="BL9">
+        <v>1.0012203</v>
+      </c>
+      <c r="BM9">
+        <v>0.98441299999999998</v>
+      </c>
       <c r="BS9">
-        <v>1.0012203</v>
+        <v>0.98173350000000004</v>
       </c>
       <c r="BT9">
         <v>0.98441299999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -11619,14 +11709,20 @@
       <c r="BF10">
         <v>0.99852200000000002</v>
       </c>
+      <c r="BL10">
+        <v>1.0034487000000001</v>
+      </c>
+      <c r="BM10">
+        <v>0.99852200000000002</v>
+      </c>
       <c r="BS10">
-        <v>1.0034487000000001</v>
+        <v>0.98421099999999995</v>
       </c>
       <c r="BT10">
         <v>0.99852200000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -11681,14 +11777,20 @@
       <c r="BF11">
         <v>1.00454</v>
       </c>
+      <c r="BL11">
+        <v>1.0068138</v>
+      </c>
+      <c r="BM11">
+        <v>1.00454</v>
+      </c>
       <c r="BS11">
-        <v>1.0068138</v>
+        <v>0.98783759999999998</v>
       </c>
       <c r="BT11">
         <v>1.00454</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -11743,14 +11845,20 @@
       <c r="BF12">
         <v>1.00691</v>
       </c>
+      <c r="BL12">
+        <v>1.0116385999999999</v>
+      </c>
+      <c r="BM12">
+        <v>1.00691</v>
+      </c>
       <c r="BS12">
-        <v>1.0116385999999999</v>
+        <v>0.99278843000000006</v>
       </c>
       <c r="BT12">
         <v>1.00691</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -11805,14 +11913,20 @@
       <c r="BF13">
         <v>1.00644</v>
       </c>
+      <c r="BL13">
+        <v>1.0153345</v>
+      </c>
+      <c r="BM13">
+        <v>1.00644</v>
+      </c>
       <c r="BS13">
-        <v>1.0153345</v>
+        <v>0.99693319999999996</v>
       </c>
       <c r="BT13">
         <v>1.00644</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -11867,14 +11981,20 @@
       <c r="BF14">
         <v>1.0048699999999999</v>
       </c>
+      <c r="BL14">
+        <v>1.0191479999999999</v>
+      </c>
+      <c r="BM14">
+        <v>1.0048699999999999</v>
+      </c>
       <c r="BS14">
-        <v>1.0191479999999999</v>
+        <v>1.0002462999999999</v>
       </c>
       <c r="BT14">
         <v>1.0048699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -11929,14 +12049,20 @@
       <c r="BF15">
         <v>1.0139499999999999</v>
       </c>
+      <c r="BL15">
+        <v>1.021506</v>
+      </c>
+      <c r="BM15">
+        <v>1.0139499999999999</v>
+      </c>
       <c r="BS15">
-        <v>1.021506</v>
+        <v>1.0023361</v>
       </c>
       <c r="BT15">
         <v>1.0139499999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -11991,8 +12117,14 @@
       <c r="BF16">
         <v>1.0135000000000001</v>
       </c>
+      <c r="BL16">
+        <v>1.0227067000000001</v>
+      </c>
+      <c r="BM16">
+        <v>1.0135000000000001</v>
+      </c>
       <c r="BS16">
-        <v>1.0227067000000001</v>
+        <v>1.0030962000000001</v>
       </c>
       <c r="BT16">
         <v>1.0135000000000001</v>
@@ -12053,8 +12185,14 @@
       <c r="BF17">
         <v>1.01762</v>
       </c>
+      <c r="BL17">
+        <v>1.0256727000000001</v>
+      </c>
+      <c r="BM17">
+        <v>1.01762</v>
+      </c>
       <c r="BS17">
-        <v>1.0256727000000001</v>
+        <v>1.004966</v>
       </c>
       <c r="BT17">
         <v>1.01762</v>
@@ -12115,8 +12253,14 @@
       <c r="BF18">
         <v>1.01647</v>
       </c>
+      <c r="BL18">
+        <v>1.0272163999999999</v>
+      </c>
+      <c r="BM18">
+        <v>1.01647</v>
+      </c>
       <c r="BS18">
-        <v>1.0272163999999999</v>
+        <v>1.0066427</v>
       </c>
       <c r="BT18">
         <v>1.01647</v>
@@ -12177,8 +12321,14 @@
       <c r="BF19">
         <v>1.0142599999999999</v>
       </c>
+      <c r="BL19">
+        <v>1.0288142</v>
+      </c>
+      <c r="BM19">
+        <v>1.0142599999999999</v>
+      </c>
       <c r="BS19">
-        <v>1.0288142</v>
+        <v>1.0076742000000001</v>
       </c>
       <c r="BT19">
         <v>1.0142599999999999</v>
@@ -12239,8 +12389,14 @@
       <c r="BF20">
         <v>1.0098499999999999</v>
       </c>
+      <c r="BL20">
+        <v>1.0293851000000001</v>
+      </c>
+      <c r="BM20">
+        <v>1.0098499999999999</v>
+      </c>
       <c r="BS20">
-        <v>1.0293851000000001</v>
+        <v>1.0075343000000001</v>
       </c>
       <c r="BT20">
         <v>1.0098499999999999</v>
@@ -12301,8 +12457,14 @@
       <c r="BF21">
         <v>1.0189699999999999</v>
       </c>
+      <c r="BL21">
+        <v>1.0296723999999999</v>
+      </c>
+      <c r="BM21">
+        <v>1.0189699999999999</v>
+      </c>
       <c r="BS21">
-        <v>1.0296723999999999</v>
+        <v>1.0071189</v>
       </c>
       <c r="BT21">
         <v>1.0189699999999999</v>
@@ -12363,8 +12525,14 @@
       <c r="BF22">
         <v>1.01217</v>
       </c>
+      <c r="BL22">
+        <v>1.0306107</v>
+      </c>
+      <c r="BM22">
+        <v>1.01217</v>
+      </c>
       <c r="BS22">
-        <v>1.0306107</v>
+        <v>1.0077744</v>
       </c>
       <c r="BT22">
         <v>1.01217</v>
@@ -12425,8 +12593,14 @@
       <c r="BF23">
         <v>1.00563</v>
       </c>
+      <c r="BL23">
+        <v>1.0298628000000001</v>
+      </c>
+      <c r="BM23">
+        <v>1.00563</v>
+      </c>
       <c r="BS23">
-        <v>1.0298628000000001</v>
+        <v>1.0074614</v>
       </c>
       <c r="BT23">
         <v>1.00563</v>
@@ -12487,8 +12661,14 @@
       <c r="BF24">
         <v>1.0074000000000001</v>
       </c>
+      <c r="BL24">
+        <v>1.0277531</v>
+      </c>
+      <c r="BM24">
+        <v>1.0074000000000001</v>
+      </c>
       <c r="BS24">
-        <v>1.0277531</v>
+        <v>1.0048509000000001</v>
       </c>
       <c r="BT24">
         <v>1.0074000000000001</v>
@@ -12549,8 +12729,14 @@
       <c r="BF25">
         <v>0.986344</v>
       </c>
+      <c r="BL25">
+        <v>1.0274497</v>
+      </c>
+      <c r="BM25">
+        <v>0.986344</v>
+      </c>
       <c r="BS25">
-        <v>1.0274497</v>
+        <v>1.0034904</v>
       </c>
       <c r="BT25">
         <v>0.986344</v>
@@ -12611,8 +12797,14 @@
       <c r="BF26">
         <v>0.99212199999999995</v>
       </c>
+      <c r="BL26">
+        <v>1.02047</v>
+      </c>
+      <c r="BM26">
+        <v>0.99212199999999995</v>
+      </c>
       <c r="BS26">
-        <v>1.02047</v>
+        <v>0.99720854000000003</v>
       </c>
       <c r="BT26">
         <v>0.99212199999999995</v>
@@ -12673,8 +12865,14 @@
       <c r="BF27">
         <v>0.96717900000000001</v>
       </c>
+      <c r="BL27">
+        <v>1.0192975</v>
+      </c>
+      <c r="BM27">
+        <v>0.96717900000000001</v>
+      </c>
       <c r="BS27">
-        <v>1.0192975</v>
+        <v>0.99351233000000005</v>
       </c>
       <c r="BT27">
         <v>0.96717900000000001</v>
@@ -12735,8 +12933,14 @@
       <c r="BF28">
         <v>0.96440700000000001</v>
       </c>
+      <c r="BL28">
+        <v>1.0126580000000001</v>
+      </c>
+      <c r="BM28">
+        <v>0.96440700000000001</v>
+      </c>
       <c r="BS28">
-        <v>1.0126580000000001</v>
+        <v>0.98847925999999997</v>
       </c>
       <c r="BT28">
         <v>0.96440700000000001</v>
@@ -12797,8 +13001,14 @@
       <c r="BF29">
         <v>0.98258900000000005</v>
       </c>
+      <c r="BL29">
+        <v>1.0114981000000001</v>
+      </c>
+      <c r="BM29">
+        <v>0.98258900000000005</v>
+      </c>
       <c r="BS29">
-        <v>1.0114981000000001</v>
+        <v>0.98603439999999998</v>
       </c>
       <c r="BT29">
         <v>0.98258900000000005</v>
@@ -12859,8 +13069,14 @@
       <c r="BF30">
         <v>0.97371399999999997</v>
       </c>
+      <c r="BL30">
+        <v>1.0102686000000001</v>
+      </c>
+      <c r="BM30">
+        <v>0.97371399999999997</v>
+      </c>
       <c r="BS30">
-        <v>1.0102686000000001</v>
+        <v>0.98629093000000001</v>
       </c>
       <c r="BT30">
         <v>0.97371399999999997</v>
@@ -12921,8 +13137,14 @@
       <c r="BF31">
         <v>0.993367</v>
       </c>
+      <c r="BL31">
+        <v>1.0090680999999999</v>
+      </c>
+      <c r="BM31">
+        <v>0.993367</v>
+      </c>
       <c r="BS31">
-        <v>1.0090680999999999</v>
+        <v>0.98605096000000003</v>
       </c>
       <c r="BT31">
         <v>0.993367</v>
@@ -12983,8 +13205,14 @@
       <c r="BF32">
         <v>0.98848000000000003</v>
       </c>
+      <c r="BL32">
+        <v>1.0096506999999999</v>
+      </c>
+      <c r="BM32">
+        <v>0.98848000000000003</v>
+      </c>
       <c r="BS32">
-        <v>1.0096506999999999</v>
+        <v>0.98671180000000003</v>
       </c>
       <c r="BT32">
         <v>0.98848000000000003</v>
@@ -13045,8 +13273,14 @@
       <c r="BF33">
         <v>1.0063200000000001</v>
       </c>
+      <c r="BL33">
+        <v>1.0105040999999999</v>
+      </c>
+      <c r="BM33">
+        <v>1.0063200000000001</v>
+      </c>
       <c r="BS33">
-        <v>1.0105040999999999</v>
+        <v>0.98809636000000001</v>
       </c>
       <c r="BT33">
         <v>1.0063200000000001</v>
@@ -13107,8 +13341,14 @@
       <c r="BF34">
         <v>0.999081</v>
       </c>
+      <c r="BL34">
+        <v>1.0094593000000001</v>
+      </c>
+      <c r="BM34">
+        <v>0.999081</v>
+      </c>
       <c r="BS34">
-        <v>1.0094593000000001</v>
+        <v>0.98792089999999999</v>
       </c>
       <c r="BT34">
         <v>0.999081</v>
@@ -13169,8 +13409,14 @@
       <c r="BF35">
         <v>1.0124</v>
       </c>
+      <c r="BL35">
+        <v>1.0118068</v>
+      </c>
+      <c r="BM35">
+        <v>1.0124</v>
+      </c>
       <c r="BS35">
-        <v>1.0118068</v>
+        <v>0.98918680000000003</v>
       </c>
       <c r="BT35">
         <v>1.0124</v>
@@ -13231,8 +13477,14 @@
       <c r="BF36">
         <v>1.00979</v>
       </c>
+      <c r="BL36">
+        <v>1.0123728999999999</v>
+      </c>
+      <c r="BM36">
+        <v>1.00979</v>
+      </c>
       <c r="BS36">
-        <v>1.0123728999999999</v>
+        <v>0.99078136999999999</v>
       </c>
       <c r="BT36">
         <v>1.00979</v>
@@ -13293,8 +13545,14 @@
       <c r="BF37">
         <v>1.0006600000000001</v>
       </c>
+      <c r="BL37">
+        <v>1.0159562</v>
+      </c>
+      <c r="BM37">
+        <v>1.0006600000000001</v>
+      </c>
       <c r="BS37">
-        <v>1.0159562</v>
+        <v>0.99441975000000005</v>
       </c>
       <c r="BT37">
         <v>1.0006600000000001</v>
@@ -13355,8 +13613,14 @@
       <c r="BF38">
         <v>0.97912399999999999</v>
       </c>
+      <c r="BL38">
+        <v>1.0170361999999999</v>
+      </c>
+      <c r="BM38">
+        <v>0.97912399999999999</v>
+      </c>
       <c r="BS38">
-        <v>1.0170361999999999</v>
+        <v>0.99666600000000005</v>
       </c>
       <c r="BT38">
         <v>0.97912399999999999</v>
@@ -13417,8 +13681,14 @@
       <c r="BF39">
         <v>0.97565800000000003</v>
       </c>
+      <c r="BL39">
+        <v>1.0141562</v>
+      </c>
+      <c r="BM39">
+        <v>0.97565800000000003</v>
+      </c>
       <c r="BS39">
-        <v>1.0141562</v>
+        <v>0.99373940000000005</v>
       </c>
       <c r="BT39">
         <v>0.97565800000000003</v>
@@ -13479,8 +13749,14 @@
       <c r="BF40">
         <v>0.97910200000000003</v>
       </c>
+      <c r="BL40">
+        <v>1.0131314</v>
+      </c>
+      <c r="BM40">
+        <v>0.97910200000000003</v>
+      </c>
       <c r="BS40">
-        <v>1.0131314</v>
+        <v>0.99066054999999997</v>
       </c>
       <c r="BT40">
         <v>0.97910200000000003</v>
@@ -13541,8 +13817,14 @@
       <c r="BF41">
         <v>0.99693799999999999</v>
       </c>
+      <c r="BL41">
+        <v>1.0142690000000001</v>
+      </c>
+      <c r="BM41">
+        <v>0.99693799999999999</v>
+      </c>
       <c r="BS41">
-        <v>1.0142690000000001</v>
+        <v>0.99155486000000004</v>
       </c>
       <c r="BT41">
         <v>0.99693799999999999</v>
@@ -13603,8 +13885,14 @@
       <c r="BF42">
         <v>0.98396099999999997</v>
       </c>
+      <c r="BL42">
+        <v>1.0154938</v>
+      </c>
+      <c r="BM42">
+        <v>0.98396099999999997</v>
+      </c>
       <c r="BS42">
-        <v>1.0154938</v>
+        <v>0.99428709999999998</v>
       </c>
       <c r="BT42">
         <v>0.98396099999999997</v>
@@ -13665,8 +13953,14 @@
       <c r="BF43">
         <v>0.97816199999999998</v>
       </c>
+      <c r="BL43">
+        <v>1.0161575</v>
+      </c>
+      <c r="BM43">
+        <v>0.97816199999999998</v>
+      </c>
       <c r="BS43">
-        <v>1.0161575</v>
+        <v>0.99564750000000002</v>
       </c>
       <c r="BT43">
         <v>0.97816199999999998</v>
@@ -13727,8 +14021,14 @@
       <c r="BF44">
         <v>0.98330300000000004</v>
       </c>
+      <c r="BL44">
+        <v>1.0147363</v>
+      </c>
+      <c r="BM44">
+        <v>0.98330300000000004</v>
+      </c>
       <c r="BS44">
-        <v>1.0147363</v>
+        <v>0.99431899999999995</v>
       </c>
       <c r="BT44">
         <v>0.98330300000000004</v>
@@ -13789,8 +14089,14 @@
       <c r="BF45">
         <v>0.99296300000000004</v>
       </c>
+      <c r="BL45">
+        <v>1.0155438999999999</v>
+      </c>
+      <c r="BM45">
+        <v>0.99296300000000004</v>
+      </c>
       <c r="BS45">
-        <v>1.0155438999999999</v>
+        <v>0.99431073999999997</v>
       </c>
       <c r="BT45">
         <v>0.99296300000000004</v>
@@ -13851,8 +14157,14 @@
       <c r="BF46">
         <v>0.98992999999999998</v>
       </c>
+      <c r="BL46">
+        <v>1.01498</v>
+      </c>
+      <c r="BM46">
+        <v>0.98992999999999998</v>
+      </c>
       <c r="BS46">
-        <v>1.01498</v>
+        <v>0.99467236000000003</v>
       </c>
       <c r="BT46">
         <v>0.98992999999999998</v>
@@ -13913,8 +14225,14 @@
       <c r="BF47">
         <v>0.993869</v>
       </c>
+      <c r="BL47">
+        <v>1.0169119</v>
+      </c>
+      <c r="BM47">
+        <v>0.993869</v>
+      </c>
       <c r="BS47">
-        <v>1.0169119</v>
+        <v>0.99635594999999999</v>
       </c>
       <c r="BT47">
         <v>0.993869</v>
@@ -13975,8 +14293,14 @@
       <c r="BF48">
         <v>1.0004299999999999</v>
       </c>
+      <c r="BL48">
+        <v>1.0175599</v>
+      </c>
+      <c r="BM48">
+        <v>1.0004299999999999</v>
+      </c>
       <c r="BS48">
-        <v>1.0175599</v>
+        <v>0.99796015000000005</v>
       </c>
       <c r="BT48">
         <v>1.0004299999999999</v>
@@ -14037,8 +14361,14 @@
       <c r="BF49">
         <v>1.00813</v>
       </c>
+      <c r="BL49">
+        <v>1.0187948</v>
+      </c>
+      <c r="BM49">
+        <v>1.00813</v>
+      </c>
       <c r="BS49">
-        <v>1.0187948</v>
+        <v>0.99913719999999995</v>
       </c>
       <c r="BT49">
         <v>1.00813</v>
@@ -14099,8 +14429,14 @@
       <c r="BF50">
         <v>1.00132</v>
       </c>
+      <c r="BL50">
+        <v>1.0234624999999999</v>
+      </c>
+      <c r="BM50">
+        <v>1.00132</v>
+      </c>
       <c r="BS50">
-        <v>1.0234624999999999</v>
+        <v>1.0036436</v>
       </c>
       <c r="BT50">
         <v>1.00132</v>
@@ -14161,8 +14497,14 @@
       <c r="BF51">
         <v>1.00373</v>
       </c>
+      <c r="BL51">
+        <v>1.0251228999999999</v>
+      </c>
+      <c r="BM51">
+        <v>1.00373</v>
+      </c>
       <c r="BS51">
-        <v>1.0251228999999999</v>
+        <v>1.0067250999999999</v>
       </c>
       <c r="BT51">
         <v>1.00373</v>
@@ -14223,8 +14565,14 @@
       <c r="BF52">
         <v>1.01136</v>
       </c>
+      <c r="BL52">
+        <v>1.0266373</v>
+      </c>
+      <c r="BM52">
+        <v>1.01136</v>
+      </c>
       <c r="BS52">
-        <v>1.0266373</v>
+        <v>1.0079426</v>
       </c>
       <c r="BT52">
         <v>1.01136</v>
@@ -14285,8 +14633,14 @@
       <c r="BF53">
         <v>1.0102</v>
       </c>
+      <c r="BL53">
+        <v>1.0282815999999999</v>
+      </c>
+      <c r="BM53">
+        <v>1.0102</v>
+      </c>
       <c r="BS53">
-        <v>1.0282815999999999</v>
+        <v>1.0096308000000001</v>
       </c>
       <c r="BT53">
         <v>1.0102</v>
@@ -14347,8 +14701,14 @@
       <c r="BF54">
         <v>0.99335899999999999</v>
       </c>
+      <c r="BL54">
+        <v>1.0294118000000001</v>
+      </c>
+      <c r="BM54">
+        <v>0.99335899999999999</v>
+      </c>
       <c r="BS54">
-        <v>1.0294118000000001</v>
+        <v>1.0113566</v>
       </c>
       <c r="BT54">
         <v>0.99335899999999999</v>
@@ -14409,8 +14769,14 @@
       <c r="BF55">
         <v>1.00695</v>
       </c>
+      <c r="BL55">
+        <v>1.0262395</v>
+      </c>
+      <c r="BM55">
+        <v>1.00695</v>
+      </c>
       <c r="BS55">
-        <v>1.0262395</v>
+        <v>1.0085961999999999</v>
       </c>
       <c r="BT55">
         <v>1.00695</v>
@@ -14471,8 +14837,14 @@
       <c r="BF56">
         <v>1.00475</v>
       </c>
+      <c r="BL56">
+        <v>1.0276759</v>
+      </c>
+      <c r="BM56">
+        <v>1.00475</v>
+      </c>
       <c r="BS56">
-        <v>1.0276759</v>
+        <v>1.0080933999999999</v>
       </c>
       <c r="BT56">
         <v>1.00475</v>
@@ -14533,8 +14905,14 @@
       <c r="BF57">
         <v>1.0123</v>
       </c>
+      <c r="BL57">
+        <v>1.0286527999999999</v>
+      </c>
+      <c r="BM57">
+        <v>1.0123</v>
+      </c>
       <c r="BS57">
-        <v>1.0286527999999999</v>
+        <v>1.0100095</v>
       </c>
       <c r="BT57">
         <v>1.0123</v>
@@ -14595,8 +14973,14 @@
       <c r="BF58">
         <v>1.0158100000000001</v>
       </c>
+      <c r="BL58">
+        <v>1.0298362999999999</v>
+      </c>
+      <c r="BM58">
+        <v>1.0158100000000001</v>
+      </c>
       <c r="BS58">
-        <v>1.0298362999999999</v>
+        <v>1.0117073999999999</v>
       </c>
       <c r="BT58">
         <v>1.0158100000000001</v>
@@ -14657,8 +15041,14 @@
       <c r="BF59">
         <v>1.01918</v>
       </c>
+      <c r="BL59">
+        <v>1.0318544000000001</v>
+      </c>
+      <c r="BM59">
+        <v>1.01918</v>
+      </c>
       <c r="BS59">
-        <v>1.0318544000000001</v>
+        <v>1.0140077999999999</v>
       </c>
       <c r="BT59">
         <v>1.01918</v>
@@ -14719,8 +15109,14 @@
       <c r="BF60">
         <v>1.01298</v>
       </c>
+      <c r="BL60">
+        <v>1.0345643</v>
+      </c>
+      <c r="BM60">
+        <v>1.01298</v>
+      </c>
       <c r="BS60">
-        <v>1.0345643</v>
+        <v>1.0171562000000001</v>
       </c>
       <c r="BT60">
         <v>1.01298</v>
@@ -14781,8 +15177,14 @@
       <c r="BF61">
         <v>1.01711</v>
       </c>
+      <c r="BL61">
+        <v>1.0346630000000001</v>
+      </c>
+      <c r="BM61">
+        <v>1.01711</v>
+      </c>
       <c r="BS61">
-        <v>1.0346630000000001</v>
+        <v>1.0177400000000001</v>
       </c>
       <c r="BT61">
         <v>1.01711</v>
@@ -14843,8 +15245,14 @@
       <c r="BF62">
         <v>1.0115099999999999</v>
       </c>
+      <c r="BL62">
+        <v>1.0341692</v>
+      </c>
+      <c r="BM62">
+        <v>1.0115099999999999</v>
+      </c>
       <c r="BS62">
-        <v>1.0341692</v>
+        <v>1.0163753</v>
       </c>
       <c r="BT62">
         <v>1.0115099999999999</v>
@@ -14905,8 +15313,14 @@
       <c r="BF63">
         <v>0.99642200000000003</v>
       </c>
+      <c r="BL63">
+        <v>1.0334798000000001</v>
+      </c>
+      <c r="BM63">
+        <v>0.99642200000000003</v>
+      </c>
       <c r="BS63">
-        <v>1.0334798000000001</v>
+        <v>1.0151593999999999</v>
       </c>
       <c r="BT63">
         <v>0.99642200000000003</v>
@@ -14967,8 +15381,14 @@
       <c r="BF64">
         <v>1.0125299999999999</v>
       </c>
+      <c r="BL64">
+        <v>1.0287571</v>
+      </c>
+      <c r="BM64">
+        <v>1.0125299999999999</v>
+      </c>
       <c r="BS64">
-        <v>1.0287571</v>
+        <v>1.0105957999999999</v>
       </c>
       <c r="BT64">
         <v>1.0125299999999999</v>
@@ -15029,8 +15449,14 @@
       <c r="BF65">
         <v>1.01692</v>
       </c>
+      <c r="BL65">
+        <v>1.029496</v>
+      </c>
+      <c r="BM65">
+        <v>1.01692</v>
+      </c>
       <c r="BS65">
-        <v>1.029496</v>
+        <v>1.0096377999999999</v>
       </c>
       <c r="BT65">
         <v>1.01692</v>
@@ -15091,8 +15517,14 @@
       <c r="BF66">
         <v>0.99921499999999996</v>
       </c>
+      <c r="BL66">
+        <v>1.0322853000000001</v>
+      </c>
+      <c r="BM66">
+        <v>0.99921499999999996</v>
+      </c>
       <c r="BS66">
-        <v>1.0322853000000001</v>
+        <v>1.0136642</v>
       </c>
       <c r="BT66">
         <v>0.99921499999999996</v>
@@ -15153,8 +15585,14 @@
       <c r="BF67">
         <v>0.99263100000000004</v>
       </c>
+      <c r="BL67">
+        <v>1.0298309000000001</v>
+      </c>
+      <c r="BM67">
+        <v>0.99263100000000004</v>
+      </c>
       <c r="BS67">
-        <v>1.0298309000000001</v>
+        <v>1.0128192</v>
       </c>
       <c r="BT67">
         <v>0.99263100000000004</v>
@@ -15215,8 +15653,14 @@
       <c r="BF68">
         <v>0.99818300000000004</v>
       </c>
+      <c r="BL68">
+        <v>1.0265844</v>
+      </c>
+      <c r="BM68">
+        <v>0.99818300000000004</v>
+      </c>
       <c r="BS68">
-        <v>1.0265844</v>
+        <v>1.0078126999999999</v>
       </c>
       <c r="BT68">
         <v>0.99818300000000004</v>
@@ -15277,8 +15721,14 @@
       <c r="BF69">
         <v>1.0180499999999999</v>
       </c>
+      <c r="BL69">
+        <v>1.0254772000000001</v>
+      </c>
+      <c r="BM69">
+        <v>1.0180499999999999</v>
+      </c>
       <c r="BS69">
-        <v>1.0254772000000001</v>
+        <v>1.0050878999999999</v>
       </c>
       <c r="BT69">
         <v>1.0180499999999999</v>
@@ -15339,8 +15789,14 @@
       <c r="BF70">
         <v>1.01044</v>
       </c>
+      <c r="BL70">
+        <v>1.0272737999999999</v>
+      </c>
+      <c r="BM70">
+        <v>1.01044</v>
+      </c>
       <c r="BS70">
-        <v>1.0272737999999999</v>
+        <v>1.0073938</v>
       </c>
       <c r="BT70">
         <v>1.01044</v>
@@ -15401,8 +15857,14 @@
       <c r="BF71">
         <v>1.0060500000000001</v>
       </c>
+      <c r="BL71">
+        <v>1.0293432</v>
+      </c>
+      <c r="BM71">
+        <v>1.0060500000000001</v>
+      </c>
       <c r="BS71">
-        <v>1.0293432</v>
+        <v>1.0107212000000001</v>
       </c>
       <c r="BT71">
         <v>1.0060500000000001</v>
@@ -15463,8 +15925,14 @@
       <c r="BF72">
         <v>1.00559</v>
       </c>
+      <c r="BL72">
+        <v>1.0279071</v>
+      </c>
+      <c r="BM72">
+        <v>1.00559</v>
+      </c>
       <c r="BS72">
-        <v>1.0279071</v>
+        <v>1.0098115999999999</v>
       </c>
       <c r="BT72">
         <v>1.00559</v>
@@ -15525,8 +15993,14 @@
       <c r="BF73">
         <v>1.02159</v>
       </c>
+      <c r="BL73">
+        <v>1.0286381</v>
+      </c>
+      <c r="BM73">
+        <v>1.02159</v>
+      </c>
       <c r="BS73">
-        <v>1.0286381</v>
+        <v>1.0089986</v>
       </c>
       <c r="BT73">
         <v>1.02159</v>
@@ -15587,8 +16061,14 @@
       <c r="BF74">
         <v>1.02274</v>
       </c>
+      <c r="BL74">
+        <v>1.0300975999999999</v>
+      </c>
+      <c r="BM74">
+        <v>1.02274</v>
+      </c>
       <c r="BS74">
-        <v>1.0300975999999999</v>
+        <v>1.0105626999999999</v>
       </c>
       <c r="BT74">
         <v>1.02274</v>
@@ -15649,8 +16129,14 @@
       <c r="BF75">
         <v>1.02732</v>
       </c>
+      <c r="BL75">
+        <v>1.033323</v>
+      </c>
+      <c r="BM75">
+        <v>1.02732</v>
+      </c>
       <c r="BS75">
-        <v>1.033323</v>
+        <v>1.0141491</v>
       </c>
       <c r="BT75">
         <v>1.02732</v>
@@ -15711,8 +16197,14 @@
       <c r="BF76">
         <v>1.0263500000000001</v>
       </c>
+      <c r="BL76">
+        <v>1.0357106</v>
+      </c>
+      <c r="BM76">
+        <v>1.0263500000000001</v>
+      </c>
       <c r="BS76">
-        <v>1.0357106</v>
+        <v>1.0171304000000001</v>
       </c>
       <c r="BT76">
         <v>1.0263500000000001</v>
@@ -15773,8 +16265,14 @@
       <c r="BF77">
         <v>1.02495</v>
       </c>
+      <c r="BL77">
+        <v>1.0372779999999999</v>
+      </c>
+      <c r="BM77">
+        <v>1.02495</v>
+      </c>
       <c r="BS77">
-        <v>1.0372779999999999</v>
+        <v>1.0181551</v>
       </c>
       <c r="BT77">
         <v>1.02495</v>
@@ -15835,8 +16333,14 @@
       <c r="BF78">
         <v>1.0284599999999999</v>
       </c>
+      <c r="BL78">
+        <v>1.0377257</v>
+      </c>
+      <c r="BM78">
+        <v>1.0284599999999999</v>
+      </c>
       <c r="BS78">
-        <v>1.0377257</v>
+        <v>1.0177982000000001</v>
       </c>
       <c r="BT78">
         <v>1.0284599999999999</v>
@@ -15897,8 +16401,14 @@
       <c r="BF79">
         <v>1.0250999999999999</v>
       </c>
+      <c r="BL79">
+        <v>1.0388576</v>
+      </c>
+      <c r="BM79">
+        <v>1.0250999999999999</v>
+      </c>
       <c r="BS79">
-        <v>1.0388576</v>
+        <v>1.0180924</v>
       </c>
       <c r="BT79">
         <v>1.0250999999999999</v>
@@ -15959,8 +16469,14 @@
       <c r="BF80">
         <v>1.0096400000000001</v>
       </c>
+      <c r="BL80">
+        <v>1.0400676</v>
+      </c>
+      <c r="BM80">
+        <v>1.0096400000000001</v>
+      </c>
       <c r="BS80">
-        <v>1.0400676</v>
+        <v>1.019198</v>
       </c>
       <c r="BT80">
         <v>1.0096400000000001</v>
@@ -16021,8 +16537,14 @@
       <c r="BF81">
         <v>1.0232699999999999</v>
       </c>
+      <c r="BL81">
+        <v>1.0367630999999999</v>
+      </c>
+      <c r="BM81">
+        <v>1.0232699999999999</v>
+      </c>
       <c r="BS81">
-        <v>1.0367630999999999</v>
+        <v>1.0160336000000001</v>
       </c>
       <c r="BT81">
         <v>1.0232699999999999</v>
@@ -16083,8 +16605,14 @@
       <c r="BF82">
         <v>1.0213699999999999</v>
       </c>
+      <c r="BL82">
+        <v>1.0367434</v>
+      </c>
+      <c r="BM82">
+        <v>1.0213699999999999</v>
+      </c>
       <c r="BS82">
-        <v>1.0367434</v>
+        <v>1.014081</v>
       </c>
       <c r="BT82">
         <v>1.0213699999999999</v>
@@ -16145,8 +16673,14 @@
       <c r="BF83">
         <v>1.01189</v>
       </c>
+      <c r="BL83">
+        <v>1.0368546000000001</v>
+      </c>
+      <c r="BM83">
+        <v>1.01189</v>
+      </c>
       <c r="BS83">
-        <v>1.0368546000000001</v>
+        <v>1.0146649000000001</v>
       </c>
       <c r="BT83">
         <v>1.01189</v>
@@ -16207,8 +16741,14 @@
       <c r="BF84">
         <v>1.0149600000000001</v>
       </c>
+      <c r="BL84">
+        <v>1.0350518</v>
+      </c>
+      <c r="BM84">
+        <v>1.0149600000000001</v>
+      </c>
       <c r="BS84">
-        <v>1.0350518</v>
+        <v>1.0133824</v>
       </c>
       <c r="BT84">
         <v>1.0149600000000001</v>
@@ -16269,8 +16809,14 @@
       <c r="BF85">
         <v>1.01346</v>
       </c>
+      <c r="BL85">
+        <v>1.0346237</v>
+      </c>
+      <c r="BM85">
+        <v>1.01346</v>
+      </c>
       <c r="BS85">
-        <v>1.0346237</v>
+        <v>1.0119914999999999</v>
       </c>
       <c r="BT85">
         <v>1.01346</v>
@@ -16331,8 +16877,14 @@
       <c r="BF86">
         <v>1.0166200000000001</v>
       </c>
+      <c r="BL86">
+        <v>1.0330178000000001</v>
+      </c>
+      <c r="BM86">
+        <v>1.0166200000000001</v>
+      </c>
       <c r="BS86">
-        <v>1.0330178000000001</v>
+        <v>1.0106236</v>
       </c>
       <c r="BT86">
         <v>1.0166200000000001</v>
@@ -16393,8 +16945,14 @@
       <c r="BF87">
         <v>1.00373</v>
       </c>
+      <c r="BL87">
+        <v>1.0336479999999999</v>
+      </c>
+      <c r="BM87">
+        <v>1.00373</v>
+      </c>
       <c r="BS87">
-        <v>1.0336479999999999</v>
+        <v>1.0110136999999999</v>
       </c>
       <c r="BT87">
         <v>1.00373</v>
@@ -16455,8 +17013,14 @@
       <c r="BF88">
         <v>1.0016</v>
       </c>
+      <c r="BL88">
+        <v>1.0301998000000001</v>
+      </c>
+      <c r="BM88">
+        <v>1.0016</v>
+      </c>
       <c r="BS88">
-        <v>1.0301998000000001</v>
+        <v>1.0083909</v>
       </c>
       <c r="BT88">
         <v>1.0016</v>
@@ -16517,8 +17081,14 @@
       <c r="BF89">
         <v>0.99201600000000001</v>
       </c>
+      <c r="BL89">
+        <v>1.0283743999999999</v>
+      </c>
+      <c r="BM89">
+        <v>0.99201600000000001</v>
+      </c>
       <c r="BS89">
-        <v>1.0283743999999999</v>
+        <v>1.0048531999999999</v>
       </c>
       <c r="BT89">
         <v>0.99201600000000001</v>
@@ -16579,8 +17149,14 @@
       <c r="BF90">
         <v>0.99263100000000004</v>
       </c>
+      <c r="BL90">
+        <v>1.0259214999999999</v>
+      </c>
+      <c r="BM90">
+        <v>0.99263100000000004</v>
+      </c>
       <c r="BS90">
-        <v>1.0259214999999999</v>
+        <v>1.0021100000000001</v>
       </c>
       <c r="BT90">
         <v>0.99263100000000004</v>
@@ -16641,8 +17217,14 @@
       <c r="BF91">
         <v>1.0103500000000001</v>
       </c>
+      <c r="BL91">
+        <v>1.0244278</v>
+      </c>
+      <c r="BM91">
+        <v>1.0103500000000001</v>
+      </c>
       <c r="BS91">
-        <v>1.0244278</v>
+        <v>1.0004945000000001</v>
       </c>
       <c r="BT91">
         <v>1.0103500000000001</v>
@@ -16703,8 +17285,14 @@
       <c r="BF92">
         <v>1.0129300000000001</v>
       </c>
+      <c r="BL92">
+        <v>1.0244268999999999</v>
+      </c>
+      <c r="BM92">
+        <v>1.0129300000000001</v>
+      </c>
       <c r="BS92">
-        <v>1.0244268999999999</v>
+        <v>1.0009542</v>
       </c>
       <c r="BT92">
         <v>1.0129300000000001</v>
@@ -16765,8 +17353,14 @@
       <c r="BF93">
         <v>1.0024999999999999</v>
       </c>
+      <c r="BL93">
+        <v>1.0274787000000001</v>
+      </c>
+      <c r="BM93">
+        <v>1.0024999999999999</v>
+      </c>
       <c r="BS93">
-        <v>1.0274787000000001</v>
+        <v>1.0044173999999999</v>
       </c>
       <c r="BT93">
         <v>1.0024999999999999</v>
@@ -16827,8 +17421,14 @@
       <c r="BF94">
         <v>0.99565800000000004</v>
       </c>
+      <c r="BL94">
+        <v>1.026618</v>
+      </c>
+      <c r="BM94">
+        <v>0.99565800000000004</v>
+      </c>
       <c r="BS94">
-        <v>1.026618</v>
+        <v>1.0048083999999999</v>
       </c>
       <c r="BT94">
         <v>0.99565800000000004</v>
@@ -16889,8 +17489,14 @@
       <c r="BF95">
         <v>1.0040500000000001</v>
       </c>
+      <c r="BL95">
+        <v>1.0242933999999999</v>
+      </c>
+      <c r="BM95">
+        <v>1.0040500000000001</v>
+      </c>
       <c r="BS95">
-        <v>1.0242933999999999</v>
+        <v>1.0011517000000001</v>
       </c>
       <c r="BT95">
         <v>1.0040500000000001</v>
@@ -16951,8 +17557,14 @@
       <c r="BF96">
         <v>1.00698</v>
       </c>
+      <c r="BL96">
+        <v>1.0245298</v>
+      </c>
+      <c r="BM96">
+        <v>1.00698</v>
+      </c>
       <c r="BS96">
-        <v>1.0245298</v>
+        <v>0.9995695</v>
       </c>
       <c r="BT96">
         <v>1.00698</v>
@@ -17013,8 +17625,14 @@
       <c r="BF97">
         <v>1.02169</v>
       </c>
+      <c r="BL97">
+        <v>1.0247367999999999</v>
+      </c>
+      <c r="BM97">
+        <v>1.02169</v>
+      </c>
       <c r="BS97">
-        <v>1.0247367999999999</v>
+        <v>1.0004709000000001</v>
       </c>
       <c r="BT97">
         <v>1.02169</v>
@@ -17075,8 +17693,14 @@
       <c r="BF98">
         <v>1.01373</v>
       </c>
+      <c r="BL98">
+        <v>1.0267261000000001</v>
+      </c>
+      <c r="BM98">
+        <v>1.01373</v>
+      </c>
       <c r="BS98">
-        <v>1.0267261000000001</v>
+        <v>1.0032133999999999</v>
       </c>
       <c r="BT98">
         <v>1.01373</v>
@@ -17137,8 +17761,14 @@
       <c r="BF99">
         <v>1.0228299999999999</v>
       </c>
+      <c r="BL99">
+        <v>1.0274026000000001</v>
+      </c>
+      <c r="BM99">
+        <v>1.0228299999999999</v>
+      </c>
       <c r="BS99">
-        <v>1.0274026000000001</v>
+        <v>1.0046851999999999</v>
       </c>
       <c r="BT99">
         <v>1.0228299999999999</v>
@@ -17199,8 +17829,14 @@
       <c r="BF100">
         <v>1.0237799999999999</v>
       </c>
+      <c r="BL100">
+        <v>1.0292897999999999</v>
+      </c>
+      <c r="BM100">
+        <v>1.0237799999999999</v>
+      </c>
       <c r="BS100">
-        <v>1.0292897999999999</v>
+        <v>1.006027</v>
       </c>
       <c r="BT100">
         <v>1.0237799999999999</v>
@@ -17261,8 +17897,14 @@
       <c r="BF101">
         <v>1.01274</v>
       </c>
+      <c r="BL101">
+        <v>1.0316088000000001</v>
+      </c>
+      <c r="BM101">
+        <v>1.01274</v>
+      </c>
       <c r="BS101">
-        <v>1.0316088000000001</v>
+        <v>1.0080099</v>
       </c>
       <c r="BT101">
         <v>1.01274</v>
@@ -17323,8 +17965,14 @@
       <c r="BF102">
         <v>1.0083</v>
       </c>
+      <c r="BL102">
+        <v>1.0312543999999999</v>
+      </c>
+      <c r="BM102">
+        <v>1.0083</v>
+      </c>
       <c r="BS102">
-        <v>1.0312543999999999</v>
+        <v>1.0077227</v>
       </c>
       <c r="BT102">
         <v>1.0083</v>
@@ -17385,8 +18033,14 @@
       <c r="BF103">
         <v>1.0077199999999999</v>
       </c>
+      <c r="BL103">
+        <v>1.0308181999999999</v>
+      </c>
+      <c r="BM103">
+        <v>1.0077199999999999</v>
+      </c>
       <c r="BS103">
-        <v>1.0308181999999999</v>
+        <v>1.0062468</v>
       </c>
       <c r="BT103">
         <v>1.0077199999999999</v>
@@ -17447,8 +18101,14 @@
       <c r="BF104">
         <v>0.97671200000000002</v>
       </c>
+      <c r="BL104">
+        <v>1.0286846000000001</v>
+      </c>
+      <c r="BM104">
+        <v>0.97671200000000002</v>
+      </c>
       <c r="BS104">
-        <v>1.0286846000000001</v>
+        <v>1.0038829</v>
       </c>
       <c r="BT104">
         <v>0.97671200000000002</v>
@@ -17509,8 +18169,14 @@
       <c r="BF105">
         <v>0.98058000000000001</v>
       </c>
+      <c r="BL105">
+        <v>1.0210186000000001</v>
+      </c>
+      <c r="BM105">
+        <v>0.98058000000000001</v>
+      </c>
       <c r="BS105">
-        <v>1.0210186000000001</v>
+        <v>0.99640715000000002</v>
       </c>
       <c r="BT105">
         <v>0.98058000000000001</v>
@@ -17571,8 +18237,14 @@
       <c r="BF106">
         <v>0.99070000000000003</v>
       </c>
+      <c r="BL106">
+        <v>1.0185343</v>
+      </c>
+      <c r="BM106">
+        <v>0.99070000000000003</v>
+      </c>
       <c r="BS106">
-        <v>1.0185343</v>
+        <v>0.99123839999999996</v>
       </c>
       <c r="BT106">
         <v>0.99070000000000003</v>
@@ -17633,8 +18305,14 @@
       <c r="BF107">
         <v>0.99024800000000002</v>
       </c>
+      <c r="BL107">
+        <v>1.0178328999999999</v>
+      </c>
+      <c r="BM107">
+        <v>0.99024800000000002</v>
+      </c>
       <c r="BS107">
-        <v>1.0178328999999999</v>
+        <v>0.99113790000000002</v>
       </c>
       <c r="BT107">
         <v>0.99024800000000002</v>
@@ -17695,8 +18373,14 @@
       <c r="BF108">
         <v>0.98457600000000001</v>
       </c>
+      <c r="BL108">
+        <v>1.0190272</v>
+      </c>
+      <c r="BM108">
+        <v>0.98457600000000001</v>
+      </c>
       <c r="BS108">
-        <v>1.0190272</v>
+        <v>0.99382329999999997</v>
       </c>
       <c r="BT108">
         <v>0.98457600000000001</v>
@@ -17757,8 +18441,14 @@
       <c r="BF109">
         <v>0.99347300000000005</v>
       </c>
+      <c r="BL109">
+        <v>1.0179678000000001</v>
+      </c>
+      <c r="BM109">
+        <v>0.99347300000000005</v>
+      </c>
       <c r="BS109">
-        <v>1.0179678000000001</v>
+        <v>0.99425909999999995</v>
       </c>
       <c r="BT109">
         <v>0.99347300000000005</v>
@@ -17819,8 +18509,14 @@
       <c r="BF110">
         <v>0.96896099999999996</v>
       </c>
+      <c r="BL110">
+        <v>1.0152794999999999</v>
+      </c>
+      <c r="BM110">
+        <v>0.96896099999999996</v>
+      </c>
       <c r="BS110">
-        <v>1.0152794999999999</v>
+        <v>0.9911546</v>
       </c>
       <c r="BT110">
         <v>0.96896099999999996</v>
@@ -17881,8 +18577,14 @@
       <c r="BF111">
         <v>0.97223599999999999</v>
       </c>
+      <c r="BL111">
+        <v>1.0120830000000001</v>
+      </c>
+      <c r="BM111">
+        <v>0.97223599999999999</v>
+      </c>
       <c r="BS111">
-        <v>1.0120830000000001</v>
+        <v>0.98701930000000004</v>
       </c>
       <c r="BT111">
         <v>0.97223599999999999</v>
@@ -17943,8 +18645,14 @@
       <c r="BF112">
         <v>0.99013499999999999</v>
       </c>
+      <c r="BL112">
+        <v>1.0102898</v>
+      </c>
+      <c r="BM112">
+        <v>0.99013499999999999</v>
+      </c>
       <c r="BS112">
-        <v>1.0102898</v>
+        <v>0.98473259999999996</v>
       </c>
       <c r="BT112">
         <v>0.99013499999999999</v>
@@ -18005,8 +18713,14 @@
       <c r="BF113">
         <v>1.0063899999999999</v>
       </c>
+      <c r="BL113">
+        <v>1.0099913</v>
+      </c>
+      <c r="BM113">
+        <v>1.0063899999999999</v>
+      </c>
       <c r="BS113">
-        <v>1.0099913</v>
+        <v>0.98511046000000002</v>
       </c>
       <c r="BT113">
         <v>1.0063899999999999</v>
@@ -18067,8 +18781,14 @@
       <c r="BF114">
         <v>1.0129999999999999</v>
       </c>
+      <c r="BL114">
+        <v>1.0125663</v>
+      </c>
+      <c r="BM114">
+        <v>1.0129999999999999</v>
+      </c>
       <c r="BS114">
-        <v>1.0125663</v>
+        <v>0.98866560000000003</v>
       </c>
       <c r="BT114">
         <v>1.0129999999999999</v>
@@ -18129,8 +18849,14 @@
       <c r="BF115">
         <v>1.0119</v>
       </c>
+      <c r="BL115">
+        <v>1.0164648000000001</v>
+      </c>
+      <c r="BM115">
+        <v>1.0119</v>
+      </c>
       <c r="BS115">
-        <v>1.0164648000000001</v>
+        <v>0.99418859999999998</v>
       </c>
       <c r="BT115">
         <v>1.0119</v>
@@ -18191,8 +18917,14 @@
       <c r="BF116">
         <v>1.0238499999999999</v>
       </c>
+      <c r="BL116">
+        <v>1.019455</v>
+      </c>
+      <c r="BM116">
+        <v>1.0238499999999999</v>
+      </c>
       <c r="BS116">
-        <v>1.019455</v>
+        <v>0.99861056000000004</v>
       </c>
       <c r="BT116">
         <v>1.0238499999999999</v>
@@ -18253,8 +18985,14 @@
       <c r="BF117">
         <v>1.0255099999999999</v>
       </c>
+      <c r="BL117">
+        <v>1.0229566999999999</v>
+      </c>
+      <c r="BM117">
+        <v>1.0255099999999999</v>
+      </c>
       <c r="BS117">
-        <v>1.0229566999999999</v>
+        <v>1.0022409000000001</v>
       </c>
       <c r="BT117">
         <v>1.0255099999999999</v>
@@ -18315,8 +19053,14 @@
       <c r="BF118">
         <v>1.02667</v>
       </c>
+      <c r="BL118">
+        <v>1.0259532</v>
+      </c>
+      <c r="BM118">
+        <v>1.02667</v>
+      </c>
       <c r="BS118">
-        <v>1.0259532</v>
+        <v>1.0055639000000001</v>
       </c>
       <c r="BT118">
         <v>1.02667</v>
@@ -18377,8 +19121,14 @@
       <c r="BF119">
         <v>1.0202500000000001</v>
       </c>
+      <c r="BL119">
+        <v>1.0280095</v>
+      </c>
+      <c r="BM119">
+        <v>1.0202500000000001</v>
+      </c>
       <c r="BS119">
-        <v>1.0280095</v>
+        <v>1.0081279000000001</v>
       </c>
       <c r="BT119">
         <v>1.0202500000000001</v>
@@ -18439,8 +19189,14 @@
       <c r="BF120">
         <v>1.01668</v>
       </c>
+      <c r="BL120">
+        <v>1.0286884000000001</v>
+      </c>
+      <c r="BM120">
+        <v>1.01668</v>
+      </c>
       <c r="BS120">
-        <v>1.0286884000000001</v>
+        <v>1.0093911</v>
       </c>
       <c r="BT120">
         <v>1.01668</v>
@@ -18501,8 +19257,14 @@
       <c r="BF121">
         <v>1.0081899999999999</v>
       </c>
+      <c r="BL121">
+        <v>1.0294700000000001</v>
+      </c>
+      <c r="BM121">
+        <v>1.0081899999999999</v>
+      </c>
       <c r="BS121">
-        <v>1.0294700000000001</v>
+        <v>1.0101693</v>
       </c>
       <c r="BT121">
         <v>1.0081899999999999</v>
@@ -18563,8 +19325,14 @@
       <c r="BF122">
         <v>0.99227699999999996</v>
       </c>
+      <c r="BL122">
+        <v>1.0284897</v>
+      </c>
+      <c r="BM122">
+        <v>0.99227699999999996</v>
+      </c>
       <c r="BS122">
-        <v>1.0284897</v>
+        <v>1.0095537999999999</v>
       </c>
       <c r="BT122">
         <v>0.99227699999999996</v>
@@ -18625,8 +19393,14 @@
       <c r="BF123">
         <v>0.98378399999999999</v>
       </c>
+      <c r="BL123">
+        <v>1.0265536</v>
+      </c>
+      <c r="BM123">
+        <v>0.98378399999999999</v>
+      </c>
       <c r="BS123">
-        <v>1.0265536</v>
+        <v>1.0073581</v>
       </c>
       <c r="BT123">
         <v>0.98378399999999999</v>
@@ -18687,8 +19461,14 @@
       <c r="BF124">
         <v>1.0019</v>
       </c>
+      <c r="BL124">
+        <v>1.0251626</v>
+      </c>
+      <c r="BM124">
+        <v>1.0019</v>
+      </c>
       <c r="BS124">
-        <v>1.0251626</v>
+        <v>1.0055052</v>
       </c>
       <c r="BT124">
         <v>1.0019</v>
@@ -18749,8 +19529,14 @@
       <c r="BF125">
         <v>1.0127299999999999</v>
       </c>
+      <c r="BL125">
+        <v>1.0241530000000001</v>
+      </c>
+      <c r="BM125">
+        <v>1.0127299999999999</v>
+      </c>
       <c r="BS125">
-        <v>1.0241530000000001</v>
+        <v>1.0048244</v>
       </c>
       <c r="BT125">
         <v>1.0127299999999999</v>
@@ -18811,8 +19597,14 @@
       <c r="BF126">
         <v>1.0127699999999999</v>
       </c>
+      <c r="BL126">
+        <v>1.0256145000000001</v>
+      </c>
+      <c r="BM126">
+        <v>1.0127699999999999</v>
+      </c>
       <c r="BS126">
-        <v>1.0256145000000001</v>
+        <v>1.0066234999999999</v>
       </c>
       <c r="BT126">
         <v>1.0127699999999999</v>
@@ -18873,8 +19665,14 @@
       <c r="BF127">
         <v>1.0093799999999999</v>
       </c>
+      <c r="BL127">
+        <v>1.0264281</v>
+      </c>
+      <c r="BM127">
+        <v>1.0093799999999999</v>
+      </c>
       <c r="BS127">
-        <v>1.0264281</v>
+        <v>1.0085206</v>
       </c>
       <c r="BT127">
         <v>1.0093799999999999</v>
@@ -18935,8 +19733,14 @@
       <c r="BF128">
         <v>1.00528</v>
       </c>
+      <c r="BL128">
+        <v>1.0274581</v>
+      </c>
+      <c r="BM128">
+        <v>1.00528</v>
+      </c>
       <c r="BS128">
-        <v>1.0274581</v>
+        <v>1.0096581</v>
       </c>
       <c r="BT128">
         <v>1.00528</v>
@@ -18997,8 +19801,14 @@
       <c r="BF129">
         <v>1.0019400000000001</v>
       </c>
+      <c r="BL129">
+        <v>1.0262817</v>
+      </c>
+      <c r="BM129">
+        <v>1.0019400000000001</v>
+      </c>
       <c r="BS129">
-        <v>1.0262817</v>
+        <v>1.0085329000000001</v>
       </c>
       <c r="BT129">
         <v>1.0019400000000001</v>
@@ -19059,8 +19869,14 @@
       <c r="BF130">
         <v>1.0065599999999999</v>
       </c>
+      <c r="BL130">
+        <v>1.0256205</v>
+      </c>
+      <c r="BM130">
+        <v>1.0065599999999999</v>
+      </c>
       <c r="BS130">
-        <v>1.0256205</v>
+        <v>1.0069344</v>
       </c>
       <c r="BT130">
         <v>1.0065599999999999</v>
@@ -19121,8 +19937,14 @@
       <c r="BF131">
         <v>0.99504300000000001</v>
       </c>
+      <c r="BL131">
+        <v>1.0248861</v>
+      </c>
+      <c r="BM131">
+        <v>0.99504300000000001</v>
+      </c>
       <c r="BS131">
-        <v>1.0248861</v>
+        <v>1.0063298000000001</v>
       </c>
       <c r="BT131">
         <v>0.99504300000000001</v>
@@ -19183,8 +20005,14 @@
       <c r="BF132">
         <v>0.99080599999999996</v>
       </c>
+      <c r="BL132">
+        <v>1.0217141999999999</v>
+      </c>
+      <c r="BM132">
+        <v>0.99080599999999996</v>
+      </c>
       <c r="BS132">
-        <v>1.0217141999999999</v>
+        <v>1.0038184999999999</v>
       </c>
       <c r="BT132">
         <v>0.99080599999999996</v>
@@ -19245,8 +20073,14 @@
       <c r="BF133">
         <v>1.00962</v>
       </c>
+      <c r="BL133">
+        <v>1.0200669</v>
+      </c>
+      <c r="BM133">
+        <v>1.00962</v>
+      </c>
       <c r="BS133">
-        <v>1.0200669</v>
+        <v>1.0014898000000001</v>
       </c>
       <c r="BT133">
         <v>1.00962</v>
@@ -19307,8 +20141,14 @@
       <c r="BF134">
         <v>0.99540300000000004</v>
       </c>
+      <c r="BL134">
+        <v>1.0210074</v>
+      </c>
+      <c r="BM134">
+        <v>0.99540300000000004</v>
+      </c>
       <c r="BS134">
-        <v>1.0210074</v>
+        <v>1.0027219000000001</v>
       </c>
       <c r="BT134">
         <v>0.99540300000000004</v>
@@ -19369,8 +20209,14 @@
       <c r="BF135">
         <v>0.99680299999999999</v>
       </c>
+      <c r="BL135">
+        <v>1.0203404</v>
+      </c>
+      <c r="BM135">
+        <v>0.99680299999999999</v>
+      </c>
       <c r="BS135">
-        <v>1.0203404</v>
+        <v>1.0033251999999999</v>
       </c>
       <c r="BT135">
         <v>0.99680299999999999</v>
@@ -19431,8 +20277,14 @@
       <c r="BF136">
         <v>0.99492199999999997</v>
       </c>
+      <c r="BL136">
+        <v>1.0180979999999999</v>
+      </c>
+      <c r="BM136">
+        <v>0.99492199999999997</v>
+      </c>
       <c r="BS136">
-        <v>1.0180979999999999</v>
+        <v>1.0009421000000001</v>
       </c>
       <c r="BT136">
         <v>0.99492199999999997</v>
@@ -19493,8 +20345,14 @@
       <c r="BF137">
         <v>1.0006900000000001</v>
       </c>
+      <c r="BL137">
+        <v>1.0195506999999999</v>
+      </c>
+      <c r="BM137">
+        <v>1.0006900000000001</v>
+      </c>
       <c r="BS137">
-        <v>1.0195506999999999</v>
+        <v>1.0012384999999999</v>
       </c>
       <c r="BT137">
         <v>1.0006900000000001</v>
@@ -19555,8 +20413,14 @@
       <c r="BF138">
         <v>1.0083899999999999</v>
       </c>
+      <c r="BL138">
+        <v>1.020616</v>
+      </c>
+      <c r="BM138">
+        <v>1.0083899999999999</v>
+      </c>
       <c r="BS138">
-        <v>1.020616</v>
+        <v>1.0032570000000001</v>
       </c>
       <c r="BT138">
         <v>1.0083899999999999</v>
@@ -19617,8 +20481,14 @@
       <c r="BF139">
         <v>1.0044900000000001</v>
       </c>
+      <c r="BL139">
+        <v>1.0216704999999999</v>
+      </c>
+      <c r="BM139">
+        <v>1.0044900000000001</v>
+      </c>
       <c r="BS139">
-        <v>1.0216704999999999</v>
+        <v>1.0047429000000001</v>
       </c>
       <c r="BT139">
         <v>1.0044900000000001</v>
@@ -19679,8 +20549,14 @@
       <c r="BF140">
         <v>0.99224900000000005</v>
       </c>
+      <c r="BL140">
+        <v>1.023828</v>
+      </c>
+      <c r="BM140">
+        <v>0.99224900000000005</v>
+      </c>
       <c r="BS140">
-        <v>1.023828</v>
+        <v>1.0068280999999999</v>
       </c>
       <c r="BT140">
         <v>0.99224900000000005</v>
@@ -19741,8 +20617,14 @@
       <c r="BF141">
         <v>0.96121800000000002</v>
       </c>
+      <c r="BL141">
+        <v>1.0206791</v>
+      </c>
+      <c r="BM141">
+        <v>0.96121800000000002</v>
+      </c>
       <c r="BS141">
-        <v>1.0206791</v>
+        <v>1.0044017000000001</v>
       </c>
       <c r="BT141">
         <v>0.96121800000000002</v>
@@ -19803,8 +20685,14 @@
       <c r="BF142">
         <v>0.91536300000000004</v>
       </c>
+      <c r="BL142">
+        <v>1.0126506</v>
+      </c>
+      <c r="BM142">
+        <v>0.91536300000000004</v>
+      </c>
       <c r="BS142">
-        <v>1.0126506</v>
+        <v>0.99516106000000004</v>
       </c>
       <c r="BT142">
         <v>0.91536300000000004</v>
@@ -19865,8 +20753,14 @@
       <c r="BF143">
         <v>0.86042799999999997</v>
       </c>
+      <c r="BL143">
+        <v>1.0008645</v>
+      </c>
+      <c r="BM143">
+        <v>0.86042799999999997</v>
+      </c>
       <c r="BS143">
-        <v>1.0008645</v>
+        <v>0.98179830000000001</v>
       </c>
       <c r="BT143">
         <v>0.86042799999999997</v>
@@ -19927,8 +20821,14 @@
       <c r="BF144">
         <v>0.84232399999999996</v>
       </c>
+      <c r="BL144">
+        <v>0.98554569999999997</v>
+      </c>
+      <c r="BM144">
+        <v>0.84232399999999996</v>
+      </c>
       <c r="BS144">
-        <v>0.98554569999999997</v>
+        <v>0.96646655000000004</v>
       </c>
       <c r="BT144">
         <v>0.84232399999999996</v>
@@ -19989,8 +20889,14 @@
       <c r="BF145">
         <v>0.89387899999999998</v>
       </c>
+      <c r="BL145">
+        <v>0.97539942999999996</v>
+      </c>
+      <c r="BM145">
+        <v>0.89387899999999998</v>
+      </c>
       <c r="BS145">
-        <v>0.97539942999999996</v>
+        <v>0.95562349999999996</v>
       </c>
       <c r="BT145">
         <v>0.89387899999999998</v>
@@ -20051,8 +20957,14 @@
       <c r="BF146">
         <v>0.92722300000000002</v>
       </c>
+      <c r="BL146">
+        <v>0.97018652999999999</v>
+      </c>
+      <c r="BM146">
+        <v>0.92722300000000002</v>
+      </c>
       <c r="BS146">
-        <v>0.97018652999999999</v>
+        <v>0.95122209999999996</v>
       </c>
       <c r="BT146">
         <v>0.92722300000000002</v>
@@ -20113,8 +21025,14 @@
       <c r="BF147">
         <v>0.92807799999999996</v>
       </c>
+      <c r="BL147">
+        <v>0.97149514999999997</v>
+      </c>
+      <c r="BM147">
+        <v>0.92807799999999996</v>
+      </c>
       <c r="BS147">
-        <v>0.97149514999999997</v>
+        <v>0.95357214999999995</v>
       </c>
       <c r="BT147">
         <v>0.92807799999999996</v>
@@ -20175,8 +21093,14 @@
       <c r="BF148">
         <v>0.91627499999999995</v>
       </c>
+      <c r="BL148">
+        <v>0.97601830000000001</v>
+      </c>
+      <c r="BM148">
+        <v>0.91627499999999995</v>
+      </c>
       <c r="BS148">
-        <v>0.97601830000000001</v>
+        <v>0.96025450000000001</v>
       </c>
       <c r="BT148">
         <v>0.91627499999999995</v>
@@ -20237,8 +21161,14 @@
       <c r="BF149">
         <v>0.87502500000000005</v>
       </c>
+      <c r="BL149">
+        <v>0.97789735</v>
+      </c>
+      <c r="BM149">
+        <v>0.87502500000000005</v>
+      </c>
       <c r="BS149">
-        <v>0.97789735</v>
+        <v>0.9652558</v>
       </c>
       <c r="BT149">
         <v>0.87502500000000005</v>
@@ -20299,8 +21229,14 @@
       <c r="BF150">
         <v>0.89978400000000003</v>
       </c>
+      <c r="BL150">
+        <v>0.97114265</v>
+      </c>
+      <c r="BM150">
+        <v>0.89978400000000003</v>
+      </c>
       <c r="BS150">
-        <v>0.97114265</v>
+        <v>0.96227704999999997</v>
       </c>
       <c r="BT150">
         <v>0.89978400000000003</v>
@@ -20361,8 +21297,14 @@
       <c r="BF151">
         <v>0.901389</v>
       </c>
+      <c r="BL151">
+        <v>0.96902703999999995</v>
+      </c>
+      <c r="BM151">
+        <v>0.901389</v>
+      </c>
       <c r="BS151">
-        <v>0.96902703999999995</v>
+        <v>0.95912549999999996</v>
       </c>
       <c r="BT151">
         <v>0.901389</v>
@@ -20423,8 +21365,14 @@
       <c r="BF152">
         <v>0.88023700000000005</v>
       </c>
+      <c r="BL152">
+        <v>0.96758489999999997</v>
+      </c>
+      <c r="BM152">
+        <v>0.88023700000000005</v>
+      </c>
       <c r="BS152">
-        <v>0.96758489999999997</v>
+        <v>0.95889829999999998</v>
       </c>
       <c r="BT152">
         <v>0.88023700000000005</v>
@@ -20485,8 +21433,14 @@
       <c r="BF153">
         <v>0.91431600000000002</v>
       </c>
+      <c r="BL153">
+        <v>0.9642963</v>
+      </c>
+      <c r="BM153">
+        <v>0.91431600000000002</v>
+      </c>
       <c r="BS153">
-        <v>0.9642963</v>
+        <v>0.95837249999999996</v>
       </c>
       <c r="BT153">
         <v>0.91431600000000002</v>
@@ -20547,8 +21501,14 @@
       <c r="BF154">
         <v>0.89496100000000001</v>
       </c>
+      <c r="BL154">
+        <v>0.9633737</v>
+      </c>
+      <c r="BM154">
+        <v>0.89496100000000001</v>
+      </c>
       <c r="BS154">
-        <v>0.9633737</v>
+        <v>0.95896345000000005</v>
       </c>
       <c r="BT154">
         <v>0.89496100000000001</v>
@@ -20609,8 +21569,14 @@
       <c r="BF155">
         <v>0.90220900000000004</v>
       </c>
+      <c r="BL155">
+        <v>0.96344810000000003</v>
+      </c>
+      <c r="BM155">
+        <v>0.90220900000000004</v>
+      </c>
       <c r="BS155">
-        <v>0.96344810000000003</v>
+        <v>0.96049534999999997</v>
       </c>
       <c r="BT155">
         <v>0.90220900000000004</v>
@@ -20671,8 +21637,14 @@
       <c r="BF156">
         <v>0.90840399999999999</v>
       </c>
+      <c r="BL156">
+        <v>0.96857976999999995</v>
+      </c>
+      <c r="BM156">
+        <v>0.90840399999999999</v>
+      </c>
       <c r="BS156">
-        <v>0.96857976999999995</v>
+        <v>0.96532923000000004</v>
       </c>
       <c r="BT156">
         <v>0.90840399999999999</v>
@@ -20733,8 +21705,14 @@
       <c r="BF157">
         <v>0.90273300000000001</v>
       </c>
+      <c r="BL157">
+        <v>0.97553926999999996</v>
+      </c>
+      <c r="BM157">
+        <v>0.90273300000000001</v>
+      </c>
       <c r="BS157">
-        <v>0.97553926999999996</v>
+        <v>0.97275940000000005</v>
       </c>
       <c r="BT157">
         <v>0.90273300000000001</v>
@@ -20795,8 +21773,14 @@
       <c r="BF158">
         <v>0.92045500000000002</v>
       </c>
+      <c r="BL158">
+        <v>0.98053866999999995</v>
+      </c>
+      <c r="BM158">
+        <v>0.92045500000000002</v>
+      </c>
       <c r="BS158">
-        <v>0.98053866999999995</v>
+        <v>0.97905474999999997</v>
       </c>
       <c r="BT158">
         <v>0.92045500000000002</v>
@@ -20857,8 +21841,14 @@
       <c r="BF159">
         <v>0.93263300000000005</v>
       </c>
+      <c r="BL159">
+        <v>0.98380889999999999</v>
+      </c>
+      <c r="BM159">
+        <v>0.93263300000000005</v>
+      </c>
       <c r="BS159">
-        <v>0.98380889999999999</v>
+        <v>0.9830025</v>
       </c>
       <c r="BT159">
         <v>0.93263300000000005</v>
@@ -20919,8 +21909,14 @@
       <c r="BF160">
         <v>0.92901900000000004</v>
       </c>
+      <c r="BL160">
+        <v>0.98810226000000001</v>
+      </c>
+      <c r="BM160">
+        <v>0.92901900000000004</v>
+      </c>
       <c r="BS160">
-        <v>0.98810226000000001</v>
+        <v>0.98705259999999995</v>
       </c>
       <c r="BT160">
         <v>0.92901900000000004</v>
@@ -20981,8 +21977,14 @@
       <c r="BF161">
         <v>0.90626899999999999</v>
       </c>
+      <c r="BL161">
+        <v>0.98981779999999997</v>
+      </c>
+      <c r="BM161">
+        <v>0.90626899999999999</v>
+      </c>
       <c r="BS161">
-        <v>0.98981779999999997</v>
+        <v>0.98940795999999998</v>
       </c>
       <c r="BT161">
         <v>0.90626899999999999</v>
@@ -21043,8 +22045,14 @@
       <c r="BF162">
         <v>0.91259100000000004</v>
       </c>
+      <c r="BL162">
+        <v>0.98741436000000005</v>
+      </c>
+      <c r="BM162">
+        <v>0.91259100000000004</v>
+      </c>
       <c r="BS162">
-        <v>0.98741436000000005</v>
+        <v>0.98649883000000005</v>
       </c>
       <c r="BT162">
         <v>0.91259100000000004</v>
@@ -21105,8 +22113,14 @@
       <c r="BF163">
         <v>0.89545600000000003</v>
       </c>
+      <c r="BL163">
+        <v>0.98897100000000004</v>
+      </c>
+      <c r="BM163">
+        <v>0.89545600000000003</v>
+      </c>
       <c r="BS163">
-        <v>0.98897100000000004</v>
+        <v>0.98514354000000004</v>
       </c>
       <c r="BT163">
         <v>0.89545600000000003</v>
@@ -21167,8 +22181,14 @@
       <c r="BF164">
         <v>0.89264100000000002</v>
       </c>
+      <c r="BL164">
+        <v>0.98509690000000005</v>
+      </c>
+      <c r="BM164">
+        <v>0.89264100000000002</v>
+      </c>
       <c r="BS164">
-        <v>0.98509690000000005</v>
+        <v>0.98183260000000006</v>
       </c>
       <c r="BT164">
         <v>0.89264100000000002</v>
@@ -21229,8 +22249,14 @@
       <c r="BF165">
         <v>0.88802999999999999</v>
       </c>
+      <c r="BL165">
+        <v>0.98535669999999997</v>
+      </c>
+      <c r="BM165">
+        <v>0.88802999999999999</v>
+      </c>
       <c r="BS165">
-        <v>0.98535669999999997</v>
+        <v>0.98020565999999998</v>
       </c>
       <c r="BT165">
         <v>0.88802999999999999</v>
@@ -21291,8 +22317,14 @@
       <c r="BF166">
         <v>0.88739400000000002</v>
       </c>
+      <c r="BL166">
+        <v>0.98165815999999995</v>
+      </c>
+      <c r="BM166">
+        <v>0.88739400000000002</v>
+      </c>
       <c r="BS166">
-        <v>0.98165815999999995</v>
+        <v>0.97775909999999999</v>
       </c>
       <c r="BT166">
         <v>0.88739400000000002</v>
@@ -21353,8 +22385,14 @@
       <c r="BF167">
         <v>0.85233800000000004</v>
       </c>
+      <c r="BL167">
+        <v>0.98091227000000003</v>
+      </c>
+      <c r="BM167">
+        <v>0.85233800000000004</v>
+      </c>
       <c r="BS167">
-        <v>0.98091227000000003</v>
+        <v>0.97663619999999995</v>
       </c>
       <c r="BT167">
         <v>0.85233800000000004</v>
@@ -21415,8 +22453,14 @@
       <c r="BF168">
         <v>0.85397900000000004</v>
       </c>
+      <c r="BL168">
+        <v>0.97390144999999995</v>
+      </c>
+      <c r="BM168">
+        <v>0.85397900000000004</v>
+      </c>
       <c r="BS168">
-        <v>0.97390144999999995</v>
+        <v>0.97174819999999995</v>
       </c>
       <c r="BT168">
         <v>0.85397900000000004</v>
@@ -21477,8 +22521,14 @@
       <c r="BF169">
         <v>0.87939500000000004</v>
       </c>
+      <c r="BL169">
+        <v>0.97114223</v>
+      </c>
+      <c r="BM169">
+        <v>0.87939500000000004</v>
+      </c>
       <c r="BS169">
-        <v>0.97114223</v>
+        <v>0.96770597000000003</v>
       </c>
       <c r="BT169">
         <v>0.87939500000000004</v>
@@ -21539,8 +22589,14 @@
       <c r="BF170">
         <v>0.88207500000000005</v>
       </c>
+      <c r="BL170">
+        <v>0.97021409999999997</v>
+      </c>
+      <c r="BM170">
+        <v>0.88207500000000005</v>
+      </c>
       <c r="BS170">
-        <v>0.97021409999999997</v>
+        <v>0.96680235999999997</v>
       </c>
       <c r="BT170">
         <v>0.88207500000000005</v>
@@ -21601,8 +22657,14 @@
       <c r="BF171">
         <v>0.90155200000000002</v>
       </c>
+      <c r="BL171">
+        <v>0.97063655000000004</v>
+      </c>
+      <c r="BM171">
+        <v>0.90155200000000002</v>
+      </c>
       <c r="BS171">
-        <v>0.97063655000000004</v>
+        <v>0.96790712999999995</v>
       </c>
       <c r="BT171">
         <v>0.90155200000000002</v>
@@ -21663,8 +22725,14 @@
       <c r="BF172">
         <v>0.92679100000000003</v>
       </c>
+      <c r="BL172">
+        <v>0.96832759999999996</v>
+      </c>
+      <c r="BM172">
+        <v>0.92679100000000003</v>
+      </c>
       <c r="BS172">
-        <v>0.96832759999999996</v>
+        <v>0.96715516000000001</v>
       </c>
       <c r="BT172">
         <v>0.92679100000000003</v>
@@ -21725,8 +22793,14 @@
       <c r="BF173">
         <v>0.92174900000000004</v>
       </c>
+      <c r="BL173">
+        <v>0.97167590000000004</v>
+      </c>
+      <c r="BM173">
+        <v>0.92174900000000004</v>
+      </c>
       <c r="BS173">
-        <v>0.97167590000000004</v>
+        <v>0.96946913000000001</v>
       </c>
       <c r="BT173">
         <v>0.92174900000000004</v>
@@ -21787,8 +22861,14 @@
       <c r="BF174">
         <v>0.93300000000000005</v>
       </c>
+      <c r="BL174">
+        <v>0.97599270000000005</v>
+      </c>
+      <c r="BM174">
+        <v>0.93300000000000005</v>
+      </c>
       <c r="BS174">
-        <v>0.97599270000000005</v>
+        <v>0.97451836000000003</v>
       </c>
       <c r="BT174">
         <v>0.93300000000000005</v>
@@ -21849,8 +22929,14 @@
       <c r="BF175">
         <v>0.94544700000000004</v>
       </c>
+      <c r="BL175">
+        <v>0.9795701</v>
+      </c>
+      <c r="BM175">
+        <v>0.94544700000000004</v>
+      </c>
       <c r="BS175">
-        <v>0.9795701</v>
+        <v>0.97877705000000004</v>
       </c>
       <c r="BT175">
         <v>0.94544700000000004</v>
@@ -21911,8 +22997,14 @@
       <c r="BF176">
         <v>0.94647999999999999</v>
       </c>
+      <c r="BL176">
+        <v>0.98311156</v>
+      </c>
+      <c r="BM176">
+        <v>0.94647999999999999</v>
+      </c>
       <c r="BS176">
-        <v>0.98311156</v>
+        <v>0.98198629999999998</v>
       </c>
       <c r="BT176">
         <v>0.94647999999999999</v>
@@ -21973,8 +23065,14 @@
       <c r="BF177">
         <v>0.94829699999999995</v>
       </c>
+      <c r="BL177">
+        <v>0.98776037000000005</v>
+      </c>
+      <c r="BM177">
+        <v>0.94829699999999995</v>
+      </c>
       <c r="BS177">
-        <v>0.98776037000000005</v>
+        <v>0.98590630000000001</v>
       </c>
       <c r="BT177">
         <v>0.94829699999999995</v>
@@ -22035,8 +23133,14 @@
       <c r="BF178">
         <v>0.93855900000000003</v>
       </c>
+      <c r="BL178">
+        <v>0.99197930000000001</v>
+      </c>
+      <c r="BM178">
+        <v>0.93855900000000003</v>
+      </c>
       <c r="BS178">
-        <v>0.99197930000000001</v>
+        <v>0.98970734999999999</v>
       </c>
       <c r="BT178">
         <v>0.93855900000000003</v>
@@ -22097,8 +23201,14 @@
       <c r="BF179">
         <v>0.93187600000000004</v>
       </c>
+      <c r="BL179">
+        <v>0.99360406000000001</v>
+      </c>
+      <c r="BM179">
+        <v>0.93187600000000004</v>
+      </c>
       <c r="BS179">
-        <v>0.99360406000000001</v>
+        <v>0.99058880000000005</v>
       </c>
       <c r="BT179">
         <v>0.93187600000000004</v>
@@ -22159,8 +23269,14 @@
       <c r="BF180">
         <v>0.95282299999999998</v>
       </c>
+      <c r="BL180">
+        <v>0.99512904999999996</v>
+      </c>
+      <c r="BM180">
+        <v>0.95282299999999998</v>
+      </c>
       <c r="BS180">
-        <v>0.99512904999999996</v>
+        <v>0.99007270000000003</v>
       </c>
       <c r="BT180">
         <v>0.95282299999999998</v>
@@ -22221,8 +23337,14 @@
       <c r="BF181">
         <v>0.95936500000000002</v>
       </c>
+      <c r="BL181">
+        <v>0.99669503999999998</v>
+      </c>
+      <c r="BM181">
+        <v>0.95936500000000002</v>
+      </c>
       <c r="BS181">
-        <v>0.99669503999999998</v>
+        <v>0.98989479999999996</v>
       </c>
       <c r="BT181">
         <v>0.95936500000000002</v>
@@ -22283,8 +23405,14 @@
       <c r="BF182">
         <v>0.959754</v>
       </c>
+      <c r="BL182">
+        <v>1.0002196000000001</v>
+      </c>
+      <c r="BM182">
+        <v>0.959754</v>
+      </c>
       <c r="BS182">
-        <v>1.0002196000000001</v>
+        <v>0.99229719999999999</v>
       </c>
       <c r="BT182">
         <v>0.959754</v>
@@ -22345,8 +23473,14 @@
       <c r="BF183">
         <v>0.95770999999999995</v>
       </c>
+      <c r="BL183">
+        <v>1.0035274999999999</v>
+      </c>
+      <c r="BM183">
+        <v>0.95770999999999995</v>
+      </c>
       <c r="BS183">
-        <v>1.0035274999999999</v>
+        <v>0.99562633</v>
       </c>
       <c r="BT183">
         <v>0.95770999999999995</v>
@@ -22407,8 +23541,14 @@
       <c r="BF184">
         <v>0.94934399999999997</v>
       </c>
+      <c r="BL184">
+        <v>1.0061610000000001</v>
+      </c>
+      <c r="BM184">
+        <v>0.94934399999999997</v>
+      </c>
       <c r="BS184">
-        <v>1.0061610000000001</v>
+        <v>0.99787519999999996</v>
       </c>
       <c r="BT184">
         <v>0.94934399999999997</v>
@@ -22469,8 +23609,14 @@
       <c r="BF185">
         <v>0.97308399999999995</v>
       </c>
+      <c r="BL185">
+        <v>1.006583</v>
+      </c>
+      <c r="BM185">
+        <v>0.97308399999999995</v>
+      </c>
       <c r="BS185">
-        <v>1.006583</v>
+        <v>0.99754339999999997</v>
       </c>
       <c r="BT185">
         <v>0.97308399999999995</v>
@@ -22531,8 +23677,14 @@
       <c r="BF186">
         <v>0.98909499999999995</v>
       </c>
+      <c r="BL186">
+        <v>1.0079262</v>
+      </c>
+      <c r="BM186">
+        <v>0.98909499999999995</v>
+      </c>
       <c r="BS186">
-        <v>1.0079262</v>
+        <v>0.99700809999999995</v>
       </c>
       <c r="BT186">
         <v>0.98909499999999995</v>
@@ -22593,8 +23745,14 @@
       <c r="BF187">
         <v>0.98628800000000005</v>
       </c>
+      <c r="BL187">
+        <v>1.0112426000000001</v>
+      </c>
+      <c r="BM187">
+        <v>0.98628800000000005</v>
+      </c>
       <c r="BS187">
-        <v>1.0112426000000001</v>
+        <v>0.99895394000000004</v>
       </c>
       <c r="BT187">
         <v>0.98628800000000005</v>
@@ -22655,8 +23813,14 @@
       <c r="BF188">
         <v>0.98254600000000003</v>
       </c>
+      <c r="BL188">
+        <v>1.0141122</v>
+      </c>
+      <c r="BM188">
+        <v>0.98254600000000003</v>
+      </c>
       <c r="BS188">
-        <v>1.0141122</v>
+        <v>1.0015696000000001</v>
       </c>
       <c r="BT188">
         <v>0.98254600000000003</v>
@@ -22717,8 +23881,14 @@
       <c r="BF189">
         <v>0.99984399999999996</v>
       </c>
+      <c r="BL189">
+        <v>1.0148073</v>
+      </c>
+      <c r="BM189">
+        <v>0.99984399999999996</v>
+      </c>
       <c r="BS189">
-        <v>1.0148073</v>
+        <v>1.0017613999999999</v>
       </c>
       <c r="BT189">
         <v>0.99984399999999996</v>
@@ -22779,8 +23949,14 @@
       <c r="BF190">
         <v>0.99917999999999996</v>
       </c>
+      <c r="BL190">
+        <v>1.0152276</v>
+      </c>
+      <c r="BM190">
+        <v>0.99917999999999996</v>
+      </c>
       <c r="BS190">
-        <v>1.0152276</v>
+        <v>1.0005558000000001</v>
       </c>
       <c r="BT190">
         <v>0.99917999999999996</v>
@@ -22841,8 +24017,14 @@
       <c r="BF191">
         <v>0.99207199999999995</v>
       </c>
+      <c r="BL191">
+        <v>1.0178202000000001</v>
+      </c>
+      <c r="BM191">
+        <v>0.99207199999999995</v>
+      </c>
       <c r="BS191">
-        <v>1.0178202000000001</v>
+        <v>1.0016327</v>
       </c>
       <c r="BT191">
         <v>0.99207199999999995</v>
@@ -22903,8 +24085,14 @@
       <c r="BF192">
         <v>1.00953</v>
       </c>
+      <c r="BL192">
+        <v>1.0185363000000001</v>
+      </c>
+      <c r="BM192">
+        <v>1.00953</v>
+      </c>
       <c r="BS192">
-        <v>1.0185363000000001</v>
+        <v>1.0027287</v>
       </c>
       <c r="BT192">
         <v>1.00953</v>
@@ -22965,8 +24153,14 @@
       <c r="BF193">
         <v>1.01359</v>
       </c>
+      <c r="BL193">
+        <v>1.0197254</v>
+      </c>
+      <c r="BM193">
+        <v>1.01359</v>
+      </c>
       <c r="BS193">
-        <v>1.0197254</v>
+        <v>1.0034721</v>
       </c>
       <c r="BT193">
         <v>1.01359</v>
@@ -23027,8 +24221,14 @@
       <c r="BF194">
         <v>1.0083</v>
       </c>
+      <c r="BL194">
+        <v>1.0215367</v>
+      </c>
+      <c r="BM194">
+        <v>1.0083</v>
+      </c>
       <c r="BS194">
-        <v>1.0215367</v>
+        <v>1.0046613</v>
       </c>
       <c r="BT194">
         <v>1.0083</v>
@@ -23089,8 +24289,14 @@
       <c r="BF195">
         <v>1.0066200000000001</v>
       </c>
+      <c r="BL195">
+        <v>1.0227556</v>
+      </c>
+      <c r="BM195">
+        <v>1.0066200000000001</v>
+      </c>
       <c r="BS195">
-        <v>1.0227556</v>
+        <v>1.0053436</v>
       </c>
       <c r="BT195">
         <v>1.0066200000000001</v>
@@ -23151,8 +24357,14 @@
       <c r="BF196">
         <v>1.0061</v>
       </c>
+      <c r="BL196">
+        <v>1.0235415999999999</v>
+      </c>
+      <c r="BM196">
+        <v>1.0061</v>
+      </c>
       <c r="BS196">
-        <v>1.0235415999999999</v>
+        <v>1.0053821000000001</v>
       </c>
       <c r="BT196">
         <v>1.0061</v>
@@ -23213,8 +24425,14 @@
       <c r="BF197">
         <v>0.99152099999999999</v>
       </c>
+      <c r="BL197">
+        <v>1.0240718</v>
+      </c>
+      <c r="BM197">
+        <v>0.99152099999999999</v>
+      </c>
       <c r="BS197">
-        <v>1.0240718</v>
+        <v>1.0049121000000001</v>
       </c>
       <c r="BT197">
         <v>0.99152099999999999</v>
@@ -23275,8 +24493,14 @@
       <c r="BF198">
         <v>0.99374099999999999</v>
       </c>
+      <c r="BL198">
+        <v>1.0218438000000001</v>
+      </c>
+      <c r="BM198">
+        <v>0.99374099999999999</v>
+      </c>
       <c r="BS198">
-        <v>1.0218438000000001</v>
+        <v>1.0023355</v>
       </c>
       <c r="BT198">
         <v>0.99374099999999999</v>
@@ -23337,8 +24561,14 @@
       <c r="BF199">
         <v>0.98898900000000001</v>
       </c>
+      <c r="BL199">
+        <v>1.0214201000000001</v>
+      </c>
+      <c r="BM199">
+        <v>0.98898900000000001</v>
+      </c>
       <c r="BS199">
-        <v>1.0214201000000001</v>
+        <v>1.0005139999999999</v>
       </c>
       <c r="BT199">
         <v>0.98898900000000001</v>
@@ -23399,8 +24629,14 @@
       <c r="BF200">
         <v>0.96845899999999996</v>
       </c>
+      <c r="BL200">
+        <v>1.0205734</v>
+      </c>
+      <c r="BM200">
+        <v>0.96845899999999996</v>
+      </c>
       <c r="BS200">
-        <v>1.0205734</v>
+        <v>0.99981509999999996</v>
       </c>
       <c r="BT200">
         <v>0.96845899999999996</v>
@@ -23461,8 +24697,14 @@
       <c r="BF201">
         <v>0.95224299999999995</v>
       </c>
+      <c r="BL201">
+        <v>1.0155571999999999</v>
+      </c>
+      <c r="BM201">
+        <v>0.95224299999999995</v>
+      </c>
       <c r="BS201">
-        <v>1.0155571999999999</v>
+        <v>0.99535059999999997</v>
       </c>
       <c r="BT201">
         <v>0.95224299999999995</v>
@@ -23523,8 +24765,14 @@
       <c r="BF202">
         <v>0.97356500000000001</v>
       </c>
+      <c r="BL202">
+        <v>1.0102473000000001</v>
+      </c>
+      <c r="BM202">
+        <v>0.97356500000000001</v>
+      </c>
       <c r="BS202">
-        <v>1.0102473000000001</v>
+        <v>0.98855203000000003</v>
       </c>
       <c r="BT202">
         <v>0.97356500000000001</v>
@@ -23585,8 +24833,14 @@
       <c r="BF203">
         <v>0.97162000000000004</v>
       </c>
+      <c r="BL203">
+        <v>1.0078726</v>
+      </c>
+      <c r="BM203">
+        <v>0.97162000000000004</v>
+      </c>
       <c r="BS203">
-        <v>1.0078726</v>
+        <v>0.98507403999999998</v>
       </c>
       <c r="BT203">
         <v>0.97162000000000004</v>
@@ -23647,8 +24901,14 @@
       <c r="BF204">
         <v>0.99505699999999997</v>
       </c>
+      <c r="BL204">
+        <v>1.0081195999999999</v>
+      </c>
+      <c r="BM204">
+        <v>0.99505699999999997</v>
+      </c>
       <c r="BS204">
-        <v>1.0081195999999999</v>
+        <v>0.9857302</v>
       </c>
       <c r="BT204">
         <v>0.99505699999999997</v>
@@ -23709,8 +24969,14 @@
       <c r="BF205">
         <v>0.99340200000000001</v>
       </c>
+      <c r="BL205">
+        <v>1.0086306</v>
+      </c>
+      <c r="BM205">
+        <v>0.99340200000000001</v>
+      </c>
       <c r="BS205">
-        <v>1.0086306</v>
+        <v>0.98726130000000001</v>
       </c>
       <c r="BT205">
         <v>0.99340200000000001</v>
@@ -23771,8 +25037,14 @@
       <c r="BF206">
         <v>0.99900999999999995</v>
       </c>
+      <c r="BL206">
+        <v>1.0116396999999999</v>
+      </c>
+      <c r="BM206">
+        <v>0.99900999999999995</v>
+      </c>
       <c r="BS206">
-        <v>1.0116396999999999</v>
+        <v>0.99003213999999995</v>
       </c>
       <c r="BT206">
         <v>0.99900999999999995</v>
@@ -23833,8 +25105,14 @@
       <c r="BF207">
         <v>0.99718499999999999</v>
       </c>
+      <c r="BL207">
+        <v>1.0132736</v>
+      </c>
+      <c r="BM207">
+        <v>0.99718499999999999</v>
+      </c>
       <c r="BS207">
-        <v>1.0132736</v>
+        <v>0.99192480000000005</v>
       </c>
       <c r="BT207">
         <v>0.99718499999999999</v>
@@ -23895,8 +25173,14 @@
       <c r="BF208">
         <v>0.99898900000000002</v>
       </c>
+      <c r="BL208">
+        <v>1.0147497999999999</v>
+      </c>
+      <c r="BM208">
+        <v>0.99898900000000002</v>
+      </c>
       <c r="BS208">
-        <v>1.0147497999999999</v>
+        <v>0.99257530000000005</v>
       </c>
       <c r="BT208">
         <v>0.99898900000000002</v>
@@ -23957,8 +25241,14 @@
       <c r="BF209">
         <v>0.99879799999999996</v>
       </c>
+      <c r="BL209">
+        <v>1.0143882</v>
+      </c>
+      <c r="BM209">
+        <v>0.99879799999999996</v>
+      </c>
       <c r="BS209">
-        <v>1.0143882</v>
+        <v>0.99180794000000005</v>
       </c>
       <c r="BT209">
         <v>0.99879799999999996</v>
@@ -24019,8 +25309,14 @@
       <c r="BF210">
         <v>0.99967499999999998</v>
       </c>
+      <c r="BL210">
+        <v>1.0172094</v>
+      </c>
+      <c r="BM210">
+        <v>0.99967499999999998</v>
+      </c>
       <c r="BS210">
-        <v>1.0172094</v>
+        <v>0.99345870000000003</v>
       </c>
       <c r="BT210">
         <v>0.99967499999999998</v>
@@ -24081,8 +25377,14 @@
       <c r="BF211">
         <v>0.992815</v>
       </c>
+      <c r="BL211">
+        <v>1.0192832000000001</v>
+      </c>
+      <c r="BM211">
+        <v>0.992815</v>
+      </c>
       <c r="BS211">
-        <v>1.0192832000000001</v>
+        <v>0.99635399999999996</v>
       </c>
       <c r="BT211">
         <v>0.992815</v>
@@ -24143,8 +25445,14 @@
       <c r="BF212">
         <v>1.0085299999999999</v>
       </c>
+      <c r="BL212">
+        <v>1.0190465</v>
+      </c>
+      <c r="BM212">
+        <v>1.0085299999999999</v>
+      </c>
       <c r="BS212">
-        <v>1.0190465</v>
+        <v>0.99642059999999999</v>
       </c>
       <c r="BT212">
         <v>1.0085299999999999</v>
@@ -24205,8 +25513,14 @@
       <c r="BF213">
         <v>0.992178</v>
       </c>
+      <c r="BL213">
+        <v>1.0206774000000001</v>
+      </c>
+      <c r="BM213">
+        <v>0.992178</v>
+      </c>
       <c r="BS213">
-        <v>1.0206774000000001</v>
+        <v>0.99703739999999996</v>
       </c>
       <c r="BT213">
         <v>0.992178</v>
@@ -24267,8 +25581,14 @@
       <c r="BF214">
         <v>0.97104000000000001</v>
       </c>
+      <c r="BL214">
+        <v>1.0198742999999999</v>
+      </c>
+      <c r="BM214">
+        <v>0.97104000000000001</v>
+      </c>
       <c r="BS214">
-        <v>1.0198742999999999</v>
+        <v>0.99638579999999999</v>
       </c>
       <c r="BT214">
         <v>0.97104000000000001</v>
@@ -24329,8 +25649,14 @@
       <c r="BF215">
         <v>1.0007900000000001</v>
       </c>
+      <c r="BL215">
+        <v>1.0152966000000001</v>
+      </c>
+      <c r="BM215">
+        <v>1.0007900000000001</v>
+      </c>
       <c r="BS215">
-        <v>1.0152966000000001</v>
+        <v>0.99157980000000001</v>
       </c>
       <c r="BT215">
         <v>1.0007900000000001</v>
@@ -24391,8 +25717,14 @@
       <c r="BF216">
         <v>0.99045300000000003</v>
       </c>
+      <c r="BL216">
+        <v>1.0147972999999999</v>
+      </c>
+      <c r="BM216">
+        <v>0.99045300000000003</v>
+      </c>
       <c r="BS216">
-        <v>1.0147972999999999</v>
+        <v>0.98900443000000005</v>
       </c>
       <c r="BT216">
         <v>0.99045300000000003</v>
@@ -24453,8 +25785,14 @@
       <c r="BF217">
         <v>0.98092000000000001</v>
       </c>
+      <c r="BL217">
+        <v>1.0142277</v>
+      </c>
+      <c r="BM217">
+        <v>0.98092000000000001</v>
+      </c>
       <c r="BS217">
-        <v>1.0142277</v>
+        <v>0.98871856999999996</v>
       </c>
       <c r="BT217">
         <v>0.98092000000000001</v>
@@ -24515,8 +25853,14 @@
       <c r="BF218">
         <v>0.96962599999999999</v>
       </c>
+      <c r="BL218">
+        <v>1.0110446</v>
+      </c>
+      <c r="BM218">
+        <v>0.96962599999999999</v>
+      </c>
       <c r="BS218">
-        <v>1.0110446</v>
+        <v>0.98580259999999997</v>
       </c>
       <c r="BT218">
         <v>0.96962599999999999</v>
@@ -24577,8 +25921,14 @@
       <c r="BF219">
         <v>0.97288600000000003</v>
       </c>
+      <c r="BL219">
+        <v>1.0062076</v>
+      </c>
+      <c r="BM219">
+        <v>0.97288600000000003</v>
+      </c>
       <c r="BS219">
-        <v>1.0062076</v>
+        <v>0.98043203000000001</v>
       </c>
       <c r="BT219">
         <v>0.97288600000000003</v>
@@ -24639,8 +25989,14 @@
       <c r="BF220">
         <v>0.94469700000000001</v>
       </c>
+      <c r="BL220">
+        <v>1.0059456</v>
+      </c>
+      <c r="BM220">
+        <v>0.94469700000000001</v>
+      </c>
       <c r="BS220">
-        <v>1.0059456</v>
+        <v>0.97871463999999997</v>
       </c>
       <c r="BT220">
         <v>0.94469700000000001</v>
@@ -24701,8 +26057,14 @@
       <c r="BF221">
         <v>0.95146500000000001</v>
       </c>
+      <c r="BL221">
+        <v>1.0001354</v>
+      </c>
+      <c r="BM221">
+        <v>0.95146500000000001</v>
+      </c>
       <c r="BS221">
-        <v>1.0001354</v>
+        <v>0.97467590000000004</v>
       </c>
       <c r="BT221">
         <v>0.95146500000000001</v>
@@ -24763,8 +26125,14 @@
       <c r="BF222">
         <v>0.96664899999999998</v>
       </c>
+      <c r="BL222">
+        <v>0.99773630000000002</v>
+      </c>
+      <c r="BM222">
+        <v>0.96664899999999998</v>
+      </c>
       <c r="BS222">
-        <v>0.99773630000000002</v>
+        <v>0.97106033999999997</v>
       </c>
       <c r="BT222">
         <v>0.96664899999999998</v>
@@ -24825,8 +26193,14 @@
       <c r="BF223">
         <v>0.98762399999999995</v>
       </c>
+      <c r="BL223">
+        <v>0.99773080000000003</v>
+      </c>
+      <c r="BM223">
+        <v>0.98762399999999995</v>
+      </c>
       <c r="BS223">
-        <v>0.99773080000000003</v>
+        <v>0.97125333999999997</v>
       </c>
       <c r="BT223">
         <v>0.98762399999999995</v>
@@ -24887,8 +26261,14 @@
       <c r="BF224">
         <v>0.96557400000000004</v>
       </c>
+      <c r="BL224">
+        <v>0.9997492</v>
+      </c>
+      <c r="BM224">
+        <v>0.96557400000000004</v>
+      </c>
       <c r="BS224">
-        <v>0.9997492</v>
+        <v>0.97442525999999996</v>
       </c>
       <c r="BT224">
         <v>0.96557400000000004</v>
@@ -24949,8 +26329,14 @@
       <c r="BF225">
         <v>0.93987399999999999</v>
       </c>
+      <c r="BL225">
+        <v>0.99889939999999999</v>
+      </c>
+      <c r="BM225">
+        <v>0.93987399999999999</v>
+      </c>
       <c r="BS225">
-        <v>0.99889939999999999</v>
+        <v>0.97525287000000005</v>
       </c>
       <c r="BT225">
         <v>0.93987399999999999</v>
@@ -25011,8 +26397,14 @@
       <c r="BF226">
         <v>0.95090699999999995</v>
       </c>
+      <c r="BL226">
+        <v>0.99350952999999997</v>
+      </c>
+      <c r="BM226">
+        <v>0.95090699999999995</v>
+      </c>
       <c r="BS226">
-        <v>0.99350952999999997</v>
+        <v>0.97033250000000004</v>
       </c>
       <c r="BT226">
         <v>0.95090699999999995</v>
@@ -25073,8 +26465,14 @@
       <c r="BF227">
         <v>0.96350899999999995</v>
       </c>
+      <c r="BL227">
+        <v>0.99399906000000005</v>
+      </c>
+      <c r="BM227">
+        <v>0.96350899999999995</v>
+      </c>
       <c r="BS227">
-        <v>0.99399906000000005</v>
+        <v>0.96849626</v>
       </c>
       <c r="BT227">
         <v>0.96350899999999995</v>
@@ -25135,8 +26533,14 @@
       <c r="BF228">
         <v>0.98141500000000004</v>
       </c>
+      <c r="BL228">
+        <v>0.99452689999999999</v>
+      </c>
+      <c r="BM228">
+        <v>0.98141500000000004</v>
+      </c>
       <c r="BS228">
-        <v>0.99452689999999999</v>
+        <v>0.97048029999999996</v>
       </c>
       <c r="BT228">
         <v>0.98141500000000004</v>
@@ -25197,8 +26601,14 @@
       <c r="BF229">
         <v>0.97908099999999998</v>
       </c>
+      <c r="BL229">
+        <v>0.99731539999999996</v>
+      </c>
+      <c r="BM229">
+        <v>0.97908099999999998</v>
+      </c>
       <c r="BS229">
-        <v>0.99731539999999996</v>
+        <v>0.97459879999999999</v>
       </c>
       <c r="BT229">
         <v>0.97908099999999998</v>
@@ -25259,8 +26669,14 @@
       <c r="BF230">
         <v>0.97590600000000005</v>
       </c>
+      <c r="BL230">
+        <v>1.0024478000000001</v>
+      </c>
+      <c r="BM230">
+        <v>0.97590600000000005</v>
+      </c>
       <c r="BS230">
-        <v>1.0024478000000001</v>
+        <v>0.98114805999999999</v>
       </c>
       <c r="BT230">
         <v>0.97590600000000005</v>
@@ -25321,8 +26737,14 @@
       <c r="BF231">
         <v>0.99136500000000005</v>
       </c>
+      <c r="BL231">
+        <v>1.0046537</v>
+      </c>
+      <c r="BM231">
+        <v>0.99136500000000005</v>
+      </c>
       <c r="BS231">
-        <v>1.0046537</v>
+        <v>0.98492270000000004</v>
       </c>
       <c r="BT231">
         <v>0.99136500000000005</v>
@@ -25383,8 +26805,14 @@
       <c r="BF232">
         <v>0.98075699999999999</v>
       </c>
+      <c r="BL232">
+        <v>1.0080788000000001</v>
+      </c>
+      <c r="BM232">
+        <v>0.98075699999999999</v>
+      </c>
       <c r="BS232">
-        <v>1.0080788000000001</v>
+        <v>0.98776925000000004</v>
       </c>
       <c r="BT232">
         <v>0.98075699999999999</v>
@@ -25445,8 +26873,14 @@
       <c r="BF233">
         <v>0.96702399999999999</v>
       </c>
+      <c r="BL233">
+        <v>1.010408</v>
+      </c>
+      <c r="BM233">
+        <v>0.96702399999999999</v>
+      </c>
       <c r="BS233">
-        <v>1.010408</v>
+        <v>0.99018720000000005</v>
       </c>
       <c r="BT233">
         <v>0.96702399999999999</v>
@@ -25507,8 +26941,14 @@
       <c r="BF234">
         <v>0.94490300000000005</v>
       </c>
+      <c r="BL234">
+        <v>1.0100781000000001</v>
+      </c>
+      <c r="BM234">
+        <v>0.94490300000000005</v>
+      </c>
       <c r="BS234">
-        <v>1.0100781000000001</v>
+        <v>0.98999786000000001</v>
       </c>
       <c r="BT234">
         <v>0.94490300000000005</v>
@@ -25569,8 +27009,14 @@
       <c r="BF235">
         <v>0.94776700000000003</v>
       </c>
+      <c r="BL235">
+        <v>1.0024545</v>
+      </c>
+      <c r="BM235">
+        <v>0.94776700000000003</v>
+      </c>
       <c r="BS235">
-        <v>1.0024545</v>
+        <v>0.98257136</v>
       </c>
       <c r="BT235">
         <v>0.94776700000000003</v>
@@ -25631,8 +27077,14 @@
       <c r="BF236">
         <v>0.92906100000000003</v>
       </c>
+      <c r="BL236">
+        <v>1.0010363</v>
+      </c>
+      <c r="BM236">
+        <v>0.92906100000000003</v>
+      </c>
       <c r="BS236">
-        <v>1.0010363</v>
+        <v>0.97793350000000001</v>
       </c>
       <c r="BT236">
         <v>0.92906100000000003</v>
@@ -25693,8 +27145,14 @@
       <c r="BF237">
         <v>0.89570300000000003</v>
       </c>
+      <c r="BL237">
+        <v>0.99599590000000005</v>
+      </c>
+      <c r="BM237">
+        <v>0.89570300000000003</v>
+      </c>
       <c r="BS237">
-        <v>0.99599590000000005</v>
+        <v>0.97433024999999995</v>
       </c>
       <c r="BT237">
         <v>0.89570300000000003</v>
@@ -25755,8 +27213,14 @@
       <c r="BF238">
         <v>0.88080999999999998</v>
       </c>
+      <c r="BL238">
+        <v>0.98919153000000004</v>
+      </c>
+      <c r="BM238">
+        <v>0.88080999999999998</v>
+      </c>
       <c r="BS238">
-        <v>0.98919153000000004</v>
+        <v>0.96842574999999997</v>
       </c>
       <c r="BT238">
         <v>0.88080999999999998</v>
@@ -25817,8 +27281,14 @@
       <c r="BF239">
         <v>0.881969</v>
       </c>
+      <c r="BL239">
+        <v>0.98395359999999998</v>
+      </c>
+      <c r="BM239">
+        <v>0.881969</v>
+      </c>
       <c r="BS239">
-        <v>0.98395359999999998</v>
+        <v>0.96298030000000001</v>
       </c>
       <c r="BT239">
         <v>0.881969</v>
@@ -25879,8 +27349,14 @@
       <c r="BF240">
         <v>0.89258400000000004</v>
       </c>
+      <c r="BL240">
+        <v>0.98011934999999994</v>
+      </c>
+      <c r="BM240">
+        <v>0.89258400000000004</v>
+      </c>
       <c r="BS240">
-        <v>0.98011934999999994</v>
+        <v>0.95949119999999999</v>
       </c>
       <c r="BT240">
         <v>0.89258400000000004</v>
@@ -25941,8 +27417,14 @@
       <c r="BF241">
         <v>0.85835600000000001</v>
       </c>
+      <c r="BL241">
+        <v>0.97786090000000003</v>
+      </c>
+      <c r="BM241">
+        <v>0.85835600000000001</v>
+      </c>
       <c r="BS241">
-        <v>0.97786090000000003</v>
+        <v>0.95815253</v>
       </c>
       <c r="BT241">
         <v>0.85835600000000001</v>
@@ -26003,8 +27485,14 @@
       <c r="BF242">
         <v>0.88067499999999999</v>
       </c>
+      <c r="BL242">
+        <v>0.97072389999999997</v>
+      </c>
+      <c r="BM242">
+        <v>0.88067499999999999</v>
+      </c>
       <c r="BS242">
-        <v>0.97072389999999997</v>
+        <v>0.95414770000000004</v>
       </c>
       <c r="BT242">
         <v>0.88067499999999999</v>
@@ -26065,8 +27553,14 @@
       <c r="BF243">
         <v>0.85131999999999997</v>
       </c>
+      <c r="BL243">
+        <v>0.9662596</v>
+      </c>
+      <c r="BM243">
+        <v>0.85131999999999997</v>
+      </c>
       <c r="BS243">
-        <v>0.9662596</v>
+        <v>0.95021239999999996</v>
       </c>
       <c r="BT243">
         <v>0.85131999999999997</v>
@@ -26127,8 +27621,14 @@
       <c r="BF244">
         <v>0.85202699999999998</v>
       </c>
+      <c r="BL244">
+        <v>0.95875849999999996</v>
+      </c>
+      <c r="BM244">
+        <v>0.85202699999999998</v>
+      </c>
       <c r="BS244">
-        <v>0.95875849999999996</v>
+        <v>0.94518340000000001</v>
       </c>
       <c r="BT244">
         <v>0.85202699999999998</v>
@@ -26189,8 +27689,14 @@
       <c r="BF245">
         <v>0.83646900000000002</v>
       </c>
+      <c r="BL245">
+        <v>0.95525139999999997</v>
+      </c>
+      <c r="BM245">
+        <v>0.83646900000000002</v>
+      </c>
       <c r="BS245">
-        <v>0.95525139999999997</v>
+        <v>0.94229644999999995</v>
       </c>
       <c r="BT245">
         <v>0.83646900000000002</v>
@@ -26251,8 +27757,14 @@
       <c r="BF246">
         <v>0.84330000000000005</v>
       </c>
+      <c r="BL246">
+        <v>0.94681219999999999</v>
+      </c>
+      <c r="BM246">
+        <v>0.84330000000000005</v>
+      </c>
       <c r="BS246">
-        <v>0.94681219999999999</v>
+        <v>0.93775949999999997</v>
       </c>
       <c r="BT246">
         <v>0.84330000000000005</v>
@@ -26313,8 +27825,14 @@
       <c r="BF247">
         <v>0.87011000000000005</v>
       </c>
+      <c r="BL247">
+        <v>0.94395830000000003</v>
+      </c>
+      <c r="BM247">
+        <v>0.87011000000000005</v>
+      </c>
       <c r="BS247">
-        <v>0.94395830000000003</v>
+        <v>0.93568563000000005</v>
       </c>
       <c r="BT247">
         <v>0.87011000000000005</v>
@@ -26375,8 +27893,14 @@
       <c r="BF248">
         <v>0.84902100000000003</v>
       </c>
+      <c r="BL248">
+        <v>0.94370549999999997</v>
+      </c>
+      <c r="BM248">
+        <v>0.84902100000000003</v>
+      </c>
       <c r="BS248">
-        <v>0.94370549999999997</v>
+        <v>0.93736047</v>
       </c>
       <c r="BT248">
         <v>0.84902100000000003</v>
@@ -26437,8 +27961,14 @@
       <c r="BF249">
         <v>0.86779700000000004</v>
       </c>
+      <c r="BL249">
+        <v>0.94432720000000003</v>
+      </c>
+      <c r="BM249">
+        <v>0.86779700000000004</v>
+      </c>
       <c r="BS249">
-        <v>0.94432720000000003</v>
+        <v>0.94047104999999998</v>
       </c>
       <c r="BT249">
         <v>0.86779700000000004</v>
@@ -26499,8 +28029,14 @@
       <c r="BF250">
         <v>0.85317200000000004</v>
       </c>
+      <c r="BL250">
+        <v>0.94731635000000003</v>
+      </c>
+      <c r="BM250">
+        <v>0.85317200000000004</v>
+      </c>
       <c r="BS250">
-        <v>0.94731635000000003</v>
+        <v>0.94506586000000004</v>
       </c>
       <c r="BT250">
         <v>0.85317200000000004</v>
@@ -26561,8 +28097,14 @@
       <c r="BF251">
         <v>0.86053400000000002</v>
       </c>
+      <c r="BL251">
+        <v>0.94727439999999996</v>
+      </c>
+      <c r="BM251">
+        <v>0.86053400000000002</v>
+      </c>
       <c r="BS251">
-        <v>0.94727439999999996</v>
+        <v>0.94780719999999996</v>
       </c>
       <c r="BT251">
         <v>0.86053400000000002</v>
@@ -26623,8 +28165,14 @@
       <c r="BF252">
         <v>0.89368800000000004</v>
       </c>
+      <c r="BL252">
+        <v>0.94896274999999997</v>
+      </c>
+      <c r="BM252">
+        <v>0.89368800000000004</v>
+      </c>
       <c r="BS252">
-        <v>0.94896274999999997</v>
+        <v>0.95002940000000002</v>
       </c>
       <c r="BT252">
         <v>0.89368800000000004</v>
@@ -26685,8 +28233,14 @@
       <c r="BF253">
         <v>0.89307899999999996</v>
       </c>
+      <c r="BL253">
+        <v>0.95226115</v>
+      </c>
+      <c r="BM253">
+        <v>0.89307899999999996</v>
+      </c>
       <c r="BS253">
-        <v>0.95226115</v>
+        <v>0.95380615999999996</v>
       </c>
       <c r="BT253">
         <v>0.89307899999999996</v>
@@ -26747,8 +28301,14 @@
       <c r="BF254">
         <v>0.86737299999999995</v>
       </c>
+      <c r="BL254">
+        <v>0.95832424999999999</v>
+      </c>
+      <c r="BM254">
+        <v>0.86737299999999995</v>
+      </c>
       <c r="BS254">
-        <v>0.95832424999999999</v>
+        <v>0.9601113</v>
       </c>
       <c r="BT254">
         <v>0.86737299999999995</v>
@@ -26809,8 +28369,14 @@
       <c r="BF255">
         <v>0.87409099999999995</v>
       </c>
+      <c r="BL255">
+        <v>0.95838129999999999</v>
+      </c>
+      <c r="BM255">
+        <v>0.87409099999999995</v>
+      </c>
       <c r="BS255">
-        <v>0.95838129999999999</v>
+        <v>0.96228044999999995</v>
       </c>
       <c r="BT255">
         <v>0.87409099999999995</v>
@@ -26871,8 +28437,14 @@
       <c r="BF256">
         <v>0.87615600000000005</v>
       </c>
+      <c r="BL256">
+        <v>0.95778775000000005</v>
+      </c>
+      <c r="BM256">
+        <v>0.87615600000000005</v>
+      </c>
       <c r="BS256">
-        <v>0.95778775000000005</v>
+        <v>0.96125439999999995</v>
       </c>
       <c r="BT256">
         <v>0.87615600000000005</v>
@@ -26933,8 +28505,14 @@
       <c r="BF257">
         <v>0.85112200000000005</v>
       </c>
+      <c r="BL257">
+        <v>0.96073364999999999</v>
+      </c>
+      <c r="BM257">
+        <v>0.85112200000000005</v>
+      </c>
       <c r="BS257">
-        <v>0.96073364999999999</v>
+        <v>0.96270584999999997</v>
       </c>
       <c r="BT257">
         <v>0.85112200000000005</v>
@@ -26995,8 +28573,14 @@
       <c r="BF258">
         <v>0.83230300000000002</v>
       </c>
+      <c r="BL258">
+        <v>0.9585089</v>
+      </c>
+      <c r="BM258">
+        <v>0.83230300000000002</v>
+      </c>
       <c r="BS258">
-        <v>0.9585089</v>
+        <v>0.96183169999999996</v>
       </c>
       <c r="BT258">
         <v>0.83230300000000002</v>
@@ -27057,8 +28641,14 @@
       <c r="BF259">
         <v>0.83143299999999998</v>
       </c>
+      <c r="BL259">
+        <v>0.95226</v>
+      </c>
+      <c r="BM259">
+        <v>0.83143299999999998</v>
+      </c>
       <c r="BS259">
-        <v>0.95226</v>
+        <v>0.95603740000000004</v>
       </c>
       <c r="BT259">
         <v>0.83143299999999998</v>
@@ -27119,8 +28709,14 @@
       <c r="BF260">
         <v>0.83118599999999998</v>
       </c>
+      <c r="BL260">
+        <v>0.94863783999999995</v>
+      </c>
+      <c r="BM260">
+        <v>0.83118599999999998</v>
+      </c>
       <c r="BS260">
-        <v>0.94863783999999995</v>
+        <v>0.95107573000000001</v>
       </c>
       <c r="BT260">
         <v>0.83118599999999998</v>
@@ -27181,8 +28777,14 @@
       <c r="BF261">
         <v>0.81507600000000002</v>
       </c>
+      <c r="BL261">
+        <v>0.94784986999999998</v>
+      </c>
+      <c r="BM261">
+        <v>0.81507600000000002</v>
+      </c>
       <c r="BS261">
-        <v>0.94784986999999998</v>
+        <v>0.95003059999999995</v>
       </c>
       <c r="BT261">
         <v>0.81507600000000002</v>
@@ -27243,8 +28845,14 @@
       <c r="BF262">
         <v>0.84032300000000004</v>
       </c>
+      <c r="BL262">
+        <v>0.94320360000000003</v>
+      </c>
+      <c r="BM262">
+        <v>0.84032300000000004</v>
+      </c>
       <c r="BS262">
-        <v>0.94320360000000003</v>
+        <v>0.94767279999999998</v>
       </c>
       <c r="BT262">
         <v>0.84032300000000004</v>
@@ -27305,8 +28913,14 @@
       <c r="BF263">
         <v>0.86210399999999998</v>
       </c>
+      <c r="BL263">
+        <v>0.94385755000000005</v>
+      </c>
+      <c r="BM263">
+        <v>0.86210399999999998</v>
+      </c>
       <c r="BS263">
-        <v>0.94385755000000005</v>
+        <v>0.94763624999999996</v>
       </c>
       <c r="BT263">
         <v>0.86210399999999998</v>
@@ -27367,8 +28981,14 @@
       <c r="BF264">
         <v>0.88419700000000001</v>
       </c>
+      <c r="BL264">
+        <v>0.94708013999999996</v>
+      </c>
+      <c r="BM264">
+        <v>0.88419700000000001</v>
+      </c>
       <c r="BS264">
-        <v>0.94708013999999996</v>
+        <v>0.95135219999999998</v>
       </c>
       <c r="BT264">
         <v>0.88419700000000001</v>
@@ -27429,8 +29049,14 @@
       <c r="BF265">
         <v>0.87783900000000004</v>
       </c>
+      <c r="BL265">
+        <v>0.95099769999999995</v>
+      </c>
+      <c r="BM265">
+        <v>0.87783900000000004</v>
+      </c>
       <c r="BS265">
-        <v>0.95099769999999995</v>
+        <v>0.95642170000000004</v>
       </c>
       <c r="BT265">
         <v>0.87783900000000004</v>
@@ -27491,8 +29117,14 @@
       <c r="BF266">
         <v>0.87780400000000003</v>
       </c>
+      <c r="BL266">
+        <v>0.95507839999999999</v>
+      </c>
+      <c r="BM266">
+        <v>0.87780400000000003</v>
+      </c>
       <c r="BS266">
-        <v>0.95507839999999999</v>
+        <v>0.96123283999999998</v>
       </c>
       <c r="BT266">
         <v>0.87780400000000003</v>
@@ -27553,8 +29185,14 @@
       <c r="BF267">
         <v>0.89740699999999995</v>
       </c>
+      <c r="BL267">
+        <v>0.95804023999999999</v>
+      </c>
+      <c r="BM267">
+        <v>0.89740699999999995</v>
+      </c>
       <c r="BS267">
-        <v>0.95804023999999999</v>
+        <v>0.96465619999999996</v>
       </c>
       <c r="BT267">
         <v>0.89740699999999995</v>
@@ -27615,8 +29253,14 @@
       <c r="BF268">
         <v>0.88027200000000005</v>
       </c>
+      <c r="BL268">
+        <v>0.96143603</v>
+      </c>
+      <c r="BM268">
+        <v>0.88027200000000005</v>
+      </c>
       <c r="BS268">
-        <v>0.96143603</v>
+        <v>0.96767990000000004</v>
       </c>
       <c r="BT268">
         <v>0.88027200000000005</v>
@@ -27677,8 +29321,14 @@
       <c r="BF269">
         <v>0.88630399999999998</v>
       </c>
+      <c r="BL269">
+        <v>0.96230185000000001</v>
+      </c>
+      <c r="BM269">
+        <v>0.88630399999999998</v>
+      </c>
       <c r="BS269">
-        <v>0.96230185000000001</v>
+        <v>0.96859753000000004</v>
       </c>
       <c r="BT269">
         <v>0.88630399999999998</v>
@@ -27739,8 +29389,14 @@
       <c r="BF270">
         <v>0.90179200000000004</v>
       </c>
+      <c r="BL270">
+        <v>0.96139485000000002</v>
+      </c>
+      <c r="BM270">
+        <v>0.90179200000000004</v>
+      </c>
       <c r="BS270">
-        <v>0.96139485000000002</v>
+        <v>0.96702869999999996</v>
       </c>
       <c r="BT270">
         <v>0.90179200000000004</v>
@@ -27801,8 +29457,14 @@
       <c r="BF271">
         <v>0.89921099999999998</v>
       </c>
+      <c r="BL271">
+        <v>0.96517116000000003</v>
+      </c>
+      <c r="BM271">
+        <v>0.89921099999999998</v>
+      </c>
       <c r="BS271">
-        <v>0.96517116000000003</v>
+        <v>0.96862389999999998</v>
       </c>
       <c r="BT271">
         <v>0.89921099999999998</v>
@@ -27863,8 +29525,14 @@
       <c r="BF272">
         <v>0.88802300000000001</v>
       </c>
+      <c r="BL272">
+        <v>0.96873087000000002</v>
+      </c>
+      <c r="BM272">
+        <v>0.88802300000000001</v>
+      </c>
       <c r="BS272">
-        <v>0.96873087000000002</v>
+        <v>0.97166984999999995</v>
       </c>
       <c r="BT272">
         <v>0.88802300000000001</v>
@@ -27925,8 +29593,14 @@
       <c r="BF273">
         <v>0.92063899999999999</v>
       </c>
+      <c r="BL273">
+        <v>0.96983989999999998</v>
+      </c>
+      <c r="BM273">
+        <v>0.92063899999999999</v>
+      </c>
       <c r="BS273">
-        <v>0.96983989999999998</v>
+        <v>0.97231009999999995</v>
       </c>
       <c r="BT273">
         <v>0.92063899999999999</v>
@@ -27987,8 +29661,14 @@
       <c r="BF274">
         <v>0.92636700000000005</v>
       </c>
+      <c r="BL274">
+        <v>0.97198899999999999</v>
+      </c>
+      <c r="BM274">
+        <v>0.92636700000000005</v>
+      </c>
       <c r="BS274">
-        <v>0.97198899999999999</v>
+        <v>0.97246169999999998</v>
       </c>
       <c r="BT274">
         <v>0.92636700000000005</v>
@@ -28049,8 +29729,14 @@
       <c r="BF275">
         <v>0.93128200000000005</v>
       </c>
+      <c r="BL275">
+        <v>0.97766805000000001</v>
+      </c>
+      <c r="BM275">
+        <v>0.93128200000000005</v>
+      </c>
       <c r="BS275">
-        <v>0.97766805000000001</v>
+        <v>0.97598399999999996</v>
       </c>
       <c r="BT275">
         <v>0.93128200000000005</v>
@@ -28111,8 +29797,14 @@
       <c r="BF276">
         <v>0.93594200000000005</v>
       </c>
+      <c r="BL276">
+        <v>0.98142207000000004</v>
+      </c>
+      <c r="BM276">
+        <v>0.93594200000000005</v>
+      </c>
       <c r="BS276">
-        <v>0.98142207000000004</v>
+        <v>0.97968089999999997</v>
       </c>
       <c r="BT276">
         <v>0.93594200000000005</v>
@@ -28173,8 +29865,14 @@
       <c r="BF277">
         <v>0.93719399999999997</v>
       </c>
+      <c r="BL277">
+        <v>0.98317056999999997</v>
+      </c>
+      <c r="BM277">
+        <v>0.93719399999999997</v>
+      </c>
       <c r="BS277">
-        <v>0.98317056999999997</v>
+        <v>0.98060780000000003</v>
       </c>
       <c r="BT277">
         <v>0.93719399999999997</v>
@@ -28235,8 +29933,14 @@
       <c r="BF278">
         <v>0.92128200000000005</v>
       </c>
+      <c r="BL278">
+        <v>0.98584914000000001</v>
+      </c>
+      <c r="BM278">
+        <v>0.92128200000000005</v>
+      </c>
       <c r="BS278">
-        <v>0.98584914000000001</v>
+        <v>0.98117005999999996</v>
       </c>
       <c r="BT278">
         <v>0.92128200000000005</v>
@@ -28297,8 +30001,14 @@
       <c r="BF279">
         <v>0.92835400000000001</v>
       </c>
+      <c r="BL279">
+        <v>0.98584899999999998</v>
+      </c>
+      <c r="BM279">
+        <v>0.92835400000000001</v>
+      </c>
       <c r="BS279">
-        <v>0.98584899999999998</v>
+        <v>0.98011154</v>
       </c>
       <c r="BT279">
         <v>0.92835400000000001</v>
@@ -28359,8 +30069,14 @@
       <c r="BF280">
         <v>0.92857299999999998</v>
       </c>
+      <c r="BL280">
+        <v>0.98763120000000004</v>
+      </c>
+      <c r="BM280">
+        <v>0.92857299999999998</v>
+      </c>
       <c r="BS280">
-        <v>0.98763120000000004</v>
+        <v>0.97990900000000003</v>
       </c>
       <c r="BT280">
         <v>0.92857299999999998</v>
@@ -28421,8 +30137,14 @@
       <c r="BF281">
         <v>0.95164199999999999</v>
       </c>
+      <c r="BL281">
+        <v>0.98702455</v>
+      </c>
+      <c r="BM281">
+        <v>0.95164199999999999</v>
+      </c>
       <c r="BS281">
-        <v>0.98702455</v>
+        <v>0.97907929999999999</v>
       </c>
       <c r="BT281">
         <v>0.95164199999999999</v>
@@ -28483,8 +30205,14 @@
       <c r="BF282">
         <v>0.94983899999999999</v>
       </c>
+      <c r="BL282">
+        <v>0.99007946000000002</v>
+      </c>
+      <c r="BM282">
+        <v>0.94983899999999999</v>
+      </c>
       <c r="BS282">
-        <v>0.99007946000000002</v>
+        <v>0.98025890000000004</v>
       </c>
       <c r="BT282">
         <v>0.94983899999999999</v>
@@ -28545,8 +30273,14 @@
       <c r="BF283">
         <v>0.94721500000000003</v>
       </c>
+      <c r="BL283">
+        <v>0.99412659999999997</v>
+      </c>
+      <c r="BM283">
+        <v>0.94721500000000003</v>
+      </c>
       <c r="BS283">
-        <v>0.99412659999999997</v>
+        <v>0.98349249999999999</v>
       </c>
       <c r="BT283">
         <v>0.94721500000000003</v>
@@ -28607,8 +30341,14 @@
       <c r="BF284">
         <v>0.95519900000000002</v>
       </c>
+      <c r="BL284">
+        <v>0.99674404000000005</v>
+      </c>
+      <c r="BM284">
+        <v>0.95519900000000002</v>
+      </c>
       <c r="BS284">
-        <v>0.99674404000000005</v>
+        <v>0.98570930000000001</v>
       </c>
       <c r="BT284">
         <v>0.95519900000000002</v>
@@ -28669,8 +30409,14 @@
       <c r="BF285">
         <v>0.96465400000000001</v>
       </c>
+      <c r="BL285">
+        <v>0.99939184999999997</v>
+      </c>
+      <c r="BM285">
+        <v>0.96465400000000001</v>
+      </c>
       <c r="BS285">
-        <v>0.99939184999999997</v>
+        <v>0.98704170000000002</v>
       </c>
       <c r="BT285">
         <v>0.96465400000000001</v>
@@ -28731,8 +30477,14 @@
       <c r="BF286">
         <v>0.97101199999999999</v>
       </c>
+      <c r="BL286">
+        <v>1.0009954000000001</v>
+      </c>
+      <c r="BM286">
+        <v>0.97101199999999999</v>
+      </c>
       <c r="BS286">
-        <v>1.0009954000000001</v>
+        <v>0.98781969999999997</v>
       </c>
       <c r="BT286">
         <v>0.97101199999999999</v>
@@ -28793,8 +30545,14 @@
       <c r="BF287">
         <v>0.972441</v>
       </c>
+      <c r="BL287">
+        <v>1.0028744999999999</v>
+      </c>
+      <c r="BM287">
+        <v>0.972441</v>
+      </c>
       <c r="BS287">
-        <v>1.0028744999999999</v>
+        <v>0.98838680000000001</v>
       </c>
       <c r="BT287">
         <v>0.972441</v>
@@ -28855,8 +30613,14 @@
       <c r="BF288">
         <v>0.97116800000000003</v>
       </c>
+      <c r="BL288">
+        <v>1.005493</v>
+      </c>
+      <c r="BM288">
+        <v>0.97116800000000003</v>
+      </c>
       <c r="BS288">
-        <v>1.005493</v>
+        <v>0.98984044999999998</v>
       </c>
       <c r="BT288">
         <v>0.97116800000000003</v>
@@ -28917,8 +30681,14 @@
       <c r="BF289">
         <v>0.96191099999999996</v>
       </c>
+      <c r="BL289">
+        <v>1.0066284000000001</v>
+      </c>
+      <c r="BM289">
+        <v>0.96191099999999996</v>
+      </c>
       <c r="BS289">
-        <v>1.0066284000000001</v>
+        <v>0.99022937</v>
       </c>
       <c r="BT289">
         <v>0.96191099999999996</v>
@@ -28979,8 +30749,14 @@
       <c r="BF290">
         <v>0.96136600000000005</v>
       </c>
+      <c r="BL290">
+        <v>1.0068606</v>
+      </c>
+      <c r="BM290">
+        <v>0.96136600000000005</v>
+      </c>
       <c r="BS290">
-        <v>1.0068606</v>
+        <v>0.98905396000000001</v>
       </c>
       <c r="BT290">
         <v>0.96136600000000005</v>
@@ -29041,8 +30817,14 @@
       <c r="BF291">
         <v>0.96215099999999998</v>
       </c>
+      <c r="BL291">
+        <v>1.007255</v>
+      </c>
+      <c r="BM291">
+        <v>0.96215099999999998</v>
+      </c>
       <c r="BS291">
-        <v>1.007255</v>
+        <v>0.98785420000000002</v>
       </c>
       <c r="BT291">
         <v>0.96215099999999998</v>
@@ -29103,8 +30885,14 @@
       <c r="BF292">
         <v>0.97485200000000005</v>
       </c>
+      <c r="BL292">
+        <v>1.0085791</v>
+      </c>
+      <c r="BM292">
+        <v>0.97485200000000005</v>
+      </c>
       <c r="BS292">
-        <v>1.0085791</v>
+        <v>0.98827750000000003</v>
       </c>
       <c r="BT292">
         <v>0.97485200000000005</v>
@@ -29165,8 +30953,14 @@
       <c r="BF293">
         <v>0.98117500000000002</v>
       </c>
+      <c r="BL293">
+        <v>1.0087134</v>
+      </c>
+      <c r="BM293">
+        <v>0.98117500000000002</v>
+      </c>
       <c r="BS293">
-        <v>1.0087134</v>
+        <v>0.98855029999999999</v>
       </c>
       <c r="BT293">
         <v>0.98117500000000002</v>
@@ -29227,8 +31021,14 @@
       <c r="BF294">
         <v>0.97819699999999998</v>
       </c>
+      <c r="BL294">
+        <v>1.0116261</v>
+      </c>
+      <c r="BM294">
+        <v>0.97819699999999998</v>
+      </c>
       <c r="BS294">
-        <v>1.0116261</v>
+        <v>0.99043570000000003</v>
       </c>
       <c r="BT294">
         <v>0.97819699999999998</v>
@@ -29289,8 +31089,14 @@
       <c r="BF295">
         <v>0.98741900000000005</v>
       </c>
+      <c r="BL295">
+        <v>1.0134129999999999</v>
+      </c>
+      <c r="BM295">
+        <v>0.98741900000000005</v>
+      </c>
       <c r="BS295">
-        <v>1.0134129999999999</v>
+        <v>0.99203859999999999</v>
       </c>
       <c r="BT295">
         <v>0.98741900000000005</v>
@@ -29351,8 +31157,14 @@
       <c r="BF296">
         <v>0.98271600000000003</v>
       </c>
+      <c r="BL296">
+        <v>1.0135198000000001</v>
+      </c>
+      <c r="BM296">
+        <v>0.98271600000000003</v>
+      </c>
       <c r="BS296">
-        <v>1.0135198000000001</v>
+        <v>0.99124575000000004</v>
       </c>
       <c r="BT296">
         <v>0.98271600000000003</v>
@@ -29413,8 +31225,14 @@
       <c r="BF297">
         <v>0.967893</v>
       </c>
+      <c r="BL297">
+        <v>1.0157379</v>
+      </c>
+      <c r="BM297">
+        <v>0.967893</v>
+      </c>
       <c r="BS297">
-        <v>1.0157379</v>
+        <v>0.99136170000000001</v>
       </c>
       <c r="BT297">
         <v>0.967893</v>
@@ -29475,8 +31293,14 @@
       <c r="BF298">
         <v>0.98309100000000005</v>
       </c>
+      <c r="BL298">
+        <v>1.0124902</v>
+      </c>
+      <c r="BM298">
+        <v>0.98309100000000005</v>
+      </c>
       <c r="BS298">
-        <v>1.0124902</v>
+        <v>0.98810553999999995</v>
       </c>
       <c r="BT298">
         <v>0.98309100000000005</v>
@@ -29537,8 +31361,14 @@
       <c r="BF299">
         <v>0.965588</v>
       </c>
+      <c r="BL299">
+        <v>1.0126917</v>
+      </c>
+      <c r="BM299">
+        <v>0.965588</v>
+      </c>
       <c r="BS299">
-        <v>1.0126917</v>
+        <v>0.98571944</v>
       </c>
       <c r="BT299">
         <v>0.965588</v>
@@ -29599,8 +31429,14 @@
       <c r="BF300">
         <v>0.96961200000000003</v>
       </c>
+      <c r="BL300">
+        <v>1.0084628</v>
+      </c>
+      <c r="BM300">
+        <v>0.96961200000000003</v>
+      </c>
       <c r="BS300">
-        <v>1.0084628</v>
+        <v>0.98149883999999998</v>
       </c>
       <c r="BT300">
         <v>0.96961200000000003</v>
@@ -29661,8 +31497,14 @@
       <c r="BF301">
         <v>0.96564499999999998</v>
       </c>
+      <c r="BL301">
+        <v>1.0085991999999999</v>
+      </c>
+      <c r="BM301">
+        <v>0.96564499999999998</v>
+      </c>
       <c r="BS301">
-        <v>1.0085991999999999</v>
+        <v>0.97943829999999998</v>
       </c>
       <c r="BT301">
         <v>0.96564499999999998</v>
@@ -29723,8 +31565,14 @@
       <c r="BF302">
         <v>0.97959700000000005</v>
       </c>
+      <c r="BL302">
+        <v>1.0076742999999999</v>
+      </c>
+      <c r="BM302">
+        <v>0.97959700000000005</v>
+      </c>
       <c r="BS302">
-        <v>1.0076742999999999</v>
+        <v>0.97864306000000001</v>
       </c>
       <c r="BT302">
         <v>0.97959700000000005</v>
@@ -29785,8 +31633,14 @@
       <c r="BF303">
         <v>0.99423600000000001</v>
       </c>
+      <c r="BL303">
+        <v>1.0083588000000001</v>
+      </c>
+      <c r="BM303">
+        <v>0.99423600000000001</v>
+      </c>
       <c r="BS303">
-        <v>1.0083588000000001</v>
+        <v>0.97873529999999997</v>
       </c>
       <c r="BT303">
         <v>0.99423600000000001</v>
@@ -29847,8 +31701,14 @@
       <c r="BF304">
         <v>0.99449100000000001</v>
       </c>
+      <c r="BL304">
+        <v>1.0120277</v>
+      </c>
+      <c r="BM304">
+        <v>0.99449100000000001</v>
+      </c>
       <c r="BS304">
-        <v>1.0120277</v>
+        <v>0.98154660000000005</v>
       </c>
       <c r="BT304">
         <v>0.99449100000000001</v>
@@ -29909,8 +31769,14 @@
       <c r="BF305">
         <v>0.99304099999999995</v>
       </c>
+      <c r="BL305">
+        <v>1.0153973999999999</v>
+      </c>
+      <c r="BM305">
+        <v>0.99304099999999995</v>
+      </c>
       <c r="BS305">
-        <v>1.0153973999999999</v>
+        <v>0.98506229999999995</v>
       </c>
       <c r="BT305">
         <v>0.99304099999999995</v>
@@ -29971,8 +31837,14 @@
       <c r="BF306">
         <v>1.00267</v>
       </c>
+      <c r="BL306">
+        <v>1.0171291</v>
+      </c>
+      <c r="BM306">
+        <v>1.00267</v>
+      </c>
       <c r="BS306">
-        <v>1.0171291</v>
+        <v>0.98648139999999995</v>
       </c>
       <c r="BT306">
         <v>1.00267</v>
@@ -30033,8 +31905,14 @@
       <c r="BF307">
         <v>1.0072300000000001</v>
       </c>
+      <c r="BL307">
+        <v>1.0182321000000001</v>
+      </c>
+      <c r="BM307">
+        <v>1.0072300000000001</v>
+      </c>
       <c r="BS307">
-        <v>1.0182321000000001</v>
+        <v>0.98644679999999996</v>
       </c>
       <c r="BT307">
         <v>1.0072300000000001</v>
@@ -30095,8 +31973,14 @@
       <c r="BF308">
         <v>1.00837</v>
       </c>
+      <c r="BL308">
+        <v>1.0199583000000001</v>
+      </c>
+      <c r="BM308">
+        <v>1.00837</v>
+      </c>
       <c r="BS308">
-        <v>1.0199583000000001</v>
+        <v>0.98693390000000003</v>
       </c>
       <c r="BT308">
         <v>1.00837</v>
@@ -30157,8 +32041,14 @@
       <c r="BF309">
         <v>1.00064</v>
       </c>
+      <c r="BL309">
+        <v>1.020389</v>
+      </c>
+      <c r="BM309">
+        <v>1.00064</v>
+      </c>
       <c r="BS309">
-        <v>1.020389</v>
+        <v>0.98693640000000005</v>
       </c>
       <c r="BT309">
         <v>1.00064</v>
@@ -30219,8 +32109,14 @@
       <c r="BF310">
         <v>1.00071</v>
       </c>
+      <c r="BL310">
+        <v>1.0201336999999999</v>
+      </c>
+      <c r="BM310">
+        <v>1.00071</v>
+      </c>
       <c r="BS310">
-        <v>1.0201336999999999</v>
+        <v>0.98574640000000002</v>
       </c>
       <c r="BT310">
         <v>1.00071</v>
@@ -30281,8 +32177,14 @@
       <c r="BF311">
         <v>0.99803399999999998</v>
       </c>
+      <c r="BL311">
+        <v>1.01966</v>
+      </c>
+      <c r="BM311">
+        <v>0.99803399999999998</v>
+      </c>
       <c r="BS311">
-        <v>1.01966</v>
+        <v>0.98418044999999998</v>
       </c>
       <c r="BT311">
         <v>0.99803399999999998</v>
@@ -30343,8 +32245,14 @@
       <c r="BF312">
         <v>1.0007999999999999</v>
       </c>
+      <c r="BL312">
+        <v>1.0197792999999999</v>
+      </c>
+      <c r="BM312">
+        <v>1.0007999999999999</v>
+      </c>
       <c r="BS312">
-        <v>1.0197792999999999</v>
+        <v>0.98341953999999998</v>
       </c>
       <c r="BT312">
         <v>1.0007999999999999</v>
@@ -30405,8 +32313,14 @@
       <c r="BF313">
         <v>1.0032399999999999</v>
       </c>
+      <c r="BL313">
+        <v>1.0207605</v>
+      </c>
+      <c r="BM313">
+        <v>1.0032399999999999</v>
+      </c>
       <c r="BS313">
-        <v>1.0207605</v>
+        <v>0.98417840000000001</v>
       </c>
       <c r="BT313">
         <v>1.0032399999999999</v>
@@ -30467,8 +32381,14 @@
       <c r="BF314">
         <v>0.98956200000000005</v>
       </c>
+      <c r="BL314">
+        <v>1.0211241</v>
+      </c>
+      <c r="BM314">
+        <v>0.98956200000000005</v>
+      </c>
       <c r="BS314">
-        <v>1.0211241</v>
+        <v>0.98491675000000001</v>
       </c>
       <c r="BT314">
         <v>0.98956200000000005</v>
@@ -30529,8 +32449,14 @@
       <c r="BF315">
         <v>0.98212900000000003</v>
       </c>
+      <c r="BL315">
+        <v>1.0186131</v>
+      </c>
+      <c r="BM315">
+        <v>0.98212900000000003</v>
+      </c>
       <c r="BS315">
-        <v>1.0186131</v>
+        <v>0.98272470000000001</v>
       </c>
       <c r="BT315">
         <v>0.98212900000000003</v>
@@ -30591,8 +32517,14 @@
       <c r="BF316">
         <v>0.99353599999999997</v>
       </c>
+      <c r="BL316">
+        <v>1.0138936000000001</v>
+      </c>
+      <c r="BM316">
+        <v>0.99353599999999997</v>
+      </c>
       <c r="BS316">
-        <v>1.0138936000000001</v>
+        <v>0.97700640000000005</v>
       </c>
       <c r="BT316">
         <v>0.99353599999999997</v>
@@ -30653,8 +32585,14 @@
       <c r="BF317">
         <v>0.98076399999999997</v>
       </c>
+      <c r="BL317">
+        <v>1.0132672</v>
+      </c>
+      <c r="BM317">
+        <v>0.98076399999999997</v>
+      </c>
       <c r="BS317">
-        <v>1.0132672</v>
+        <v>0.97460026</v>
       </c>
       <c r="BT317">
         <v>0.98076399999999997</v>
@@ -30715,8 +32653,14 @@
       <c r="BF318">
         <v>0.97210099999999999</v>
       </c>
+      <c r="BL318">
+        <v>1.0092193</v>
+      </c>
+      <c r="BM318">
+        <v>0.97210099999999999</v>
+      </c>
       <c r="BS318">
-        <v>1.0092193</v>
+        <v>0.97168829999999995</v>
       </c>
       <c r="BT318">
         <v>0.97210099999999999</v>
@@ -30777,8 +32721,14 @@
       <c r="BF319">
         <v>0.97175500000000004</v>
       </c>
+      <c r="BL319">
+        <v>1.0064427</v>
+      </c>
+      <c r="BM319">
+        <v>0.97175500000000004</v>
+      </c>
       <c r="BS319">
-        <v>1.0064427</v>
+        <v>0.96818846000000003</v>
       </c>
       <c r="BT319">
         <v>0.97175500000000004</v>
@@ -30839,8 +32789,14 @@
       <c r="BF320">
         <v>0.97635899999999998</v>
       </c>
+      <c r="BL320">
+        <v>1.0046458</v>
+      </c>
+      <c r="BM320">
+        <v>0.97635899999999998</v>
+      </c>
       <c r="BS320">
-        <v>1.0046458</v>
+        <v>0.96613400000000005</v>
       </c>
       <c r="BT320">
         <v>0.97635899999999998</v>
@@ -30901,8 +32857,14 @@
       <c r="BF321">
         <v>0.97745499999999996</v>
       </c>
+      <c r="BL321">
+        <v>1.0034428</v>
+      </c>
+      <c r="BM321">
+        <v>0.97745499999999996</v>
+      </c>
       <c r="BS321">
-        <v>1.0034428</v>
+        <v>0.96546319999999997</v>
       </c>
       <c r="BT321">
         <v>0.97745499999999996</v>
@@ -30963,8 +32925,14 @@
       <c r="BF322">
         <v>0.99563000000000001</v>
       </c>
+      <c r="BL322">
+        <v>1.0041796999999999</v>
+      </c>
+      <c r="BM322">
+        <v>0.99563000000000001</v>
+      </c>
       <c r="BS322">
-        <v>1.0041796999999999</v>
+        <v>0.96660435</v>
       </c>
       <c r="BT322">
         <v>0.99563000000000001</v>
@@ -31025,8 +32993,14 @@
       <c r="BF323">
         <v>0.98153500000000005</v>
       </c>
+      <c r="BL323">
+        <v>1.005185</v>
+      </c>
+      <c r="BM323">
+        <v>0.98153500000000005</v>
+      </c>
       <c r="BS323">
-        <v>1.005185</v>
+        <v>0.96855252999999997</v>
       </c>
       <c r="BT323">
         <v>0.98153500000000005</v>
@@ -31087,8 +33061,14 @@
       <c r="BF324">
         <v>0.98128800000000005</v>
       </c>
+      <c r="BL324">
+        <v>1.0049329</v>
+      </c>
+      <c r="BM324">
+        <v>0.98128800000000005</v>
+      </c>
       <c r="BS324">
-        <v>1.0049329</v>
+        <v>0.96912586999999994</v>
       </c>
       <c r="BT324">
         <v>0.98128800000000005</v>
@@ -31149,8 +33129,14 @@
       <c r="BF325">
         <v>0.968912</v>
       </c>
+      <c r="BL325">
+        <v>1.0036544000000001</v>
+      </c>
+      <c r="BM325">
+        <v>0.968912</v>
+      </c>
       <c r="BS325">
-        <v>1.0036544000000001</v>
+        <v>0.96778649999999999</v>
       </c>
       <c r="BT325">
         <v>0.968912</v>
@@ -31211,8 +33197,14 @@
       <c r="BF326">
         <v>0.98309100000000005</v>
       </c>
+      <c r="BL326">
+        <v>1.0004765</v>
+      </c>
+      <c r="BM326">
+        <v>0.98309100000000005</v>
+      </c>
       <c r="BS326">
-        <v>1.0004765</v>
+        <v>0.96443725000000002</v>
       </c>
       <c r="BT326">
         <v>0.98309100000000005</v>
@@ -31273,8 +33265,14 @@
       <c r="BF327">
         <v>0.96933599999999998</v>
       </c>
+      <c r="BL327">
+        <v>0.999977</v>
+      </c>
+      <c r="BM327">
+        <v>0.96933599999999998</v>
+      </c>
       <c r="BS327">
-        <v>0.999977</v>
+        <v>0.96318049999999999</v>
       </c>
       <c r="BT327">
         <v>0.96933599999999998</v>
@@ -31335,8 +33333,14 @@
       <c r="BF328">
         <v>0.96963299999999997</v>
       </c>
+      <c r="BL328">
+        <v>0.99694110000000002</v>
+      </c>
+      <c r="BM328">
+        <v>0.96963299999999997</v>
+      </c>
       <c r="BS328">
-        <v>0.99694110000000002</v>
+        <v>0.96133095000000002</v>
       </c>
       <c r="BT328">
         <v>0.96963299999999997</v>
@@ -31397,8 +33401,14 @@
       <c r="BF329">
         <v>0.96426599999999996</v>
       </c>
+      <c r="BL329">
+        <v>0.99448820000000004</v>
+      </c>
+      <c r="BM329">
+        <v>0.96426599999999996</v>
+      </c>
       <c r="BS329">
-        <v>0.99448820000000004</v>
+        <v>0.95893185999999997</v>
       </c>
       <c r="BT329">
         <v>0.96426599999999996</v>
@@ -31459,8 +33469,14 @@
       <c r="BF330">
         <v>0.97294999999999998</v>
       </c>
+      <c r="BL330">
+        <v>0.99206119999999998</v>
+      </c>
+      <c r="BM330">
+        <v>0.97294999999999998</v>
+      </c>
       <c r="BS330">
-        <v>0.99206119999999998</v>
+        <v>0.95678470000000004</v>
       </c>
       <c r="BT330">
         <v>0.97294999999999998</v>
@@ -31521,8 +33537,14 @@
       <c r="BF331">
         <v>0.96992299999999998</v>
       </c>
+      <c r="BL331">
+        <v>0.99389594999999997</v>
+      </c>
+      <c r="BM331">
+        <v>0.96992299999999998</v>
+      </c>
       <c r="BS331">
-        <v>0.99389594999999997</v>
+        <v>0.95867519999999995</v>
       </c>
       <c r="BT331">
         <v>0.96992299999999998</v>
@@ -31583,8 +33605,14 @@
       <c r="BF332">
         <v>0.98973900000000004</v>
       </c>
+      <c r="BL332">
+        <v>0.9960639</v>
+      </c>
+      <c r="BM332">
+        <v>0.98973900000000004</v>
+      </c>
       <c r="BS332">
-        <v>0.9960639</v>
+        <v>0.96256226</v>
       </c>
       <c r="BT332">
         <v>0.98973900000000004</v>
@@ -31645,8 +33673,14 @@
       <c r="BF333">
         <v>0.99997899999999995</v>
       </c>
+      <c r="BL333">
+        <v>0.99881359999999997</v>
+      </c>
+      <c r="BM333">
+        <v>0.99997899999999995</v>
+      </c>
       <c r="BS333">
-        <v>0.99881359999999997</v>
+        <v>0.96679999999999999</v>
       </c>
       <c r="BT333">
         <v>0.99997899999999995</v>
@@ -31707,8 +33741,14 @@
       <c r="BF334">
         <v>0.999668</v>
       </c>
+      <c r="BL334">
+        <v>1.0038209</v>
+      </c>
+      <c r="BM334">
+        <v>0.999668</v>
+      </c>
       <c r="BS334">
-        <v>1.0038209</v>
+        <v>0.97265800000000002</v>
       </c>
       <c r="BT334">
         <v>0.999668</v>
@@ -31769,8 +33809,14 @@
       <c r="BF335">
         <v>1.006</v>
       </c>
+      <c r="BL335">
+        <v>1.0073738999999999</v>
+      </c>
+      <c r="BM335">
+        <v>1.006</v>
+      </c>
       <c r="BS335">
-        <v>1.0073738999999999</v>
+        <v>0.9778017</v>
       </c>
       <c r="BT335">
         <v>1.006</v>
@@ -31831,8 +33877,14 @@
       <c r="BF336">
         <v>1.0045200000000001</v>
       </c>
+      <c r="BL336">
+        <v>1.0106298</v>
+      </c>
+      <c r="BM336">
+        <v>1.0045200000000001</v>
+      </c>
       <c r="BS336">
-        <v>1.0106298</v>
+        <v>0.98128850000000001</v>
       </c>
       <c r="BT336">
         <v>1.0045200000000001</v>
@@ -31893,8 +33945,14 @@
       <c r="BF337">
         <v>1.0062</v>
       </c>
+      <c r="BL337">
+        <v>1.0113581</v>
+      </c>
+      <c r="BM337">
+        <v>1.0062</v>
+      </c>
       <c r="BS337">
-        <v>1.0113581</v>
+        <v>0.9822457</v>
       </c>
       <c r="BT337">
         <v>1.0062</v>
@@ -31955,8 +34013,14 @@
       <c r="BF338">
         <v>1.0103899999999999</v>
       </c>
+      <c r="BL338">
+        <v>1.0127082999999999</v>
+      </c>
+      <c r="BM338">
+        <v>1.0103899999999999</v>
+      </c>
       <c r="BS338">
-        <v>1.0127082999999999</v>
+        <v>0.98319864000000001</v>
       </c>
       <c r="BT338">
         <v>1.0103899999999999</v>
@@ -32017,8 +34081,14 @@
       <c r="BF339">
         <v>1.0060500000000001</v>
       </c>
+      <c r="BL339">
+        <v>1.0140423999999999</v>
+      </c>
+      <c r="BM339">
+        <v>1.0060500000000001</v>
+      </c>
       <c r="BS339">
-        <v>1.0140423999999999</v>
+        <v>0.985155</v>
       </c>
       <c r="BT339">
         <v>1.0060500000000001</v>
@@ -32079,8 +34149,14 @@
       <c r="BF340">
         <v>1.01332</v>
       </c>
+      <c r="BL340">
+        <v>1.0151570000000001</v>
+      </c>
+      <c r="BM340">
+        <v>1.01332</v>
+      </c>
       <c r="BS340">
-        <v>1.0151570000000001</v>
+        <v>0.98727345</v>
       </c>
       <c r="BT340">
         <v>1.01332</v>
@@ -32141,8 +34217,14 @@
       <c r="BF341">
         <v>1.01525</v>
       </c>
+      <c r="BL341">
+        <v>1.018016</v>
+      </c>
+      <c r="BM341">
+        <v>1.01525</v>
+      </c>
       <c r="BS341">
-        <v>1.018016</v>
+        <v>0.99050050000000001</v>
       </c>
       <c r="BT341">
         <v>1.01525</v>
@@ -32203,8 +34285,14 @@
       <c r="BF342">
         <v>1.0201899999999999</v>
       </c>
+      <c r="BL342">
+        <v>1.0210416</v>
+      </c>
+      <c r="BM342">
+        <v>1.0201899999999999</v>
+      </c>
       <c r="BS342">
-        <v>1.0210416</v>
+        <v>0.99432370000000003</v>
       </c>
       <c r="BT342">
         <v>1.0201899999999999</v>
@@ -32265,8 +34353,14 @@
       <c r="BF343">
         <v>1.01762</v>
       </c>
+      <c r="BL343">
+        <v>1.0242382000000001</v>
+      </c>
+      <c r="BM343">
+        <v>1.01762</v>
+      </c>
       <c r="BS343">
-        <v>1.0242382000000001</v>
+        <v>0.99810840000000001</v>
       </c>
       <c r="BT343">
         <v>1.01762</v>
@@ -32327,8 +34421,14 @@
       <c r="BF344">
         <v>1.0038899999999999</v>
       </c>
+      <c r="BL344">
+        <v>1.0265244</v>
+      </c>
+      <c r="BM344">
+        <v>1.0038899999999999</v>
+      </c>
       <c r="BS344">
-        <v>1.0265244</v>
+        <v>1.0007429000000001</v>
       </c>
       <c r="BT344">
         <v>1.0038899999999999</v>
@@ -32389,8 +34489,14 @@
       <c r="BF345">
         <v>0.99185999999999996</v>
       </c>
+      <c r="BL345">
+        <v>1.0249336</v>
+      </c>
+      <c r="BM345">
+        <v>0.99185999999999996</v>
+      </c>
       <c r="BS345">
-        <v>1.0249336</v>
+        <v>0.99917990000000001</v>
       </c>
       <c r="BT345">
         <v>0.99185999999999996</v>
@@ -32451,8 +34557,14 @@
       <c r="BF346">
         <v>0.98921499999999996</v>
       </c>
+      <c r="BL346">
+        <v>1.0221796999999999</v>
+      </c>
+      <c r="BM346">
+        <v>0.98921499999999996</v>
+      </c>
       <c r="BS346">
-        <v>1.0221796999999999</v>
+        <v>0.99501072999999995</v>
       </c>
       <c r="BT346">
         <v>0.98921499999999996</v>
@@ -32513,8 +34625,14 @@
       <c r="BF347">
         <v>0.986514</v>
       </c>
+      <c r="BL347">
+        <v>1.0181629999999999</v>
+      </c>
+      <c r="BM347">
+        <v>0.986514</v>
+      </c>
       <c r="BS347">
-        <v>1.0181629999999999</v>
+        <v>0.98998660000000005</v>
       </c>
       <c r="BT347">
         <v>0.986514</v>
@@ -32575,8 +34693,14 @@
       <c r="BF348">
         <v>0.99110399999999998</v>
       </c>
+      <c r="BL348">
+        <v>1.0162977</v>
+      </c>
+      <c r="BM348">
+        <v>0.99110399999999998</v>
+      </c>
       <c r="BS348">
-        <v>1.0162977</v>
+        <v>0.98767483</v>
       </c>
       <c r="BT348">
         <v>0.99110399999999998</v>
@@ -32637,8 +34761,14 @@
       <c r="BF349">
         <v>0.98631599999999997</v>
       </c>
+      <c r="BL349">
+        <v>1.0134453999999999</v>
+      </c>
+      <c r="BM349">
+        <v>0.98631599999999997</v>
+      </c>
       <c r="BS349">
-        <v>1.0134453999999999</v>
+        <v>0.98611159999999998</v>
       </c>
       <c r="BT349">
         <v>0.98631599999999997</v>
@@ -32699,8 +34829,14 @@
       <c r="BF350">
         <v>0.99482300000000001</v>
       </c>
+      <c r="BL350">
+        <v>1.0126569000000001</v>
+      </c>
+      <c r="BM350">
+        <v>0.99482300000000001</v>
+      </c>
       <c r="BS350">
-        <v>1.0126569000000001</v>
+        <v>0.9856859</v>
       </c>
       <c r="BT350">
         <v>0.99482300000000001</v>
@@ -32761,8 +34897,14 @@
       <c r="BF351">
         <v>0.99881900000000001</v>
       </c>
+      <c r="BL351">
+        <v>1.0129081</v>
+      </c>
+      <c r="BM351">
+        <v>0.99881900000000001</v>
+      </c>
       <c r="BS351">
-        <v>1.0129081</v>
+        <v>0.98697776000000004</v>
       </c>
       <c r="BT351">
         <v>0.99881900000000001</v>
@@ -32823,8 +34965,14 @@
       <c r="BF352">
         <v>0.99637900000000001</v>
       </c>
+      <c r="BL352">
+        <v>1.0153475000000001</v>
+      </c>
+      <c r="BM352">
+        <v>0.99637900000000001</v>
+      </c>
       <c r="BS352">
-        <v>1.0153475000000001</v>
+        <v>0.98980900000000005</v>
       </c>
       <c r="BT352">
         <v>0.99637900000000001</v>
@@ -32885,8 +35033,14 @@
       <c r="BF353">
         <v>1.0160899999999999</v>
       </c>
+      <c r="BL353">
+        <v>1.0161264999999999</v>
+      </c>
+      <c r="BM353">
+        <v>1.0160899999999999</v>
+      </c>
       <c r="BS353">
-        <v>1.0161264999999999</v>
+        <v>0.99156827000000003</v>
       </c>
       <c r="BT353">
         <v>1.0160899999999999</v>
@@ -32947,8 +35101,14 @@
       <c r="BF354">
         <v>0.96240599999999998</v>
       </c>
+      <c r="BL354">
+        <v>1.0177151</v>
+      </c>
+      <c r="BM354">
+        <v>0.96240599999999998</v>
+      </c>
       <c r="BS354">
-        <v>1.0177151</v>
+        <v>0.99309902999999999</v>
       </c>
       <c r="BT354">
         <v>0.96240599999999998</v>
@@ -33009,8 +35169,14 @@
       <c r="BF355">
         <v>0.93633100000000002</v>
       </c>
+      <c r="BL355">
+        <v>1.0047199</v>
+      </c>
+      <c r="BM355">
+        <v>0.93633100000000002</v>
+      </c>
       <c r="BS355">
-        <v>1.0047199</v>
+        <v>0.9816047</v>
       </c>
       <c r="BT355">
         <v>0.93633100000000002</v>
@@ -33071,8 +35237,14 @@
       <c r="BF356">
         <v>0.96147199999999999</v>
       </c>
+      <c r="BL356">
+        <v>0.99596225999999999</v>
+      </c>
+      <c r="BM356">
+        <v>0.96147199999999999</v>
+      </c>
       <c r="BS356">
-        <v>0.99596225999999999</v>
+        <v>0.96770959999999995</v>
       </c>
       <c r="BT356">
         <v>0.96147199999999999</v>
@@ -33133,8 +35305,14 @@
       <c r="BF357">
         <v>0.98599800000000004</v>
       </c>
+      <c r="BL357">
+        <v>0.99259925000000004</v>
+      </c>
+      <c r="BM357">
+        <v>0.98599800000000004</v>
+      </c>
       <c r="BS357">
-        <v>0.99259925000000004</v>
+        <v>0.96249180000000001</v>
       </c>
       <c r="BT357">
         <v>0.98599800000000004</v>
@@ -33195,8 +35373,14 @@
       <c r="BF358">
         <v>1.00586</v>
       </c>
+      <c r="BL358">
+        <v>0.99442189999999997</v>
+      </c>
+      <c r="BM358">
+        <v>1.00586</v>
+      </c>
       <c r="BS358">
-        <v>0.99442189999999997</v>
+        <v>0.96588370000000001</v>
       </c>
       <c r="BT358">
         <v>1.00586</v>
@@ -33257,8 +35441,14 @@
       <c r="BF359">
         <v>1.0087600000000001</v>
       </c>
+      <c r="BL359">
+        <v>0.99913960000000002</v>
+      </c>
+      <c r="BM359">
+        <v>1.0087600000000001</v>
+      </c>
       <c r="BS359">
-        <v>0.99913960000000002</v>
+        <v>0.9730531</v>
       </c>
       <c r="BT359">
         <v>1.0087600000000001</v>
@@ -33319,8 +35509,14 @@
       <c r="BF360">
         <v>0.99857099999999999</v>
       </c>
+      <c r="BL360">
+        <v>1.005482</v>
+      </c>
+      <c r="BM360">
+        <v>0.99857099999999999</v>
+      </c>
       <c r="BS360">
-        <v>1.005482</v>
+        <v>0.98146339999999999</v>
       </c>
       <c r="BT360">
         <v>0.99857099999999999</v>
@@ -33381,8 +35577,14 @@
       <c r="BF361">
         <v>1.00648</v>
       </c>
+      <c r="BL361">
+        <v>1.0075015</v>
+      </c>
+      <c r="BM361">
+        <v>1.00648</v>
+      </c>
       <c r="BS361">
-        <v>1.0075015</v>
+        <v>0.98504639999999999</v>
       </c>
       <c r="BT361">
         <v>1.00648</v>
@@ -33443,8 +35645,14 @@
       <c r="BF362">
         <v>1.00518</v>
       </c>
+      <c r="BL362">
+        <v>1.0090209999999999</v>
+      </c>
+      <c r="BM362">
+        <v>1.00518</v>
+      </c>
       <c r="BS362">
-        <v>1.0090209999999999</v>
+        <v>0.98576295000000003</v>
       </c>
       <c r="BT362">
         <v>1.00518</v>
@@ -33505,8 +35713,14 @@
       <c r="BF363">
         <v>1.0278099999999999</v>
       </c>
+      <c r="BL363">
+        <v>1.0106113999999999</v>
+      </c>
+      <c r="BM363">
+        <v>1.0278099999999999</v>
+      </c>
       <c r="BS363">
-        <v>1.0106113999999999</v>
+        <v>0.98719480000000004</v>
       </c>
       <c r="BT363">
         <v>1.0278099999999999</v>
@@ -33567,8 +35781,14 @@
       <c r="BF364">
         <v>1.03295</v>
       </c>
+      <c r="BL364">
+        <v>1.0127158999999999</v>
+      </c>
+      <c r="BM364">
+        <v>1.03295</v>
+      </c>
       <c r="BS364">
-        <v>1.0127158999999999</v>
+        <v>0.99029659999999997</v>
       </c>
       <c r="BT364">
         <v>1.03295</v>
@@ -33629,8 +35849,14 @@
       <c r="BF365">
         <v>1.0435399999999999</v>
       </c>
+      <c r="BL365">
+        <v>1.0171950999999999</v>
+      </c>
+      <c r="BM365">
+        <v>1.0435399999999999</v>
+      </c>
       <c r="BS365">
-        <v>1.0171950999999999</v>
+        <v>0.99544215000000003</v>
       </c>
       <c r="BT365">
         <v>1.0435399999999999</v>
@@ -33691,8 +35917,14 @@
       <c r="BF366">
         <v>1.04375</v>
       </c>
+      <c r="BL366">
+        <v>1.0202964999999999</v>
+      </c>
+      <c r="BM366">
+        <v>1.04375</v>
+      </c>
       <c r="BS366">
-        <v>1.0202964999999999</v>
+        <v>0.99969845999999996</v>
       </c>
       <c r="BT366">
         <v>1.04375</v>
@@ -33753,8 +35985,14 @@
       <c r="BF367">
         <v>1.05175</v>
       </c>
+      <c r="BL367">
+        <v>1.0251106000000001</v>
+      </c>
+      <c r="BM367">
+        <v>1.05175</v>
+      </c>
       <c r="BS367">
-        <v>1.0251106000000001</v>
+        <v>1.0038824</v>
       </c>
       <c r="BT367">
         <v>1.05175</v>
@@ -33815,8 +36053,14 @@
       <c r="BF368">
         <v>1.05033</v>
       </c>
+      <c r="BL368">
+        <v>1.0289974</v>
+      </c>
+      <c r="BM368">
+        <v>1.05033</v>
+      </c>
       <c r="BS368">
-        <v>1.0289974</v>
+        <v>1.0077411999999999</v>
       </c>
       <c r="BT368">
         <v>1.05033</v>
@@ -33877,8 +36121,14 @@
       <c r="BF369">
         <v>1.0539700000000001</v>
       </c>
+      <c r="BL369">
+        <v>1.0325188999999999</v>
+      </c>
+      <c r="BM369">
+        <v>1.0539700000000001</v>
+      </c>
       <c r="BS369">
-        <v>1.0325188999999999</v>
+        <v>1.0108173</v>
       </c>
       <c r="BT369">
         <v>1.0539700000000001</v>
@@ -33939,8 +36189,14 @@
       <c r="BF370">
         <v>1.0517700000000001</v>
       </c>
+      <c r="BL370">
+        <v>1.0356590999999999</v>
+      </c>
+      <c r="BM370">
+        <v>1.0517700000000001</v>
+      </c>
       <c r="BS370">
-        <v>1.0356590999999999</v>
+        <v>1.0138834000000001</v>
       </c>
       <c r="BT370">
         <v>1.0517700000000001</v>
@@ -34001,8 +36257,14 @@
       <c r="BF371">
         <v>1.0583100000000001</v>
       </c>
+      <c r="BL371">
+        <v>1.0379851</v>
+      </c>
+      <c r="BM371">
+        <v>1.0583100000000001</v>
+      </c>
       <c r="BS371">
-        <v>1.0379851</v>
+        <v>1.0163622000000001</v>
       </c>
       <c r="BT371">
         <v>1.0583100000000001</v>
@@ -34063,8 +36325,14 @@
       <c r="BF372">
         <v>1.0527599999999999</v>
       </c>
+      <c r="BL372">
+        <v>1.040179</v>
+      </c>
+      <c r="BM372">
+        <v>1.0527599999999999</v>
+      </c>
       <c r="BS372">
-        <v>1.040179</v>
+        <v>1.0185077</v>
       </c>
       <c r="BT372">
         <v>1.0527599999999999</v>
@@ -34125,8 +36393,14 @@
       <c r="BF373">
         <v>1.0597300000000001</v>
       </c>
+      <c r="BL373">
+        <v>1.0414474</v>
+      </c>
+      <c r="BM373">
+        <v>1.0597300000000001</v>
+      </c>
       <c r="BS373">
-        <v>1.0414474</v>
+        <v>1.0196912</v>
       </c>
       <c r="BT373">
         <v>1.0597300000000001</v>
@@ -34187,8 +36461,14 @@
       <c r="BF374">
         <v>1.0550999999999999</v>
       </c>
+      <c r="BL374">
+        <v>1.0436099000000001</v>
+      </c>
+      <c r="BM374">
+        <v>1.0550999999999999</v>
+      </c>
       <c r="BS374">
-        <v>1.0436099000000001</v>
+        <v>1.0213759</v>
       </c>
       <c r="BT374">
         <v>1.0550999999999999</v>
@@ -34249,8 +36529,14 @@
       <c r="BF375">
         <v>1.05559</v>
       </c>
+      <c r="BL375">
+        <v>1.0448089</v>
+      </c>
+      <c r="BM375">
+        <v>1.05559</v>
+      </c>
       <c r="BS375">
-        <v>1.0448089</v>
+        <v>1.022748</v>
       </c>
       <c r="BT375">
         <v>1.05559</v>
@@ -34311,8 +36597,14 @@
       <c r="BF376">
         <v>1.05375</v>
       </c>
+      <c r="BL376">
+        <v>1.0454060000000001</v>
+      </c>
+      <c r="BM376">
+        <v>1.05375</v>
+      </c>
       <c r="BS376">
-        <v>1.0454060000000001</v>
+        <v>1.0231607</v>
       </c>
       <c r="BT376">
         <v>1.05375</v>
@@ -34373,8 +36665,14 @@
       <c r="BF377">
         <v>1.0562100000000001</v>
       </c>
+      <c r="BL377">
+        <v>1.0452558000000001</v>
+      </c>
+      <c r="BM377">
+        <v>1.0562100000000001</v>
+      </c>
       <c r="BS377">
-        <v>1.0452558000000001</v>
+        <v>1.022748</v>
       </c>
       <c r="BT377">
         <v>1.0562100000000001</v>
@@ -34435,8 +36733,14 @@
       <c r="BF378">
         <v>1.0587200000000001</v>
       </c>
+      <c r="BL378">
+        <v>1.0455711000000001</v>
+      </c>
+      <c r="BM378">
+        <v>1.0587200000000001</v>
+      </c>
       <c r="BS378">
-        <v>1.0455711000000001</v>
+        <v>1.0227036</v>
       </c>
       <c r="BT378">
         <v>1.0587200000000001</v>
@@ -34497,8 +36801,14 @@
       <c r="BF379">
         <v>1.05677</v>
       </c>
+      <c r="BL379">
+        <v>1.0466042</v>
+      </c>
+      <c r="BM379">
+        <v>1.05677</v>
+      </c>
       <c r="BS379">
-        <v>1.0466042</v>
+        <v>1.0240064</v>
       </c>
       <c r="BT379">
         <v>1.05677</v>
@@ -34559,8 +36869,14 @@
       <c r="BF380">
         <v>1.0469999999999999</v>
       </c>
+      <c r="BL380">
+        <v>1.0476809</v>
+      </c>
+      <c r="BM380">
+        <v>1.0469999999999999</v>
+      </c>
       <c r="BS380">
-        <v>1.0476809</v>
+        <v>1.0256175999999999</v>
       </c>
       <c r="BT380">
         <v>1.0469999999999999</v>
@@ -34621,8 +36937,14 @@
       <c r="BF381">
         <v>1.0517799999999999</v>
       </c>
+      <c r="BL381">
+        <v>1.0423089999999999</v>
+      </c>
+      <c r="BM381">
+        <v>1.0517799999999999</v>
+      </c>
       <c r="BS381">
-        <v>1.0423089999999999</v>
+        <v>1.0203285</v>
       </c>
       <c r="BT381">
         <v>1.0517799999999999</v>
@@ -34683,8 +37005,14 @@
       <c r="BF382">
         <v>1.0521100000000001</v>
       </c>
+      <c r="BL382">
+        <v>1.0417768000000001</v>
+      </c>
+      <c r="BM382">
+        <v>1.0521100000000001</v>
+      </c>
       <c r="BS382">
-        <v>1.0417768000000001</v>
+        <v>1.0166782999999999</v>
       </c>
       <c r="BT382">
         <v>1.0521100000000001</v>
@@ -34745,8 +37073,14 @@
       <c r="BF383">
         <v>1.0652699999999999</v>
       </c>
+      <c r="BL383">
+        <v>1.0415502999999999</v>
+      </c>
+      <c r="BM383">
+        <v>1.0652699999999999</v>
+      </c>
       <c r="BS383">
-        <v>1.0415502999999999</v>
+        <v>1.0171650000000001</v>
       </c>
       <c r="BT383">
         <v>1.0652699999999999</v>
@@ -34807,8 +37141,14 @@
       <c r="BF384">
         <v>1.0638700000000001</v>
       </c>
+      <c r="BL384">
+        <v>1.0454977000000001</v>
+      </c>
+      <c r="BM384">
+        <v>1.0638700000000001</v>
+      </c>
       <c r="BS384">
-        <v>1.0454977000000001</v>
+        <v>1.022044</v>
       </c>
       <c r="BT384">
         <v>1.0638700000000001</v>
@@ -34869,8 +37209,14 @@
       <c r="BF385">
         <v>1.06447</v>
       </c>
+      <c r="BL385">
+        <v>1.0484728000000001</v>
+      </c>
+      <c r="BM385">
+        <v>1.06447</v>
+      </c>
       <c r="BS385">
-        <v>1.0484728000000001</v>
+        <v>1.0266690000000001</v>
       </c>
       <c r="BT385">
         <v>1.06447</v>
@@ -34931,8 +37277,14 @@
       <c r="BF386">
         <v>1.0600499999999999</v>
       </c>
+      <c r="BL386">
+        <v>1.0502294000000001</v>
+      </c>
+      <c r="BM386">
+        <v>1.0600499999999999</v>
+      </c>
       <c r="BS386">
-        <v>1.0502294000000001</v>
+        <v>1.028346</v>
       </c>
       <c r="BT386">
         <v>1.0600499999999999</v>
@@ -34993,8 +37345,14 @@
       <c r="BF387">
         <v>1.06734</v>
       </c>
+      <c r="BL387">
+        <v>1.0499704999999999</v>
+      </c>
+      <c r="BM387">
+        <v>1.06734</v>
+      </c>
       <c r="BS387">
-        <v>1.0499704999999999</v>
+        <v>1.0271585000000001</v>
       </c>
       <c r="BT387">
         <v>1.06734</v>
@@ -35055,8 +37413,14 @@
       <c r="BF388">
         <v>1.0661099999999999</v>
       </c>
+      <c r="BL388">
+        <v>1.0509603000000001</v>
+      </c>
+      <c r="BM388">
+        <v>1.0661099999999999</v>
+      </c>
       <c r="BS388">
-        <v>1.0509603000000001</v>
+        <v>1.0268683000000001</v>
       </c>
       <c r="BT388">
         <v>1.0661099999999999</v>
@@ -35117,8 +37481,14 @@
       <c r="BF389">
         <v>1.0704199999999999</v>
       </c>
+      <c r="BL389">
+        <v>1.0516165</v>
+      </c>
+      <c r="BM389">
+        <v>1.0704199999999999</v>
+      </c>
       <c r="BS389">
-        <v>1.0516165</v>
+        <v>1.0276194000000001</v>
       </c>
       <c r="BT389">
         <v>1.0704199999999999</v>
@@ -35179,8 +37549,14 @@
       <c r="BF390">
         <v>1.0619400000000001</v>
       </c>
+      <c r="BL390">
+        <v>1.0528188000000001</v>
+      </c>
+      <c r="BM390">
+        <v>1.0619400000000001</v>
+      </c>
       <c r="BS390">
-        <v>1.0528188000000001</v>
+        <v>1.0289272</v>
       </c>
       <c r="BT390">
         <v>1.0619400000000001</v>
@@ -35241,8 +37617,14 @@
       <c r="BF391">
         <v>1.06481</v>
       </c>
+      <c r="BL391">
+        <v>1.0519293999999999</v>
+      </c>
+      <c r="BM391">
+        <v>1.06481</v>
+      </c>
       <c r="BS391">
-        <v>1.0519293999999999</v>
+        <v>1.0282753</v>
       </c>
       <c r="BT391">
         <v>1.06481</v>
@@ -35303,8 +37685,14 @@
       <c r="BF392">
         <v>1.0682100000000001</v>
       </c>
+      <c r="BL392">
+        <v>1.0514836000000001</v>
+      </c>
+      <c r="BM392">
+        <v>1.0682100000000001</v>
+      </c>
       <c r="BS392">
-        <v>1.0514836000000001</v>
+        <v>1.0268337999999999</v>
       </c>
       <c r="BT392">
         <v>1.0682100000000001</v>
@@ -35365,8 +37753,14 @@
       <c r="BF393">
         <v>1.0659799999999999</v>
       </c>
+      <c r="BL393">
+        <v>1.0530710999999999</v>
+      </c>
+      <c r="BM393">
+        <v>1.0659799999999999</v>
+      </c>
       <c r="BS393">
-        <v>1.0530710999999999</v>
+        <v>1.0280043000000001</v>
       </c>
       <c r="BT393">
         <v>1.0659799999999999</v>
@@ -35427,8 +37821,14 @@
       <c r="BF394">
         <v>1.06511</v>
       </c>
+      <c r="BL394">
+        <v>1.0530231000000001</v>
+      </c>
+      <c r="BM394">
+        <v>1.06511</v>
+      </c>
       <c r="BS394">
-        <v>1.0530231000000001</v>
+        <v>1.0286322000000001</v>
       </c>
       <c r="BT394">
         <v>1.06511</v>
@@ -35489,8 +37889,14 @@
       <c r="BF395">
         <v>1.06812</v>
       </c>
+      <c r="BL395">
+        <v>1.053863</v>
+      </c>
+      <c r="BM395">
+        <v>1.06812</v>
+      </c>
       <c r="BS395">
-        <v>1.053863</v>
+        <v>1.0287976000000001</v>
       </c>
       <c r="BT395">
         <v>1.06812</v>
@@ -35551,8 +37957,14 @@
       <c r="BF396">
         <v>1.06002</v>
       </c>
+      <c r="BL396">
+        <v>1.0555581999999999</v>
+      </c>
+      <c r="BM396">
+        <v>1.06002</v>
+      </c>
       <c r="BS396">
-        <v>1.0555581999999999</v>
+        <v>1.0303836</v>
       </c>
       <c r="BT396">
         <v>1.06002</v>
@@ -35613,8 +38025,14 @@
       <c r="BF397">
         <v>1.05792</v>
       </c>
+      <c r="BL397">
+        <v>1.0522583999999999</v>
+      </c>
+      <c r="BM397">
+        <v>1.05792</v>
+      </c>
       <c r="BS397">
-        <v>1.0522583999999999</v>
+        <v>1.0270847999999999</v>
       </c>
       <c r="BT397">
         <v>1.05792</v>
@@ -35675,8 +38093,14 @@
       <c r="BF398">
         <v>1.05549</v>
       </c>
+      <c r="BL398">
+        <v>1.0502743999999999</v>
+      </c>
+      <c r="BM398">
+        <v>1.05549</v>
+      </c>
       <c r="BS398">
-        <v>1.0502743999999999</v>
+        <v>1.0224099</v>
       </c>
       <c r="BT398">
         <v>1.05549</v>
@@ -35737,8 +38161,14 @@
       <c r="BF399">
         <v>1.06351</v>
       </c>
+      <c r="BL399">
+        <v>1.0469207</v>
+      </c>
+      <c r="BM399">
+        <v>1.06351</v>
+      </c>
       <c r="BS399">
-        <v>1.0469207</v>
+        <v>1.0183852</v>
       </c>
       <c r="BT399">
         <v>1.06351</v>
@@ -35799,8 +38229,14 @@
       <c r="BF400">
         <v>1.0605</v>
       </c>
+      <c r="BL400">
+        <v>1.0481218000000001</v>
+      </c>
+      <c r="BM400">
+        <v>1.0605</v>
+      </c>
       <c r="BS400">
-        <v>1.0481218000000001</v>
+        <v>1.0190973000000001</v>
       </c>
       <c r="BT400">
         <v>1.0605</v>
@@ -35861,8 +38297,14 @@
       <c r="BF401">
         <v>1.05684</v>
       </c>
+      <c r="BL401">
+        <v>1.0475156000000001</v>
+      </c>
+      <c r="BM401">
+        <v>1.05684</v>
+      </c>
       <c r="BS401">
-        <v>1.0475156000000001</v>
+        <v>1.0200632000000001</v>
       </c>
       <c r="BT401">
         <v>1.05684</v>
@@ -35923,8 +38365,14 @@
       <c r="BF402">
         <v>1.0567800000000001</v>
       </c>
+      <c r="BL402">
+        <v>1.0453222</v>
+      </c>
+      <c r="BM402">
+        <v>1.0567800000000001</v>
+      </c>
       <c r="BS402">
-        <v>1.0453222</v>
+        <v>1.0174923</v>
       </c>
       <c r="BT402">
         <v>1.0567800000000001</v>
@@ -35985,8 +38433,14 @@
       <c r="BF403">
         <v>1.0632299999999999</v>
       </c>
+      <c r="BL403">
+        <v>1.0440855</v>
+      </c>
+      <c r="BM403">
+        <v>1.0632299999999999</v>
+      </c>
       <c r="BS403">
-        <v>1.0440855</v>
+        <v>1.0149193000000001</v>
       </c>
       <c r="BT403">
         <v>1.0632299999999999</v>
@@ -36047,8 +38501,14 @@
       <c r="BF404">
         <v>1.0678300000000001</v>
       </c>
+      <c r="BL404">
+        <v>1.0460917000000001</v>
+      </c>
+      <c r="BM404">
+        <v>1.0678300000000001</v>
+      </c>
       <c r="BS404">
-        <v>1.0460917000000001</v>
+        <v>1.0169140999999999</v>
       </c>
       <c r="BT404">
         <v>1.0678300000000001</v>
@@ -36109,8 +38569,14 @@
       <c r="BF405">
         <v>1.0676000000000001</v>
       </c>
+      <c r="BL405">
+        <v>1.0477546</v>
+      </c>
+      <c r="BM405">
+        <v>1.0676000000000001</v>
+      </c>
       <c r="BS405">
-        <v>1.0477546</v>
+        <v>1.0204108000000001</v>
       </c>
       <c r="BT405">
         <v>1.0676000000000001</v>
@@ -36171,8 +38637,14 @@
       <c r="BF406">
         <v>1.06416</v>
       </c>
+      <c r="BL406">
+        <v>1.0494052</v>
+      </c>
+      <c r="BM406">
+        <v>1.06416</v>
+      </c>
       <c r="BS406">
-        <v>1.0494052</v>
+        <v>1.0225660999999999</v>
       </c>
       <c r="BT406">
         <v>1.06416</v>
@@ -36233,8 +38705,14 @@
       <c r="BF407">
         <v>1.02634</v>
       </c>
+      <c r="BL407">
+        <v>1.0495175999999999</v>
+      </c>
+      <c r="BM407">
+        <v>1.02634</v>
+      </c>
       <c r="BS407">
-        <v>1.0495175999999999</v>
+        <v>1.0224025000000001</v>
       </c>
       <c r="BT407">
         <v>1.02634</v>
@@ -36295,8 +38773,14 @@
       <c r="BF408">
         <v>1.0484199999999999</v>
       </c>
+      <c r="BL408">
+        <v>1.0383869999999999</v>
+      </c>
+      <c r="BM408">
+        <v>1.0484199999999999</v>
+      </c>
       <c r="BS408">
-        <v>1.0383869999999999</v>
+        <v>1.0104419</v>
       </c>
       <c r="BT408">
         <v>1.0484199999999999</v>
@@ -36357,8 +38841,14 @@
       <c r="BF409">
         <v>1.0257799999999999</v>
       </c>
+      <c r="BL409">
+        <v>1.0352789</v>
+      </c>
+      <c r="BM409">
+        <v>1.0257799999999999</v>
+      </c>
       <c r="BS409">
-        <v>1.0352789</v>
+        <v>1.001854</v>
       </c>
       <c r="BT409">
         <v>1.0257799999999999</v>
@@ -36419,8 +38909,14 @@
       <c r="BF410">
         <v>1.0248900000000001</v>
       </c>
+      <c r="BL410">
+        <v>1.0302494</v>
+      </c>
+      <c r="BM410">
+        <v>1.0248900000000001</v>
+      </c>
       <c r="BS410">
-        <v>1.0302494</v>
+        <v>0.99788874000000005</v>
       </c>
       <c r="BT410">
         <v>1.0248900000000001</v>
@@ -36481,8 +38977,14 @@
       <c r="BF411">
         <v>1.04009</v>
       </c>
+      <c r="BL411">
+        <v>1.0297569</v>
+      </c>
+      <c r="BM411">
+        <v>1.04009</v>
+      </c>
       <c r="BS411">
-        <v>1.0297569</v>
+        <v>0.99785579999999996</v>
       </c>
       <c r="BT411">
         <v>1.04009</v>
@@ -36543,8 +39045,14 @@
       <c r="BF412">
         <v>1.0343599999999999</v>
       </c>
+      <c r="BL412">
+        <v>1.0295386</v>
+      </c>
+      <c r="BM412">
+        <v>1.0343599999999999</v>
+      </c>
       <c r="BS412">
-        <v>1.0295386</v>
+        <v>0.9995115</v>
       </c>
       <c r="BT412">
         <v>1.0343599999999999</v>
@@ -36605,8 +39113,14 @@
       <c r="BF413">
         <v>1.03433</v>
       </c>
+      <c r="BL413">
+        <v>1.0294764000000001</v>
+      </c>
+      <c r="BM413">
+        <v>1.03433</v>
+      </c>
       <c r="BS413">
-        <v>1.0294764000000001</v>
+        <v>1.0002485999999999</v>
       </c>
       <c r="BT413">
         <v>1.03433</v>
@@ -36667,8 +39181,14 @@
       <c r="BF414">
         <v>1.0347900000000001</v>
       </c>
+      <c r="BL414">
+        <v>1.0301256999999999</v>
+      </c>
+      <c r="BM414">
+        <v>1.0347900000000001</v>
+      </c>
       <c r="BS414">
-        <v>1.0301256999999999</v>
+        <v>1.0013003</v>
       </c>
       <c r="BT414">
         <v>1.0347900000000001</v>
@@ -36729,8 +39249,14 @@
       <c r="BF415">
         <v>1.05131</v>
       </c>
+      <c r="BL415">
+        <v>1.0306815</v>
+      </c>
+      <c r="BM415">
+        <v>1.05131</v>
+      </c>
       <c r="BS415">
-        <v>1.0306815</v>
+        <v>1.0026187</v>
       </c>
       <c r="BT415">
         <v>1.05131</v>
@@ -36791,8 +39317,14 @@
       <c r="BF416">
         <v>1.06125</v>
       </c>
+      <c r="BL416">
+        <v>1.0313562999999999</v>
+      </c>
+      <c r="BM416">
+        <v>1.06125</v>
+      </c>
       <c r="BS416">
-        <v>1.0313562999999999</v>
+        <v>1.0040214000000001</v>
       </c>
       <c r="BT416">
         <v>1.06125</v>
@@ -36853,8 +39385,14 @@
       <c r="BF417">
         <v>1.0524199999999999</v>
       </c>
+      <c r="BL417">
+        <v>1.0336037</v>
+      </c>
+      <c r="BM417">
+        <v>1.0524199999999999</v>
+      </c>
       <c r="BS417">
-        <v>1.0336037</v>
+        <v>1.0070399999999999</v>
       </c>
       <c r="BT417">
         <v>1.0524199999999999</v>
@@ -36915,8 +39453,14 @@
       <c r="BF418">
         <v>1.0392699999999999</v>
       </c>
+      <c r="BL418">
+        <v>1.0346664000000001</v>
+      </c>
+      <c r="BM418">
+        <v>1.0392699999999999</v>
+      </c>
       <c r="BS418">
-        <v>1.0346664000000001</v>
+        <v>1.0092049000000001</v>
       </c>
       <c r="BT418">
         <v>1.0392699999999999</v>
@@ -36977,8 +39521,14 @@
       <c r="BF419">
         <v>1.04905</v>
       </c>
+      <c r="BL419">
+        <v>1.0334264</v>
+      </c>
+      <c r="BM419">
+        <v>1.04905</v>
+      </c>
       <c r="BS419">
-        <v>1.0334264</v>
+        <v>1.0081403</v>
       </c>
       <c r="BT419">
         <v>1.04905</v>
@@ -37040,8 +39590,14 @@
       <c r="BF420">
         <v>1.05714</v>
       </c>
+      <c r="BL420">
+        <v>1.0343206</v>
+      </c>
+      <c r="BM420">
+        <v>1.05714</v>
+      </c>
       <c r="BS420">
-        <v>1.0343206</v>
+        <v>1.0080229999999999</v>
       </c>
       <c r="BT420">
         <v>1.05714</v>
@@ -37103,8 +39659,14 @@
       <c r="BF421">
         <v>1.0428299999999999</v>
       </c>
+      <c r="BL421">
+        <v>1.0359806</v>
+      </c>
+      <c r="BM421">
+        <v>1.0428299999999999</v>
+      </c>
       <c r="BS421">
-        <v>1.0359806</v>
+        <v>1.0105071999999999</v>
       </c>
       <c r="BT421">
         <v>1.0428299999999999</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="18">
   <si>
     <t>_0.975178</t>
   </si>
@@ -2984,11 +2984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1546043616"/>
-        <c:axId val="-1979159760"/>
+        <c:axId val="-2006905024"/>
+        <c:axId val="-1543621408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1546043616"/>
+        <c:axId val="-2006905024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979159760"/>
+        <c:crossAx val="-1543621408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3038,7 +3038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979159760"/>
+        <c:axId val="-1543621408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +3088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1546043616"/>
+        <c:crossAx val="-2006905024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5793,11 +5793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1977677760"/>
-        <c:axId val="-1977906240"/>
+        <c:axId val="-1978015936"/>
+        <c:axId val="-1978307712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1977677760"/>
+        <c:axId val="-1978015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,7 +5839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1977906240"/>
+        <c:crossAx val="-1978307712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5847,7 +5847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1977906240"/>
+        <c:axId val="-1978307712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,7 +5898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1977677760"/>
+        <c:crossAx val="-1978015936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8603,11 +8603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1885768608"/>
-        <c:axId val="-1885766832"/>
+        <c:axId val="-1977917792"/>
+        <c:axId val="-1960989088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1885768608"/>
+        <c:axId val="-1977917792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8649,7 +8649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1885766832"/>
+        <c:crossAx val="-1960989088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8657,7 +8657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1885766832"/>
+        <c:axId val="-1960989088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8707,7 +8707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1885768608"/>
+        <c:crossAx val="-1977917792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10816,8 +10816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="CL5" sqref="CL5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="AT16" sqref="AT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11211,7 +11211,7 @@
         <v>200</v>
       </c>
       <c r="BB2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC2">
         <v>60</v>
@@ -11229,7 +11229,7 @@
         <v>200</v>
       </c>
       <c r="BI2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BJ2">
         <v>90</v>
@@ -11247,7 +11247,7 @@
         <v>200</v>
       </c>
       <c r="BP2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BQ2">
         <v>75</v>
@@ -11265,7 +11265,7 @@
         <v>200</v>
       </c>
       <c r="BW2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BX2">
         <v>70</v>
@@ -11283,7 +11283,7 @@
         <v>200</v>
       </c>
       <c r="CD2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CE2">
         <v>75</v>
@@ -11301,7 +11301,7 @@
         <v>200</v>
       </c>
       <c r="CK2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CL2">
         <v>75</v>
@@ -11311,6 +11311,14 @@
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
+    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
@@ -11402,6 +11410,16 @@
       </c>
       <c r="CB5" t="s">
         <v>14</v>
+      </c>
+      <c r="CG5">
+        <v>0.98190440000000001</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <f>CORREL(CG5:CG420,CH5:CH420)</f>
+        <v>0.72189116759088723</v>
       </c>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.2">
@@ -11537,6 +11555,12 @@
         <f>CORREL(BZ6:BZ421,CA6:CA421)</f>
         <v>0.82171446636911571</v>
       </c>
+      <c r="CG6">
+        <v>0.98335545999999996</v>
+      </c>
+      <c r="CH6">
+        <v>0.96900399999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -11621,6 +11645,12 @@
       <c r="CA7">
         <v>0.96900399999999998</v>
       </c>
+      <c r="CG7">
+        <v>0.98423229999999995</v>
+      </c>
+      <c r="CH7">
+        <v>0.984456</v>
+      </c>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -11701,6 +11731,12 @@
       <c r="CA8">
         <v>0.984456</v>
       </c>
+      <c r="CG8">
+        <v>0.98544569999999998</v>
+      </c>
+      <c r="CH8">
+        <v>0.98441299999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -11781,6 +11817,12 @@
       <c r="CA9">
         <v>0.98441299999999998</v>
       </c>
+      <c r="CG9">
+        <v>0.9875756</v>
+      </c>
+      <c r="CH9">
+        <v>0.99852200000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -11861,6 +11903,12 @@
       <c r="CA10">
         <v>0.99852200000000002</v>
       </c>
+      <c r="CG10">
+        <v>0.99056409999999995</v>
+      </c>
+      <c r="CH10">
+        <v>1.00454</v>
+      </c>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -11941,6 +11989,12 @@
       <c r="CA11">
         <v>1.00454</v>
       </c>
+      <c r="CG11">
+        <v>0.99481200000000003</v>
+      </c>
+      <c r="CH11">
+        <v>1.00691</v>
+      </c>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -12021,6 +12075,12 @@
       <c r="CA12">
         <v>1.00691</v>
       </c>
+      <c r="CG12">
+        <v>0.99709519999999996</v>
+      </c>
+      <c r="CH12">
+        <v>1.00644</v>
+      </c>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -12101,6 +12161,12 @@
       <c r="CA13">
         <v>1.00644</v>
       </c>
+      <c r="CG13">
+        <v>0.99939865000000006</v>
+      </c>
+      <c r="CH13">
+        <v>1.0048699999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -12181,6 +12247,12 @@
       <c r="CA14">
         <v>1.0048699999999999</v>
       </c>
+      <c r="CG14">
+        <v>1.0000933000000001</v>
+      </c>
+      <c r="CH14">
+        <v>1.0139499999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -12261,6 +12333,12 @@
       <c r="CA15">
         <v>1.0139499999999999</v>
       </c>
+      <c r="CG15">
+        <v>0.99945812999999994</v>
+      </c>
+      <c r="CH15">
+        <v>1.0135000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -12341,8 +12419,14 @@
       <c r="CA16">
         <v>1.0135000000000001</v>
       </c>
+      <c r="CG16">
+        <v>1.0017708999999999</v>
+      </c>
+      <c r="CH16">
+        <v>1.01762</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.97823757</v>
       </c>
@@ -12421,8 +12505,14 @@
       <c r="CA17">
         <v>1.01762</v>
       </c>
+      <c r="CG17">
+        <v>1.0023637999999999</v>
+      </c>
+      <c r="CH17">
+        <v>1.01647</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.97857236999999997</v>
       </c>
@@ -12501,8 +12591,14 @@
       <c r="CA18">
         <v>1.01647</v>
       </c>
+      <c r="CG18">
+        <v>1.0031323000000001</v>
+      </c>
+      <c r="CH18">
+        <v>1.0142599999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.97901819999999995</v>
       </c>
@@ -12581,8 +12677,14 @@
       <c r="CA19">
         <v>1.0142599999999999</v>
       </c>
+      <c r="CG19">
+        <v>1.0030375</v>
+      </c>
+      <c r="CH19">
+        <v>1.0098499999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.97968084</v>
       </c>
@@ -12661,8 +12763,14 @@
       <c r="CA20">
         <v>1.0098499999999999</v>
       </c>
+      <c r="CG20">
+        <v>1.0028689</v>
+      </c>
+      <c r="CH20">
+        <v>1.0189699999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98058440000000002</v>
       </c>
@@ -12741,8 +12849,14 @@
       <c r="CA21">
         <v>1.0189699999999999</v>
       </c>
+      <c r="CG21">
+        <v>1.0035000999999999</v>
+      </c>
+      <c r="CH21">
+        <v>1.01217</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98153466</v>
       </c>
@@ -12821,8 +12935,14 @@
       <c r="CA22">
         <v>1.01217</v>
       </c>
+      <c r="CG22">
+        <v>1.0022987000000001</v>
+      </c>
+      <c r="CH22">
+        <v>1.00563</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98224412999999999</v>
       </c>
@@ -12901,8 +13021,14 @@
       <c r="CA23">
         <v>1.00563</v>
       </c>
+      <c r="CG23">
+        <v>0.99993723999999995</v>
+      </c>
+      <c r="CH23">
+        <v>1.0074000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98255320000000002</v>
       </c>
@@ -12981,8 +13107,14 @@
       <c r="CA24">
         <v>1.0074000000000001</v>
       </c>
+      <c r="CG24">
+        <v>1.0003834</v>
+      </c>
+      <c r="CH24">
+        <v>0.986344</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98284079999999996</v>
       </c>
@@ -13061,8 +13193,14 @@
       <c r="CA25">
         <v>0.986344</v>
       </c>
+      <c r="CG25">
+        <v>0.9935311</v>
+      </c>
+      <c r="CH25">
+        <v>0.99212199999999995</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98285610000000001</v>
       </c>
@@ -13141,8 +13279,14 @@
       <c r="CA26">
         <v>0.99212199999999995</v>
       </c>
+      <c r="CG26">
+        <v>0.99415094000000004</v>
+      </c>
+      <c r="CH26">
+        <v>0.96717900000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98284786999999996</v>
       </c>
@@ -13221,8 +13365,14 @@
       <c r="CA27">
         <v>0.96717900000000001</v>
       </c>
+      <c r="CG27">
+        <v>0.98918086000000005</v>
+      </c>
+      <c r="CH27">
+        <v>0.96440700000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98268955999999996</v>
       </c>
@@ -13301,8 +13451,14 @@
       <c r="CA28">
         <v>0.96440700000000001</v>
       </c>
+      <c r="CG28">
+        <v>0.99060154</v>
+      </c>
+      <c r="CH28">
+        <v>0.98258900000000005</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98256449999999995</v>
       </c>
@@ -13381,8 +13537,14 @@
       <c r="CA29">
         <v>0.98258900000000005</v>
       </c>
+      <c r="CG29">
+        <v>0.99196709999999999</v>
+      </c>
+      <c r="CH29">
+        <v>0.97371399999999997</v>
+      </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98294619999999999</v>
       </c>
@@ -13461,8 +13623,14 @@
       <c r="CA30">
         <v>0.97371399999999997</v>
       </c>
+      <c r="CG30">
+        <v>0.99244129999999997</v>
+      </c>
+      <c r="CH30">
+        <v>0.993367</v>
+      </c>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98345654999999998</v>
       </c>
@@ -13541,8 +13709,14 @@
       <c r="CA31">
         <v>0.993367</v>
       </c>
+      <c r="CG31">
+        <v>0.99451319999999999</v>
+      </c>
+      <c r="CH31">
+        <v>0.98848000000000003</v>
+      </c>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98399853999999998</v>
       </c>
@@ -13621,8 +13795,14 @@
       <c r="CA32">
         <v>0.98848000000000003</v>
       </c>
+      <c r="CG32">
+        <v>0.99659370000000003</v>
+      </c>
+      <c r="CH32">
+        <v>1.0063200000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98438859999999995</v>
       </c>
@@ -13701,8 +13881,14 @@
       <c r="CA33">
         <v>1.0063200000000001</v>
       </c>
+      <c r="CG33">
+        <v>0.99524369999999995</v>
+      </c>
+      <c r="CH33">
+        <v>0.999081</v>
+      </c>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98442929999999995</v>
       </c>
@@ -13781,8 +13967,14 @@
       <c r="CA34">
         <v>0.999081</v>
       </c>
+      <c r="CG34">
+        <v>0.99822204999999997</v>
+      </c>
+      <c r="CH34">
+        <v>1.0124</v>
+      </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98425054999999995</v>
       </c>
@@ -13861,8 +14053,14 @@
       <c r="CA35">
         <v>1.0124</v>
       </c>
+      <c r="CG35">
+        <v>0.99863504999999997</v>
+      </c>
+      <c r="CH35">
+        <v>1.00979</v>
+      </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98417069999999995</v>
       </c>
@@ -13941,8 +14139,14 @@
       <c r="CA36">
         <v>1.00979</v>
       </c>
+      <c r="CG36">
+        <v>1.0017862</v>
+      </c>
+      <c r="CH36">
+        <v>1.0006600000000001</v>
+      </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98401810000000001</v>
       </c>
@@ -14021,8 +14225,14 @@
       <c r="CA37">
         <v>1.0006600000000001</v>
       </c>
+      <c r="CG37">
+        <v>1.0014449999999999</v>
+      </c>
+      <c r="CH37">
+        <v>0.97912399999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98382769999999997</v>
       </c>
@@ -14101,8 +14311,14 @@
       <c r="CA38">
         <v>0.97912399999999999</v>
       </c>
+      <c r="CG38">
+        <v>0.99641199999999996</v>
+      </c>
+      <c r="CH38">
+        <v>0.97565800000000003</v>
+      </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98361200000000004</v>
       </c>
@@ -14181,8 +14397,14 @@
       <c r="CA39">
         <v>0.97565800000000003</v>
       </c>
+      <c r="CG39">
+        <v>0.99475205</v>
+      </c>
+      <c r="CH39">
+        <v>0.97910200000000003</v>
+      </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98328775000000002</v>
       </c>
@@ -14261,8 +14483,14 @@
       <c r="CA40">
         <v>0.97910200000000003</v>
       </c>
+      <c r="CG40">
+        <v>0.99638729999999998</v>
+      </c>
+      <c r="CH40">
+        <v>0.99693799999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98314743999999998</v>
       </c>
@@ -14341,8 +14569,14 @@
       <c r="CA41">
         <v>0.99693799999999999</v>
       </c>
+      <c r="CG41">
+        <v>0.99718309999999999</v>
+      </c>
+      <c r="CH41">
+        <v>0.98396099999999997</v>
+      </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98334580000000005</v>
       </c>
@@ -14421,8 +14655,14 @@
       <c r="CA42">
         <v>0.98396099999999997</v>
       </c>
+      <c r="CG42">
+        <v>0.99767950000000005</v>
+      </c>
+      <c r="CH42">
+        <v>0.97816199999999998</v>
+      </c>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98371410000000004</v>
       </c>
@@ -14501,8 +14741,14 @@
       <c r="CA43">
         <v>0.97816199999999998</v>
       </c>
+      <c r="CG43">
+        <v>0.99611340000000004</v>
+      </c>
+      <c r="CH43">
+        <v>0.98330300000000004</v>
+      </c>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98371017000000005</v>
       </c>
@@ -14581,8 +14827,14 @@
       <c r="CA44">
         <v>0.98330300000000004</v>
       </c>
+      <c r="CG44">
+        <v>0.99732759999999998</v>
+      </c>
+      <c r="CH44">
+        <v>0.99296300000000004</v>
+      </c>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.98339765999999995</v>
       </c>
@@ -14661,8 +14913,14 @@
       <c r="CA45">
         <v>0.99296300000000004</v>
       </c>
+      <c r="CG45">
+        <v>0.99681180000000003</v>
+      </c>
+      <c r="CH45">
+        <v>0.98992999999999998</v>
+      </c>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98303289999999999</v>
       </c>
@@ -14741,8 +14999,14 @@
       <c r="CA46">
         <v>0.98992999999999998</v>
       </c>
+      <c r="CG46">
+        <v>0.99921596000000001</v>
+      </c>
+      <c r="CH46">
+        <v>0.993869</v>
+      </c>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98286753999999998</v>
       </c>
@@ -14821,8 +15085,14 @@
       <c r="CA47">
         <v>0.993869</v>
       </c>
+      <c r="CG47">
+        <v>1.0000794</v>
+      </c>
+      <c r="CH47">
+        <v>1.0004299999999999</v>
+      </c>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98300432999999998</v>
       </c>
@@ -14901,8 +15171,14 @@
       <c r="CA48">
         <v>1.0004299999999999</v>
       </c>
+      <c r="CG48">
+        <v>1.0009428</v>
+      </c>
+      <c r="CH48">
+        <v>1.00813</v>
+      </c>
     </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.9832651</v>
       </c>
@@ -14981,8 +15257,14 @@
       <c r="CA49">
         <v>1.00813</v>
       </c>
+      <c r="CG49">
+        <v>1.0052505</v>
+      </c>
+      <c r="CH49">
+        <v>1.00132</v>
+      </c>
     </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98372643999999998</v>
       </c>
@@ -15061,8 +15343,14 @@
       <c r="CA50">
         <v>1.00132</v>
       </c>
+      <c r="CG50">
+        <v>1.0058357</v>
+      </c>
+      <c r="CH50">
+        <v>1.00373</v>
+      </c>
     </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98432560000000002</v>
       </c>
@@ -15141,8 +15429,14 @@
       <c r="CA51">
         <v>1.00373</v>
       </c>
+      <c r="CG51">
+        <v>1.0062063000000001</v>
+      </c>
+      <c r="CH51">
+        <v>1.01136</v>
+      </c>
     </row>
-    <row r="52" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98475860000000004</v>
       </c>
@@ -15221,8 +15515,14 @@
       <c r="CA52">
         <v>1.01136</v>
       </c>
+      <c r="CG52">
+        <v>1.0069665999999999</v>
+      </c>
+      <c r="CH52">
+        <v>1.0102</v>
+      </c>
     </row>
-    <row r="53" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.98492480000000004</v>
       </c>
@@ -15301,8 +15601,14 @@
       <c r="CA53">
         <v>1.0102</v>
       </c>
+      <c r="CG53">
+        <v>1.0071747</v>
+      </c>
+      <c r="CH53">
+        <v>0.99335899999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98489547</v>
       </c>
@@ -15381,8 +15687,14 @@
       <c r="CA54">
         <v>0.99335899999999999</v>
       </c>
+      <c r="CG54">
+        <v>1.0024295999999999</v>
+      </c>
+      <c r="CH54">
+        <v>1.00695</v>
+      </c>
     </row>
-    <row r="55" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98475820000000003</v>
       </c>
@@ -15461,8 +15773,14 @@
       <c r="CA55">
         <v>1.00695</v>
       </c>
+      <c r="CG55">
+        <v>1.0032635999999999</v>
+      </c>
+      <c r="CH55">
+        <v>1.00475</v>
+      </c>
     </row>
-    <row r="56" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.98481363</v>
       </c>
@@ -15541,8 +15859,14 @@
       <c r="CA56">
         <v>1.00475</v>
       </c>
+      <c r="CG56">
+        <v>1.004232</v>
+      </c>
+      <c r="CH56">
+        <v>1.0123</v>
+      </c>
     </row>
-    <row r="57" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.9850875</v>
       </c>
@@ -15621,8 +15945,14 @@
       <c r="CA57">
         <v>1.0123</v>
       </c>
+      <c r="CG57">
+        <v>1.0045101999999999</v>
+      </c>
+      <c r="CH57">
+        <v>1.0158100000000001</v>
+      </c>
     </row>
-    <row r="58" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98536449999999998</v>
       </c>
@@ -15701,8 +16031,14 @@
       <c r="CA58">
         <v>1.0158100000000001</v>
       </c>
+      <c r="CG58">
+        <v>1.0058956999999999</v>
+      </c>
+      <c r="CH58">
+        <v>1.01918</v>
+      </c>
     </row>
-    <row r="59" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98559750000000002</v>
       </c>
@@ -15781,8 +16117,14 @@
       <c r="CA59">
         <v>1.01918</v>
       </c>
+      <c r="CG59">
+        <v>1.0078514999999999</v>
+      </c>
+      <c r="CH59">
+        <v>1.01298</v>
+      </c>
     </row>
-    <row r="60" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.9857051</v>
       </c>
@@ -15861,8 +16203,14 @@
       <c r="CA60">
         <v>1.01298</v>
       </c>
+      <c r="CG60">
+        <v>1.0065408</v>
+      </c>
+      <c r="CH60">
+        <v>1.01711</v>
+      </c>
     </row>
-    <row r="61" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98565130000000001</v>
       </c>
@@ -15941,8 +16289,14 @@
       <c r="CA61">
         <v>1.01711</v>
       </c>
+      <c r="CG61">
+        <v>1.0047861</v>
+      </c>
+      <c r="CH61">
+        <v>1.0115099999999999</v>
+      </c>
     </row>
-    <row r="62" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98549973999999996</v>
       </c>
@@ -16021,8 +16375,14 @@
       <c r="CA62">
         <v>1.0115099999999999</v>
       </c>
+      <c r="CG62">
+        <v>1.0036414</v>
+      </c>
+      <c r="CH62">
+        <v>0.99642200000000003</v>
+      </c>
     </row>
-    <row r="63" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98522779999999999</v>
       </c>
@@ -16101,8 +16461,14 @@
       <c r="CA63">
         <v>0.99642200000000003</v>
       </c>
+      <c r="CG63">
+        <v>0.99831829999999999</v>
+      </c>
+      <c r="CH63">
+        <v>1.0125299999999999</v>
+      </c>
     </row>
-    <row r="64" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98444646999999996</v>
       </c>
@@ -16181,8 +16547,14 @@
       <c r="CA64">
         <v>1.0125299999999999</v>
       </c>
+      <c r="CG64">
+        <v>0.99945664000000001</v>
+      </c>
+      <c r="CH64">
+        <v>1.01692</v>
+      </c>
     </row>
-    <row r="65" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98378679999999996</v>
       </c>
@@ -16261,8 +16633,14 @@
       <c r="CA65">
         <v>1.01692</v>
       </c>
+      <c r="CG65">
+        <v>1.0034223</v>
+      </c>
+      <c r="CH65">
+        <v>0.99921499999999996</v>
+      </c>
     </row>
-    <row r="66" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98387910000000001</v>
       </c>
@@ -16341,8 +16719,14 @@
       <c r="CA66">
         <v>0.99921499999999996</v>
       </c>
+      <c r="CG66">
+        <v>1.0003687000000001</v>
+      </c>
+      <c r="CH66">
+        <v>0.99263100000000004</v>
+      </c>
     </row>
-    <row r="67" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98397403999999999</v>
       </c>
@@ -16421,8 +16805,14 @@
       <c r="CA67">
         <v>0.99263100000000004</v>
       </c>
+      <c r="CG67">
+        <v>0.99695027000000003</v>
+      </c>
+      <c r="CH67">
+        <v>0.99818300000000004</v>
+      </c>
     </row>
-    <row r="68" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.98311510000000002</v>
       </c>
@@ -16501,8 +16891,14 @@
       <c r="CA68">
         <v>0.99818300000000004</v>
       </c>
+      <c r="CG68">
+        <v>0.9971719</v>
+      </c>
+      <c r="CH68">
+        <v>1.0180499999999999</v>
+      </c>
     </row>
-    <row r="69" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98196923999999997</v>
       </c>
@@ -16581,8 +16977,14 @@
       <c r="CA69">
         <v>1.0180499999999999</v>
       </c>
+      <c r="CG69">
+        <v>1.0002137</v>
+      </c>
+      <c r="CH69">
+        <v>1.01044</v>
+      </c>
     </row>
-    <row r="70" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98182570000000002</v>
       </c>
@@ -16661,8 +17063,14 @@
       <c r="CA70">
         <v>1.01044</v>
       </c>
+      <c r="CG70">
+        <v>1.0033426000000001</v>
+      </c>
+      <c r="CH70">
+        <v>1.0060500000000001</v>
+      </c>
     </row>
-    <row r="71" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98213433999999999</v>
       </c>
@@ -16741,8 +17149,14 @@
       <c r="CA71">
         <v>1.0060500000000001</v>
       </c>
+      <c r="CG71">
+        <v>1.0018659000000001</v>
+      </c>
+      <c r="CH71">
+        <v>1.00559</v>
+      </c>
     </row>
-    <row r="72" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.9820468</v>
       </c>
@@ -16821,8 +17235,14 @@
       <c r="CA72">
         <v>1.00559</v>
       </c>
+      <c r="CG72">
+        <v>1.0031314</v>
+      </c>
+      <c r="CH72">
+        <v>1.02159</v>
+      </c>
     </row>
-    <row r="73" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98158659999999998</v>
       </c>
@@ -16901,8 +17321,14 @@
       <c r="CA73">
         <v>1.02159</v>
       </c>
+      <c r="CG73">
+        <v>1.0048718000000001</v>
+      </c>
+      <c r="CH73">
+        <v>1.02274</v>
+      </c>
     </row>
-    <row r="74" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98121685000000003</v>
       </c>
@@ -16981,8 +17407,14 @@
       <c r="CA74">
         <v>1.02274</v>
       </c>
+      <c r="CG74">
+        <v>1.008189</v>
+      </c>
+      <c r="CH74">
+        <v>1.02732</v>
+      </c>
     </row>
-    <row r="75" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98107100000000003</v>
       </c>
@@ -17061,8 +17493,14 @@
       <c r="CA75">
         <v>1.02732</v>
       </c>
+      <c r="CG75">
+        <v>1.0097529999999999</v>
+      </c>
+      <c r="CH75">
+        <v>1.0263500000000001</v>
+      </c>
     </row>
-    <row r="76" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98125476</v>
       </c>
@@ -17141,8 +17579,14 @@
       <c r="CA76">
         <v>1.0263500000000001</v>
       </c>
+      <c r="CG76">
+        <v>1.0101992</v>
+      </c>
+      <c r="CH76">
+        <v>1.02495</v>
+      </c>
     </row>
-    <row r="77" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98163986000000003</v>
       </c>
@@ -17221,8 +17665,14 @@
       <c r="CA77">
         <v>1.02495</v>
       </c>
+      <c r="CG77">
+        <v>1.009668</v>
+      </c>
+      <c r="CH77">
+        <v>1.0284599999999999</v>
+      </c>
     </row>
-    <row r="78" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98200410000000005</v>
       </c>
@@ -17301,8 +17751,14 @@
       <c r="CA78">
         <v>1.0284599999999999</v>
       </c>
+      <c r="CG78">
+        <v>1.0099167</v>
+      </c>
+      <c r="CH78">
+        <v>1.0250999999999999</v>
+      </c>
     </row>
-    <row r="79" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98241100000000003</v>
       </c>
@@ -17381,8 +17837,14 @@
       <c r="CA79">
         <v>1.0250999999999999</v>
       </c>
+      <c r="CG79">
+        <v>1.010435</v>
+      </c>
+      <c r="CH79">
+        <v>1.0096400000000001</v>
+      </c>
     </row>
-    <row r="80" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98286790000000002</v>
       </c>
@@ -17461,8 +17923,14 @@
       <c r="CA80">
         <v>1.0096400000000001</v>
       </c>
+      <c r="CG80">
+        <v>1.0059788000000001</v>
+      </c>
+      <c r="CH80">
+        <v>1.0232699999999999</v>
+      </c>
     </row>
-    <row r="81" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98338102999999999</v>
       </c>
@@ -17541,8 +18009,14 @@
       <c r="CA81">
         <v>1.0232699999999999</v>
       </c>
+      <c r="CG81">
+        <v>1.005752</v>
+      </c>
+      <c r="CH81">
+        <v>1.0213699999999999</v>
+      </c>
     </row>
-    <row r="82" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.98389950000000004</v>
       </c>
@@ -17621,8 +18095,14 @@
       <c r="CA82">
         <v>1.0213699999999999</v>
       </c>
+      <c r="CG82">
+        <v>1.0066373</v>
+      </c>
+      <c r="CH82">
+        <v>1.01189</v>
+      </c>
     </row>
-    <row r="83" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98431873000000003</v>
       </c>
@@ -17701,8 +18181,14 @@
       <c r="CA83">
         <v>1.01189</v>
       </c>
+      <c r="CG83">
+        <v>1.0049496</v>
+      </c>
+      <c r="CH83">
+        <v>1.0149600000000001</v>
+      </c>
     </row>
-    <row r="84" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98454370000000002</v>
       </c>
@@ -17781,8 +18267,14 @@
       <c r="CA84">
         <v>1.0149600000000001</v>
       </c>
+      <c r="CG84">
+        <v>1.0048629</v>
+      </c>
+      <c r="CH84">
+        <v>1.01346</v>
+      </c>
     </row>
-    <row r="85" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98472499999999996</v>
       </c>
@@ -17861,8 +18353,14 @@
       <c r="CA85">
         <v>1.01346</v>
       </c>
+      <c r="CG85">
+        <v>1.0037141000000001</v>
+      </c>
+      <c r="CH85">
+        <v>1.0166200000000001</v>
+      </c>
     </row>
-    <row r="86" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.9847243</v>
       </c>
@@ -17941,8 +18439,14 @@
       <c r="CA86">
         <v>1.0166200000000001</v>
       </c>
+      <c r="CG86">
+        <v>1.0048577999999999</v>
+      </c>
+      <c r="CH86">
+        <v>1.00373</v>
+      </c>
     </row>
-    <row r="87" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98449500000000001</v>
       </c>
@@ -18021,8 +18525,14 @@
       <c r="CA87">
         <v>1.00373</v>
       </c>
+      <c r="CG87">
+        <v>1.0016552999999999</v>
+      </c>
+      <c r="CH87">
+        <v>1.0016</v>
+      </c>
     </row>
-    <row r="88" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98391819999999997</v>
       </c>
@@ -18101,8 +18611,14 @@
       <c r="CA88">
         <v>1.0016</v>
       </c>
+      <c r="CG88">
+        <v>1.0004633999999999</v>
+      </c>
+      <c r="CH88">
+        <v>0.99201600000000001</v>
+      </c>
     </row>
-    <row r="89" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98308605000000004</v>
       </c>
@@ -18181,8 +18697,14 @@
       <c r="CA89">
         <v>0.99201600000000001</v>
       </c>
+      <c r="CG89">
+        <v>0.99949646000000003</v>
+      </c>
+      <c r="CH89">
+        <v>0.99263100000000004</v>
+      </c>
     </row>
-    <row r="90" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98196300000000003</v>
       </c>
@@ -18261,8 +18783,14 @@
       <c r="CA90">
         <v>0.99263100000000004</v>
       </c>
+      <c r="CG90">
+        <v>0.99927365999999995</v>
+      </c>
+      <c r="CH90">
+        <v>1.0103500000000001</v>
+      </c>
     </row>
-    <row r="91" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.98071059999999999</v>
       </c>
@@ -18341,8 +18869,14 @@
       <c r="CA91">
         <v>1.0103500000000001</v>
       </c>
+      <c r="CG91">
+        <v>1.0003979000000001</v>
+      </c>
+      <c r="CH91">
+        <v>1.0129300000000001</v>
+      </c>
     </row>
-    <row r="92" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.98030229999999996</v>
       </c>
@@ -18421,8 +18955,14 @@
       <c r="CA92">
         <v>1.0129300000000001</v>
       </c>
+      <c r="CG92">
+        <v>1.0047191</v>
+      </c>
+      <c r="CH92">
+        <v>1.0024999999999999</v>
+      </c>
     </row>
-    <row r="93" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.98065959999999996</v>
       </c>
@@ -18501,8 +19041,14 @@
       <c r="CA93">
         <v>1.0024999999999999</v>
       </c>
+      <c r="CG93">
+        <v>1.0041184000000001</v>
+      </c>
+      <c r="CH93">
+        <v>0.99565800000000004</v>
+      </c>
     </row>
-    <row r="94" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.98071193999999995</v>
       </c>
@@ -18581,8 +19127,14 @@
       <c r="CA94">
         <v>0.99565800000000004</v>
       </c>
+      <c r="CG94">
+        <v>1.0017564000000001</v>
+      </c>
+      <c r="CH94">
+        <v>1.0040500000000001</v>
+      </c>
     </row>
-    <row r="95" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97984766999999995</v>
       </c>
@@ -18661,8 +19213,14 @@
       <c r="CA95">
         <v>1.0040500000000001</v>
       </c>
+      <c r="CG95">
+        <v>1.0027303999999999</v>
+      </c>
+      <c r="CH95">
+        <v>1.00698</v>
+      </c>
     </row>
-    <row r="96" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97908704999999996</v>
       </c>
@@ -18741,8 +19299,14 @@
       <c r="CA96">
         <v>1.00698</v>
       </c>
+      <c r="CG96">
+        <v>1.003593</v>
+      </c>
+      <c r="CH96">
+        <v>1.02169</v>
+      </c>
     </row>
-    <row r="97" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97884300000000002</v>
       </c>
@@ -18821,8 +19385,14 @@
       <c r="CA97">
         <v>1.02169</v>
       </c>
+      <c r="CG97">
+        <v>1.0054396000000001</v>
+      </c>
+      <c r="CH97">
+        <v>1.01373</v>
+      </c>
     </row>
-    <row r="98" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97900039999999999</v>
       </c>
@@ -18901,8 +19471,14 @@
       <c r="CA98">
         <v>1.01373</v>
       </c>
+      <c r="CG98">
+        <v>1.0061597</v>
+      </c>
+      <c r="CH98">
+        <v>1.0228299999999999</v>
+      </c>
     </row>
-    <row r="99" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97906053000000004</v>
       </c>
@@ -18981,8 +19557,14 @@
       <c r="CA99">
         <v>1.0228299999999999</v>
       </c>
+      <c r="CG99">
+        <v>1.0071589999999999</v>
+      </c>
+      <c r="CH99">
+        <v>1.0237799999999999</v>
+      </c>
     </row>
-    <row r="100" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97900719999999997</v>
       </c>
@@ -19061,8 +19643,14 @@
       <c r="CA100">
         <v>1.0237799999999999</v>
       </c>
+      <c r="CG100">
+        <v>1.0085679999999999</v>
+      </c>
+      <c r="CH100">
+        <v>1.01274</v>
+      </c>
     </row>
-    <row r="101" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97931109999999999</v>
       </c>
@@ -19141,8 +19729,14 @@
       <c r="CA101">
         <v>1.01274</v>
       </c>
+      <c r="CG101">
+        <v>1.0068558000000001</v>
+      </c>
+      <c r="CH101">
+        <v>1.0083</v>
+      </c>
     </row>
-    <row r="102" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97974159999999999</v>
       </c>
@@ -19221,8 +19815,14 @@
       <c r="CA102">
         <v>1.0083</v>
       </c>
+      <c r="CG102">
+        <v>1.0052987</v>
+      </c>
+      <c r="CH102">
+        <v>1.0077199999999999</v>
+      </c>
     </row>
-    <row r="103" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97993330000000001</v>
       </c>
@@ -19301,8 +19901,14 @@
       <c r="CA103">
         <v>1.0077199999999999</v>
       </c>
+      <c r="CG103">
+        <v>1.0027178999999999</v>
+      </c>
+      <c r="CH103">
+        <v>0.97671200000000002</v>
+      </c>
     </row>
-    <row r="104" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97969764000000004</v>
       </c>
@@ -19381,8 +19987,14 @@
       <c r="CA104">
         <v>0.97671200000000002</v>
       </c>
+      <c r="CG104">
+        <v>0.99429803999999999</v>
+      </c>
+      <c r="CH104">
+        <v>0.98058000000000001</v>
+      </c>
     </row>
-    <row r="105" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97793596999999999</v>
       </c>
@@ -19461,8 +20073,14 @@
       <c r="CA105">
         <v>0.98058000000000001</v>
       </c>
+      <c r="CG105">
+        <v>0.99264973000000001</v>
+      </c>
+      <c r="CH105">
+        <v>0.99070000000000003</v>
+      </c>
     </row>
-    <row r="106" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97617259999999995</v>
       </c>
@@ -19541,8 +20159,14 @@
       <c r="CA106">
         <v>0.99070000000000003</v>
       </c>
+      <c r="CG106">
+        <v>0.99394130000000003</v>
+      </c>
+      <c r="CH106">
+        <v>0.99024800000000002</v>
+      </c>
     </row>
-    <row r="107" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97623150000000003</v>
       </c>
@@ -19621,8 +20245,14 @@
       <c r="CA107">
         <v>0.99024800000000002</v>
       </c>
+      <c r="CG107">
+        <v>0.99658869999999999</v>
+      </c>
+      <c r="CH107">
+        <v>0.98457600000000001</v>
+      </c>
     </row>
-    <row r="108" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97707679999999997</v>
       </c>
@@ -19701,8 +20331,14 @@
       <c r="CA108">
         <v>0.98457600000000001</v>
       </c>
+      <c r="CG108">
+        <v>0.99620794999999995</v>
+      </c>
+      <c r="CH108">
+        <v>0.99347300000000005</v>
+      </c>
     </row>
-    <row r="109" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97745514</v>
       </c>
@@ -19781,8 +20417,14 @@
       <c r="CA109">
         <v>0.99347300000000005</v>
       </c>
+      <c r="CG109">
+        <v>0.99366500000000002</v>
+      </c>
+      <c r="CH109">
+        <v>0.96896099999999996</v>
+      </c>
     </row>
-    <row r="110" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97696110000000003</v>
       </c>
@@ -19861,8 +20503,14 @@
       <c r="CA110">
         <v>0.96896099999999996</v>
       </c>
+      <c r="CG110">
+        <v>0.99152980000000002</v>
+      </c>
+      <c r="CH110">
+        <v>0.97223599999999999</v>
+      </c>
     </row>
-    <row r="111" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97576605999999999</v>
       </c>
@@ -19941,8 +20589,14 @@
       <c r="CA111">
         <v>0.97223599999999999</v>
       </c>
+      <c r="CG111">
+        <v>0.99131113000000004</v>
+      </c>
+      <c r="CH111">
+        <v>0.99013499999999999</v>
+      </c>
     </row>
-    <row r="112" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97488629999999998</v>
       </c>
@@ -20021,8 +20675,14 @@
       <c r="CA112">
         <v>0.99013499999999999</v>
       </c>
+      <c r="CG112">
+        <v>0.99254834999999997</v>
+      </c>
+      <c r="CH112">
+        <v>1.0063899999999999</v>
+      </c>
     </row>
-    <row r="113" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97477650000000005</v>
       </c>
@@ -20101,8 +20761,14 @@
       <c r="CA113">
         <v>1.0063899999999999</v>
       </c>
+      <c r="CG113">
+        <v>0.99633749999999999</v>
+      </c>
+      <c r="CH113">
+        <v>1.0129999999999999</v>
+      </c>
     </row>
-    <row r="114" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97557044000000004</v>
       </c>
@@ -20181,8 +20847,14 @@
       <c r="CA114">
         <v>1.0129999999999999</v>
       </c>
+      <c r="CG114">
+        <v>1.0007417000000001</v>
+      </c>
+      <c r="CH114">
+        <v>1.0119</v>
+      </c>
     </row>
-    <row r="115" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97673255000000003</v>
       </c>
@@ -20261,8 +20933,14 @@
       <c r="CA115">
         <v>1.0119</v>
       </c>
+      <c r="CG115">
+        <v>1.0029937</v>
+      </c>
+      <c r="CH115">
+        <v>1.0238499999999999</v>
+      </c>
     </row>
-    <row r="116" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.97761030000000004</v>
       </c>
@@ -20341,8 +21019,14 @@
       <c r="CA116">
         <v>1.0238499999999999</v>
       </c>
+      <c r="CG116">
+        <v>1.0050460000000001</v>
+      </c>
+      <c r="CH116">
+        <v>1.0255099999999999</v>
+      </c>
     </row>
-    <row r="117" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.97834580000000004</v>
       </c>
@@ -20421,8 +21105,14 @@
       <c r="CA117">
         <v>1.0255099999999999</v>
       </c>
+      <c r="CG117">
+        <v>1.0065257999999999</v>
+      </c>
+      <c r="CH117">
+        <v>1.02667</v>
+      </c>
     </row>
-    <row r="118" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.97910260000000005</v>
       </c>
@@ -20501,8 +21191,14 @@
       <c r="CA118">
         <v>1.02667</v>
       </c>
+      <c r="CG118">
+        <v>1.0066558000000001</v>
+      </c>
+      <c r="CH118">
+        <v>1.0202500000000001</v>
+      </c>
     </row>
-    <row r="119" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.97996780000000006</v>
       </c>
@@ -20581,8 +21277,14 @@
       <c r="CA119">
         <v>1.0202500000000001</v>
       </c>
+      <c r="CG119">
+        <v>1.0054692000000001</v>
+      </c>
+      <c r="CH119">
+        <v>1.01668</v>
+      </c>
     </row>
-    <row r="120" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9808017</v>
       </c>
@@ -20661,8 +21363,14 @@
       <c r="CA120">
         <v>1.01668</v>
       </c>
+      <c r="CG120">
+        <v>1.0046523000000001</v>
+      </c>
+      <c r="CH120">
+        <v>1.0081899999999999</v>
+      </c>
     </row>
-    <row r="121" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98146533999999996</v>
       </c>
@@ -20741,8 +21449,14 @@
       <c r="CA121">
         <v>1.0081899999999999</v>
       </c>
+      <c r="CG121">
+        <v>1.0022181999999999</v>
+      </c>
+      <c r="CH121">
+        <v>0.99227699999999996</v>
+      </c>
     </row>
-    <row r="122" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98195619999999995</v>
       </c>
@@ -20821,8 +21535,14 @@
       <c r="CA122">
         <v>0.99227699999999996</v>
       </c>
+      <c r="CG122">
+        <v>0.99890590000000001</v>
+      </c>
+      <c r="CH122">
+        <v>0.98378399999999999</v>
+      </c>
     </row>
-    <row r="123" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98239124</v>
       </c>
@@ -20901,8 +21621,14 @@
       <c r="CA123">
         <v>0.98378399999999999</v>
       </c>
+      <c r="CG123">
+        <v>0.99734029999999996</v>
+      </c>
+      <c r="CH123">
+        <v>1.0019</v>
+      </c>
     </row>
-    <row r="124" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.9825874</v>
       </c>
@@ -20981,8 +21707,14 @@
       <c r="CA124">
         <v>1.0019</v>
       </c>
+      <c r="CG124">
+        <v>0.99620540000000002</v>
+      </c>
+      <c r="CH124">
+        <v>1.0127299999999999</v>
+      </c>
     </row>
-    <row r="125" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98263029999999996</v>
       </c>
@@ -21061,8 +21793,14 @@
       <c r="CA125">
         <v>1.0127299999999999</v>
       </c>
+      <c r="CG125">
+        <v>0.99821669999999996</v>
+      </c>
+      <c r="CH125">
+        <v>1.0127699999999999</v>
+      </c>
     </row>
-    <row r="126" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98298450000000004</v>
       </c>
@@ -21141,8 +21879,14 @@
       <c r="CA126">
         <v>1.0127699999999999</v>
       </c>
+      <c r="CG126">
+        <v>0.99930989999999997</v>
+      </c>
+      <c r="CH126">
+        <v>1.0093799999999999</v>
+      </c>
     </row>
-    <row r="127" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98353460000000004</v>
       </c>
@@ -21221,8 +21965,14 @@
       <c r="CA127">
         <v>1.0093799999999999</v>
       </c>
+      <c r="CG127">
+        <v>1.0003778000000001</v>
+      </c>
+      <c r="CH127">
+        <v>1.00528</v>
+      </c>
     </row>
-    <row r="128" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98405050000000005</v>
       </c>
@@ -21301,8 +22051,14 @@
       <c r="CA128">
         <v>1.00528</v>
       </c>
+      <c r="CG128">
+        <v>0.99892753000000001</v>
+      </c>
+      <c r="CH128">
+        <v>1.0019400000000001</v>
+      </c>
     </row>
-    <row r="129" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98429626000000003</v>
       </c>
@@ -21381,8 +22137,14 @@
       <c r="CA129">
         <v>1.0019400000000001</v>
       </c>
+      <c r="CG129">
+        <v>0.9983071</v>
+      </c>
+      <c r="CH129">
+        <v>1.0065599999999999</v>
+      </c>
     </row>
-    <row r="130" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98426913999999999</v>
       </c>
@@ -21461,8 +22223,14 @@
       <c r="CA130">
         <v>1.0065599999999999</v>
       </c>
+      <c r="CG130">
+        <v>0.99795025999999998</v>
+      </c>
+      <c r="CH130">
+        <v>0.99504300000000001</v>
+      </c>
     </row>
-    <row r="131" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98429429999999996</v>
       </c>
@@ -21541,8 +22309,14 @@
       <c r="CA131">
         <v>0.99504300000000001</v>
       </c>
+      <c r="CG131">
+        <v>0.99480480000000004</v>
+      </c>
+      <c r="CH131">
+        <v>0.99080599999999996</v>
+      </c>
     </row>
-    <row r="132" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98417840000000001</v>
       </c>
@@ -21621,8 +22395,14 @@
       <c r="CA132">
         <v>0.99080599999999996</v>
       </c>
+      <c r="CG132">
+        <v>0.99380500000000005</v>
+      </c>
+      <c r="CH132">
+        <v>1.00962</v>
+      </c>
     </row>
-    <row r="133" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98372369999999998</v>
       </c>
@@ -21701,8 +22481,14 @@
       <c r="CA133">
         <v>1.00962</v>
       </c>
+      <c r="CG133">
+        <v>0.99547945999999998</v>
+      </c>
+      <c r="CH133">
+        <v>0.99540300000000004</v>
+      </c>
     </row>
-    <row r="134" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98357570000000005</v>
       </c>
@@ -21781,8 +22567,14 @@
       <c r="CA134">
         <v>0.99540300000000004</v>
       </c>
+      <c r="CG134">
+        <v>0.99504820000000005</v>
+      </c>
+      <c r="CH134">
+        <v>0.99680299999999999</v>
+      </c>
     </row>
-    <row r="135" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98368542999999997</v>
       </c>
@@ -21861,8 +22653,14 @@
       <c r="CA135">
         <v>0.99680299999999999</v>
       </c>
+      <c r="CG135">
+        <v>0.99240077000000004</v>
+      </c>
+      <c r="CH135">
+        <v>0.99492199999999997</v>
+      </c>
     </row>
-    <row r="136" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98327949999999997</v>
       </c>
@@ -21941,8 +22739,14 @@
       <c r="CA136">
         <v>0.99492199999999997</v>
       </c>
+      <c r="CG136">
+        <v>0.99484660000000003</v>
+      </c>
+      <c r="CH136">
+        <v>1.0006900000000001</v>
+      </c>
     </row>
-    <row r="137" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98277073999999998</v>
       </c>
@@ -22021,8 +22825,14 @@
       <c r="CA137">
         <v>1.0006900000000001</v>
       </c>
+      <c r="CG137">
+        <v>0.9966933</v>
+      </c>
+      <c r="CH137">
+        <v>1.0083899999999999</v>
+      </c>
     </row>
-    <row r="138" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.98254269999999999</v>
       </c>
@@ -22101,8 +22911,14 @@
       <c r="CA138">
         <v>1.0083899999999999</v>
       </c>
+      <c r="CG138">
+        <v>0.99754790000000004</v>
+      </c>
+      <c r="CH138">
+        <v>1.0044900000000001</v>
+      </c>
     </row>
-    <row r="139" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.98247397000000003</v>
       </c>
@@ -22181,8 +22997,14 @@
       <c r="CA139">
         <v>1.0044900000000001</v>
       </c>
+      <c r="CG139">
+        <v>1.0000964000000001</v>
+      </c>
+      <c r="CH139">
+        <v>0.99224900000000005</v>
+      </c>
     </row>
-    <row r="140" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.98264300000000004</v>
       </c>
@@ -22261,8 +23083,14 @@
       <c r="CA140">
         <v>0.99224900000000005</v>
       </c>
+      <c r="CG140">
+        <v>0.99629754000000004</v>
+      </c>
+      <c r="CH140">
+        <v>0.96121800000000002</v>
+      </c>
     </row>
-    <row r="141" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.98228073000000005</v>
       </c>
@@ -22341,8 +23169,14 @@
       <c r="CA141">
         <v>0.96121800000000002</v>
       </c>
+      <c r="CG141">
+        <v>0.98735887</v>
+      </c>
+      <c r="CH141">
+        <v>0.91536300000000004</v>
+      </c>
     </row>
-    <row r="142" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.97903110000000004</v>
       </c>
@@ -22421,8 +23255,14 @@
       <c r="CA142">
         <v>0.91536300000000004</v>
       </c>
+      <c r="CG142">
+        <v>0.97546860000000002</v>
+      </c>
+      <c r="CH142">
+        <v>0.86042799999999997</v>
+      </c>
     </row>
-    <row r="143" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.97004630000000003</v>
       </c>
@@ -22501,8 +23341,14 @@
       <c r="CA143">
         <v>0.86042799999999997</v>
       </c>
+      <c r="CG143">
+        <v>0.96062919999999996</v>
+      </c>
+      <c r="CH143">
+        <v>0.84232399999999996</v>
+      </c>
     </row>
-    <row r="144" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.9547544</v>
       </c>
@@ -22581,8 +23427,14 @@
       <c r="CA144">
         <v>0.84232399999999996</v>
       </c>
+      <c r="CG144">
+        <v>0.95059130000000003</v>
+      </c>
+      <c r="CH144">
+        <v>0.89387899999999998</v>
+      </c>
     </row>
-    <row r="145" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93693346</v>
       </c>
@@ -22661,8 +23513,14 @@
       <c r="CA145">
         <v>0.89387899999999998</v>
       </c>
+      <c r="CG145">
+        <v>0.94689979999999996</v>
+      </c>
+      <c r="CH145">
+        <v>0.92722300000000002</v>
+      </c>
     </row>
-    <row r="146" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92407969999999995</v>
       </c>
@@ -22741,8 +23599,14 @@
       <c r="CA146">
         <v>0.92722300000000002</v>
       </c>
+      <c r="CG146">
+        <v>0.95231569999999999</v>
+      </c>
+      <c r="CH146">
+        <v>0.92807799999999996</v>
+      </c>
     </row>
-    <row r="147" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.92545204999999997</v>
       </c>
@@ -22821,8 +23685,14 @@
       <c r="CA147">
         <v>0.92807799999999996</v>
       </c>
+      <c r="CG147">
+        <v>0.96255449999999998</v>
+      </c>
+      <c r="CH147">
+        <v>0.91627499999999995</v>
+      </c>
     </row>
-    <row r="148" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.933639</v>
       </c>
@@ -22901,8 +23771,14 @@
       <c r="CA148">
         <v>0.91627499999999995</v>
       </c>
+      <c r="CG148">
+        <v>0.96760590000000002</v>
+      </c>
+      <c r="CH148">
+        <v>0.87502500000000005</v>
+      </c>
     </row>
-    <row r="149" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.93672144000000002</v>
       </c>
@@ -22981,8 +23857,14 @@
       <c r="CA149">
         <v>0.87502500000000005</v>
       </c>
+      <c r="CG149">
+        <v>0.96011066</v>
+      </c>
+      <c r="CH149">
+        <v>0.89978400000000003</v>
+      </c>
     </row>
-    <row r="150" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.92697589999999996</v>
       </c>
@@ -23061,8 +23943,14 @@
       <c r="CA150">
         <v>0.89978400000000003</v>
       </c>
+      <c r="CG150">
+        <v>0.95835250000000005</v>
+      </c>
+      <c r="CH150">
+        <v>0.901389</v>
+      </c>
     </row>
-    <row r="151" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.91321622999999996</v>
       </c>
@@ -23141,8 +24029,14 @@
       <c r="CA151">
         <v>0.901389</v>
       </c>
+      <c r="CG151">
+        <v>0.95939772999999995</v>
+      </c>
+      <c r="CH151">
+        <v>0.88023700000000005</v>
+      </c>
     </row>
-    <row r="152" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.90451545</v>
       </c>
@@ -23221,8 +24115,14 @@
       <c r="CA152">
         <v>0.88023700000000005</v>
       </c>
+      <c r="CG152">
+        <v>0.95750606000000005</v>
+      </c>
+      <c r="CH152">
+        <v>0.91431600000000002</v>
+      </c>
     </row>
-    <row r="153" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.89857799999999999</v>
       </c>
@@ -23301,8 +24201,14 @@
       <c r="CA153">
         <v>0.91431600000000002</v>
       </c>
+      <c r="CG153">
+        <v>0.95728389999999997</v>
+      </c>
+      <c r="CH153">
+        <v>0.89496100000000001</v>
+      </c>
     </row>
-    <row r="154" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.90034729999999996</v>
       </c>
@@ -23381,8 +24287,14 @@
       <c r="CA154">
         <v>0.89496100000000001</v>
       </c>
+      <c r="CG154">
+        <v>0.95806586999999999</v>
+      </c>
+      <c r="CH154">
+        <v>0.90220900000000004</v>
+      </c>
     </row>
-    <row r="155" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.90802103000000001</v>
       </c>
@@ -23461,8 +24373,14 @@
       <c r="CA155">
         <v>0.90220900000000004</v>
       </c>
+      <c r="CG155">
+        <v>0.96527666000000001</v>
+      </c>
+      <c r="CH155">
+        <v>0.90840399999999999</v>
+      </c>
     </row>
-    <row r="156" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.91741079999999997</v>
       </c>
@@ -23541,8 +24459,14 @@
       <c r="CA156">
         <v>0.90840399999999999</v>
       </c>
+      <c r="CG156">
+        <v>0.97417980000000004</v>
+      </c>
+      <c r="CH156">
+        <v>0.90273300000000001</v>
+      </c>
     </row>
-    <row r="157" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.92375510000000005</v>
       </c>
@@ -23621,8 +24545,14 @@
       <c r="CA157">
         <v>0.90273300000000001</v>
       </c>
+      <c r="CG157">
+        <v>0.97955656000000002</v>
+      </c>
+      <c r="CH157">
+        <v>0.92045500000000002</v>
+      </c>
     </row>
-    <row r="158" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.92515199999999997</v>
       </c>
@@ -23701,8 +24631,14 @@
       <c r="CA158">
         <v>0.92045500000000002</v>
       </c>
+      <c r="CG158">
+        <v>0.9820586</v>
+      </c>
+      <c r="CH158">
+        <v>0.93263300000000005</v>
+      </c>
     </row>
-    <row r="159" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.92614399999999997</v>
       </c>
@@ -23781,8 +24717,14 @@
       <c r="CA159">
         <v>0.93263300000000005</v>
       </c>
+      <c r="CG159">
+        <v>0.98647434000000001</v>
+      </c>
+      <c r="CH159">
+        <v>0.92901900000000004</v>
+      </c>
     </row>
-    <row r="160" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.93095874999999995</v>
       </c>
@@ -23861,8 +24803,14 @@
       <c r="CA160">
         <v>0.92901900000000004</v>
       </c>
+      <c r="CG160">
+        <v>0.98761060000000001</v>
+      </c>
+      <c r="CH160">
+        <v>0.90626899999999999</v>
+      </c>
     </row>
-    <row r="161" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.93712969999999995</v>
       </c>
@@ -23941,8 +24889,14 @@
       <c r="CA161">
         <v>0.90626899999999999</v>
       </c>
+      <c r="CG161">
+        <v>0.98436016000000004</v>
+      </c>
+      <c r="CH161">
+        <v>0.91259100000000004</v>
+      </c>
     </row>
-    <row r="162" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.93991696999999996</v>
       </c>
@@ -24021,8 +24975,14 @@
       <c r="CA162">
         <v>0.91259100000000004</v>
       </c>
+      <c r="CG162">
+        <v>0.98606265000000004</v>
+      </c>
+      <c r="CH162">
+        <v>0.89545600000000003</v>
+      </c>
     </row>
-    <row r="163" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94084129999999999</v>
       </c>
@@ -24101,8 +25061,14 @@
       <c r="CA163">
         <v>0.89545600000000003</v>
       </c>
+      <c r="CG163">
+        <v>0.98162280000000002</v>
+      </c>
+      <c r="CH163">
+        <v>0.89264100000000002</v>
+      </c>
     </row>
-    <row r="164" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94026430000000005</v>
       </c>
@@ -24181,8 +25147,14 @@
       <c r="CA164">
         <v>0.89264100000000002</v>
       </c>
+      <c r="CG164">
+        <v>0.98245309999999997</v>
+      </c>
+      <c r="CH164">
+        <v>0.88802999999999999</v>
+      </c>
     </row>
-    <row r="165" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.94110380000000005</v>
       </c>
@@ -24261,8 +25233,14 @@
       <c r="CA165">
         <v>0.88802999999999999</v>
       </c>
+      <c r="CG165">
+        <v>0.97888249999999999</v>
+      </c>
+      <c r="CH165">
+        <v>0.88739400000000002</v>
+      </c>
     </row>
-    <row r="166" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.94173353999999998</v>
       </c>
@@ -24341,8 +25319,14 @@
       <c r="CA166">
         <v>0.88739400000000002</v>
       </c>
+      <c r="CG166">
+        <v>0.97873765000000001</v>
+      </c>
+      <c r="CH166">
+        <v>0.85233800000000004</v>
+      </c>
     </row>
-    <row r="167" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.94368196000000004</v>
       </c>
@@ -24421,8 +25405,14 @@
       <c r="CA167">
         <v>0.85233800000000004</v>
       </c>
+      <c r="CG167">
+        <v>0.97173566</v>
+      </c>
+      <c r="CH167">
+        <v>0.85397900000000004</v>
+      </c>
     </row>
-    <row r="168" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.94127249999999996</v>
       </c>
@@ -24501,8 +25491,14 @@
       <c r="CA168">
         <v>0.85397900000000004</v>
       </c>
+      <c r="CG168">
+        <v>0.97053029999999996</v>
+      </c>
+      <c r="CH168">
+        <v>0.87939500000000004</v>
+      </c>
     </row>
-    <row r="169" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.93782215999999996</v>
       </c>
@@ -24581,8 +25577,14 @@
       <c r="CA169">
         <v>0.87939500000000004</v>
       </c>
+      <c r="CG169">
+        <v>0.97237499999999999</v>
+      </c>
+      <c r="CH169">
+        <v>0.88207500000000005</v>
+      </c>
     </row>
-    <row r="170" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.93808895000000003</v>
       </c>
@@ -24661,8 +25663,14 @@
       <c r="CA170">
         <v>0.88207500000000005</v>
       </c>
+      <c r="CG170">
+        <v>0.97542519999999999</v>
+      </c>
+      <c r="CH170">
+        <v>0.90155200000000002</v>
+      </c>
     </row>
-    <row r="171" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.93920802999999997</v>
       </c>
@@ -24741,8 +25749,14 @@
       <c r="CA171">
         <v>0.90155200000000002</v>
       </c>
+      <c r="CG171">
+        <v>0.97392135999999996</v>
+      </c>
+      <c r="CH171">
+        <v>0.92679100000000003</v>
+      </c>
     </row>
-    <row r="172" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.93959300000000001</v>
       </c>
@@ -24821,8 +25835,14 @@
       <c r="CA172">
         <v>0.92679100000000003</v>
       </c>
+      <c r="CG172">
+        <v>0.97934169999999998</v>
+      </c>
+      <c r="CH172">
+        <v>0.92174900000000004</v>
+      </c>
     </row>
-    <row r="173" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.94315260000000001</v>
       </c>
@@ -24901,8 +25921,14 @@
       <c r="CA173">
         <v>0.92174900000000004</v>
       </c>
+      <c r="CG173">
+        <v>0.98543040000000004</v>
+      </c>
+      <c r="CH173">
+        <v>0.93300000000000005</v>
+      </c>
     </row>
-    <row r="174" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.94766163999999997</v>
       </c>
@@ -24981,8 +26007,14 @@
       <c r="CA174">
         <v>0.93300000000000005</v>
       </c>
+      <c r="CG174">
+        <v>0.98933870000000002</v>
+      </c>
+      <c r="CH174">
+        <v>0.94544700000000004</v>
+      </c>
     </row>
-    <row r="175" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.95133719999999999</v>
       </c>
@@ -25061,8 +26093,14 @@
       <c r="CA175">
         <v>0.94544700000000004</v>
       </c>
+      <c r="CG175">
+        <v>0.99254129999999996</v>
+      </c>
+      <c r="CH175">
+        <v>0.94647999999999999</v>
+      </c>
     </row>
-    <row r="176" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.95438230000000002</v>
       </c>
@@ -25141,8 +26179,14 @@
       <c r="CA176">
         <v>0.94647999999999999</v>
       </c>
+      <c r="CG176">
+        <v>0.99728125000000001</v>
+      </c>
+      <c r="CH176">
+        <v>0.94829699999999995</v>
+      </c>
     </row>
-    <row r="177" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.95731500000000003</v>
       </c>
@@ -25221,8 +26265,14 @@
       <c r="CA177">
         <v>0.94829699999999995</v>
       </c>
+      <c r="CG177">
+        <v>1.0008174999999999</v>
+      </c>
+      <c r="CH177">
+        <v>0.93855900000000003</v>
+      </c>
     </row>
-    <row r="178" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.95968229999999999</v>
       </c>
@@ -25301,8 +26351,14 @@
       <c r="CA178">
         <v>0.93855900000000003</v>
       </c>
+      <c r="CG178">
+        <v>1.0012247999999999</v>
+      </c>
+      <c r="CH178">
+        <v>0.93187600000000004</v>
+      </c>
     </row>
-    <row r="179" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96201610000000004</v>
       </c>
@@ -25381,8 +26437,14 @@
       <c r="CA179">
         <v>0.93187600000000004</v>
       </c>
+      <c r="CG179">
+        <v>1.0026793000000001</v>
+      </c>
+      <c r="CH179">
+        <v>0.95282299999999998</v>
+      </c>
     </row>
-    <row r="180" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.96395209999999998</v>
       </c>
@@ -25461,8 +26523,14 @@
       <c r="CA180">
         <v>0.95282299999999998</v>
       </c>
+      <c r="CG180">
+        <v>1.0029266999999999</v>
+      </c>
+      <c r="CH180">
+        <v>0.95936500000000002</v>
+      </c>
     </row>
-    <row r="181" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.96586989999999995</v>
       </c>
@@ -25541,8 +26609,14 @@
       <c r="CA181">
         <v>0.95936500000000002</v>
       </c>
+      <c r="CG181">
+        <v>1.0053364</v>
+      </c>
+      <c r="CH181">
+        <v>0.959754</v>
+      </c>
     </row>
-    <row r="182" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.96764075999999999</v>
       </c>
@@ -25621,8 +26695,14 @@
       <c r="CA182">
         <v>0.959754</v>
       </c>
+      <c r="CG182">
+        <v>1.0070555000000001</v>
+      </c>
+      <c r="CH182">
+        <v>0.95770999999999995</v>
+      </c>
     </row>
-    <row r="183" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.96969530000000004</v>
       </c>
@@ -25701,8 +26781,14 @@
       <c r="CA183">
         <v>0.95770999999999995</v>
       </c>
+      <c r="CG183">
+        <v>1.0079842999999999</v>
+      </c>
+      <c r="CH183">
+        <v>0.94934399999999997</v>
+      </c>
     </row>
-    <row r="184" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97170460000000003</v>
       </c>
@@ -25781,8 +26867,14 @@
       <c r="CA184">
         <v>0.94934399999999997</v>
       </c>
+      <c r="CG184">
+        <v>1.0070904000000001</v>
+      </c>
+      <c r="CH184">
+        <v>0.97308399999999995</v>
+      </c>
     </row>
-    <row r="185" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97299707000000002</v>
       </c>
@@ -25861,8 +26953,14 @@
       <c r="CA185">
         <v>0.97308399999999995</v>
       </c>
+      <c r="CG185">
+        <v>1.007058</v>
+      </c>
+      <c r="CH185">
+        <v>0.98909499999999995</v>
+      </c>
     </row>
-    <row r="186" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.97433950000000003</v>
       </c>
@@ -25941,8 +27039,14 @@
       <c r="CA186">
         <v>0.98909499999999995</v>
       </c>
+      <c r="CG186">
+        <v>1.0094403999999999</v>
+      </c>
+      <c r="CH186">
+        <v>0.98628800000000005</v>
+      </c>
     </row>
-    <row r="187" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.97554255000000001</v>
       </c>
@@ -26021,8 +27125,14 @@
       <c r="CA187">
         <v>0.98628800000000005</v>
       </c>
+      <c r="CG187">
+        <v>1.0114238</v>
+      </c>
+      <c r="CH187">
+        <v>0.98254600000000003</v>
+      </c>
     </row>
-    <row r="188" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.97656359999999998</v>
       </c>
@@ -26101,8 +27211,14 @@
       <c r="CA188">
         <v>0.98254600000000003</v>
       </c>
+      <c r="CG188">
+        <v>1.0109649000000001</v>
+      </c>
+      <c r="CH188">
+        <v>0.99984399999999996</v>
+      </c>
     </row>
-    <row r="189" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.97792214</v>
       </c>
@@ -26181,8 +27297,14 @@
       <c r="CA189">
         <v>0.99984399999999996</v>
       </c>
+      <c r="CG189">
+        <v>1.0101701000000001</v>
+      </c>
+      <c r="CH189">
+        <v>0.99917999999999996</v>
+      </c>
     </row>
-    <row r="190" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.9793828</v>
       </c>
@@ -26261,8 +27383,14 @@
       <c r="CA190">
         <v>0.99917999999999996</v>
       </c>
+      <c r="CG190">
+        <v>1.0119936</v>
+      </c>
+      <c r="CH190">
+        <v>0.99207199999999995</v>
+      </c>
     </row>
-    <row r="191" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98040729999999998</v>
       </c>
@@ -26341,8 +27469,14 @@
       <c r="CA191">
         <v>0.99207199999999995</v>
       </c>
+      <c r="CG191">
+        <v>1.0116510000000001</v>
+      </c>
+      <c r="CH191">
+        <v>1.00953</v>
+      </c>
     </row>
-    <row r="192" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98111605999999996</v>
       </c>
@@ -26421,8 +27555,14 @@
       <c r="CA192">
         <v>1.00953</v>
       </c>
+      <c r="CG192">
+        <v>1.0113893</v>
+      </c>
+      <c r="CH192">
+        <v>1.01359</v>
+      </c>
     </row>
-    <row r="193" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98187243999999996</v>
       </c>
@@ -26501,8 +27641,14 @@
       <c r="CA193">
         <v>1.01359</v>
       </c>
+      <c r="CG193">
+        <v>1.0121541999999999</v>
+      </c>
+      <c r="CH193">
+        <v>1.0083</v>
+      </c>
     </row>
-    <row r="194" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98256403000000003</v>
       </c>
@@ -26581,8 +27727,14 @@
       <c r="CA194">
         <v>1.0083</v>
       </c>
+      <c r="CG194">
+        <v>1.0122898</v>
+      </c>
+      <c r="CH194">
+        <v>1.0066200000000001</v>
+      </c>
     </row>
-    <row r="195" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98312259999999996</v>
       </c>
@@ -26661,8 +27813,14 @@
       <c r="CA195">
         <v>1.0066200000000001</v>
       </c>
+      <c r="CG195">
+        <v>1.0121405999999999</v>
+      </c>
+      <c r="CH195">
+        <v>1.0061</v>
+      </c>
     </row>
-    <row r="196" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98375254999999995</v>
       </c>
@@ -26741,8 +27899,14 @@
       <c r="CA196">
         <v>1.0061</v>
       </c>
+      <c r="CG196">
+        <v>1.0119786</v>
+      </c>
+      <c r="CH196">
+        <v>0.99152099999999999</v>
+      </c>
     </row>
-    <row r="197" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98449209999999998</v>
       </c>
@@ -26821,8 +27985,14 @@
       <c r="CA197">
         <v>0.99152099999999999</v>
       </c>
+      <c r="CG197">
+        <v>1.0095319</v>
+      </c>
+      <c r="CH197">
+        <v>0.99374099999999999</v>
+      </c>
     </row>
-    <row r="198" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98514500000000005</v>
       </c>
@@ -26901,8 +28071,14 @@
       <c r="CA198">
         <v>0.99374099999999999</v>
       </c>
+      <c r="CG198">
+        <v>1.0095308999999999</v>
+      </c>
+      <c r="CH198">
+        <v>0.98898900000000001</v>
+      </c>
     </row>
-    <row r="199" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98565453000000003</v>
       </c>
@@ -26981,8 +28157,14 @@
       <c r="CA199">
         <v>0.98898900000000001</v>
       </c>
+      <c r="CG199">
+        <v>1.0094004999999999</v>
+      </c>
+      <c r="CH199">
+        <v>0.96845899999999996</v>
+      </c>
     </row>
-    <row r="200" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98607814000000005</v>
       </c>
@@ -27061,8 +28243,14 @@
       <c r="CA200">
         <v>0.96845899999999996</v>
       </c>
+      <c r="CG200">
+        <v>1.0052078</v>
+      </c>
+      <c r="CH200">
+        <v>0.95224299999999995</v>
+      </c>
     </row>
-    <row r="201" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98608105999999995</v>
       </c>
@@ -27141,8 +28329,14 @@
       <c r="CA201">
         <v>0.95224299999999995</v>
       </c>
+      <c r="CG201">
+        <v>1.0019028000000001</v>
+      </c>
+      <c r="CH201">
+        <v>0.97356500000000001</v>
+      </c>
     </row>
-    <row r="202" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98535790000000001</v>
       </c>
@@ -27221,8 +28415,14 @@
       <c r="CA202">
         <v>0.97356500000000001</v>
       </c>
+      <c r="CG202">
+        <v>1.0016080999999999</v>
+      </c>
+      <c r="CH202">
+        <v>0.97162000000000004</v>
+      </c>
     </row>
-    <row r="203" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98483220000000005</v>
       </c>
@@ -27301,8 +28501,14 @@
       <c r="CA203">
         <v>0.97162000000000004</v>
       </c>
+      <c r="CG203">
+        <v>1.0040027</v>
+      </c>
+      <c r="CH203">
+        <v>0.99505699999999997</v>
+      </c>
     </row>
-    <row r="204" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98502339999999999</v>
       </c>
@@ -27381,8 +28587,14 @@
       <c r="CA204">
         <v>0.99505699999999997</v>
       </c>
+      <c r="CG204">
+        <v>1.0054247000000001</v>
+      </c>
+      <c r="CH204">
+        <v>0.99340200000000001</v>
+      </c>
     </row>
-    <row r="205" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98543809999999998</v>
       </c>
@@ -27461,8 +28673,14 @@
       <c r="CA205">
         <v>0.99340200000000001</v>
       </c>
+      <c r="CG205">
+        <v>1.0092137000000001</v>
+      </c>
+      <c r="CH205">
+        <v>0.99900999999999995</v>
+      </c>
     </row>
-    <row r="206" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98574779999999995</v>
       </c>
@@ -27541,8 +28759,14 @@
       <c r="CA206">
         <v>0.99900999999999995</v>
       </c>
+      <c r="CG206">
+        <v>1.0105337000000001</v>
+      </c>
+      <c r="CH206">
+        <v>0.99718499999999999</v>
+      </c>
     </row>
-    <row r="207" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98582709999999996</v>
       </c>
@@ -27621,8 +28845,14 @@
       <c r="CA207">
         <v>0.99718499999999999</v>
       </c>
+      <c r="CG207">
+        <v>1.0114783000000001</v>
+      </c>
+      <c r="CH207">
+        <v>0.99898900000000002</v>
+      </c>
     </row>
-    <row r="208" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98575102999999997</v>
       </c>
@@ -27701,8 +28931,14 @@
       <c r="CA208">
         <v>0.99898900000000002</v>
       </c>
+      <c r="CG208">
+        <v>1.0105085</v>
+      </c>
+      <c r="CH208">
+        <v>0.99879799999999996</v>
+      </c>
     </row>
-    <row r="209" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98565930000000002</v>
       </c>
@@ -27781,8 +29017,14 @@
       <c r="CA209">
         <v>0.99879799999999996</v>
       </c>
+      <c r="CG209">
+        <v>1.012672</v>
+      </c>
+      <c r="CH209">
+        <v>0.99967499999999998</v>
+      </c>
     </row>
-    <row r="210" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98564845000000001</v>
       </c>
@@ -27861,8 +29103,14 @@
       <c r="CA210">
         <v>0.99967499999999998</v>
       </c>
+      <c r="CG210">
+        <v>1.0134411000000001</v>
+      </c>
+      <c r="CH210">
+        <v>0.992815</v>
+      </c>
     </row>
-    <row r="211" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98571235000000001</v>
       </c>
@@ -27941,8 +29189,14 @@
       <c r="CA211">
         <v>0.992815</v>
       </c>
+      <c r="CG211">
+        <v>1.0119260000000001</v>
+      </c>
+      <c r="CH211">
+        <v>1.0085299999999999</v>
+      </c>
     </row>
-    <row r="212" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98587716000000003</v>
       </c>
@@ -28021,8 +29275,14 @@
       <c r="CA212">
         <v>1.0085299999999999</v>
       </c>
+      <c r="CG212">
+        <v>1.0121742</v>
+      </c>
+      <c r="CH212">
+        <v>0.992178</v>
+      </c>
     </row>
-    <row r="213" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98601127</v>
       </c>
@@ -28101,8 +29361,14 @@
       <c r="CA213">
         <v>0.992178</v>
       </c>
+      <c r="CG213">
+        <v>1.0103191</v>
+      </c>
+      <c r="CH213">
+        <v>0.97104000000000001</v>
+      </c>
     </row>
-    <row r="214" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98605670000000001</v>
       </c>
@@ -28181,8 +29447,14 @@
       <c r="CA214">
         <v>0.97104000000000001</v>
       </c>
+      <c r="CG214">
+        <v>1.0050178000000001</v>
+      </c>
+      <c r="CH214">
+        <v>1.0007900000000001</v>
+      </c>
     </row>
-    <row r="215" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98566529999999997</v>
       </c>
@@ -28261,8 +29533,14 @@
       <c r="CA215">
         <v>1.0007900000000001</v>
       </c>
+      <c r="CG215">
+        <v>1.0040560000000001</v>
+      </c>
+      <c r="CH215">
+        <v>0.99045300000000003</v>
+      </c>
     </row>
-    <row r="216" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98518830000000002</v>
       </c>
@@ -28341,8 +29619,14 @@
       <c r="CA216">
         <v>0.99045300000000003</v>
       </c>
+      <c r="CG216">
+        <v>1.0035783</v>
+      </c>
+      <c r="CH216">
+        <v>0.98092000000000001</v>
+      </c>
     </row>
-    <row r="217" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.98497619999999997</v>
       </c>
@@ -28421,8 +29705,14 @@
       <c r="CA217">
         <v>0.98092000000000001</v>
       </c>
+      <c r="CG217">
+        <v>1.0002329999999999</v>
+      </c>
+      <c r="CH217">
+        <v>0.96962599999999999</v>
+      </c>
     </row>
-    <row r="218" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.98432993999999996</v>
       </c>
@@ -28501,8 +29791,14 @@
       <c r="CA218">
         <v>0.96962599999999999</v>
       </c>
+      <c r="CG218">
+        <v>0.99545399999999995</v>
+      </c>
+      <c r="CH218">
+        <v>0.97288600000000003</v>
+      </c>
     </row>
-    <row r="219" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.98297506999999995</v>
       </c>
@@ -28581,8 +29877,14 @@
       <c r="CA219">
         <v>0.97288600000000003</v>
       </c>
+      <c r="CG219">
+        <v>0.99608249999999998</v>
+      </c>
+      <c r="CH219">
+        <v>0.94469700000000001</v>
+      </c>
     </row>
-    <row r="220" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.98185619999999996</v>
       </c>
@@ -28661,8 +29963,14 @@
       <c r="CA220">
         <v>0.94469700000000001</v>
       </c>
+      <c r="CG220">
+        <v>0.99081783999999995</v>
+      </c>
+      <c r="CH220">
+        <v>0.95146500000000001</v>
+      </c>
     </row>
-    <row r="221" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97993699999999995</v>
       </c>
@@ -28741,8 +30049,14 @@
       <c r="CA221">
         <v>0.95146500000000001</v>
       </c>
+      <c r="CG221">
+        <v>0.98969700000000005</v>
+      </c>
+      <c r="CH221">
+        <v>0.96664899999999998</v>
+      </c>
     </row>
-    <row r="222" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.97773109999999996</v>
       </c>
@@ -28821,8 +30135,14 @@
       <c r="CA222">
         <v>0.96664899999999998</v>
       </c>
+      <c r="CG222">
+        <v>0.99142814000000001</v>
+      </c>
+      <c r="CH222">
+        <v>0.98762399999999995</v>
+      </c>
     </row>
-    <row r="223" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97719294000000001</v>
       </c>
@@ -28901,8 +30221,14 @@
       <c r="CA223">
         <v>0.98762399999999995</v>
       </c>
+      <c r="CG223">
+        <v>0.9942183</v>
+      </c>
+      <c r="CH223">
+        <v>0.96557400000000004</v>
+      </c>
     </row>
-    <row r="224" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97773339999999997</v>
       </c>
@@ -28981,8 +30307,14 @@
       <c r="CA224">
         <v>0.96557400000000004</v>
       </c>
+      <c r="CG224">
+        <v>0.99327314</v>
+      </c>
+      <c r="CH224">
+        <v>0.93987399999999999</v>
+      </c>
     </row>
-    <row r="225" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.97787120000000005</v>
       </c>
@@ -29061,8 +30393,14 @@
       <c r="CA225">
         <v>0.93987399999999999</v>
       </c>
+      <c r="CG225">
+        <v>0.98790339999999999</v>
+      </c>
+      <c r="CH225">
+        <v>0.95090699999999995</v>
+      </c>
     </row>
-    <row r="226" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.9758656</v>
       </c>
@@ -29141,8 +30479,14 @@
       <c r="CA226">
         <v>0.95090699999999995</v>
       </c>
+      <c r="CG226">
+        <v>0.98940563000000004</v>
+      </c>
+      <c r="CH226">
+        <v>0.96350899999999995</v>
+      </c>
     </row>
-    <row r="227" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97317940000000003</v>
       </c>
@@ -29221,8 +30565,14 @@
       <c r="CA227">
         <v>0.96350899999999995</v>
       </c>
+      <c r="CG227">
+        <v>0.9899848</v>
+      </c>
+      <c r="CH227">
+        <v>0.98141500000000004</v>
+      </c>
     </row>
-    <row r="228" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97173726999999999</v>
       </c>
@@ -29301,8 +30651,14 @@
       <c r="CA228">
         <v>0.98141500000000004</v>
       </c>
+      <c r="CG228">
+        <v>0.99153119999999995</v>
+      </c>
+      <c r="CH228">
+        <v>0.97908099999999998</v>
+      </c>
     </row>
-    <row r="229" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.9718755</v>
       </c>
@@ -29381,8 +30737,14 @@
       <c r="CA229">
         <v>0.97908099999999998</v>
       </c>
+      <c r="CG229">
+        <v>0.99507820000000002</v>
+      </c>
+      <c r="CH229">
+        <v>0.97590600000000005</v>
+      </c>
     </row>
-    <row r="230" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97275659999999997</v>
       </c>
@@ -29461,8 +30823,14 @@
       <c r="CA230">
         <v>0.97590600000000005</v>
       </c>
+      <c r="CG230">
+        <v>0.99437960000000003</v>
+      </c>
+      <c r="CH230">
+        <v>0.99136500000000005</v>
+      </c>
     </row>
-    <row r="231" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97297889999999998</v>
       </c>
@@ -29541,8 +30909,14 @@
       <c r="CA231">
         <v>0.99136500000000005</v>
       </c>
+      <c r="CG231">
+        <v>0.99466650000000001</v>
+      </c>
+      <c r="CH231">
+        <v>0.98075699999999999</v>
+      </c>
     </row>
-    <row r="232" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.97284649999999995</v>
       </c>
@@ -29621,8 +30995,14 @@
       <c r="CA232">
         <v>0.98075699999999999</v>
       </c>
+      <c r="CG232">
+        <v>0.99488279999999996</v>
+      </c>
+      <c r="CH232">
+        <v>0.96702399999999999</v>
+      </c>
     </row>
-    <row r="233" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97313136</v>
       </c>
@@ -29701,8 +31081,14 @@
       <c r="CA233">
         <v>0.96702399999999999</v>
       </c>
+      <c r="CG233">
+        <v>0.99239180000000005</v>
+      </c>
+      <c r="CH233">
+        <v>0.94490300000000005</v>
+      </c>
     </row>
-    <row r="234" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.97397869999999998</v>
       </c>
@@ -29781,8 +31167,14 @@
       <c r="CA234">
         <v>0.94490300000000005</v>
       </c>
+      <c r="CG234">
+        <v>0.98220419999999997</v>
+      </c>
+      <c r="CH234">
+        <v>0.94776700000000003</v>
+      </c>
     </row>
-    <row r="235" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.97337216000000004</v>
       </c>
@@ -29861,8 +31253,14 @@
       <c r="CA235">
         <v>0.94776700000000003</v>
       </c>
+      <c r="CG235">
+        <v>0.98080940000000005</v>
+      </c>
+      <c r="CH235">
+        <v>0.92906100000000003</v>
+      </c>
     </row>
-    <row r="236" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.9720879</v>
       </c>
@@ -29941,8 +31339,14 @@
       <c r="CA236">
         <v>0.92906100000000003</v>
       </c>
+      <c r="CG236">
+        <v>0.97656679999999996</v>
+      </c>
+      <c r="CH236">
+        <v>0.89570300000000003</v>
+      </c>
     </row>
-    <row r="237" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.97014034000000005</v>
       </c>
@@ -30021,8 +31425,14 @@
       <c r="CA237">
         <v>0.89570300000000003</v>
       </c>
+      <c r="CG237">
+        <v>0.96981066000000005</v>
+      </c>
+      <c r="CH237">
+        <v>0.88080999999999998</v>
+      </c>
     </row>
-    <row r="238" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.96636515999999995</v>
       </c>
@@ -30101,8 +31511,14 @@
       <c r="CA238">
         <v>0.88080999999999998</v>
       </c>
+      <c r="CG238">
+        <v>0.96563345</v>
+      </c>
+      <c r="CH238">
+        <v>0.881969</v>
+      </c>
     </row>
-    <row r="239" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.96120554000000002</v>
       </c>
@@ -30181,8 +31597,14 @@
       <c r="CA239">
         <v>0.881969</v>
       </c>
+      <c r="CG239">
+        <v>0.96380043000000004</v>
+      </c>
+      <c r="CH239">
+        <v>0.89258400000000004</v>
+      </c>
     </row>
-    <row r="240" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.95493567000000001</v>
       </c>
@@ -30261,8 +31683,14 @@
       <c r="CA240">
         <v>0.89258400000000004</v>
       </c>
+      <c r="CG240">
+        <v>0.96422529999999995</v>
+      </c>
+      <c r="CH240">
+        <v>0.85835600000000001</v>
+      </c>
     </row>
-    <row r="241" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.94963056000000001</v>
       </c>
@@ -30341,8 +31769,14 @@
       <c r="CA241">
         <v>0.85835600000000001</v>
       </c>
+      <c r="CG241">
+        <v>0.95833889999999999</v>
+      </c>
+      <c r="CH241">
+        <v>0.88067499999999999</v>
+      </c>
     </row>
-    <row r="242" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.94228979999999996</v>
       </c>
@@ -30421,8 +31855,14 @@
       <c r="CA242">
         <v>0.88067499999999999</v>
       </c>
+      <c r="CG242">
+        <v>0.9553973</v>
+      </c>
+      <c r="CH242">
+        <v>0.85131999999999997</v>
+      </c>
     </row>
-    <row r="243" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.93428235999999998</v>
       </c>
@@ -30501,8 +31941,14 @@
       <c r="CA243">
         <v>0.85131999999999997</v>
       </c>
+      <c r="CG243">
+        <v>0.94988240000000002</v>
+      </c>
+      <c r="CH243">
+        <v>0.85202699999999998</v>
+      </c>
     </row>
-    <row r="244" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.92244440000000005</v>
       </c>
@@ -30581,8 +32027,14 @@
       <c r="CA244">
         <v>0.85202699999999998</v>
       </c>
+      <c r="CG244">
+        <v>0.94934689999999999</v>
+      </c>
+      <c r="CH244">
+        <v>0.83646900000000002</v>
+      </c>
     </row>
-    <row r="245" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.90962129999999997</v>
       </c>
@@ -30661,8 +32113,14 @@
       <c r="CA245">
         <v>0.83646900000000002</v>
       </c>
+      <c r="CG245">
+        <v>0.94335926000000003</v>
+      </c>
+      <c r="CH245">
+        <v>0.84330000000000005</v>
+      </c>
     </row>
-    <row r="246" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.89433295000000002</v>
       </c>
@@ -30741,8 +32199,14 @@
       <c r="CA246">
         <v>0.84330000000000005</v>
       </c>
+      <c r="CG246">
+        <v>0.94390463999999996</v>
+      </c>
+      <c r="CH246">
+        <v>0.87011000000000005</v>
+      </c>
     </row>
-    <row r="247" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87948110000000002</v>
       </c>
@@ -30821,8 +32285,14 @@
       <c r="CA247">
         <v>0.87011000000000005</v>
       </c>
+      <c r="CG247">
+        <v>0.94836443999999998</v>
+      </c>
+      <c r="CH247">
+        <v>0.84902100000000003</v>
+      </c>
     </row>
-    <row r="248" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.86989700000000003</v>
       </c>
@@ -30901,8 +32371,14 @@
       <c r="CA248">
         <v>0.84902100000000003</v>
       </c>
+      <c r="CG248">
+        <v>0.95316650000000003</v>
+      </c>
+      <c r="CH248">
+        <v>0.86779700000000004</v>
+      </c>
     </row>
-    <row r="249" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.8644366</v>
       </c>
@@ -30981,8 +32457,14 @@
       <c r="CA249">
         <v>0.86779700000000004</v>
       </c>
+      <c r="CG249">
+        <v>0.95966273999999996</v>
+      </c>
+      <c r="CH249">
+        <v>0.85317200000000004</v>
+      </c>
     </row>
-    <row r="250" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.86798613999999996</v>
       </c>
@@ -31061,8 +32543,14 @@
       <c r="CA250">
         <v>0.85317200000000004</v>
       </c>
+      <c r="CG250">
+        <v>0.96162415000000001</v>
+      </c>
+      <c r="CH250">
+        <v>0.86053400000000002</v>
+      </c>
     </row>
-    <row r="251" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.87286010000000003</v>
       </c>
@@ -31141,8 +32629,14 @@
       <c r="CA251">
         <v>0.86053400000000002</v>
       </c>
+      <c r="CG251">
+        <v>0.96570370000000005</v>
+      </c>
+      <c r="CH251">
+        <v>0.89368800000000004</v>
+      </c>
     </row>
-    <row r="252" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.87586359999999996</v>
       </c>
@@ -31221,8 +32715,14 @@
       <c r="CA252">
         <v>0.89368800000000004</v>
       </c>
+      <c r="CG252">
+        <v>0.97067696000000003</v>
+      </c>
+      <c r="CH252">
+        <v>0.89307899999999996</v>
+      </c>
     </row>
-    <row r="253" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.88215639999999995</v>
       </c>
@@ -31301,8 +32801,14 @@
       <c r="CA253">
         <v>0.89307899999999996</v>
       </c>
+      <c r="CG253">
+        <v>0.97879579999999999</v>
+      </c>
+      <c r="CH253">
+        <v>0.86737299999999995</v>
+      </c>
     </row>
-    <row r="254" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.89292145000000001</v>
       </c>
@@ -31381,8 +32887,14 @@
       <c r="CA254">
         <v>0.86737299999999995</v>
       </c>
+      <c r="CG254">
+        <v>0.97927624000000002</v>
+      </c>
+      <c r="CH254">
+        <v>0.87409099999999995</v>
+      </c>
     </row>
-    <row r="255" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.89778703000000004</v>
       </c>
@@ -31461,8 +32973,14 @@
       <c r="CA255">
         <v>0.87409099999999995</v>
       </c>
+      <c r="CG255">
+        <v>0.97943955999999999</v>
+      </c>
+      <c r="CH255">
+        <v>0.87615600000000005</v>
+      </c>
     </row>
-    <row r="256" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89979105999999998</v>
       </c>
@@ -31541,8 +33059,14 @@
       <c r="CA256">
         <v>0.87615600000000005</v>
       </c>
+      <c r="CG256">
+        <v>0.98408419999999996</v>
+      </c>
+      <c r="CH256">
+        <v>0.85112200000000005</v>
+      </c>
     </row>
-    <row r="257" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.90518330000000002</v>
       </c>
@@ -31621,8 +33145,14 @@
       <c r="CA257">
         <v>0.85112200000000005</v>
       </c>
+      <c r="CG257">
+        <v>0.98276730000000001</v>
+      </c>
+      <c r="CH257">
+        <v>0.83230300000000002</v>
+      </c>
     </row>
-    <row r="258" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.9069429</v>
       </c>
@@ -31701,8 +33231,14 @@
       <c r="CA258">
         <v>0.83230300000000002</v>
       </c>
+      <c r="CG258">
+        <v>0.97785884000000001</v>
+      </c>
+      <c r="CH258">
+        <v>0.83143299999999998</v>
+      </c>
     </row>
-    <row r="259" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.90196759999999998</v>
       </c>
@@ -31781,8 +33317,14 @@
       <c r="CA259">
         <v>0.83143299999999998</v>
       </c>
+      <c r="CG259">
+        <v>0.97777979999999998</v>
+      </c>
+      <c r="CH259">
+        <v>0.83118599999999998</v>
+      </c>
     </row>
-    <row r="260" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.89463972999999997</v>
       </c>
@@ -31861,8 +33403,14 @@
       <c r="CA260">
         <v>0.83118599999999998</v>
       </c>
+      <c r="CG260">
+        <v>0.98084070000000001</v>
+      </c>
+      <c r="CH260">
+        <v>0.81507600000000002</v>
+      </c>
     </row>
-    <row r="261" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.89197749999999998</v>
       </c>
@@ -31941,8 +33489,14 @@
       <c r="CA261">
         <v>0.81507600000000002</v>
       </c>
+      <c r="CG261">
+        <v>0.97895675999999998</v>
+      </c>
+      <c r="CH261">
+        <v>0.84032300000000004</v>
+      </c>
     </row>
-    <row r="262" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.88822409999999996</v>
       </c>
@@ -32021,8 +33575,14 @@
       <c r="CA262">
         <v>0.84032300000000004</v>
       </c>
+      <c r="CG262">
+        <v>0.98303969999999996</v>
+      </c>
+      <c r="CH262">
+        <v>0.86210399999999998</v>
+      </c>
     </row>
-    <row r="263" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.89092505</v>
       </c>
@@ -32101,8 +33661,14 @@
       <c r="CA263">
         <v>0.86210399999999998</v>
       </c>
+      <c r="CG263">
+        <v>0.98864083999999997</v>
+      </c>
+      <c r="CH263">
+        <v>0.88419700000000001</v>
+      </c>
     </row>
-    <row r="264" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.90219819999999995</v>
       </c>
@@ -32181,8 +33747,14 @@
       <c r="CA264">
         <v>0.88419700000000001</v>
       </c>
+      <c r="CG264">
+        <v>0.99322900000000003</v>
+      </c>
+      <c r="CH264">
+        <v>0.87783900000000004</v>
+      </c>
     </row>
-    <row r="265" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.91393124999999997</v>
       </c>
@@ -32261,8 +33833,14 @@
       <c r="CA265">
         <v>0.87783900000000004</v>
       </c>
+      <c r="CG265">
+        <v>0.99771949999999998</v>
+      </c>
+      <c r="CH265">
+        <v>0.87780400000000003</v>
+      </c>
     </row>
-    <row r="266" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.92070680000000005</v>
       </c>
@@ -32341,8 +33919,14 @@
       <c r="CA266">
         <v>0.87780400000000003</v>
       </c>
+      <c r="CG266">
+        <v>0.99996249999999998</v>
+      </c>
+      <c r="CH266">
+        <v>0.89740699999999995</v>
+      </c>
     </row>
-    <row r="267" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.92520279999999999</v>
       </c>
@@ -32421,8 +34005,14 @@
       <c r="CA267">
         <v>0.89740699999999995</v>
       </c>
+      <c r="CG267">
+        <v>1.0013418999999999</v>
+      </c>
+      <c r="CH267">
+        <v>0.88027200000000005</v>
+      </c>
     </row>
-    <row r="268" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.93181879999999995</v>
       </c>
@@ -32501,8 +34091,14 @@
       <c r="CA268">
         <v>0.88027200000000005</v>
       </c>
+      <c r="CG268">
+        <v>1.0004040999999999</v>
+      </c>
+      <c r="CH268">
+        <v>0.88630399999999998</v>
+      </c>
     </row>
-    <row r="269" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.93664895999999997</v>
       </c>
@@ -32581,8 +34177,14 @@
       <c r="CA269">
         <v>0.88630399999999998</v>
       </c>
+      <c r="CG269">
+        <v>0.99756162999999998</v>
+      </c>
+      <c r="CH269">
+        <v>0.90179200000000004</v>
+      </c>
     </row>
-    <row r="270" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.94140214</v>
       </c>
@@ -32661,8 +34263,14 @@
       <c r="CA270">
         <v>0.90179200000000004</v>
       </c>
+      <c r="CG270">
+        <v>0.99948550000000003</v>
+      </c>
+      <c r="CH270">
+        <v>0.89921099999999998</v>
+      </c>
     </row>
-    <row r="271" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.94735837000000001</v>
       </c>
@@ -32741,8 +34349,14 @@
       <c r="CA271">
         <v>0.89921099999999998</v>
       </c>
+      <c r="CG271">
+        <v>1.0004594</v>
+      </c>
+      <c r="CH271">
+        <v>0.88802300000000001</v>
+      </c>
     </row>
-    <row r="272" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.95195174000000005</v>
       </c>
@@ -32821,8 +34435,14 @@
       <c r="CA272">
         <v>0.88802300000000001</v>
       </c>
+      <c r="CG272">
+        <v>0.99887979999999998</v>
+      </c>
+      <c r="CH272">
+        <v>0.92063899999999999</v>
+      </c>
     </row>
-    <row r="273" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.95576954000000003</v>
       </c>
@@ -32901,8 +34521,14 @@
       <c r="CA273">
         <v>0.92063899999999999</v>
       </c>
+      <c r="CG273">
+        <v>0.99813169999999996</v>
+      </c>
+      <c r="CH273">
+        <v>0.92636700000000005</v>
+      </c>
     </row>
-    <row r="274" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96027689999999999</v>
       </c>
@@ -32981,8 +34607,14 @@
       <c r="CA274">
         <v>0.92636700000000005</v>
       </c>
+      <c r="CG274">
+        <v>1.0014993999999999</v>
+      </c>
+      <c r="CH274">
+        <v>0.93128200000000005</v>
+      </c>
     </row>
-    <row r="275" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.96422905000000003</v>
       </c>
@@ -33061,8 +34693,14 @@
       <c r="CA275">
         <v>0.93128200000000005</v>
       </c>
+      <c r="CG275">
+        <v>1.0026803</v>
+      </c>
+      <c r="CH275">
+        <v>0.93594200000000005</v>
+      </c>
     </row>
-    <row r="276" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.96671706000000002</v>
       </c>
@@ -33141,8 +34779,14 @@
       <c r="CA276">
         <v>0.93594200000000005</v>
       </c>
+      <c r="CG276">
+        <v>1.0021021000000001</v>
+      </c>
+      <c r="CH276">
+        <v>0.93719399999999997</v>
+      </c>
     </row>
-    <row r="277" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.96816409999999997</v>
       </c>
@@ -33221,8 +34865,14 @@
       <c r="CA277">
         <v>0.93719399999999997</v>
       </c>
+      <c r="CG277">
+        <v>1.0029547999999999</v>
+      </c>
+      <c r="CH277">
+        <v>0.92128200000000005</v>
+      </c>
     </row>
-    <row r="278" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.96929679999999996</v>
       </c>
@@ -33301,8 +34951,14 @@
       <c r="CA278">
         <v>0.92128200000000005</v>
       </c>
+      <c r="CG278">
+        <v>1.0012844000000001</v>
+      </c>
+      <c r="CH278">
+        <v>0.92835400000000001</v>
+      </c>
     </row>
-    <row r="279" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.9700704</v>
       </c>
@@ -33381,8 +35037,14 @@
       <c r="CA279">
         <v>0.92835400000000001</v>
       </c>
+      <c r="CG279">
+        <v>1.00203</v>
+      </c>
+      <c r="CH279">
+        <v>0.92857299999999998</v>
+      </c>
     </row>
-    <row r="280" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97097354999999996</v>
       </c>
@@ -33461,8 +35123,14 @@
       <c r="CA280">
         <v>0.92857299999999998</v>
       </c>
+      <c r="CG280">
+        <v>1.0002333999999999</v>
+      </c>
+      <c r="CH280">
+        <v>0.95164199999999999</v>
+      </c>
     </row>
-    <row r="281" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97236250000000002</v>
       </c>
@@ -33541,8 +35209,14 @@
       <c r="CA281">
         <v>0.95164199999999999</v>
       </c>
+      <c r="CG281">
+        <v>1.0021065</v>
+      </c>
+      <c r="CH281">
+        <v>0.94983899999999999</v>
+      </c>
     </row>
-    <row r="282" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97372190000000003</v>
       </c>
@@ -33621,8 +35295,14 @@
       <c r="CA282">
         <v>0.94983899999999999</v>
       </c>
+      <c r="CG282">
+        <v>1.0049901000000001</v>
+      </c>
+      <c r="CH282">
+        <v>0.94721500000000003</v>
+      </c>
     </row>
-    <row r="283" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.97404086999999995</v>
       </c>
@@ -33701,8 +35381,14 @@
       <c r="CA283">
         <v>0.94721500000000003</v>
       </c>
+      <c r="CG283">
+        <v>1.0060823000000001</v>
+      </c>
+      <c r="CH283">
+        <v>0.95519900000000002</v>
+      </c>
     </row>
-    <row r="284" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97437090000000004</v>
       </c>
@@ -33781,8 +35467,14 @@
       <c r="CA284">
         <v>0.95519900000000002</v>
       </c>
+      <c r="CG284">
+        <v>1.0070741999999999</v>
+      </c>
+      <c r="CH284">
+        <v>0.96465400000000001</v>
+      </c>
     </row>
-    <row r="285" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97535263999999999</v>
       </c>
@@ -33861,8 +35553,14 @@
       <c r="CA285">
         <v>0.96465400000000001</v>
       </c>
+      <c r="CG285">
+        <v>1.0073114999999999</v>
+      </c>
+      <c r="CH285">
+        <v>0.97101199999999999</v>
+      </c>
     </row>
-    <row r="286" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97585449999999996</v>
       </c>
@@ -33941,8 +35639,14 @@
       <c r="CA286">
         <v>0.97101199999999999</v>
       </c>
+      <c r="CG286">
+        <v>1.0082754</v>
+      </c>
+      <c r="CH286">
+        <v>0.972441</v>
+      </c>
     </row>
-    <row r="287" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.9758175</v>
       </c>
@@ -34021,8 +35725,14 @@
       <c r="CA287">
         <v>0.972441</v>
       </c>
+      <c r="CG287">
+        <v>1.0096058000000001</v>
+      </c>
+      <c r="CH287">
+        <v>0.97116800000000003</v>
+      </c>
     </row>
-    <row r="288" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97472689999999995</v>
       </c>
@@ -34101,8 +35811,14 @@
       <c r="CA288">
         <v>0.97116800000000003</v>
       </c>
+      <c r="CG288">
+        <v>1.0091893999999999</v>
+      </c>
+      <c r="CH288">
+        <v>0.96191099999999996</v>
+      </c>
     </row>
-    <row r="289" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97435210000000005</v>
       </c>
@@ -34181,8 +35897,14 @@
       <c r="CA289">
         <v>0.96191099999999996</v>
       </c>
+      <c r="CG289">
+        <v>1.0084571</v>
+      </c>
+      <c r="CH289">
+        <v>0.96136600000000005</v>
+      </c>
     </row>
-    <row r="290" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97502480000000002</v>
       </c>
@@ -34261,8 +35983,14 @@
       <c r="CA290">
         <v>0.96136600000000005</v>
       </c>
+      <c r="CG290">
+        <v>1.0082327</v>
+      </c>
+      <c r="CH290">
+        <v>0.96215099999999998</v>
+      </c>
     </row>
-    <row r="291" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97573244999999997</v>
       </c>
@@ -34341,8 +36069,14 @@
       <c r="CA291">
         <v>0.96215099999999998</v>
       </c>
+      <c r="CG291">
+        <v>1.0090313</v>
+      </c>
+      <c r="CH291">
+        <v>0.97485200000000005</v>
+      </c>
     </row>
-    <row r="292" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97630053999999999</v>
       </c>
@@ -34421,8 +36155,14 @@
       <c r="CA292">
         <v>0.97485200000000005</v>
       </c>
+      <c r="CG292">
+        <v>1.0083389</v>
+      </c>
+      <c r="CH292">
+        <v>0.98117500000000002</v>
+      </c>
     </row>
-    <row r="293" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97684835999999997</v>
       </c>
@@ -34501,8 +36241,14 @@
       <c r="CA293">
         <v>0.98117500000000002</v>
       </c>
+      <c r="CG293">
+        <v>1.0103751000000001</v>
+      </c>
+      <c r="CH293">
+        <v>0.97819699999999998</v>
+      </c>
     </row>
-    <row r="294" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97703636000000005</v>
       </c>
@@ -34581,8 +36327,14 @@
       <c r="CA294">
         <v>0.97819699999999998</v>
       </c>
+      <c r="CG294">
+        <v>1.0112886000000001</v>
+      </c>
+      <c r="CH294">
+        <v>0.98741900000000005</v>
+      </c>
     </row>
-    <row r="295" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97686580000000001</v>
       </c>
@@ -34661,8 +36413,14 @@
       <c r="CA295">
         <v>0.98741900000000005</v>
       </c>
+      <c r="CG295">
+        <v>1.0101580999999999</v>
+      </c>
+      <c r="CH295">
+        <v>0.98271600000000003</v>
+      </c>
     </row>
-    <row r="296" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97698795999999999</v>
       </c>
@@ -34741,8 +36499,14 @@
       <c r="CA296">
         <v>0.98271600000000003</v>
       </c>
+      <c r="CG296">
+        <v>1.0116565</v>
+      </c>
+      <c r="CH296">
+        <v>0.967893</v>
+      </c>
     </row>
-    <row r="297" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.97700050000000005</v>
       </c>
@@ -34821,8 +36585,14 @@
       <c r="CA297">
         <v>0.967893</v>
       </c>
+      <c r="CG297">
+        <v>1.0082796999999999</v>
+      </c>
+      <c r="CH297">
+        <v>0.98309100000000005</v>
+      </c>
     </row>
-    <row r="298" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.97664399999999996</v>
       </c>
@@ -34901,8 +36671,14 @@
       <c r="CA298">
         <v>0.98309100000000005</v>
       </c>
+      <c r="CG298">
+        <v>1.0084234000000001</v>
+      </c>
+      <c r="CH298">
+        <v>0.965588</v>
+      </c>
     </row>
-    <row r="299" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.97655619999999999</v>
       </c>
@@ -34981,8 +36757,14 @@
       <c r="CA299">
         <v>0.965588</v>
       </c>
+      <c r="CG299">
+        <v>1.0048709</v>
+      </c>
+      <c r="CH299">
+        <v>0.96961200000000003</v>
+      </c>
     </row>
-    <row r="300" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.97605410000000004</v>
       </c>
@@ -35061,8 +36843,14 @@
       <c r="CA300">
         <v>0.96961200000000003</v>
       </c>
+      <c r="CG300">
+        <v>1.0057389999999999</v>
+      </c>
+      <c r="CH300">
+        <v>0.96564499999999998</v>
+      </c>
     </row>
-    <row r="301" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.97562736000000005</v>
       </c>
@@ -35141,8 +36929,14 @@
       <c r="CA301">
         <v>0.96564499999999998</v>
       </c>
+      <c r="CG301">
+        <v>1.0054246</v>
+      </c>
+      <c r="CH301">
+        <v>0.97959700000000005</v>
+      </c>
     </row>
-    <row r="302" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.97557896</v>
       </c>
@@ -35221,8 +37015,14 @@
       <c r="CA302">
         <v>0.97959700000000005</v>
       </c>
+      <c r="CG302">
+        <v>1.0060652000000001</v>
+      </c>
+      <c r="CH302">
+        <v>0.99423600000000001</v>
+      </c>
     </row>
-    <row r="303" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.97580385000000003</v>
       </c>
@@ -35301,8 +37101,14 @@
       <c r="CA303">
         <v>0.99423600000000001</v>
       </c>
+      <c r="CG303">
+        <v>1.0091302</v>
+      </c>
+      <c r="CH303">
+        <v>0.99449100000000001</v>
+      </c>
     </row>
-    <row r="304" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.97629889999999997</v>
       </c>
@@ -35381,8 +37187,14 @@
       <c r="CA304">
         <v>0.99449100000000001</v>
       </c>
+      <c r="CG304">
+        <v>1.0112966999999999</v>
+      </c>
+      <c r="CH304">
+        <v>0.99304099999999995</v>
+      </c>
     </row>
-    <row r="305" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.97639699999999996</v>
       </c>
@@ -35461,8 +37273,14 @@
       <c r="CA305">
         <v>0.99304099999999995</v>
       </c>
+      <c r="CG305">
+        <v>1.0117400000000001</v>
+      </c>
+      <c r="CH305">
+        <v>1.00267</v>
+      </c>
     </row>
-    <row r="306" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.97631769999999996</v>
       </c>
@@ -35541,8 +37359,14 @@
       <c r="CA306">
         <v>1.00267</v>
       </c>
+      <c r="CG306">
+        <v>1.0112512</v>
+      </c>
+      <c r="CH306">
+        <v>1.0072300000000001</v>
+      </c>
     </row>
-    <row r="307" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.97649870000000005</v>
       </c>
@@ -35621,8 +37445,14 @@
       <c r="CA307">
         <v>1.0072300000000001</v>
       </c>
+      <c r="CG307">
+        <v>1.0116084000000001</v>
+      </c>
+      <c r="CH307">
+        <v>1.00837</v>
+      </c>
     </row>
-    <row r="308" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.97667420000000005</v>
       </c>
@@ -35701,8 +37531,14 @@
       <c r="CA308">
         <v>1.00837</v>
       </c>
+      <c r="CG308">
+        <v>1.0107151000000001</v>
+      </c>
+      <c r="CH308">
+        <v>1.00064</v>
+      </c>
     </row>
-    <row r="309" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.97665659999999999</v>
       </c>
@@ -35781,8 +37617,14 @@
       <c r="CA309">
         <v>1.00064</v>
       </c>
+      <c r="CG309">
+        <v>1.0092622</v>
+      </c>
+      <c r="CH309">
+        <v>1.00071</v>
+      </c>
     </row>
-    <row r="310" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.97653455</v>
       </c>
@@ -35861,8 +37703,14 @@
       <c r="CA310">
         <v>1.00071</v>
       </c>
+      <c r="CG310">
+        <v>1.0078269</v>
+      </c>
+      <c r="CH310">
+        <v>0.99803399999999998</v>
+      </c>
     </row>
-    <row r="311" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.97648729999999995</v>
       </c>
@@ -35941,8 +37789,14 @@
       <c r="CA311">
         <v>0.99803399999999998</v>
       </c>
+      <c r="CG311">
+        <v>1.006813</v>
+      </c>
+      <c r="CH311">
+        <v>1.0007999999999999</v>
+      </c>
     </row>
-    <row r="312" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.97666350000000002</v>
       </c>
@@ -36021,8 +37875,14 @@
       <c r="CA312">
         <v>1.0007999999999999</v>
       </c>
+      <c r="CG312">
+        <v>1.0064819</v>
+      </c>
+      <c r="CH312">
+        <v>1.0032399999999999</v>
+      </c>
     </row>
-    <row r="313" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.97705774999999995</v>
       </c>
@@ -36101,8 +37961,14 @@
       <c r="CA313">
         <v>1.0032399999999999</v>
       </c>
+      <c r="CG313">
+        <v>1.00519</v>
+      </c>
+      <c r="CH313">
+        <v>0.98956200000000005</v>
+      </c>
     </row>
-    <row r="314" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.97749949999999997</v>
       </c>
@@ -36181,8 +38047,14 @@
       <c r="CA314">
         <v>0.98956200000000005</v>
       </c>
+      <c r="CG314">
+        <v>1.0010287</v>
+      </c>
+      <c r="CH314">
+        <v>0.98212900000000003</v>
+      </c>
     </row>
-    <row r="315" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.97729239999999995</v>
       </c>
@@ -36261,8 +38133,14 @@
       <c r="CA315">
         <v>0.98212900000000003</v>
       </c>
+      <c r="CG315">
+        <v>0.99552890000000005</v>
+      </c>
+      <c r="CH315">
+        <v>0.99353599999999997</v>
+      </c>
     </row>
-    <row r="316" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.97550930000000002</v>
       </c>
@@ -36341,8 +38219,14 @@
       <c r="CA316">
         <v>0.99353599999999997</v>
       </c>
+      <c r="CG316">
+        <v>0.99472899999999997</v>
+      </c>
+      <c r="CH316">
+        <v>0.98076399999999997</v>
+      </c>
     </row>
-    <row r="317" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.97413653</v>
       </c>
@@ -36421,8 +38305,14 @@
       <c r="CA317">
         <v>0.98076399999999997</v>
       </c>
+      <c r="CG317">
+        <v>0.99041325000000002</v>
+      </c>
+      <c r="CH317">
+        <v>0.97210099999999999</v>
+      </c>
     </row>
-    <row r="318" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.97274530000000003</v>
       </c>
@@ -36501,8 +38391,14 @@
       <c r="CA318">
         <v>0.97210099999999999</v>
       </c>
+      <c r="CG318">
+        <v>0.98744284999999998</v>
+      </c>
+      <c r="CH318">
+        <v>0.97175500000000004</v>
+      </c>
     </row>
-    <row r="319" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.97043495999999996</v>
       </c>
@@ -36581,8 +38477,14 @@
       <c r="CA319">
         <v>0.97175500000000004</v>
       </c>
+      <c r="CG319">
+        <v>0.98598669999999999</v>
+      </c>
+      <c r="CH319">
+        <v>0.97635899999999998</v>
+      </c>
     </row>
-    <row r="320" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.96884899999999996</v>
       </c>
@@ -36661,8 +38563,14 @@
       <c r="CA320">
         <v>0.97635899999999998</v>
       </c>
+      <c r="CG320">
+        <v>0.98504919999999996</v>
+      </c>
+      <c r="CH320">
+        <v>0.97745499999999996</v>
+      </c>
     </row>
-    <row r="321" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.96835726</v>
       </c>
@@ -36741,8 +38649,14 @@
       <c r="CA321">
         <v>0.97745499999999996</v>
       </c>
+      <c r="CG321">
+        <v>0.98652879999999998</v>
+      </c>
+      <c r="CH321">
+        <v>0.99563000000000001</v>
+      </c>
     </row>
-    <row r="322" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.96878850000000005</v>
       </c>
@@ -36821,8 +38735,14 @@
       <c r="CA322">
         <v>0.99563000000000001</v>
       </c>
+      <c r="CG322">
+        <v>0.9875912</v>
+      </c>
+      <c r="CH322">
+        <v>0.98153500000000005</v>
+      </c>
     </row>
-    <row r="323" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.96974444000000004</v>
       </c>
@@ -36901,8 +38821,14 @@
       <c r="CA323">
         <v>0.98153500000000005</v>
       </c>
+      <c r="CG323">
+        <v>0.98737954999999999</v>
+      </c>
+      <c r="CH323">
+        <v>0.98128800000000005</v>
+      </c>
     </row>
-    <row r="324" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.96988445999999995</v>
       </c>
@@ -36981,8 +38907,14 @@
       <c r="CA324">
         <v>0.98128800000000005</v>
       </c>
+      <c r="CG324">
+        <v>0.98601970000000005</v>
+      </c>
+      <c r="CH324">
+        <v>0.968912</v>
+      </c>
     </row>
-    <row r="325" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.96913755000000001</v>
       </c>
@@ -37061,8 +38993,14 @@
       <c r="CA325">
         <v>0.968912</v>
       </c>
+      <c r="CG325">
+        <v>0.98283019999999999</v>
+      </c>
+      <c r="CH325">
+        <v>0.98309100000000005</v>
+      </c>
     </row>
-    <row r="326" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.96801804999999996</v>
       </c>
@@ -37141,8 +39079,14 @@
       <c r="CA326">
         <v>0.98309100000000005</v>
       </c>
+      <c r="CG326">
+        <v>0.98283434000000003</v>
+      </c>
+      <c r="CH326">
+        <v>0.96933599999999998</v>
+      </c>
     </row>
-    <row r="327" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.96810819999999997</v>
       </c>
@@ -37221,8 +39165,14 @@
       <c r="CA327">
         <v>0.96933599999999998</v>
       </c>
+      <c r="CG327">
+        <v>0.98035896</v>
+      </c>
+      <c r="CH327">
+        <v>0.96963299999999997</v>
+      </c>
     </row>
-    <row r="328" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.96792023999999999</v>
       </c>
@@ -37301,8 +39251,14 @@
       <c r="CA328">
         <v>0.96963299999999997</v>
       </c>
+      <c r="CG328">
+        <v>0.97800624000000003</v>
+      </c>
+      <c r="CH328">
+        <v>0.96426599999999996</v>
+      </c>
     </row>
-    <row r="329" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.96698810000000002</v>
       </c>
@@ -37381,8 +39337,14 @@
       <c r="CA329">
         <v>0.96426599999999996</v>
       </c>
+      <c r="CG329">
+        <v>0.97618170000000004</v>
+      </c>
+      <c r="CH329">
+        <v>0.97294999999999998</v>
+      </c>
     </row>
-    <row r="330" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.96567879999999995</v>
       </c>
@@ -37461,8 +39423,14 @@
       <c r="CA330">
         <v>0.97294999999999998</v>
       </c>
+      <c r="CG330">
+        <v>0.9788789</v>
+      </c>
+      <c r="CH330">
+        <v>0.96992299999999998</v>
+      </c>
     </row>
-    <row r="331" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.96592359999999999</v>
       </c>
@@ -37541,8 +39509,14 @@
       <c r="CA331">
         <v>0.96992299999999998</v>
       </c>
+      <c r="CG331">
+        <v>0.98179139999999998</v>
+      </c>
+      <c r="CH331">
+        <v>0.98973900000000004</v>
+      </c>
     </row>
-    <row r="332" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.96687173999999998</v>
       </c>
@@ -37621,8 +39595,14 @@
       <c r="CA332">
         <v>0.98973900000000004</v>
       </c>
+      <c r="CG332">
+        <v>0.98372435999999996</v>
+      </c>
+      <c r="CH332">
+        <v>0.99997899999999995</v>
+      </c>
     </row>
-    <row r="333" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.96827202999999995</v>
       </c>
@@ -37701,8 +39681,14 @@
       <c r="CA333">
         <v>0.99997899999999995</v>
       </c>
+      <c r="CG333">
+        <v>0.98851199999999995</v>
+      </c>
+      <c r="CH333">
+        <v>0.999668</v>
+      </c>
     </row>
-    <row r="334" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.969808</v>
       </c>
@@ -37781,8 +39767,14 @@
       <c r="CA334">
         <v>0.999668</v>
       </c>
+      <c r="CG334">
+        <v>0.9913516</v>
+      </c>
+      <c r="CH334">
+        <v>1.006</v>
+      </c>
     </row>
-    <row r="335" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.97052349999999998</v>
       </c>
@@ -37861,8 +39853,14 @@
       <c r="CA335">
         <v>1.006</v>
       </c>
+      <c r="CG335">
+        <v>0.99300200000000005</v>
+      </c>
+      <c r="CH335">
+        <v>1.0045200000000001</v>
+      </c>
     </row>
-    <row r="336" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.97123139999999997</v>
       </c>
@@ -37941,8 +39939,14 @@
       <c r="CA336">
         <v>1.0045200000000001</v>
       </c>
+      <c r="CG336">
+        <v>0.99214199999999997</v>
+      </c>
+      <c r="CH336">
+        <v>1.0062</v>
+      </c>
     </row>
-    <row r="337" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.97233550000000002</v>
       </c>
@@ -38021,8 +40025,14 @@
       <c r="CA337">
         <v>1.0062</v>
       </c>
+      <c r="CG337">
+        <v>0.99208677000000001</v>
+      </c>
+      <c r="CH337">
+        <v>1.0103899999999999</v>
+      </c>
     </row>
-    <row r="338" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.97333395</v>
       </c>
@@ -38101,8 +40111,14 @@
       <c r="CA338">
         <v>1.0103899999999999</v>
       </c>
+      <c r="CG338">
+        <v>0.99212979999999995</v>
+      </c>
+      <c r="CH338">
+        <v>1.0060500000000001</v>
+      </c>
     </row>
-    <row r="339" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.97426729999999995</v>
       </c>
@@ -38181,8 +40197,14 @@
       <c r="CA339">
         <v>1.0060500000000001</v>
       </c>
+      <c r="CG339">
+        <v>0.99200390000000005</v>
+      </c>
+      <c r="CH339">
+        <v>1.01332</v>
+      </c>
     </row>
-    <row r="340" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.97498339999999994</v>
       </c>
@@ -38261,8 +40283,14 @@
       <c r="CA340">
         <v>1.01332</v>
       </c>
+      <c r="CG340">
+        <v>0.99381673000000004</v>
+      </c>
+      <c r="CH340">
+        <v>1.01525</v>
+      </c>
     </row>
-    <row r="341" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.97546659999999996</v>
       </c>
@@ -38341,8 +40369,14 @@
       <c r="CA341">
         <v>1.01525</v>
       </c>
+      <c r="CG341">
+        <v>0.9958591</v>
+      </c>
+      <c r="CH341">
+        <v>1.0201899999999999</v>
+      </c>
     </row>
-    <row r="342" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.97600319999999996</v>
       </c>
@@ -38421,8 +40455,14 @@
       <c r="CA342">
         <v>1.0201899999999999</v>
       </c>
+      <c r="CG342">
+        <v>0.99779019999999996</v>
+      </c>
+      <c r="CH342">
+        <v>1.01762</v>
+      </c>
     </row>
-    <row r="343" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.97668529999999998</v>
       </c>
@@ -38501,8 +40541,14 @@
       <c r="CA343">
         <v>1.01762</v>
       </c>
+      <c r="CG343">
+        <v>0.9986545</v>
+      </c>
+      <c r="CH343">
+        <v>1.0038899999999999</v>
+      </c>
     </row>
-    <row r="344" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.97734670000000001</v>
       </c>
@@ -38581,8 +40627,14 @@
       <c r="CA344">
         <v>1.0038899999999999</v>
       </c>
+      <c r="CG344">
+        <v>0.99528000000000005</v>
+      </c>
+      <c r="CH344">
+        <v>0.99185999999999996</v>
+      </c>
     </row>
-    <row r="345" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.97774079999999997</v>
       </c>
@@ -38661,8 +40713,14 @@
       <c r="CA345">
         <v>0.99185999999999996</v>
       </c>
+      <c r="CG345">
+        <v>0.99183239999999995</v>
+      </c>
+      <c r="CH345">
+        <v>0.98921499999999996</v>
+      </c>
     </row>
-    <row r="346" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.9775104</v>
       </c>
@@ -38741,8 +40799,14 @@
       <c r="CA346">
         <v>0.98921499999999996</v>
       </c>
+      <c r="CG346">
+        <v>0.98814590000000002</v>
+      </c>
+      <c r="CH346">
+        <v>0.986514</v>
+      </c>
     </row>
-    <row r="347" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.97654885000000002</v>
       </c>
@@ -38821,8 +40885,14 @@
       <c r="CA347">
         <v>0.986514</v>
       </c>
+      <c r="CG347">
+        <v>0.9875237</v>
+      </c>
+      <c r="CH347">
+        <v>0.99110399999999998</v>
+      </c>
     </row>
-    <row r="348" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.97579895999999999</v>
       </c>
@@ -38901,8 +40971,14 @@
       <c r="CA348">
         <v>0.99110399999999998</v>
       </c>
+      <c r="CG348">
+        <v>0.98575559999999995</v>
+      </c>
+      <c r="CH348">
+        <v>0.98631599999999997</v>
+      </c>
     </row>
-    <row r="349" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.97529434999999998</v>
       </c>
@@ -38981,8 +41057,14 @@
       <c r="CA349">
         <v>0.98631599999999997</v>
       </c>
+      <c r="CG349">
+        <v>0.98678374000000002</v>
+      </c>
+      <c r="CH349">
+        <v>0.99482300000000001</v>
+      </c>
     </row>
-    <row r="350" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.97480935000000002</v>
       </c>
@@ -39061,8 +41143,14 @@
       <c r="CA350">
         <v>0.99482300000000001</v>
       </c>
+      <c r="CG350">
+        <v>0.98843309999999995</v>
+      </c>
+      <c r="CH350">
+        <v>0.99881900000000001</v>
+      </c>
     </row>
-    <row r="351" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.97479737</v>
       </c>
@@ -39141,8 +41229,14 @@
       <c r="CA351">
         <v>0.99881900000000001</v>
       </c>
+      <c r="CG351">
+        <v>0.99230355000000003</v>
+      </c>
+      <c r="CH351">
+        <v>0.99637900000000001</v>
+      </c>
     </row>
-    <row r="352" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.97511420000000004</v>
       </c>
@@ -39221,8 +41315,14 @@
       <c r="CA352">
         <v>0.99637900000000001</v>
       </c>
+      <c r="CG352">
+        <v>0.99361529999999998</v>
+      </c>
+      <c r="CH352">
+        <v>1.0160899999999999</v>
+      </c>
     </row>
-    <row r="353" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.97518340000000003</v>
       </c>
@@ -39301,8 +41401,14 @@
       <c r="CA353">
         <v>1.0160899999999999</v>
       </c>
+      <c r="CG353">
+        <v>0.99505449999999995</v>
+      </c>
+      <c r="CH353">
+        <v>0.96240599999999998</v>
+      </c>
     </row>
-    <row r="354" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.97530890000000003</v>
       </c>
@@ -39381,8 +41487,14 @@
       <c r="CA354">
         <v>0.96240599999999998</v>
       </c>
+      <c r="CG354">
+        <v>0.98067389999999999</v>
+      </c>
+      <c r="CH354">
+        <v>0.93633100000000002</v>
+      </c>
     </row>
-    <row r="355" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.97224337000000005</v>
       </c>
@@ -39461,8 +41573,14 @@
       <c r="CA355">
         <v>0.93633100000000002</v>
       </c>
+      <c r="CG355">
+        <v>0.97223579999999998</v>
+      </c>
+      <c r="CH355">
+        <v>0.96147199999999999</v>
+      </c>
     </row>
-    <row r="356" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.96590339999999997</v>
       </c>
@@ -39541,8 +41659,14 @@
       <c r="CA356">
         <v>0.96147199999999999</v>
       </c>
+      <c r="CG356">
+        <v>0.97198194000000004</v>
+      </c>
+      <c r="CH356">
+        <v>0.98599800000000004</v>
+      </c>
     </row>
-    <row r="357" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.96321296999999995</v>
       </c>
@@ -39621,8 +41745,14 @@
       <c r="CA357">
         <v>0.98599800000000004</v>
       </c>
+      <c r="CG357">
+        <v>0.97695149999999997</v>
+      </c>
+      <c r="CH357">
+        <v>1.00586</v>
+      </c>
     </row>
-    <row r="358" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.96538749999999995</v>
       </c>
@@ -39701,8 +41831,14 @@
       <c r="CA358">
         <v>1.00586</v>
       </c>
+      <c r="CG358">
+        <v>0.9836741</v>
+      </c>
+      <c r="CH358">
+        <v>1.0087600000000001</v>
+      </c>
     </row>
-    <row r="359" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.96879404999999996</v>
       </c>
@@ -39781,8 +41917,14 @@
       <c r="CA359">
         <v>1.0087600000000001</v>
       </c>
+      <c r="CG359">
+        <v>0.99087599999999998</v>
+      </c>
+      <c r="CH359">
+        <v>0.99857099999999999</v>
+      </c>
     </row>
-    <row r="360" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.97070204999999998</v>
       </c>
@@ -39861,8 +42003,14 @@
       <c r="CA360">
         <v>0.99857099999999999</v>
       </c>
+      <c r="CG360">
+        <v>0.99169600000000002</v>
+      </c>
+      <c r="CH360">
+        <v>1.00648</v>
+      </c>
     </row>
-    <row r="361" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.97089630000000005</v>
       </c>
@@ -39941,8 +42089,14 @@
       <c r="CA361">
         <v>1.00648</v>
       </c>
+      <c r="CG361">
+        <v>0.99186459999999999</v>
+      </c>
+      <c r="CH361">
+        <v>1.00518</v>
+      </c>
     </row>
-    <row r="362" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.97087760000000001</v>
       </c>
@@ -40021,8 +42175,14 @@
       <c r="CA362">
         <v>1.00518</v>
       </c>
+      <c r="CG362">
+        <v>0.99286339999999995</v>
+      </c>
+      <c r="CH362">
+        <v>1.0278099999999999</v>
+      </c>
     </row>
-    <row r="363" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.971665</v>
       </c>
@@ -40101,8 +42261,14 @@
       <c r="CA363">
         <v>1.0278099999999999</v>
       </c>
+      <c r="CG363">
+        <v>0.99391220000000002</v>
+      </c>
+      <c r="CH363">
+        <v>1.03295</v>
+      </c>
     </row>
-    <row r="364" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.97328853999999998</v>
       </c>
@@ -40181,8 +42347,14 @@
       <c r="CA364">
         <v>1.03295</v>
       </c>
+      <c r="CG364">
+        <v>0.99788463000000005</v>
+      </c>
+      <c r="CH364">
+        <v>1.0435399999999999</v>
+      </c>
     </row>
-    <row r="365" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.97475959999999995</v>
       </c>
@@ -40261,8 +42433,14 @@
       <c r="CA365">
         <v>1.0435399999999999</v>
       </c>
+      <c r="CG365">
+        <v>0.99936290000000005</v>
+      </c>
+      <c r="CH365">
+        <v>1.04375</v>
+      </c>
     </row>
-    <row r="366" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.97580029999999995</v>
       </c>
@@ -40341,8 +42519,14 @@
       <c r="CA366">
         <v>1.04375</v>
       </c>
+      <c r="CG366">
+        <v>1.0025797000000001</v>
+      </c>
+      <c r="CH366">
+        <v>1.05175</v>
+      </c>
     </row>
-    <row r="367" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.97638740000000002</v>
       </c>
@@ -40421,8 +42605,14 @@
       <c r="CA367">
         <v>1.05175</v>
       </c>
+      <c r="CG367">
+        <v>1.0044156</v>
+      </c>
+      <c r="CH367">
+        <v>1.05033</v>
+      </c>
     </row>
-    <row r="368" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.97707635000000004</v>
       </c>
@@ -40501,8 +42691,14 @@
       <c r="CA368">
         <v>1.05033</v>
       </c>
+      <c r="CG368">
+        <v>1.0055346000000001</v>
+      </c>
+      <c r="CH368">
+        <v>1.0539700000000001</v>
+      </c>
     </row>
-    <row r="369" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.97819822999999995</v>
       </c>
@@ -40581,8 +42777,14 @@
       <c r="CA369">
         <v>1.0539700000000001</v>
       </c>
+      <c r="CG369">
+        <v>1.0066155999999999</v>
+      </c>
+      <c r="CH369">
+        <v>1.0517700000000001</v>
+      </c>
     </row>
-    <row r="370" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.97951080000000001</v>
       </c>
@@ -40661,8 +42863,14 @@
       <c r="CA370">
         <v>1.0517700000000001</v>
       </c>
+      <c r="CG370">
+        <v>1.0070403000000001</v>
+      </c>
+      <c r="CH370">
+        <v>1.0583100000000001</v>
+      </c>
     </row>
-    <row r="371" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.98080425999999998</v>
       </c>
@@ -40741,8 +42949,14 @@
       <c r="CA371">
         <v>1.0583100000000001</v>
       </c>
+      <c r="CG371">
+        <v>1.0075947000000001</v>
+      </c>
+      <c r="CH371">
+        <v>1.0527599999999999</v>
+      </c>
     </row>
-    <row r="372" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.98196519999999998</v>
       </c>
@@ -40821,8 +43035,14 @@
       <c r="CA372">
         <v>1.0527599999999999</v>
       </c>
+      <c r="CG372">
+        <v>1.0075668</v>
+      </c>
+      <c r="CH372">
+        <v>1.0597300000000001</v>
+      </c>
     </row>
-    <row r="373" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.98292480000000004</v>
       </c>
@@ -40901,8 +43121,14 @@
       <c r="CA373">
         <v>1.0597300000000001</v>
       </c>
+      <c r="CG373">
+        <v>1.0086850999999999</v>
+      </c>
+      <c r="CH373">
+        <v>1.0550999999999999</v>
+      </c>
     </row>
-    <row r="374" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.98375164999999998</v>
       </c>
@@ -40981,8 +43207,14 @@
       <c r="CA374">
         <v>1.0550999999999999</v>
       </c>
+      <c r="CG374">
+        <v>1.0090467999999999</v>
+      </c>
+      <c r="CH374">
+        <v>1.05559</v>
+      </c>
     </row>
-    <row r="375" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.98455559999999998</v>
       </c>
@@ -41061,8 +43293,14 @@
       <c r="CA375">
         <v>1.05559</v>
       </c>
+      <c r="CG375">
+        <v>1.0088623000000001</v>
+      </c>
+      <c r="CH375">
+        <v>1.05375</v>
+      </c>
     </row>
-    <row r="376" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.98526970000000003</v>
       </c>
@@ -41141,8 +43379,14 @@
       <c r="CA376">
         <v>1.05375</v>
       </c>
+      <c r="CG376">
+        <v>1.0082883</v>
+      </c>
+      <c r="CH376">
+        <v>1.0562100000000001</v>
+      </c>
     </row>
-    <row r="377" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.98582166000000004</v>
       </c>
@@ -41221,8 +43465,14 @@
       <c r="CA377">
         <v>1.0562100000000001</v>
       </c>
+      <c r="CG377">
+        <v>1.0084811</v>
+      </c>
+      <c r="CH377">
+        <v>1.0587200000000001</v>
+      </c>
     </row>
-    <row r="378" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.98619723000000004</v>
       </c>
@@ -41301,8 +43551,14 @@
       <c r="CA378">
         <v>1.0587200000000001</v>
       </c>
+      <c r="CG378">
+        <v>1.0095075</v>
+      </c>
+      <c r="CH378">
+        <v>1.05677</v>
+      </c>
     </row>
-    <row r="379" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.98649900000000001</v>
       </c>
@@ -41381,8 +43637,14 @@
       <c r="CA379">
         <v>1.05677</v>
       </c>
+      <c r="CG379">
+        <v>1.0103283000000001</v>
+      </c>
+      <c r="CH379">
+        <v>1.0469999999999999</v>
+      </c>
     </row>
-    <row r="380" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.98674779999999995</v>
       </c>
@@ -41461,8 +43723,14 @@
       <c r="CA380">
         <v>1.0469999999999999</v>
       </c>
+      <c r="CG380">
+        <v>1.0043162000000001</v>
+      </c>
+      <c r="CH380">
+        <v>1.0517799999999999</v>
+      </c>
     </row>
-    <row r="381" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.98627379999999998</v>
       </c>
@@ -41541,8 +43809,14 @@
       <c r="CA381">
         <v>1.0517799999999999</v>
       </c>
+      <c r="CG381">
+        <v>1.0043464</v>
+      </c>
+      <c r="CH381">
+        <v>1.0521100000000001</v>
+      </c>
     </row>
-    <row r="382" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.98551679999999997</v>
       </c>
@@ -41621,8 +43895,14 @@
       <c r="CA382">
         <v>1.0521100000000001</v>
       </c>
+      <c r="CG382">
+        <v>1.0056</v>
+      </c>
+      <c r="CH382">
+        <v>1.0652699999999999</v>
+      </c>
     </row>
-    <row r="383" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.98539659999999996</v>
       </c>
@@ -41701,8 +43981,14 @@
       <c r="CA383">
         <v>1.0652699999999999</v>
       </c>
+      <c r="CG383">
+        <v>1.0098066000000001</v>
+      </c>
+      <c r="CH383">
+        <v>1.0638700000000001</v>
+      </c>
     </row>
-    <row r="384" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.98581620000000003</v>
       </c>
@@ -41781,8 +44067,14 @@
       <c r="CA384">
         <v>1.0638700000000001</v>
       </c>
+      <c r="CG384">
+        <v>1.0126953999999999</v>
+      </c>
+      <c r="CH384">
+        <v>1.06447</v>
+      </c>
     </row>
-    <row r="385" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.98637200000000003</v>
       </c>
@@ -41861,8 +44153,14 @@
       <c r="CA385">
         <v>1.06447</v>
       </c>
+      <c r="CG385">
+        <v>1.0133867999999999</v>
+      </c>
+      <c r="CH385">
+        <v>1.0600499999999999</v>
+      </c>
     </row>
-    <row r="386" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.98662760000000005</v>
       </c>
@@ -41941,8 +44239,14 @@
       <c r="CA386">
         <v>1.0600499999999999</v>
       </c>
+      <c r="CG386">
+        <v>1.0122420999999999</v>
+      </c>
+      <c r="CH386">
+        <v>1.06734</v>
+      </c>
     </row>
-    <row r="387" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.98661829999999995</v>
       </c>
@@ -42021,8 +44325,14 @@
       <c r="CA387">
         <v>1.06734</v>
       </c>
+      <c r="CG387">
+        <v>1.0124610000000001</v>
+      </c>
+      <c r="CH387">
+        <v>1.0661099999999999</v>
+      </c>
     </row>
-    <row r="388" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.98651279999999997</v>
       </c>
@@ -42101,8 +44411,14 @@
       <c r="CA388">
         <v>1.0661099999999999</v>
       </c>
+      <c r="CG388">
+        <v>1.012715</v>
+      </c>
+      <c r="CH388">
+        <v>1.0704199999999999</v>
+      </c>
     </row>
-    <row r="389" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.98646842999999995</v>
       </c>
@@ -42181,8 +44497,14 @@
       <c r="CA389">
         <v>1.0704199999999999</v>
       </c>
+      <c r="CG389">
+        <v>1.0130998</v>
+      </c>
+      <c r="CH389">
+        <v>1.0619400000000001</v>
+      </c>
     </row>
-    <row r="390" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.98648190000000002</v>
       </c>
@@ -42261,8 +44583,14 @@
       <c r="CA390">
         <v>1.0619400000000001</v>
       </c>
+      <c r="CG390">
+        <v>1.0114570000000001</v>
+      </c>
+      <c r="CH390">
+        <v>1.06481</v>
+      </c>
     </row>
-    <row r="391" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.98642843999999996</v>
       </c>
@@ -42341,8 +44669,14 @@
       <c r="CA391">
         <v>1.06481</v>
       </c>
+      <c r="CG391">
+        <v>1.0102731</v>
+      </c>
+      <c r="CH391">
+        <v>1.0682100000000001</v>
+      </c>
     </row>
-    <row r="392" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.98617213999999997</v>
       </c>
@@ -42421,8 +44755,14 @@
       <c r="CA392">
         <v>1.0682100000000001</v>
       </c>
+      <c r="CG392">
+        <v>1.0117814999999999</v>
+      </c>
+      <c r="CH392">
+        <v>1.0659799999999999</v>
+      </c>
     </row>
-    <row r="393" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.98593989999999998</v>
       </c>
@@ -42501,8 +44841,14 @@
       <c r="CA393">
         <v>1.0659799999999999</v>
       </c>
+      <c r="CG393">
+        <v>1.0112019000000001</v>
+      </c>
+      <c r="CH393">
+        <v>1.06511</v>
+      </c>
     </row>
-    <row r="394" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.98576710000000001</v>
       </c>
@@ -42581,8 +44927,14 @@
       <c r="CA394">
         <v>1.06511</v>
       </c>
+      <c r="CG394">
+        <v>1.0115381000000001</v>
+      </c>
+      <c r="CH394">
+        <v>1.06812</v>
+      </c>
     </row>
-    <row r="395" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.98563880000000004</v>
       </c>
@@ -42661,8 +45013,14 @@
       <c r="CA395">
         <v>1.06812</v>
       </c>
+      <c r="CG395">
+        <v>1.0129613</v>
+      </c>
+      <c r="CH395">
+        <v>1.06002</v>
+      </c>
     </row>
-    <row r="396" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.98567515999999999</v>
       </c>
@@ -42741,8 +45099,14 @@
       <c r="CA396">
         <v>1.06002</v>
       </c>
+      <c r="CG396">
+        <v>1.009055</v>
+      </c>
+      <c r="CH396">
+        <v>1.05792</v>
+      </c>
     </row>
-    <row r="397" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.98541179999999995</v>
       </c>
@@ -42821,8 +45185,14 @@
       <c r="CA397">
         <v>1.05792</v>
       </c>
+      <c r="CG397">
+        <v>1.0071863000000001</v>
+      </c>
+      <c r="CH397">
+        <v>1.05549</v>
+      </c>
     </row>
-    <row r="398" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.98455349999999997</v>
       </c>
@@ -42901,8 +45271,14 @@
       <c r="CA398">
         <v>1.05549</v>
       </c>
+      <c r="CG398">
+        <v>1.0044119</v>
+      </c>
+      <c r="CH398">
+        <v>1.06351</v>
+      </c>
     </row>
-    <row r="399" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.98377769999999998</v>
       </c>
@@ -42981,8 +45357,14 @@
       <c r="CA399">
         <v>1.06351</v>
       </c>
+      <c r="CG399">
+        <v>1.0069444999999999</v>
+      </c>
+      <c r="CH399">
+        <v>1.0605</v>
+      </c>
     </row>
-    <row r="400" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.9837089</v>
       </c>
@@ -43061,8 +45443,14 @@
       <c r="CA400">
         <v>1.0605</v>
       </c>
+      <c r="CG400">
+        <v>1.0076575000000001</v>
+      </c>
+      <c r="CH400">
+        <v>1.05684</v>
+      </c>
     </row>
-    <row r="401" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.98400030000000005</v>
       </c>
@@ -43141,8 +45529,14 @@
       <c r="CA401">
         <v>1.05684</v>
       </c>
+      <c r="CG401">
+        <v>1.0061077</v>
+      </c>
+      <c r="CH401">
+        <v>1.0567800000000001</v>
+      </c>
     </row>
-    <row r="402" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.98391134000000002</v>
       </c>
@@ -43221,8 +45615,14 @@
       <c r="CA402">
         <v>1.0567800000000001</v>
       </c>
+      <c r="CG402">
+        <v>1.0060104000000001</v>
+      </c>
+      <c r="CH402">
+        <v>1.0632299999999999</v>
+      </c>
     </row>
-    <row r="403" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.98338040000000004</v>
       </c>
@@ -43301,8 +45701,14 @@
       <c r="CA403">
         <v>1.0632299999999999</v>
       </c>
+      <c r="CG403">
+        <v>1.0092509999999999</v>
+      </c>
+      <c r="CH403">
+        <v>1.0678300000000001</v>
+      </c>
     </row>
-    <row r="404" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.98326469999999999</v>
       </c>
@@ -43381,8 +45787,14 @@
       <c r="CA404">
         <v>1.0678300000000001</v>
       </c>
+      <c r="CG404">
+        <v>1.0115997000000001</v>
+      </c>
+      <c r="CH404">
+        <v>1.0676000000000001</v>
+      </c>
     </row>
-    <row r="405" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.98359346000000003</v>
       </c>
@@ -43461,8 +45873,14 @@
       <c r="CA405">
         <v>1.0676000000000001</v>
       </c>
+      <c r="CG405">
+        <v>1.0131338999999999</v>
+      </c>
+      <c r="CH405">
+        <v>1.06416</v>
+      </c>
     </row>
-    <row r="406" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.98378940000000004</v>
       </c>
@@ -43541,8 +45959,14 @@
       <c r="CA406">
         <v>1.06416</v>
       </c>
+      <c r="CG406">
+        <v>1.0129786000000001</v>
+      </c>
+      <c r="CH406">
+        <v>1.02634</v>
+      </c>
     </row>
-    <row r="407" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.98379930000000004</v>
       </c>
@@ -43621,8 +46045,14 @@
       <c r="CA407">
         <v>1.02634</v>
       </c>
+      <c r="CG407">
+        <v>1.0009489</v>
+      </c>
+      <c r="CH407">
+        <v>1.0484199999999999</v>
+      </c>
     </row>
-    <row r="408" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.98101899999999997</v>
       </c>
@@ -43701,8 +46131,14 @@
       <c r="CA408">
         <v>1.0484199999999999</v>
       </c>
+      <c r="CG408">
+        <v>0.99835925999999997</v>
+      </c>
+      <c r="CH408">
+        <v>1.0257799999999999</v>
+      </c>
     </row>
-    <row r="409" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.97816723999999999</v>
       </c>
@@ -43781,8 +46217,14 @@
       <c r="CA409">
         <v>1.0257799999999999</v>
       </c>
+      <c r="CG409">
+        <v>0.99617979999999995</v>
+      </c>
+      <c r="CH409">
+        <v>1.0248900000000001</v>
+      </c>
     </row>
-    <row r="410" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.97710496000000002</v>
       </c>
@@ -43861,8 +46303,14 @@
       <c r="CA410">
         <v>1.0248900000000001</v>
       </c>
+      <c r="CG410">
+        <v>0.99824880000000005</v>
+      </c>
+      <c r="CH410">
+        <v>1.04009</v>
+      </c>
     </row>
-    <row r="411" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.97680425999999998</v>
       </c>
@@ -43941,8 +46389,14 @@
       <c r="CA411">
         <v>1.04009</v>
       </c>
+      <c r="CG411">
+        <v>1.0003226000000001</v>
+      </c>
+      <c r="CH411">
+        <v>1.0343599999999999</v>
+      </c>
     </row>
-    <row r="412" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.97728289999999995</v>
       </c>
@@ -44021,8 +46475,14 @@
       <c r="CA412">
         <v>1.0343599999999999</v>
       </c>
+      <c r="CG412">
+        <v>1.0019629000000001</v>
+      </c>
+      <c r="CH412">
+        <v>1.03433</v>
+      </c>
     </row>
-    <row r="413" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.97758089999999997</v>
       </c>
@@ -44101,8 +46561,14 @@
       <c r="CA413">
         <v>1.03433</v>
       </c>
+      <c r="CG413">
+        <v>1.0038746999999999</v>
+      </c>
+      <c r="CH413">
+        <v>1.0347900000000001</v>
+      </c>
     </row>
-    <row r="414" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.97770559999999995</v>
       </c>
@@ -44181,8 +46647,14 @@
       <c r="CA414">
         <v>1.0347900000000001</v>
       </c>
+      <c r="CG414">
+        <v>1.005188</v>
+      </c>
+      <c r="CH414">
+        <v>1.05131</v>
+      </c>
     </row>
-    <row r="415" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.97786200000000001</v>
       </c>
@@ -44261,8 +46733,14 @@
       <c r="CA415">
         <v>1.05131</v>
       </c>
+      <c r="CG415">
+        <v>1.0058457000000001</v>
+      </c>
+      <c r="CH415">
+        <v>1.06125</v>
+      </c>
     </row>
-    <row r="416" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.97793699999999995</v>
       </c>
@@ -44341,8 +46819,14 @@
       <c r="CA416">
         <v>1.06125</v>
       </c>
+      <c r="CG416">
+        <v>1.0080986000000001</v>
+      </c>
+      <c r="CH416">
+        <v>1.0524199999999999</v>
+      </c>
     </row>
-    <row r="417" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.97808569999999995</v>
       </c>
@@ -44421,8 +46905,14 @@
       <c r="CA417">
         <v>1.0524199999999999</v>
       </c>
+      <c r="CG417">
+        <v>1.0086143000000001</v>
+      </c>
+      <c r="CH417">
+        <v>1.0392699999999999</v>
+      </c>
     </row>
-    <row r="418" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0.97822229999999999</v>
       </c>
@@ -44501,8 +46991,14 @@
       <c r="CA418">
         <v>1.0392699999999999</v>
       </c>
+      <c r="CG418">
+        <v>1.0063852</v>
+      </c>
+      <c r="CH418">
+        <v>1.04905</v>
+      </c>
     </row>
-    <row r="419" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0.97795860000000001</v>
       </c>
@@ -44581,8 +47077,14 @@
       <c r="CA419">
         <v>1.04905</v>
       </c>
+      <c r="CG419">
+        <v>1.006572</v>
+      </c>
+      <c r="CH419">
+        <v>1.05714</v>
+      </c>
     </row>
-    <row r="420" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.97803753999999998</v>
       </c>
@@ -44662,8 +47164,14 @@
       <c r="CA420">
         <v>1.05714</v>
       </c>
+      <c r="CG420">
+        <v>1.0076225000000001</v>
+      </c>
+      <c r="CH420">
+        <v>1.0428299999999999</v>
+      </c>
     </row>
-    <row r="421" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0.97871710000000001</v>
       </c>
@@ -44744,7 +47252,7 @@
         <v>1.0428299999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:86" x14ac:dyDescent="0.2">
       <c r="T422" s="1"/>
       <c r="X422" s="1"/>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
   <si>
     <t>_0.975178</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Precited</t>
+  </si>
+  <si>
+    <t>(Sliding window)</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2984,11 +2986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2006905024"/>
-        <c:axId val="-1543621408"/>
+        <c:axId val="307612688"/>
+        <c:axId val="307657152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2006905024"/>
+        <c:axId val="307612688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1543621408"/>
+        <c:crossAx val="307657152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3038,7 +3040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1543621408"/>
+        <c:axId val="307657152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2006905024"/>
+        <c:crossAx val="307612688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3102,7 +3104,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3184,7 +3185,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5793,11 +5793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1978015936"/>
-        <c:axId val="-1978307712"/>
+        <c:axId val="307681808"/>
+        <c:axId val="307684128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1978015936"/>
+        <c:axId val="307681808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,7 +5839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1978307712"/>
+        <c:crossAx val="307684128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5847,7 +5847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1978307712"/>
+        <c:axId val="307684128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,7 +5898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1978015936"/>
+        <c:crossAx val="307681808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5912,7 +5912,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8603,11 +8602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1977917792"/>
-        <c:axId val="-1960989088"/>
+        <c:axId val="307708304"/>
+        <c:axId val="307710624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1977917792"/>
+        <c:axId val="307708304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8649,7 +8648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1960989088"/>
+        <c:crossAx val="307710624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8657,7 +8656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1960989088"/>
+        <c:axId val="307710624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8707,7 +8706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1977917792"/>
+        <c:crossAx val="307708304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10814,10 +10813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL422"/>
+  <dimension ref="A1:CS422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="CQ24" sqref="CQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10835,7 +10834,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11070,8 +11069,26 @@
       <c r="CL1" t="s">
         <v>9</v>
       </c>
+      <c r="CN1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11306,20 +11323,44 @@
       <c r="CL2">
         <v>75</v>
       </c>
+      <c r="CN2">
+        <v>100</v>
+      </c>
+      <c r="CO2">
+        <v>60</v>
+      </c>
+      <c r="CP2">
+        <v>5</v>
+      </c>
+      <c r="CQ2">
+        <v>200</v>
+      </c>
+      <c r="CR2">
+        <v>18</v>
+      </c>
+      <c r="CS2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
+      <c r="CN3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="CG4">
         <v>0</v>
       </c>
       <c r="CI4" t="s">
         <v>14</v>
       </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11421,8 +11462,11 @@
         <f>CORREL(CG5:CG420,CH5:CH420)</f>
         <v>0.72189116759088723</v>
       </c>
+      <c r="CN5">
+        <v>0.95120947795597199</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -11561,8 +11605,11 @@
       <c r="CH6">
         <v>0.96900399999999998</v>
       </c>
+      <c r="CN6">
+        <v>0.87066780873676297</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -11651,8 +11698,11 @@
       <c r="CH7">
         <v>0.984456</v>
       </c>
+      <c r="CN7">
+        <v>0.93549098445030798</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -11737,8 +11787,11 @@
       <c r="CH8">
         <v>0.98441299999999998</v>
       </c>
+      <c r="CN8">
+        <v>0.81930970700262995</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -11823,8 +11876,11 @@
       <c r="CH9">
         <v>0.99852200000000002</v>
       </c>
+      <c r="CN9">
+        <v>0.91458871337325298</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -11909,8 +11965,11 @@
       <c r="CH10">
         <v>1.00454</v>
       </c>
+      <c r="CN10">
+        <v>0.76415578896095404</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -11995,8 +12054,11 @@
       <c r="CH11">
         <v>1.00691</v>
       </c>
+      <c r="CN11">
+        <v>0.85465641505897505</v>
+      </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -12081,8 +12143,11 @@
       <c r="CH12">
         <v>1.00644</v>
       </c>
+      <c r="CN12">
+        <v>0.906567334449359</v>
+      </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -12167,8 +12232,15 @@
       <c r="CH13">
         <v>1.0048699999999999</v>
       </c>
+      <c r="CN13">
+        <v>0.68190625208914102</v>
+      </c>
+      <c r="CO13">
+        <f>AVERAGE(CN5:CN16)</f>
+        <v>0.78575353926582203</v>
+      </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -12253,8 +12325,11 @@
       <c r="CH14">
         <v>1.0139499999999999</v>
       </c>
+      <c r="CN14">
+        <v>0.45673442933271002</v>
+      </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -12339,8 +12414,11 @@
       <c r="CH15">
         <v>1.0135000000000001</v>
       </c>
+      <c r="CN15">
+        <v>0.76861127547589503</v>
+      </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -12424,6 +12502,9 @@
       </c>
       <c r="CH16">
         <v>1.01762</v>
+      </c>
+      <c r="CN16">
+        <v>0.50514428430390401</v>
       </c>
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.2">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="19">
   <si>
     <t>_0.975178</t>
   </si>
@@ -2986,11 +2986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307612688"/>
-        <c:axId val="307657152"/>
+        <c:axId val="304914016"/>
+        <c:axId val="304916064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307612688"/>
+        <c:axId val="304914016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307657152"/>
+        <c:crossAx val="304916064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3040,7 +3040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307657152"/>
+        <c:axId val="304916064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307612688"/>
+        <c:crossAx val="304914016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5793,11 +5793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307681808"/>
-        <c:axId val="307684128"/>
+        <c:axId val="329655040"/>
+        <c:axId val="329656816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307681808"/>
+        <c:axId val="329655040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,7 +5839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307684128"/>
+        <c:crossAx val="329656816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5847,7 +5847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307684128"/>
+        <c:axId val="329656816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,7 +5898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307681808"/>
+        <c:crossAx val="329655040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8602,11 +8602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307708304"/>
-        <c:axId val="307710624"/>
+        <c:axId val="331686800"/>
+        <c:axId val="331688848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307708304"/>
+        <c:axId val="331686800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8648,7 +8648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307710624"/>
+        <c:crossAx val="331688848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8656,7 +8656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307710624"/>
+        <c:axId val="331688848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8706,7 +8706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307708304"/>
+        <c:crossAx val="331686800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10813,10 +10813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CS422"/>
+  <dimension ref="A1:CZ422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="CQ24" sqref="CQ24"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="CX21" sqref="CX21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10834,7 +10834,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11087,8 +11087,26 @@
       <c r="CS1" t="s">
         <v>9</v>
       </c>
+      <c r="CU1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11341,15 +11359,33 @@
       <c r="CS2">
         <v>75</v>
       </c>
+      <c r="CU2">
+        <v>100</v>
+      </c>
+      <c r="CV2">
+        <v>60</v>
+      </c>
+      <c r="CW2">
+        <v>5</v>
+      </c>
+      <c r="CX2">
+        <v>200</v>
+      </c>
+      <c r="CY2">
+        <v>18</v>
+      </c>
+      <c r="CZ2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="CN3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
       <c r="CG4">
         <v>0</v>
       </c>
@@ -11359,8 +11395,11 @@
       <c r="CN4">
         <v>0</v>
       </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11465,8 +11504,11 @@
       <c r="CN5">
         <v>0.95120947795597199</v>
       </c>
+      <c r="CU5">
+        <v>0.930833480851054</v>
+      </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -11608,8 +11650,11 @@
       <c r="CN6">
         <v>0.87066780873676297</v>
       </c>
+      <c r="CU6">
+        <v>0.82749225148219097</v>
+      </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -11701,8 +11746,11 @@
       <c r="CN7">
         <v>0.93549098445030798</v>
       </c>
+      <c r="CU7">
+        <v>0.94199411971694702</v>
+      </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -11790,8 +11838,15 @@
       <c r="CN8">
         <v>0.81930970700262995</v>
       </c>
+      <c r="CU8">
+        <v>0.88329672954418503</v>
+      </c>
+      <c r="CV8">
+        <f>AVERAGE(CU5:CU16)</f>
+        <v>0.81476206800901452</v>
+      </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -11879,8 +11934,11 @@
       <c r="CN9">
         <v>0.91458871337325298</v>
       </c>
+      <c r="CU9">
+        <v>0.92938145118763404</v>
+      </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -11968,8 +12026,11 @@
       <c r="CN10">
         <v>0.76415578896095404</v>
       </c>
+      <c r="CU10">
+        <v>0.74349361722829699</v>
+      </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -12057,8 +12118,11 @@
       <c r="CN11">
         <v>0.85465641505897505</v>
       </c>
+      <c r="CU11">
+        <v>0.86366130919722695</v>
+      </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -12146,8 +12210,11 @@
       <c r="CN12">
         <v>0.906567334449359</v>
       </c>
+      <c r="CU12">
+        <v>0.90415742090926099</v>
+      </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -12239,8 +12306,11 @@
         <f>AVERAGE(CN5:CN16)</f>
         <v>0.78575353926582203</v>
       </c>
+      <c r="CU13">
+        <v>0.49271779259988102</v>
+      </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -12328,8 +12398,11 @@
       <c r="CN14">
         <v>0.45673442933271002</v>
       </c>
+      <c r="CU14">
+        <v>0.72750837201894702</v>
+      </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -12417,8 +12490,11 @@
       <c r="CN15">
         <v>0.76861127547589503</v>
       </c>
+      <c r="CU15">
+        <v>0.79071226818406803</v>
+      </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -12505,6 +12581,9 @@
       </c>
       <c r="CN16">
         <v>0.50514428430390401</v>
+      </c>
+      <c r="CU16">
+        <v>0.74189600318848503</v>
       </c>
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.2">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="19">
   <si>
     <t>_0.975178</t>
   </si>
@@ -2986,11 +2986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="304914016"/>
-        <c:axId val="304916064"/>
+        <c:axId val="331934992"/>
+        <c:axId val="331937040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304914016"/>
+        <c:axId val="331934992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304916064"/>
+        <c:crossAx val="331937040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3040,7 +3040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304916064"/>
+        <c:axId val="331937040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304914016"/>
+        <c:crossAx val="331934992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5793,11 +5793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="329655040"/>
-        <c:axId val="329656816"/>
+        <c:axId val="-169609520"/>
+        <c:axId val="300537264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329655040"/>
+        <c:axId val="-169609520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,7 +5839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329656816"/>
+        <c:crossAx val="300537264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5847,7 +5847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329656816"/>
+        <c:axId val="300537264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,7 +5898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329655040"/>
+        <c:crossAx val="-169609520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5993,7 +5993,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8602,11 +8601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="331686800"/>
-        <c:axId val="331688848"/>
+        <c:axId val="-169348256"/>
+        <c:axId val="-169346480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331686800"/>
+        <c:axId val="-169348256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8648,7 +8647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331688848"/>
+        <c:crossAx val="-169346480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8656,7 +8655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331688848"/>
+        <c:axId val="-169346480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8706,7 +8705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331686800"/>
+        <c:crossAx val="-169348256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8720,7 +8719,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10813,10 +10811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CZ422"/>
+  <dimension ref="A1:DN422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="CX21" sqref="CX21"/>
+    <sheetView tabSelected="1" topLeftCell="CX1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="DM20" sqref="DM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10834,7 +10832,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11105,8 +11103,44 @@
       <c r="CZ1" t="s">
         <v>9</v>
       </c>
+      <c r="DB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11377,15 +11411,57 @@
       <c r="CZ2">
         <v>90</v>
       </c>
+      <c r="DB2">
+        <v>100</v>
+      </c>
+      <c r="DC2">
+        <v>60</v>
+      </c>
+      <c r="DD2">
+        <v>5</v>
+      </c>
+      <c r="DE2">
+        <v>200</v>
+      </c>
+      <c r="DF2">
+        <v>18</v>
+      </c>
+      <c r="DG2">
+        <v>105</v>
+      </c>
+      <c r="DI2">
+        <v>100</v>
+      </c>
+      <c r="DJ2">
+        <v>60</v>
+      </c>
+      <c r="DK2">
+        <v>5</v>
+      </c>
+      <c r="DL2">
+        <v>250</v>
+      </c>
+      <c r="DM2">
+        <v>18</v>
+      </c>
+      <c r="DN2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="CN3" t="s">
         <v>18</v>
       </c>
+      <c r="DB3">
+        <v>0.93972289370239603</v>
+      </c>
+      <c r="DI3">
+        <v>0.94888378097442105</v>
+      </c>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.2">
       <c r="CG4">
         <v>0</v>
       </c>
@@ -11398,8 +11474,14 @@
       <c r="CU4">
         <v>0</v>
       </c>
+      <c r="DB4">
+        <v>0.76103457178347</v>
+      </c>
+      <c r="DI4">
+        <v>0.81526411186815295</v>
+      </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11507,8 +11589,18 @@
       <c r="CU5">
         <v>0.930833480851054</v>
       </c>
+      <c r="DB5">
+        <v>0.93112830281722103</v>
+      </c>
+      <c r="DI5">
+        <v>0.94129142583928505</v>
+      </c>
+      <c r="DJ5">
+        <f>AVERAGE(DI3:DI14)</f>
+        <v>0.78156800969451756</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -11653,8 +11745,14 @@
       <c r="CU6">
         <v>0.82749225148219097</v>
       </c>
+      <c r="DB6">
+        <v>0.88574049777248498</v>
+      </c>
+      <c r="DI6">
+        <v>0.85343773138027901</v>
+      </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -11749,8 +11847,14 @@
       <c r="CU7">
         <v>0.94199411971694702</v>
       </c>
+      <c r="DB7">
+        <v>0.92862415296451695</v>
+      </c>
+      <c r="DI7">
+        <v>0.923413939018916</v>
+      </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -11845,8 +11949,18 @@
         <f>AVERAGE(CU5:CU16)</f>
         <v>0.81476206800901452</v>
       </c>
+      <c r="DB8">
+        <v>0.64246367263281601</v>
+      </c>
+      <c r="DC8">
+        <f>AVERAGE(DB3:DB14)</f>
+        <v>0.76364384642909011</v>
+      </c>
+      <c r="DI8">
+        <v>0.70215514627930098</v>
+      </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -11937,8 +12051,14 @@
       <c r="CU9">
         <v>0.92938145118763404</v>
       </c>
+      <c r="DB9">
+        <v>0.79734512613854103</v>
+      </c>
+      <c r="DI9">
+        <v>0.863487205803802</v>
+      </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -12029,8 +12149,14 @@
       <c r="CU10">
         <v>0.74349361722829699</v>
       </c>
+      <c r="DB10">
+        <v>0.872130971866378</v>
+      </c>
+      <c r="DI10">
+        <v>0.89147153010811597</v>
+      </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -12121,8 +12247,14 @@
       <c r="CU11">
         <v>0.86366130919722695</v>
       </c>
+      <c r="DB11">
+        <v>0.53167362045963895</v>
+      </c>
+      <c r="DI11">
+        <v>0.68045828692341703</v>
+      </c>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -12213,8 +12345,14 @@
       <c r="CU12">
         <v>0.90415742090926099</v>
       </c>
+      <c r="DB12">
+        <v>0.62610923044085498</v>
+      </c>
+      <c r="DI12">
+        <v>0.52649089514327296</v>
+      </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -12309,8 +12447,14 @@
       <c r="CU13">
         <v>0.49271779259988102</v>
       </c>
+      <c r="DB13">
+        <v>0.74903893717724301</v>
+      </c>
+      <c r="DI13">
+        <v>0.68749303042966503</v>
+      </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -12401,8 +12545,14 @@
       <c r="CU14">
         <v>0.72750837201894702</v>
       </c>
+      <c r="DB14">
+        <v>0.49871417939352097</v>
+      </c>
+      <c r="DI14">
+        <v>0.54496903256558304</v>
+      </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -12494,7 +12644,7 @@
         <v>0.79071226818406803</v>
       </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="21">
   <si>
     <t>_0.975178</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>(Sliding window)</t>
+  </si>
+  <si>
+    <t>SAE output without closing price</t>
+  </si>
+  <si>
+    <t>SAE output with closing price</t>
   </si>
 </sst>
 </file>
@@ -10811,10 +10817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN422"/>
+  <dimension ref="A1:EB422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CX1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="DM20" sqref="DM20"/>
+    <sheetView tabSelected="1" topLeftCell="DL1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="DX14" sqref="DX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10832,7 +10838,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11139,8 +11145,44 @@
       <c r="DN1" t="s">
         <v>9</v>
       </c>
+      <c r="DP1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>6</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11447,8 +11489,44 @@
       <c r="DN2">
         <v>90</v>
       </c>
+      <c r="DP2">
+        <v>100</v>
+      </c>
+      <c r="DQ2">
+        <v>60</v>
+      </c>
+      <c r="DR2">
+        <v>5</v>
+      </c>
+      <c r="DS2">
+        <v>250</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DU2">
+        <v>90</v>
+      </c>
+      <c r="DW2">
+        <v>100</v>
+      </c>
+      <c r="DX2">
+        <v>60</v>
+      </c>
+      <c r="DY2">
+        <v>5</v>
+      </c>
+      <c r="DZ2">
+        <v>250</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>20</v>
+      </c>
+      <c r="EB2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="CN3" t="s">
@@ -11461,7 +11539,7 @@
         <v>0.94888378097442105</v>
       </c>
     </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.2">
       <c r="CG4">
         <v>0</v>
       </c>
@@ -11480,8 +11558,11 @@
       <c r="DI4">
         <v>0.81526411186815295</v>
       </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11599,8 +11680,11 @@
         <f>AVERAGE(DI3:DI14)</f>
         <v>0.78156800969451756</v>
       </c>
+      <c r="DP5">
+        <v>0.95472717442714194</v>
+      </c>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -11751,8 +11835,11 @@
       <c r="DI6">
         <v>0.85343773138027901</v>
       </c>
+      <c r="DP6">
+        <v>0.83085067572085103</v>
+      </c>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -11853,8 +11940,15 @@
       <c r="DI7">
         <v>0.923413939018916</v>
       </c>
+      <c r="DP7">
+        <v>0.93072949372316804</v>
+      </c>
+      <c r="DQ7">
+        <f>AVERAGE(DP5:DP16)</f>
+        <v>0.75696277223899677</v>
+      </c>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -11959,8 +12053,11 @@
       <c r="DI8">
         <v>0.70215514627930098</v>
       </c>
+      <c r="DP8">
+        <v>0.85948894263700704</v>
+      </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -12057,8 +12154,11 @@
       <c r="DI9">
         <v>0.863487205803802</v>
       </c>
+      <c r="DP9">
+        <v>0.91203822396899004</v>
+      </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -12155,8 +12255,11 @@
       <c r="DI10">
         <v>0.89147153010811597</v>
       </c>
+      <c r="DP10">
+        <v>0.67978144173007204</v>
+      </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -12253,8 +12356,11 @@
       <c r="DI11">
         <v>0.68045828692341703</v>
       </c>
+      <c r="DP11">
+        <v>0.84573378741811001</v>
+      </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -12351,8 +12457,11 @@
       <c r="DI12">
         <v>0.52649089514327296</v>
       </c>
+      <c r="DP12">
+        <v>0.89342484847572301</v>
+      </c>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -12453,8 +12562,11 @@
       <c r="DI13">
         <v>0.68749303042966503</v>
       </c>
+      <c r="DP13">
+        <v>0.61297637562980301</v>
+      </c>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -12551,8 +12663,11 @@
       <c r="DI14">
         <v>0.54496903256558304</v>
       </c>
+      <c r="DP14">
+        <v>0.24174441492538401</v>
+      </c>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -12643,8 +12758,11 @@
       <c r="CU15">
         <v>0.79071226818406803</v>
       </c>
+      <c r="DP15">
+        <v>0.81544948705027698</v>
+      </c>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -12734,6 +12852,9 @@
       </c>
       <c r="CU16">
         <v>0.74189600318848503</v>
+      </c>
+      <c r="DP16">
+        <v>0.50660840116143402</v>
       </c>
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.2">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -2992,11 +2992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="331934992"/>
-        <c:axId val="331937040"/>
+        <c:axId val="752810928"/>
+        <c:axId val="752614448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331934992"/>
+        <c:axId val="752810928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +3038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331937040"/>
+        <c:crossAx val="752614448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3046,7 +3046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331937040"/>
+        <c:axId val="752614448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,7 +3096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331934992"/>
+        <c:crossAx val="752810928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5799,11 +5799,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-169609520"/>
-        <c:axId val="300537264"/>
+        <c:axId val="786650656"/>
+        <c:axId val="786652432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-169609520"/>
+        <c:axId val="786650656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,7 +5845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300537264"/>
+        <c:crossAx val="786652432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5853,7 +5853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300537264"/>
+        <c:axId val="786652432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-169609520"/>
+        <c:crossAx val="786650656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5999,6 +5999,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8607,11 +8608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-169348256"/>
-        <c:axId val="-169346480"/>
+        <c:axId val="786634944"/>
+        <c:axId val="786443360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-169348256"/>
+        <c:axId val="786634944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8653,7 +8654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-169346480"/>
+        <c:crossAx val="786443360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8661,7 +8662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-169346480"/>
+        <c:axId val="786443360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8681,6 +8682,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8711,7 +8713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-169348256"/>
+        <c:crossAx val="786634944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8725,6 +8727,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10819,8 +10822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EB422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="DX14" sqref="DX14"/>
+    <sheetView tabSelected="1" topLeftCell="DH1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="DY19" sqref="DY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11499,7 +11502,7 @@
         <v>5</v>
       </c>
       <c r="DS2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="DT2" t="s">
         <v>19</v>
@@ -11517,7 +11520,7 @@
         <v>5</v>
       </c>
       <c r="DZ2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="EA2" t="s">
         <v>20</v>
@@ -11683,6 +11686,9 @@
       <c r="DP5">
         <v>0.95472717442714194</v>
       </c>
+      <c r="DW5">
+        <v>0.943396905827945</v>
+      </c>
     </row>
     <row r="6" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -11838,6 +11844,9 @@
       <c r="DP6">
         <v>0.83085067572085103</v>
       </c>
+      <c r="DW6">
+        <v>0.85621943205048701</v>
+      </c>
     </row>
     <row r="7" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -11947,6 +11956,9 @@
         <f>AVERAGE(DP5:DP16)</f>
         <v>0.75696277223899677</v>
       </c>
+      <c r="DW7">
+        <v>0.91749322922339205</v>
+      </c>
     </row>
     <row r="8" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -12056,6 +12068,9 @@
       <c r="DP8">
         <v>0.85948894263700704</v>
       </c>
+      <c r="DW8">
+        <v>0.814582373388405</v>
+      </c>
     </row>
     <row r="9" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -12157,6 +12172,9 @@
       <c r="DP9">
         <v>0.91203822396899004</v>
       </c>
+      <c r="DW9">
+        <v>0.93504721481194197</v>
+      </c>
     </row>
     <row r="10" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -12258,6 +12276,13 @@
       <c r="DP10">
         <v>0.67978144173007204</v>
       </c>
+      <c r="DW10">
+        <v>0.67674672747035103</v>
+      </c>
+      <c r="DX10">
+        <f>AVERAGE(DW5:DW16)</f>
+        <v>0.7868489978782196</v>
+      </c>
     </row>
     <row r="11" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -12359,6 +12384,9 @@
       <c r="DP11">
         <v>0.84573378741811001</v>
       </c>
+      <c r="DW11">
+        <v>0.79740902039192696</v>
+      </c>
     </row>
     <row r="12" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -12460,6 +12488,9 @@
       <c r="DP12">
         <v>0.89342484847572301</v>
       </c>
+      <c r="DW12">
+        <v>0.77624172076549602</v>
+      </c>
     </row>
     <row r="13" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -12565,6 +12596,9 @@
       <c r="DP13">
         <v>0.61297637562980301</v>
       </c>
+      <c r="DW13">
+        <v>0.647505856270438</v>
+      </c>
     </row>
     <row r="14" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -12666,6 +12700,9 @@
       <c r="DP14">
         <v>0.24174441492538401</v>
       </c>
+      <c r="DW14">
+        <v>0.77424602623222305</v>
+      </c>
     </row>
     <row r="15" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -12761,6 +12798,9 @@
       <c r="DP15">
         <v>0.81544948705027698</v>
       </c>
+      <c r="DW15">
+        <v>0.78165418634055694</v>
+      </c>
     </row>
     <row r="16" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -12855,6 +12895,9 @@
       </c>
       <c r="DP16">
         <v>0.50660840116143402</v>
+      </c>
+      <c r="DW16">
+        <v>0.52164528176547098</v>
       </c>
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.2">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="1160" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2999,11 +2999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="987543216"/>
-        <c:axId val="1199204144"/>
+        <c:axId val="1198903392"/>
+        <c:axId val="1198652432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="987543216"/>
+        <c:axId val="1198903392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1199204144"/>
+        <c:crossAx val="1198652432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3053,7 +3053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1199204144"/>
+        <c:axId val="1198652432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3073,6 +3073,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3103,7 +3104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987543216"/>
+        <c:crossAx val="1198903392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5808,11 +5809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1198614144"/>
-        <c:axId val="1162781040"/>
+        <c:axId val="1192205408"/>
+        <c:axId val="1192207184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1198614144"/>
+        <c:axId val="1192205408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5854,7 +5855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162781040"/>
+        <c:crossAx val="1192207184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5862,7 +5863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162781040"/>
+        <c:axId val="1192207184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198614144"/>
+        <c:crossAx val="1192205408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8618,11 +8619,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1199342928"/>
-        <c:axId val="1199345248"/>
+        <c:axId val="1157845648"/>
+        <c:axId val="1096907392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1199342928"/>
+        <c:axId val="1157845648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8664,7 +8665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1199345248"/>
+        <c:crossAx val="1096907392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8672,7 +8673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1199345248"/>
+        <c:axId val="1096907392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8723,7 +8724,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1199342928"/>
+        <c:crossAx val="1157845648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10477,15 +10478,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10538,12 +10539,12 @@
     <xdr:from>
       <xdr:col>79</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10832,8 +10833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EA1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="EO2" sqref="EO2"/>
+    <sheetView tabSelected="1" topLeftCell="DA1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="DT2" sqref="DT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11620,9 +11621,6 @@
       <c r="DB3">
         <v>0.93972289370239603</v>
       </c>
-      <c r="DI3">
-        <v>0.94888378097442105</v>
-      </c>
     </row>
     <row r="4" spans="1:146" x14ac:dyDescent="0.2">
       <c r="CG4">
@@ -11640,11 +11638,11 @@
       <c r="DB4">
         <v>0.76103457178347</v>
       </c>
-      <c r="DI4">
-        <v>0.81526411186815295</v>
-      </c>
       <c r="DP4">
         <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0.943396905827945</v>
       </c>
       <c r="ED4">
         <v>0.840124126380842</v>
@@ -11762,17 +11760,13 @@
         <v>0.93112830281722103</v>
       </c>
       <c r="DI5">
-        <v>0.94129142583928505</v>
-      </c>
-      <c r="DJ5">
-        <f>AVERAGE(DI3:DI14)</f>
-        <v>0.78156800969451756</v>
+        <v>0.94888378097442105</v>
       </c>
       <c r="DP5">
         <v>0.95472717442714194</v>
       </c>
       <c r="DW5">
-        <v>0.943396905827945</v>
+        <v>0.85621943205048701</v>
       </c>
       <c r="ED5">
         <v>0.85798634598786805</v>
@@ -11930,13 +11924,13 @@
         <v>0.88574049777248498</v>
       </c>
       <c r="DI6">
-        <v>0.85343773138027901</v>
+        <v>0.81526411186815295</v>
       </c>
       <c r="DP6">
         <v>0.83085067572085103</v>
       </c>
       <c r="DW6">
-        <v>0.85621943205048701</v>
+        <v>0.91749322922339205</v>
       </c>
       <c r="ED6">
         <v>0.91429548787535098</v>
@@ -12047,7 +12041,11 @@
         <v>0.92862415296451695</v>
       </c>
       <c r="DI7">
-        <v>0.923413939018916</v>
+        <v>0.94129142583928505</v>
+      </c>
+      <c r="DJ7">
+        <f>AVERAGE(DI5:DI16)</f>
+        <v>0.78156800969451756</v>
       </c>
       <c r="DP7">
         <v>0.93072949372316804</v>
@@ -12057,7 +12055,7 @@
         <v>0.75696277223899677</v>
       </c>
       <c r="DW7">
-        <v>0.91749322922339205</v>
+        <v>0.814582373388405</v>
       </c>
       <c r="ED7">
         <v>0.90253242668538303</v>
@@ -12172,13 +12170,13 @@
         <v>0.76364384642909011</v>
       </c>
       <c r="DI8">
-        <v>0.70215514627930098</v>
+        <v>0.85343773138027901</v>
       </c>
       <c r="DP8">
         <v>0.85948894263700704</v>
       </c>
       <c r="DW8">
-        <v>0.814582373388405</v>
+        <v>0.93504721481194197</v>
       </c>
       <c r="ED8">
         <v>0.95178549864267803</v>
@@ -12285,13 +12283,17 @@
         <v>0.79734512613854103</v>
       </c>
       <c r="DI9">
-        <v>0.863487205803802</v>
+        <v>0.923413939018916</v>
       </c>
       <c r="DP9">
         <v>0.91203822396899004</v>
       </c>
       <c r="DW9">
-        <v>0.93504721481194197</v>
+        <v>0.67674672747035103</v>
+      </c>
+      <c r="DX9">
+        <f>AVERAGE(DW4:DW15)</f>
+        <v>0.7868489978782196</v>
       </c>
       <c r="ED9">
         <v>0.71383817729398802</v>
@@ -12398,17 +12400,13 @@
         <v>0.872130971866378</v>
       </c>
       <c r="DI10">
-        <v>0.89147153010811597</v>
+        <v>0.70215514627930098</v>
       </c>
       <c r="DP10">
         <v>0.67978144173007204</v>
       </c>
       <c r="DW10">
-        <v>0.67674672747035103</v>
-      </c>
-      <c r="DX10">
-        <f>AVERAGE(DW5:DW16)</f>
-        <v>0.7868489978782196</v>
+        <v>0.79740902039192696</v>
       </c>
       <c r="ED10">
         <v>0.81200982130091004</v>
@@ -12519,13 +12517,13 @@
         <v>0.53167362045963895</v>
       </c>
       <c r="DI11">
-        <v>0.68045828692341703</v>
+        <v>0.863487205803802</v>
       </c>
       <c r="DP11">
         <v>0.84573378741811001</v>
       </c>
       <c r="DW11">
-        <v>0.79740902039192696</v>
+        <v>0.77624172076549602</v>
       </c>
       <c r="ED11">
         <v>0.81996041389921503</v>
@@ -12632,13 +12630,13 @@
         <v>0.62610923044085498</v>
       </c>
       <c r="DI12">
-        <v>0.52649089514327296</v>
+        <v>0.89147153010811597</v>
       </c>
       <c r="DP12">
         <v>0.89342484847572301</v>
       </c>
       <c r="DW12">
-        <v>0.77624172076549602</v>
+        <v>0.647505856270438</v>
       </c>
       <c r="ED12">
         <v>0.55070882180207303</v>
@@ -12753,13 +12751,13 @@
         <v>0.74903893717724301</v>
       </c>
       <c r="DI13">
-        <v>0.68749303042966503</v>
+        <v>0.68045828692341703</v>
       </c>
       <c r="DP13">
         <v>0.61297637562980301</v>
       </c>
       <c r="DW13">
-        <v>0.647505856270438</v>
+        <v>0.77424602623222305</v>
       </c>
       <c r="ED13">
         <v>0.72648169998487999</v>
@@ -12866,13 +12864,13 @@
         <v>0.49871417939352097</v>
       </c>
       <c r="DI14">
-        <v>0.54496903256558304</v>
+        <v>0.52649089514327296</v>
       </c>
       <c r="DP14">
         <v>0.24174441492538401</v>
       </c>
       <c r="DW14">
-        <v>0.77424602623222305</v>
+        <v>0.78165418634055694</v>
       </c>
       <c r="ED14">
         <v>0.46244911904254798</v>
@@ -12975,11 +12973,14 @@
       <c r="CU15">
         <v>0.79071226818406803</v>
       </c>
+      <c r="DI15">
+        <v>0.68749303042966503</v>
+      </c>
       <c r="DP15">
         <v>0.81544948705027698</v>
       </c>
       <c r="DW15">
-        <v>0.78165418634055694</v>
+        <v>0.52164528176547098</v>
       </c>
       <c r="ED15">
         <v>0.76194180016673996</v>
@@ -13082,11 +13083,11 @@
       <c r="CU16">
         <v>0.74189600318848503</v>
       </c>
+      <c r="DI16">
+        <v>0.54496903256558304</v>
+      </c>
       <c r="DP16">
         <v>0.50660840116143402</v>
-      </c>
-      <c r="DW16">
-        <v>0.52164528176547098</v>
       </c>
       <c r="EK16">
         <v>0.9591904</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="26">
   <si>
     <t>_0.975178</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>SAE expanded output (25) w/ regular LSTM</t>
+  </si>
+  <si>
+    <t>﻿0.941128</t>
+  </si>
+  <si>
+    <t>WLSTM w/ Closing Price</t>
+  </si>
+  <si>
+    <t>WLSTM without Closing Price</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2999,11 +3007,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1198903392"/>
-        <c:axId val="1198652432"/>
+        <c:axId val="1740090256"/>
+        <c:axId val="1740092032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1198903392"/>
+        <c:axId val="1740090256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198652432"/>
+        <c:crossAx val="1740092032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3053,7 +3061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1198652432"/>
+        <c:axId val="1740092032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1198903392"/>
+        <c:crossAx val="1740090256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3118,7 +3126,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3200,7 +3207,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5809,11 +5815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1192205408"/>
-        <c:axId val="1192207184"/>
+        <c:axId val="1738990576"/>
+        <c:axId val="1740783952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1192205408"/>
+        <c:axId val="1738990576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5855,7 +5861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1192207184"/>
+        <c:crossAx val="1740783952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5863,7 +5869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1192207184"/>
+        <c:axId val="1740783952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,7 +5920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1192205408"/>
+        <c:crossAx val="1738990576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5928,7 +5934,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6010,7 +6015,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8619,11 +8623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1157845648"/>
-        <c:axId val="1096907392"/>
+        <c:axId val="1568257680"/>
+        <c:axId val="1734791456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1157845648"/>
+        <c:axId val="1568257680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8665,7 +8669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1096907392"/>
+        <c:crossAx val="1734791456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8673,7 +8677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1096907392"/>
+        <c:axId val="1734791456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8724,7 +8728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1157845648"/>
+        <c:crossAx val="1568257680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8738,7 +8742,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10831,10 +10834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EP422"/>
+  <dimension ref="A1:FD422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DA1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="DT2" sqref="DT2"/>
+    <sheetView tabSelected="1" topLeftCell="EK1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="FC2" sqref="FC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10852,7 +10855,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11231,8 +11234,44 @@
       <c r="EP1" t="s">
         <v>9</v>
       </c>
+      <c r="ER1" t="s">
+        <v>3</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>4</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>6</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>7</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>4</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>5</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>6</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>7</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11611,8 +11650,44 @@
       <c r="EP2">
         <v>90</v>
       </c>
+      <c r="ER2">
+        <v>100</v>
+      </c>
+      <c r="ES2">
+        <v>60</v>
+      </c>
+      <c r="ET2">
+        <v>5</v>
+      </c>
+      <c r="EU2">
+        <v>200</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>24</v>
+      </c>
+      <c r="EW2">
+        <v>90</v>
+      </c>
+      <c r="EY2">
+        <v>100</v>
+      </c>
+      <c r="EZ2">
+        <v>60</v>
+      </c>
+      <c r="FA2">
+        <v>5</v>
+      </c>
+      <c r="FB2">
+        <v>200</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FD2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:160" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="CN3" t="s">
@@ -11622,7 +11697,7 @@
         <v>0.93972289370239603</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:160" x14ac:dyDescent="0.2">
       <c r="CG4">
         <v>0</v>
       </c>
@@ -11647,8 +11722,20 @@
       <c r="ED4">
         <v>0.840124126380842</v>
       </c>
+      <c r="ER4">
+        <v>0</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>14</v>
+      </c>
+      <c r="EY4">
+        <v>0</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11774,8 +11861,28 @@
       <c r="EK5">
         <v>0</v>
       </c>
+      <c r="ER5">
+        <v>0.92858879999999999</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>23</v>
+      </c>
+      <c r="ET5">
+        <f>CORREL(ER5:ER402,ES5:ES402)</f>
+        <v>0.87809784724729245</v>
+      </c>
+      <c r="EY5">
+        <v>0.92536026000000005</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>23</v>
+      </c>
+      <c r="FA5">
+        <f>CORREL(EY5:EY402,EZ5:EZ402)</f>
+        <v>0.45242534949379049</v>
+      </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -11941,8 +12048,20 @@
       <c r="EL6" t="s">
         <v>1</v>
       </c>
+      <c r="ER6">
+        <v>0.92961024999999997</v>
+      </c>
+      <c r="ES6">
+        <v>0.92145299999999997</v>
+      </c>
+      <c r="EY6">
+        <v>0.922763</v>
+      </c>
+      <c r="EZ6">
+        <v>0.92145299999999997</v>
+      </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -12066,8 +12185,20 @@
       <c r="EL7">
         <v>0.96900399999999998</v>
       </c>
+      <c r="ER7">
+        <v>0.93055650000000001</v>
+      </c>
+      <c r="ES7">
+        <v>0.92685099999999998</v>
+      </c>
+      <c r="EY7">
+        <v>0.91978610000000005</v>
+      </c>
+      <c r="EZ7">
+        <v>0.92685099999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -12187,8 +12318,20 @@
       <c r="EL8">
         <v>0.984456</v>
       </c>
+      <c r="ER8">
+        <v>0.93080854000000002</v>
+      </c>
+      <c r="ES8">
+        <v>0.90354900000000005</v>
+      </c>
+      <c r="EY8">
+        <v>0.91564893999999997</v>
+      </c>
+      <c r="EZ8">
+        <v>0.90354900000000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -12304,8 +12447,20 @@
       <c r="EL9">
         <v>0.98441299999999998</v>
       </c>
+      <c r="ER9">
+        <v>0.92875220000000003</v>
+      </c>
+      <c r="ES9">
+        <v>0.90095899999999995</v>
+      </c>
+      <c r="EY9">
+        <v>0.90716845000000002</v>
+      </c>
+      <c r="EZ9">
+        <v>0.90095899999999995</v>
+      </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -12421,8 +12576,20 @@
         <f>CORREL(EK6:EK421,EL6:EL421)</f>
         <v>0.89604554922614321</v>
       </c>
+      <c r="ER10">
+        <v>0.92417276000000004</v>
+      </c>
+      <c r="ES10">
+        <v>0.91794500000000001</v>
+      </c>
+      <c r="EY10">
+        <v>0.88994026000000004</v>
+      </c>
+      <c r="EZ10">
+        <v>0.91794500000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -12534,8 +12701,20 @@
       <c r="EL11">
         <v>1.00454</v>
       </c>
+      <c r="ER11">
+        <v>0.91837734000000004</v>
+      </c>
+      <c r="ES11">
+        <v>0.90965399999999996</v>
+      </c>
+      <c r="EY11">
+        <v>0.86230682999999997</v>
+      </c>
+      <c r="EZ11">
+        <v>0.90965399999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -12651,8 +12830,20 @@
       <c r="EL12">
         <v>1.00691</v>
       </c>
+      <c r="ER12">
+        <v>0.91275980000000001</v>
+      </c>
+      <c r="ES12">
+        <v>0.92801400000000001</v>
+      </c>
+      <c r="EY12">
+        <v>0.79291040000000002</v>
+      </c>
+      <c r="EZ12">
+        <v>0.92801400000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -12768,8 +12959,20 @@
       <c r="EL13">
         <v>1.00644</v>
       </c>
+      <c r="ER13">
+        <v>0.90921205000000005</v>
+      </c>
+      <c r="ES13">
+        <v>0.92344800000000005</v>
+      </c>
+      <c r="EY13">
+        <v>0.66818860000000002</v>
+      </c>
+      <c r="EZ13">
+        <v>0.92344800000000005</v>
+      </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -12881,8 +13084,20 @@
       <c r="EL14">
         <v>1.0048699999999999</v>
       </c>
+      <c r="ER14">
+        <v>0.90778099999999995</v>
+      </c>
+      <c r="ES14">
+        <v>0.94011</v>
+      </c>
+      <c r="EY14">
+        <v>0.56696915999999997</v>
+      </c>
+      <c r="EZ14">
+        <v>0.94011</v>
+      </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -12991,8 +13206,20 @@
       <c r="EL15">
         <v>1.0139499999999999</v>
       </c>
+      <c r="ER15">
+        <v>0.90836510000000004</v>
+      </c>
+      <c r="ES15">
+        <v>0.93335199999999996</v>
+      </c>
+      <c r="EY15">
+        <v>0.53461139999999996</v>
+      </c>
+      <c r="EZ15">
+        <v>0.93335199999999996</v>
+      </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -13095,8 +13322,20 @@
       <c r="EL16">
         <v>1.0135000000000001</v>
       </c>
+      <c r="ER16">
+        <v>0.90966069999999999</v>
+      </c>
+      <c r="ES16">
+        <v>0.94579199999999997</v>
+      </c>
+      <c r="EY16">
+        <v>0.48706642</v>
+      </c>
+      <c r="EZ16">
+        <v>0.94579199999999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.97823757</v>
       </c>
@@ -13187,8 +13426,20 @@
       <c r="EL17">
         <v>1.01762</v>
       </c>
+      <c r="ER17">
+        <v>0.91165805</v>
+      </c>
+      <c r="ES17">
+        <v>0.94336100000000001</v>
+      </c>
+      <c r="EY17">
+        <v>0.48015730000000001</v>
+      </c>
+      <c r="EZ17">
+        <v>0.94336100000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.97857236999999997</v>
       </c>
@@ -13279,8 +13530,20 @@
       <c r="EL18">
         <v>1.01647</v>
       </c>
+      <c r="ER18">
+        <v>0.91417146000000005</v>
+      </c>
+      <c r="ES18">
+        <v>0.93482500000000002</v>
+      </c>
+      <c r="EY18">
+        <v>0.48503995</v>
+      </c>
+      <c r="EZ18">
+        <v>0.93482500000000002</v>
+      </c>
     </row>
-    <row r="19" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.97901819999999995</v>
       </c>
@@ -13371,8 +13634,20 @@
       <c r="EL19">
         <v>1.0142599999999999</v>
       </c>
+      <c r="ER19">
+        <v>0.91646380000000005</v>
+      </c>
+      <c r="ES19">
+        <v>0.91470799999999997</v>
+      </c>
+      <c r="EY19">
+        <v>0.49124134000000003</v>
+      </c>
+      <c r="EZ19">
+        <v>0.91470799999999997</v>
+      </c>
     </row>
-    <row r="20" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.97968084</v>
       </c>
@@ -13463,8 +13738,20 @@
       <c r="EL20">
         <v>1.0098499999999999</v>
       </c>
+      <c r="ER20">
+        <v>0.91749656000000002</v>
+      </c>
+      <c r="ES20">
+        <v>0.91147100000000003</v>
+      </c>
+      <c r="EY20">
+        <v>0.49829093000000002</v>
+      </c>
+      <c r="EZ20">
+        <v>0.91147100000000003</v>
+      </c>
     </row>
-    <row r="21" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98058440000000002</v>
       </c>
@@ -13555,8 +13842,20 @@
       <c r="EL21">
         <v>1.0189699999999999</v>
       </c>
+      <c r="ER21">
+        <v>0.91666709999999996</v>
+      </c>
+      <c r="ES21">
+        <v>0.91468799999999995</v>
+      </c>
+      <c r="EY21">
+        <v>0.5051776</v>
+      </c>
+      <c r="EZ21">
+        <v>0.91468799999999995</v>
+      </c>
     </row>
-    <row r="22" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98153466</v>
       </c>
@@ -13647,8 +13946,20 @@
       <c r="EL22">
         <v>1.01217</v>
       </c>
+      <c r="ER22">
+        <v>0.91470890000000005</v>
+      </c>
+      <c r="ES22">
+        <v>0.93135000000000001</v>
+      </c>
+      <c r="EY22">
+        <v>0.52006704000000004</v>
+      </c>
+      <c r="EZ22">
+        <v>0.93135000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98224412999999999</v>
       </c>
@@ -13739,8 +14050,20 @@
       <c r="EL23">
         <v>1.00563</v>
       </c>
+      <c r="ER23">
+        <v>0.91301876000000004</v>
+      </c>
+      <c r="ES23">
+        <v>0.91922700000000002</v>
+      </c>
+      <c r="EY23">
+        <v>0.5404542</v>
+      </c>
+      <c r="EZ23">
+        <v>0.91922700000000002</v>
+      </c>
     </row>
-    <row r="24" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98255320000000002</v>
       </c>
@@ -13831,8 +14154,20 @@
       <c r="EL24">
         <v>1.0074000000000001</v>
       </c>
+      <c r="ER24">
+        <v>0.91181767000000002</v>
+      </c>
+      <c r="ES24">
+        <v>0.91380899999999998</v>
+      </c>
+      <c r="EY24">
+        <v>0.64400950000000001</v>
+      </c>
+      <c r="EZ24">
+        <v>0.91380899999999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98284079999999996</v>
       </c>
@@ -13923,8 +14258,20 @@
       <c r="EL25">
         <v>0.986344</v>
       </c>
+      <c r="ER25">
+        <v>0.91090786000000001</v>
+      </c>
+      <c r="ES25">
+        <v>0.91861199999999998</v>
+      </c>
+      <c r="EY25">
+        <v>0.80105700000000002</v>
+      </c>
+      <c r="EZ25">
+        <v>0.91861199999999998</v>
+      </c>
     </row>
-    <row r="26" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98285610000000001</v>
       </c>
@@ -14015,8 +14362,20 @@
       <c r="EL26">
         <v>0.99212199999999995</v>
       </c>
+      <c r="ER26">
+        <v>0.91083610000000004</v>
+      </c>
+      <c r="ES26">
+        <v>0.92763700000000004</v>
+      </c>
+      <c r="EY26">
+        <v>0.75805690000000003</v>
+      </c>
+      <c r="EZ26">
+        <v>0.92763700000000004</v>
+      </c>
     </row>
-    <row r="27" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98284786999999996</v>
       </c>
@@ -14107,8 +14466,20 @@
       <c r="EL27">
         <v>0.96717900000000001</v>
       </c>
+      <c r="ER27">
+        <v>0.91173625000000003</v>
+      </c>
+      <c r="ES27">
+        <v>0.92480300000000004</v>
+      </c>
+      <c r="EY27">
+        <v>0.61049880000000001</v>
+      </c>
+      <c r="EZ27">
+        <v>0.92480300000000004</v>
+      </c>
     </row>
-    <row r="28" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98268955999999996</v>
       </c>
@@ -14199,8 +14570,20 @@
       <c r="EL28">
         <v>0.96440700000000001</v>
       </c>
+      <c r="ER28">
+        <v>0.91338399999999997</v>
+      </c>
+      <c r="ES28">
+        <v>0.92848299999999995</v>
+      </c>
+      <c r="EY28">
+        <v>0.52358084999999999</v>
+      </c>
+      <c r="EZ28">
+        <v>0.92848299999999995</v>
+      </c>
     </row>
-    <row r="29" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98256449999999995</v>
       </c>
@@ -14291,8 +14674,20 @@
       <c r="EL29">
         <v>0.98258900000000005</v>
       </c>
+      <c r="ER29">
+        <v>0.91573850000000001</v>
+      </c>
+      <c r="ES29">
+        <v>0.93461399999999994</v>
+      </c>
+      <c r="EY29">
+        <v>0.50299769999999999</v>
+      </c>
+      <c r="EZ29">
+        <v>0.93461399999999994</v>
+      </c>
     </row>
-    <row r="30" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98294619999999999</v>
       </c>
@@ -14383,8 +14778,20 @@
       <c r="EL30">
         <v>0.97371399999999997</v>
       </c>
+      <c r="ER30">
+        <v>0.91863965999999997</v>
+      </c>
+      <c r="ES30">
+        <v>0.94180200000000003</v>
+      </c>
+      <c r="EY30">
+        <v>0.49555359999999998</v>
+      </c>
+      <c r="EZ30">
+        <v>0.94180200000000003</v>
+      </c>
     </row>
-    <row r="31" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98345654999999998</v>
       </c>
@@ -14475,8 +14882,20 @@
       <c r="EL31">
         <v>0.993367</v>
       </c>
+      <c r="ER31">
+        <v>0.92272019999999999</v>
+      </c>
+      <c r="ES31">
+        <v>0.93544000000000005</v>
+      </c>
+      <c r="EY31">
+        <v>0.49284285</v>
+      </c>
+      <c r="EZ31">
+        <v>0.93544000000000005</v>
+      </c>
     </row>
-    <row r="32" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98399853999999998</v>
       </c>
@@ -14567,8 +14986,20 @@
       <c r="EL32">
         <v>0.98848000000000003</v>
       </c>
+      <c r="ER32">
+        <v>0.92698150000000001</v>
+      </c>
+      <c r="ES32">
+        <v>0.93769199999999997</v>
+      </c>
+      <c r="EY32">
+        <v>0.49068000000000001</v>
+      </c>
+      <c r="EZ32">
+        <v>0.93769199999999997</v>
+      </c>
     </row>
-    <row r="33" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98438859999999995</v>
       </c>
@@ -14659,8 +15090,20 @@
       <c r="EL33">
         <v>1.0063200000000001</v>
       </c>
+      <c r="ER33">
+        <v>0.93092710000000001</v>
+      </c>
+      <c r="ES33">
+        <v>0.94482100000000002</v>
+      </c>
+      <c r="EY33">
+        <v>0.49185250000000003</v>
+      </c>
+      <c r="EZ33">
+        <v>0.94482100000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98442929999999995</v>
       </c>
@@ -14751,8 +15194,20 @@
       <c r="EL34">
         <v>0.999081</v>
       </c>
+      <c r="ER34">
+        <v>0.93466360000000004</v>
+      </c>
+      <c r="ES34">
+        <v>0.94373799999999997</v>
+      </c>
+      <c r="EY34">
+        <v>0.4959905</v>
+      </c>
+      <c r="EZ34">
+        <v>0.94373799999999997</v>
+      </c>
     </row>
-    <row r="35" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98425054999999995</v>
       </c>
@@ -14843,8 +15298,20 @@
       <c r="EL35">
         <v>1.0124</v>
       </c>
+      <c r="ER35">
+        <v>0.93742539999999996</v>
+      </c>
+      <c r="ES35">
+        <v>0.92800700000000003</v>
+      </c>
+      <c r="EY35">
+        <v>0.5006929</v>
+      </c>
+      <c r="EZ35">
+        <v>0.92800700000000003</v>
+      </c>
     </row>
-    <row r="36" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98417069999999995</v>
       </c>
@@ -14935,8 +15402,20 @@
       <c r="EL36">
         <v>1.00979</v>
       </c>
+      <c r="ER36">
+        <v>0.93828690000000003</v>
+      </c>
+      <c r="ES36">
+        <v>0.94070500000000001</v>
+      </c>
+      <c r="EY36">
+        <v>0.50565360000000004</v>
+      </c>
+      <c r="EZ36">
+        <v>0.94070500000000001</v>
+      </c>
     </row>
-    <row r="37" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98401810000000001</v>
       </c>
@@ -15027,8 +15506,20 @@
       <c r="EL37">
         <v>1.0006600000000001</v>
       </c>
+      <c r="ER37">
+        <v>0.93719934999999999</v>
+      </c>
+      <c r="ES37">
+        <v>0.93864999999999998</v>
+      </c>
+      <c r="EY37">
+        <v>0.50986330000000002</v>
+      </c>
+      <c r="EZ37">
+        <v>0.93864999999999998</v>
+      </c>
     </row>
-    <row r="38" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98382769999999997</v>
       </c>
@@ -15119,8 +15610,20 @@
       <c r="EL38">
         <v>0.97912399999999999</v>
       </c>
+      <c r="ER38">
+        <v>0.9348535</v>
+      </c>
+      <c r="ES38">
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="EY38">
+        <v>0.51288540000000005</v>
+      </c>
+      <c r="EZ38">
+        <v>0.94569999999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98361200000000004</v>
       </c>
@@ -15211,8 +15714,20 @@
       <c r="EL39">
         <v>0.97565800000000003</v>
       </c>
+      <c r="ER39">
+        <v>0.93215643999999998</v>
+      </c>
+      <c r="ES39">
+        <v>0.94898300000000002</v>
+      </c>
+      <c r="EY39">
+        <v>0.51462465999999996</v>
+      </c>
+      <c r="EZ39">
+        <v>0.94898300000000002</v>
+      </c>
     </row>
-    <row r="40" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98328775000000002</v>
       </c>
@@ -15303,8 +15818,20 @@
       <c r="EL40">
         <v>0.97910200000000003</v>
       </c>
+      <c r="ER40">
+        <v>0.93041280000000004</v>
+      </c>
+      <c r="ES40">
+        <v>0.95212799999999997</v>
+      </c>
+      <c r="EY40">
+        <v>0.5155573</v>
+      </c>
+      <c r="EZ40">
+        <v>0.95212799999999997</v>
+      </c>
     </row>
-    <row r="41" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98314743999999998</v>
       </c>
@@ -15395,8 +15922,20 @@
       <c r="EL41">
         <v>0.99693799999999999</v>
       </c>
+      <c r="ER41">
+        <v>0.92948735000000005</v>
+      </c>
+      <c r="ES41">
+        <v>0.94633400000000001</v>
+      </c>
+      <c r="EY41">
+        <v>0.51570090000000002</v>
+      </c>
+      <c r="EZ41">
+        <v>0.94633400000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98334580000000005</v>
       </c>
@@ -15487,8 +16026,20 @@
       <c r="EL42">
         <v>0.98396099999999997</v>
       </c>
+      <c r="ER42">
+        <v>0.92889980000000005</v>
+      </c>
+      <c r="ES42">
+        <v>0.95019200000000004</v>
+      </c>
+      <c r="EY42">
+        <v>0.51525056000000002</v>
+      </c>
+      <c r="EZ42">
+        <v>0.95019200000000004</v>
+      </c>
     </row>
-    <row r="43" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98371410000000004</v>
       </c>
@@ -15579,8 +16130,20 @@
       <c r="EL43">
         <v>0.97816199999999998</v>
       </c>
+      <c r="ER43">
+        <v>0.92904850000000005</v>
+      </c>
+      <c r="ES43">
+        <v>0.94496599999999997</v>
+      </c>
+      <c r="EY43">
+        <v>0.51453894</v>
+      </c>
+      <c r="EZ43">
+        <v>0.94496599999999997</v>
+      </c>
     </row>
-    <row r="44" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98371017000000005</v>
       </c>
@@ -15671,8 +16234,20 @@
       <c r="EL44">
         <v>0.98330300000000004</v>
       </c>
+      <c r="ER44">
+        <v>0.93031140000000001</v>
+      </c>
+      <c r="ES44">
+        <v>0.93086800000000003</v>
+      </c>
+      <c r="EY44">
+        <v>0.51373619999999998</v>
+      </c>
+      <c r="EZ44">
+        <v>0.93086800000000003</v>
+      </c>
     </row>
-    <row r="45" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.98339765999999995</v>
       </c>
@@ -15763,8 +16338,20 @@
       <c r="EL45">
         <v>0.99296300000000004</v>
       </c>
+      <c r="ER45">
+        <v>0.93185110000000004</v>
+      </c>
+      <c r="ES45">
+        <v>0.94591800000000004</v>
+      </c>
+      <c r="EY45">
+        <v>0.51335929999999996</v>
+      </c>
+      <c r="EZ45">
+        <v>0.94591800000000004</v>
+      </c>
     </row>
-    <row r="46" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98303289999999999</v>
       </c>
@@ -15855,8 +16442,20 @@
       <c r="EL46">
         <v>0.98992999999999998</v>
       </c>
+      <c r="ER46">
+        <v>0.93326679999999995</v>
+      </c>
+      <c r="ES46">
+        <v>0.95001400000000003</v>
+      </c>
+      <c r="EY46">
+        <v>0.51368550000000002</v>
+      </c>
+      <c r="EZ46">
+        <v>0.95001400000000003</v>
+      </c>
     </row>
-    <row r="47" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98286753999999998</v>
       </c>
@@ -15947,8 +16546,20 @@
       <c r="EL47">
         <v>0.993869</v>
       </c>
+      <c r="ER47">
+        <v>0.93426584999999995</v>
+      </c>
+      <c r="ES47">
+        <v>0.933477</v>
+      </c>
+      <c r="EY47">
+        <v>0.51432809999999995</v>
+      </c>
+      <c r="EZ47">
+        <v>0.933477</v>
+      </c>
     </row>
-    <row r="48" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98300432999999998</v>
       </c>
@@ -16039,8 +16650,20 @@
       <c r="EL48">
         <v>1.0004299999999999</v>
       </c>
+      <c r="ER48">
+        <v>0.93472314000000001</v>
+      </c>
+      <c r="ES48">
+        <v>0.92732700000000001</v>
+      </c>
+      <c r="EY48">
+        <v>0.51504179999999999</v>
+      </c>
+      <c r="EZ48">
+        <v>0.92732700000000001</v>
+      </c>
     </row>
-    <row r="49" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.9832651</v>
       </c>
@@ -16131,8 +16754,20 @@
       <c r="EL49">
         <v>1.00813</v>
       </c>
+      <c r="ER49">
+        <v>0.93454689999999996</v>
+      </c>
+      <c r="ES49">
+        <v>0.93251300000000004</v>
+      </c>
+      <c r="EY49">
+        <v>0.51579249999999999</v>
+      </c>
+      <c r="EZ49">
+        <v>0.93251300000000004</v>
+      </c>
     </row>
-    <row r="50" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98372643999999998</v>
       </c>
@@ -16223,8 +16858,20 @@
       <c r="EL50">
         <v>1.00132</v>
       </c>
+      <c r="ER50">
+        <v>0.93381340000000002</v>
+      </c>
+      <c r="ES50">
+        <v>0.95107799999999998</v>
+      </c>
+      <c r="EY50">
+        <v>0.51650079999999998</v>
+      </c>
+      <c r="EZ50">
+        <v>0.95107799999999998</v>
+      </c>
     </row>
-    <row r="51" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98432560000000002</v>
       </c>
@@ -16315,8 +16962,20 @@
       <c r="EL51">
         <v>1.00373</v>
       </c>
+      <c r="ER51">
+        <v>0.93313104000000002</v>
+      </c>
+      <c r="ES51">
+        <v>0.94396199999999997</v>
+      </c>
+      <c r="EY51">
+        <v>0.51719139999999997</v>
+      </c>
+      <c r="EZ51">
+        <v>0.94396199999999997</v>
+      </c>
     </row>
-    <row r="52" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98475860000000004</v>
       </c>
@@ -16407,8 +17066,20 @@
       <c r="EL52">
         <v>1.01136</v>
       </c>
+      <c r="ER52">
+        <v>0.93265629999999999</v>
+      </c>
+      <c r="ES52">
+        <v>0.939859</v>
+      </c>
+      <c r="EY52">
+        <v>0.51777415999999998</v>
+      </c>
+      <c r="EZ52">
+        <v>0.939859</v>
+      </c>
     </row>
-    <row r="53" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.98492480000000004</v>
       </c>
@@ -16499,8 +17170,20 @@
       <c r="EL53">
         <v>1.0102</v>
       </c>
+      <c r="ER53">
+        <v>0.93207556000000003</v>
+      </c>
+      <c r="ES53">
+        <v>0.93943699999999997</v>
+      </c>
+      <c r="EY53">
+        <v>0.51809300000000003</v>
+      </c>
+      <c r="EZ53">
+        <v>0.93943699999999997</v>
+      </c>
     </row>
-    <row r="54" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98489547</v>
       </c>
@@ -16591,8 +17274,20 @@
       <c r="EL54">
         <v>0.99335899999999999</v>
       </c>
+      <c r="ER54">
+        <v>0.93104993999999996</v>
+      </c>
+      <c r="ES54">
+        <v>0.95438100000000003</v>
+      </c>
+      <c r="EY54">
+        <v>0.51794744000000004</v>
+      </c>
+      <c r="EZ54">
+        <v>0.95438100000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98475820000000003</v>
       </c>
@@ -16683,8 +17378,20 @@
       <c r="EL55">
         <v>1.00695</v>
       </c>
+      <c r="ER55">
+        <v>0.9299615</v>
+      </c>
+      <c r="ES55">
+        <v>0.95545800000000003</v>
+      </c>
+      <c r="EY55">
+        <v>0.51728826999999999</v>
+      </c>
+      <c r="EZ55">
+        <v>0.95545800000000003</v>
+      </c>
     </row>
-    <row r="56" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.98481363</v>
       </c>
@@ -16775,8 +17482,20 @@
       <c r="EL56">
         <v>1.00475</v>
       </c>
+      <c r="ER56">
+        <v>0.92972045999999997</v>
+      </c>
+      <c r="ES56">
+        <v>0.95973200000000003</v>
+      </c>
+      <c r="EY56">
+        <v>0.5163179</v>
+      </c>
+      <c r="EZ56">
+        <v>0.95973200000000003</v>
+      </c>
     </row>
-    <row r="57" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.9850875</v>
       </c>
@@ -16867,8 +17586,20 @@
       <c r="EL57">
         <v>1.0123</v>
       </c>
+      <c r="ER57">
+        <v>0.93095749999999999</v>
+      </c>
+      <c r="ES57">
+        <v>0.95882699999999998</v>
+      </c>
+      <c r="EY57">
+        <v>0.51532849999999997</v>
+      </c>
+      <c r="EZ57">
+        <v>0.95882699999999998</v>
+      </c>
     </row>
-    <row r="58" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98536449999999998</v>
       </c>
@@ -16959,8 +17690,20 @@
       <c r="EL58">
         <v>1.0158100000000001</v>
       </c>
+      <c r="ER58">
+        <v>0.93311469999999996</v>
+      </c>
+      <c r="ES58">
+        <v>0.95751900000000001</v>
+      </c>
+      <c r="EY58">
+        <v>0.51441079999999995</v>
+      </c>
+      <c r="EZ58">
+        <v>0.95751900000000001</v>
+      </c>
     </row>
-    <row r="59" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98559750000000002</v>
       </c>
@@ -17051,8 +17794,20 @@
       <c r="EL59">
         <v>1.01918</v>
       </c>
+      <c r="ER59">
+        <v>0.93547665999999996</v>
+      </c>
+      <c r="ES59">
+        <v>0.96080299999999996</v>
+      </c>
+      <c r="EY59">
+        <v>0.51359829999999995</v>
+      </c>
+      <c r="EZ59">
+        <v>0.96080299999999996</v>
+      </c>
     </row>
-    <row r="60" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.9857051</v>
       </c>
@@ -17143,8 +17898,20 @@
       <c r="EL60">
         <v>1.01298</v>
       </c>
+      <c r="ER60">
+        <v>0.93826659999999995</v>
+      </c>
+      <c r="ES60">
+        <v>0.95765800000000001</v>
+      </c>
+      <c r="EY60">
+        <v>0.51313180000000003</v>
+      </c>
+      <c r="EZ60">
+        <v>0.95765800000000001</v>
+      </c>
     </row>
-    <row r="61" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98565130000000001</v>
       </c>
@@ -17235,8 +18002,20 @@
       <c r="EL61">
         <v>1.01711</v>
       </c>
+      <c r="ER61">
+        <v>0.94081574999999995</v>
+      </c>
+      <c r="ES61">
+        <v>0.94321600000000005</v>
+      </c>
+      <c r="EY61">
+        <v>0.51298560000000004</v>
+      </c>
+      <c r="EZ61">
+        <v>0.94321600000000005</v>
+      </c>
     </row>
-    <row r="62" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98549973999999996</v>
       </c>
@@ -17327,8 +18106,20 @@
       <c r="EL62">
         <v>1.0115099999999999</v>
       </c>
+      <c r="ER62">
+        <v>0.94217479999999998</v>
+      </c>
+      <c r="ES62">
+        <v>0.95595300000000005</v>
+      </c>
+      <c r="EY62">
+        <v>0.5128125</v>
+      </c>
+      <c r="EZ62">
+        <v>0.95595300000000005</v>
+      </c>
     </row>
-    <row r="63" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98522779999999999</v>
       </c>
@@ -17419,8 +18210,20 @@
       <c r="EL63">
         <v>0.99642200000000003</v>
       </c>
+      <c r="ER63">
+        <v>0.94246379999999996</v>
+      </c>
+      <c r="ES63">
+        <v>0.95417600000000002</v>
+      </c>
+      <c r="EY63">
+        <v>0.51248466999999998</v>
+      </c>
+      <c r="EZ63">
+        <v>0.95417600000000002</v>
+      </c>
     </row>
-    <row r="64" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98444646999999996</v>
       </c>
@@ -17511,8 +18314,20 @@
       <c r="EL64">
         <v>1.0125299999999999</v>
       </c>
+      <c r="ER64">
+        <v>0.94200910000000004</v>
+      </c>
+      <c r="ES64">
+        <v>0.94532300000000002</v>
+      </c>
+      <c r="EY64">
+        <v>0.51188959999999994</v>
+      </c>
+      <c r="EZ64">
+        <v>0.94532300000000002</v>
+      </c>
     </row>
-    <row r="65" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98378679999999996</v>
       </c>
@@ -17603,8 +18418,20 @@
       <c r="EL65">
         <v>1.01692</v>
       </c>
+      <c r="ER65">
+        <v>0.94030740000000002</v>
+      </c>
+      <c r="ES65">
+        <v>0.94818999999999998</v>
+      </c>
+      <c r="EY65">
+        <v>0.51064783000000002</v>
+      </c>
+      <c r="EZ65">
+        <v>0.94818999999999998</v>
+      </c>
     </row>
-    <row r="66" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98387910000000001</v>
       </c>
@@ -17695,8 +18522,20 @@
       <c r="EL66">
         <v>0.99921499999999996</v>
       </c>
+      <c r="ER66">
+        <v>0.93802684999999997</v>
+      </c>
+      <c r="ES66">
+        <v>0.94678300000000004</v>
+      </c>
+      <c r="EY66">
+        <v>0.50876635000000003</v>
+      </c>
+      <c r="EZ66">
+        <v>0.94678300000000004</v>
+      </c>
     </row>
-    <row r="67" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98397403999999999</v>
       </c>
@@ -17787,8 +18626,20 @@
       <c r="EL67">
         <v>0.99263100000000004</v>
       </c>
+      <c r="ER67">
+        <v>0.93591285000000002</v>
+      </c>
+      <c r="ES67">
+        <v>0.94973600000000002</v>
+      </c>
+      <c r="EY67">
+        <v>0.50631680000000001</v>
+      </c>
+      <c r="EZ67">
+        <v>0.94973600000000002</v>
+      </c>
     </row>
-    <row r="68" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.98311510000000002</v>
       </c>
@@ -17879,8 +18730,20 @@
       <c r="EL68">
         <v>0.99818300000000004</v>
       </c>
+      <c r="ER68">
+        <v>0.93482299999999996</v>
+      </c>
+      <c r="ES68">
+        <v>0.93769199999999997</v>
+      </c>
+      <c r="EY68">
+        <v>0.50364184000000001</v>
+      </c>
+      <c r="EZ68">
+        <v>0.93769199999999997</v>
+      </c>
     </row>
-    <row r="69" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98196923999999997</v>
       </c>
@@ -17971,8 +18834,20 @@
       <c r="EL69">
         <v>1.0180499999999999</v>
       </c>
+      <c r="ER69">
+        <v>0.93489710000000004</v>
+      </c>
+      <c r="ES69">
+        <v>0.93570399999999998</v>
+      </c>
+      <c r="EY69">
+        <v>0.50107515000000002</v>
+      </c>
+      <c r="EZ69">
+        <v>0.93570399999999998</v>
+      </c>
     </row>
-    <row r="70" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98182570000000002</v>
       </c>
@@ -18063,8 +18938,20 @@
       <c r="EL70">
         <v>1.01044</v>
       </c>
+      <c r="ER70">
+        <v>0.93519260000000004</v>
+      </c>
+      <c r="ES70">
+        <v>0.92675200000000002</v>
+      </c>
+      <c r="EY70">
+        <v>0.49867729999999999</v>
+      </c>
+      <c r="EZ70">
+        <v>0.92675200000000002</v>
+      </c>
     </row>
-    <row r="71" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98213433999999999</v>
       </c>
@@ -18155,8 +19042,20 @@
       <c r="EL71">
         <v>1.0060500000000001</v>
       </c>
+      <c r="ER71">
+        <v>0.93443834999999997</v>
+      </c>
+      <c r="ES71">
+        <v>0.92732700000000001</v>
+      </c>
+      <c r="EY71">
+        <v>0.49632862</v>
+      </c>
+      <c r="EZ71">
+        <v>0.92732700000000001</v>
+      </c>
     </row>
-    <row r="72" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.9820468</v>
       </c>
@@ -18247,8 +19146,20 @@
       <c r="EL72">
         <v>1.00559</v>
       </c>
+      <c r="ER72">
+        <v>0.93286216</v>
+      </c>
+      <c r="ES72">
+        <v>0.94387600000000005</v>
+      </c>
+      <c r="EY72">
+        <v>0.49408075000000001</v>
+      </c>
+      <c r="EZ72">
+        <v>0.94387600000000005</v>
+      </c>
     </row>
-    <row r="73" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98158659999999998</v>
       </c>
@@ -18339,8 +19250,20 @@
       <c r="EL73">
         <v>1.02159</v>
       </c>
+      <c r="ER73">
+        <v>0.93189703999999995</v>
+      </c>
+      <c r="ES73">
+        <v>0.94629399999999997</v>
+      </c>
+      <c r="EY73">
+        <v>0.49215295999999997</v>
+      </c>
+      <c r="EZ73">
+        <v>0.94629399999999997</v>
+      </c>
     </row>
-    <row r="74" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98121685000000003</v>
       </c>
@@ -18431,8 +19354,20 @@
       <c r="EL74">
         <v>1.02274</v>
       </c>
+      <c r="ER74">
+        <v>0.93223820000000002</v>
+      </c>
+      <c r="ES74">
+        <v>0.93654899999999996</v>
+      </c>
+      <c r="EY74">
+        <v>0.49066096999999997</v>
+      </c>
+      <c r="EZ74">
+        <v>0.93654899999999996</v>
+      </c>
     </row>
-    <row r="75" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98107100000000003</v>
       </c>
@@ -18523,8 +19458,20 @@
       <c r="EL75">
         <v>1.02732</v>
       </c>
+      <c r="ER75">
+        <v>0.93285110000000004</v>
+      </c>
+      <c r="ES75">
+        <v>0.93015400000000004</v>
+      </c>
+      <c r="EY75">
+        <v>0.48937327000000003</v>
+      </c>
+      <c r="EZ75">
+        <v>0.93015400000000004</v>
+      </c>
     </row>
-    <row r="76" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98125476</v>
       </c>
@@ -18615,8 +19562,20 @@
       <c r="EL76">
         <v>1.0263500000000001</v>
       </c>
+      <c r="ER76">
+        <v>0.93303610000000003</v>
+      </c>
+      <c r="ES76">
+        <v>0.93798999999999999</v>
+      </c>
+      <c r="EY76">
+        <v>0.48815069999999999</v>
+      </c>
+      <c r="EZ76">
+        <v>0.93798999999999999</v>
+      </c>
     </row>
-    <row r="77" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98163986000000003</v>
       </c>
@@ -18707,8 +19666,20 @@
       <c r="EL77">
         <v>1.02495</v>
       </c>
+      <c r="ER77">
+        <v>0.93313897000000001</v>
+      </c>
+      <c r="ES77">
+        <v>0.94073099999999998</v>
+      </c>
+      <c r="EY77">
+        <v>0.4870044</v>
+      </c>
+      <c r="EZ77">
+        <v>0.94073099999999998</v>
+      </c>
     </row>
-    <row r="78" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98200410000000005</v>
       </c>
@@ -18799,8 +19770,20 @@
       <c r="EL78">
         <v>1.0284599999999999</v>
       </c>
+      <c r="ER78">
+        <v>0.93361735000000001</v>
+      </c>
+      <c r="ES78">
+        <v>0.95447300000000002</v>
+      </c>
+      <c r="EY78">
+        <v>0.48598720000000001</v>
+      </c>
+      <c r="EZ78">
+        <v>0.95447300000000002</v>
+      </c>
     </row>
-    <row r="79" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98241100000000003</v>
       </c>
@@ -18891,8 +19874,20 @@
       <c r="EL79">
         <v>1.0250999999999999</v>
       </c>
+      <c r="ER79">
+        <v>0.93468213</v>
+      </c>
+      <c r="ES79">
+        <v>0.94704100000000002</v>
+      </c>
+      <c r="EY79">
+        <v>0.4851239</v>
+      </c>
+      <c r="EZ79">
+        <v>0.94704100000000002</v>
+      </c>
     </row>
-    <row r="80" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98286790000000002</v>
       </c>
@@ -18983,8 +19978,20 @@
       <c r="EL80">
         <v>1.0096400000000001</v>
       </c>
+      <c r="ER80">
+        <v>0.93511440000000001</v>
+      </c>
+      <c r="ES80">
+        <v>0.95553699999999997</v>
+      </c>
+      <c r="EY80">
+        <v>0.4839813</v>
+      </c>
+      <c r="EZ80">
+        <v>0.95553699999999997</v>
+      </c>
     </row>
-    <row r="81" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98338102999999999</v>
       </c>
@@ -19075,8 +20082,20 @@
       <c r="EL81">
         <v>1.0232699999999999</v>
       </c>
+      <c r="ER81">
+        <v>0.93466819999999995</v>
+      </c>
+      <c r="ES81">
+        <v>0.95642899999999997</v>
+      </c>
+      <c r="EY81">
+        <v>0.48236020000000002</v>
+      </c>
+      <c r="EZ81">
+        <v>0.95642899999999997</v>
+      </c>
     </row>
-    <row r="82" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.98389950000000004</v>
       </c>
@@ -19167,8 +20186,20 @@
       <c r="EL82">
         <v>1.0213699999999999</v>
       </c>
+      <c r="ER82">
+        <v>0.93410879999999996</v>
+      </c>
+      <c r="ES82">
+        <v>0.94610899999999998</v>
+      </c>
+      <c r="EY82">
+        <v>0.48034915</v>
+      </c>
+      <c r="EZ82">
+        <v>0.94610899999999998</v>
+      </c>
     </row>
-    <row r="83" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98431873000000003</v>
       </c>
@@ -19259,8 +20290,20 @@
       <c r="EL83">
         <v>1.01189</v>
       </c>
+      <c r="ER83">
+        <v>0.93373709999999999</v>
+      </c>
+      <c r="ES83">
+        <v>0.941967</v>
+      </c>
+      <c r="EY83">
+        <v>0.47812222999999998</v>
+      </c>
+      <c r="EZ83">
+        <v>0.941967</v>
+      </c>
     </row>
-    <row r="84" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98454370000000002</v>
       </c>
@@ -19351,8 +20394,20 @@
       <c r="EL84">
         <v>1.0149600000000001</v>
       </c>
+      <c r="ER84">
+        <v>0.93329099999999998</v>
+      </c>
+      <c r="ES84">
+        <v>0.94142499999999996</v>
+      </c>
+      <c r="EY84">
+        <v>0.47578645000000003</v>
+      </c>
+      <c r="EZ84">
+        <v>0.94142499999999996</v>
+      </c>
     </row>
-    <row r="85" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98472499999999996</v>
       </c>
@@ -19443,8 +20498,20 @@
       <c r="EL85">
         <v>1.01346</v>
       </c>
+      <c r="ER85">
+        <v>0.93294924000000001</v>
+      </c>
+      <c r="ES85">
+        <v>0.91245500000000002</v>
+      </c>
+      <c r="EY85">
+        <v>0.47351715</v>
+      </c>
+      <c r="EZ85">
+        <v>0.91245500000000002</v>
+      </c>
     </row>
-    <row r="86" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.9847243</v>
       </c>
@@ -19535,8 +20602,20 @@
       <c r="EL86">
         <v>1.0166200000000001</v>
       </c>
+      <c r="ER86">
+        <v>0.93251859999999998</v>
+      </c>
+      <c r="ES86">
+        <v>0.91606900000000002</v>
+      </c>
+      <c r="EY86">
+        <v>0.47145120000000001</v>
+      </c>
+      <c r="EZ86">
+        <v>0.91606900000000002</v>
+      </c>
     </row>
-    <row r="87" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98449500000000001</v>
       </c>
@@ -19627,8 +20706,20 @@
       <c r="EL87">
         <v>1.00373</v>
       </c>
+      <c r="ER87">
+        <v>0.93153660000000005</v>
+      </c>
+      <c r="ES87">
+        <v>0.92552299999999998</v>
+      </c>
+      <c r="EY87">
+        <v>0.46961722</v>
+      </c>
+      <c r="EZ87">
+        <v>0.92552299999999998</v>
+      </c>
     </row>
-    <row r="88" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98391819999999997</v>
       </c>
@@ -19719,8 +20810,20 @@
       <c r="EL88">
         <v>1.0016</v>
       </c>
+      <c r="ER88">
+        <v>0.93045610000000001</v>
+      </c>
+      <c r="ES88">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="EY88">
+        <v>0.46811733</v>
+      </c>
+      <c r="EZ88">
+        <v>0.92510000000000003</v>
+      </c>
     </row>
-    <row r="89" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98308605000000004</v>
       </c>
@@ -19811,8 +20914,20 @@
       <c r="EL89">
         <v>0.99201600000000001</v>
       </c>
+      <c r="ER89">
+        <v>0.93024660000000003</v>
+      </c>
+      <c r="ES89">
+        <v>0.91980200000000001</v>
+      </c>
+      <c r="EY89">
+        <v>0.46715063000000001</v>
+      </c>
+      <c r="EZ89">
+        <v>0.91980200000000001</v>
+      </c>
     </row>
-    <row r="90" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98196300000000003</v>
       </c>
@@ -19903,8 +21018,20 @@
       <c r="EL90">
         <v>0.99263100000000004</v>
       </c>
+      <c r="ER90">
+        <v>0.93079184999999998</v>
+      </c>
+      <c r="ES90">
+        <v>0.92811299999999997</v>
+      </c>
+      <c r="EY90">
+        <v>0.46679193000000002</v>
+      </c>
+      <c r="EZ90">
+        <v>0.92811299999999997</v>
+      </c>
     </row>
-    <row r="91" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.98071059999999999</v>
       </c>
@@ -19995,8 +21122,20 @@
       <c r="EL91">
         <v>1.0103500000000001</v>
       </c>
+      <c r="ER91">
+        <v>0.93176632999999998</v>
+      </c>
+      <c r="ES91">
+        <v>0.90521399999999996</v>
+      </c>
+      <c r="EY91">
+        <v>0.46696729999999997</v>
+      </c>
+      <c r="EZ91">
+        <v>0.90521399999999996</v>
+      </c>
     </row>
-    <row r="92" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.98030229999999996</v>
       </c>
@@ -20087,8 +21226,20 @@
       <c r="EL92">
         <v>1.0129300000000001</v>
       </c>
+      <c r="ER92">
+        <v>0.93205170000000004</v>
+      </c>
+      <c r="ES92">
+        <v>0.908273</v>
+      </c>
+      <c r="EY92">
+        <v>0.46735919999999997</v>
+      </c>
+      <c r="EZ92">
+        <v>0.908273</v>
+      </c>
     </row>
-    <row r="93" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.98065959999999996</v>
       </c>
@@ -20179,8 +21330,20 @@
       <c r="EL93">
         <v>1.0024999999999999</v>
       </c>
+      <c r="ER93">
+        <v>0.93146335999999996</v>
+      </c>
+      <c r="ES93">
+        <v>0.92499399999999998</v>
+      </c>
+      <c r="EY93">
+        <v>0.46800599999999998</v>
+      </c>
+      <c r="EZ93">
+        <v>0.92499399999999998</v>
+      </c>
     </row>
-    <row r="94" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.98071193999999995</v>
       </c>
@@ -20271,8 +21434,20 @@
       <c r="EL94">
         <v>0.99565800000000004</v>
       </c>
+      <c r="ER94">
+        <v>0.93081480000000005</v>
+      </c>
+      <c r="ES94">
+        <v>0.94017700000000004</v>
+      </c>
+      <c r="EY94">
+        <v>0.46887693000000003</v>
+      </c>
+      <c r="EZ94">
+        <v>0.94017700000000004</v>
+      </c>
     </row>
-    <row r="95" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97984766999999995</v>
       </c>
@@ -20363,8 +21538,20 @@
       <c r="EL95">
         <v>1.0040500000000001</v>
       </c>
+      <c r="ER95">
+        <v>0.93155829999999995</v>
+      </c>
+      <c r="ES95">
+        <v>0.94635400000000003</v>
+      </c>
+      <c r="EY95">
+        <v>0.47021471999999997</v>
+      </c>
+      <c r="EZ95">
+        <v>0.94635400000000003</v>
+      </c>
     </row>
-    <row r="96" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97908704999999996</v>
       </c>
@@ -20455,8 +21642,20 @@
       <c r="EL96">
         <v>1.00698</v>
       </c>
+      <c r="ER96">
+        <v>0.93420373999999995</v>
+      </c>
+      <c r="ES96">
+        <v>0.94533</v>
+      </c>
+      <c r="EY96">
+        <v>0.47202749999999999</v>
+      </c>
+      <c r="EZ96">
+        <v>0.94533</v>
+      </c>
     </row>
-    <row r="97" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97884300000000002</v>
       </c>
@@ -20547,8 +21746,20 @@
       <c r="EL97">
         <v>1.02169</v>
       </c>
+      <c r="ER97">
+        <v>0.93752179999999996</v>
+      </c>
+      <c r="ES97">
+        <v>0.956488</v>
+      </c>
+      <c r="EY97">
+        <v>0.47401546999999999</v>
+      </c>
+      <c r="EZ97">
+        <v>0.956488</v>
+      </c>
     </row>
-    <row r="98" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97900039999999999</v>
       </c>
@@ -20639,8 +21850,20 @@
       <c r="EL98">
         <v>1.01373</v>
       </c>
+      <c r="ER98">
+        <v>0.94074250000000004</v>
+      </c>
+      <c r="ES98">
+        <v>0.95804100000000003</v>
+      </c>
+      <c r="EY98">
+        <v>0.47593134999999998</v>
+      </c>
+      <c r="EZ98">
+        <v>0.95804100000000003</v>
+      </c>
     </row>
-    <row r="99" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97906053000000004</v>
       </c>
@@ -20731,8 +21954,20 @@
       <c r="EL99">
         <v>1.0228299999999999</v>
       </c>
+      <c r="ER99">
+        <v>0.94376780000000005</v>
+      </c>
+      <c r="ES99">
+        <v>0.95912399999999998</v>
+      </c>
+      <c r="EY99">
+        <v>0.47763391999999999</v>
+      </c>
+      <c r="EZ99">
+        <v>0.95912399999999998</v>
+      </c>
     </row>
-    <row r="100" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97900719999999997</v>
       </c>
@@ -20823,8 +22058,20 @@
       <c r="EL100">
         <v>1.0237799999999999</v>
       </c>
+      <c r="ER100">
+        <v>0.94669570000000003</v>
+      </c>
+      <c r="ES100">
+        <v>0.95313199999999998</v>
+      </c>
+      <c r="EY100">
+        <v>0.47919178000000001</v>
+      </c>
+      <c r="EZ100">
+        <v>0.95313199999999998</v>
+      </c>
     </row>
-    <row r="101" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97931109999999999</v>
       </c>
@@ -20915,8 +22162,20 @@
       <c r="EL101">
         <v>1.01274</v>
       </c>
+      <c r="ER101">
+        <v>0.94866746999999996</v>
+      </c>
+      <c r="ES101">
+        <v>0.94978899999999999</v>
+      </c>
+      <c r="EY101">
+        <v>0.48040152000000003</v>
+      </c>
+      <c r="EZ101">
+        <v>0.94978899999999999</v>
+      </c>
     </row>
-    <row r="102" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97974159999999999</v>
       </c>
@@ -21007,8 +22266,20 @@
       <c r="EL102">
         <v>1.0083</v>
       </c>
+      <c r="ER102">
+        <v>0.94889252999999996</v>
+      </c>
+      <c r="ES102">
+        <v>0.94186099999999995</v>
+      </c>
+      <c r="EY102">
+        <v>0.48101166000000001</v>
+      </c>
+      <c r="EZ102">
+        <v>0.94186099999999995</v>
+      </c>
     </row>
-    <row r="103" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97993330000000001</v>
       </c>
@@ -21099,8 +22370,20 @@
       <c r="EL103">
         <v>1.0077199999999999</v>
       </c>
+      <c r="ER103">
+        <v>0.94674720000000001</v>
+      </c>
+      <c r="ES103">
+        <v>0.92699600000000004</v>
+      </c>
+      <c r="EY103">
+        <v>0.48059111999999998</v>
+      </c>
+      <c r="EZ103">
+        <v>0.92699600000000004</v>
+      </c>
     </row>
-    <row r="104" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97969764000000004</v>
       </c>
@@ -21191,8 +22474,20 @@
       <c r="EL104">
         <v>0.97671200000000002</v>
       </c>
+      <c r="ER104">
+        <v>0.94318789999999997</v>
+      </c>
+      <c r="ES104">
+        <v>0.91906200000000005</v>
+      </c>
+      <c r="EY104">
+        <v>0.47925192</v>
+      </c>
+      <c r="EZ104">
+        <v>0.91906200000000005</v>
+      </c>
     </row>
-    <row r="105" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97793596999999999</v>
       </c>
@@ -21283,8 +22578,20 @@
       <c r="EL105">
         <v>0.98058000000000001</v>
       </c>
+      <c r="ER105">
+        <v>0.93865399999999999</v>
+      </c>
+      <c r="ES105">
+        <v>0.93598099999999995</v>
+      </c>
+      <c r="EY105">
+        <v>0.47715576999999998</v>
+      </c>
+      <c r="EZ105">
+        <v>0.93598099999999995</v>
+      </c>
     </row>
-    <row r="106" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97617259999999995</v>
       </c>
@@ -21375,8 +22682,20 @@
       <c r="EL106">
         <v>0.99070000000000003</v>
       </c>
+      <c r="ER106">
+        <v>0.93437873999999999</v>
+      </c>
+      <c r="ES106">
+        <v>0.94610300000000003</v>
+      </c>
+      <c r="EY106">
+        <v>0.47493259999999998</v>
+      </c>
+      <c r="EZ106">
+        <v>0.94610300000000003</v>
+      </c>
     </row>
-    <row r="107" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97623150000000003</v>
       </c>
@@ -21467,8 +22786,20 @@
       <c r="EL107">
         <v>0.99024800000000002</v>
       </c>
+      <c r="ER107">
+        <v>0.93228149999999999</v>
+      </c>
+      <c r="ES107">
+        <v>0.94614200000000004</v>
+      </c>
+      <c r="EY107">
+        <v>0.47332045</v>
+      </c>
+      <c r="EZ107">
+        <v>0.94614200000000004</v>
+      </c>
     </row>
-    <row r="108" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97707679999999997</v>
       </c>
@@ -21559,8 +22890,20 @@
       <c r="EL108">
         <v>0.98457600000000001</v>
       </c>
+      <c r="ER108">
+        <v>0.93315053000000003</v>
+      </c>
+      <c r="ES108">
+        <v>0.94297799999999998</v>
+      </c>
+      <c r="EY108">
+        <v>0.47265573999999999</v>
+      </c>
+      <c r="EZ108">
+        <v>0.94297799999999998</v>
+      </c>
     </row>
-    <row r="109" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97745514</v>
       </c>
@@ -21651,8 +22994,20 @@
       <c r="EL109">
         <v>0.99347300000000005</v>
       </c>
+      <c r="ER109">
+        <v>0.93587165999999999</v>
+      </c>
+      <c r="ES109">
+        <v>0.93914600000000004</v>
+      </c>
+      <c r="EY109">
+        <v>0.47299089999999999</v>
+      </c>
+      <c r="EZ109">
+        <v>0.93914600000000004</v>
+      </c>
     </row>
-    <row r="110" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97696110000000003</v>
       </c>
@@ -21743,8 +23098,20 @@
       <c r="EL110">
         <v>0.96896099999999996</v>
       </c>
+      <c r="ER110">
+        <v>0.93920844999999997</v>
+      </c>
+      <c r="ES110">
+        <v>0.93602799999999997</v>
+      </c>
+      <c r="EY110">
+        <v>0.47454983000000001</v>
+      </c>
+      <c r="EZ110">
+        <v>0.93602799999999997</v>
+      </c>
     </row>
-    <row r="111" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97576605999999999</v>
       </c>
@@ -21835,8 +23202,20 @@
       <c r="EL111">
         <v>0.97223599999999999</v>
       </c>
+      <c r="ER111">
+        <v>0.94184069999999998</v>
+      </c>
+      <c r="ES111">
+        <v>0.94033500000000003</v>
+      </c>
+      <c r="EY111">
+        <v>0.4774775</v>
+      </c>
+      <c r="EZ111">
+        <v>0.94033500000000003</v>
+      </c>
     </row>
-    <row r="112" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97488629999999998</v>
       </c>
@@ -21927,8 +23306,20 @@
       <c r="EL112">
         <v>0.99013499999999999</v>
       </c>
+      <c r="ER112">
+        <v>0.94295399999999996</v>
+      </c>
+      <c r="ES112">
+        <v>0.92957900000000004</v>
+      </c>
+      <c r="EY112">
+        <v>0.48118137999999999</v>
+      </c>
+      <c r="EZ112">
+        <v>0.92957900000000004</v>
+      </c>
     </row>
-    <row r="113" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97477650000000005</v>
       </c>
@@ -22019,8 +23410,20 @@
       <c r="EL113">
         <v>1.0063899999999999</v>
       </c>
+      <c r="ER113">
+        <v>0.94211020000000001</v>
+      </c>
+      <c r="ES113">
+        <v>0.92562199999999994</v>
+      </c>
+      <c r="EY113">
+        <v>0.48478144000000001</v>
+      </c>
+      <c r="EZ113">
+        <v>0.92562199999999994</v>
+      </c>
     </row>
-    <row r="114" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97557044000000004</v>
       </c>
@@ -22111,8 +23514,20 @@
       <c r="EL114">
         <v>1.0129999999999999</v>
       </c>
+      <c r="ER114">
+        <v>0.93960869999999996</v>
+      </c>
+      <c r="ES114">
+        <v>0.94320199999999998</v>
+      </c>
+      <c r="EY114">
+        <v>0.48748370000000002</v>
+      </c>
+      <c r="EZ114">
+        <v>0.94320199999999998</v>
+      </c>
     </row>
-    <row r="115" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97673255000000003</v>
       </c>
@@ -22203,8 +23618,20 @@
       <c r="EL115">
         <v>1.0119</v>
       </c>
+      <c r="ER115">
+        <v>0.93675640000000004</v>
+      </c>
+      <c r="ES115">
+        <v>0.92991599999999996</v>
+      </c>
+      <c r="EY115">
+        <v>0.48893204000000001</v>
+      </c>
+      <c r="EZ115">
+        <v>0.92991599999999996</v>
+      </c>
     </row>
-    <row r="116" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.97761030000000004</v>
       </c>
@@ -22295,8 +23722,20 @@
       <c r="EL116">
         <v>1.0238499999999999</v>
       </c>
+      <c r="ER116">
+        <v>0.93435745999999997</v>
+      </c>
+      <c r="ES116">
+        <v>0.93122400000000005</v>
+      </c>
+      <c r="EY116">
+        <v>0.48905834999999998</v>
+      </c>
+      <c r="EZ116">
+        <v>0.93122400000000005</v>
+      </c>
     </row>
-    <row r="117" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.97834580000000004</v>
       </c>
@@ -22387,8 +23826,20 @@
       <c r="EL117">
         <v>1.0255099999999999</v>
       </c>
+      <c r="ER117">
+        <v>0.93268479999999998</v>
+      </c>
+      <c r="ES117">
+        <v>0.92946700000000004</v>
+      </c>
+      <c r="EY117">
+        <v>0.48815609999999998</v>
+      </c>
+      <c r="EZ117">
+        <v>0.92946700000000004</v>
+      </c>
     </row>
-    <row r="118" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.97910260000000005</v>
       </c>
@@ -22479,8 +23930,20 @@
       <c r="EL118">
         <v>1.02667</v>
       </c>
+      <c r="ER118">
+        <v>0.93123619999999996</v>
+      </c>
+      <c r="ES118">
+        <v>0.93485200000000002</v>
+      </c>
+      <c r="EY118">
+        <v>0.48644485999999998</v>
+      </c>
+      <c r="EZ118">
+        <v>0.93485200000000002</v>
+      </c>
     </row>
-    <row r="119" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.97996780000000006</v>
       </c>
@@ -22571,8 +24034,20 @@
       <c r="EL119">
         <v>1.0202500000000001</v>
       </c>
+      <c r="ER119">
+        <v>0.92971563000000002</v>
+      </c>
+      <c r="ES119">
+        <v>0.94205300000000003</v>
+      </c>
+      <c r="EY119">
+        <v>0.48429497999999999</v>
+      </c>
+      <c r="EZ119">
+        <v>0.94205300000000003</v>
+      </c>
     </row>
-    <row r="120" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9808017</v>
       </c>
@@ -22663,8 +24138,20 @@
       <c r="EL120">
         <v>1.01668</v>
       </c>
+      <c r="ER120">
+        <v>0.92829890000000004</v>
+      </c>
+      <c r="ES120">
+        <v>0.93840599999999996</v>
+      </c>
+      <c r="EY120">
+        <v>0.48207924000000002</v>
+      </c>
+      <c r="EZ120">
+        <v>0.93840599999999996</v>
+      </c>
     </row>
-    <row r="121" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98146533999999996</v>
       </c>
@@ -22755,8 +24242,20 @@
       <c r="EL121">
         <v>1.0081899999999999</v>
       </c>
+      <c r="ER121">
+        <v>0.92719790000000002</v>
+      </c>
+      <c r="ES121">
+        <v>0.92696999999999996</v>
+      </c>
+      <c r="EY121">
+        <v>0.48025614</v>
+      </c>
+      <c r="EZ121">
+        <v>0.92696999999999996</v>
+      </c>
     </row>
-    <row r="122" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98195619999999995</v>
       </c>
@@ -22847,8 +24346,20 @@
       <c r="EL122">
         <v>0.99227699999999996</v>
       </c>
+      <c r="ER122">
+        <v>0.92573523999999996</v>
+      </c>
+      <c r="ES122">
+        <v>0.89798</v>
+      </c>
+      <c r="EY122">
+        <v>0.47860900000000001</v>
+      </c>
+      <c r="EZ122">
+        <v>0.89798</v>
+      </c>
     </row>
-    <row r="123" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98239124</v>
       </c>
@@ -22939,8 +24450,20 @@
       <c r="EL123">
         <v>0.98378399999999999</v>
       </c>
+      <c r="ER123">
+        <v>0.92287200000000003</v>
+      </c>
+      <c r="ES123">
+        <v>0.85514199999999996</v>
+      </c>
+      <c r="EY123">
+        <v>0.47696539999999998</v>
+      </c>
+      <c r="EZ123">
+        <v>0.85514199999999996</v>
+      </c>
     </row>
-    <row r="124" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.9825874</v>
       </c>
@@ -23031,8 +24554,20 @@
       <c r="EL124">
         <v>1.0019</v>
       </c>
+      <c r="ER124">
+        <v>0.91714070000000003</v>
+      </c>
+      <c r="ES124">
+        <v>0.80382100000000001</v>
+      </c>
+      <c r="EY124">
+        <v>0.47495090000000001</v>
+      </c>
+      <c r="EZ124">
+        <v>0.80382100000000001</v>
+      </c>
     </row>
-    <row r="125" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98263029999999996</v>
       </c>
@@ -23123,8 +24658,20 @@
       <c r="EL125">
         <v>1.0127299999999999</v>
       </c>
+      <c r="ER125">
+        <v>0.90756570000000003</v>
+      </c>
+      <c r="ES125">
+        <v>0.78690800000000005</v>
+      </c>
+      <c r="EY125">
+        <v>0.47239444000000003</v>
+      </c>
+      <c r="EZ125">
+        <v>0.78690800000000005</v>
+      </c>
     </row>
-    <row r="126" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98298450000000004</v>
       </c>
@@ -23215,8 +24762,20 @@
       <c r="EL126">
         <v>1.0127699999999999</v>
       </c>
+      <c r="ER126">
+        <v>0.89472130000000005</v>
+      </c>
+      <c r="ES126">
+        <v>0.83507100000000001</v>
+      </c>
+      <c r="EY126">
+        <v>0.46901572000000002</v>
+      </c>
+      <c r="EZ126">
+        <v>0.83507100000000001</v>
+      </c>
     </row>
-    <row r="127" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98353460000000004</v>
       </c>
@@ -23307,8 +24866,20 @@
       <c r="EL127">
         <v>1.0093799999999999</v>
       </c>
+      <c r="ER127">
+        <v>0.88207303999999997</v>
+      </c>
+      <c r="ES127">
+        <v>0.86622100000000002</v>
+      </c>
+      <c r="EY127">
+        <v>0.46406657000000001</v>
+      </c>
+      <c r="EZ127">
+        <v>0.86622100000000002</v>
+      </c>
     </row>
-    <row r="128" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98405050000000005</v>
       </c>
@@ -23399,8 +24970,20 @@
       <c r="EL128">
         <v>1.00528</v>
       </c>
+      <c r="ER128">
+        <v>0.87378323000000002</v>
+      </c>
+      <c r="ES128">
+        <v>0.86702100000000004</v>
+      </c>
+      <c r="EY128">
+        <v>0.45700869999999999</v>
+      </c>
+      <c r="EZ128">
+        <v>0.86702100000000004</v>
+      </c>
     </row>
-    <row r="129" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98429626000000003</v>
       </c>
@@ -23491,8 +25074,20 @@
       <c r="EL129">
         <v>1.0019400000000001</v>
       </c>
+      <c r="ER129">
+        <v>0.8715851</v>
+      </c>
+      <c r="ES129">
+        <v>0.85599400000000003</v>
+      </c>
+      <c r="EY129">
+        <v>0.44911521999999998</v>
+      </c>
+      <c r="EZ129">
+        <v>0.85599400000000003</v>
+      </c>
     </row>
-    <row r="130" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98426913999999999</v>
       </c>
@@ -23583,8 +25178,20 @@
       <c r="EL130">
         <v>1.0065599999999999</v>
       </c>
+      <c r="ER130">
+        <v>0.87306463999999995</v>
+      </c>
+      <c r="ES130">
+        <v>0.81745699999999999</v>
+      </c>
+      <c r="EY130">
+        <v>0.44420087000000003</v>
+      </c>
+      <c r="EZ130">
+        <v>0.81745699999999999</v>
+      </c>
     </row>
-    <row r="131" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98429429999999996</v>
       </c>
@@ -23675,8 +25282,20 @@
       <c r="EL131">
         <v>0.99504300000000001</v>
       </c>
+      <c r="ER131">
+        <v>0.87371564000000002</v>
+      </c>
+      <c r="ES131">
+        <v>0.84058699999999997</v>
+      </c>
+      <c r="EY131">
+        <v>0.44614777</v>
+      </c>
+      <c r="EZ131">
+        <v>0.84058699999999997</v>
+      </c>
     </row>
-    <row r="132" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98417840000000001</v>
       </c>
@@ -23767,8 +25386,20 @@
       <c r="EL132">
         <v>0.99080599999999996</v>
       </c>
+      <c r="ER132">
+        <v>0.87211894999999995</v>
+      </c>
+      <c r="ES132">
+        <v>0.84208700000000003</v>
+      </c>
+      <c r="EY132">
+        <v>0.45771172999999998</v>
+      </c>
+      <c r="EZ132">
+        <v>0.84208700000000003</v>
+      </c>
     </row>
-    <row r="133" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98372369999999998</v>
       </c>
@@ -23859,8 +25490,20 @@
       <c r="EL133">
         <v>1.00962</v>
       </c>
+      <c r="ER133">
+        <v>0.86912469999999997</v>
+      </c>
+      <c r="ES133">
+        <v>0.82232700000000003</v>
+      </c>
+      <c r="EY133">
+        <v>0.47592506000000001</v>
+      </c>
+      <c r="EZ133">
+        <v>0.82232700000000003</v>
+      </c>
     </row>
-    <row r="134" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98357570000000005</v>
       </c>
@@ -23951,8 +25594,20 @@
       <c r="EL134">
         <v>0.99540300000000004</v>
       </c>
+      <c r="ER134">
+        <v>0.86529856999999999</v>
+      </c>
+      <c r="ES134">
+        <v>0.85416400000000003</v>
+      </c>
+      <c r="EY134">
+        <v>0.49555316999999999</v>
+      </c>
+      <c r="EZ134">
+        <v>0.85416400000000003</v>
+      </c>
     </row>
-    <row r="135" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98368542999999997</v>
       </c>
@@ -24043,8 +25698,20 @@
       <c r="EL135">
         <v>0.99680299999999999</v>
       </c>
+      <c r="ER135">
+        <v>0.86212650000000002</v>
+      </c>
+      <c r="ES135">
+        <v>0.83608199999999999</v>
+      </c>
+      <c r="EY135">
+        <v>0.51293456999999998</v>
+      </c>
+      <c r="EZ135">
+        <v>0.83608199999999999</v>
+      </c>
     </row>
-    <row r="136" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98327949999999997</v>
       </c>
@@ -24135,8 +25802,20 @@
       <c r="EL136">
         <v>0.99492199999999997</v>
       </c>
+      <c r="ER136">
+        <v>0.85963862999999996</v>
+      </c>
+      <c r="ES136">
+        <v>0.84285399999999999</v>
+      </c>
+      <c r="EY136">
+        <v>0.52598460000000002</v>
+      </c>
+      <c r="EZ136">
+        <v>0.84285399999999999</v>
+      </c>
     </row>
-    <row r="137" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98277073999999998</v>
       </c>
@@ -24227,8 +25906,20 @@
       <c r="EL137">
         <v>1.0006900000000001</v>
       </c>
+      <c r="ER137">
+        <v>0.85802849999999997</v>
+      </c>
+      <c r="ES137">
+        <v>0.84864099999999998</v>
+      </c>
+      <c r="EY137">
+        <v>0.53422539999999996</v>
+      </c>
+      <c r="EZ137">
+        <v>0.84864099999999998</v>
+      </c>
     </row>
-    <row r="138" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.98254269999999999</v>
       </c>
@@ -24319,8 +26010,20 @@
       <c r="EL138">
         <v>1.0083899999999999</v>
       </c>
+      <c r="ER138">
+        <v>0.85759730000000001</v>
+      </c>
+      <c r="ES138">
+        <v>0.84334200000000004</v>
+      </c>
+      <c r="EY138">
+        <v>0.53763859999999997</v>
+      </c>
+      <c r="EZ138">
+        <v>0.84334200000000004</v>
+      </c>
     </row>
-    <row r="139" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.98247397000000003</v>
       </c>
@@ -24411,8 +26114,20 @@
       <c r="EL139">
         <v>1.0044900000000001</v>
       </c>
+      <c r="ER139">
+        <v>0.85723110000000002</v>
+      </c>
+      <c r="ES139">
+        <v>0.85989899999999997</v>
+      </c>
+      <c r="EY139">
+        <v>0.53122824000000002</v>
+      </c>
+      <c r="EZ139">
+        <v>0.85989899999999997</v>
+      </c>
     </row>
-    <row r="140" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.98264300000000004</v>
       </c>
@@ -24503,8 +26218,20 @@
       <c r="EL140">
         <v>0.99224900000000005</v>
       </c>
+      <c r="ER140">
+        <v>0.85707370000000005</v>
+      </c>
+      <c r="ES140">
+        <v>0.87127500000000002</v>
+      </c>
+      <c r="EY140">
+        <v>0.5130538</v>
+      </c>
+      <c r="EZ140">
+        <v>0.87127500000000002</v>
+      </c>
     </row>
-    <row r="141" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.98228073000000005</v>
       </c>
@@ -24595,8 +26322,20 @@
       <c r="EL141">
         <v>0.96121800000000002</v>
       </c>
+      <c r="ER141">
+        <v>0.85788023000000002</v>
+      </c>
+      <c r="ES141">
+        <v>0.86789899999999998</v>
+      </c>
+      <c r="EY141">
+        <v>0.49464576999999998</v>
+      </c>
+      <c r="EZ141">
+        <v>0.86789899999999998</v>
+      </c>
     </row>
-    <row r="142" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.97903110000000004</v>
       </c>
@@ -24687,8 +26426,20 @@
       <c r="EL142">
         <v>0.91536300000000004</v>
       </c>
+      <c r="ER142">
+        <v>0.85966843000000004</v>
+      </c>
+      <c r="ES142">
+        <v>0.84664600000000001</v>
+      </c>
+      <c r="EY142">
+        <v>0.56458014000000001</v>
+      </c>
+      <c r="EZ142">
+        <v>0.84664600000000001</v>
+      </c>
     </row>
-    <row r="143" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.97004630000000003</v>
       </c>
@@ -24779,8 +26530,20 @@
       <c r="EL143">
         <v>0.86042799999999997</v>
       </c>
+      <c r="ER143">
+        <v>0.85989373999999996</v>
+      </c>
+      <c r="ES143">
+        <v>0.85255199999999998</v>
+      </c>
+      <c r="EY143">
+        <v>0.593248</v>
+      </c>
+      <c r="EZ143">
+        <v>0.85255199999999998</v>
+      </c>
     </row>
-    <row r="144" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.9547544</v>
       </c>
@@ -24871,8 +26634,20 @@
       <c r="EL144">
         <v>0.84232399999999996</v>
       </c>
+      <c r="ER144">
+        <v>0.85762775000000002</v>
+      </c>
+      <c r="ES144">
+        <v>0.83654399999999995</v>
+      </c>
+      <c r="EY144">
+        <v>0.63923909999999995</v>
+      </c>
+      <c r="EZ144">
+        <v>0.83654399999999995</v>
+      </c>
     </row>
-    <row r="145" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93693346</v>
       </c>
@@ -24963,8 +26738,20 @@
       <c r="EL145">
         <v>0.89387899999999998</v>
       </c>
+      <c r="ER145">
+        <v>0.85338970000000003</v>
+      </c>
+      <c r="ES145">
+        <v>0.83391499999999996</v>
+      </c>
+      <c r="EY145">
+        <v>0.64280040000000005</v>
+      </c>
+      <c r="EZ145">
+        <v>0.83391499999999996</v>
+      </c>
     </row>
-    <row r="146" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92407969999999995</v>
       </c>
@@ -25055,8 +26842,20 @@
       <c r="EL146">
         <v>0.92722300000000002</v>
       </c>
+      <c r="ER146">
+        <v>0.84865736999999997</v>
+      </c>
+      <c r="ES146">
+        <v>0.82960699999999998</v>
+      </c>
+      <c r="EY146">
+        <v>0.60920346000000003</v>
+      </c>
+      <c r="EZ146">
+        <v>0.82960699999999998</v>
+      </c>
     </row>
-    <row r="147" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.92545204999999997</v>
       </c>
@@ -25147,8 +26946,20 @@
       <c r="EL147">
         <v>0.92807799999999996</v>
       </c>
+      <c r="ER147">
+        <v>0.84509414000000005</v>
+      </c>
+      <c r="ES147">
+        <v>0.829013</v>
+      </c>
+      <c r="EY147">
+        <v>0.56814600000000004</v>
+      </c>
+      <c r="EZ147">
+        <v>0.829013</v>
+      </c>
     </row>
-    <row r="148" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.933639</v>
       </c>
@@ -25239,8 +27050,20 @@
       <c r="EL148">
         <v>0.91627499999999995</v>
       </c>
+      <c r="ER148">
+        <v>0.84406760000000003</v>
+      </c>
+      <c r="ES148">
+        <v>0.79626300000000005</v>
+      </c>
+      <c r="EY148">
+        <v>0.52589039999999998</v>
+      </c>
+      <c r="EZ148">
+        <v>0.79626300000000005</v>
+      </c>
     </row>
-    <row r="149" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.93672144000000002</v>
       </c>
@@ -25331,8 +27154,20 @@
       <c r="EL149">
         <v>0.87502500000000005</v>
       </c>
+      <c r="ER149">
+        <v>0.84493609999999997</v>
+      </c>
+      <c r="ES149">
+        <v>0.79779599999999995</v>
+      </c>
+      <c r="EY149">
+        <v>0.48363286</v>
+      </c>
+      <c r="EZ149">
+        <v>0.79779599999999995</v>
+      </c>
     </row>
-    <row r="150" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.92697589999999996</v>
       </c>
@@ -25423,8 +27258,20 @@
       <c r="EL150">
         <v>0.89978400000000003</v>
       </c>
+      <c r="ER150">
+        <v>0.84632759999999996</v>
+      </c>
+      <c r="ES150">
+        <v>0.82154000000000005</v>
+      </c>
+      <c r="EY150">
+        <v>0.4467814</v>
+      </c>
+      <c r="EZ150">
+        <v>0.82154000000000005</v>
+      </c>
     </row>
-    <row r="151" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.91321622999999996</v>
       </c>
@@ -25515,8 +27362,20 @@
       <c r="EL151">
         <v>0.901389</v>
       </c>
+      <c r="ER151">
+        <v>0.84693426000000005</v>
+      </c>
+      <c r="ES151">
+        <v>0.824044</v>
+      </c>
+      <c r="EY151">
+        <v>0.41309148000000001</v>
+      </c>
+      <c r="EZ151">
+        <v>0.824044</v>
+      </c>
     </row>
-    <row r="152" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.90451545</v>
       </c>
@@ -25607,8 +27466,20 @@
       <c r="EL152">
         <v>0.88023700000000005</v>
       </c>
+      <c r="ER152">
+        <v>0.84548425999999999</v>
+      </c>
+      <c r="ES152">
+        <v>0.84223899999999996</v>
+      </c>
+      <c r="EY152">
+        <v>0.38562825000000001</v>
+      </c>
+      <c r="EZ152">
+        <v>0.84223899999999996</v>
+      </c>
     </row>
-    <row r="153" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.89857799999999999</v>
       </c>
@@ -25699,8 +27570,20 @@
       <c r="EL153">
         <v>0.91431600000000002</v>
       </c>
+      <c r="ER153">
+        <v>0.84245442999999998</v>
+      </c>
+      <c r="ES153">
+        <v>0.86581799999999998</v>
+      </c>
+      <c r="EY153">
+        <v>0.36044857000000002</v>
+      </c>
+      <c r="EZ153">
+        <v>0.86581799999999998</v>
+      </c>
     </row>
-    <row r="154" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.90034729999999996</v>
       </c>
@@ -25791,8 +27674,20 @@
       <c r="EL154">
         <v>0.89496100000000001</v>
       </c>
+      <c r="ER154">
+        <v>0.84038979999999996</v>
+      </c>
+      <c r="ES154">
+        <v>0.86110799999999998</v>
+      </c>
+      <c r="EY154">
+        <v>0.34134140000000002</v>
+      </c>
+      <c r="EZ154">
+        <v>0.86110799999999998</v>
+      </c>
     </row>
-    <row r="155" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.90802103000000001</v>
       </c>
@@ -25883,8 +27778,20 @@
       <c r="EL155">
         <v>0.90220900000000004</v>
       </c>
+      <c r="ER155">
+        <v>0.8410571</v>
+      </c>
+      <c r="ES155">
+        <v>0.87161900000000003</v>
+      </c>
+      <c r="EY155">
+        <v>0.31654127999999998</v>
+      </c>
+      <c r="EZ155">
+        <v>0.87161900000000003</v>
+      </c>
     </row>
-    <row r="156" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.91741079999999997</v>
       </c>
@@ -25975,8 +27882,20 @@
       <c r="EL156">
         <v>0.90840399999999999</v>
       </c>
+      <c r="ER156">
+        <v>0.84412600000000004</v>
+      </c>
+      <c r="ES156">
+        <v>0.883247</v>
+      </c>
+      <c r="EY156">
+        <v>0.28410574999999999</v>
+      </c>
+      <c r="EZ156">
+        <v>0.883247</v>
+      </c>
     </row>
-    <row r="157" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.92375510000000005</v>
       </c>
@@ -26067,8 +27986,20 @@
       <c r="EL157">
         <v>0.90273300000000001</v>
       </c>
+      <c r="ER157">
+        <v>0.84888799999999998</v>
+      </c>
+      <c r="ES157">
+        <v>0.88421099999999997</v>
+      </c>
+      <c r="EY157">
+        <v>0.26757199999999998</v>
+      </c>
+      <c r="EZ157">
+        <v>0.88421099999999997</v>
+      </c>
     </row>
-    <row r="158" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.92515199999999997</v>
       </c>
@@ -26159,8 +28090,20 @@
       <c r="EL158">
         <v>0.92045500000000002</v>
       </c>
+      <c r="ER158">
+        <v>0.85483920000000002</v>
+      </c>
+      <c r="ES158">
+        <v>0.88590899999999995</v>
+      </c>
+      <c r="EY158">
+        <v>0.25993242999999999</v>
+      </c>
+      <c r="EZ158">
+        <v>0.88590899999999995</v>
+      </c>
     </row>
-    <row r="159" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.92614399999999997</v>
       </c>
@@ -26251,8 +28194,20 @@
       <c r="EL159">
         <v>0.93263300000000005</v>
       </c>
+      <c r="ER159">
+        <v>0.86065659999999999</v>
+      </c>
+      <c r="ES159">
+        <v>0.87681200000000004</v>
+      </c>
+      <c r="EY159">
+        <v>0.27289190000000002</v>
+      </c>
+      <c r="EZ159">
+        <v>0.87681200000000004</v>
+      </c>
     </row>
-    <row r="160" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.93095874999999995</v>
       </c>
@@ -26343,8 +28298,20 @@
       <c r="EL160">
         <v>0.92901900000000004</v>
       </c>
+      <c r="ER160">
+        <v>0.86527900000000002</v>
+      </c>
+      <c r="ES160">
+        <v>0.87056900000000004</v>
+      </c>
+      <c r="EY160">
+        <v>0.31991335999999998</v>
+      </c>
+      <c r="EZ160">
+        <v>0.87056900000000004</v>
+      </c>
     </row>
-    <row r="161" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.93712969999999995</v>
       </c>
@@ -26435,8 +28402,20 @@
       <c r="EL161">
         <v>0.90626899999999999</v>
       </c>
+      <c r="ER161">
+        <v>0.86771390000000004</v>
+      </c>
+      <c r="ES161">
+        <v>0.89013799999999998</v>
+      </c>
+      <c r="EY161">
+        <v>0.34445350000000002</v>
+      </c>
+      <c r="EZ161">
+        <v>0.89013799999999998</v>
+      </c>
     </row>
-    <row r="162" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.93991696999999996</v>
       </c>
@@ -26527,8 +28506,20 @@
       <c r="EL162">
         <v>0.91259100000000004</v>
       </c>
+      <c r="ER162">
+        <v>0.86862123000000002</v>
+      </c>
+      <c r="ES162">
+        <v>0.89624899999999996</v>
+      </c>
+      <c r="EY162">
+        <v>0.32840892999999999</v>
+      </c>
+      <c r="EZ162">
+        <v>0.89624899999999996</v>
+      </c>
     </row>
-    <row r="163" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94084129999999999</v>
       </c>
@@ -26619,8 +28610,20 @@
       <c r="EL163">
         <v>0.89545600000000003</v>
       </c>
+      <c r="ER163">
+        <v>0.86986302999999998</v>
+      </c>
+      <c r="ES163">
+        <v>0.89661199999999996</v>
+      </c>
+      <c r="EY163">
+        <v>0.32400780000000001</v>
+      </c>
+      <c r="EZ163">
+        <v>0.89661199999999996</v>
+      </c>
     </row>
-    <row r="164" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94026430000000005</v>
       </c>
@@ -26711,8 +28714,20 @@
       <c r="EL164">
         <v>0.89264100000000002</v>
       </c>
+      <c r="ER164">
+        <v>0.87202109999999999</v>
+      </c>
+      <c r="ES164">
+        <v>0.89470300000000003</v>
+      </c>
+      <c r="EY164">
+        <v>0.33846294999999998</v>
+      </c>
+      <c r="EZ164">
+        <v>0.89470300000000003</v>
+      </c>
     </row>
-    <row r="165" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.94110380000000005</v>
       </c>
@@ -26803,8 +28818,20 @@
       <c r="EL165">
         <v>0.88802999999999999</v>
       </c>
+      <c r="ER165">
+        <v>0.87423485999999995</v>
+      </c>
+      <c r="ES165">
+        <v>0.88688699999999998</v>
+      </c>
+      <c r="EY165">
+        <v>0.32431926999999999</v>
+      </c>
+      <c r="EZ165">
+        <v>0.88688699999999998</v>
+      </c>
     </row>
-    <row r="166" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.94173353999999998</v>
       </c>
@@ -26895,8 +28922,20 @@
       <c r="EL166">
         <v>0.88739400000000002</v>
       </c>
+      <c r="ER166">
+        <v>0.87551665000000001</v>
+      </c>
+      <c r="ES166">
+        <v>0.90906600000000004</v>
+      </c>
+      <c r="EY166">
+        <v>0.31986555</v>
+      </c>
+      <c r="EZ166">
+        <v>0.90906600000000004</v>
+      </c>
     </row>
-    <row r="167" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.94368196000000004</v>
       </c>
@@ -26987,8 +29026,20 @@
       <c r="EL167">
         <v>0.85233800000000004</v>
       </c>
+      <c r="ER167">
+        <v>0.87806547000000001</v>
+      </c>
+      <c r="ES167">
+        <v>0.92402300000000004</v>
+      </c>
+      <c r="EY167">
+        <v>0.3195269</v>
+      </c>
+      <c r="EZ167">
+        <v>0.92402300000000004</v>
+      </c>
     </row>
-    <row r="168" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.94127249999999996</v>
       </c>
@@ -27079,8 +29130,20 @@
       <c r="EL168">
         <v>0.85397900000000004</v>
       </c>
+      <c r="ER168">
+        <v>0.88341634999999996</v>
+      </c>
+      <c r="ES168">
+        <v>0.9214</v>
+      </c>
+      <c r="EY168">
+        <v>0.3220151</v>
+      </c>
+      <c r="EZ168">
+        <v>0.9214</v>
+      </c>
     </row>
-    <row r="169" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.93782215999999996</v>
       </c>
@@ -27171,8 +29234,20 @@
       <c r="EL169">
         <v>0.87939500000000004</v>
       </c>
+      <c r="ER169">
+        <v>0.89099205000000004</v>
+      </c>
+      <c r="ES169">
+        <v>0.91790499999999997</v>
+      </c>
+      <c r="EY169">
+        <v>0.32479723999999999</v>
+      </c>
+      <c r="EZ169">
+        <v>0.91790499999999997</v>
+      </c>
     </row>
-    <row r="170" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.93808895000000003</v>
       </c>
@@ -27263,8 +29338,20 @@
       <c r="EL170">
         <v>0.88207500000000005</v>
       </c>
+      <c r="ER170">
+        <v>0.8988585</v>
+      </c>
+      <c r="ES170">
+        <v>0.93406500000000003</v>
+      </c>
+      <c r="EY170">
+        <v>0.32773352</v>
+      </c>
+      <c r="EZ170">
+        <v>0.93406500000000003</v>
+      </c>
     </row>
-    <row r="171" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.93920802999999997</v>
       </c>
@@ -27355,8 +29442,20 @@
       <c r="EL171">
         <v>0.90155200000000002</v>
       </c>
+      <c r="ER171">
+        <v>0.90603529999999999</v>
+      </c>
+      <c r="ES171">
+        <v>0.93344400000000005</v>
+      </c>
+      <c r="EY171">
+        <v>0.33038511999999998</v>
+      </c>
+      <c r="EZ171">
+        <v>0.93344400000000005</v>
+      </c>
     </row>
-    <row r="172" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.93959300000000001</v>
       </c>
@@ -27447,8 +29546,20 @@
       <c r="EL172">
         <v>0.92679100000000003</v>
       </c>
+      <c r="ER172">
+        <v>0.91202019999999995</v>
+      </c>
+      <c r="ES172">
+        <v>0.92680499999999999</v>
+      </c>
+      <c r="EY172">
+        <v>0.33297387000000001</v>
+      </c>
+      <c r="EZ172">
+        <v>0.92680499999999999</v>
+      </c>
     </row>
-    <row r="173" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.94315260000000001</v>
       </c>
@@ -27539,8 +29650,20 @@
       <c r="EL173">
         <v>0.92174900000000004</v>
       </c>
+      <c r="ER173">
+        <v>0.91647977000000003</v>
+      </c>
+      <c r="ES173">
+        <v>0.94311699999999998</v>
+      </c>
+      <c r="EY173">
+        <v>0.33731833</v>
+      </c>
+      <c r="EZ173">
+        <v>0.94311699999999998</v>
+      </c>
     </row>
-    <row r="174" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.94766163999999997</v>
       </c>
@@ -27631,8 +29754,20 @@
       <c r="EL174">
         <v>0.93300000000000005</v>
       </c>
+      <c r="ER174">
+        <v>0.91987026000000005</v>
+      </c>
+      <c r="ES174">
+        <v>0.946909</v>
+      </c>
+      <c r="EY174">
+        <v>0.34107949999999998</v>
+      </c>
+      <c r="EZ174">
+        <v>0.946909</v>
+      </c>
     </row>
-    <row r="175" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.95133719999999999</v>
       </c>
@@ -27723,8 +29858,20 @@
       <c r="EL175">
         <v>0.94544700000000004</v>
       </c>
+      <c r="ER175">
+        <v>0.92197185999999998</v>
+      </c>
+      <c r="ES175">
+        <v>0.941967</v>
+      </c>
+      <c r="EY175">
+        <v>0.35105827000000001</v>
+      </c>
+      <c r="EZ175">
+        <v>0.941967</v>
+      </c>
     </row>
-    <row r="176" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.95438230000000002</v>
       </c>
@@ -27815,8 +29962,20 @@
       <c r="EL176">
         <v>0.94647999999999999</v>
       </c>
+      <c r="ER176">
+        <v>0.92240909999999998</v>
+      </c>
+      <c r="ES176">
+        <v>0.94039499999999998</v>
+      </c>
+      <c r="EY176">
+        <v>0.35111300000000001</v>
+      </c>
+      <c r="EZ176">
+        <v>0.94039499999999998</v>
+      </c>
     </row>
-    <row r="177" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.95731500000000003</v>
       </c>
@@ -27907,8 +30066,20 @@
       <c r="EL177">
         <v>0.94829699999999995</v>
       </c>
+      <c r="ER177">
+        <v>0.92110205000000001</v>
+      </c>
+      <c r="ES177">
+        <v>0.93991199999999997</v>
+      </c>
+      <c r="EY177">
+        <v>0.34909986999999998</v>
+      </c>
+      <c r="EZ177">
+        <v>0.93991199999999997</v>
+      </c>
     </row>
-    <row r="178" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.95968229999999999</v>
       </c>
@@ -27999,8 +30170,20 @@
       <c r="EL178">
         <v>0.93855900000000003</v>
       </c>
+      <c r="ER178">
+        <v>0.91819846999999999</v>
+      </c>
+      <c r="ES178">
+        <v>0.92628900000000003</v>
+      </c>
+      <c r="EY178">
+        <v>0.36994690000000002</v>
+      </c>
+      <c r="EZ178">
+        <v>0.92628900000000003</v>
+      </c>
     </row>
-    <row r="179" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96201610000000004</v>
       </c>
@@ -28091,8 +30274,20 @@
       <c r="EL179">
         <v>0.93187600000000004</v>
       </c>
+      <c r="ER179">
+        <v>0.91431910000000005</v>
+      </c>
+      <c r="ES179">
+        <v>0.92836399999999997</v>
+      </c>
+      <c r="EY179">
+        <v>0.42433754000000001</v>
+      </c>
+      <c r="EZ179">
+        <v>0.92836399999999997</v>
+      </c>
     </row>
-    <row r="180" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.96395209999999998</v>
       </c>
@@ -28183,8 +30378,20 @@
       <c r="EL180">
         <v>0.95282299999999998</v>
       </c>
+      <c r="ER180">
+        <v>0.91031119999999999</v>
+      </c>
+      <c r="ES180">
+        <v>0.92392399999999997</v>
+      </c>
+      <c r="EY180">
+        <v>0.45364602999999998</v>
+      </c>
+      <c r="EZ180">
+        <v>0.92392399999999997</v>
+      </c>
     </row>
-    <row r="181" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.96586989999999995</v>
       </c>
@@ -28275,8 +30482,20 @@
       <c r="EL181">
         <v>0.95936500000000002</v>
       </c>
+      <c r="ER181">
+        <v>0.90638300000000005</v>
+      </c>
+      <c r="ES181">
+        <v>0.90474500000000002</v>
+      </c>
+      <c r="EY181">
+        <v>0.45714690000000002</v>
+      </c>
+      <c r="EZ181">
+        <v>0.90474500000000002</v>
+      </c>
     </row>
-    <row r="182" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.96764075999999999</v>
       </c>
@@ -28367,8 +30586,20 @@
       <c r="EL182">
         <v>0.959754</v>
       </c>
+      <c r="ER182">
+        <v>0.90221439999999997</v>
+      </c>
+      <c r="ES182">
+        <v>0.88959600000000005</v>
+      </c>
+      <c r="EY182">
+        <v>0.45800552</v>
+      </c>
+      <c r="EZ182">
+        <v>0.88959600000000005</v>
+      </c>
     </row>
-    <row r="183" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.96969530000000004</v>
       </c>
@@ -28459,8 +30690,20 @@
       <c r="EL183">
         <v>0.95770999999999995</v>
       </c>
+      <c r="ER183">
+        <v>0.89728520000000001</v>
+      </c>
+      <c r="ES183">
+        <v>0.90951499999999996</v>
+      </c>
+      <c r="EY183">
+        <v>0.45400570000000001</v>
+      </c>
+      <c r="EZ183">
+        <v>0.90951499999999996</v>
+      </c>
     </row>
-    <row r="184" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97170460000000003</v>
       </c>
@@ -28551,8 +30794,20 @@
       <c r="EL184">
         <v>0.94934399999999997</v>
       </c>
+      <c r="ER184">
+        <v>0.89307826999999995</v>
+      </c>
+      <c r="ES184">
+        <v>0.907698</v>
+      </c>
+      <c r="EY184">
+        <v>0.44720779999999999</v>
+      </c>
+      <c r="EZ184">
+        <v>0.907698</v>
+      </c>
     </row>
-    <row r="185" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97299707000000002</v>
       </c>
@@ -28643,8 +30898,20 @@
       <c r="EL185">
         <v>0.97308399999999995</v>
       </c>
+      <c r="ER185">
+        <v>0.89099039999999996</v>
+      </c>
+      <c r="ES185">
+        <v>0.929593</v>
+      </c>
+      <c r="EY185">
+        <v>0.43293591999999997</v>
+      </c>
+      <c r="EZ185">
+        <v>0.929593</v>
+      </c>
     </row>
-    <row r="186" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.97433950000000003</v>
       </c>
@@ -28735,8 +31002,20 @@
       <c r="EL186">
         <v>0.98909499999999995</v>
       </c>
+      <c r="ER186">
+        <v>0.89152909999999996</v>
+      </c>
+      <c r="ES186">
+        <v>0.92804699999999996</v>
+      </c>
+      <c r="EY186">
+        <v>0.40721350000000001</v>
+      </c>
+      <c r="EZ186">
+        <v>0.92804699999999996</v>
+      </c>
     </row>
-    <row r="187" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.97554255000000001</v>
       </c>
@@ -28827,8 +31106,20 @@
       <c r="EL187">
         <v>0.98628800000000005</v>
       </c>
+      <c r="ER187">
+        <v>0.89373522999999999</v>
+      </c>
+      <c r="ES187">
+        <v>0.93328599999999995</v>
+      </c>
+      <c r="EY187">
+        <v>0.38411704000000002</v>
+      </c>
+      <c r="EZ187">
+        <v>0.93328599999999995</v>
+      </c>
     </row>
-    <row r="188" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.97656359999999998</v>
       </c>
@@ -28919,8 +31210,20 @@
       <c r="EL188">
         <v>0.98254600000000003</v>
       </c>
+      <c r="ER188">
+        <v>0.89693440000000002</v>
+      </c>
+      <c r="ES188">
+        <v>0.93158099999999999</v>
+      </c>
+      <c r="EY188">
+        <v>0.38900616999999998</v>
+      </c>
+      <c r="EZ188">
+        <v>0.93158099999999999</v>
+      </c>
     </row>
-    <row r="189" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.97792214</v>
       </c>
@@ -29011,8 +31314,20 @@
       <c r="EL189">
         <v>0.99984399999999996</v>
       </c>
+      <c r="ER189">
+        <v>0.90067180000000002</v>
+      </c>
+      <c r="ES189">
+        <v>0.93326600000000004</v>
+      </c>
+      <c r="EY189">
+        <v>0.42620756999999998</v>
+      </c>
+      <c r="EZ189">
+        <v>0.93326600000000004</v>
+      </c>
     </row>
-    <row r="190" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.9793828</v>
       </c>
@@ -29103,8 +31418,20 @@
       <c r="EL190">
         <v>0.99917999999999996</v>
       </c>
+      <c r="ER190">
+        <v>0.90506790000000004</v>
+      </c>
+      <c r="ES190">
+        <v>0.93308800000000003</v>
+      </c>
+      <c r="EY190">
+        <v>0.45746829999999999</v>
+      </c>
+      <c r="EZ190">
+        <v>0.93308800000000003</v>
+      </c>
     </row>
-    <row r="191" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98040729999999998</v>
       </c>
@@ -29195,8 +31522,20 @@
       <c r="EL191">
         <v>0.99207199999999995</v>
       </c>
+      <c r="ER191">
+        <v>0.90924495000000005</v>
+      </c>
+      <c r="ES191">
+        <v>0.93390700000000004</v>
+      </c>
+      <c r="EY191">
+        <v>0.47364327000000001</v>
+      </c>
+      <c r="EZ191">
+        <v>0.93390700000000004</v>
+      </c>
     </row>
-    <row r="192" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98111605999999996</v>
       </c>
@@ -29287,8 +31626,20 @@
       <c r="EL192">
         <v>1.00953</v>
       </c>
+      <c r="ER192">
+        <v>0.91217773999999996</v>
+      </c>
+      <c r="ES192">
+        <v>0.92749800000000004</v>
+      </c>
+      <c r="EY192">
+        <v>0.48750216000000002</v>
+      </c>
+      <c r="EZ192">
+        <v>0.92749800000000004</v>
+      </c>
     </row>
-    <row r="193" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98187243999999996</v>
       </c>
@@ -29379,8 +31730,20 @@
       <c r="EL193">
         <v>1.01359</v>
       </c>
+      <c r="ER193">
+        <v>0.9132924</v>
+      </c>
+      <c r="ES193">
+        <v>0.94217799999999996</v>
+      </c>
+      <c r="EY193">
+        <v>0.49522581999999998</v>
+      </c>
+      <c r="EZ193">
+        <v>0.94217799999999996</v>
+      </c>
     </row>
-    <row r="194" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98256403000000003</v>
       </c>
@@ -29471,8 +31834,20 @@
       <c r="EL194">
         <v>1.0083</v>
       </c>
+      <c r="ER194">
+        <v>0.91386529999999999</v>
+      </c>
+      <c r="ES194">
+        <v>0.92690399999999995</v>
+      </c>
+      <c r="EY194">
+        <v>0.49729030000000002</v>
+      </c>
+      <c r="EZ194">
+        <v>0.92690399999999995</v>
+      </c>
     </row>
-    <row r="195" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98312259999999996</v>
       </c>
@@ -29563,8 +31938,20 @@
       <c r="EL195">
         <v>1.0066200000000001</v>
       </c>
+      <c r="ER195">
+        <v>0.91388475999999996</v>
+      </c>
+      <c r="ES195">
+        <v>0.90715599999999996</v>
+      </c>
+      <c r="EY195">
+        <v>0.49229476</v>
+      </c>
+      <c r="EZ195">
+        <v>0.90715599999999996</v>
+      </c>
     </row>
-    <row r="196" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98375254999999995</v>
       </c>
@@ -29655,8 +32042,20 @@
       <c r="EL196">
         <v>1.0061</v>
       </c>
+      <c r="ER196">
+        <v>0.91263353999999997</v>
+      </c>
+      <c r="ES196">
+        <v>0.93495099999999998</v>
+      </c>
+      <c r="EY196">
+        <v>0.47816842999999998</v>
+      </c>
+      <c r="EZ196">
+        <v>0.93495099999999998</v>
+      </c>
     </row>
-    <row r="197" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98449209999999998</v>
       </c>
@@ -29747,8 +32146,20 @@
       <c r="EL197">
         <v>0.99152099999999999</v>
       </c>
+      <c r="ER197">
+        <v>0.91169290000000003</v>
+      </c>
+      <c r="ES197">
+        <v>0.925292</v>
+      </c>
+      <c r="EY197">
+        <v>0.44723360000000001</v>
+      </c>
+      <c r="EZ197">
+        <v>0.925292</v>
+      </c>
     </row>
-    <row r="198" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98514500000000005</v>
       </c>
@@ -29839,8 +32250,20 @@
       <c r="EL198">
         <v>0.99374099999999999</v>
       </c>
+      <c r="ER198">
+        <v>0.91137460000000003</v>
+      </c>
+      <c r="ES198">
+        <v>0.91638600000000003</v>
+      </c>
+      <c r="EY198">
+        <v>0.41362001999999998</v>
+      </c>
+      <c r="EZ198">
+        <v>0.91638600000000003</v>
+      </c>
     </row>
-    <row r="199" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98565453000000003</v>
       </c>
@@ -29931,8 +32354,20 @@
       <c r="EL199">
         <v>0.98898900000000001</v>
       </c>
+      <c r="ER199">
+        <v>0.91101520000000002</v>
+      </c>
+      <c r="ES199">
+        <v>0.90583499999999995</v>
+      </c>
+      <c r="EY199">
+        <v>0.40316013000000001</v>
+      </c>
+      <c r="EZ199">
+        <v>0.90583499999999995</v>
+      </c>
     </row>
-    <row r="200" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98607814000000005</v>
       </c>
@@ -30023,8 +32458,20 @@
       <c r="EL200">
         <v>0.96845899999999996</v>
       </c>
+      <c r="ER200">
+        <v>0.9102711</v>
+      </c>
+      <c r="ES200">
+        <v>0.90888100000000005</v>
+      </c>
+      <c r="EY200">
+        <v>0.39451999999999998</v>
+      </c>
+      <c r="EZ200">
+        <v>0.90888100000000005</v>
+      </c>
     </row>
-    <row r="201" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98608105999999995</v>
       </c>
@@ -30115,8 +32562,20 @@
       <c r="EL201">
         <v>0.95224299999999995</v>
       </c>
+      <c r="ER201">
+        <v>0.90946660000000001</v>
+      </c>
+      <c r="ES201">
+        <v>0.88254600000000005</v>
+      </c>
+      <c r="EY201">
+        <v>0.38697199999999998</v>
+      </c>
+      <c r="EZ201">
+        <v>0.88254600000000005</v>
+      </c>
     </row>
-    <row r="202" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98535790000000001</v>
       </c>
@@ -30207,8 +32666,20 @@
       <c r="EL202">
         <v>0.97356500000000001</v>
       </c>
+      <c r="ER202">
+        <v>0.90799280000000004</v>
+      </c>
+      <c r="ES202">
+        <v>0.88886900000000002</v>
+      </c>
+      <c r="EY202">
+        <v>0.38234980000000002</v>
+      </c>
+      <c r="EZ202">
+        <v>0.88886900000000002</v>
+      </c>
     </row>
-    <row r="203" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98483220000000005</v>
       </c>
@@ -30299,8 +32770,20 @@
       <c r="EL203">
         <v>0.97162000000000004</v>
       </c>
+      <c r="ER203">
+        <v>0.90621379999999996</v>
+      </c>
+      <c r="ES203">
+        <v>0.90305400000000002</v>
+      </c>
+      <c r="EY203">
+        <v>0.38164865999999997</v>
+      </c>
+      <c r="EZ203">
+        <v>0.90305400000000002</v>
+      </c>
     </row>
-    <row r="204" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98502339999999999</v>
       </c>
@@ -30391,8 +32874,20 @@
       <c r="EL204">
         <v>0.99505699999999997</v>
       </c>
+      <c r="ER204">
+        <v>0.9049547</v>
+      </c>
+      <c r="ES204">
+        <v>0.92264900000000005</v>
+      </c>
+      <c r="EY204">
+        <v>0.38239016999999997</v>
+      </c>
+      <c r="EZ204">
+        <v>0.92264900000000005</v>
+      </c>
     </row>
-    <row r="205" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98543809999999998</v>
       </c>
@@ -30483,8 +32978,20 @@
       <c r="EL205">
         <v>0.99340200000000001</v>
       </c>
+      <c r="ER205">
+        <v>0.90556340000000002</v>
+      </c>
+      <c r="ES205">
+        <v>0.90204899999999999</v>
+      </c>
+      <c r="EY205">
+        <v>0.37936839999999999</v>
+      </c>
+      <c r="EZ205">
+        <v>0.90204899999999999</v>
+      </c>
     </row>
-    <row r="206" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98574779999999995</v>
       </c>
@@ -30575,8 +33082,20 @@
       <c r="EL206">
         <v>0.99900999999999995</v>
       </c>
+      <c r="ER206">
+        <v>0.90782149999999995</v>
+      </c>
+      <c r="ES206">
+        <v>0.87804099999999996</v>
+      </c>
+      <c r="EY206">
+        <v>0.37683855999999999</v>
+      </c>
+      <c r="EZ206">
+        <v>0.87804099999999996</v>
+      </c>
     </row>
-    <row r="207" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98582709999999996</v>
       </c>
@@ -30667,8 +33186,20 @@
       <c r="EL207">
         <v>0.99718499999999999</v>
       </c>
+      <c r="ER207">
+        <v>0.90914284999999995</v>
+      </c>
+      <c r="ES207">
+        <v>0.888347</v>
+      </c>
+      <c r="EY207">
+        <v>0.3793147</v>
+      </c>
+      <c r="EZ207">
+        <v>0.888347</v>
+      </c>
     </row>
-    <row r="208" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98575102999999997</v>
       </c>
@@ -30759,8 +33290,20 @@
       <c r="EL208">
         <v>0.99898900000000002</v>
       </c>
+      <c r="ER208">
+        <v>0.90809479999999998</v>
+      </c>
+      <c r="ES208">
+        <v>0.90012000000000003</v>
+      </c>
+      <c r="EY208">
+        <v>0.3841097</v>
+      </c>
+      <c r="EZ208">
+        <v>0.90012000000000003</v>
+      </c>
     </row>
-    <row r="209" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98565930000000002</v>
       </c>
@@ -30851,8 +33394,20 @@
       <c r="EL209">
         <v>0.99879799999999996</v>
       </c>
+      <c r="ER209">
+        <v>0.90551859999999995</v>
+      </c>
+      <c r="ES209">
+        <v>0.916848</v>
+      </c>
+      <c r="EY209">
+        <v>0.38655272000000002</v>
+      </c>
+      <c r="EZ209">
+        <v>0.916848</v>
+      </c>
     </row>
-    <row r="210" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98564845000000001</v>
       </c>
@@ -30943,8 +33498,20 @@
       <c r="EL210">
         <v>0.99967499999999998</v>
       </c>
+      <c r="ER210">
+        <v>0.90292289999999997</v>
+      </c>
+      <c r="ES210">
+        <v>0.91466800000000004</v>
+      </c>
+      <c r="EY210">
+        <v>0.38447744</v>
+      </c>
+      <c r="EZ210">
+        <v>0.91466800000000004</v>
+      </c>
     </row>
-    <row r="211" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98571235000000001</v>
       </c>
@@ -31035,8 +33602,20 @@
       <c r="EL211">
         <v>0.992815</v>
       </c>
+      <c r="ER211">
+        <v>0.90148600000000001</v>
+      </c>
+      <c r="ES211">
+        <v>0.91170200000000001</v>
+      </c>
+      <c r="EY211">
+        <v>0.37760120000000003</v>
+      </c>
+      <c r="EZ211">
+        <v>0.91170200000000001</v>
+      </c>
     </row>
-    <row r="212" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98587716000000003</v>
       </c>
@@ -31127,8 +33706,20 @@
       <c r="EL212">
         <v>1.0085299999999999</v>
       </c>
+      <c r="ER212">
+        <v>0.90120929999999999</v>
+      </c>
+      <c r="ES212">
+        <v>0.92614399999999997</v>
+      </c>
+      <c r="EY212">
+        <v>0.37066543000000002</v>
+      </c>
+      <c r="EZ212">
+        <v>0.92614399999999997</v>
+      </c>
     </row>
-    <row r="213" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98601127</v>
       </c>
@@ -31219,8 +33810,20 @@
       <c r="EL213">
         <v>0.992178</v>
       </c>
+      <c r="ER213">
+        <v>0.90233039999999998</v>
+      </c>
+      <c r="ES213">
+        <v>0.91623399999999999</v>
+      </c>
+      <c r="EY213">
+        <v>0.37216870000000002</v>
+      </c>
+      <c r="EZ213">
+        <v>0.91623399999999999</v>
+      </c>
     </row>
-    <row r="214" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98605670000000001</v>
       </c>
@@ -31311,8 +33914,20 @@
       <c r="EL214">
         <v>0.97104000000000001</v>
       </c>
+      <c r="ER214">
+        <v>0.90424629999999995</v>
+      </c>
+      <c r="ES214">
+        <v>0.90340399999999998</v>
+      </c>
+      <c r="EY214">
+        <v>0.39192969999999999</v>
+      </c>
+      <c r="EZ214">
+        <v>0.90340399999999998</v>
+      </c>
     </row>
-    <row r="215" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98566529999999997</v>
       </c>
@@ -31403,8 +34018,20 @@
       <c r="EL215">
         <v>1.0007900000000001</v>
       </c>
+      <c r="ER215">
+        <v>0.90581655999999999</v>
+      </c>
+      <c r="ES215">
+        <v>0.88273800000000002</v>
+      </c>
+      <c r="EY215">
+        <v>0.42166724999999999</v>
+      </c>
+      <c r="EZ215">
+        <v>0.88273800000000002</v>
+      </c>
     </row>
-    <row r="216" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98518830000000002</v>
       </c>
@@ -31495,8 +34122,20 @@
       <c r="EL216">
         <v>0.99045300000000003</v>
       </c>
+      <c r="ER216">
+        <v>0.9057887</v>
+      </c>
+      <c r="ES216">
+        <v>0.88541400000000003</v>
+      </c>
+      <c r="EY216">
+        <v>0.43185899999999999</v>
+      </c>
+      <c r="EZ216">
+        <v>0.88541400000000003</v>
+      </c>
     </row>
-    <row r="217" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.98497619999999997</v>
       </c>
@@ -31587,8 +34226,20 @@
       <c r="EL217">
         <v>0.98092000000000001</v>
       </c>
+      <c r="ER217">
+        <v>0.90464460000000002</v>
+      </c>
+      <c r="ES217">
+        <v>0.86793900000000002</v>
+      </c>
+      <c r="EY217">
+        <v>0.42788583000000002</v>
+      </c>
+      <c r="EZ217">
+        <v>0.86793900000000002</v>
+      </c>
     </row>
-    <row r="218" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.98432993999999996</v>
       </c>
@@ -31679,8 +34330,20 @@
       <c r="EL218">
         <v>0.96962599999999999</v>
       </c>
+      <c r="ER218">
+        <v>0.90197070000000001</v>
+      </c>
+      <c r="ES218">
+        <v>0.83677500000000005</v>
+      </c>
+      <c r="EY218">
+        <v>0.4225854</v>
+      </c>
+      <c r="EZ218">
+        <v>0.83677500000000005</v>
+      </c>
     </row>
-    <row r="219" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.98297506999999995</v>
       </c>
@@ -31771,8 +34434,20 @@
       <c r="EL219">
         <v>0.97288600000000003</v>
       </c>
+      <c r="ER219">
+        <v>0.89717495000000003</v>
+      </c>
+      <c r="ES219">
+        <v>0.82286199999999998</v>
+      </c>
+      <c r="EY219">
+        <v>0.41774547000000001</v>
+      </c>
+      <c r="EZ219">
+        <v>0.82286199999999998</v>
+      </c>
     </row>
-    <row r="220" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.98185619999999996</v>
       </c>
@@ -31863,8 +34538,20 @@
       <c r="EL220">
         <v>0.94469700000000001</v>
       </c>
+      <c r="ER220">
+        <v>0.89043090000000003</v>
+      </c>
+      <c r="ES220">
+        <v>0.82394500000000004</v>
+      </c>
+      <c r="EY220">
+        <v>0.42204753</v>
+      </c>
+      <c r="EZ220">
+        <v>0.82394500000000004</v>
+      </c>
     </row>
-    <row r="221" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97993699999999995</v>
       </c>
@@ -31955,8 +34642,20 @@
       <c r="EL221">
         <v>0.95146500000000001</v>
       </c>
+      <c r="ER221">
+        <v>0.88193650000000001</v>
+      </c>
+      <c r="ES221">
+        <v>0.83386199999999999</v>
+      </c>
+      <c r="EY221">
+        <v>0.43093964000000001</v>
+      </c>
+      <c r="EZ221">
+        <v>0.83386199999999999</v>
+      </c>
     </row>
-    <row r="222" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.97773109999999996</v>
       </c>
@@ -32047,8 +34746,20 @@
       <c r="EL222">
         <v>0.96664899999999998</v>
       </c>
+      <c r="ER222">
+        <v>0.87321280000000001</v>
+      </c>
+      <c r="ES222">
+        <v>0.80188599999999999</v>
+      </c>
+      <c r="EY222">
+        <v>0.43163666000000001</v>
+      </c>
+      <c r="EZ222">
+        <v>0.80188599999999999</v>
+      </c>
     </row>
-    <row r="223" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97719294000000001</v>
       </c>
@@ -32139,8 +34850,20 @@
       <c r="EL223">
         <v>0.98762399999999995</v>
       </c>
+      <c r="ER223">
+        <v>0.86486447</v>
+      </c>
+      <c r="ES223">
+        <v>0.82273600000000002</v>
+      </c>
+      <c r="EY223">
+        <v>0.42925763</v>
+      </c>
+      <c r="EZ223">
+        <v>0.82273600000000002</v>
+      </c>
     </row>
-    <row r="224" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97773339999999997</v>
       </c>
@@ -32231,8 +34954,20 @@
       <c r="EL224">
         <v>0.96557400000000004</v>
       </c>
+      <c r="ER224">
+        <v>0.85797864000000001</v>
+      </c>
+      <c r="ES224">
+        <v>0.79531200000000002</v>
+      </c>
+      <c r="EY224">
+        <v>0.43676137999999998</v>
+      </c>
+      <c r="EZ224">
+        <v>0.79531200000000002</v>
+      </c>
     </row>
-    <row r="225" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.97787120000000005</v>
       </c>
@@ -32323,8 +35058,20 @@
       <c r="EL225">
         <v>0.93987399999999999</v>
       </c>
+      <c r="ER225">
+        <v>0.85189820000000005</v>
+      </c>
+      <c r="ES225">
+        <v>0.79597300000000004</v>
+      </c>
+      <c r="EY225">
+        <v>0.43256790000000001</v>
+      </c>
+      <c r="EZ225">
+        <v>0.79597300000000004</v>
+      </c>
     </row>
-    <row r="226" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.9758656</v>
       </c>
@@ -32415,8 +35162,20 @@
       <c r="EL226">
         <v>0.95090699999999995</v>
       </c>
+      <c r="ER226">
+        <v>0.84633510000000001</v>
+      </c>
+      <c r="ES226">
+        <v>0.78143799999999997</v>
+      </c>
+      <c r="EY226">
+        <v>0.42327809999999999</v>
+      </c>
+      <c r="EZ226">
+        <v>0.78143799999999997</v>
+      </c>
     </row>
-    <row r="227" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97317940000000003</v>
       </c>
@@ -32507,8 +35266,20 @@
       <c r="EL227">
         <v>0.96350899999999995</v>
       </c>
+      <c r="ER227">
+        <v>0.84051629999999999</v>
+      </c>
+      <c r="ES227">
+        <v>0.78781999999999996</v>
+      </c>
+      <c r="EY227">
+        <v>0.42099720000000002</v>
+      </c>
+      <c r="EZ227">
+        <v>0.78781999999999996</v>
+      </c>
     </row>
-    <row r="228" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97173726999999999</v>
       </c>
@@ -32599,8 +35370,20 @@
       <c r="EL228">
         <v>0.98141500000000004</v>
       </c>
+      <c r="ER228">
+        <v>0.83404829999999996</v>
+      </c>
+      <c r="ES228">
+        <v>0.81286599999999998</v>
+      </c>
+      <c r="EY228">
+        <v>0.41892287</v>
+      </c>
+      <c r="EZ228">
+        <v>0.81286599999999998</v>
+      </c>
     </row>
-    <row r="229" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.9718755</v>
       </c>
@@ -32691,8 +35474,20 @@
       <c r="EL229">
         <v>0.97908099999999998</v>
       </c>
+      <c r="ER229">
+        <v>0.82780739999999997</v>
+      </c>
+      <c r="ES229">
+        <v>0.79316500000000001</v>
+      </c>
+      <c r="EY229">
+        <v>0.41472291999999999</v>
+      </c>
+      <c r="EZ229">
+        <v>0.79316500000000001</v>
+      </c>
     </row>
-    <row r="230" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97275659999999997</v>
       </c>
@@ -32783,8 +35578,20 @@
       <c r="EL230">
         <v>0.97590600000000005</v>
       </c>
+      <c r="ER230">
+        <v>0.82240559999999996</v>
+      </c>
+      <c r="ES230">
+        <v>0.81070500000000001</v>
+      </c>
+      <c r="EY230">
+        <v>0.40615003999999999</v>
+      </c>
+      <c r="EZ230">
+        <v>0.81070500000000001</v>
+      </c>
     </row>
-    <row r="231" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97297889999999998</v>
       </c>
@@ -32875,8 +35682,20 @@
       <c r="EL231">
         <v>0.99136500000000005</v>
       </c>
+      <c r="ER231">
+        <v>0.82032059999999996</v>
+      </c>
+      <c r="ES231">
+        <v>0.79704299999999995</v>
+      </c>
+      <c r="EY231">
+        <v>0.39555194999999999</v>
+      </c>
+      <c r="EZ231">
+        <v>0.79704299999999995</v>
+      </c>
     </row>
-    <row r="232" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.97284649999999995</v>
       </c>
@@ -32967,8 +35786,20 @@
       <c r="EL232">
         <v>0.98075699999999999</v>
       </c>
+      <c r="ER232">
+        <v>0.82109779999999999</v>
+      </c>
+      <c r="ES232">
+        <v>0.80391999999999997</v>
+      </c>
+      <c r="EY232">
+        <v>0.38398685999999999</v>
+      </c>
+      <c r="EZ232">
+        <v>0.80391999999999997</v>
+      </c>
     </row>
-    <row r="233" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97313136</v>
       </c>
@@ -33059,8 +35890,20 @@
       <c r="EL233">
         <v>0.96702399999999999</v>
       </c>
+      <c r="ER233">
+        <v>0.82282359999999999</v>
+      </c>
+      <c r="ES233">
+        <v>0.834893</v>
+      </c>
+      <c r="EY233">
+        <v>0.4076729</v>
+      </c>
+      <c r="EZ233">
+        <v>0.834893</v>
+      </c>
     </row>
-    <row r="234" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.97397869999999998</v>
       </c>
@@ -33151,8 +35994,20 @@
       <c r="EL234">
         <v>0.94490300000000005</v>
       </c>
+      <c r="ER234">
+        <v>0.82488406000000003</v>
+      </c>
+      <c r="ES234">
+        <v>0.83432399999999995</v>
+      </c>
+      <c r="EY234">
+        <v>0.42436245</v>
+      </c>
+      <c r="EZ234">
+        <v>0.83432399999999995</v>
+      </c>
     </row>
-    <row r="235" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.97337216000000004</v>
       </c>
@@ -33243,8 +36098,20 @@
       <c r="EL235">
         <v>0.94776700000000003</v>
       </c>
+      <c r="ER235">
+        <v>0.82713926000000004</v>
+      </c>
+      <c r="ES235">
+        <v>0.81030899999999995</v>
+      </c>
+      <c r="EY235">
+        <v>0.41792590000000002</v>
+      </c>
+      <c r="EZ235">
+        <v>0.81030899999999995</v>
+      </c>
     </row>
-    <row r="236" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.9720879</v>
       </c>
@@ -33335,8 +36202,20 @@
       <c r="EL236">
         <v>0.92906100000000003</v>
       </c>
+      <c r="ER236">
+        <v>0.82842830000000001</v>
+      </c>
+      <c r="ES236">
+        <v>0.81658500000000001</v>
+      </c>
+      <c r="EY236">
+        <v>0.40990314</v>
+      </c>
+      <c r="EZ236">
+        <v>0.81658500000000001</v>
+      </c>
     </row>
-    <row r="237" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.97014034000000005</v>
       </c>
@@ -33427,8 +36306,20 @@
       <c r="EL237">
         <v>0.89570300000000003</v>
       </c>
+      <c r="ER237">
+        <v>0.827963</v>
+      </c>
+      <c r="ES237">
+        <v>0.81851499999999999</v>
+      </c>
+      <c r="EY237">
+        <v>0.40112241999999998</v>
+      </c>
+      <c r="EZ237">
+        <v>0.81851499999999999</v>
+      </c>
     </row>
-    <row r="238" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.96636515999999995</v>
       </c>
@@ -33519,8 +36410,20 @@
       <c r="EL238">
         <v>0.88080999999999998</v>
       </c>
+      <c r="ER238">
+        <v>0.82630099999999995</v>
+      </c>
+      <c r="ES238">
+        <v>0.79512700000000003</v>
+      </c>
+      <c r="EY238">
+        <v>0.39161383999999999</v>
+      </c>
+      <c r="EZ238">
+        <v>0.79512700000000003</v>
+      </c>
     </row>
-    <row r="239" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.96120554000000002</v>
       </c>
@@ -33611,8 +36514,20 @@
       <c r="EL239">
         <v>0.881969</v>
       </c>
+      <c r="ER239">
+        <v>0.82368600000000003</v>
+      </c>
+      <c r="ES239">
+        <v>0.77754699999999999</v>
+      </c>
+      <c r="EY239">
+        <v>0.38053547999999998</v>
+      </c>
+      <c r="EZ239">
+        <v>0.77754699999999999</v>
+      </c>
     </row>
-    <row r="240" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.95493567000000001</v>
       </c>
@@ -33703,8 +36618,20 @@
       <c r="EL240">
         <v>0.89258400000000004</v>
       </c>
+      <c r="ER240">
+        <v>0.82005256000000004</v>
+      </c>
+      <c r="ES240">
+        <v>0.77673400000000004</v>
+      </c>
+      <c r="EY240">
+        <v>0.36712070000000002</v>
+      </c>
+      <c r="EZ240">
+        <v>0.77673400000000004</v>
+      </c>
     </row>
-    <row r="241" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.94963056000000001</v>
       </c>
@@ -33795,8 +36722,20 @@
       <c r="EL241">
         <v>0.85835600000000001</v>
       </c>
+      <c r="ER241">
+        <v>0.81550449999999997</v>
+      </c>
+      <c r="ES241">
+        <v>0.77650300000000005</v>
+      </c>
+      <c r="EY241">
+        <v>0.35184782999999997</v>
+      </c>
+      <c r="EZ241">
+        <v>0.77650300000000005</v>
+      </c>
     </row>
-    <row r="242" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.94228979999999996</v>
       </c>
@@ -33887,8 +36826,20 @@
       <c r="EL242">
         <v>0.88067499999999999</v>
       </c>
+      <c r="ER242">
+        <v>0.81069910000000001</v>
+      </c>
+      <c r="ES242">
+        <v>0.76145300000000005</v>
+      </c>
+      <c r="EY242">
+        <v>0.33594184999999999</v>
+      </c>
+      <c r="EZ242">
+        <v>0.76145300000000005</v>
+      </c>
     </row>
-    <row r="243" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.93428235999999998</v>
       </c>
@@ -33979,8 +36930,20 @@
       <c r="EL243">
         <v>0.85131999999999997</v>
       </c>
+      <c r="ER243">
+        <v>0.80612950000000005</v>
+      </c>
+      <c r="ES243">
+        <v>0.78503900000000004</v>
+      </c>
+      <c r="EY243">
+        <v>0.32001659999999998</v>
+      </c>
+      <c r="EZ243">
+        <v>0.78503900000000004</v>
+      </c>
     </row>
-    <row r="244" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.92244440000000005</v>
       </c>
@@ -34071,8 +37034,20 @@
       <c r="EL244">
         <v>0.85202699999999998</v>
       </c>
+      <c r="ER244">
+        <v>0.80321735000000005</v>
+      </c>
+      <c r="ES244">
+        <v>0.80538699999999996</v>
+      </c>
+      <c r="EY244">
+        <v>0.30712768000000001</v>
+      </c>
+      <c r="EZ244">
+        <v>0.80538699999999996</v>
+      </c>
     </row>
-    <row r="245" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.90962129999999997</v>
       </c>
@@ -34163,8 +37138,20 @@
       <c r="EL245">
         <v>0.83646900000000002</v>
       </c>
+      <c r="ER245">
+        <v>0.80322959999999999</v>
+      </c>
+      <c r="ES245">
+        <v>0.82602600000000004</v>
+      </c>
+      <c r="EY245">
+        <v>0.29887937999999997</v>
+      </c>
+      <c r="EZ245">
+        <v>0.82602600000000004</v>
+      </c>
     </row>
-    <row r="246" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.89433295000000002</v>
       </c>
@@ -34255,8 +37242,20 @@
       <c r="EL246">
         <v>0.84330000000000005</v>
       </c>
+      <c r="ER246">
+        <v>0.80633586999999995</v>
+      </c>
+      <c r="ES246">
+        <v>0.82008700000000001</v>
+      </c>
+      <c r="EY246">
+        <v>0.29417177999999999</v>
+      </c>
+      <c r="EZ246">
+        <v>0.82008700000000001</v>
+      </c>
     </row>
-    <row r="247" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87948110000000002</v>
       </c>
@@ -34347,8 +37346,20 @@
       <c r="EL247">
         <v>0.87011000000000005</v>
       </c>
+      <c r="ER247">
+        <v>0.81134366999999996</v>
+      </c>
+      <c r="ES247">
+        <v>0.82005399999999995</v>
+      </c>
+      <c r="EY247">
+        <v>0.29134466999999997</v>
+      </c>
+      <c r="EZ247">
+        <v>0.82005399999999995</v>
+      </c>
     </row>
-    <row r="248" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.86989700000000003</v>
       </c>
@@ -34439,8 +37450,20 @@
       <c r="EL248">
         <v>0.84902100000000003</v>
       </c>
+      <c r="ER248">
+        <v>0.81608789999999998</v>
+      </c>
+      <c r="ES248">
+        <v>0.838368</v>
+      </c>
+      <c r="EY248">
+        <v>0.28777914999999998</v>
+      </c>
+      <c r="EZ248">
+        <v>0.838368</v>
+      </c>
     </row>
-    <row r="249" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.8644366</v>
       </c>
@@ -34531,8 +37554,20 @@
       <c r="EL249">
         <v>0.86779700000000004</v>
       </c>
+      <c r="ER249">
+        <v>0.8205848</v>
+      </c>
+      <c r="ES249">
+        <v>0.82235999999999998</v>
+      </c>
+      <c r="EY249">
+        <v>0.28294295000000003</v>
+      </c>
+      <c r="EZ249">
+        <v>0.82235999999999998</v>
+      </c>
     </row>
-    <row r="250" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.86798613999999996</v>
       </c>
@@ -34623,8 +37658,20 @@
       <c r="EL250">
         <v>0.85317200000000004</v>
       </c>
+      <c r="ER250">
+        <v>0.82425090000000001</v>
+      </c>
+      <c r="ES250">
+        <v>0.82799500000000004</v>
+      </c>
+      <c r="EY250">
+        <v>0.27770337</v>
+      </c>
+      <c r="EZ250">
+        <v>0.82799500000000004</v>
+      </c>
     </row>
-    <row r="251" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.87286010000000003</v>
       </c>
@@ -34715,8 +37762,20 @@
       <c r="EL251">
         <v>0.86053400000000002</v>
       </c>
+      <c r="ER251">
+        <v>0.82694020000000001</v>
+      </c>
+      <c r="ES251">
+        <v>0.84246399999999999</v>
+      </c>
+      <c r="EY251">
+        <v>0.27551769999999998</v>
+      </c>
+      <c r="EZ251">
+        <v>0.84246399999999999</v>
+      </c>
     </row>
-    <row r="252" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.87586359999999996</v>
       </c>
@@ -34807,8 +37866,20 @@
       <c r="EL252">
         <v>0.89368800000000004</v>
       </c>
+      <c r="ER252">
+        <v>0.82902469999999995</v>
+      </c>
+      <c r="ES252">
+        <v>0.84005200000000002</v>
+      </c>
+      <c r="EY252">
+        <v>0.27645894999999998</v>
+      </c>
+      <c r="EZ252">
+        <v>0.84005200000000002</v>
+      </c>
     </row>
-    <row r="253" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.88215639999999995</v>
       </c>
@@ -34899,8 +37970,20 @@
       <c r="EL253">
         <v>0.89307899999999996</v>
       </c>
+      <c r="ER253">
+        <v>0.82976439999999996</v>
+      </c>
+      <c r="ES253">
+        <v>0.82960100000000003</v>
+      </c>
+      <c r="EY253">
+        <v>0.28142404999999998</v>
+      </c>
+      <c r="EZ253">
+        <v>0.82960100000000003</v>
+      </c>
     </row>
-    <row r="254" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.89292145000000001</v>
       </c>
@@ -34991,8 +38074,20 @@
       <c r="EL254">
         <v>0.86737299999999995</v>
       </c>
+      <c r="ER254">
+        <v>0.82908809999999999</v>
+      </c>
+      <c r="ES254">
+        <v>0.86007100000000003</v>
+      </c>
+      <c r="EY254">
+        <v>0.28897378000000001</v>
+      </c>
+      <c r="EZ254">
+        <v>0.86007100000000003</v>
+      </c>
     </row>
-    <row r="255" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.89778703000000004</v>
       </c>
@@ -35083,8 +38178,20 @@
       <c r="EL255">
         <v>0.87409099999999995</v>
       </c>
+      <c r="ER255">
+        <v>0.82806115999999996</v>
+      </c>
+      <c r="ES255">
+        <v>0.86542200000000002</v>
+      </c>
+      <c r="EY255">
+        <v>0.29494369999999998</v>
+      </c>
+      <c r="EZ255">
+        <v>0.86542200000000002</v>
+      </c>
     </row>
-    <row r="256" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89979105999999998</v>
       </c>
@@ -35175,8 +38282,20 @@
       <c r="EL256">
         <v>0.87615600000000005</v>
       </c>
+      <c r="ER256">
+        <v>0.82846050000000004</v>
+      </c>
+      <c r="ES256">
+        <v>0.87001399999999995</v>
+      </c>
+      <c r="EY256">
+        <v>0.30012879999999997</v>
+      </c>
+      <c r="EZ256">
+        <v>0.87001399999999995</v>
+      </c>
     </row>
-    <row r="257" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.90518330000000002</v>
       </c>
@@ -35267,8 +38386,20 @@
       <c r="EL257">
         <v>0.85112200000000005</v>
       </c>
+      <c r="ER257">
+        <v>0.8310497</v>
+      </c>
+      <c r="ES257">
+        <v>0.87436700000000001</v>
+      </c>
+      <c r="EY257">
+        <v>0.30906022</v>
+      </c>
+      <c r="EZ257">
+        <v>0.87436700000000001</v>
+      </c>
     </row>
-    <row r="258" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.9069429</v>
       </c>
@@ -35359,8 +38490,20 @@
       <c r="EL258">
         <v>0.83230300000000002</v>
       </c>
+      <c r="ER258">
+        <v>0.83452289999999996</v>
+      </c>
+      <c r="ES258">
+        <v>0.87553700000000001</v>
+      </c>
+      <c r="EY258">
+        <v>0.31842189999999998</v>
+      </c>
+      <c r="EZ258">
+        <v>0.87553700000000001</v>
+      </c>
     </row>
-    <row r="259" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.90196759999999998</v>
       </c>
@@ -35451,8 +38594,20 @@
       <c r="EL259">
         <v>0.83143299999999998</v>
       </c>
+      <c r="ER259">
+        <v>0.83802027000000001</v>
+      </c>
+      <c r="ES259">
+        <v>0.86067199999999999</v>
+      </c>
+      <c r="EY259">
+        <v>0.32721117</v>
+      </c>
+      <c r="EZ259">
+        <v>0.86067199999999999</v>
+      </c>
     </row>
-    <row r="260" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.89463972999999997</v>
       </c>
@@ -35543,8 +38698,20 @@
       <c r="EL260">
         <v>0.83118599999999998</v>
       </c>
+      <c r="ER260">
+        <v>0.84112140000000002</v>
+      </c>
+      <c r="ES260">
+        <v>0.86727799999999999</v>
+      </c>
+      <c r="EY260">
+        <v>0.33488074000000001</v>
+      </c>
+      <c r="EZ260">
+        <v>0.86727799999999999</v>
+      </c>
     </row>
-    <row r="261" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.89197749999999998</v>
       </c>
@@ -35635,8 +38802,20 @@
       <c r="EL261">
         <v>0.81507600000000002</v>
       </c>
+      <c r="ER261">
+        <v>0.84404665000000001</v>
+      </c>
+      <c r="ES261">
+        <v>0.867483</v>
+      </c>
+      <c r="EY261">
+        <v>0.34174818000000001</v>
+      </c>
+      <c r="EZ261">
+        <v>0.867483</v>
+      </c>
     </row>
-    <row r="262" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.88822409999999996</v>
       </c>
@@ -35727,8 +38906,20 @@
       <c r="EL262">
         <v>0.84032300000000004</v>
       </c>
+      <c r="ER262">
+        <v>0.84678655999999997</v>
+      </c>
+      <c r="ES262">
+        <v>0.88903399999999999</v>
+      </c>
+      <c r="EY262">
+        <v>0.33910417999999998</v>
+      </c>
+      <c r="EZ262">
+        <v>0.88903399999999999</v>
+      </c>
     </row>
-    <row r="263" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.89092505</v>
       </c>
@@ -35819,8 +39010,20 @@
       <c r="EL263">
         <v>0.86210399999999998</v>
       </c>
+      <c r="ER263">
+        <v>0.85074570000000005</v>
+      </c>
+      <c r="ES263">
+        <v>0.88734999999999997</v>
+      </c>
+      <c r="EY263">
+        <v>0.35926279999999999</v>
+      </c>
+      <c r="EZ263">
+        <v>0.88734999999999997</v>
+      </c>
     </row>
-    <row r="264" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.90219819999999995</v>
       </c>
@@ -35911,8 +39114,20 @@
       <c r="EL264">
         <v>0.88419700000000001</v>
       </c>
+      <c r="ER264">
+        <v>0.85661330000000002</v>
+      </c>
+      <c r="ES264">
+        <v>0.88489799999999996</v>
+      </c>
+      <c r="EY264">
+        <v>0.37041193</v>
+      </c>
+      <c r="EZ264">
+        <v>0.88489799999999996</v>
+      </c>
     </row>
-    <row r="265" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.91393124999999997</v>
       </c>
@@ -36003,8 +39218,20 @@
       <c r="EL265">
         <v>0.87783900000000004</v>
       </c>
+      <c r="ER265">
+        <v>0.86343590000000003</v>
+      </c>
+      <c r="ES265">
+        <v>0.89235699999999996</v>
+      </c>
+      <c r="EY265">
+        <v>0.3763958</v>
+      </c>
+      <c r="EZ265">
+        <v>0.89235699999999996</v>
+      </c>
     </row>
-    <row r="266" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.92070680000000005</v>
       </c>
@@ -36095,8 +39322,20 @@
       <c r="EL266">
         <v>0.87780400000000003</v>
       </c>
+      <c r="ER266">
+        <v>0.87023145000000002</v>
+      </c>
+      <c r="ES266">
+        <v>0.90119099999999996</v>
+      </c>
+      <c r="EY266">
+        <v>0.38290190000000002</v>
+      </c>
+      <c r="EZ266">
+        <v>0.90119099999999996</v>
+      </c>
     </row>
-    <row r="267" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.92520279999999999</v>
       </c>
@@ -36187,8 +39426,20 @@
       <c r="EL267">
         <v>0.89740699999999995</v>
       </c>
+      <c r="ER267">
+        <v>0.87687210000000004</v>
+      </c>
+      <c r="ES267">
+        <v>0.90712999999999999</v>
+      </c>
+      <c r="EY267">
+        <v>0.39463399999999998</v>
+      </c>
+      <c r="EZ267">
+        <v>0.90712999999999999</v>
+      </c>
     </row>
-    <row r="268" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.93181879999999995</v>
       </c>
@@ -36279,8 +39530,20 @@
       <c r="EL268">
         <v>0.88027200000000005</v>
       </c>
+      <c r="ER268">
+        <v>0.88330240000000004</v>
+      </c>
+      <c r="ES268">
+        <v>0.90846400000000005</v>
+      </c>
+      <c r="EY268">
+        <v>0.40480952999999997</v>
+      </c>
+      <c r="EZ268">
+        <v>0.90846400000000005</v>
+      </c>
     </row>
-    <row r="269" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.93664895999999997</v>
       </c>
@@ -36371,8 +39634,20 @@
       <c r="EL269">
         <v>0.88630399999999998</v>
       </c>
+      <c r="ER269">
+        <v>0.88842829999999995</v>
+      </c>
+      <c r="ES269">
+        <v>0.90727500000000005</v>
+      </c>
+      <c r="EY269">
+        <v>0.41298827999999999</v>
+      </c>
+      <c r="EZ269">
+        <v>0.90727500000000005</v>
+      </c>
     </row>
-    <row r="270" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.94140214</v>
       </c>
@@ -36463,8 +39738,20 @@
       <c r="EL270">
         <v>0.90179200000000004</v>
       </c>
+      <c r="ER270">
+        <v>0.89094304999999996</v>
+      </c>
+      <c r="ES270">
+        <v>0.89862699999999995</v>
+      </c>
+      <c r="EY270">
+        <v>0.41940620000000001</v>
+      </c>
+      <c r="EZ270">
+        <v>0.89862699999999995</v>
+      </c>
     </row>
-    <row r="271" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.94735837000000001</v>
       </c>
@@ -36555,8 +39842,20 @@
       <c r="EL271">
         <v>0.89921099999999998</v>
       </c>
+      <c r="ER271">
+        <v>0.8907292</v>
+      </c>
+      <c r="ES271">
+        <v>0.89811799999999997</v>
+      </c>
+      <c r="EY271">
+        <v>0.42504629999999999</v>
+      </c>
+      <c r="EZ271">
+        <v>0.89811799999999997</v>
+      </c>
     </row>
-    <row r="272" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.95195174000000005</v>
       </c>
@@ -36647,8 +39946,20 @@
       <c r="EL272">
         <v>0.88802300000000001</v>
       </c>
+      <c r="ER272">
+        <v>0.88876146</v>
+      </c>
+      <c r="ES272">
+        <v>0.89885199999999998</v>
+      </c>
+      <c r="EY272">
+        <v>0.43042162</v>
+      </c>
+      <c r="EZ272">
+        <v>0.89885199999999998</v>
+      </c>
     </row>
-    <row r="273" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.95576954000000003</v>
       </c>
@@ -36739,8 +40050,20 @@
       <c r="EL273">
         <v>0.92063899999999999</v>
       </c>
+      <c r="ER273">
+        <v>0.88568365999999998</v>
+      </c>
+      <c r="ES273">
+        <v>0.910717</v>
+      </c>
+      <c r="EY273">
+        <v>0.43493243999999998</v>
+      </c>
+      <c r="EZ273">
+        <v>0.910717</v>
+      </c>
     </row>
-    <row r="274" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96027689999999999</v>
       </c>
@@ -36831,8 +40154,20 @@
       <c r="EL274">
         <v>0.92636700000000005</v>
       </c>
+      <c r="ER274">
+        <v>0.88333110000000004</v>
+      </c>
+      <c r="ES274">
+        <v>0.91662399999999999</v>
+      </c>
+      <c r="EY274">
+        <v>0.43834846999999999</v>
+      </c>
+      <c r="EZ274">
+        <v>0.91662399999999999</v>
+      </c>
     </row>
-    <row r="275" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.96422905000000003</v>
       </c>
@@ -36923,8 +40258,20 @@
       <c r="EL275">
         <v>0.93128200000000005</v>
       </c>
+      <c r="ER275">
+        <v>0.88286023999999996</v>
+      </c>
+      <c r="ES275">
+        <v>0.91384200000000004</v>
+      </c>
+      <c r="EY275">
+        <v>0.44222660000000003</v>
+      </c>
+      <c r="EZ275">
+        <v>0.91384200000000004</v>
+      </c>
     </row>
-    <row r="276" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.96671706000000002</v>
       </c>
@@ -37015,8 +40362,20 @@
       <c r="EL276">
         <v>0.93594200000000005</v>
       </c>
+      <c r="ER276">
+        <v>0.88363380000000002</v>
+      </c>
+      <c r="ES276">
+        <v>0.92245699999999997</v>
+      </c>
+      <c r="EY276">
+        <v>0.44626992999999998</v>
+      </c>
+      <c r="EZ276">
+        <v>0.92245699999999997</v>
+      </c>
     </row>
-    <row r="277" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.96816409999999997</v>
       </c>
@@ -37107,8 +40466,20 @@
       <c r="EL277">
         <v>0.93719399999999997</v>
       </c>
+      <c r="ER277">
+        <v>0.88555320000000004</v>
+      </c>
+      <c r="ES277">
+        <v>0.91806399999999999</v>
+      </c>
+      <c r="EY277">
+        <v>0.41787034000000001</v>
+      </c>
+      <c r="EZ277">
+        <v>0.91806399999999999</v>
+      </c>
     </row>
-    <row r="278" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.96929679999999996</v>
       </c>
@@ -37199,8 +40570,20 @@
       <c r="EL278">
         <v>0.92128200000000005</v>
       </c>
+      <c r="ER278">
+        <v>0.88846590000000003</v>
+      </c>
+      <c r="ES278">
+        <v>0.90421600000000002</v>
+      </c>
+      <c r="EY278">
+        <v>0.34384763000000002</v>
+      </c>
+      <c r="EZ278">
+        <v>0.90421600000000002</v>
+      </c>
     </row>
-    <row r="279" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.9700704</v>
       </c>
@@ -37291,8 +40674,20 @@
       <c r="EL279">
         <v>0.92835400000000001</v>
       </c>
+      <c r="ER279">
+        <v>0.89047290000000001</v>
+      </c>
+      <c r="ES279">
+        <v>0.91841399999999995</v>
+      </c>
+      <c r="EY279">
+        <v>0.33641612999999998</v>
+      </c>
+      <c r="EZ279">
+        <v>0.91841399999999995</v>
+      </c>
     </row>
-    <row r="280" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97097354999999996</v>
       </c>
@@ -37383,8 +40778,20 @@
       <c r="EL280">
         <v>0.92857299999999998</v>
       </c>
+      <c r="ER280">
+        <v>0.89103204000000003</v>
+      </c>
+      <c r="ES280">
+        <v>0.90206299999999995</v>
+      </c>
+      <c r="EY280">
+        <v>0.33577043000000001</v>
+      </c>
+      <c r="EZ280">
+        <v>0.90206299999999995</v>
+      </c>
     </row>
-    <row r="281" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97236250000000002</v>
       </c>
@@ -37475,8 +40882,20 @@
       <c r="EL281">
         <v>0.95164199999999999</v>
       </c>
+      <c r="ER281">
+        <v>0.88980709999999996</v>
+      </c>
+      <c r="ES281">
+        <v>0.90582200000000002</v>
+      </c>
+      <c r="EY281">
+        <v>0.33501570000000003</v>
+      </c>
+      <c r="EZ281">
+        <v>0.90582200000000002</v>
+      </c>
     </row>
-    <row r="282" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97372190000000003</v>
       </c>
@@ -37567,8 +40986,20 @@
       <c r="EL282">
         <v>0.94983899999999999</v>
       </c>
+      <c r="ER282">
+        <v>0.88732580000000005</v>
+      </c>
+      <c r="ES282">
+        <v>0.902115</v>
+      </c>
+      <c r="EY282">
+        <v>0.33414522000000002</v>
+      </c>
+      <c r="EZ282">
+        <v>0.902115</v>
+      </c>
     </row>
-    <row r="283" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.97404086999999995</v>
       </c>
@@ -37659,8 +41090,20 @@
       <c r="EL283">
         <v>0.94721500000000003</v>
       </c>
+      <c r="ER283">
+        <v>0.8842158</v>
+      </c>
+      <c r="ES283">
+        <v>0.91515000000000002</v>
+      </c>
+      <c r="EY283">
+        <v>0.33315267999999998</v>
+      </c>
+      <c r="EZ283">
+        <v>0.91515000000000002</v>
+      </c>
     </row>
-    <row r="284" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97437090000000004</v>
       </c>
@@ -37751,8 +41194,20 @@
       <c r="EL284">
         <v>0.95519900000000002</v>
       </c>
+      <c r="ER284">
+        <v>0.88243245999999997</v>
+      </c>
+      <c r="ES284">
+        <v>0.92882600000000004</v>
+      </c>
+      <c r="EY284">
+        <v>0.33462777999999999</v>
+      </c>
+      <c r="EZ284">
+        <v>0.92882600000000004</v>
+      </c>
     </row>
-    <row r="285" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97535263999999999</v>
       </c>
@@ -37843,8 +41298,20 @@
       <c r="EL285">
         <v>0.96465400000000001</v>
       </c>
+      <c r="ER285">
+        <v>0.88337379999999999</v>
+      </c>
+      <c r="ES285">
+        <v>0.929064</v>
+      </c>
+      <c r="EY285">
+        <v>0.33537840000000002</v>
+      </c>
+      <c r="EZ285">
+        <v>0.929064</v>
+      </c>
     </row>
-    <row r="286" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97585449999999996</v>
       </c>
@@ -37935,8 +41402,20 @@
       <c r="EL286">
         <v>0.97101199999999999</v>
       </c>
+      <c r="ER286">
+        <v>0.88695484000000002</v>
+      </c>
+      <c r="ES286">
+        <v>0.92771000000000003</v>
+      </c>
+      <c r="EY286">
+        <v>0.33703709999999998</v>
+      </c>
+      <c r="EZ286">
+        <v>0.92771000000000003</v>
+      </c>
     </row>
-    <row r="287" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.9758175</v>
       </c>
@@ -38027,8 +41506,20 @@
       <c r="EL287">
         <v>0.972441</v>
       </c>
+      <c r="ER287">
+        <v>0.89130149999999997</v>
+      </c>
+      <c r="ES287">
+        <v>0.93670100000000001</v>
+      </c>
+      <c r="EY287">
+        <v>0.33853834999999999</v>
+      </c>
+      <c r="EZ287">
+        <v>0.93670100000000001</v>
+      </c>
     </row>
-    <row r="288" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97472689999999995</v>
       </c>
@@ -38119,8 +41610,20 @@
       <c r="EL288">
         <v>0.97116800000000003</v>
       </c>
+      <c r="ER288">
+        <v>0.89556069999999999</v>
+      </c>
+      <c r="ES288">
+        <v>0.94096900000000006</v>
+      </c>
+      <c r="EY288">
+        <v>0.34154784999999999</v>
+      </c>
+      <c r="EZ288">
+        <v>0.94096900000000006</v>
+      </c>
     </row>
-    <row r="289" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97435210000000005</v>
       </c>
@@ -38211,8 +41714,20 @@
       <c r="EL289">
         <v>0.96191099999999996</v>
       </c>
+      <c r="ER289">
+        <v>0.89972174000000005</v>
+      </c>
+      <c r="ES289">
+        <v>0.94202600000000003</v>
+      </c>
+      <c r="EY289">
+        <v>0.34655604000000001</v>
+      </c>
+      <c r="EZ289">
+        <v>0.94202600000000003</v>
+      </c>
     </row>
-    <row r="290" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97502480000000002</v>
       </c>
@@ -38303,8 +41818,20 @@
       <c r="EL290">
         <v>0.96136600000000005</v>
       </c>
+      <c r="ER290">
+        <v>0.90352489999999996</v>
+      </c>
+      <c r="ES290">
+        <v>0.93481199999999998</v>
+      </c>
+      <c r="EY290">
+        <v>0.35627674999999998</v>
+      </c>
+      <c r="EZ290">
+        <v>0.93481199999999998</v>
+      </c>
     </row>
-    <row r="291" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97573244999999997</v>
       </c>
@@ -38395,8 +41922,20 @@
       <c r="EL291">
         <v>0.96215099999999998</v>
       </c>
+      <c r="ER291">
+        <v>0.90599260000000004</v>
+      </c>
+      <c r="ES291">
+        <v>0.93487799999999999</v>
+      </c>
+      <c r="EY291">
+        <v>0.37527263</v>
+      </c>
+      <c r="EZ291">
+        <v>0.93487799999999999</v>
+      </c>
     </row>
-    <row r="292" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97630053999999999</v>
       </c>
@@ -38487,8 +42026,20 @@
       <c r="EL292">
         <v>0.97485200000000005</v>
       </c>
+      <c r="ER292">
+        <v>0.90590930000000003</v>
+      </c>
+      <c r="ES292">
+        <v>0.93237400000000004</v>
+      </c>
+      <c r="EY292">
+        <v>0.38460050000000001</v>
+      </c>
+      <c r="EZ292">
+        <v>0.93237400000000004</v>
+      </c>
     </row>
-    <row r="293" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97684835999999997</v>
       </c>
@@ -38579,8 +42130,20 @@
       <c r="EL293">
         <v>0.98117500000000002</v>
       </c>
+      <c r="ER293">
+        <v>0.90358245000000004</v>
+      </c>
+      <c r="ES293">
+        <v>0.93495700000000004</v>
+      </c>
+      <c r="EY293">
+        <v>0.37557632000000002</v>
+      </c>
+      <c r="EZ293">
+        <v>0.93495700000000004</v>
+      </c>
     </row>
-    <row r="294" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97703636000000005</v>
       </c>
@@ -38671,8 +42234,20 @@
       <c r="EL294">
         <v>0.97819699999999998</v>
       </c>
+      <c r="ER294">
+        <v>0.90063040000000005</v>
+      </c>
+      <c r="ES294">
+        <v>0.93723699999999999</v>
+      </c>
+      <c r="EY294">
+        <v>0.36700848000000003</v>
+      </c>
+      <c r="EZ294">
+        <v>0.93723699999999999</v>
+      </c>
     </row>
-    <row r="295" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97686580000000001</v>
       </c>
@@ -38763,8 +42338,20 @@
       <c r="EL295">
         <v>0.98741900000000005</v>
       </c>
+      <c r="ER295">
+        <v>0.89919232999999998</v>
+      </c>
+      <c r="ES295">
+        <v>0.92445900000000003</v>
+      </c>
+      <c r="EY295">
+        <v>0.37057250000000003</v>
+      </c>
+      <c r="EZ295">
+        <v>0.92445900000000003</v>
+      </c>
     </row>
-    <row r="296" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97698795999999999</v>
       </c>
@@ -38855,8 +42442,20 @@
       <c r="EL296">
         <v>0.98271600000000003</v>
       </c>
+      <c r="ER296">
+        <v>0.89955180000000001</v>
+      </c>
+      <c r="ES296">
+        <v>0.917516</v>
+      </c>
+      <c r="EY296">
+        <v>0.37072929999999998</v>
+      </c>
+      <c r="EZ296">
+        <v>0.917516</v>
+      </c>
     </row>
-    <row r="297" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.97700050000000005</v>
       </c>
@@ -38947,8 +42546,20 @@
       <c r="EL297">
         <v>0.967893</v>
       </c>
+      <c r="ER297">
+        <v>0.90086763999999997</v>
+      </c>
+      <c r="ES297">
+        <v>0.928172</v>
+      </c>
+      <c r="EY297">
+        <v>0.36525397999999998</v>
+      </c>
+      <c r="EZ297">
+        <v>0.928172</v>
+      </c>
     </row>
-    <row r="298" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.97664399999999996</v>
       </c>
@@ -39039,8 +42650,20 @@
       <c r="EL298">
         <v>0.98309100000000005</v>
       </c>
+      <c r="ER298">
+        <v>0.90266760000000001</v>
+      </c>
+      <c r="ES298">
+        <v>0.91624099999999997</v>
+      </c>
+      <c r="EY298">
+        <v>0.35360253000000003</v>
+      </c>
+      <c r="EZ298">
+        <v>0.91624099999999997</v>
+      </c>
     </row>
-    <row r="299" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.97655619999999999</v>
       </c>
@@ -39131,8 +42754,20 @@
       <c r="EL299">
         <v>0.965588</v>
       </c>
+      <c r="ER299">
+        <v>0.90405243999999996</v>
+      </c>
+      <c r="ES299">
+        <v>0.90814700000000004</v>
+      </c>
+      <c r="EY299">
+        <v>0.34960404</v>
+      </c>
+      <c r="EZ299">
+        <v>0.90814700000000004</v>
+      </c>
     </row>
-    <row r="300" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.97605410000000004</v>
       </c>
@@ -39223,8 +42858,20 @@
       <c r="EL300">
         <v>0.96961200000000003</v>
       </c>
+      <c r="ER300">
+        <v>0.90446709999999997</v>
+      </c>
+      <c r="ES300">
+        <v>0.90782399999999996</v>
+      </c>
+      <c r="EY300">
+        <v>0.34801650000000001</v>
+      </c>
+      <c r="EZ300">
+        <v>0.90782399999999996</v>
+      </c>
     </row>
-    <row r="301" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.97562736000000005</v>
       </c>
@@ -39315,8 +42962,20 @@
       <c r="EL301">
         <v>0.96564499999999998</v>
       </c>
+      <c r="ER301">
+        <v>0.90366095000000002</v>
+      </c>
+      <c r="ES301">
+        <v>0.91212499999999996</v>
+      </c>
+      <c r="EY301">
+        <v>0.34709275000000001</v>
+      </c>
+      <c r="EZ301">
+        <v>0.91212499999999996</v>
+      </c>
     </row>
-    <row r="302" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.97557896</v>
       </c>
@@ -39407,8 +43066,20 @@
       <c r="EL302">
         <v>0.97959700000000005</v>
       </c>
+      <c r="ER302">
+        <v>0.902667</v>
+      </c>
+      <c r="ES302">
+        <v>0.91314899999999999</v>
+      </c>
+      <c r="EY302">
+        <v>0.34583779999999997</v>
+      </c>
+      <c r="EZ302">
+        <v>0.91314899999999999</v>
+      </c>
     </row>
-    <row r="303" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.97580385000000003</v>
       </c>
@@ -39499,8 +43170,20 @@
       <c r="EL303">
         <v>0.99423600000000001</v>
       </c>
+      <c r="ER303">
+        <v>0.90286290000000002</v>
+      </c>
+      <c r="ES303">
+        <v>0.93012799999999995</v>
+      </c>
+      <c r="EY303">
+        <v>0.34615272000000002</v>
+      </c>
+      <c r="EZ303">
+        <v>0.93012799999999995</v>
+      </c>
     </row>
-    <row r="304" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.97629889999999997</v>
       </c>
@@ -39591,8 +43274,20 @@
       <c r="EL304">
         <v>0.99449100000000001</v>
       </c>
+      <c r="ER304">
+        <v>0.90475154000000002</v>
+      </c>
+      <c r="ES304">
+        <v>0.91696100000000003</v>
+      </c>
+      <c r="EY304">
+        <v>0.34823345999999999</v>
+      </c>
+      <c r="EZ304">
+        <v>0.91696100000000003</v>
+      </c>
     </row>
-    <row r="305" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.97639699999999996</v>
       </c>
@@ -39683,8 +43378,20 @@
       <c r="EL305">
         <v>0.99304099999999995</v>
       </c>
+      <c r="ER305">
+        <v>0.90756539999999997</v>
+      </c>
+      <c r="ES305">
+        <v>0.91672900000000002</v>
+      </c>
+      <c r="EY305">
+        <v>0.35156953000000002</v>
+      </c>
+      <c r="EZ305">
+        <v>0.91672900000000002</v>
+      </c>
     </row>
-    <row r="306" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.97631769999999996</v>
       </c>
@@ -39775,8 +43482,20 @@
       <c r="EL306">
         <v>1.00267</v>
       </c>
+      <c r="ER306">
+        <v>0.91016889999999995</v>
+      </c>
+      <c r="ES306">
+        <v>0.90516799999999997</v>
+      </c>
+      <c r="EY306">
+        <v>0.35484746</v>
+      </c>
+      <c r="EZ306">
+        <v>0.90516799999999997</v>
+      </c>
     </row>
-    <row r="307" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.97649870000000005</v>
       </c>
@@ -39867,8 +43586,20 @@
       <c r="EL307">
         <v>1.0072300000000001</v>
       </c>
+      <c r="ER307">
+        <v>0.91159259999999998</v>
+      </c>
+      <c r="ES307">
+        <v>0.91841399999999995</v>
+      </c>
+      <c r="EY307">
+        <v>0.35683083999999998</v>
+      </c>
+      <c r="EZ307">
+        <v>0.91841399999999995</v>
+      </c>
     </row>
-    <row r="308" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.97667420000000005</v>
       </c>
@@ -39959,8 +43690,20 @@
       <c r="EL308">
         <v>1.00837</v>
       </c>
+      <c r="ER308">
+        <v>0.91179555999999995</v>
+      </c>
+      <c r="ES308">
+        <v>0.90556400000000004</v>
+      </c>
+      <c r="EY308">
+        <v>0.35733654999999998</v>
+      </c>
+      <c r="EZ308">
+        <v>0.90556400000000004</v>
+      </c>
     </row>
-    <row r="309" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.97665659999999999</v>
       </c>
@@ -40051,8 +43794,20 @@
       <c r="EL309">
         <v>1.00064</v>
       </c>
+      <c r="ER309">
+        <v>0.91011750000000002</v>
+      </c>
+      <c r="ES309">
+        <v>0.90584200000000004</v>
+      </c>
+      <c r="EY309">
+        <v>0.35381006999999998</v>
+      </c>
+      <c r="EZ309">
+        <v>0.90584200000000004</v>
+      </c>
     </row>
-    <row r="310" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.97653455</v>
       </c>
@@ -40143,8 +43898,20 @@
       <c r="EL310">
         <v>1.00071</v>
       </c>
+      <c r="ER310">
+        <v>0.90692114999999995</v>
+      </c>
+      <c r="ES310">
+        <v>0.90082700000000004</v>
+      </c>
+      <c r="EY310">
+        <v>0.34521770000000002</v>
+      </c>
+      <c r="EZ310">
+        <v>0.90082700000000004</v>
+      </c>
     </row>
-    <row r="311" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.97648729999999995</v>
       </c>
@@ -40235,8 +44002,20 @@
       <c r="EL311">
         <v>0.99803399999999998</v>
       </c>
+      <c r="ER311">
+        <v>0.90326613</v>
+      </c>
+      <c r="ES311">
+        <v>0.90893999999999997</v>
+      </c>
+      <c r="EY311">
+        <v>0.33264753000000002</v>
+      </c>
+      <c r="EZ311">
+        <v>0.90893999999999997</v>
+      </c>
     </row>
-    <row r="312" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.97666350000000002</v>
       </c>
@@ -40327,8 +44106,20 @@
       <c r="EL312">
         <v>1.0007999999999999</v>
       </c>
+      <c r="ER312">
+        <v>0.90028160000000002</v>
+      </c>
+      <c r="ES312">
+        <v>0.90611200000000003</v>
+      </c>
+      <c r="EY312">
+        <v>0.31878780000000001</v>
+      </c>
+      <c r="EZ312">
+        <v>0.90611200000000003</v>
+      </c>
     </row>
-    <row r="313" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.97705774999999995</v>
       </c>
@@ -40419,8 +44210,20 @@
       <c r="EL313">
         <v>1.0032399999999999</v>
       </c>
+      <c r="ER313">
+        <v>0.8981536</v>
+      </c>
+      <c r="ES313">
+        <v>0.924624</v>
+      </c>
+      <c r="EY313">
+        <v>0.30363378000000002</v>
+      </c>
+      <c r="EZ313">
+        <v>0.924624</v>
+      </c>
     </row>
-    <row r="314" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.97749949999999997</v>
       </c>
@@ -40511,8 +44314,20 @@
       <c r="EL314">
         <v>0.98956200000000005</v>
       </c>
+      <c r="ER314">
+        <v>0.89751060000000005</v>
+      </c>
+      <c r="ES314">
+        <v>0.93419099999999999</v>
+      </c>
+      <c r="EY314">
+        <v>0.28948819999999997</v>
+      </c>
+      <c r="EZ314">
+        <v>0.93419099999999999</v>
+      </c>
     </row>
-    <row r="315" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.97729239999999995</v>
       </c>
@@ -40603,8 +44418,20 @@
       <c r="EL315">
         <v>0.98212900000000003</v>
       </c>
+      <c r="ER315">
+        <v>0.89946630000000005</v>
+      </c>
+      <c r="ES315">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="EY315">
+        <v>0.27973144999999999</v>
+      </c>
+      <c r="EZ315">
+        <v>0.93389999999999995</v>
+      </c>
     </row>
-    <row r="316" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.97550930000000002</v>
       </c>
@@ -40695,8 +44522,20 @@
       <c r="EL316">
         <v>0.99353599999999997</v>
       </c>
+      <c r="ER316">
+        <v>0.90382004000000005</v>
+      </c>
+      <c r="ES316">
+        <v>0.93981999999999999</v>
+      </c>
+      <c r="EY316">
+        <v>0.27692436999999998</v>
+      </c>
+      <c r="EZ316">
+        <v>0.93981999999999999</v>
+      </c>
     </row>
-    <row r="317" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.97413653</v>
       </c>
@@ -40787,8 +44626,20 @@
       <c r="EL317">
         <v>0.98076399999999997</v>
       </c>
+      <c r="ER317">
+        <v>0.91001153000000001</v>
+      </c>
+      <c r="ES317">
+        <v>0.93843200000000004</v>
+      </c>
+      <c r="EY317">
+        <v>0.37449062</v>
+      </c>
+      <c r="EZ317">
+        <v>0.93843200000000004</v>
+      </c>
     </row>
-    <row r="318" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.97274530000000003</v>
       </c>
@@ -40879,8 +44730,20 @@
       <c r="EL318">
         <v>0.97210099999999999</v>
       </c>
+      <c r="ER318">
+        <v>0.91653870000000004</v>
+      </c>
+      <c r="ES318">
+        <v>0.939998</v>
+      </c>
+      <c r="EY318">
+        <v>0.4468686</v>
+      </c>
+      <c r="EZ318">
+        <v>0.939998</v>
+      </c>
     </row>
-    <row r="319" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.97043495999999996</v>
       </c>
@@ -40971,8 +44834,20 @@
       <c r="EL319">
         <v>0.97175500000000004</v>
       </c>
+      <c r="ER319">
+        <v>0.92220789999999997</v>
+      </c>
+      <c r="ES319">
+        <v>0.94391599999999998</v>
+      </c>
+      <c r="EY319">
+        <v>0.46992165000000002</v>
+      </c>
+      <c r="EZ319">
+        <v>0.94391599999999998</v>
+      </c>
     </row>
-    <row r="320" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.96884899999999996</v>
       </c>
@@ -41063,8 +44938,20 @@
       <c r="EL320">
         <v>0.97635899999999998</v>
       </c>
+      <c r="ER320">
+        <v>0.92703294999999997</v>
+      </c>
+      <c r="ES320">
+        <v>0.93986599999999998</v>
+      </c>
+      <c r="EY320">
+        <v>0.48261716999999998</v>
+      </c>
+      <c r="EZ320">
+        <v>0.93986599999999998</v>
+      </c>
     </row>
-    <row r="321" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.96835726</v>
       </c>
@@ -41155,8 +45042,20 @@
       <c r="EL321">
         <v>0.97745499999999996</v>
       </c>
+      <c r="ER321">
+        <v>0.93105369999999998</v>
+      </c>
+      <c r="ES321">
+        <v>0.946658</v>
+      </c>
+      <c r="EY321">
+        <v>0.48574250000000002</v>
+      </c>
+      <c r="EZ321">
+        <v>0.946658</v>
+      </c>
     </row>
-    <row r="322" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.96878850000000005</v>
       </c>
@@ -41247,8 +45146,20 @@
       <c r="EL322">
         <v>0.99563000000000001</v>
       </c>
+      <c r="ER322">
+        <v>0.93405634000000004</v>
+      </c>
+      <c r="ES322">
+        <v>0.94845500000000005</v>
+      </c>
+      <c r="EY322">
+        <v>0.48528515999999999</v>
+      </c>
+      <c r="EZ322">
+        <v>0.94845500000000005</v>
+      </c>
     </row>
-    <row r="323" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.96974444000000004</v>
       </c>
@@ -41339,8 +45250,20 @@
       <c r="EL323">
         <v>0.98153500000000005</v>
       </c>
+      <c r="ER323">
+        <v>0.93637809999999999</v>
+      </c>
+      <c r="ES323">
+        <v>0.95307299999999995</v>
+      </c>
+      <c r="EY323">
+        <v>0.48239985000000002</v>
+      </c>
+      <c r="EZ323">
+        <v>0.95307299999999995</v>
+      </c>
     </row>
-    <row r="324" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.96988445999999995</v>
       </c>
@@ -41431,8 +45354,20 @@
       <c r="EL324">
         <v>0.98128800000000005</v>
       </c>
+      <c r="ER324">
+        <v>0.93892074000000003</v>
+      </c>
+      <c r="ES324">
+        <v>0.95066799999999996</v>
+      </c>
+      <c r="EY324">
+        <v>0.48004216</v>
+      </c>
+      <c r="EZ324">
+        <v>0.95066799999999996</v>
+      </c>
     </row>
-    <row r="325" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.96913755000000001</v>
       </c>
@@ -41523,8 +45458,20 @@
       <c r="EL325">
         <v>0.968912</v>
       </c>
+      <c r="ER325">
+        <v>0.94177823999999999</v>
+      </c>
+      <c r="ES325">
+        <v>0.93784400000000001</v>
+      </c>
+      <c r="EY325">
+        <v>0.47835233999999999</v>
+      </c>
+      <c r="EZ325">
+        <v>0.93784400000000001</v>
+      </c>
     </row>
-    <row r="326" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.96801804999999996</v>
       </c>
@@ -41615,8 +45562,20 @@
       <c r="EL326">
         <v>0.98309100000000005</v>
       </c>
+      <c r="ER326">
+        <v>0.94357919999999995</v>
+      </c>
+      <c r="ES326">
+        <v>0.92660600000000004</v>
+      </c>
+      <c r="EY326">
+        <v>0.47785707999999999</v>
+      </c>
+      <c r="EZ326">
+        <v>0.92660600000000004</v>
+      </c>
     </row>
-    <row r="327" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.96810819999999997</v>
       </c>
@@ -41707,8 +45666,20 @@
       <c r="EL327">
         <v>0.96933599999999998</v>
       </c>
+      <c r="ER327">
+        <v>0.94297719999999996</v>
+      </c>
+      <c r="ES327">
+        <v>0.92413599999999996</v>
+      </c>
+      <c r="EY327">
+        <v>0.48136345000000003</v>
+      </c>
+      <c r="EZ327">
+        <v>0.92413599999999996</v>
+      </c>
     </row>
-    <row r="328" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.96792023999999999</v>
       </c>
@@ -41799,8 +45770,20 @@
       <c r="EL328">
         <v>0.96963299999999997</v>
       </c>
+      <c r="ER328">
+        <v>0.93943995000000002</v>
+      </c>
+      <c r="ES328">
+        <v>0.92161199999999999</v>
+      </c>
+      <c r="EY328">
+        <v>0.49544009999999999</v>
+      </c>
+      <c r="EZ328">
+        <v>0.92161199999999999</v>
+      </c>
     </row>
-    <row r="329" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.96698810000000002</v>
       </c>
@@ -41891,8 +45874,20 @@
       <c r="EL329">
         <v>0.96426599999999996</v>
       </c>
+      <c r="ER329">
+        <v>0.93411140000000004</v>
+      </c>
+      <c r="ES329">
+        <v>0.92589900000000003</v>
+      </c>
+      <c r="EY329">
+        <v>0.51872384999999999</v>
+      </c>
+      <c r="EZ329">
+        <v>0.92589900000000003</v>
+      </c>
     </row>
-    <row r="330" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.96567879999999995</v>
       </c>
@@ -41983,8 +45978,20 @@
       <c r="EL330">
         <v>0.97294999999999998</v>
       </c>
+      <c r="ER330">
+        <v>0.92881460000000005</v>
+      </c>
+      <c r="ES330">
+        <v>0.921427</v>
+      </c>
+      <c r="EY330">
+        <v>0.52953260000000002</v>
+      </c>
+      <c r="EZ330">
+        <v>0.921427</v>
+      </c>
     </row>
-    <row r="331" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.96592359999999999</v>
       </c>
@@ -42075,8 +46082,20 @@
       <c r="EL331">
         <v>0.96992299999999998</v>
       </c>
+      <c r="ER331">
+        <v>0.92442422999999996</v>
+      </c>
+      <c r="ES331">
+        <v>0.92937499999999995</v>
+      </c>
+      <c r="EY331">
+        <v>0.53737060000000003</v>
+      </c>
+      <c r="EZ331">
+        <v>0.92937499999999995</v>
+      </c>
     </row>
-    <row r="332" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.96687173999999998</v>
       </c>
@@ -42167,8 +46186,20 @@
       <c r="EL332">
         <v>0.98973900000000004</v>
       </c>
+      <c r="ER332">
+        <v>0.92109423999999995</v>
+      </c>
+      <c r="ES332">
+        <v>0.93310700000000002</v>
+      </c>
+      <c r="EY332">
+        <v>0.54057144999999995</v>
+      </c>
+      <c r="EZ332">
+        <v>0.93310700000000002</v>
+      </c>
     </row>
-    <row r="333" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.96827202999999995</v>
       </c>
@@ -42259,8 +46290,20 @@
       <c r="EL333">
         <v>0.99997899999999995</v>
       </c>
+      <c r="ER333">
+        <v>0.91946139999999998</v>
+      </c>
+      <c r="ES333">
+        <v>0.93082799999999999</v>
+      </c>
+      <c r="EY333">
+        <v>0.53924346000000001</v>
+      </c>
+      <c r="EZ333">
+        <v>0.93082799999999999</v>
+      </c>
     </row>
-    <row r="334" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.969808</v>
       </c>
@@ -42351,8 +46394,20 @@
       <c r="EL334">
         <v>0.999668</v>
       </c>
+      <c r="ER334">
+        <v>0.91935440000000002</v>
+      </c>
+      <c r="ES334">
+        <v>0.949241</v>
+      </c>
+      <c r="EY334">
+        <v>0.53547794000000004</v>
+      </c>
+      <c r="EZ334">
+        <v>0.949241</v>
+      </c>
     </row>
-    <row r="335" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.97052349999999998</v>
       </c>
@@ -42443,8 +46498,20 @@
       <c r="EL335">
         <v>1.006</v>
       </c>
+      <c r="ER335">
+        <v>0.92101699999999997</v>
+      </c>
+      <c r="ES335">
+        <v>0.89908999999999994</v>
+      </c>
+      <c r="EY335">
+        <v>0.531856</v>
+      </c>
+      <c r="EZ335">
+        <v>0.89908999999999994</v>
+      </c>
     </row>
-    <row r="336" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.97123139999999997</v>
       </c>
@@ -42535,8 +46602,20 @@
       <c r="EL336">
         <v>1.0045200000000001</v>
       </c>
+      <c r="ER336">
+        <v>0.92171924999999999</v>
+      </c>
+      <c r="ES336">
+        <v>0.87473100000000004</v>
+      </c>
+      <c r="EY336">
+        <v>0.52853083999999995</v>
+      </c>
+      <c r="EZ336">
+        <v>0.87473100000000004</v>
+      </c>
     </row>
-    <row r="337" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.97233550000000002</v>
       </c>
@@ -42627,8 +46706,20 @@
       <c r="EL337">
         <v>1.0062</v>
       </c>
+      <c r="ER337">
+        <v>0.91922970000000004</v>
+      </c>
+      <c r="ES337">
+        <v>0.89821799999999996</v>
+      </c>
+      <c r="EY337">
+        <v>0.52521309999999999</v>
+      </c>
+      <c r="EZ337">
+        <v>0.89821799999999996</v>
+      </c>
     </row>
-    <row r="338" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.97333395</v>
       </c>
@@ -42719,8 +46810,20 @@
       <c r="EL338">
         <v>1.0103899999999999</v>
       </c>
+      <c r="ER338">
+        <v>0.91406969999999998</v>
+      </c>
+      <c r="ES338">
+        <v>0.92112899999999998</v>
+      </c>
+      <c r="EY338">
+        <v>0.52150859999999999</v>
+      </c>
+      <c r="EZ338">
+        <v>0.92112899999999998</v>
+      </c>
     </row>
-    <row r="339" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.97426729999999995</v>
       </c>
@@ -42811,8 +46914,20 @@
       <c r="EL339">
         <v>1.0060500000000001</v>
       </c>
+      <c r="ER339">
+        <v>0.90847480000000003</v>
+      </c>
+      <c r="ES339">
+        <v>0.93968799999999997</v>
+      </c>
+      <c r="EY339">
+        <v>0.51823660000000005</v>
+      </c>
+      <c r="EZ339">
+        <v>0.93968799999999997</v>
+      </c>
     </row>
-    <row r="340" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.97498339999999994</v>
       </c>
@@ -42903,8 +47018,20 @@
       <c r="EL340">
         <v>1.01332</v>
       </c>
+      <c r="ER340">
+        <v>0.90532153999999998</v>
+      </c>
+      <c r="ES340">
+        <v>0.94238999999999995</v>
+      </c>
+      <c r="EY340">
+        <v>0.51474039999999999</v>
+      </c>
+      <c r="EZ340">
+        <v>0.94238999999999995</v>
+      </c>
     </row>
-    <row r="341" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.97546659999999996</v>
       </c>
@@ -42995,8 +47122,20 @@
       <c r="EL341">
         <v>1.01525</v>
       </c>
+      <c r="ER341">
+        <v>0.90547823999999999</v>
+      </c>
+      <c r="ES341">
+        <v>0.93287600000000004</v>
+      </c>
+      <c r="EY341">
+        <v>0.51172209999999996</v>
+      </c>
+      <c r="EZ341">
+        <v>0.93287600000000004</v>
+      </c>
     </row>
-    <row r="342" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.97600319999999996</v>
       </c>
@@ -43087,8 +47226,20 @@
       <c r="EL342">
         <v>1.0201899999999999</v>
       </c>
+      <c r="ER342">
+        <v>0.90805614000000001</v>
+      </c>
+      <c r="ES342">
+        <v>0.94026200000000004</v>
+      </c>
+      <c r="EY342">
+        <v>0.50935876000000002</v>
+      </c>
+      <c r="EZ342">
+        <v>0.94026200000000004</v>
+      </c>
     </row>
-    <row r="343" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.97668529999999998</v>
       </c>
@@ -43179,8 +47330,20 @@
       <c r="EL343">
         <v>1.01762</v>
       </c>
+      <c r="ER343">
+        <v>0.91196520000000003</v>
+      </c>
+      <c r="ES343">
+        <v>0.93905300000000003</v>
+      </c>
+      <c r="EY343">
+        <v>0.50759750000000003</v>
+      </c>
+      <c r="EZ343">
+        <v>0.93905300000000003</v>
+      </c>
     </row>
-    <row r="344" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.97734670000000001</v>
       </c>
@@ -43271,8 +47434,20 @@
       <c r="EL344">
         <v>1.0038899999999999</v>
       </c>
+      <c r="ER344">
+        <v>0.91591524999999996</v>
+      </c>
+      <c r="ES344">
+        <v>0.96019500000000002</v>
+      </c>
+      <c r="EY344">
+        <v>0.50651776999999998</v>
+      </c>
+      <c r="EZ344">
+        <v>0.96019500000000002</v>
+      </c>
     </row>
-    <row r="345" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.97774079999999997</v>
       </c>
@@ -43363,8 +47538,20 @@
       <c r="EL345">
         <v>0.99185999999999996</v>
       </c>
+      <c r="ER345">
+        <v>0.92009370000000001</v>
+      </c>
+      <c r="ES345">
+        <v>0.96499100000000004</v>
+      </c>
+      <c r="EY345">
+        <v>0.50611740000000005</v>
+      </c>
+      <c r="EZ345">
+        <v>0.96499100000000004</v>
+      </c>
     </row>
-    <row r="346" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.9775104</v>
       </c>
@@ -43455,8 +47642,20 @@
       <c r="EL346">
         <v>0.98921499999999996</v>
       </c>
+      <c r="ER346">
+        <v>0.92462336999999994</v>
+      </c>
+      <c r="ES346">
+        <v>0.97488799999999998</v>
+      </c>
+      <c r="EY346">
+        <v>0.50631369999999998</v>
+      </c>
+      <c r="EZ346">
+        <v>0.97488799999999998</v>
+      </c>
     </row>
-    <row r="347" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.97654885000000002</v>
       </c>
@@ -43547,8 +47746,20 @@
       <c r="EL347">
         <v>0.986514</v>
       </c>
+      <c r="ER347">
+        <v>0.92973280000000003</v>
+      </c>
+      <c r="ES347">
+        <v>0.97507999999999995</v>
+      </c>
+      <c r="EY347">
+        <v>0.50715642999999999</v>
+      </c>
+      <c r="EZ347">
+        <v>0.97507999999999995</v>
+      </c>
     </row>
-    <row r="348" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.97579895999999999</v>
       </c>
@@ -43639,8 +47850,20 @@
       <c r="EL348">
         <v>0.99110399999999998</v>
       </c>
+      <c r="ER348">
+        <v>0.93480419999999997</v>
+      </c>
+      <c r="ES348">
+        <v>0.98255800000000004</v>
+      </c>
+      <c r="EY348">
+        <v>0.50867116000000001</v>
+      </c>
+      <c r="EZ348">
+        <v>0.98255800000000004</v>
+      </c>
     </row>
-    <row r="349" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.97529434999999998</v>
       </c>
@@ -43731,8 +47954,20 @@
       <c r="EL349">
         <v>0.98631599999999997</v>
       </c>
+      <c r="ER349">
+        <v>0.93966704999999995</v>
+      </c>
+      <c r="ES349">
+        <v>0.98123000000000005</v>
+      </c>
+      <c r="EY349">
+        <v>0.51159140000000003</v>
+      </c>
+      <c r="EZ349">
+        <v>0.98123000000000005</v>
+      </c>
     </row>
-    <row r="350" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.97480935000000002</v>
       </c>
@@ -43823,8 +48058,20 @@
       <c r="EL350">
         <v>0.99482300000000001</v>
       </c>
+      <c r="ER350">
+        <v>0.94442269999999995</v>
+      </c>
+      <c r="ES350">
+        <v>0.98463299999999998</v>
+      </c>
+      <c r="EY350">
+        <v>0.52000900000000005</v>
+      </c>
+      <c r="EZ350">
+        <v>0.98463299999999998</v>
+      </c>
     </row>
-    <row r="351" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.97479737</v>
       </c>
@@ -43915,8 +48162,20 @@
       <c r="EL351">
         <v>0.99881900000000001</v>
       </c>
+      <c r="ER351">
+        <v>0.94956099999999999</v>
+      </c>
+      <c r="ES351">
+        <v>0.98257799999999995</v>
+      </c>
+      <c r="EY351">
+        <v>0.52719927</v>
+      </c>
+      <c r="EZ351">
+        <v>0.98257799999999995</v>
+      </c>
     </row>
-    <row r="352" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.97511420000000004</v>
       </c>
@@ -44007,8 +48266,20 @@
       <c r="EL352">
         <v>0.99637900000000001</v>
       </c>
+      <c r="ER352">
+        <v>0.95490120000000001</v>
+      </c>
+      <c r="ES352">
+        <v>0.98868299999999998</v>
+      </c>
+      <c r="EY352">
+        <v>0.52904430000000002</v>
+      </c>
+      <c r="EZ352">
+        <v>0.98868299999999998</v>
+      </c>
     </row>
-    <row r="353" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.97518340000000003</v>
       </c>
@@ -44099,8 +48370,20 @@
       <c r="EL353">
         <v>1.0160899999999999</v>
       </c>
+      <c r="ER353">
+        <v>0.96034030000000004</v>
+      </c>
+      <c r="ES353">
+        <v>0.98349699999999995</v>
+      </c>
+      <c r="EY353">
+        <v>0.53004055999999999</v>
+      </c>
+      <c r="EZ353">
+        <v>0.98349699999999995</v>
+      </c>
     </row>
-    <row r="354" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.97530890000000003</v>
       </c>
@@ -44191,8 +48474,20 @@
       <c r="EL354">
         <v>0.96240599999999998</v>
       </c>
+      <c r="ER354">
+        <v>0.96483266000000001</v>
+      </c>
+      <c r="ES354">
+        <v>0.99001099999999997</v>
+      </c>
+      <c r="EY354">
+        <v>0.53223854000000004</v>
+      </c>
+      <c r="EZ354">
+        <v>0.99001099999999997</v>
+      </c>
     </row>
-    <row r="355" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.97224337000000005</v>
       </c>
@@ -44283,8 +48578,20 @@
       <c r="EL355">
         <v>0.93633100000000002</v>
       </c>
+      <c r="ER355">
+        <v>0.96862429999999999</v>
+      </c>
+      <c r="ES355">
+        <v>0.98568299999999998</v>
+      </c>
+      <c r="EY355">
+        <v>0.53522599999999998</v>
+      </c>
+      <c r="EZ355">
+        <v>0.98568299999999998</v>
+      </c>
     </row>
-    <row r="356" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.96590339999999997</v>
       </c>
@@ -44375,8 +48682,20 @@
       <c r="EL356">
         <v>0.96147199999999999</v>
       </c>
+      <c r="ER356">
+        <v>0.97140029999999999</v>
+      </c>
+      <c r="ES356">
+        <v>0.98614599999999997</v>
+      </c>
+      <c r="EY356">
+        <v>0.5360144</v>
+      </c>
+      <c r="EZ356">
+        <v>0.98614599999999997</v>
+      </c>
     </row>
-    <row r="357" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.96321296999999995</v>
       </c>
@@ -44467,8 +48786,20 @@
       <c r="EL357">
         <v>0.98599800000000004</v>
       </c>
+      <c r="ER357">
+        <v>0.97273969999999998</v>
+      </c>
+      <c r="ES357">
+        <v>0.98442799999999997</v>
+      </c>
+      <c r="EY357">
+        <v>0.53772783000000002</v>
+      </c>
+      <c r="EZ357">
+        <v>0.98442799999999997</v>
+      </c>
     </row>
-    <row r="358" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.96538749999999995</v>
       </c>
@@ -44559,8 +48890,20 @@
       <c r="EL358">
         <v>1.00586</v>
       </c>
+      <c r="ER358">
+        <v>0.97266257</v>
+      </c>
+      <c r="ES358">
+        <v>0.98672700000000002</v>
+      </c>
+      <c r="EY358">
+        <v>0.54183674000000004</v>
+      </c>
+      <c r="EZ358">
+        <v>0.98672700000000002</v>
+      </c>
     </row>
-    <row r="359" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.96879404999999996</v>
       </c>
@@ -44651,8 +48994,20 @@
       <c r="EL359">
         <v>1.0087600000000001</v>
       </c>
+      <c r="ER359">
+        <v>0.97133225000000001</v>
+      </c>
+      <c r="ES359">
+        <v>0.989066</v>
+      </c>
+      <c r="EY359">
+        <v>0.54551229999999995</v>
+      </c>
+      <c r="EZ359">
+        <v>0.989066</v>
+      </c>
     </row>
-    <row r="360" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.97070204999999998</v>
       </c>
@@ -44743,8 +49098,20 @@
       <c r="EL360">
         <v>0.99857099999999999</v>
       </c>
+      <c r="ER360">
+        <v>0.97069070000000002</v>
+      </c>
+      <c r="ES360">
+        <v>0.98724299999999998</v>
+      </c>
+      <c r="EY360">
+        <v>0.54894690000000002</v>
+      </c>
+      <c r="EZ360">
+        <v>0.98724299999999998</v>
+      </c>
     </row>
-    <row r="361" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.97089630000000005</v>
       </c>
@@ -44835,8 +49202,20 @@
       <c r="EL361">
         <v>1.00648</v>
       </c>
+      <c r="ER361">
+        <v>0.97203225000000004</v>
+      </c>
+      <c r="ES361">
+        <v>0.97811899999999996</v>
+      </c>
+      <c r="EY361">
+        <v>0.55267394000000003</v>
+      </c>
+      <c r="EZ361">
+        <v>0.97811899999999996</v>
+      </c>
     </row>
-    <row r="362" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.97087760000000001</v>
       </c>
@@ -44927,8 +49306,20 @@
       <c r="EL362">
         <v>1.00518</v>
       </c>
+      <c r="ER362">
+        <v>0.97378903999999999</v>
+      </c>
+      <c r="ES362">
+        <v>0.98258500000000004</v>
+      </c>
+      <c r="EY362">
+        <v>0.55661947000000001</v>
+      </c>
+      <c r="EZ362">
+        <v>0.98258500000000004</v>
+      </c>
     </row>
-    <row r="363" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.971665</v>
       </c>
@@ -45019,8 +49410,20 @@
       <c r="EL363">
         <v>1.0278099999999999</v>
       </c>
+      <c r="ER363">
+        <v>0.97427297000000002</v>
+      </c>
+      <c r="ES363">
+        <v>0.98288900000000001</v>
+      </c>
+      <c r="EY363">
+        <v>0.56065240000000005</v>
+      </c>
+      <c r="EZ363">
+        <v>0.98288900000000001</v>
+      </c>
     </row>
-    <row r="364" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.97328853999999998</v>
       </c>
@@ -45111,8 +49514,20 @@
       <c r="EL364">
         <v>1.03295</v>
       </c>
+      <c r="ER364">
+        <v>0.97244154999999999</v>
+      </c>
+      <c r="ES364">
+        <v>0.99519000000000002</v>
+      </c>
+      <c r="EY364">
+        <v>0.56446700000000005</v>
+      </c>
+      <c r="EZ364">
+        <v>0.99519000000000002</v>
+      </c>
     </row>
-    <row r="365" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.97475959999999995</v>
       </c>
@@ -45203,8 +49618,20 @@
       <c r="EL365">
         <v>1.0435399999999999</v>
       </c>
+      <c r="ER365">
+        <v>0.96933029999999998</v>
+      </c>
+      <c r="ES365">
+        <v>0.99388200000000004</v>
+      </c>
+      <c r="EY365">
+        <v>0.56806489999999998</v>
+      </c>
+      <c r="EZ365">
+        <v>0.99388200000000004</v>
+      </c>
     </row>
-    <row r="366" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.97580029999999995</v>
       </c>
@@ -45295,8 +49722,20 @@
       <c r="EL366">
         <v>1.04375</v>
       </c>
+      <c r="ER366">
+        <v>0.96651816000000002</v>
+      </c>
+      <c r="ES366">
+        <v>0.99444399999999999</v>
+      </c>
+      <c r="EY366">
+        <v>0.57219355999999999</v>
+      </c>
+      <c r="EZ366">
+        <v>0.99444399999999999</v>
+      </c>
     </row>
-    <row r="367" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.97638740000000002</v>
       </c>
@@ -45387,8 +49826,20 @@
       <c r="EL367">
         <v>1.05175</v>
       </c>
+      <c r="ER367">
+        <v>0.96465146999999996</v>
+      </c>
+      <c r="ES367">
+        <v>0.99031499999999995</v>
+      </c>
+      <c r="EY367">
+        <v>0.57991177000000005</v>
+      </c>
+      <c r="EZ367">
+        <v>0.99031499999999995</v>
+      </c>
     </row>
-    <row r="368" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.97707635000000004</v>
       </c>
@@ -45479,8 +49930,20 @@
       <c r="EL368">
         <v>1.05033</v>
       </c>
+      <c r="ER368">
+        <v>0.96366399999999997</v>
+      </c>
+      <c r="ES368">
+        <v>0.99711899999999998</v>
+      </c>
+      <c r="EY368">
+        <v>0.58330386999999995</v>
+      </c>
+      <c r="EZ368">
+        <v>0.99711899999999998</v>
+      </c>
     </row>
-    <row r="369" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.97819822999999995</v>
       </c>
@@ -45571,8 +50034,20 @@
       <c r="EL369">
         <v>1.0539700000000001</v>
       </c>
+      <c r="ER369">
+        <v>0.96334200000000003</v>
+      </c>
+      <c r="ES369">
+        <v>0.99597000000000002</v>
+      </c>
+      <c r="EY369">
+        <v>0.58713610000000005</v>
+      </c>
+      <c r="EZ369">
+        <v>0.99597000000000002</v>
+      </c>
     </row>
-    <row r="370" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.97951080000000001</v>
       </c>
@@ -45663,8 +50138,20 @@
       <c r="EL370">
         <v>1.0517700000000001</v>
       </c>
+      <c r="ER370">
+        <v>0.96346635000000003</v>
+      </c>
+      <c r="ES370">
+        <v>1</v>
+      </c>
+      <c r="EY370">
+        <v>0.60575590000000001</v>
+      </c>
+      <c r="EZ370">
+        <v>1</v>
+      </c>
     </row>
-    <row r="371" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.98080425999999998</v>
       </c>
@@ -45755,8 +50242,20 @@
       <c r="EL371">
         <v>1.0583100000000001</v>
       </c>
+      <c r="ER371">
+        <v>0.96389650000000004</v>
+      </c>
+      <c r="ES371">
+        <v>0.99207199999999995</v>
+      </c>
+      <c r="EY371">
+        <v>0.63551270000000004</v>
+      </c>
+      <c r="EZ371">
+        <v>0.99207199999999995</v>
+      </c>
     </row>
-    <row r="372" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.98196519999999998</v>
       </c>
@@ -45847,8 +50346,20 @@
       <c r="EL372">
         <v>1.0527599999999999</v>
       </c>
+      <c r="ER372">
+        <v>0.96426683999999996</v>
+      </c>
+      <c r="ES372">
+        <v>0.99476100000000001</v>
+      </c>
+      <c r="EY372">
+        <v>0.66451322999999995</v>
+      </c>
+      <c r="EZ372">
+        <v>0.99476100000000001</v>
+      </c>
     </row>
-    <row r="373" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.98292480000000004</v>
       </c>
@@ -45939,8 +50450,20 @@
       <c r="EL373">
         <v>1.0597300000000001</v>
       </c>
+      <c r="ER373">
+        <v>0.96452830000000001</v>
+      </c>
+      <c r="ES373">
+        <v>0.99793200000000004</v>
+      </c>
+      <c r="EY373">
+        <v>0.67522746</v>
+      </c>
+      <c r="EZ373">
+        <v>0.99793200000000004</v>
+      </c>
     </row>
-    <row r="374" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.98375164999999998</v>
       </c>
@@ -46031,8 +50554,20 @@
       <c r="EL374">
         <v>1.0550999999999999</v>
       </c>
+      <c r="ER374">
+        <v>0.96548420000000001</v>
+      </c>
+      <c r="ES374">
+        <v>0.99585100000000004</v>
+      </c>
+      <c r="EY374">
+        <v>0.73344487000000003</v>
+      </c>
+      <c r="EZ374">
+        <v>0.99585100000000004</v>
+      </c>
     </row>
-    <row r="375" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.98455559999999998</v>
       </c>
@@ -46123,8 +50658,20 @@
       <c r="EL375">
         <v>1.05559</v>
       </c>
+      <c r="ER375">
+        <v>0.96722359999999996</v>
+      </c>
+      <c r="ES375">
+        <v>0.99503799999999998</v>
+      </c>
+      <c r="EY375">
+        <v>0.74853239999999999</v>
+      </c>
+      <c r="EZ375">
+        <v>0.99503799999999998</v>
+      </c>
     </row>
-    <row r="376" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.98526970000000003</v>
       </c>
@@ -46215,8 +50762,20 @@
       <c r="EL376">
         <v>1.05375</v>
       </c>
+      <c r="ER376">
+        <v>0.96949870000000005</v>
+      </c>
+      <c r="ES376">
+        <v>0.99785299999999999</v>
+      </c>
+      <c r="EY376">
+        <v>0.7028257</v>
+      </c>
+      <c r="EZ376">
+        <v>0.99785299999999999</v>
+      </c>
     </row>
-    <row r="377" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.98582166000000004</v>
       </c>
@@ -46307,8 +50866,20 @@
       <c r="EL377">
         <v>1.0562100000000001</v>
       </c>
+      <c r="ER377">
+        <v>0.97164916999999995</v>
+      </c>
+      <c r="ES377">
+        <v>0.990282</v>
+      </c>
+      <c r="EY377">
+        <v>0.66557160000000004</v>
+      </c>
+      <c r="EZ377">
+        <v>0.990282</v>
+      </c>
     </row>
-    <row r="378" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.98619723000000004</v>
       </c>
@@ -46399,8 +50970,20 @@
       <c r="EL378">
         <v>1.0587200000000001</v>
       </c>
+      <c r="ER378">
+        <v>0.97325050000000002</v>
+      </c>
+      <c r="ES378">
+        <v>0.98831899999999995</v>
+      </c>
+      <c r="EY378">
+        <v>0.62010100000000001</v>
+      </c>
+      <c r="EZ378">
+        <v>0.98831899999999995</v>
+      </c>
     </row>
-    <row r="379" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.98649900000000001</v>
       </c>
@@ -46491,8 +51074,20 @@
       <c r="EL379">
         <v>1.05677</v>
       </c>
+      <c r="ER379">
+        <v>0.97388339999999995</v>
+      </c>
+      <c r="ES379">
+        <v>0.98605299999999996</v>
+      </c>
+      <c r="EY379">
+        <v>0.60678184000000002</v>
+      </c>
+      <c r="EZ379">
+        <v>0.98605299999999996</v>
+      </c>
     </row>
-    <row r="380" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.98674779999999995</v>
       </c>
@@ -46583,8 +51178,20 @@
       <c r="EL380">
         <v>1.0469999999999999</v>
       </c>
+      <c r="ER380">
+        <v>0.9737344</v>
+      </c>
+      <c r="ES380">
+        <v>0.99354500000000001</v>
+      </c>
+      <c r="EY380">
+        <v>0.61804979999999998</v>
+      </c>
+      <c r="EZ380">
+        <v>0.99354500000000001</v>
+      </c>
     </row>
-    <row r="381" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.98627379999999998</v>
       </c>
@@ -46675,8 +51282,20 @@
       <c r="EL381">
         <v>1.0517799999999999</v>
       </c>
+      <c r="ER381">
+        <v>0.97365354999999998</v>
+      </c>
+      <c r="ES381">
+        <v>0.99073100000000003</v>
+      </c>
+      <c r="EY381">
+        <v>0.64041543000000001</v>
+      </c>
+      <c r="EZ381">
+        <v>0.99073100000000003</v>
+      </c>
     </row>
-    <row r="382" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.98551679999999997</v>
       </c>
@@ -46767,8 +51386,20 @@
       <c r="EL382">
         <v>1.0521100000000001</v>
       </c>
+      <c r="ER382">
+        <v>0.97409504999999996</v>
+      </c>
+      <c r="ES382">
+        <v>0.98731500000000005</v>
+      </c>
+      <c r="EY382">
+        <v>0.66663903000000002</v>
+      </c>
+      <c r="EZ382">
+        <v>0.98731500000000005</v>
+      </c>
     </row>
-    <row r="383" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.98539659999999996</v>
       </c>
@@ -46859,8 +51490,20 @@
       <c r="EL383">
         <v>1.0652699999999999</v>
       </c>
+      <c r="ER383">
+        <v>0.97468529999999998</v>
+      </c>
+      <c r="ES383">
+        <v>0.98725600000000002</v>
+      </c>
+      <c r="EY383">
+        <v>0.69381459999999995</v>
+      </c>
+      <c r="EZ383">
+        <v>0.98725600000000002</v>
+      </c>
     </row>
-    <row r="384" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.98581620000000003</v>
       </c>
@@ -46951,8 +51594,20 @@
       <c r="EL384">
         <v>1.0638700000000001</v>
       </c>
+      <c r="ER384">
+        <v>0.97485599999999994</v>
+      </c>
+      <c r="ES384">
+        <v>0.99328099999999997</v>
+      </c>
+      <c r="EY384">
+        <v>0.71827494999999997</v>
+      </c>
+      <c r="EZ384">
+        <v>0.99328099999999997</v>
+      </c>
     </row>
-    <row r="385" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.98637200000000003</v>
       </c>
@@ -47043,8 +51698,20 @@
       <c r="EL385">
         <v>1.06447</v>
       </c>
+      <c r="ER385">
+        <v>0.97479150000000003</v>
+      </c>
+      <c r="ES385">
+        <v>0.99757499999999999</v>
+      </c>
+      <c r="EY385">
+        <v>0.73936369999999996</v>
+      </c>
+      <c r="EZ385">
+        <v>0.99757499999999999</v>
+      </c>
     </row>
-    <row r="386" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.98662760000000005</v>
       </c>
@@ -47135,8 +51802,20 @@
       <c r="EL386">
         <v>1.0600499999999999</v>
       </c>
+      <c r="ER386">
+        <v>0.97540444000000004</v>
+      </c>
+      <c r="ES386">
+        <v>0.99736400000000003</v>
+      </c>
+      <c r="EY386">
+        <v>0.75453150000000002</v>
+      </c>
+      <c r="EZ386">
+        <v>0.99736400000000003</v>
+      </c>
     </row>
-    <row r="387" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.98661829999999995</v>
       </c>
@@ -47227,8 +51906,20 @@
       <c r="EL387">
         <v>1.06734</v>
       </c>
+      <c r="ER387">
+        <v>0.97674170000000005</v>
+      </c>
+      <c r="ES387">
+        <v>0.99415299999999995</v>
+      </c>
+      <c r="EY387">
+        <v>0.76392579999999999</v>
+      </c>
+      <c r="EZ387">
+        <v>0.99415299999999995</v>
+      </c>
     </row>
-    <row r="388" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.98651279999999997</v>
       </c>
@@ -47319,8 +52010,20 @@
       <c r="EL388">
         <v>1.0661099999999999</v>
       </c>
+      <c r="ER388">
+        <v>0.97825485000000001</v>
+      </c>
+      <c r="ES388">
+        <v>0.95881400000000006</v>
+      </c>
+      <c r="EY388">
+        <v>0.76797349999999998</v>
+      </c>
+      <c r="EZ388">
+        <v>0.95881400000000006</v>
+      </c>
     </row>
-    <row r="389" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.98646842999999995</v>
       </c>
@@ -47411,8 +52114,20 @@
       <c r="EL389">
         <v>1.0704199999999999</v>
       </c>
+      <c r="ER389">
+        <v>0.97786724999999997</v>
+      </c>
+      <c r="ES389">
+        <v>0.97944699999999996</v>
+      </c>
+      <c r="EY389">
+        <v>0.76768210000000003</v>
+      </c>
+      <c r="EZ389">
+        <v>0.97944699999999996</v>
+      </c>
     </row>
-    <row r="390" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.98648190000000002</v>
       </c>
@@ -47503,8 +52218,20 @@
       <c r="EL390">
         <v>1.0619400000000001</v>
       </c>
+      <c r="ER390">
+        <v>0.97587270000000004</v>
+      </c>
+      <c r="ES390">
+        <v>0.95829200000000003</v>
+      </c>
+      <c r="EY390">
+        <v>0.76358753000000001</v>
+      </c>
+      <c r="EZ390">
+        <v>0.95829200000000003</v>
+      </c>
     </row>
-    <row r="391" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.98642843999999996</v>
       </c>
@@ -47595,8 +52322,20 @@
       <c r="EL391">
         <v>1.06481</v>
       </c>
+      <c r="ER391">
+        <v>0.97264490000000003</v>
+      </c>
+      <c r="ES391">
+        <v>0.95746600000000004</v>
+      </c>
+      <c r="EY391">
+        <v>0.76047350000000002</v>
+      </c>
+      <c r="EZ391">
+        <v>0.95746600000000004</v>
+      </c>
     </row>
-    <row r="392" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.98617213999999997</v>
       </c>
@@ -47687,8 +52426,20 @@
       <c r="EL392">
         <v>1.0682100000000001</v>
       </c>
+      <c r="ER392">
+        <v>0.96896979999999999</v>
+      </c>
+      <c r="ES392">
+        <v>0.97166399999999997</v>
+      </c>
+      <c r="EY392">
+        <v>0.76287110000000002</v>
+      </c>
+      <c r="EZ392">
+        <v>0.97166399999999997</v>
+      </c>
     </row>
-    <row r="393" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.98593989999999998</v>
       </c>
@@ -47779,8 +52530,20 @@
       <c r="EL393">
         <v>1.0659799999999999</v>
       </c>
+      <c r="ER393">
+        <v>0.96581143000000003</v>
+      </c>
+      <c r="ES393">
+        <v>0.96631299999999998</v>
+      </c>
+      <c r="EY393">
+        <v>0.76595150000000001</v>
+      </c>
+      <c r="EZ393">
+        <v>0.96631299999999998</v>
+      </c>
     </row>
-    <row r="394" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.98576710000000001</v>
       </c>
@@ -47871,8 +52634,20 @@
       <c r="EL394">
         <v>1.06511</v>
       </c>
+      <c r="ER394">
+        <v>0.96297710000000003</v>
+      </c>
+      <c r="ES394">
+        <v>0.96628599999999998</v>
+      </c>
+      <c r="EY394">
+        <v>0.76948755999999996</v>
+      </c>
+      <c r="EZ394">
+        <v>0.96628599999999998</v>
+      </c>
     </row>
-    <row r="395" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.98563880000000004</v>
       </c>
@@ -47963,8 +52738,20 @@
       <c r="EL395">
         <v>1.06812</v>
       </c>
+      <c r="ER395">
+        <v>0.96013809999999999</v>
+      </c>
+      <c r="ES395">
+        <v>0.96670900000000004</v>
+      </c>
+      <c r="EY395">
+        <v>0.77356064000000002</v>
+      </c>
+      <c r="EZ395">
+        <v>0.96670900000000004</v>
+      </c>
     </row>
-    <row r="396" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.98567515999999999</v>
       </c>
@@ -48055,8 +52842,20 @@
       <c r="EL396">
         <v>1.06002</v>
       </c>
+      <c r="ER396">
+        <v>0.95768255000000002</v>
+      </c>
+      <c r="ES396">
+        <v>0.98214199999999996</v>
+      </c>
+      <c r="EY396">
+        <v>0.77798480000000003</v>
+      </c>
+      <c r="EZ396">
+        <v>0.98214199999999996</v>
+      </c>
     </row>
-    <row r="397" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.98541179999999995</v>
       </c>
@@ -48147,8 +52946,20 @@
       <c r="EL397">
         <v>1.05792</v>
       </c>
+      <c r="ER397">
+        <v>0.95654570000000005</v>
+      </c>
+      <c r="ES397">
+        <v>0.99143099999999995</v>
+      </c>
+      <c r="EY397">
+        <v>0.78266880000000005</v>
+      </c>
+      <c r="EZ397">
+        <v>0.99143099999999995</v>
+      </c>
     </row>
-    <row r="398" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.98455349999999997</v>
       </c>
@@ -48239,8 +53050,20 @@
       <c r="EL398">
         <v>1.05549</v>
       </c>
+      <c r="ER398">
+        <v>0.95723199999999997</v>
+      </c>
+      <c r="ES398">
+        <v>0.98317900000000003</v>
+      </c>
+      <c r="EY398">
+        <v>0.78754749999999996</v>
+      </c>
+      <c r="EZ398">
+        <v>0.98317900000000003</v>
+      </c>
     </row>
-    <row r="399" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.98377769999999998</v>
       </c>
@@ -48331,8 +53154,20 @@
       <c r="EL399">
         <v>1.06351</v>
       </c>
+      <c r="ER399">
+        <v>0.95911610000000003</v>
+      </c>
+      <c r="ES399">
+        <v>0.97089800000000004</v>
+      </c>
+      <c r="EY399">
+        <v>0.79256177000000005</v>
+      </c>
+      <c r="EZ399">
+        <v>0.97089800000000004</v>
+      </c>
     </row>
-    <row r="400" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.9837089</v>
       </c>
@@ -48423,8 +53258,20 @@
       <c r="EL400">
         <v>1.0605</v>
       </c>
+      <c r="ER400">
+        <v>0.96088090000000004</v>
+      </c>
+      <c r="ES400">
+        <v>0.98003499999999999</v>
+      </c>
+      <c r="EY400">
+        <v>0.79728259999999995</v>
+      </c>
+      <c r="EZ400">
+        <v>0.98003499999999999</v>
+      </c>
     </row>
-    <row r="401" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.98400030000000005</v>
       </c>
@@ -48515,8 +53362,20 @@
       <c r="EL401">
         <v>1.05684</v>
       </c>
+      <c r="ER401">
+        <v>0.96243460000000003</v>
+      </c>
+      <c r="ES401">
+        <v>0.98759300000000005</v>
+      </c>
+      <c r="EY401">
+        <v>0.80118864999999995</v>
+      </c>
+      <c r="EZ401">
+        <v>0.98759300000000005</v>
+      </c>
     </row>
-    <row r="402" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.98391134000000002</v>
       </c>
@@ -48607,8 +53466,20 @@
       <c r="EL402">
         <v>1.0567800000000001</v>
       </c>
+      <c r="ER402">
+        <v>0.96460999999999997</v>
+      </c>
+      <c r="ES402">
+        <v>0.974221</v>
+      </c>
+      <c r="EY402">
+        <v>0.80434229999999995</v>
+      </c>
+      <c r="EZ402">
+        <v>0.974221</v>
+      </c>
     </row>
-    <row r="403" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.98338040000000004</v>
       </c>
@@ -48700,7 +53571,7 @@
         <v>1.0632299999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.98326469999999999</v>
       </c>
@@ -48792,7 +53663,7 @@
         <v>1.0678300000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.98359346000000003</v>
       </c>
@@ -48884,7 +53755,7 @@
         <v>1.0676000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.98378940000000004</v>
       </c>
@@ -48976,7 +53847,7 @@
         <v>1.06416</v>
       </c>
     </row>
-    <row r="407" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.98379930000000004</v>
       </c>
@@ -49068,7 +53939,7 @@
         <v>1.02634</v>
       </c>
     </row>
-    <row r="408" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.98101899999999997</v>
       </c>
@@ -49160,7 +54031,7 @@
         <v>1.0484199999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.97816723999999999</v>
       </c>
@@ -49252,7 +54123,7 @@
         <v>1.0257799999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.97710496000000002</v>
       </c>
@@ -49344,7 +54215,7 @@
         <v>1.0248900000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.97680425999999998</v>
       </c>
@@ -49436,7 +54307,7 @@
         <v>1.04009</v>
       </c>
     </row>
-    <row r="412" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.97728289999999995</v>
       </c>
@@ -49528,7 +54399,7 @@
         <v>1.0343599999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.97758089999999997</v>
       </c>
@@ -49620,7 +54491,7 @@
         <v>1.03433</v>
       </c>
     </row>
-    <row r="414" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.97770559999999995</v>
       </c>
@@ -49712,7 +54583,7 @@
         <v>1.0347900000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.97786200000000001</v>
       </c>
@@ -49804,7 +54675,7 @@
         <v>1.05131</v>
       </c>
     </row>
-    <row r="416" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:156" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.97793699999999995</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1160" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="940" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="26">
   <si>
     <t>_0.975178</t>
   </si>
@@ -399,6 +399,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -430,7 +431,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0690425653315075"/>
+          <c:y val="0.219118541033435"/>
+          <c:w val="0.915748998819865"/>
+          <c:h val="0.713196515329201"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3007,11 +3018,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1740090256"/>
-        <c:axId val="1740092032"/>
+        <c:axId val="1769481296"/>
+        <c:axId val="1568563536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1740090256"/>
+        <c:axId val="1769481296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,7 +3064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740092032"/>
+        <c:crossAx val="1568563536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3061,7 +3072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740092032"/>
+        <c:axId val="1568563536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,7 +3123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740090256"/>
+        <c:crossAx val="1769481296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3126,6 +3137,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3207,6 +3219,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5815,11 +5828,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1738990576"/>
-        <c:axId val="1740783952"/>
+        <c:axId val="1564867648"/>
+        <c:axId val="1737015360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1738990576"/>
+        <c:axId val="1564867648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +5874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740783952"/>
+        <c:crossAx val="1737015360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5869,7 +5882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740783952"/>
+        <c:axId val="1737015360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5920,7 +5933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1738990576"/>
+        <c:crossAx val="1564867648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5934,6 +5947,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6015,6 +6029,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8623,11 +8638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1568257680"/>
-        <c:axId val="1734791456"/>
+        <c:axId val="1766883712"/>
+        <c:axId val="1767300640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1568257680"/>
+        <c:axId val="1766883712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8669,7 +8684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1734791456"/>
+        <c:crossAx val="1767300640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8677,7 +8692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1734791456"/>
+        <c:axId val="1767300640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8728,7 +8743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1568257680"/>
+        <c:crossAx val="1766883712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8742,6 +8757,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10480,16 +10496,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10510,16 +10526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10834,10 +10850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD422"/>
+  <dimension ref="A1:FK422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EK1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="FC2" sqref="FC2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10855,7 +10871,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11270,8 +11286,26 @@
       <c r="FD1" t="s">
         <v>9</v>
       </c>
+      <c r="FF1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>4</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>5</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>6</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>7</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11686,8 +11720,26 @@
       <c r="FD2">
         <v>90</v>
       </c>
+      <c r="FF2">
+        <v>150</v>
+      </c>
+      <c r="FG2">
+        <v>60</v>
+      </c>
+      <c r="FH2">
+        <v>5</v>
+      </c>
+      <c r="FI2">
+        <v>200</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FK2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:167" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="CN3" t="s">
@@ -11697,7 +11749,7 @@
         <v>0.93972289370239603</v>
       </c>
     </row>
-    <row r="4" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:167" x14ac:dyDescent="0.2">
       <c r="CG4">
         <v>0</v>
       </c>
@@ -11734,8 +11786,11 @@
       <c r="FA4" t="s">
         <v>14</v>
       </c>
+      <c r="FH4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11881,8 +11936,18 @@
         <f>CORREL(EY5:EY402,EZ5:EZ402)</f>
         <v>0.45242534949379049</v>
       </c>
+      <c r="FF5">
+        <v>0.46913967000000001</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>23</v>
+      </c>
+      <c r="FH5">
+        <f>CORREL(FF5:FF402,FG5:FG402)</f>
+        <v>-0.57996698444114014</v>
+      </c>
     </row>
-    <row r="6" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -12060,8 +12125,14 @@
       <c r="EZ6">
         <v>0.92145299999999997</v>
       </c>
+      <c r="FF6">
+        <v>0.46913946000000001</v>
+      </c>
+      <c r="FG6">
+        <v>0.92145299999999997</v>
+      </c>
     </row>
-    <row r="7" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -12197,8 +12268,14 @@
       <c r="EZ7">
         <v>0.92685099999999998</v>
       </c>
+      <c r="FF7">
+        <v>0.46913955000000002</v>
+      </c>
+      <c r="FG7">
+        <v>0.92685099999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -12330,8 +12407,14 @@
       <c r="EZ8">
         <v>0.90354900000000005</v>
       </c>
+      <c r="FF8">
+        <v>0.46913937</v>
+      </c>
+      <c r="FG8">
+        <v>0.90354900000000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -12459,8 +12542,14 @@
       <c r="EZ9">
         <v>0.90095899999999995</v>
       </c>
+      <c r="FF9">
+        <v>0.46913892000000001</v>
+      </c>
+      <c r="FG9">
+        <v>0.90095899999999995</v>
+      </c>
     </row>
-    <row r="10" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -12588,8 +12677,14 @@
       <c r="EZ10">
         <v>0.91794500000000001</v>
       </c>
+      <c r="FF10">
+        <v>0.46913937</v>
+      </c>
+      <c r="FG10">
+        <v>0.91794500000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -12713,8 +12808,14 @@
       <c r="EZ11">
         <v>0.90965399999999996</v>
       </c>
+      <c r="FF11">
+        <v>0.46913937</v>
+      </c>
+      <c r="FG11">
+        <v>0.90965399999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -12842,8 +12943,14 @@
       <c r="EZ12">
         <v>0.92801400000000001</v>
       </c>
+      <c r="FF12">
+        <v>0.46913955000000002</v>
+      </c>
+      <c r="FG12">
+        <v>0.92801400000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -12971,8 +13078,14 @@
       <c r="EZ13">
         <v>0.92344800000000005</v>
       </c>
+      <c r="FF13">
+        <v>0.46913992999999998</v>
+      </c>
+      <c r="FG13">
+        <v>0.92344800000000005</v>
+      </c>
     </row>
-    <row r="14" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -13096,8 +13209,14 @@
       <c r="EZ14">
         <v>0.94011</v>
       </c>
+      <c r="FF14">
+        <v>0.46913951999999998</v>
+      </c>
+      <c r="FG14">
+        <v>0.94011</v>
+      </c>
     </row>
-    <row r="15" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -13218,8 +13337,14 @@
       <c r="EZ15">
         <v>0.93335199999999996</v>
       </c>
+      <c r="FF15">
+        <v>0.46914</v>
+      </c>
+      <c r="FG15">
+        <v>0.93335199999999996</v>
+      </c>
     </row>
-    <row r="16" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -13334,8 +13459,14 @@
       <c r="EZ16">
         <v>0.94579199999999997</v>
       </c>
+      <c r="FF16">
+        <v>0.46913949999999999</v>
+      </c>
+      <c r="FG16">
+        <v>0.94579199999999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.97823757</v>
       </c>
@@ -13438,8 +13569,14 @@
       <c r="EZ17">
         <v>0.94336100000000001</v>
       </c>
+      <c r="FF17">
+        <v>0.46914025999999998</v>
+      </c>
+      <c r="FG17">
+        <v>0.94336100000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.97857236999999997</v>
       </c>
@@ -13542,8 +13679,14 @@
       <c r="EZ18">
         <v>0.93482500000000002</v>
       </c>
+      <c r="FF18">
+        <v>0.4691398</v>
+      </c>
+      <c r="FG18">
+        <v>0.93482500000000002</v>
+      </c>
     </row>
-    <row r="19" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.97901819999999995</v>
       </c>
@@ -13646,8 +13789,14 @@
       <c r="EZ19">
         <v>0.91470799999999997</v>
       </c>
+      <c r="FF19">
+        <v>0.46914</v>
+      </c>
+      <c r="FG19">
+        <v>0.91470799999999997</v>
+      </c>
     </row>
-    <row r="20" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.97968084</v>
       </c>
@@ -13750,8 +13899,14 @@
       <c r="EZ20">
         <v>0.91147100000000003</v>
       </c>
+      <c r="FF20">
+        <v>0.4691399</v>
+      </c>
+      <c r="FG20">
+        <v>0.91147100000000003</v>
+      </c>
     </row>
-    <row r="21" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98058440000000002</v>
       </c>
@@ -13854,8 +14009,14 @@
       <c r="EZ21">
         <v>0.91468799999999995</v>
       </c>
+      <c r="FF21">
+        <v>0.46914</v>
+      </c>
+      <c r="FG21">
+        <v>0.91468799999999995</v>
+      </c>
     </row>
-    <row r="22" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98153466</v>
       </c>
@@ -13958,8 +14119,14 @@
       <c r="EZ22">
         <v>0.93135000000000001</v>
       </c>
+      <c r="FF22">
+        <v>0.46914038000000002</v>
+      </c>
+      <c r="FG22">
+        <v>0.93135000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98224412999999999</v>
       </c>
@@ -14062,8 +14229,14 @@
       <c r="EZ23">
         <v>0.91922700000000002</v>
       </c>
+      <c r="FF23">
+        <v>0.46914053</v>
+      </c>
+      <c r="FG23">
+        <v>0.91922700000000002</v>
+      </c>
     </row>
-    <row r="24" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98255320000000002</v>
       </c>
@@ -14166,8 +14339,14 @@
       <c r="EZ24">
         <v>0.91380899999999998</v>
       </c>
+      <c r="FF24">
+        <v>0.46914043999999999</v>
+      </c>
+      <c r="FG24">
+        <v>0.91380899999999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98284079999999996</v>
       </c>
@@ -14270,8 +14449,14 @@
       <c r="EZ25">
         <v>0.91861199999999998</v>
       </c>
+      <c r="FF25">
+        <v>0.46914067999999998</v>
+      </c>
+      <c r="FG25">
+        <v>0.91861199999999998</v>
+      </c>
     </row>
-    <row r="26" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98285610000000001</v>
       </c>
@@ -14374,8 +14559,14 @@
       <c r="EZ26">
         <v>0.92763700000000004</v>
       </c>
+      <c r="FF26">
+        <v>0.46914104000000001</v>
+      </c>
+      <c r="FG26">
+        <v>0.92763700000000004</v>
+      </c>
     </row>
-    <row r="27" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98284786999999996</v>
       </c>
@@ -14478,8 +14669,14 @@
       <c r="EZ27">
         <v>0.92480300000000004</v>
       </c>
+      <c r="FF27">
+        <v>0.46914085999999999</v>
+      </c>
+      <c r="FG27">
+        <v>0.92480300000000004</v>
+      </c>
     </row>
-    <row r="28" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98268955999999996</v>
       </c>
@@ -14582,8 +14779,14 @@
       <c r="EZ28">
         <v>0.92848299999999995</v>
       </c>
+      <c r="FF28">
+        <v>0.46914109999999998</v>
+      </c>
+      <c r="FG28">
+        <v>0.92848299999999995</v>
+      </c>
     </row>
-    <row r="29" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98256449999999995</v>
       </c>
@@ -14686,8 +14889,14 @@
       <c r="EZ29">
         <v>0.93461399999999994</v>
       </c>
+      <c r="FF29">
+        <v>0.46914122000000003</v>
+      </c>
+      <c r="FG29">
+        <v>0.93461399999999994</v>
+      </c>
     </row>
-    <row r="30" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98294619999999999</v>
       </c>
@@ -14790,8 +14999,14 @@
       <c r="EZ30">
         <v>0.94180200000000003</v>
       </c>
+      <c r="FF30">
+        <v>0.46914113000000002</v>
+      </c>
+      <c r="FG30">
+        <v>0.94180200000000003</v>
+      </c>
     </row>
-    <row r="31" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98345654999999998</v>
       </c>
@@ -14894,8 +15109,14 @@
       <c r="EZ31">
         <v>0.93544000000000005</v>
       </c>
+      <c r="FF31">
+        <v>0.46914141999999998</v>
+      </c>
+      <c r="FG31">
+        <v>0.93544000000000005</v>
+      </c>
     </row>
-    <row r="32" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98399853999999998</v>
       </c>
@@ -14998,8 +15219,14 @@
       <c r="EZ32">
         <v>0.93769199999999997</v>
       </c>
+      <c r="FF32">
+        <v>0.46914076999999998</v>
+      </c>
+      <c r="FG32">
+        <v>0.93769199999999997</v>
+      </c>
     </row>
-    <row r="33" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98438859999999995</v>
       </c>
@@ -15102,8 +15329,14 @@
       <c r="EZ33">
         <v>0.94482100000000002</v>
       </c>
+      <c r="FF33">
+        <v>0.46914122000000003</v>
+      </c>
+      <c r="FG33">
+        <v>0.94482100000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98442929999999995</v>
       </c>
@@ -15206,8 +15439,14 @@
       <c r="EZ34">
         <v>0.94373799999999997</v>
       </c>
+      <c r="FF34">
+        <v>0.46914097999999999</v>
+      </c>
+      <c r="FG34">
+        <v>0.94373799999999997</v>
+      </c>
     </row>
-    <row r="35" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98425054999999995</v>
       </c>
@@ -15310,8 +15549,14 @@
       <c r="EZ35">
         <v>0.92800700000000003</v>
       </c>
+      <c r="FF35">
+        <v>0.46914046999999998</v>
+      </c>
+      <c r="FG35">
+        <v>0.92800700000000003</v>
+      </c>
     </row>
-    <row r="36" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98417069999999995</v>
       </c>
@@ -15414,8 +15659,14 @@
       <c r="EZ36">
         <v>0.94070500000000001</v>
       </c>
+      <c r="FF36">
+        <v>0.46914040000000001</v>
+      </c>
+      <c r="FG36">
+        <v>0.94070500000000001</v>
+      </c>
     </row>
-    <row r="37" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98401810000000001</v>
       </c>
@@ -15518,8 +15769,14 @@
       <c r="EZ37">
         <v>0.93864999999999998</v>
       </c>
+      <c r="FF37">
+        <v>0.46914022999999999</v>
+      </c>
+      <c r="FG37">
+        <v>0.93864999999999998</v>
+      </c>
     </row>
-    <row r="38" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98382769999999997</v>
       </c>
@@ -15622,8 +15879,14 @@
       <c r="EZ38">
         <v>0.94569999999999999</v>
       </c>
+      <c r="FF38">
+        <v>0.46914022999999999</v>
+      </c>
+      <c r="FG38">
+        <v>0.94569999999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98361200000000004</v>
       </c>
@@ -15726,8 +15989,14 @@
       <c r="EZ39">
         <v>0.94898300000000002</v>
       </c>
+      <c r="FF39">
+        <v>0.46914013999999998</v>
+      </c>
+      <c r="FG39">
+        <v>0.94898300000000002</v>
+      </c>
     </row>
-    <row r="40" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98328775000000002</v>
       </c>
@@ -15830,8 +16099,14 @@
       <c r="EZ40">
         <v>0.95212799999999997</v>
       </c>
+      <c r="FF40">
+        <v>0.46914032</v>
+      </c>
+      <c r="FG40">
+        <v>0.95212799999999997</v>
+      </c>
     </row>
-    <row r="41" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98314743999999998</v>
       </c>
@@ -15934,8 +16209,14 @@
       <c r="EZ41">
         <v>0.94633400000000001</v>
       </c>
+      <c r="FF41">
+        <v>0.46913978000000001</v>
+      </c>
+      <c r="FG41">
+        <v>0.94633400000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98334580000000005</v>
       </c>
@@ -16038,8 +16319,14 @@
       <c r="EZ42">
         <v>0.95019200000000004</v>
       </c>
+      <c r="FF42">
+        <v>0.46914004999999998</v>
+      </c>
+      <c r="FG42">
+        <v>0.95019200000000004</v>
+      </c>
     </row>
-    <row r="43" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98371410000000004</v>
       </c>
@@ -16142,8 +16429,14 @@
       <c r="EZ43">
         <v>0.94496599999999997</v>
       </c>
+      <c r="FF43">
+        <v>0.46914020000000001</v>
+      </c>
+      <c r="FG43">
+        <v>0.94496599999999997</v>
+      </c>
     </row>
-    <row r="44" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98371017000000005</v>
       </c>
@@ -16246,8 +16539,14 @@
       <c r="EZ44">
         <v>0.93086800000000003</v>
       </c>
+      <c r="FF44">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG44">
+        <v>0.93086800000000003</v>
+      </c>
     </row>
-    <row r="45" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.98339765999999995</v>
       </c>
@@ -16350,8 +16649,14 @@
       <c r="EZ45">
         <v>0.94591800000000004</v>
       </c>
+      <c r="FF45">
+        <v>0.46914</v>
+      </c>
+      <c r="FG45">
+        <v>0.94591800000000004</v>
+      </c>
     </row>
-    <row r="46" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98303289999999999</v>
       </c>
@@ -16454,8 +16759,14 @@
       <c r="EZ46">
         <v>0.95001400000000003</v>
       </c>
+      <c r="FF46">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG46">
+        <v>0.95001400000000003</v>
+      </c>
     </row>
-    <row r="47" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98286753999999998</v>
       </c>
@@ -16558,8 +16869,14 @@
       <c r="EZ47">
         <v>0.933477</v>
       </c>
+      <c r="FF47">
+        <v>0.46913992999999998</v>
+      </c>
+      <c r="FG47">
+        <v>0.933477</v>
+      </c>
     </row>
-    <row r="48" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98300432999999998</v>
       </c>
@@ -16662,8 +16979,14 @@
       <c r="EZ48">
         <v>0.92732700000000001</v>
       </c>
+      <c r="FF48">
+        <v>0.46914013999999998</v>
+      </c>
+      <c r="FG48">
+        <v>0.92732700000000001</v>
+      </c>
     </row>
-    <row r="49" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.9832651</v>
       </c>
@@ -16766,8 +17089,14 @@
       <c r="EZ49">
         <v>0.93251300000000004</v>
       </c>
+      <c r="FF49">
+        <v>0.46914004999999998</v>
+      </c>
+      <c r="FG49">
+        <v>0.93251300000000004</v>
+      </c>
     </row>
-    <row r="50" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98372643999999998</v>
       </c>
@@ -16870,8 +17199,14 @@
       <c r="EZ50">
         <v>0.95107799999999998</v>
       </c>
+      <c r="FF50">
+        <v>0.46914</v>
+      </c>
+      <c r="FG50">
+        <v>0.95107799999999998</v>
+      </c>
     </row>
-    <row r="51" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98432560000000002</v>
       </c>
@@ -16974,8 +17309,14 @@
       <c r="EZ51">
         <v>0.94396199999999997</v>
       </c>
+      <c r="FF51">
+        <v>0.46914004999999998</v>
+      </c>
+      <c r="FG51">
+        <v>0.94396199999999997</v>
+      </c>
     </row>
-    <row r="52" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98475860000000004</v>
       </c>
@@ -17078,8 +17419,14 @@
       <c r="EZ52">
         <v>0.939859</v>
       </c>
+      <c r="FF52">
+        <v>0.46913987000000001</v>
+      </c>
+      <c r="FG52">
+        <v>0.939859</v>
+      </c>
     </row>
-    <row r="53" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.98492480000000004</v>
       </c>
@@ -17182,8 +17529,14 @@
       <c r="EZ53">
         <v>0.93943699999999997</v>
       </c>
+      <c r="FF53">
+        <v>0.46913987000000001</v>
+      </c>
+      <c r="FG53">
+        <v>0.93943699999999997</v>
+      </c>
     </row>
-    <row r="54" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98489547</v>
       </c>
@@ -17286,8 +17639,14 @@
       <c r="EZ54">
         <v>0.95438100000000003</v>
       </c>
+      <c r="FF54">
+        <v>0.4691398</v>
+      </c>
+      <c r="FG54">
+        <v>0.95438100000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98475820000000003</v>
       </c>
@@ -17390,8 +17749,14 @@
       <c r="EZ55">
         <v>0.95545800000000003</v>
       </c>
+      <c r="FF55">
+        <v>0.46913992999999998</v>
+      </c>
+      <c r="FG55">
+        <v>0.95545800000000003</v>
+      </c>
     </row>
-    <row r="56" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.98481363</v>
       </c>
@@ -17494,8 +17859,14 @@
       <c r="EZ56">
         <v>0.95973200000000003</v>
       </c>
+      <c r="FF56">
+        <v>0.4691401</v>
+      </c>
+      <c r="FG56">
+        <v>0.95973200000000003</v>
+      </c>
     </row>
-    <row r="57" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.9850875</v>
       </c>
@@ -17598,8 +17969,14 @@
       <c r="EZ57">
         <v>0.95882699999999998</v>
       </c>
+      <c r="FF57">
+        <v>0.46914013999999998</v>
+      </c>
+      <c r="FG57">
+        <v>0.95882699999999998</v>
+      </c>
     </row>
-    <row r="58" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98536449999999998</v>
       </c>
@@ -17702,8 +18079,14 @@
       <c r="EZ58">
         <v>0.95751900000000001</v>
       </c>
+      <c r="FF58">
+        <v>0.46913992999999998</v>
+      </c>
+      <c r="FG58">
+        <v>0.95751900000000001</v>
+      </c>
     </row>
-    <row r="59" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98559750000000002</v>
       </c>
@@ -17806,8 +18189,14 @@
       <c r="EZ59">
         <v>0.96080299999999996</v>
       </c>
+      <c r="FF59">
+        <v>0.46914008000000001</v>
+      </c>
+      <c r="FG59">
+        <v>0.96080299999999996</v>
+      </c>
     </row>
-    <row r="60" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.9857051</v>
       </c>
@@ -17910,8 +18299,14 @@
       <c r="EZ60">
         <v>0.95765800000000001</v>
       </c>
+      <c r="FF60">
+        <v>0.46914030000000001</v>
+      </c>
+      <c r="FG60">
+        <v>0.95765800000000001</v>
+      </c>
     </row>
-    <row r="61" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98565130000000001</v>
       </c>
@@ -18014,8 +18409,14 @@
       <c r="EZ61">
         <v>0.94321600000000005</v>
       </c>
+      <c r="FF61">
+        <v>0.46913983999999997</v>
+      </c>
+      <c r="FG61">
+        <v>0.94321600000000005</v>
+      </c>
     </row>
-    <row r="62" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98549973999999996</v>
       </c>
@@ -18118,8 +18519,14 @@
       <c r="EZ62">
         <v>0.95595300000000005</v>
       </c>
+      <c r="FF62">
+        <v>0.46914</v>
+      </c>
+      <c r="FG62">
+        <v>0.95595300000000005</v>
+      </c>
     </row>
-    <row r="63" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98522779999999999</v>
       </c>
@@ -18222,8 +18629,14 @@
       <c r="EZ63">
         <v>0.95417600000000002</v>
       </c>
+      <c r="FF63">
+        <v>0.4691401</v>
+      </c>
+      <c r="FG63">
+        <v>0.95417600000000002</v>
+      </c>
     </row>
-    <row r="64" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98444646999999996</v>
       </c>
@@ -18326,8 +18739,14 @@
       <c r="EZ64">
         <v>0.94532300000000002</v>
       </c>
+      <c r="FF64">
+        <v>0.46914004999999998</v>
+      </c>
+      <c r="FG64">
+        <v>0.94532300000000002</v>
+      </c>
     </row>
-    <row r="65" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98378679999999996</v>
       </c>
@@ -18430,8 +18849,14 @@
       <c r="EZ65">
         <v>0.94818999999999998</v>
       </c>
+      <c r="FF65">
+        <v>0.46913987000000001</v>
+      </c>
+      <c r="FG65">
+        <v>0.94818999999999998</v>
+      </c>
     </row>
-    <row r="66" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98387910000000001</v>
       </c>
@@ -18534,8 +18959,14 @@
       <c r="EZ66">
         <v>0.94678300000000004</v>
       </c>
+      <c r="FF66">
+        <v>0.46914038000000002</v>
+      </c>
+      <c r="FG66">
+        <v>0.94678300000000004</v>
+      </c>
     </row>
-    <row r="67" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98397403999999999</v>
       </c>
@@ -18638,8 +19069,14 @@
       <c r="EZ67">
         <v>0.94973600000000002</v>
       </c>
+      <c r="FF67">
+        <v>0.46914030000000001</v>
+      </c>
+      <c r="FG67">
+        <v>0.94973600000000002</v>
+      </c>
     </row>
-    <row r="68" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.98311510000000002</v>
       </c>
@@ -18742,8 +19179,14 @@
       <c r="EZ68">
         <v>0.93769199999999997</v>
       </c>
+      <c r="FF68">
+        <v>0.46914067999999998</v>
+      </c>
+      <c r="FG68">
+        <v>0.93769199999999997</v>
+      </c>
     </row>
-    <row r="69" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98196923999999997</v>
       </c>
@@ -18846,8 +19289,14 @@
       <c r="EZ69">
         <v>0.93570399999999998</v>
       </c>
+      <c r="FF69">
+        <v>0.46914064999999999</v>
+      </c>
+      <c r="FG69">
+        <v>0.93570399999999998</v>
+      </c>
     </row>
-    <row r="70" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98182570000000002</v>
       </c>
@@ -18950,8 +19399,14 @@
       <c r="EZ70">
         <v>0.92675200000000002</v>
       </c>
+      <c r="FF70">
+        <v>0.46914053</v>
+      </c>
+      <c r="FG70">
+        <v>0.92675200000000002</v>
+      </c>
     </row>
-    <row r="71" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98213433999999999</v>
       </c>
@@ -19054,8 +19509,14 @@
       <c r="EZ71">
         <v>0.92732700000000001</v>
       </c>
+      <c r="FF71">
+        <v>0.46914053</v>
+      </c>
+      <c r="FG71">
+        <v>0.92732700000000001</v>
+      </c>
     </row>
-    <row r="72" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.9820468</v>
       </c>
@@ -19158,8 +19619,14 @@
       <c r="EZ72">
         <v>0.94387600000000005</v>
       </c>
+      <c r="FF72">
+        <v>0.46914099999999997</v>
+      </c>
+      <c r="FG72">
+        <v>0.94387600000000005</v>
+      </c>
     </row>
-    <row r="73" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98158659999999998</v>
       </c>
@@ -19262,8 +19729,14 @@
       <c r="EZ73">
         <v>0.94629399999999997</v>
       </c>
+      <c r="FF73">
+        <v>0.46914122000000003</v>
+      </c>
+      <c r="FG73">
+        <v>0.94629399999999997</v>
+      </c>
     </row>
-    <row r="74" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98121685000000003</v>
       </c>
@@ -19366,8 +19839,14 @@
       <c r="EZ74">
         <v>0.93654899999999996</v>
       </c>
+      <c r="FF74">
+        <v>0.46914113000000002</v>
+      </c>
+      <c r="FG74">
+        <v>0.93654899999999996</v>
+      </c>
     </row>
-    <row r="75" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98107100000000003</v>
       </c>
@@ -19470,8 +19949,14 @@
       <c r="EZ75">
         <v>0.93015400000000004</v>
       </c>
+      <c r="FF75">
+        <v>0.46914085999999999</v>
+      </c>
+      <c r="FG75">
+        <v>0.93015400000000004</v>
+      </c>
     </row>
-    <row r="76" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98125476</v>
       </c>
@@ -19574,8 +20059,14 @@
       <c r="EZ76">
         <v>0.93798999999999999</v>
       </c>
+      <c r="FF76">
+        <v>0.46914124000000001</v>
+      </c>
+      <c r="FG76">
+        <v>0.93798999999999999</v>
+      </c>
     </row>
-    <row r="77" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98163986000000003</v>
       </c>
@@ -19678,8 +20169,14 @@
       <c r="EZ77">
         <v>0.94073099999999998</v>
       </c>
+      <c r="FF77">
+        <v>0.46914133000000002</v>
+      </c>
+      <c r="FG77">
+        <v>0.94073099999999998</v>
+      </c>
     </row>
-    <row r="78" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98200410000000005</v>
       </c>
@@ -19782,8 +20279,14 @@
       <c r="EZ78">
         <v>0.95447300000000002</v>
       </c>
+      <c r="FF78">
+        <v>0.46914133000000002</v>
+      </c>
+      <c r="FG78">
+        <v>0.95447300000000002</v>
+      </c>
     </row>
-    <row r="79" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98241100000000003</v>
       </c>
@@ -19886,8 +20389,14 @@
       <c r="EZ79">
         <v>0.94704100000000002</v>
       </c>
+      <c r="FF79">
+        <v>0.46914133000000002</v>
+      </c>
+      <c r="FG79">
+        <v>0.94704100000000002</v>
+      </c>
     </row>
-    <row r="80" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98286790000000002</v>
       </c>
@@ -19990,8 +20499,14 @@
       <c r="EZ80">
         <v>0.95553699999999997</v>
       </c>
+      <c r="FF80">
+        <v>0.46914085999999999</v>
+      </c>
+      <c r="FG80">
+        <v>0.95553699999999997</v>
+      </c>
     </row>
-    <row r="81" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98338102999999999</v>
       </c>
@@ -20094,8 +20609,14 @@
       <c r="EZ81">
         <v>0.95642899999999997</v>
       </c>
+      <c r="FF81">
+        <v>0.46914133000000002</v>
+      </c>
+      <c r="FG81">
+        <v>0.95642899999999997</v>
+      </c>
     </row>
-    <row r="82" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.98389950000000004</v>
       </c>
@@ -20198,8 +20719,14 @@
       <c r="EZ82">
         <v>0.94610899999999998</v>
       </c>
+      <c r="FF82">
+        <v>0.46914141999999998</v>
+      </c>
+      <c r="FG82">
+        <v>0.94610899999999998</v>
+      </c>
     </row>
-    <row r="83" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98431873000000003</v>
       </c>
@@ -20302,8 +20829,14 @@
       <c r="EZ83">
         <v>0.941967</v>
       </c>
+      <c r="FF83">
+        <v>0.46914136000000001</v>
+      </c>
+      <c r="FG83">
+        <v>0.941967</v>
+      </c>
     </row>
-    <row r="84" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98454370000000002</v>
       </c>
@@ -20406,8 +20939,14 @@
       <c r="EZ84">
         <v>0.94142499999999996</v>
       </c>
+      <c r="FF84">
+        <v>0.46914145000000002</v>
+      </c>
+      <c r="FG84">
+        <v>0.94142499999999996</v>
+      </c>
     </row>
-    <row r="85" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98472499999999996</v>
       </c>
@@ -20510,8 +21049,14 @@
       <c r="EZ85">
         <v>0.91245500000000002</v>
       </c>
+      <c r="FF85">
+        <v>0.46914183999999998</v>
+      </c>
+      <c r="FG85">
+        <v>0.91245500000000002</v>
+      </c>
     </row>
-    <row r="86" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.9847243</v>
       </c>
@@ -20614,8 +21159,14 @@
       <c r="EZ86">
         <v>0.91606900000000002</v>
       </c>
+      <c r="FF86">
+        <v>0.46914187000000002</v>
+      </c>
+      <c r="FG86">
+        <v>0.91606900000000002</v>
+      </c>
     </row>
-    <row r="87" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98449500000000001</v>
       </c>
@@ -20718,8 +21269,14 @@
       <c r="EZ87">
         <v>0.92552299999999998</v>
       </c>
+      <c r="FF87">
+        <v>0.46914196000000002</v>
+      </c>
+      <c r="FG87">
+        <v>0.92552299999999998</v>
+      </c>
     </row>
-    <row r="88" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98391819999999997</v>
       </c>
@@ -20822,8 +21379,14 @@
       <c r="EZ88">
         <v>0.92510000000000003</v>
       </c>
+      <c r="FF88">
+        <v>0.46914238000000003</v>
+      </c>
+      <c r="FG88">
+        <v>0.92510000000000003</v>
+      </c>
     </row>
-    <row r="89" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98308605000000004</v>
       </c>
@@ -20926,8 +21489,14 @@
       <c r="EZ89">
         <v>0.91980200000000001</v>
       </c>
+      <c r="FF89">
+        <v>0.46914262000000001</v>
+      </c>
+      <c r="FG89">
+        <v>0.91980200000000001</v>
+      </c>
     </row>
-    <row r="90" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98196300000000003</v>
       </c>
@@ -21030,8 +21599,14 @@
       <c r="EZ90">
         <v>0.92811299999999997</v>
       </c>
+      <c r="FF90">
+        <v>0.46914240000000001</v>
+      </c>
+      <c r="FG90">
+        <v>0.92811299999999997</v>
+      </c>
     </row>
-    <row r="91" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.98071059999999999</v>
       </c>
@@ -21134,8 +21709,14 @@
       <c r="EZ91">
         <v>0.90521399999999996</v>
       </c>
+      <c r="FF91">
+        <v>0.46914262000000001</v>
+      </c>
+      <c r="FG91">
+        <v>0.90521399999999996</v>
+      </c>
     </row>
-    <row r="92" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.98030229999999996</v>
       </c>
@@ -21238,8 +21819,14 @@
       <c r="EZ92">
         <v>0.908273</v>
       </c>
+      <c r="FF92">
+        <v>0.46914230000000001</v>
+      </c>
+      <c r="FG92">
+        <v>0.908273</v>
+      </c>
     </row>
-    <row r="93" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.98065959999999996</v>
       </c>
@@ -21342,8 +21929,14 @@
       <c r="EZ93">
         <v>0.92499399999999998</v>
       </c>
+      <c r="FF93">
+        <v>0.46914270000000002</v>
+      </c>
+      <c r="FG93">
+        <v>0.92499399999999998</v>
+      </c>
     </row>
-    <row r="94" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.98071193999999995</v>
       </c>
@@ -21446,8 +22039,14 @@
       <c r="EZ94">
         <v>0.94017700000000004</v>
       </c>
+      <c r="FF94">
+        <v>0.46914264999999999</v>
+      </c>
+      <c r="FG94">
+        <v>0.94017700000000004</v>
+      </c>
     </row>
-    <row r="95" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97984766999999995</v>
       </c>
@@ -21550,8 +22149,14 @@
       <c r="EZ95">
         <v>0.94635400000000003</v>
       </c>
+      <c r="FF95">
+        <v>0.46914289999999997</v>
+      </c>
+      <c r="FG95">
+        <v>0.94635400000000003</v>
+      </c>
     </row>
-    <row r="96" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97908704999999996</v>
       </c>
@@ -21654,8 +22259,14 @@
       <c r="EZ96">
         <v>0.94533</v>
       </c>
+      <c r="FF96">
+        <v>0.46914255999999999</v>
+      </c>
+      <c r="FG96">
+        <v>0.94533</v>
+      </c>
     </row>
-    <row r="97" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97884300000000002</v>
       </c>
@@ -21758,8 +22369,14 @@
       <c r="EZ97">
         <v>0.956488</v>
       </c>
+      <c r="FF97">
+        <v>0.46914213999999999</v>
+      </c>
+      <c r="FG97">
+        <v>0.956488</v>
+      </c>
     </row>
-    <row r="98" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97900039999999999</v>
       </c>
@@ -21862,8 +22479,14 @@
       <c r="EZ98">
         <v>0.95804100000000003</v>
       </c>
+      <c r="FF98">
+        <v>0.46914225999999998</v>
+      </c>
+      <c r="FG98">
+        <v>0.95804100000000003</v>
+      </c>
     </row>
-    <row r="99" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97906053000000004</v>
       </c>
@@ -21966,8 +22589,14 @@
       <c r="EZ99">
         <v>0.95912399999999998</v>
       </c>
+      <c r="FF99">
+        <v>0.46914201999999999</v>
+      </c>
+      <c r="FG99">
+        <v>0.95912399999999998</v>
+      </c>
     </row>
-    <row r="100" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97900719999999997</v>
       </c>
@@ -22070,8 +22699,14 @@
       <c r="EZ100">
         <v>0.95313199999999998</v>
       </c>
+      <c r="FF100">
+        <v>0.46914187000000002</v>
+      </c>
+      <c r="FG100">
+        <v>0.95313199999999998</v>
+      </c>
     </row>
-    <row r="101" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97931109999999999</v>
       </c>
@@ -22174,8 +22809,14 @@
       <c r="EZ101">
         <v>0.94978899999999999</v>
       </c>
+      <c r="FF101">
+        <v>0.46914139999999999</v>
+      </c>
+      <c r="FG101">
+        <v>0.94978899999999999</v>
+      </c>
     </row>
-    <row r="102" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97974159999999999</v>
       </c>
@@ -22278,8 +22919,14 @@
       <c r="EZ102">
         <v>0.94186099999999995</v>
       </c>
+      <c r="FF102">
+        <v>0.46914133000000002</v>
+      </c>
+      <c r="FG102">
+        <v>0.94186099999999995</v>
+      </c>
     </row>
-    <row r="103" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97993330000000001</v>
       </c>
@@ -22382,8 +23029,14 @@
       <c r="EZ103">
         <v>0.92699600000000004</v>
       </c>
+      <c r="FF103">
+        <v>0.46914097999999999</v>
+      </c>
+      <c r="FG103">
+        <v>0.92699600000000004</v>
+      </c>
     </row>
-    <row r="104" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97969764000000004</v>
       </c>
@@ -22486,8 +23139,14 @@
       <c r="EZ104">
         <v>0.91906200000000005</v>
       </c>
+      <c r="FF104">
+        <v>0.46914149999999999</v>
+      </c>
+      <c r="FG104">
+        <v>0.91906200000000005</v>
+      </c>
     </row>
-    <row r="105" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97793596999999999</v>
       </c>
@@ -22590,8 +23249,14 @@
       <c r="EZ105">
         <v>0.93598099999999995</v>
       </c>
+      <c r="FF105">
+        <v>0.46914099999999997</v>
+      </c>
+      <c r="FG105">
+        <v>0.93598099999999995</v>
+      </c>
     </row>
-    <row r="106" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97617259999999995</v>
       </c>
@@ -22694,8 +23359,14 @@
       <c r="EZ106">
         <v>0.94610300000000003</v>
       </c>
+      <c r="FF106">
+        <v>0.46914162999999998</v>
+      </c>
+      <c r="FG106">
+        <v>0.94610300000000003</v>
+      </c>
     </row>
-    <row r="107" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97623150000000003</v>
       </c>
@@ -22798,8 +23469,14 @@
       <c r="EZ107">
         <v>0.94614200000000004</v>
       </c>
+      <c r="FF107">
+        <v>0.46914178000000001</v>
+      </c>
+      <c r="FG107">
+        <v>0.94614200000000004</v>
+      </c>
     </row>
-    <row r="108" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97707679999999997</v>
       </c>
@@ -22902,8 +23579,14 @@
       <c r="EZ108">
         <v>0.94297799999999998</v>
       </c>
+      <c r="FF108">
+        <v>0.46914166000000002</v>
+      </c>
+      <c r="FG108">
+        <v>0.94297799999999998</v>
+      </c>
     </row>
-    <row r="109" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97745514</v>
       </c>
@@ -23006,8 +23689,14 @@
       <c r="EZ109">
         <v>0.93914600000000004</v>
       </c>
+      <c r="FF109">
+        <v>0.46914139999999999</v>
+      </c>
+      <c r="FG109">
+        <v>0.93914600000000004</v>
+      </c>
     </row>
-    <row r="110" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97696110000000003</v>
       </c>
@@ -23110,8 +23799,14 @@
       <c r="EZ110">
         <v>0.93602799999999997</v>
       </c>
+      <c r="FF110">
+        <v>0.46914149999999999</v>
+      </c>
+      <c r="FG110">
+        <v>0.93602799999999997</v>
+      </c>
     </row>
-    <row r="111" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97576605999999999</v>
       </c>
@@ -23214,8 +23909,14 @@
       <c r="EZ111">
         <v>0.94033500000000003</v>
       </c>
+      <c r="FF111">
+        <v>0.46914119999999998</v>
+      </c>
+      <c r="FG111">
+        <v>0.94033500000000003</v>
+      </c>
     </row>
-    <row r="112" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97488629999999998</v>
       </c>
@@ -23318,8 +24019,14 @@
       <c r="EZ112">
         <v>0.92957900000000004</v>
       </c>
+      <c r="FF112">
+        <v>0.46914109999999998</v>
+      </c>
+      <c r="FG112">
+        <v>0.92957900000000004</v>
+      </c>
     </row>
-    <row r="113" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97477650000000005</v>
       </c>
@@ -23422,8 +24129,14 @@
       <c r="EZ113">
         <v>0.92562199999999994</v>
       </c>
+      <c r="FF113">
+        <v>0.46914097999999999</v>
+      </c>
+      <c r="FG113">
+        <v>0.92562199999999994</v>
+      </c>
     </row>
-    <row r="114" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97557044000000004</v>
       </c>
@@ -23526,8 +24239,14 @@
       <c r="EZ114">
         <v>0.94320199999999998</v>
       </c>
+      <c r="FF114">
+        <v>0.46914104000000001</v>
+      </c>
+      <c r="FG114">
+        <v>0.94320199999999998</v>
+      </c>
     </row>
-    <row r="115" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97673255000000003</v>
       </c>
@@ -23630,8 +24349,14 @@
       <c r="EZ115">
         <v>0.92991599999999996</v>
       </c>
+      <c r="FF115">
+        <v>0.46914119999999998</v>
+      </c>
+      <c r="FG115">
+        <v>0.92991599999999996</v>
+      </c>
     </row>
-    <row r="116" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.97761030000000004</v>
       </c>
@@ -23734,8 +24459,14 @@
       <c r="EZ116">
         <v>0.93122400000000005</v>
       </c>
+      <c r="FF116">
+        <v>0.46914109999999998</v>
+      </c>
+      <c r="FG116">
+        <v>0.93122400000000005</v>
+      </c>
     </row>
-    <row r="117" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.97834580000000004</v>
       </c>
@@ -23838,8 +24569,14 @@
       <c r="EZ117">
         <v>0.92946700000000004</v>
       </c>
+      <c r="FF117">
+        <v>0.46914116</v>
+      </c>
+      <c r="FG117">
+        <v>0.92946700000000004</v>
+      </c>
     </row>
-    <row r="118" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.97910260000000005</v>
       </c>
@@ -23942,8 +24679,14 @@
       <c r="EZ118">
         <v>0.93485200000000002</v>
       </c>
+      <c r="FF118">
+        <v>0.46914090000000003</v>
+      </c>
+      <c r="FG118">
+        <v>0.93485200000000002</v>
+      </c>
     </row>
-    <row r="119" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.97996780000000006</v>
       </c>
@@ -24046,8 +24789,14 @@
       <c r="EZ119">
         <v>0.94205300000000003</v>
       </c>
+      <c r="FF119">
+        <v>0.46914099999999997</v>
+      </c>
+      <c r="FG119">
+        <v>0.94205300000000003</v>
+      </c>
     </row>
-    <row r="120" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9808017</v>
       </c>
@@ -24150,8 +24899,14 @@
       <c r="EZ120">
         <v>0.93840599999999996</v>
       </c>
+      <c r="FF120">
+        <v>0.46914099999999997</v>
+      </c>
+      <c r="FG120">
+        <v>0.93840599999999996</v>
+      </c>
     </row>
-    <row r="121" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98146533999999996</v>
       </c>
@@ -24254,8 +25009,14 @@
       <c r="EZ121">
         <v>0.92696999999999996</v>
       </c>
+      <c r="FF121">
+        <v>0.46914109999999998</v>
+      </c>
+      <c r="FG121">
+        <v>0.92696999999999996</v>
+      </c>
     </row>
-    <row r="122" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98195619999999995</v>
       </c>
@@ -24358,8 +25119,14 @@
       <c r="EZ122">
         <v>0.89798</v>
       </c>
+      <c r="FF122">
+        <v>0.46914090000000003</v>
+      </c>
+      <c r="FG122">
+        <v>0.89798</v>
+      </c>
     </row>
-    <row r="123" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98239124</v>
       </c>
@@ -24462,8 +25229,14 @@
       <c r="EZ123">
         <v>0.85514199999999996</v>
       </c>
+      <c r="FF123">
+        <v>0.46914104000000001</v>
+      </c>
+      <c r="FG123">
+        <v>0.85514199999999996</v>
+      </c>
     </row>
-    <row r="124" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.9825874</v>
       </c>
@@ -24566,8 +25339,14 @@
       <c r="EZ124">
         <v>0.80382100000000001</v>
       </c>
+      <c r="FF124">
+        <v>0.46914097999999999</v>
+      </c>
+      <c r="FG124">
+        <v>0.80382100000000001</v>
+      </c>
     </row>
-    <row r="125" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98263029999999996</v>
       </c>
@@ -24670,8 +25449,14 @@
       <c r="EZ125">
         <v>0.78690800000000005</v>
       </c>
+      <c r="FF125">
+        <v>0.46914141999999998</v>
+      </c>
+      <c r="FG125">
+        <v>0.78690800000000005</v>
+      </c>
     </row>
-    <row r="126" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98298450000000004</v>
       </c>
@@ -24774,8 +25559,14 @@
       <c r="EZ126">
         <v>0.83507100000000001</v>
       </c>
+      <c r="FF126">
+        <v>0.46914192999999998</v>
+      </c>
+      <c r="FG126">
+        <v>0.83507100000000001</v>
+      </c>
     </row>
-    <row r="127" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98353460000000004</v>
       </c>
@@ -24878,8 +25669,14 @@
       <c r="EZ127">
         <v>0.86622100000000002</v>
       </c>
+      <c r="FF127">
+        <v>0.46914296999999999</v>
+      </c>
+      <c r="FG127">
+        <v>0.86622100000000002</v>
+      </c>
     </row>
-    <row r="128" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98405050000000005</v>
       </c>
@@ -24982,8 +25779,14 @@
       <c r="EZ128">
         <v>0.86702100000000004</v>
       </c>
+      <c r="FF128">
+        <v>0.46914339999999999</v>
+      </c>
+      <c r="FG128">
+        <v>0.86702100000000004</v>
+      </c>
     </row>
-    <row r="129" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98429626000000003</v>
       </c>
@@ -25086,8 +25889,14 @@
       <c r="EZ129">
         <v>0.85599400000000003</v>
       </c>
+      <c r="FF129">
+        <v>0.46914339999999999</v>
+      </c>
+      <c r="FG129">
+        <v>0.85599400000000003</v>
+      </c>
     </row>
-    <row r="130" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98426913999999999</v>
       </c>
@@ -25190,8 +25999,14 @@
       <c r="EZ130">
         <v>0.81745699999999999</v>
       </c>
+      <c r="FF130">
+        <v>0.46914275999999999</v>
+      </c>
+      <c r="FG130">
+        <v>0.81745699999999999</v>
+      </c>
     </row>
-    <row r="131" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98429429999999996</v>
       </c>
@@ -25294,8 +26109,14 @@
       <c r="EZ131">
         <v>0.84058699999999997</v>
       </c>
+      <c r="FF131">
+        <v>0.46914250000000002</v>
+      </c>
+      <c r="FG131">
+        <v>0.84058699999999997</v>
+      </c>
     </row>
-    <row r="132" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98417840000000001</v>
       </c>
@@ -25398,8 +26219,14 @@
       <c r="EZ132">
         <v>0.84208700000000003</v>
       </c>
+      <c r="FF132">
+        <v>0.46914309999999998</v>
+      </c>
+      <c r="FG132">
+        <v>0.84208700000000003</v>
+      </c>
     </row>
-    <row r="133" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98372369999999998</v>
       </c>
@@ -25502,8 +26329,14 @@
       <c r="EZ133">
         <v>0.82232700000000003</v>
       </c>
+      <c r="FF133">
+        <v>0.46914303000000002</v>
+      </c>
+      <c r="FG133">
+        <v>0.82232700000000003</v>
+      </c>
     </row>
-    <row r="134" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98357570000000005</v>
       </c>
@@ -25606,8 +26439,14 @@
       <c r="EZ134">
         <v>0.85416400000000003</v>
       </c>
+      <c r="FF134">
+        <v>0.46914294000000001</v>
+      </c>
+      <c r="FG134">
+        <v>0.85416400000000003</v>
+      </c>
     </row>
-    <row r="135" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98368542999999997</v>
       </c>
@@ -25710,8 +26549,14 @@
       <c r="EZ135">
         <v>0.83608199999999999</v>
       </c>
+      <c r="FF135">
+        <v>0.46914345000000002</v>
+      </c>
+      <c r="FG135">
+        <v>0.83608199999999999</v>
+      </c>
     </row>
-    <row r="136" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98327949999999997</v>
       </c>
@@ -25814,8 +26659,14 @@
       <c r="EZ136">
         <v>0.84285399999999999</v>
       </c>
+      <c r="FF136">
+        <v>0.46914287999999998</v>
+      </c>
+      <c r="FG136">
+        <v>0.84285399999999999</v>
+      </c>
     </row>
-    <row r="137" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98277073999999998</v>
       </c>
@@ -25918,8 +26769,14 @@
       <c r="EZ137">
         <v>0.84864099999999998</v>
       </c>
+      <c r="FF137">
+        <v>0.46914336000000001</v>
+      </c>
+      <c r="FG137">
+        <v>0.84864099999999998</v>
+      </c>
     </row>
-    <row r="138" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.98254269999999999</v>
       </c>
@@ -26022,8 +26879,14 @@
       <c r="EZ138">
         <v>0.84334200000000004</v>
       </c>
+      <c r="FF138">
+        <v>0.46914312000000002</v>
+      </c>
+      <c r="FG138">
+        <v>0.84334200000000004</v>
+      </c>
     </row>
-    <row r="139" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.98247397000000003</v>
       </c>
@@ -26126,8 +26989,14 @@
       <c r="EZ139">
         <v>0.85989899999999997</v>
       </c>
+      <c r="FF139">
+        <v>0.46914264999999999</v>
+      </c>
+      <c r="FG139">
+        <v>0.85989899999999997</v>
+      </c>
     </row>
-    <row r="140" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.98264300000000004</v>
       </c>
@@ -26230,8 +27099,14 @@
       <c r="EZ140">
         <v>0.87127500000000002</v>
       </c>
+      <c r="FF140">
+        <v>0.46914315000000001</v>
+      </c>
+      <c r="FG140">
+        <v>0.87127500000000002</v>
+      </c>
     </row>
-    <row r="141" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.98228073000000005</v>
       </c>
@@ -26334,8 +27209,14 @@
       <c r="EZ141">
         <v>0.86789899999999998</v>
       </c>
+      <c r="FF141">
+        <v>0.46914282000000002</v>
+      </c>
+      <c r="FG141">
+        <v>0.86789899999999998</v>
+      </c>
     </row>
-    <row r="142" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.97903110000000004</v>
       </c>
@@ -26438,8 +27319,14 @@
       <c r="EZ142">
         <v>0.84664600000000001</v>
       </c>
+      <c r="FF142">
+        <v>0.46914267999999998</v>
+      </c>
+      <c r="FG142">
+        <v>0.84664600000000001</v>
+      </c>
     </row>
-    <row r="143" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.97004630000000003</v>
       </c>
@@ -26542,8 +27429,14 @@
       <c r="EZ143">
         <v>0.85255199999999998</v>
       </c>
+      <c r="FF143">
+        <v>0.4691418</v>
+      </c>
+      <c r="FG143">
+        <v>0.85255199999999998</v>
+      </c>
     </row>
-    <row r="144" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.9547544</v>
       </c>
@@ -26646,8 +27539,14 @@
       <c r="EZ144">
         <v>0.83654399999999995</v>
       </c>
+      <c r="FF144">
+        <v>0.46914234999999999</v>
+      </c>
+      <c r="FG144">
+        <v>0.83654399999999995</v>
+      </c>
     </row>
-    <row r="145" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93693346</v>
       </c>
@@ -26750,8 +27649,14 @@
       <c r="EZ145">
         <v>0.83391499999999996</v>
       </c>
+      <c r="FF145">
+        <v>0.46914222999999999</v>
+      </c>
+      <c r="FG145">
+        <v>0.83391499999999996</v>
+      </c>
     </row>
-    <row r="146" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92407969999999995</v>
       </c>
@@ -26854,8 +27759,14 @@
       <c r="EZ146">
         <v>0.82960699999999998</v>
       </c>
+      <c r="FF146">
+        <v>0.46914262000000001</v>
+      </c>
+      <c r="FG146">
+        <v>0.82960699999999998</v>
+      </c>
     </row>
-    <row r="147" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.92545204999999997</v>
       </c>
@@ -26958,8 +27869,14 @@
       <c r="EZ147">
         <v>0.829013</v>
       </c>
+      <c r="FF147">
+        <v>0.46914294000000001</v>
+      </c>
+      <c r="FG147">
+        <v>0.829013</v>
+      </c>
     </row>
-    <row r="148" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.933639</v>
       </c>
@@ -27062,8 +27979,14 @@
       <c r="EZ148">
         <v>0.79626300000000005</v>
       </c>
+      <c r="FF148">
+        <v>0.46914317999999999</v>
+      </c>
+      <c r="FG148">
+        <v>0.79626300000000005</v>
+      </c>
     </row>
-    <row r="149" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.93672144000000002</v>
       </c>
@@ -27166,8 +28089,14 @@
       <c r="EZ149">
         <v>0.79779599999999995</v>
       </c>
+      <c r="FF149">
+        <v>0.46914296999999999</v>
+      </c>
+      <c r="FG149">
+        <v>0.79779599999999995</v>
+      </c>
     </row>
-    <row r="150" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.92697589999999996</v>
       </c>
@@ -27270,8 +28199,14 @@
       <c r="EZ150">
         <v>0.82154000000000005</v>
       </c>
+      <c r="FF150">
+        <v>0.46914299999999998</v>
+      </c>
+      <c r="FG150">
+        <v>0.82154000000000005</v>
+      </c>
     </row>
-    <row r="151" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.91321622999999996</v>
       </c>
@@ -27374,8 +28309,14 @@
       <c r="EZ151">
         <v>0.824044</v>
       </c>
+      <c r="FF151">
+        <v>0.46914260000000002</v>
+      </c>
+      <c r="FG151">
+        <v>0.824044</v>
+      </c>
     </row>
-    <row r="152" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.90451545</v>
       </c>
@@ -27478,8 +28419,14 @@
       <c r="EZ152">
         <v>0.84223899999999996</v>
       </c>
+      <c r="FF152">
+        <v>0.46914220000000001</v>
+      </c>
+      <c r="FG152">
+        <v>0.84223899999999996</v>
+      </c>
     </row>
-    <row r="153" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.89857799999999999</v>
       </c>
@@ -27582,8 +28529,14 @@
       <c r="EZ153">
         <v>0.86581799999999998</v>
       </c>
+      <c r="FF153">
+        <v>0.46914243999999999</v>
+      </c>
+      <c r="FG153">
+        <v>0.86581799999999998</v>
+      </c>
     </row>
-    <row r="154" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.90034729999999996</v>
       </c>
@@ -27686,8 +28639,14 @@
       <c r="EZ154">
         <v>0.86110799999999998</v>
       </c>
+      <c r="FF154">
+        <v>0.46914264999999999</v>
+      </c>
+      <c r="FG154">
+        <v>0.86110799999999998</v>
+      </c>
     </row>
-    <row r="155" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.90802103000000001</v>
       </c>
@@ -27790,8 +28749,14 @@
       <c r="EZ155">
         <v>0.87161900000000003</v>
       </c>
+      <c r="FF155">
+        <v>0.46914238000000003</v>
+      </c>
+      <c r="FG155">
+        <v>0.87161900000000003</v>
+      </c>
     </row>
-    <row r="156" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.91741079999999997</v>
       </c>
@@ -27894,8 +28859,14 @@
       <c r="EZ156">
         <v>0.883247</v>
       </c>
+      <c r="FF156">
+        <v>0.46914201999999999</v>
+      </c>
+      <c r="FG156">
+        <v>0.883247</v>
+      </c>
     </row>
-    <row r="157" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.92375510000000005</v>
       </c>
@@ -27998,8 +28969,14 @@
       <c r="EZ157">
         <v>0.88421099999999997</v>
       </c>
+      <c r="FF157">
+        <v>0.469142</v>
+      </c>
+      <c r="FG157">
+        <v>0.88421099999999997</v>
+      </c>
     </row>
-    <row r="158" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.92515199999999997</v>
       </c>
@@ -28102,8 +29079,14 @@
       <c r="EZ158">
         <v>0.88590899999999995</v>
       </c>
+      <c r="FF158">
+        <v>0.46914178000000001</v>
+      </c>
+      <c r="FG158">
+        <v>0.88590899999999995</v>
+      </c>
     </row>
-    <row r="159" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.92614399999999997</v>
       </c>
@@ -28206,8 +29189,14 @@
       <c r="EZ159">
         <v>0.87681200000000004</v>
       </c>
+      <c r="FF159">
+        <v>0.46914124000000001</v>
+      </c>
+      <c r="FG159">
+        <v>0.87681200000000004</v>
+      </c>
     </row>
-    <row r="160" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.93095874999999995</v>
       </c>
@@ -28310,8 +29299,14 @@
       <c r="EZ160">
         <v>0.87056900000000004</v>
       </c>
+      <c r="FF160">
+        <v>0.46914124000000001</v>
+      </c>
+      <c r="FG160">
+        <v>0.87056900000000004</v>
+      </c>
     </row>
-    <row r="161" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.93712969999999995</v>
       </c>
@@ -28414,8 +29409,14 @@
       <c r="EZ161">
         <v>0.89013799999999998</v>
       </c>
+      <c r="FF161">
+        <v>0.46914085999999999</v>
+      </c>
+      <c r="FG161">
+        <v>0.89013799999999998</v>
+      </c>
     </row>
-    <row r="162" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.93991696999999996</v>
       </c>
@@ -28518,8 +29519,14 @@
       <c r="EZ162">
         <v>0.89624899999999996</v>
       </c>
+      <c r="FF162">
+        <v>0.46914106999999999</v>
+      </c>
+      <c r="FG162">
+        <v>0.89624899999999996</v>
+      </c>
     </row>
-    <row r="163" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94084129999999999</v>
       </c>
@@ -28622,8 +29629,14 @@
       <c r="EZ163">
         <v>0.89661199999999996</v>
       </c>
+      <c r="FF163">
+        <v>0.46914116</v>
+      </c>
+      <c r="FG163">
+        <v>0.89661199999999996</v>
+      </c>
     </row>
-    <row r="164" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94026430000000005</v>
       </c>
@@ -28726,8 +29739,14 @@
       <c r="EZ164">
         <v>0.89470300000000003</v>
       </c>
+      <c r="FF164">
+        <v>0.46914067999999998</v>
+      </c>
+      <c r="FG164">
+        <v>0.89470300000000003</v>
+      </c>
     </row>
-    <row r="165" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.94110380000000005</v>
       </c>
@@ -28830,8 +29849,14 @@
       <c r="EZ165">
         <v>0.88688699999999998</v>
       </c>
+      <c r="FF165">
+        <v>0.46914050000000002</v>
+      </c>
+      <c r="FG165">
+        <v>0.88688699999999998</v>
+      </c>
     </row>
-    <row r="166" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.94173353999999998</v>
       </c>
@@ -28934,8 +29959,14 @@
       <c r="EZ166">
         <v>0.90906600000000004</v>
       </c>
+      <c r="FF166">
+        <v>0.46914038000000002</v>
+      </c>
+      <c r="FG166">
+        <v>0.90906600000000004</v>
+      </c>
     </row>
-    <row r="167" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.94368196000000004</v>
       </c>
@@ -29038,8 +30069,14 @@
       <c r="EZ167">
         <v>0.92402300000000004</v>
       </c>
+      <c r="FF167">
+        <v>0.46914129999999998</v>
+      </c>
+      <c r="FG167">
+        <v>0.92402300000000004</v>
+      </c>
     </row>
-    <row r="168" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.94127249999999996</v>
       </c>
@@ -29142,8 +30179,14 @@
       <c r="EZ168">
         <v>0.9214</v>
       </c>
+      <c r="FF168">
+        <v>0.46914064999999999</v>
+      </c>
+      <c r="FG168">
+        <v>0.9214</v>
+      </c>
     </row>
-    <row r="169" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.93782215999999996</v>
       </c>
@@ -29246,8 +30289,14 @@
       <c r="EZ169">
         <v>0.91790499999999997</v>
       </c>
+      <c r="FF169">
+        <v>0.46914055999999998</v>
+      </c>
+      <c r="FG169">
+        <v>0.91790499999999997</v>
+      </c>
     </row>
-    <row r="170" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.93808895000000003</v>
       </c>
@@ -29350,8 +30399,14 @@
       <c r="EZ170">
         <v>0.93406500000000003</v>
       </c>
+      <c r="FF170">
+        <v>0.46914013999999998</v>
+      </c>
+      <c r="FG170">
+        <v>0.93406500000000003</v>
+      </c>
     </row>
-    <row r="171" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.93920802999999997</v>
       </c>
@@ -29454,8 +30509,14 @@
       <c r="EZ171">
         <v>0.93344400000000005</v>
       </c>
+      <c r="FF171">
+        <v>0.4691401</v>
+      </c>
+      <c r="FG171">
+        <v>0.93344400000000005</v>
+      </c>
     </row>
-    <row r="172" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.93959300000000001</v>
       </c>
@@ -29558,8 +30619,14 @@
       <c r="EZ172">
         <v>0.92680499999999999</v>
       </c>
+      <c r="FF172">
+        <v>0.46913967000000001</v>
+      </c>
+      <c r="FG172">
+        <v>0.92680499999999999</v>
+      </c>
     </row>
-    <row r="173" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.94315260000000001</v>
       </c>
@@ -29662,8 +30729,14 @@
       <c r="EZ173">
         <v>0.94311699999999998</v>
       </c>
+      <c r="FF173">
+        <v>0.46913943000000002</v>
+      </c>
+      <c r="FG173">
+        <v>0.94311699999999998</v>
+      </c>
     </row>
-    <row r="174" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.94766163999999997</v>
       </c>
@@ -29766,8 +30839,14 @@
       <c r="EZ174">
         <v>0.946909</v>
       </c>
+      <c r="FF174">
+        <v>0.46913922000000002</v>
+      </c>
+      <c r="FG174">
+        <v>0.946909</v>
+      </c>
     </row>
-    <row r="175" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.95133719999999999</v>
       </c>
@@ -29870,8 +30949,14 @@
       <c r="EZ175">
         <v>0.941967</v>
       </c>
+      <c r="FF175">
+        <v>0.46913862000000001</v>
+      </c>
+      <c r="FG175">
+        <v>0.941967</v>
+      </c>
     </row>
-    <row r="176" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.95438230000000002</v>
       </c>
@@ -29974,8 +31059,14 @@
       <c r="EZ176">
         <v>0.94039499999999998</v>
       </c>
+      <c r="FF176">
+        <v>0.46913843999999999</v>
+      </c>
+      <c r="FG176">
+        <v>0.94039499999999998</v>
+      </c>
     </row>
-    <row r="177" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.95731500000000003</v>
       </c>
@@ -30078,8 +31169,14 @@
       <c r="EZ177">
         <v>0.93991199999999997</v>
       </c>
+      <c r="FF177">
+        <v>0.46913818000000002</v>
+      </c>
+      <c r="FG177">
+        <v>0.93991199999999997</v>
+      </c>
     </row>
-    <row r="178" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.95968229999999999</v>
       </c>
@@ -30182,8 +31279,14 @@
       <c r="EZ178">
         <v>0.92628900000000003</v>
       </c>
+      <c r="FF178">
+        <v>0.46913793999999998</v>
+      </c>
+      <c r="FG178">
+        <v>0.92628900000000003</v>
+      </c>
     </row>
-    <row r="179" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96201610000000004</v>
       </c>
@@ -30286,8 +31389,14 @@
       <c r="EZ179">
         <v>0.92836399999999997</v>
       </c>
+      <c r="FF179">
+        <v>0.46913806000000002</v>
+      </c>
+      <c r="FG179">
+        <v>0.92836399999999997</v>
+      </c>
     </row>
-    <row r="180" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.96395209999999998</v>
       </c>
@@ -30390,8 +31499,14 @@
       <c r="EZ180">
         <v>0.92392399999999997</v>
       </c>
+      <c r="FF180">
+        <v>0.46913811999999999</v>
+      </c>
+      <c r="FG180">
+        <v>0.92392399999999997</v>
+      </c>
     </row>
-    <row r="181" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.96586989999999995</v>
       </c>
@@ -30494,8 +31609,14 @@
       <c r="EZ181">
         <v>0.90474500000000002</v>
       </c>
+      <c r="FF181">
+        <v>0.4691381</v>
+      </c>
+      <c r="FG181">
+        <v>0.90474500000000002</v>
+      </c>
     </row>
-    <row r="182" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.96764075999999999</v>
       </c>
@@ -30598,8 +31719,14 @@
       <c r="EZ182">
         <v>0.88959600000000005</v>
       </c>
+      <c r="FF182">
+        <v>0.46913822999999999</v>
+      </c>
+      <c r="FG182">
+        <v>0.88959600000000005</v>
+      </c>
     </row>
-    <row r="183" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.96969530000000004</v>
       </c>
@@ -30702,8 +31829,14 @@
       <c r="EZ183">
         <v>0.90951499999999996</v>
       </c>
+      <c r="FF183">
+        <v>0.46913838000000002</v>
+      </c>
+      <c r="FG183">
+        <v>0.90951499999999996</v>
+      </c>
     </row>
-    <row r="184" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97170460000000003</v>
       </c>
@@ -30806,8 +31939,14 @@
       <c r="EZ184">
         <v>0.907698</v>
       </c>
+      <c r="FF184">
+        <v>0.46913922000000002</v>
+      </c>
+      <c r="FG184">
+        <v>0.907698</v>
+      </c>
     </row>
-    <row r="185" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97299707000000002</v>
       </c>
@@ -30910,8 +32049,14 @@
       <c r="EZ185">
         <v>0.929593</v>
       </c>
+      <c r="FF185">
+        <v>0.46913925000000001</v>
+      </c>
+      <c r="FG185">
+        <v>0.929593</v>
+      </c>
     </row>
-    <row r="186" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.97433950000000003</v>
       </c>
@@ -31014,8 +32159,14 @@
       <c r="EZ186">
         <v>0.92804699999999996</v>
       </c>
+      <c r="FF186">
+        <v>0.46913951999999998</v>
+      </c>
+      <c r="FG186">
+        <v>0.92804699999999996</v>
+      </c>
     </row>
-    <row r="187" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.97554255000000001</v>
       </c>
@@ -31118,8 +32269,14 @@
       <c r="EZ187">
         <v>0.93328599999999995</v>
       </c>
+      <c r="FF187">
+        <v>0.46913939999999998</v>
+      </c>
+      <c r="FG187">
+        <v>0.93328599999999995</v>
+      </c>
     </row>
-    <row r="188" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.97656359999999998</v>
       </c>
@@ -31222,8 +32379,14 @@
       <c r="EZ188">
         <v>0.93158099999999999</v>
       </c>
+      <c r="FF188">
+        <v>0.4691398</v>
+      </c>
+      <c r="FG188">
+        <v>0.93158099999999999</v>
+      </c>
     </row>
-    <row r="189" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.97792214</v>
       </c>
@@ -31326,8 +32489,14 @@
       <c r="EZ189">
         <v>0.93326600000000004</v>
       </c>
+      <c r="FF189">
+        <v>0.46913983999999997</v>
+      </c>
+      <c r="FG189">
+        <v>0.93326600000000004</v>
+      </c>
     </row>
-    <row r="190" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.9793828</v>
       </c>
@@ -31430,8 +32599,14 @@
       <c r="EZ190">
         <v>0.93308800000000003</v>
       </c>
+      <c r="FF190">
+        <v>0.46914025999999998</v>
+      </c>
+      <c r="FG190">
+        <v>0.93308800000000003</v>
+      </c>
     </row>
-    <row r="191" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98040729999999998</v>
       </c>
@@ -31534,8 +32709,14 @@
       <c r="EZ191">
         <v>0.93390700000000004</v>
       </c>
+      <c r="FF191">
+        <v>0.46913983999999997</v>
+      </c>
+      <c r="FG191">
+        <v>0.93390700000000004</v>
+      </c>
     </row>
-    <row r="192" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98111605999999996</v>
       </c>
@@ -31638,8 +32819,14 @@
       <c r="EZ192">
         <v>0.92749800000000004</v>
       </c>
+      <c r="FF192">
+        <v>0.46914</v>
+      </c>
+      <c r="FG192">
+        <v>0.92749800000000004</v>
+      </c>
     </row>
-    <row r="193" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98187243999999996</v>
       </c>
@@ -31742,8 +32929,14 @@
       <c r="EZ193">
         <v>0.94217799999999996</v>
       </c>
+      <c r="FF193">
+        <v>0.46914013999999998</v>
+      </c>
+      <c r="FG193">
+        <v>0.94217799999999996</v>
+      </c>
     </row>
-    <row r="194" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98256403000000003</v>
       </c>
@@ -31846,8 +33039,14 @@
       <c r="EZ194">
         <v>0.92690399999999995</v>
       </c>
+      <c r="FF194">
+        <v>0.46914064999999999</v>
+      </c>
+      <c r="FG194">
+        <v>0.92690399999999995</v>
+      </c>
     </row>
-    <row r="195" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98312259999999996</v>
       </c>
@@ -31950,8 +33149,14 @@
       <c r="EZ195">
         <v>0.90715599999999996</v>
       </c>
+      <c r="FF195">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG195">
+        <v>0.90715599999999996</v>
+      </c>
     </row>
-    <row r="196" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98375254999999995</v>
       </c>
@@ -32054,8 +33259,14 @@
       <c r="EZ196">
         <v>0.93495099999999998</v>
       </c>
+      <c r="FF196">
+        <v>0.46914053</v>
+      </c>
+      <c r="FG196">
+        <v>0.93495099999999998</v>
+      </c>
     </row>
-    <row r="197" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98449209999999998</v>
       </c>
@@ -32158,8 +33369,14 @@
       <c r="EZ197">
         <v>0.925292</v>
       </c>
+      <c r="FF197">
+        <v>0.46914127</v>
+      </c>
+      <c r="FG197">
+        <v>0.925292</v>
+      </c>
     </row>
-    <row r="198" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98514500000000005</v>
       </c>
@@ -32262,8 +33479,14 @@
       <c r="EZ198">
         <v>0.91638600000000003</v>
       </c>
+      <c r="FF198">
+        <v>0.46914070000000002</v>
+      </c>
+      <c r="FG198">
+        <v>0.91638600000000003</v>
+      </c>
     </row>
-    <row r="199" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98565453000000003</v>
       </c>
@@ -32366,8 +33589,14 @@
       <c r="EZ199">
         <v>0.90583499999999995</v>
       </c>
+      <c r="FF199">
+        <v>0.46914113000000002</v>
+      </c>
+      <c r="FG199">
+        <v>0.90583499999999995</v>
+      </c>
     </row>
-    <row r="200" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98607814000000005</v>
       </c>
@@ -32470,8 +33699,14 @@
       <c r="EZ200">
         <v>0.90888100000000005</v>
       </c>
+      <c r="FF200">
+        <v>0.46914129999999998</v>
+      </c>
+      <c r="FG200">
+        <v>0.90888100000000005</v>
+      </c>
     </row>
-    <row r="201" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98608105999999995</v>
       </c>
@@ -32574,8 +33809,14 @@
       <c r="EZ201">
         <v>0.88254600000000005</v>
       </c>
+      <c r="FF201">
+        <v>0.46914154000000002</v>
+      </c>
+      <c r="FG201">
+        <v>0.88254600000000005</v>
+      </c>
     </row>
-    <row r="202" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98535790000000001</v>
       </c>
@@ -32678,8 +33919,14 @@
       <c r="EZ202">
         <v>0.88886900000000002</v>
       </c>
+      <c r="FF202">
+        <v>0.46914141999999998</v>
+      </c>
+      <c r="FG202">
+        <v>0.88886900000000002</v>
+      </c>
     </row>
-    <row r="203" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98483220000000005</v>
       </c>
@@ -32782,8 +34029,14 @@
       <c r="EZ203">
         <v>0.90305400000000002</v>
       </c>
+      <c r="FF203">
+        <v>0.46914208000000002</v>
+      </c>
+      <c r="FG203">
+        <v>0.90305400000000002</v>
+      </c>
     </row>
-    <row r="204" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98502339999999999</v>
       </c>
@@ -32886,8 +34139,14 @@
       <c r="EZ204">
         <v>0.92264900000000005</v>
       </c>
+      <c r="FF204">
+        <v>0.46914208000000002</v>
+      </c>
+      <c r="FG204">
+        <v>0.92264900000000005</v>
+      </c>
     </row>
-    <row r="205" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98543809999999998</v>
       </c>
@@ -32990,8 +34249,14 @@
       <c r="EZ205">
         <v>0.90204899999999999</v>
       </c>
+      <c r="FF205">
+        <v>0.46914250000000002</v>
+      </c>
+      <c r="FG205">
+        <v>0.90204899999999999</v>
+      </c>
     </row>
-    <row r="206" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98574779999999995</v>
       </c>
@@ -33094,8 +34359,14 @@
       <c r="EZ206">
         <v>0.87804099999999996</v>
       </c>
+      <c r="FF206">
+        <v>0.46914210000000001</v>
+      </c>
+      <c r="FG206">
+        <v>0.87804099999999996</v>
+      </c>
     </row>
-    <row r="207" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98582709999999996</v>
       </c>
@@ -33198,8 +34469,14 @@
       <c r="EZ207">
         <v>0.888347</v>
       </c>
+      <c r="FF207">
+        <v>0.46914171999999998</v>
+      </c>
+      <c r="FG207">
+        <v>0.888347</v>
+      </c>
     </row>
-    <row r="208" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98575102999999997</v>
       </c>
@@ -33302,8 +34579,14 @@
       <c r="EZ208">
         <v>0.90012000000000003</v>
       </c>
+      <c r="FF208">
+        <v>0.46914192999999998</v>
+      </c>
+      <c r="FG208">
+        <v>0.90012000000000003</v>
+      </c>
     </row>
-    <row r="209" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98565930000000002</v>
       </c>
@@ -33406,8 +34689,14 @@
       <c r="EZ209">
         <v>0.916848</v>
       </c>
+      <c r="FF209">
+        <v>0.46914213999999999</v>
+      </c>
+      <c r="FG209">
+        <v>0.916848</v>
+      </c>
     </row>
-    <row r="210" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98564845000000001</v>
       </c>
@@ -33510,8 +34799,14 @@
       <c r="EZ210">
         <v>0.91466800000000004</v>
       </c>
+      <c r="FF210">
+        <v>0.46914204999999998</v>
+      </c>
+      <c r="FG210">
+        <v>0.91466800000000004</v>
+      </c>
     </row>
-    <row r="211" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98571235000000001</v>
       </c>
@@ -33614,8 +34909,14 @@
       <c r="EZ211">
         <v>0.91170200000000001</v>
       </c>
+      <c r="FF211">
+        <v>0.46914220000000001</v>
+      </c>
+      <c r="FG211">
+        <v>0.91170200000000001</v>
+      </c>
     </row>
-    <row r="212" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98587716000000003</v>
       </c>
@@ -33718,8 +35019,14 @@
       <c r="EZ212">
         <v>0.92614399999999997</v>
       </c>
+      <c r="FF212">
+        <v>0.46914204999999998</v>
+      </c>
+      <c r="FG212">
+        <v>0.92614399999999997</v>
+      </c>
     </row>
-    <row r="213" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98601127</v>
       </c>
@@ -33822,8 +35129,14 @@
       <c r="EZ213">
         <v>0.91623399999999999</v>
       </c>
+      <c r="FF213">
+        <v>0.46914238000000003</v>
+      </c>
+      <c r="FG213">
+        <v>0.91623399999999999</v>
+      </c>
     </row>
-    <row r="214" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98605670000000001</v>
       </c>
@@ -33926,8 +35239,14 @@
       <c r="EZ214">
         <v>0.90340399999999998</v>
       </c>
+      <c r="FF214">
+        <v>0.46914201999999999</v>
+      </c>
+      <c r="FG214">
+        <v>0.90340399999999998</v>
+      </c>
     </row>
-    <row r="215" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98566529999999997</v>
       </c>
@@ -34030,8 +35349,14 @@
       <c r="EZ215">
         <v>0.88273800000000002</v>
       </c>
+      <c r="FF215">
+        <v>0.46914204999999998</v>
+      </c>
+      <c r="FG215">
+        <v>0.88273800000000002</v>
+      </c>
     </row>
-    <row r="216" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98518830000000002</v>
       </c>
@@ -34134,8 +35459,14 @@
       <c r="EZ216">
         <v>0.88541400000000003</v>
       </c>
+      <c r="FF216">
+        <v>0.469142</v>
+      </c>
+      <c r="FG216">
+        <v>0.88541400000000003</v>
+      </c>
     </row>
-    <row r="217" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.98497619999999997</v>
       </c>
@@ -34238,8 +35569,14 @@
       <c r="EZ217">
         <v>0.86793900000000002</v>
       </c>
+      <c r="FF217">
+        <v>0.46914253</v>
+      </c>
+      <c r="FG217">
+        <v>0.86793900000000002</v>
+      </c>
     </row>
-    <row r="218" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.98432993999999996</v>
       </c>
@@ -34342,8 +35679,14 @@
       <c r="EZ218">
         <v>0.83677500000000005</v>
       </c>
+      <c r="FF218">
+        <v>0.46914196000000002</v>
+      </c>
+      <c r="FG218">
+        <v>0.83677500000000005</v>
+      </c>
     </row>
-    <row r="219" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.98297506999999995</v>
       </c>
@@ -34446,8 +35789,14 @@
       <c r="EZ219">
         <v>0.82286199999999998</v>
       </c>
+      <c r="FF219">
+        <v>0.46914243999999999</v>
+      </c>
+      <c r="FG219">
+        <v>0.82286199999999998</v>
+      </c>
     </row>
-    <row r="220" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.98185619999999996</v>
       </c>
@@ -34550,8 +35899,14 @@
       <c r="EZ220">
         <v>0.82394500000000004</v>
       </c>
+      <c r="FF220">
+        <v>0.46914255999999999</v>
+      </c>
+      <c r="FG220">
+        <v>0.82394500000000004</v>
+      </c>
     </row>
-    <row r="221" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97993699999999995</v>
       </c>
@@ -34654,8 +36009,14 @@
       <c r="EZ221">
         <v>0.83386199999999999</v>
       </c>
+      <c r="FF221">
+        <v>0.46914240000000001</v>
+      </c>
+      <c r="FG221">
+        <v>0.83386199999999999</v>
+      </c>
     </row>
-    <row r="222" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.97773109999999996</v>
       </c>
@@ -34758,8 +36119,14 @@
       <c r="EZ222">
         <v>0.80188599999999999</v>
       </c>
+      <c r="FF222">
+        <v>0.46914315000000001</v>
+      </c>
+      <c r="FG222">
+        <v>0.80188599999999999</v>
+      </c>
     </row>
-    <row r="223" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97719294000000001</v>
       </c>
@@ -34862,8 +36229,14 @@
       <c r="EZ223">
         <v>0.82273600000000002</v>
       </c>
+      <c r="FF223">
+        <v>0.46914282000000002</v>
+      </c>
+      <c r="FG223">
+        <v>0.82273600000000002</v>
+      </c>
     </row>
-    <row r="224" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97773339999999997</v>
       </c>
@@ -34966,8 +36339,14 @@
       <c r="EZ224">
         <v>0.79531200000000002</v>
       </c>
+      <c r="FF224">
+        <v>0.46914359999999999</v>
+      </c>
+      <c r="FG224">
+        <v>0.79531200000000002</v>
+      </c>
     </row>
-    <row r="225" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.97787120000000005</v>
       </c>
@@ -35070,8 +36449,14 @@
       <c r="EZ225">
         <v>0.79597300000000004</v>
       </c>
+      <c r="FF225">
+        <v>0.46914306</v>
+      </c>
+      <c r="FG225">
+        <v>0.79597300000000004</v>
+      </c>
     </row>
-    <row r="226" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.9758656</v>
       </c>
@@ -35174,8 +36559,14 @@
       <c r="EZ226">
         <v>0.78143799999999997</v>
       </c>
+      <c r="FF226">
+        <v>0.46914366000000002</v>
+      </c>
+      <c r="FG226">
+        <v>0.78143799999999997</v>
+      </c>
     </row>
-    <row r="227" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97317940000000003</v>
       </c>
@@ -35278,8 +36669,14 @@
       <c r="EZ227">
         <v>0.78781999999999996</v>
       </c>
+      <c r="FF227">
+        <v>0.46914333000000003</v>
+      </c>
+      <c r="FG227">
+        <v>0.78781999999999996</v>
+      </c>
     </row>
-    <row r="228" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97173726999999999</v>
       </c>
@@ -35382,8 +36779,14 @@
       <c r="EZ228">
         <v>0.81286599999999998</v>
       </c>
+      <c r="FF228">
+        <v>0.46914354000000003</v>
+      </c>
+      <c r="FG228">
+        <v>0.81286599999999998</v>
+      </c>
     </row>
-    <row r="229" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.9718755</v>
       </c>
@@ -35486,8 +36889,14 @@
       <c r="EZ229">
         <v>0.79316500000000001</v>
       </c>
+      <c r="FF229">
+        <v>0.4691438</v>
+      </c>
+      <c r="FG229">
+        <v>0.79316500000000001</v>
+      </c>
     </row>
-    <row r="230" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97275659999999997</v>
       </c>
@@ -35590,8 +36999,14 @@
       <c r="EZ230">
         <v>0.81070500000000001</v>
       </c>
+      <c r="FF230">
+        <v>0.46914378000000001</v>
+      </c>
+      <c r="FG230">
+        <v>0.81070500000000001</v>
+      </c>
     </row>
-    <row r="231" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97297889999999998</v>
       </c>
@@ -35694,8 +37109,14 @@
       <c r="EZ231">
         <v>0.79704299999999995</v>
       </c>
+      <c r="FF231">
+        <v>0.46914496999999999</v>
+      </c>
+      <c r="FG231">
+        <v>0.79704299999999995</v>
+      </c>
     </row>
-    <row r="232" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.97284649999999995</v>
       </c>
@@ -35798,8 +37219,14 @@
       <c r="EZ232">
         <v>0.80391999999999997</v>
       </c>
+      <c r="FF232">
+        <v>0.46914371999999999</v>
+      </c>
+      <c r="FG232">
+        <v>0.80391999999999997</v>
+      </c>
     </row>
-    <row r="233" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97313136</v>
       </c>
@@ -35902,8 +37329,14 @@
       <c r="EZ233">
         <v>0.834893</v>
       </c>
+      <c r="FF233">
+        <v>0.46914400000000001</v>
+      </c>
+      <c r="FG233">
+        <v>0.834893</v>
+      </c>
     </row>
-    <row r="234" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.97397869999999998</v>
       </c>
@@ -36006,8 +37439,14 @@
       <c r="EZ234">
         <v>0.83432399999999995</v>
       </c>
+      <c r="FF234">
+        <v>0.46914396000000003</v>
+      </c>
+      <c r="FG234">
+        <v>0.83432399999999995</v>
+      </c>
     </row>
-    <row r="235" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.97337216000000004</v>
       </c>
@@ -36110,8 +37549,14 @@
       <c r="EZ235">
         <v>0.81030899999999995</v>
       </c>
+      <c r="FF235">
+        <v>0.46914362999999998</v>
+      </c>
+      <c r="FG235">
+        <v>0.81030899999999995</v>
+      </c>
     </row>
-    <row r="236" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.9720879</v>
       </c>
@@ -36214,8 +37659,14 @@
       <c r="EZ236">
         <v>0.81658500000000001</v>
       </c>
+      <c r="FF236">
+        <v>0.46914327</v>
+      </c>
+      <c r="FG236">
+        <v>0.81658500000000001</v>
+      </c>
     </row>
-    <row r="237" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.97014034000000005</v>
       </c>
@@ -36318,8 +37769,14 @@
       <c r="EZ237">
         <v>0.81851499999999999</v>
       </c>
+      <c r="FF237">
+        <v>0.46914324000000002</v>
+      </c>
+      <c r="FG237">
+        <v>0.81851499999999999</v>
+      </c>
     </row>
-    <row r="238" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.96636515999999995</v>
       </c>
@@ -36422,8 +37879,14 @@
       <c r="EZ238">
         <v>0.79512700000000003</v>
       </c>
+      <c r="FF238">
+        <v>0.46914329999999999</v>
+      </c>
+      <c r="FG238">
+        <v>0.79512700000000003</v>
+      </c>
     </row>
-    <row r="239" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.96120554000000002</v>
       </c>
@@ -36526,8 +37989,14 @@
       <c r="EZ239">
         <v>0.77754699999999999</v>
       </c>
+      <c r="FF239">
+        <v>0.46914303000000002</v>
+      </c>
+      <c r="FG239">
+        <v>0.77754699999999999</v>
+      </c>
     </row>
-    <row r="240" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.95493567000000001</v>
       </c>
@@ -36630,8 +38099,14 @@
       <c r="EZ240">
         <v>0.77673400000000004</v>
       </c>
+      <c r="FF240">
+        <v>0.46914309999999998</v>
+      </c>
+      <c r="FG240">
+        <v>0.77673400000000004</v>
+      </c>
     </row>
-    <row r="241" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.94963056000000001</v>
       </c>
@@ -36734,8 +38209,14 @@
       <c r="EZ241">
         <v>0.77650300000000005</v>
       </c>
+      <c r="FF241">
+        <v>0.46914303000000002</v>
+      </c>
+      <c r="FG241">
+        <v>0.77650300000000005</v>
+      </c>
     </row>
-    <row r="242" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.94228979999999996</v>
       </c>
@@ -36838,8 +38319,14 @@
       <c r="EZ242">
         <v>0.76145300000000005</v>
       </c>
+      <c r="FF242">
+        <v>0.46914315000000001</v>
+      </c>
+      <c r="FG242">
+        <v>0.76145300000000005</v>
+      </c>
     </row>
-    <row r="243" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.93428235999999998</v>
       </c>
@@ -36942,8 +38429,14 @@
       <c r="EZ243">
         <v>0.78503900000000004</v>
       </c>
+      <c r="FF243">
+        <v>0.46914312000000002</v>
+      </c>
+      <c r="FG243">
+        <v>0.78503900000000004</v>
+      </c>
     </row>
-    <row r="244" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.92244440000000005</v>
       </c>
@@ -37046,8 +38539,14 @@
       <c r="EZ244">
         <v>0.80538699999999996</v>
       </c>
+      <c r="FF244">
+        <v>0.46914349999999999</v>
+      </c>
+      <c r="FG244">
+        <v>0.80538699999999996</v>
+      </c>
     </row>
-    <row r="245" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.90962129999999997</v>
       </c>
@@ -37150,8 +38649,14 @@
       <c r="EZ245">
         <v>0.82602600000000004</v>
       </c>
+      <c r="FF245">
+        <v>0.46914329999999999</v>
+      </c>
+      <c r="FG245">
+        <v>0.82602600000000004</v>
+      </c>
     </row>
-    <row r="246" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.89433295000000002</v>
       </c>
@@ -37254,8 +38759,14 @@
       <c r="EZ246">
         <v>0.82008700000000001</v>
       </c>
+      <c r="FF246">
+        <v>0.46914294000000001</v>
+      </c>
+      <c r="FG246">
+        <v>0.82008700000000001</v>
+      </c>
     </row>
-    <row r="247" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87948110000000002</v>
       </c>
@@ -37358,8 +38869,14 @@
       <c r="EZ247">
         <v>0.82005399999999995</v>
       </c>
+      <c r="FF247">
+        <v>0.46914255999999999</v>
+      </c>
+      <c r="FG247">
+        <v>0.82005399999999995</v>
+      </c>
     </row>
-    <row r="248" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.86989700000000003</v>
       </c>
@@ -37462,8 +38979,14 @@
       <c r="EZ248">
         <v>0.838368</v>
       </c>
+      <c r="FF248">
+        <v>0.46914196000000002</v>
+      </c>
+      <c r="FG248">
+        <v>0.838368</v>
+      </c>
     </row>
-    <row r="249" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.8644366</v>
       </c>
@@ -37566,8 +39089,14 @@
       <c r="EZ249">
         <v>0.82235999999999998</v>
       </c>
+      <c r="FF249">
+        <v>0.46914230000000001</v>
+      </c>
+      <c r="FG249">
+        <v>0.82235999999999998</v>
+      </c>
     </row>
-    <row r="250" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.86798613999999996</v>
       </c>
@@ -37670,8 +39199,14 @@
       <c r="EZ250">
         <v>0.82799500000000004</v>
       </c>
+      <c r="FF250">
+        <v>0.46914124000000001</v>
+      </c>
+      <c r="FG250">
+        <v>0.82799500000000004</v>
+      </c>
     </row>
-    <row r="251" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.87286010000000003</v>
       </c>
@@ -37774,8 +39309,14 @@
       <c r="EZ251">
         <v>0.84246399999999999</v>
       </c>
+      <c r="FF251">
+        <v>0.46914141999999998</v>
+      </c>
+      <c r="FG251">
+        <v>0.84246399999999999</v>
+      </c>
     </row>
-    <row r="252" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.87586359999999996</v>
       </c>
@@ -37878,8 +39419,14 @@
       <c r="EZ252">
         <v>0.84005200000000002</v>
       </c>
+      <c r="FF252">
+        <v>0.46914095</v>
+      </c>
+      <c r="FG252">
+        <v>0.84005200000000002</v>
+      </c>
     </row>
-    <row r="253" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.88215639999999995</v>
       </c>
@@ -37982,8 +39529,14 @@
       <c r="EZ253">
         <v>0.82960100000000003</v>
       </c>
+      <c r="FF253">
+        <v>0.46914025999999998</v>
+      </c>
+      <c r="FG253">
+        <v>0.82960100000000003</v>
+      </c>
     </row>
-    <row r="254" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.89292145000000001</v>
       </c>
@@ -38086,8 +39639,14 @@
       <c r="EZ254">
         <v>0.86007100000000003</v>
       </c>
+      <c r="FF254">
+        <v>0.46914038000000002</v>
+      </c>
+      <c r="FG254">
+        <v>0.86007100000000003</v>
+      </c>
     </row>
-    <row r="255" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.89778703000000004</v>
       </c>
@@ -38190,8 +39749,14 @@
       <c r="EZ255">
         <v>0.86542200000000002</v>
       </c>
+      <c r="FF255">
+        <v>0.46914008000000001</v>
+      </c>
+      <c r="FG255">
+        <v>0.86542200000000002</v>
+      </c>
     </row>
-    <row r="256" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89979105999999998</v>
       </c>
@@ -38294,8 +39859,14 @@
       <c r="EZ256">
         <v>0.87001399999999995</v>
       </c>
+      <c r="FF256">
+        <v>0.46914030000000001</v>
+      </c>
+      <c r="FG256">
+        <v>0.87001399999999995</v>
+      </c>
     </row>
-    <row r="257" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.90518330000000002</v>
       </c>
@@ -38398,8 +39969,14 @@
       <c r="EZ257">
         <v>0.87436700000000001</v>
       </c>
+      <c r="FF257">
+        <v>0.46913992999999998</v>
+      </c>
+      <c r="FG257">
+        <v>0.87436700000000001</v>
+      </c>
     </row>
-    <row r="258" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.9069429</v>
       </c>
@@ -38502,8 +40079,14 @@
       <c r="EZ258">
         <v>0.87553700000000001</v>
       </c>
+      <c r="FF258">
+        <v>0.46913949999999999</v>
+      </c>
+      <c r="FG258">
+        <v>0.87553700000000001</v>
+      </c>
     </row>
-    <row r="259" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.90196759999999998</v>
       </c>
@@ -38606,8 +40189,14 @@
       <c r="EZ259">
         <v>0.86067199999999999</v>
       </c>
+      <c r="FF259">
+        <v>0.46913964000000002</v>
+      </c>
+      <c r="FG259">
+        <v>0.86067199999999999</v>
+      </c>
     </row>
-    <row r="260" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.89463972999999997</v>
       </c>
@@ -38710,8 +40299,14 @@
       <c r="EZ260">
         <v>0.86727799999999999</v>
       </c>
+      <c r="FF260">
+        <v>0.46913943000000002</v>
+      </c>
+      <c r="FG260">
+        <v>0.86727799999999999</v>
+      </c>
     </row>
-    <row r="261" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.89197749999999998</v>
       </c>
@@ -38814,8 +40409,14 @@
       <c r="EZ261">
         <v>0.867483</v>
       </c>
+      <c r="FF261">
+        <v>0.46913959999999999</v>
+      </c>
+      <c r="FG261">
+        <v>0.867483</v>
+      </c>
     </row>
-    <row r="262" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.88822409999999996</v>
       </c>
@@ -38918,8 +40519,14 @@
       <c r="EZ262">
         <v>0.88903399999999999</v>
       </c>
+      <c r="FF262">
+        <v>0.46913939999999998</v>
+      </c>
+      <c r="FG262">
+        <v>0.88903399999999999</v>
+      </c>
     </row>
-    <row r="263" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.89092505</v>
       </c>
@@ -39022,8 +40629,14 @@
       <c r="EZ263">
         <v>0.88734999999999997</v>
       </c>
+      <c r="FF263">
+        <v>0.46913996000000002</v>
+      </c>
+      <c r="FG263">
+        <v>0.88734999999999997</v>
+      </c>
     </row>
-    <row r="264" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.90219819999999995</v>
       </c>
@@ -39126,8 +40739,14 @@
       <c r="EZ264">
         <v>0.88489799999999996</v>
       </c>
+      <c r="FF264">
+        <v>0.46913955000000002</v>
+      </c>
+      <c r="FG264">
+        <v>0.88489799999999996</v>
+      </c>
     </row>
-    <row r="265" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.91393124999999997</v>
       </c>
@@ -39230,8 +40849,14 @@
       <c r="EZ265">
         <v>0.89235699999999996</v>
       </c>
+      <c r="FF265">
+        <v>0.46913934000000002</v>
+      </c>
+      <c r="FG265">
+        <v>0.89235699999999996</v>
+      </c>
     </row>
-    <row r="266" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.92070680000000005</v>
       </c>
@@ -39334,8 +40959,14 @@
       <c r="EZ266">
         <v>0.90119099999999996</v>
       </c>
+      <c r="FF266">
+        <v>0.46913925000000001</v>
+      </c>
+      <c r="FG266">
+        <v>0.90119099999999996</v>
+      </c>
     </row>
-    <row r="267" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.92520279999999999</v>
       </c>
@@ -39438,8 +41069,14 @@
       <c r="EZ267">
         <v>0.90712999999999999</v>
       </c>
+      <c r="FF267">
+        <v>0.46913916</v>
+      </c>
+      <c r="FG267">
+        <v>0.90712999999999999</v>
+      </c>
     </row>
-    <row r="268" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.93181879999999995</v>
       </c>
@@ -39542,8 +41179,14 @@
       <c r="EZ268">
         <v>0.90846400000000005</v>
       </c>
+      <c r="FF268">
+        <v>0.46913885999999999</v>
+      </c>
+      <c r="FG268">
+        <v>0.90846400000000005</v>
+      </c>
     </row>
-    <row r="269" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.93664895999999997</v>
       </c>
@@ -39646,8 +41289,14 @@
       <c r="EZ269">
         <v>0.90727500000000005</v>
       </c>
+      <c r="FF269">
+        <v>0.46913820000000001</v>
+      </c>
+      <c r="FG269">
+        <v>0.90727500000000005</v>
+      </c>
     </row>
-    <row r="270" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.94140214</v>
       </c>
@@ -39750,8 +41399,14 @@
       <c r="EZ270">
         <v>0.89862699999999995</v>
       </c>
+      <c r="FF270">
+        <v>0.4691379</v>
+      </c>
+      <c r="FG270">
+        <v>0.89862699999999995</v>
+      </c>
     </row>
-    <row r="271" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.94735837000000001</v>
       </c>
@@ -39854,8 +41509,14 @@
       <c r="EZ271">
         <v>0.89811799999999997</v>
       </c>
+      <c r="FF271">
+        <v>0.46913772999999998</v>
+      </c>
+      <c r="FG271">
+        <v>0.89811799999999997</v>
+      </c>
     </row>
-    <row r="272" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.95195174000000005</v>
       </c>
@@ -39958,8 +41619,14 @@
       <c r="EZ272">
         <v>0.89885199999999998</v>
       </c>
+      <c r="FF272">
+        <v>0.46913767000000001</v>
+      </c>
+      <c r="FG272">
+        <v>0.89885199999999998</v>
+      </c>
     </row>
-    <row r="273" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.95576954000000003</v>
       </c>
@@ -40062,8 +41729,14 @@
       <c r="EZ273">
         <v>0.910717</v>
       </c>
+      <c r="FF273">
+        <v>0.46913734000000001</v>
+      </c>
+      <c r="FG273">
+        <v>0.910717</v>
+      </c>
     </row>
-    <row r="274" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96027689999999999</v>
       </c>
@@ -40166,8 +41839,14 @@
       <c r="EZ274">
         <v>0.91662399999999999</v>
       </c>
+      <c r="FF274">
+        <v>0.46913785000000002</v>
+      </c>
+      <c r="FG274">
+        <v>0.91662399999999999</v>
+      </c>
     </row>
-    <row r="275" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.96422905000000003</v>
       </c>
@@ -40270,8 +41949,14 @@
       <c r="EZ275">
         <v>0.91384200000000004</v>
       </c>
+      <c r="FF275">
+        <v>0.46913749999999999</v>
+      </c>
+      <c r="FG275">
+        <v>0.91384200000000004</v>
+      </c>
     </row>
-    <row r="276" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.96671706000000002</v>
       </c>
@@ -40374,8 +42059,14 @@
       <c r="EZ276">
         <v>0.92245699999999997</v>
       </c>
+      <c r="FF276">
+        <v>0.46913729999999998</v>
+      </c>
+      <c r="FG276">
+        <v>0.92245699999999997</v>
+      </c>
     </row>
-    <row r="277" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.96816409999999997</v>
       </c>
@@ -40478,8 +42169,14 @@
       <c r="EZ277">
         <v>0.91806399999999999</v>
       </c>
+      <c r="FF277">
+        <v>0.46913758</v>
+      </c>
+      <c r="FG277">
+        <v>0.91806399999999999</v>
+      </c>
     </row>
-    <row r="278" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.96929679999999996</v>
       </c>
@@ -40582,8 +42279,14 @@
       <c r="EZ278">
         <v>0.90421600000000002</v>
       </c>
+      <c r="FF278">
+        <v>0.46913737</v>
+      </c>
+      <c r="FG278">
+        <v>0.90421600000000002</v>
+      </c>
     </row>
-    <row r="279" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.9700704</v>
       </c>
@@ -40686,8 +42389,14 @@
       <c r="EZ279">
         <v>0.91841399999999995</v>
       </c>
+      <c r="FF279">
+        <v>0.46913692000000001</v>
+      </c>
+      <c r="FG279">
+        <v>0.91841399999999995</v>
+      </c>
     </row>
-    <row r="280" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97097354999999996</v>
       </c>
@@ -40790,8 +42499,14 @@
       <c r="EZ280">
         <v>0.90206299999999995</v>
       </c>
+      <c r="FF280">
+        <v>0.46913729999999998</v>
+      </c>
+      <c r="FG280">
+        <v>0.90206299999999995</v>
+      </c>
     </row>
-    <row r="281" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97236250000000002</v>
       </c>
@@ -40894,8 +42609,14 @@
       <c r="EZ281">
         <v>0.90582200000000002</v>
       </c>
+      <c r="FF281">
+        <v>0.46913697999999998</v>
+      </c>
+      <c r="FG281">
+        <v>0.90582200000000002</v>
+      </c>
     </row>
-    <row r="282" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97372190000000003</v>
       </c>
@@ -40998,8 +42719,14 @@
       <c r="EZ282">
         <v>0.902115</v>
       </c>
+      <c r="FF282">
+        <v>0.46913737</v>
+      </c>
+      <c r="FG282">
+        <v>0.902115</v>
+      </c>
     </row>
-    <row r="283" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.97404086999999995</v>
       </c>
@@ -41102,8 +42829,14 @@
       <c r="EZ283">
         <v>0.91515000000000002</v>
       </c>
+      <c r="FF283">
+        <v>0.46913729999999998</v>
+      </c>
+      <c r="FG283">
+        <v>0.91515000000000002</v>
+      </c>
     </row>
-    <row r="284" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97437090000000004</v>
       </c>
@@ -41206,8 +42939,14 @@
       <c r="EZ284">
         <v>0.92882600000000004</v>
       </c>
+      <c r="FF284">
+        <v>0.4691381</v>
+      </c>
+      <c r="FG284">
+        <v>0.92882600000000004</v>
+      </c>
     </row>
-    <row r="285" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97535263999999999</v>
       </c>
@@ -41310,8 +43049,14 @@
       <c r="EZ285">
         <v>0.929064</v>
       </c>
+      <c r="FF285">
+        <v>0.469138</v>
+      </c>
+      <c r="FG285">
+        <v>0.929064</v>
+      </c>
     </row>
-    <row r="286" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97585449999999996</v>
       </c>
@@ -41414,8 +43159,14 @@
       <c r="EZ286">
         <v>0.92771000000000003</v>
       </c>
+      <c r="FF286">
+        <v>0.46913814999999998</v>
+      </c>
+      <c r="FG286">
+        <v>0.92771000000000003</v>
+      </c>
     </row>
-    <row r="287" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.9758175</v>
       </c>
@@ -41518,8 +43269,14 @@
       <c r="EZ287">
         <v>0.93670100000000001</v>
       </c>
+      <c r="FF287">
+        <v>0.46913776000000001</v>
+      </c>
+      <c r="FG287">
+        <v>0.93670100000000001</v>
+      </c>
     </row>
-    <row r="288" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97472689999999995</v>
       </c>
@@ -41622,8 +43379,14 @@
       <c r="EZ288">
         <v>0.94096900000000006</v>
       </c>
+      <c r="FF288">
+        <v>0.46913820000000001</v>
+      </c>
+      <c r="FG288">
+        <v>0.94096900000000006</v>
+      </c>
     </row>
-    <row r="289" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97435210000000005</v>
       </c>
@@ -41726,8 +43489,14 @@
       <c r="EZ289">
         <v>0.94202600000000003</v>
       </c>
+      <c r="FF289">
+        <v>0.46913814999999998</v>
+      </c>
+      <c r="FG289">
+        <v>0.94202600000000003</v>
+      </c>
     </row>
-    <row r="290" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97502480000000002</v>
       </c>
@@ -41830,8 +43599,14 @@
       <c r="EZ290">
         <v>0.93481199999999998</v>
       </c>
+      <c r="FF290">
+        <v>0.4691381</v>
+      </c>
+      <c r="FG290">
+        <v>0.93481199999999998</v>
+      </c>
     </row>
-    <row r="291" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97573244999999997</v>
       </c>
@@ -41934,8 +43709,14 @@
       <c r="EZ291">
         <v>0.93487799999999999</v>
       </c>
+      <c r="FF291">
+        <v>0.46913793999999998</v>
+      </c>
+      <c r="FG291">
+        <v>0.93487799999999999</v>
+      </c>
     </row>
-    <row r="292" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97630053999999999</v>
       </c>
@@ -42038,8 +43819,14 @@
       <c r="EZ292">
         <v>0.93237400000000004</v>
       </c>
+      <c r="FF292">
+        <v>0.46913776000000001</v>
+      </c>
+      <c r="FG292">
+        <v>0.93237400000000004</v>
+      </c>
     </row>
-    <row r="293" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97684835999999997</v>
       </c>
@@ -42142,8 +43929,14 @@
       <c r="EZ293">
         <v>0.93495700000000004</v>
       </c>
+      <c r="FF293">
+        <v>0.46913820000000001</v>
+      </c>
+      <c r="FG293">
+        <v>0.93495700000000004</v>
+      </c>
     </row>
-    <row r="294" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97703636000000005</v>
       </c>
@@ -42246,8 +44039,14 @@
       <c r="EZ294">
         <v>0.93723699999999999</v>
       </c>
+      <c r="FF294">
+        <v>0.46913853</v>
+      </c>
+      <c r="FG294">
+        <v>0.93723699999999999</v>
+      </c>
     </row>
-    <row r="295" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97686580000000001</v>
       </c>
@@ -42350,8 +44149,14 @@
       <c r="EZ295">
         <v>0.92445900000000003</v>
       </c>
+      <c r="FF295">
+        <v>0.46913909999999998</v>
+      </c>
+      <c r="FG295">
+        <v>0.92445900000000003</v>
+      </c>
     </row>
-    <row r="296" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97698795999999999</v>
       </c>
@@ -42454,8 +44259,14 @@
       <c r="EZ296">
         <v>0.917516</v>
       </c>
+      <c r="FF296">
+        <v>0.46913895</v>
+      </c>
+      <c r="FG296">
+        <v>0.917516</v>
+      </c>
     </row>
-    <row r="297" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.97700050000000005</v>
       </c>
@@ -42558,8 +44369,14 @@
       <c r="EZ297">
         <v>0.928172</v>
       </c>
+      <c r="FF297">
+        <v>0.46913929999999998</v>
+      </c>
+      <c r="FG297">
+        <v>0.928172</v>
+      </c>
     </row>
-    <row r="298" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.97664399999999996</v>
       </c>
@@ -42662,8 +44479,14 @@
       <c r="EZ298">
         <v>0.91624099999999997</v>
       </c>
+      <c r="FF298">
+        <v>0.46913955000000002</v>
+      </c>
+      <c r="FG298">
+        <v>0.91624099999999997</v>
+      </c>
     </row>
-    <row r="299" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.97655619999999999</v>
       </c>
@@ -42766,8 +44589,14 @@
       <c r="EZ299">
         <v>0.90814700000000004</v>
       </c>
+      <c r="FF299">
+        <v>0.46913949999999999</v>
+      </c>
+      <c r="FG299">
+        <v>0.90814700000000004</v>
+      </c>
     </row>
-    <row r="300" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.97605410000000004</v>
       </c>
@@ -42870,8 +44699,14 @@
       <c r="EZ300">
         <v>0.90782399999999996</v>
       </c>
+      <c r="FF300">
+        <v>0.46913987000000001</v>
+      </c>
+      <c r="FG300">
+        <v>0.90782399999999996</v>
+      </c>
     </row>
-    <row r="301" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.97562736000000005</v>
       </c>
@@ -42974,8 +44809,14 @@
       <c r="EZ301">
         <v>0.91212499999999996</v>
       </c>
+      <c r="FF301">
+        <v>0.4691399</v>
+      </c>
+      <c r="FG301">
+        <v>0.91212499999999996</v>
+      </c>
     </row>
-    <row r="302" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.97557896</v>
       </c>
@@ -43078,8 +44919,14 @@
       <c r="EZ302">
         <v>0.91314899999999999</v>
       </c>
+      <c r="FF302">
+        <v>0.46914050000000002</v>
+      </c>
+      <c r="FG302">
+        <v>0.91314899999999999</v>
+      </c>
     </row>
-    <row r="303" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.97580385000000003</v>
       </c>
@@ -43182,8 +45029,14 @@
       <c r="EZ303">
         <v>0.93012799999999995</v>
       </c>
+      <c r="FF303">
+        <v>0.46914070000000002</v>
+      </c>
+      <c r="FG303">
+        <v>0.93012799999999995</v>
+      </c>
     </row>
-    <row r="304" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.97629889999999997</v>
       </c>
@@ -43286,8 +45139,14 @@
       <c r="EZ304">
         <v>0.91696100000000003</v>
       </c>
+      <c r="FF304">
+        <v>0.46914064999999999</v>
+      </c>
+      <c r="FG304">
+        <v>0.91696100000000003</v>
+      </c>
     </row>
-    <row r="305" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.97639699999999996</v>
       </c>
@@ -43390,8 +45249,14 @@
       <c r="EZ305">
         <v>0.91672900000000002</v>
       </c>
+      <c r="FF305">
+        <v>0.46914064999999999</v>
+      </c>
+      <c r="FG305">
+        <v>0.91672900000000002</v>
+      </c>
     </row>
-    <row r="306" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.97631769999999996</v>
       </c>
@@ -43494,8 +45359,14 @@
       <c r="EZ306">
         <v>0.90516799999999997</v>
       </c>
+      <c r="FF306">
+        <v>0.46914062000000001</v>
+      </c>
+      <c r="FG306">
+        <v>0.90516799999999997</v>
+      </c>
     </row>
-    <row r="307" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.97649870000000005</v>
       </c>
@@ -43598,8 +45469,14 @@
       <c r="EZ307">
         <v>0.91841399999999995</v>
       </c>
+      <c r="FF307">
+        <v>0.46914062000000001</v>
+      </c>
+      <c r="FG307">
+        <v>0.91841399999999995</v>
+      </c>
     </row>
-    <row r="308" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.97667420000000005</v>
       </c>
@@ -43702,8 +45579,14 @@
       <c r="EZ308">
         <v>0.90556400000000004</v>
       </c>
+      <c r="FF308">
+        <v>0.46914067999999998</v>
+      </c>
+      <c r="FG308">
+        <v>0.90556400000000004</v>
+      </c>
     </row>
-    <row r="309" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.97665659999999999</v>
       </c>
@@ -43806,8 +45689,14 @@
       <c r="EZ309">
         <v>0.90584200000000004</v>
       </c>
+      <c r="FF309">
+        <v>0.46914030000000001</v>
+      </c>
+      <c r="FG309">
+        <v>0.90584200000000004</v>
+      </c>
     </row>
-    <row r="310" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.97653455</v>
       </c>
@@ -43910,8 +45799,14 @@
       <c r="EZ310">
         <v>0.90082700000000004</v>
       </c>
+      <c r="FF310">
+        <v>0.46914076999999998</v>
+      </c>
+      <c r="FG310">
+        <v>0.90082700000000004</v>
+      </c>
     </row>
-    <row r="311" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.97648729999999995</v>
       </c>
@@ -44014,8 +45909,14 @@
       <c r="EZ311">
         <v>0.90893999999999997</v>
       </c>
+      <c r="FF311">
+        <v>0.46914083000000001</v>
+      </c>
+      <c r="FG311">
+        <v>0.90893999999999997</v>
+      </c>
     </row>
-    <row r="312" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.97666350000000002</v>
       </c>
@@ -44118,8 +46019,14 @@
       <c r="EZ312">
         <v>0.90611200000000003</v>
       </c>
+      <c r="FF312">
+        <v>0.46914104000000001</v>
+      </c>
+      <c r="FG312">
+        <v>0.90611200000000003</v>
+      </c>
     </row>
-    <row r="313" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.97705774999999995</v>
       </c>
@@ -44222,8 +46129,14 @@
       <c r="EZ313">
         <v>0.924624</v>
       </c>
+      <c r="FF313">
+        <v>0.46914092000000002</v>
+      </c>
+      <c r="FG313">
+        <v>0.924624</v>
+      </c>
     </row>
-    <row r="314" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.97749949999999997</v>
       </c>
@@ -44326,8 +46239,14 @@
       <c r="EZ314">
         <v>0.93419099999999999</v>
       </c>
+      <c r="FF314">
+        <v>0.46914139999999999</v>
+      </c>
+      <c r="FG314">
+        <v>0.93419099999999999</v>
+      </c>
     </row>
-    <row r="315" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.97729239999999995</v>
       </c>
@@ -44430,8 +46349,14 @@
       <c r="EZ315">
         <v>0.93389999999999995</v>
       </c>
+      <c r="FF315">
+        <v>0.46914159999999999</v>
+      </c>
+      <c r="FG315">
+        <v>0.93389999999999995</v>
+      </c>
     </row>
-    <row r="316" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.97550930000000002</v>
       </c>
@@ -44534,8 +46459,14 @@
       <c r="EZ316">
         <v>0.93981999999999999</v>
       </c>
+      <c r="FF316">
+        <v>0.46914139999999999</v>
+      </c>
+      <c r="FG316">
+        <v>0.93981999999999999</v>
+      </c>
     </row>
-    <row r="317" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.97413653</v>
       </c>
@@ -44638,8 +46569,14 @@
       <c r="EZ317">
         <v>0.93843200000000004</v>
       </c>
+      <c r="FF317">
+        <v>0.46914162999999998</v>
+      </c>
+      <c r="FG317">
+        <v>0.93843200000000004</v>
+      </c>
     </row>
-    <row r="318" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.97274530000000003</v>
       </c>
@@ -44742,8 +46679,14 @@
       <c r="EZ318">
         <v>0.939998</v>
       </c>
+      <c r="FF318">
+        <v>0.46914119999999998</v>
+      </c>
+      <c r="FG318">
+        <v>0.939998</v>
+      </c>
     </row>
-    <row r="319" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.97043495999999996</v>
       </c>
@@ -44846,8 +46789,14 @@
       <c r="EZ319">
         <v>0.94391599999999998</v>
       </c>
+      <c r="FF319">
+        <v>0.46914129999999998</v>
+      </c>
+      <c r="FG319">
+        <v>0.94391599999999998</v>
+      </c>
     </row>
-    <row r="320" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.96884899999999996</v>
       </c>
@@ -44950,8 +46899,14 @@
       <c r="EZ320">
         <v>0.93986599999999998</v>
       </c>
+      <c r="FF320">
+        <v>0.46914139999999999</v>
+      </c>
+      <c r="FG320">
+        <v>0.93986599999999998</v>
+      </c>
     </row>
-    <row r="321" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.96835726</v>
       </c>
@@ -45054,8 +47009,14 @@
       <c r="EZ321">
         <v>0.946658</v>
       </c>
+      <c r="FF321">
+        <v>0.46914109999999998</v>
+      </c>
+      <c r="FG321">
+        <v>0.946658</v>
+      </c>
     </row>
-    <row r="322" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.96878850000000005</v>
       </c>
@@ -45158,8 +47119,14 @@
       <c r="EZ322">
         <v>0.94845500000000005</v>
       </c>
+      <c r="FF322">
+        <v>0.46914097999999999</v>
+      </c>
+      <c r="FG322">
+        <v>0.94845500000000005</v>
+      </c>
     </row>
-    <row r="323" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.96974444000000004</v>
       </c>
@@ -45262,8 +47229,14 @@
       <c r="EZ323">
         <v>0.95307299999999995</v>
       </c>
+      <c r="FF323">
+        <v>0.46914097999999999</v>
+      </c>
+      <c r="FG323">
+        <v>0.95307299999999995</v>
+      </c>
     </row>
-    <row r="324" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.96988445999999995</v>
       </c>
@@ -45366,8 +47339,14 @@
       <c r="EZ324">
         <v>0.95066799999999996</v>
       </c>
+      <c r="FF324">
+        <v>0.46914095</v>
+      </c>
+      <c r="FG324">
+        <v>0.95066799999999996</v>
+      </c>
     </row>
-    <row r="325" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.96913755000000001</v>
       </c>
@@ -45470,8 +47449,14 @@
       <c r="EZ325">
         <v>0.93784400000000001</v>
       </c>
+      <c r="FF325">
+        <v>0.46914062000000001</v>
+      </c>
+      <c r="FG325">
+        <v>0.93784400000000001</v>
+      </c>
     </row>
-    <row r="326" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.96801804999999996</v>
       </c>
@@ -45574,8 +47559,14 @@
       <c r="EZ326">
         <v>0.92660600000000004</v>
       </c>
+      <c r="FF326">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG326">
+        <v>0.92660600000000004</v>
+      </c>
     </row>
-    <row r="327" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.96810819999999997</v>
       </c>
@@ -45678,8 +47669,14 @@
       <c r="EZ327">
         <v>0.92413599999999996</v>
       </c>
+      <c r="FF327">
+        <v>0.46914</v>
+      </c>
+      <c r="FG327">
+        <v>0.92413599999999996</v>
+      </c>
     </row>
-    <row r="328" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.96792023999999999</v>
       </c>
@@ -45782,8 +47779,14 @@
       <c r="EZ328">
         <v>0.92161199999999999</v>
       </c>
+      <c r="FF328">
+        <v>0.46913975000000002</v>
+      </c>
+      <c r="FG328">
+        <v>0.92161199999999999</v>
+      </c>
     </row>
-    <row r="329" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.96698810000000002</v>
       </c>
@@ -45886,8 +47889,14 @@
       <c r="EZ329">
         <v>0.92589900000000003</v>
       </c>
+      <c r="FF329">
+        <v>0.46914004999999998</v>
+      </c>
+      <c r="FG329">
+        <v>0.92589900000000003</v>
+      </c>
     </row>
-    <row r="330" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.96567879999999995</v>
       </c>
@@ -45990,8 +47999,14 @@
       <c r="EZ330">
         <v>0.921427</v>
       </c>
+      <c r="FF330">
+        <v>0.46914001999999999</v>
+      </c>
+      <c r="FG330">
+        <v>0.921427</v>
+      </c>
     </row>
-    <row r="331" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.96592359999999999</v>
       </c>
@@ -46094,8 +48109,14 @@
       <c r="EZ331">
         <v>0.92937499999999995</v>
       </c>
+      <c r="FF331">
+        <v>0.4691399</v>
+      </c>
+      <c r="FG331">
+        <v>0.92937499999999995</v>
+      </c>
     </row>
-    <row r="332" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.96687173999999998</v>
       </c>
@@ -46198,8 +48219,14 @@
       <c r="EZ332">
         <v>0.93310700000000002</v>
       </c>
+      <c r="FF332">
+        <v>0.46913987000000001</v>
+      </c>
+      <c r="FG332">
+        <v>0.93310700000000002</v>
+      </c>
     </row>
-    <row r="333" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.96827202999999995</v>
       </c>
@@ -46302,8 +48329,14 @@
       <c r="EZ333">
         <v>0.93082799999999999</v>
       </c>
+      <c r="FF333">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG333">
+        <v>0.93082799999999999</v>
+      </c>
     </row>
-    <row r="334" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.969808</v>
       </c>
@@ -46406,8 +48439,14 @@
       <c r="EZ334">
         <v>0.949241</v>
       </c>
+      <c r="FF334">
+        <v>0.46913983999999997</v>
+      </c>
+      <c r="FG334">
+        <v>0.949241</v>
+      </c>
     </row>
-    <row r="335" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.97052349999999998</v>
       </c>
@@ -46510,8 +48549,14 @@
       <c r="EZ335">
         <v>0.89908999999999994</v>
       </c>
+      <c r="FF335">
+        <v>0.46914020000000001</v>
+      </c>
+      <c r="FG335">
+        <v>0.89908999999999994</v>
+      </c>
     </row>
-    <row r="336" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.97123139999999997</v>
       </c>
@@ -46614,8 +48659,14 @@
       <c r="EZ336">
         <v>0.87473100000000004</v>
       </c>
+      <c r="FF336">
+        <v>0.46913934000000002</v>
+      </c>
+      <c r="FG336">
+        <v>0.87473100000000004</v>
+      </c>
     </row>
-    <row r="337" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.97233550000000002</v>
       </c>
@@ -46718,8 +48769,14 @@
       <c r="EZ337">
         <v>0.89821799999999996</v>
       </c>
+      <c r="FF337">
+        <v>0.46913969999999999</v>
+      </c>
+      <c r="FG337">
+        <v>0.89821799999999996</v>
+      </c>
     </row>
-    <row r="338" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.97333395</v>
       </c>
@@ -46822,8 +48879,14 @@
       <c r="EZ338">
         <v>0.92112899999999998</v>
       </c>
+      <c r="FF338">
+        <v>0.4691399</v>
+      </c>
+      <c r="FG338">
+        <v>0.92112899999999998</v>
+      </c>
     </row>
-    <row r="339" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.97426729999999995</v>
       </c>
@@ -46926,8 +48989,14 @@
       <c r="EZ339">
         <v>0.93968799999999997</v>
       </c>
+      <c r="FF339">
+        <v>0.4691401</v>
+      </c>
+      <c r="FG339">
+        <v>0.93968799999999997</v>
+      </c>
     </row>
-    <row r="340" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.97498339999999994</v>
       </c>
@@ -47030,8 +49099,14 @@
       <c r="EZ340">
         <v>0.94238999999999995</v>
       </c>
+      <c r="FF340">
+        <v>0.46914053</v>
+      </c>
+      <c r="FG340">
+        <v>0.94238999999999995</v>
+      </c>
     </row>
-    <row r="341" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.97546659999999996</v>
       </c>
@@ -47134,8 +49209,14 @@
       <c r="EZ341">
         <v>0.93287600000000004</v>
       </c>
+      <c r="FF341">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG341">
+        <v>0.93287600000000004</v>
+      </c>
     </row>
-    <row r="342" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.97600319999999996</v>
       </c>
@@ -47238,8 +49319,14 @@
       <c r="EZ342">
         <v>0.94026200000000004</v>
       </c>
+      <c r="FF342">
+        <v>0.46914032</v>
+      </c>
+      <c r="FG342">
+        <v>0.94026200000000004</v>
+      </c>
     </row>
-    <row r="343" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.97668529999999998</v>
       </c>
@@ -47342,8 +49429,14 @@
       <c r="EZ343">
         <v>0.93905300000000003</v>
       </c>
+      <c r="FF343">
+        <v>0.46914034999999998</v>
+      </c>
+      <c r="FG343">
+        <v>0.93905300000000003</v>
+      </c>
     </row>
-    <row r="344" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.97734670000000001</v>
       </c>
@@ -47446,8 +49539,14 @@
       <c r="EZ344">
         <v>0.96019500000000002</v>
       </c>
+      <c r="FF344">
+        <v>0.46914013999999998</v>
+      </c>
+      <c r="FG344">
+        <v>0.96019500000000002</v>
+      </c>
     </row>
-    <row r="345" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.97774079999999997</v>
       </c>
@@ -47550,8 +49649,14 @@
       <c r="EZ345">
         <v>0.96499100000000004</v>
       </c>
+      <c r="FF345">
+        <v>0.46914053</v>
+      </c>
+      <c r="FG345">
+        <v>0.96499100000000004</v>
+      </c>
     </row>
-    <row r="346" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.9775104</v>
       </c>
@@ -47654,8 +49759,14 @@
       <c r="EZ346">
         <v>0.97488799999999998</v>
       </c>
+      <c r="FF346">
+        <v>0.46914022999999999</v>
+      </c>
+      <c r="FG346">
+        <v>0.97488799999999998</v>
+      </c>
     </row>
-    <row r="347" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.97654885000000002</v>
       </c>
@@ -47758,8 +49869,14 @@
       <c r="EZ347">
         <v>0.97507999999999995</v>
       </c>
+      <c r="FF347">
+        <v>0.46914046999999998</v>
+      </c>
+      <c r="FG347">
+        <v>0.97507999999999995</v>
+      </c>
     </row>
-    <row r="348" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.97579895999999999</v>
       </c>
@@ -47862,8 +49979,14 @@
       <c r="EZ348">
         <v>0.98255800000000004</v>
       </c>
+      <c r="FF348">
+        <v>0.46914001999999999</v>
+      </c>
+      <c r="FG348">
+        <v>0.98255800000000004</v>
+      </c>
     </row>
-    <row r="349" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.97529434999999998</v>
       </c>
@@ -47966,8 +50089,14 @@
       <c r="EZ349">
         <v>0.98123000000000005</v>
       </c>
+      <c r="FF349">
+        <v>0.46914025999999998</v>
+      </c>
+      <c r="FG349">
+        <v>0.98123000000000005</v>
+      </c>
     </row>
-    <row r="350" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.97480935000000002</v>
       </c>
@@ -48070,8 +50199,14 @@
       <c r="EZ350">
         <v>0.98463299999999998</v>
       </c>
+      <c r="FF350">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG350">
+        <v>0.98463299999999998</v>
+      </c>
     </row>
-    <row r="351" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.97479737</v>
       </c>
@@ -48174,8 +50309,14 @@
       <c r="EZ351">
         <v>0.98257799999999995</v>
       </c>
+      <c r="FF351">
+        <v>0.46914032</v>
+      </c>
+      <c r="FG351">
+        <v>0.98257799999999995</v>
+      </c>
     </row>
-    <row r="352" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.97511420000000004</v>
       </c>
@@ -48278,8 +50419,14 @@
       <c r="EZ352">
         <v>0.98868299999999998</v>
       </c>
+      <c r="FF352">
+        <v>0.46914001999999999</v>
+      </c>
+      <c r="FG352">
+        <v>0.98868299999999998</v>
+      </c>
     </row>
-    <row r="353" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.97518340000000003</v>
       </c>
@@ -48382,8 +50529,14 @@
       <c r="EZ353">
         <v>0.98349699999999995</v>
       </c>
+      <c r="FF353">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG353">
+        <v>0.98349699999999995</v>
+      </c>
     </row>
-    <row r="354" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.97530890000000003</v>
       </c>
@@ -48486,8 +50639,14 @@
       <c r="EZ354">
         <v>0.99001099999999997</v>
       </c>
+      <c r="FF354">
+        <v>0.46913959999999999</v>
+      </c>
+      <c r="FG354">
+        <v>0.99001099999999997</v>
+      </c>
     </row>
-    <row r="355" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.97224337000000005</v>
       </c>
@@ -48590,8 +50749,14 @@
       <c r="EZ355">
         <v>0.98568299999999998</v>
       </c>
+      <c r="FF355">
+        <v>0.46913996000000002</v>
+      </c>
+      <c r="FG355">
+        <v>0.98568299999999998</v>
+      </c>
     </row>
-    <row r="356" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.96590339999999997</v>
       </c>
@@ -48694,8 +50859,14 @@
       <c r="EZ356">
         <v>0.98614599999999997</v>
       </c>
+      <c r="FF356">
+        <v>0.46913934000000002</v>
+      </c>
+      <c r="FG356">
+        <v>0.98614599999999997</v>
+      </c>
     </row>
-    <row r="357" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.96321296999999995</v>
       </c>
@@ -48798,8 +50969,14 @@
       <c r="EZ357">
         <v>0.98442799999999997</v>
       </c>
+      <c r="FF357">
+        <v>0.46913927999999999</v>
+      </c>
+      <c r="FG357">
+        <v>0.98442799999999997</v>
+      </c>
     </row>
-    <row r="358" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.96538749999999995</v>
       </c>
@@ -48902,8 +51079,14 @@
       <c r="EZ358">
         <v>0.98672700000000002</v>
       </c>
+      <c r="FF358">
+        <v>0.46913916</v>
+      </c>
+      <c r="FG358">
+        <v>0.98672700000000002</v>
+      </c>
     </row>
-    <row r="359" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.96879404999999996</v>
       </c>
@@ -49006,8 +51189,14 @@
       <c r="EZ359">
         <v>0.989066</v>
       </c>
+      <c r="FF359">
+        <v>0.46913895</v>
+      </c>
+      <c r="FG359">
+        <v>0.989066</v>
+      </c>
     </row>
-    <row r="360" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.97070204999999998</v>
       </c>
@@ -49110,8 +51299,14 @@
       <c r="EZ360">
         <v>0.98724299999999998</v>
       </c>
+      <c r="FF360">
+        <v>0.46913955000000002</v>
+      </c>
+      <c r="FG360">
+        <v>0.98724299999999998</v>
+      </c>
     </row>
-    <row r="361" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.97089630000000005</v>
       </c>
@@ -49214,8 +51409,14 @@
       <c r="EZ361">
         <v>0.97811899999999996</v>
       </c>
+      <c r="FF361">
+        <v>0.46913913000000002</v>
+      </c>
+      <c r="FG361">
+        <v>0.97811899999999996</v>
+      </c>
     </row>
-    <row r="362" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.97087760000000001</v>
       </c>
@@ -49318,8 +51519,14 @@
       <c r="EZ362">
         <v>0.98258500000000004</v>
       </c>
+      <c r="FF362">
+        <v>0.46913855999999998</v>
+      </c>
+      <c r="FG362">
+        <v>0.98258500000000004</v>
+      </c>
     </row>
-    <row r="363" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.971665</v>
       </c>
@@ -49422,8 +51629,14 @@
       <c r="EZ363">
         <v>0.98288900000000001</v>
       </c>
+      <c r="FF363">
+        <v>0.46913850000000001</v>
+      </c>
+      <c r="FG363">
+        <v>0.98288900000000001</v>
+      </c>
     </row>
-    <row r="364" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.97328853999999998</v>
       </c>
@@ -49526,8 +51739,14 @@
       <c r="EZ364">
         <v>0.99519000000000002</v>
       </c>
+      <c r="FF364">
+        <v>0.4691381</v>
+      </c>
+      <c r="FG364">
+        <v>0.99519000000000002</v>
+      </c>
     </row>
-    <row r="365" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.97475959999999995</v>
       </c>
@@ -49630,8 +51849,14 @@
       <c r="EZ365">
         <v>0.99388200000000004</v>
       </c>
+      <c r="FF365">
+        <v>0.46913846999999997</v>
+      </c>
+      <c r="FG365">
+        <v>0.99388200000000004</v>
+      </c>
     </row>
-    <row r="366" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.97580029999999995</v>
       </c>
@@ -49734,8 +51959,14 @@
       <c r="EZ366">
         <v>0.99444399999999999</v>
       </c>
+      <c r="FF366">
+        <v>0.46913838000000002</v>
+      </c>
+      <c r="FG366">
+        <v>0.99444399999999999</v>
+      </c>
     </row>
-    <row r="367" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.97638740000000002</v>
       </c>
@@ -49838,8 +52069,14 @@
       <c r="EZ367">
         <v>0.99031499999999995</v>
       </c>
+      <c r="FF367">
+        <v>0.46913830000000001</v>
+      </c>
+      <c r="FG367">
+        <v>0.99031499999999995</v>
+      </c>
     </row>
-    <row r="368" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.97707635000000004</v>
       </c>
@@ -49942,8 +52179,14 @@
       <c r="EZ368">
         <v>0.99711899999999998</v>
       </c>
+      <c r="FF368">
+        <v>0.46913840000000001</v>
+      </c>
+      <c r="FG368">
+        <v>0.99711899999999998</v>
+      </c>
     </row>
-    <row r="369" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.97819822999999995</v>
       </c>
@@ -50046,8 +52289,14 @@
       <c r="EZ369">
         <v>0.99597000000000002</v>
       </c>
+      <c r="FF369">
+        <v>0.46913838000000002</v>
+      </c>
+      <c r="FG369">
+        <v>0.99597000000000002</v>
+      </c>
     </row>
-    <row r="370" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.97951080000000001</v>
       </c>
@@ -50150,8 +52399,14 @@
       <c r="EZ370">
         <v>1</v>
       </c>
+      <c r="FF370">
+        <v>0.46913840000000001</v>
+      </c>
+      <c r="FG370">
+        <v>1</v>
+      </c>
     </row>
-    <row r="371" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.98080425999999998</v>
       </c>
@@ -50254,8 +52509,14 @@
       <c r="EZ371">
         <v>0.99207199999999995</v>
       </c>
+      <c r="FF371">
+        <v>0.46913855999999998</v>
+      </c>
+      <c r="FG371">
+        <v>0.99207199999999995</v>
+      </c>
     </row>
-    <row r="372" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.98196519999999998</v>
       </c>
@@ -50358,8 +52619,14 @@
       <c r="EZ372">
         <v>0.99476100000000001</v>
       </c>
+      <c r="FF372">
+        <v>0.46913855999999998</v>
+      </c>
+      <c r="FG372">
+        <v>0.99476100000000001</v>
+      </c>
     </row>
-    <row r="373" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.98292480000000004</v>
       </c>
@@ -50462,8 +52729,14 @@
       <c r="EZ373">
         <v>0.99793200000000004</v>
       </c>
+      <c r="FF373">
+        <v>0.46913883000000001</v>
+      </c>
+      <c r="FG373">
+        <v>0.99793200000000004</v>
+      </c>
     </row>
-    <row r="374" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.98375164999999998</v>
       </c>
@@ -50566,8 +52839,14 @@
       <c r="EZ374">
         <v>0.99585100000000004</v>
       </c>
+      <c r="FF374">
+        <v>0.46913919999999998</v>
+      </c>
+      <c r="FG374">
+        <v>0.99585100000000004</v>
+      </c>
     </row>
-    <row r="375" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.98455559999999998</v>
       </c>
@@ -50670,8 +52949,14 @@
       <c r="EZ375">
         <v>0.99503799999999998</v>
       </c>
+      <c r="FF375">
+        <v>0.46913909999999998</v>
+      </c>
+      <c r="FG375">
+        <v>0.99503799999999998</v>
+      </c>
     </row>
-    <row r="376" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.98526970000000003</v>
       </c>
@@ -50774,8 +53059,14 @@
       <c r="EZ376">
         <v>0.99785299999999999</v>
       </c>
+      <c r="FF376">
+        <v>0.46913939999999998</v>
+      </c>
+      <c r="FG376">
+        <v>0.99785299999999999</v>
+      </c>
     </row>
-    <row r="377" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.98582166000000004</v>
       </c>
@@ -50878,8 +53169,14 @@
       <c r="EZ377">
         <v>0.990282</v>
       </c>
+      <c r="FF377">
+        <v>0.46913922000000002</v>
+      </c>
+      <c r="FG377">
+        <v>0.990282</v>
+      </c>
     </row>
-    <row r="378" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.98619723000000004</v>
       </c>
@@ -50982,8 +53279,14 @@
       <c r="EZ378">
         <v>0.98831899999999995</v>
       </c>
+      <c r="FF378">
+        <v>0.46913951999999998</v>
+      </c>
+      <c r="FG378">
+        <v>0.98831899999999995</v>
+      </c>
     </row>
-    <row r="379" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.98649900000000001</v>
       </c>
@@ -51086,8 +53389,14 @@
       <c r="EZ379">
         <v>0.98605299999999996</v>
       </c>
+      <c r="FF379">
+        <v>0.46913937</v>
+      </c>
+      <c r="FG379">
+        <v>0.98605299999999996</v>
+      </c>
     </row>
-    <row r="380" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.98674779999999995</v>
       </c>
@@ -51190,8 +53499,14 @@
       <c r="EZ380">
         <v>0.99354500000000001</v>
       </c>
+      <c r="FF380">
+        <v>0.46913969999999999</v>
+      </c>
+      <c r="FG380">
+        <v>0.99354500000000001</v>
+      </c>
     </row>
-    <row r="381" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.98627379999999998</v>
       </c>
@@ -51294,8 +53609,14 @@
       <c r="EZ381">
         <v>0.99073100000000003</v>
       </c>
+      <c r="FF381">
+        <v>0.46913987000000001</v>
+      </c>
+      <c r="FG381">
+        <v>0.99073100000000003</v>
+      </c>
     </row>
-    <row r="382" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.98551679999999997</v>
       </c>
@@ -51398,8 +53719,14 @@
       <c r="EZ382">
         <v>0.98731500000000005</v>
       </c>
+      <c r="FF382">
+        <v>0.46913987000000001</v>
+      </c>
+      <c r="FG382">
+        <v>0.98731500000000005</v>
+      </c>
     </row>
-    <row r="383" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.98539659999999996</v>
       </c>
@@ -51502,8 +53829,14 @@
       <c r="EZ383">
         <v>0.98725600000000002</v>
       </c>
+      <c r="FF383">
+        <v>0.46913987000000001</v>
+      </c>
+      <c r="FG383">
+        <v>0.98725600000000002</v>
+      </c>
     </row>
-    <row r="384" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.98581620000000003</v>
       </c>
@@ -51606,8 +53939,14 @@
       <c r="EZ384">
         <v>0.99328099999999997</v>
       </c>
+      <c r="FF384">
+        <v>0.4691399</v>
+      </c>
+      <c r="FG384">
+        <v>0.99328099999999997</v>
+      </c>
     </row>
-    <row r="385" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.98637200000000003</v>
       </c>
@@ -51710,8 +54049,14 @@
       <c r="EZ385">
         <v>0.99757499999999999</v>
       </c>
+      <c r="FF385">
+        <v>0.4691401</v>
+      </c>
+      <c r="FG385">
+        <v>0.99757499999999999</v>
+      </c>
     </row>
-    <row r="386" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.98662760000000005</v>
       </c>
@@ -51814,8 +54159,14 @@
       <c r="EZ386">
         <v>0.99736400000000003</v>
       </c>
+      <c r="FF386">
+        <v>0.46914034999999998</v>
+      </c>
+      <c r="FG386">
+        <v>0.99736400000000003</v>
+      </c>
     </row>
-    <row r="387" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.98661829999999995</v>
       </c>
@@ -51918,8 +54269,14 @@
       <c r="EZ387">
         <v>0.99415299999999995</v>
       </c>
+      <c r="FF387">
+        <v>0.46914013999999998</v>
+      </c>
+      <c r="FG387">
+        <v>0.99415299999999995</v>
+      </c>
     </row>
-    <row r="388" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.98651279999999997</v>
       </c>
@@ -52022,8 +54379,14 @@
       <c r="EZ388">
         <v>0.95881400000000006</v>
       </c>
+      <c r="FF388">
+        <v>0.46914017000000002</v>
+      </c>
+      <c r="FG388">
+        <v>0.95881400000000006</v>
+      </c>
     </row>
-    <row r="389" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.98646842999999995</v>
       </c>
@@ -52126,8 +54489,14 @@
       <c r="EZ389">
         <v>0.97944699999999996</v>
       </c>
+      <c r="FF389">
+        <v>0.46913969999999999</v>
+      </c>
+      <c r="FG389">
+        <v>0.97944699999999996</v>
+      </c>
     </row>
-    <row r="390" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.98648190000000002</v>
       </c>
@@ -52230,8 +54599,14 @@
       <c r="EZ390">
         <v>0.95829200000000003</v>
       </c>
+      <c r="FF390">
+        <v>0.46914046999999998</v>
+      </c>
+      <c r="FG390">
+        <v>0.95829200000000003</v>
+      </c>
     </row>
-    <row r="391" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.98642843999999996</v>
       </c>
@@ -52334,8 +54709,14 @@
       <c r="EZ391">
         <v>0.95746600000000004</v>
       </c>
+      <c r="FF391">
+        <v>0.4691401</v>
+      </c>
+      <c r="FG391">
+        <v>0.95746600000000004</v>
+      </c>
     </row>
-    <row r="392" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.98617213999999997</v>
       </c>
@@ -52438,8 +54819,14 @@
       <c r="EZ392">
         <v>0.97166399999999997</v>
       </c>
+      <c r="FF392">
+        <v>0.46914055999999998</v>
+      </c>
+      <c r="FG392">
+        <v>0.97166399999999997</v>
+      </c>
     </row>
-    <row r="393" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.98593989999999998</v>
       </c>
@@ -52542,8 +54929,14 @@
       <c r="EZ393">
         <v>0.96631299999999998</v>
       </c>
+      <c r="FF393">
+        <v>0.46914055999999998</v>
+      </c>
+      <c r="FG393">
+        <v>0.96631299999999998</v>
+      </c>
     </row>
-    <row r="394" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.98576710000000001</v>
       </c>
@@ -52646,8 +55039,14 @@
       <c r="EZ394">
         <v>0.96628599999999998</v>
       </c>
+      <c r="FF394">
+        <v>0.46914043999999999</v>
+      </c>
+      <c r="FG394">
+        <v>0.96628599999999998</v>
+      </c>
     </row>
-    <row r="395" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.98563880000000004</v>
       </c>
@@ -52750,8 +55149,14 @@
       <c r="EZ395">
         <v>0.96670900000000004</v>
       </c>
+      <c r="FF395">
+        <v>0.46914060000000002</v>
+      </c>
+      <c r="FG395">
+        <v>0.96670900000000004</v>
+      </c>
     </row>
-    <row r="396" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.98567515999999999</v>
       </c>
@@ -52854,8 +55259,14 @@
       <c r="EZ396">
         <v>0.98214199999999996</v>
       </c>
+      <c r="FF396">
+        <v>0.46914085999999999</v>
+      </c>
+      <c r="FG396">
+        <v>0.98214199999999996</v>
+      </c>
     </row>
-    <row r="397" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.98541179999999995</v>
       </c>
@@ -52958,8 +55369,14 @@
       <c r="EZ397">
         <v>0.99143099999999995</v>
       </c>
+      <c r="FF397">
+        <v>0.46914099999999997</v>
+      </c>
+      <c r="FG397">
+        <v>0.99143099999999995</v>
+      </c>
     </row>
-    <row r="398" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.98455349999999997</v>
       </c>
@@ -53062,8 +55479,14 @@
       <c r="EZ398">
         <v>0.98317900000000003</v>
       </c>
+      <c r="FF398">
+        <v>0.46914109999999998</v>
+      </c>
+      <c r="FG398">
+        <v>0.98317900000000003</v>
+      </c>
     </row>
-    <row r="399" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.98377769999999998</v>
       </c>
@@ -53166,8 +55589,14 @@
       <c r="EZ399">
         <v>0.97089800000000004</v>
       </c>
+      <c r="FF399">
+        <v>0.46914099999999997</v>
+      </c>
+      <c r="FG399">
+        <v>0.97089800000000004</v>
+      </c>
     </row>
-    <row r="400" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.9837089</v>
       </c>
@@ -53270,8 +55699,14 @@
       <c r="EZ400">
         <v>0.98003499999999999</v>
       </c>
+      <c r="FF400">
+        <v>0.46914104000000001</v>
+      </c>
+      <c r="FG400">
+        <v>0.98003499999999999</v>
+      </c>
     </row>
-    <row r="401" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.98400030000000005</v>
       </c>
@@ -53374,8 +55809,14 @@
       <c r="EZ401">
         <v>0.98759300000000005</v>
       </c>
+      <c r="FF401">
+        <v>0.46914148</v>
+      </c>
+      <c r="FG401">
+        <v>0.98759300000000005</v>
+      </c>
     </row>
-    <row r="402" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.98391134000000002</v>
       </c>
@@ -53478,8 +55919,14 @@
       <c r="EZ402">
         <v>0.974221</v>
       </c>
+      <c r="FF402">
+        <v>0.46914159999999999</v>
+      </c>
+      <c r="FG402">
+        <v>0.974221</v>
+      </c>
     </row>
-    <row r="403" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.98338040000000004</v>
       </c>
@@ -53571,7 +56018,7 @@
         <v>1.0632299999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.98326469999999999</v>
       </c>
@@ -53663,7 +56110,7 @@
         <v>1.0678300000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.98359346000000003</v>
       </c>
@@ -53755,7 +56202,7 @@
         <v>1.0676000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.98378940000000004</v>
       </c>
@@ -53847,7 +56294,7 @@
         <v>1.06416</v>
       </c>
     </row>
-    <row r="407" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.98379930000000004</v>
       </c>
@@ -53939,7 +56386,7 @@
         <v>1.02634</v>
       </c>
     </row>
-    <row r="408" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.98101899999999997</v>
       </c>
@@ -54031,7 +56478,7 @@
         <v>1.0484199999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.97816723999999999</v>
       </c>
@@ -54123,7 +56570,7 @@
         <v>1.0257799999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.97710496000000002</v>
       </c>
@@ -54215,7 +56662,7 @@
         <v>1.0248900000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.97680425999999998</v>
       </c>
@@ -54307,7 +56754,7 @@
         <v>1.04009</v>
       </c>
     </row>
-    <row r="412" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.97728289999999995</v>
       </c>
@@ -54399,7 +56846,7 @@
         <v>1.0343599999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.97758089999999997</v>
       </c>
@@ -54491,7 +56938,7 @@
         <v>1.03433</v>
       </c>
     </row>
-    <row r="414" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.97770559999999995</v>
       </c>
@@ -54583,7 +57030,7 @@
         <v>1.0347900000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.97786200000000001</v>
       </c>
@@ -54675,7 +57122,7 @@
         <v>1.05131</v>
       </c>
     </row>
-    <row r="416" spans="1:156" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.97793699999999995</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="26">
   <si>
     <t>_0.975178</t>
   </si>
@@ -399,7 +399,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3018,11 +3017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1769481296"/>
-        <c:axId val="1568563536"/>
+        <c:axId val="-170086352"/>
+        <c:axId val="-170084304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1769481296"/>
+        <c:axId val="-170086352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +3063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1568563536"/>
+        <c:crossAx val="-170084304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3072,7 +3071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1568563536"/>
+        <c:axId val="-170084304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1769481296"/>
+        <c:crossAx val="-170086352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3137,7 +3136,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3219,7 +3217,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5828,11 +5825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1564867648"/>
-        <c:axId val="1737015360"/>
+        <c:axId val="-173164176"/>
+        <c:axId val="-169218672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1564867648"/>
+        <c:axId val="-173164176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,7 +5871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1737015360"/>
+        <c:crossAx val="-169218672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5882,7 +5879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1737015360"/>
+        <c:axId val="-169218672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5933,7 +5930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564867648"/>
+        <c:crossAx val="-173164176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5947,7 +5944,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6029,7 +6025,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8638,11 +8633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1766883712"/>
-        <c:axId val="1767300640"/>
+        <c:axId val="-98504224"/>
+        <c:axId val="-98501904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1766883712"/>
+        <c:axId val="-98504224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8684,7 +8679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1767300640"/>
+        <c:crossAx val="-98501904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8692,7 +8687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1767300640"/>
+        <c:axId val="-98501904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8743,7 +8738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1766883712"/>
+        <c:crossAx val="-98504224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8757,7 +8752,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10850,10 +10844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FK422"/>
+  <dimension ref="A1:FR422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" topLeftCell="FC1" zoomScaleNormal="283" workbookViewId="0">
+      <selection activeCell="FR20" sqref="FR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10871,7 +10865,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11304,8 +11298,26 @@
       <c r="FK1" t="s">
         <v>9</v>
       </c>
+      <c r="FM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>4</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>6</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>7</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11738,8 +11750,26 @@
       <c r="FK2">
         <v>90</v>
       </c>
+      <c r="FM2">
+        <v>100</v>
+      </c>
+      <c r="FN2">
+        <v>60</v>
+      </c>
+      <c r="FO2">
+        <v>5</v>
+      </c>
+      <c r="FP2">
+        <v>200</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FR2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:174" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="CN3" t="s">
@@ -11749,7 +11779,7 @@
         <v>0.93972289370239603</v>
       </c>
     </row>
-    <row r="4" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:174" x14ac:dyDescent="0.2">
       <c r="CG4">
         <v>0</v>
       </c>
@@ -11789,8 +11819,18 @@
       <c r="FH4" t="s">
         <v>14</v>
       </c>
+      <c r="FM4">
+        <v>0.97514569759368896</v>
+      </c>
+      <c r="FN4">
+        <v>0.97517750558682903</v>
+      </c>
+      <c r="FO4">
+        <f>CORREL(FM4:FM419,FN4:FN419)</f>
+        <v>0.92372884988652393</v>
+      </c>
     </row>
-    <row r="5" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11946,8 +11986,14 @@
         <f>CORREL(FF5:FF402,FG5:FG402)</f>
         <v>-0.57996698444114014</v>
       </c>
+      <c r="FM5">
+        <v>0.97779130935668901</v>
+      </c>
+      <c r="FN5">
+        <v>0.96900370569432204</v>
+      </c>
     </row>
-    <row r="6" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -12131,8 +12177,14 @@
       <c r="FG6">
         <v>0.92145299999999997</v>
       </c>
+      <c r="FM6">
+        <v>0.97993499040603604</v>
+      </c>
+      <c r="FN6">
+        <v>0.98445588526491401</v>
+      </c>
     </row>
-    <row r="7" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -12274,8 +12326,14 @@
       <c r="FG7">
         <v>0.92685099999999998</v>
       </c>
+      <c r="FM7">
+        <v>0.98551642894744795</v>
+      </c>
+      <c r="FN7">
+        <v>0.98441345365053301</v>
+      </c>
     </row>
-    <row r="8" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -12413,8 +12471,14 @@
       <c r="FG8">
         <v>0.90354900000000005</v>
       </c>
+      <c r="FM8">
+        <v>0.98785990476608199</v>
+      </c>
+      <c r="FN8">
+        <v>0.99852196543237803</v>
+      </c>
     </row>
-    <row r="9" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -12548,8 +12612,14 @@
       <c r="FG9">
         <v>0.90095899999999995</v>
       </c>
+      <c r="FM9">
+        <v>0.98976939916610696</v>
+      </c>
+      <c r="FN9">
+        <v>1.0045401827388101</v>
+      </c>
     </row>
-    <row r="10" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -12683,8 +12753,14 @@
       <c r="FG10">
         <v>0.91794500000000001</v>
       </c>
+      <c r="FM10">
+        <v>0.99601864814758301</v>
+      </c>
+      <c r="FN10">
+        <v>1.0069092812084499</v>
+      </c>
     </row>
-    <row r="11" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -12814,8 +12890,14 @@
       <c r="FG11">
         <v>0.90965399999999996</v>
       </c>
+      <c r="FM11">
+        <v>1.0036358833312899</v>
+      </c>
+      <c r="FN11">
+        <v>1.00644253345025</v>
+      </c>
     </row>
-    <row r="12" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -12949,8 +13031,14 @@
       <c r="FG12">
         <v>0.92801400000000001</v>
       </c>
+      <c r="FM12">
+        <v>1.0085852146148599</v>
+      </c>
+      <c r="FN12">
+        <v>1.00486549178241</v>
+      </c>
     </row>
-    <row r="13" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -13084,8 +13172,14 @@
       <c r="FG13">
         <v>0.92344800000000005</v>
       </c>
+      <c r="FM13">
+        <v>1.0109124183654701</v>
+      </c>
+      <c r="FN13">
+        <v>1.0139529291957701</v>
+      </c>
     </row>
-    <row r="14" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -13215,8 +13309,14 @@
       <c r="FG14">
         <v>0.94011</v>
       </c>
+      <c r="FM14">
+        <v>1.01490485668182</v>
+      </c>
+      <c r="FN14">
+        <v>1.01350032530904</v>
+      </c>
     </row>
-    <row r="15" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -13343,8 +13443,14 @@
       <c r="FG15">
         <v>0.93335199999999996</v>
       </c>
+      <c r="FM15">
+        <v>1.0153791904449401</v>
+      </c>
+      <c r="FN15">
+        <v>1.0176161919040401</v>
+      </c>
     </row>
-    <row r="16" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -13465,8 +13571,14 @@
       <c r="FG16">
         <v>0.94579199999999997</v>
       </c>
+      <c r="FM16">
+        <v>1.01633465290069</v>
+      </c>
+      <c r="FN16">
+        <v>1.01647053831574</v>
+      </c>
     </row>
-    <row r="17" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.97823757</v>
       </c>
@@ -13575,8 +13687,14 @@
       <c r="FG17">
         <v>0.94336100000000001</v>
       </c>
+      <c r="FM17">
+        <v>1.0165594816207799</v>
+      </c>
+      <c r="FN17">
+        <v>1.01426409436791</v>
+      </c>
     </row>
-    <row r="18" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.97857236999999997</v>
       </c>
@@ -13685,8 +13803,14 @@
       <c r="FG18">
         <v>0.93482500000000002</v>
       </c>
+      <c r="FM18">
+        <v>1.0146017074584901</v>
+      </c>
+      <c r="FN18">
+        <v>1.00985120647223</v>
+      </c>
     </row>
-    <row r="19" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.97901819999999995</v>
       </c>
@@ -13795,8 +13919,14 @@
       <c r="FG19">
         <v>0.91470799999999997</v>
       </c>
+      <c r="FM19">
+        <v>1.0137752294540401</v>
+      </c>
+      <c r="FN19">
+        <v>1.0189669316285199</v>
+      </c>
     </row>
-    <row r="20" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.97968084</v>
       </c>
@@ -13905,8 +14035,14 @@
       <c r="FG20">
         <v>0.91147100000000003</v>
       </c>
+      <c r="FM20">
+        <v>1.0152107477188099</v>
+      </c>
+      <c r="FN20">
+        <v>1.0121708013917501</v>
+      </c>
     </row>
-    <row r="21" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98058440000000002</v>
       </c>
@@ -14015,8 +14151,14 @@
       <c r="FG21">
         <v>0.91468799999999995</v>
       </c>
+      <c r="FM21">
+        <v>1.01672935485839</v>
+      </c>
+      <c r="FN21">
+        <v>1.00562926084127</v>
+      </c>
     </row>
-    <row r="22" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98153466</v>
       </c>
@@ -14125,8 +14267,14 @@
       <c r="FG22">
         <v>0.93135000000000001</v>
       </c>
+      <c r="FM22">
+        <v>1.01759004592895</v>
+      </c>
+      <c r="FN22">
+        <v>1.0074043167095601</v>
+      </c>
     </row>
-    <row r="23" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98224412999999999</v>
       </c>
@@ -14235,8 +14383,14 @@
       <c r="FG23">
         <v>0.91922700000000002</v>
       </c>
+      <c r="FM23">
+        <v>1.01646220684051</v>
+      </c>
+      <c r="FN23">
+        <v>0.98634409210489005</v>
+      </c>
     </row>
-    <row r="24" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98255320000000002</v>
       </c>
@@ -14345,8 +14499,14 @@
       <c r="FG24">
         <v>0.91380899999999998</v>
       </c>
+      <c r="FM24">
+        <v>1.01487040519714</v>
+      </c>
+      <c r="FN24">
+        <v>0.99212186359650301</v>
+      </c>
     </row>
-    <row r="25" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98284079999999996</v>
       </c>
@@ -14455,8 +14615,14 @@
       <c r="FG25">
         <v>0.91861199999999998</v>
       </c>
+      <c r="FM25">
+        <v>1.0131975412368699</v>
+      </c>
+      <c r="FN25">
+        <v>0.96717914627591794</v>
+      </c>
     </row>
-    <row r="26" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98285610000000001</v>
       </c>
@@ -14565,8 +14731,14 @@
       <c r="FG26">
         <v>0.92763700000000004</v>
       </c>
+      <c r="FM26">
+        <v>1.0060833692550599</v>
+      </c>
+      <c r="FN26">
+        <v>0.96440694746966105</v>
+      </c>
     </row>
-    <row r="27" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98284786999999996</v>
       </c>
@@ -14675,8 +14847,14 @@
       <c r="FG27">
         <v>0.92480300000000004</v>
       </c>
+      <c r="FM27">
+        <v>1.00079274177551</v>
+      </c>
+      <c r="FN27">
+        <v>0.98258889423212903</v>
+      </c>
     </row>
-    <row r="28" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98268955999999996</v>
       </c>
@@ -14785,8 +14963,14 @@
       <c r="FG28">
         <v>0.92848299999999995</v>
       </c>
+      <c r="FM28">
+        <v>0.99931627511978105</v>
+      </c>
+      <c r="FN28">
+        <v>0.97371361489066699</v>
+      </c>
     </row>
-    <row r="29" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98256449999999995</v>
       </c>
@@ -14895,8 +15079,14 @@
       <c r="FG29">
         <v>0.93461399999999994</v>
       </c>
+      <c r="FM29">
+        <v>0.99897474050521795</v>
+      </c>
+      <c r="FN29">
+        <v>0.99336652428502703</v>
+      </c>
     </row>
-    <row r="30" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98294619999999999</v>
       </c>
@@ -15005,8 +15195,14 @@
       <c r="FG30">
         <v>0.94180200000000003</v>
       </c>
+      <c r="FM30">
+        <v>1.0026383399963299</v>
+      </c>
+      <c r="FN30">
+        <v>0.98847981669542495</v>
+      </c>
     </row>
-    <row r="31" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98345654999999998</v>
       </c>
@@ -15115,8 +15311,14 @@
       <c r="FG31">
         <v>0.93544000000000005</v>
       </c>
+      <c r="FM31">
+        <v>1.0025109052657999</v>
+      </c>
+      <c r="FN31">
+        <v>1.0063152386071099</v>
+      </c>
     </row>
-    <row r="32" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98399853999999998</v>
       </c>
@@ -15225,8 +15427,14 @@
       <c r="FG32">
         <v>0.93769199999999997</v>
       </c>
+      <c r="FM32">
+        <v>1.00375580787658</v>
+      </c>
+      <c r="FN32">
+        <v>0.99908064835506705</v>
+      </c>
     </row>
-    <row r="33" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98438859999999995</v>
       </c>
@@ -15335,8 +15543,14 @@
       <c r="FG33">
         <v>0.94482100000000002</v>
       </c>
+      <c r="FM33">
+        <v>1.0018055438995299</v>
+      </c>
+      <c r="FN33">
+        <v>1.01239710333512</v>
+      </c>
     </row>
-    <row r="34" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98442929999999995</v>
       </c>
@@ -15445,8 +15659,14 @@
       <c r="FG34">
         <v>0.94373799999999997</v>
       </c>
+      <c r="FM34">
+        <v>1.00462210178375</v>
+      </c>
+      <c r="FN34">
+        <v>1.0097946309863901</v>
+      </c>
     </row>
-    <row r="35" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98425054999999995</v>
       </c>
@@ -15555,8 +15775,14 @@
       <c r="FG35">
         <v>0.92800700000000003</v>
       </c>
+      <c r="FM35">
+        <v>1.0070163011550901</v>
+      </c>
+      <c r="FN35">
+        <v>1.0006576900229101</v>
+      </c>
     </row>
-    <row r="36" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98417069999999995</v>
       </c>
@@ -15665,8 +15891,14 @@
       <c r="FG36">
         <v>0.94070500000000001</v>
       </c>
+      <c r="FM36">
+        <v>1.00678157806396</v>
+      </c>
+      <c r="FN36">
+        <v>0.97912364572430699</v>
+      </c>
     </row>
-    <row r="37" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98401810000000001</v>
       </c>
@@ -15775,8 +16007,14 @@
       <c r="FG37">
         <v>0.93864999999999998</v>
       </c>
+      <c r="FM37">
+        <v>1.00384438037872</v>
+      </c>
+      <c r="FN37">
+        <v>0.97565839721648595</v>
+      </c>
     </row>
-    <row r="38" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98382769999999997</v>
       </c>
@@ -15885,8 +16123,14 @@
       <c r="FG38">
         <v>0.94569999999999999</v>
       </c>
+      <c r="FM38">
+        <v>0.99954736232757502</v>
+      </c>
+      <c r="FN38">
+        <v>0.97910242991711605</v>
+      </c>
     </row>
-    <row r="39" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98361200000000004</v>
       </c>
@@ -15995,8 +16239,14 @@
       <c r="FG39">
         <v>0.94898300000000002</v>
       </c>
+      <c r="FM39">
+        <v>0.99829453229904097</v>
+      </c>
+      <c r="FN39">
+        <v>0.99693785182880201</v>
+      </c>
     </row>
-    <row r="40" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98328775000000002</v>
       </c>
@@ -16105,8 +16355,14 @@
       <c r="FG40">
         <v>0.95212799999999997</v>
       </c>
+      <c r="FM40">
+        <v>0.99964004755020097</v>
+      </c>
+      <c r="FN40">
+        <v>0.98396084976379705</v>
+      </c>
     </row>
-    <row r="41" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98314743999999998</v>
       </c>
@@ -16215,8 +16471,14 @@
       <c r="FG41">
         <v>0.94633400000000001</v>
       </c>
+      <c r="FM41">
+        <v>0.99815022945403997</v>
+      </c>
+      <c r="FN41">
+        <v>0.97816186246499304</v>
+      </c>
     </row>
-    <row r="42" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98334580000000005</v>
       </c>
@@ -16325,8 +16587,14 @@
       <c r="FG42">
         <v>0.95019200000000004</v>
       </c>
+      <c r="FM42">
+        <v>0.99583512544631902</v>
+      </c>
+      <c r="FN42">
+        <v>0.983303159740884</v>
+      </c>
     </row>
-    <row r="43" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98371410000000004</v>
       </c>
@@ -16435,8 +16703,14 @@
       <c r="FG43">
         <v>0.94496599999999997</v>
       </c>
+      <c r="FM43">
+        <v>0.99735075235366799</v>
+      </c>
+      <c r="FN43">
+        <v>0.99296342394840198</v>
+      </c>
     </row>
-    <row r="44" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98371017000000005</v>
       </c>
@@ -16545,8 +16819,14 @@
       <c r="FG44">
         <v>0.93086800000000003</v>
       </c>
+      <c r="FM44">
+        <v>0.99843871593475297</v>
+      </c>
+      <c r="FN44">
+        <v>0.98992956352012595</v>
+      </c>
     </row>
-    <row r="45" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.98339765999999995</v>
       </c>
@@ -16655,8 +16935,14 @@
       <c r="FG45">
         <v>0.94591800000000004</v>
       </c>
+      <c r="FM45">
+        <v>0.99921452999114901</v>
+      </c>
+      <c r="FN45">
+        <v>0.99386863172187401</v>
+      </c>
     </row>
-    <row r="46" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98303289999999999</v>
       </c>
@@ -16765,8 +17051,14 @@
       <c r="FG46">
         <v>0.95001400000000003</v>
       </c>
+      <c r="FM46">
+        <v>1.00151932239532</v>
+      </c>
+      <c r="FN46">
+        <v>1.0004313880795399</v>
+      </c>
     </row>
-    <row r="47" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98286753999999998</v>
       </c>
@@ -16875,8 +17167,14 @@
       <c r="FG47">
         <v>0.933477</v>
       </c>
+      <c r="FM47">
+        <v>1.0039633512496899</v>
+      </c>
+      <c r="FN47">
+        <v>1.00812565415405</v>
+      </c>
     </row>
-    <row r="48" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98300432999999998</v>
       </c>
@@ -16985,8 +17283,14 @@
       <c r="FG48">
         <v>0.92732700000000001</v>
       </c>
+      <c r="FM48">
+        <v>1.01022112369537</v>
+      </c>
+      <c r="FN48">
+        <v>1.0013153800458201</v>
+      </c>
     </row>
-    <row r="49" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.9832651</v>
       </c>
@@ -17095,8 +17399,14 @@
       <c r="FG49">
         <v>0.93251300000000004</v>
       </c>
+      <c r="FM49">
+        <v>1.0115966796875</v>
+      </c>
+      <c r="FN49">
+        <v>1.0037269101298401</v>
+      </c>
     </row>
-    <row r="50" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98372643999999998</v>
       </c>
@@ -17205,8 +17515,14 @@
       <c r="FG50">
         <v>0.95107799999999998</v>
       </c>
+      <c r="FM50">
+        <v>1.01411116123199</v>
+      </c>
+      <c r="FN50">
+        <v>1.0113575287827701</v>
+      </c>
     </row>
-    <row r="51" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98432560000000002</v>
       </c>
@@ -17315,8 +17631,14 @@
       <c r="FG51">
         <v>0.94396199999999997</v>
       </c>
+      <c r="FM51">
+        <v>1.0182512998580899</v>
+      </c>
+      <c r="FN51">
+        <v>1.0101977313230099</v>
+      </c>
     </row>
-    <row r="52" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98475860000000004</v>
       </c>
@@ -17425,8 +17747,14 @@
       <c r="FG52">
         <v>0.939859</v>
       </c>
+      <c r="FM52">
+        <v>1.0187294483184799</v>
+      </c>
+      <c r="FN52">
+        <v>0.99335945234929601</v>
+      </c>
     </row>
-    <row r="53" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.98492480000000004</v>
       </c>
@@ -17535,8 +17863,14 @@
       <c r="FG53">
         <v>0.93943699999999997</v>
       </c>
+      <c r="FM53">
+        <v>1.0171651840209901</v>
+      </c>
+      <c r="FN53">
+        <v>1.00695171282283</v>
+      </c>
     </row>
-    <row r="54" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98489547</v>
       </c>
@@ -17645,8 +17979,14 @@
       <c r="FG54">
         <v>0.95438100000000003</v>
       </c>
+      <c r="FM54">
+        <v>1.0161169767379701</v>
+      </c>
+      <c r="FN54">
+        <v>1.00475234081072</v>
+      </c>
     </row>
-    <row r="55" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98475820000000003</v>
       </c>
@@ -17755,8 +18095,14 @@
       <c r="FG55">
         <v>0.95545800000000003</v>
       </c>
+      <c r="FM55">
+        <v>1.0163060426712001</v>
+      </c>
+      <c r="FN55">
+        <v>1.0122980962349</v>
+      </c>
     </row>
-    <row r="56" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.98481363</v>
       </c>
@@ -17865,8 +18211,14 @@
       <c r="FG56">
         <v>0.95973200000000003</v>
       </c>
+      <c r="FM56">
+        <v>1.0167498588562001</v>
+      </c>
+      <c r="FN56">
+        <v>1.0158128482928299</v>
+      </c>
     </row>
-    <row r="57" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.9850875</v>
       </c>
@@ -17975,8 +18327,14 @@
       <c r="FG57">
         <v>0.95882699999999998</v>
       </c>
+      <c r="FM57">
+        <v>1.0193912982940601</v>
+      </c>
+      <c r="FN57">
+        <v>1.01917908970043</v>
+      </c>
     </row>
-    <row r="58" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98536449999999998</v>
       </c>
@@ -18085,8 +18443,14 @@
       <c r="FG58">
         <v>0.95751900000000001</v>
       </c>
+      <c r="FM58">
+        <v>1.01824903488159</v>
+      </c>
+      <c r="FN58">
+        <v>1.012977002065</v>
+      </c>
     </row>
-    <row r="59" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98559750000000002</v>
       </c>
@@ -18195,8 +18559,14 @@
       <c r="FG59">
         <v>0.96080299999999996</v>
       </c>
+      <c r="FM59">
+        <v>1.01623976230621</v>
+      </c>
+      <c r="FN59">
+        <v>1.0171070125314701</v>
+      </c>
     </row>
-    <row r="60" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.9857051</v>
       </c>
@@ -18305,8 +18675,14 @@
       <c r="FG60">
         <v>0.95765800000000001</v>
       </c>
+      <c r="FM60">
+        <v>1.01764583587646</v>
+      </c>
+      <c r="FN60">
+        <v>1.01151311136884</v>
+      </c>
     </row>
-    <row r="61" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98565130000000001</v>
       </c>
@@ -18415,8 +18791,14 @@
       <c r="FG61">
         <v>0.94321600000000005</v>
       </c>
+      <c r="FM61">
+        <v>1.0200380086898799</v>
+      </c>
+      <c r="FN61">
+        <v>0.996421600520494</v>
+      </c>
     </row>
-    <row r="62" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98549973999999996</v>
       </c>
@@ -18525,8 +18907,14 @@
       <c r="FG62">
         <v>0.95595300000000005</v>
       </c>
+      <c r="FM62">
+        <v>1.0188448429107599</v>
+      </c>
+      <c r="FN62">
+        <v>1.01253147011399</v>
+      </c>
     </row>
-    <row r="63" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98522779999999999</v>
       </c>
@@ -18635,8 +19023,14 @@
       <c r="FG63">
         <v>0.95417600000000002</v>
       </c>
+      <c r="FM63">
+        <v>1.0180743932723999</v>
+      </c>
+      <c r="FN63">
+        <v>1.0169160702667499</v>
+      </c>
     </row>
-    <row r="64" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98444646999999996</v>
       </c>
@@ -18745,8 +19139,14 @@
       <c r="FG64">
         <v>0.94532300000000002</v>
       </c>
+      <c r="FM64">
+        <v>1.01724970340728</v>
+      </c>
+      <c r="FN64">
+        <v>0.99921501513394195</v>
+      </c>
     </row>
-    <row r="65" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98378679999999996</v>
       </c>
@@ -18855,8 +19255,14 @@
       <c r="FG65">
         <v>0.94818999999999998</v>
       </c>
+      <c r="FM65">
+        <v>1.0172423124313299</v>
+      </c>
+      <c r="FN65">
+        <v>0.992631042969081</v>
+      </c>
     </row>
-    <row r="66" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98387910000000001</v>
       </c>
@@ -18965,8 +19371,14 @@
       <c r="FG66">
         <v>0.94678300000000004</v>
       </c>
+      <c r="FM66">
+        <v>1.0170532464980999</v>
+      </c>
+      <c r="FN66">
+        <v>0.99818251251732604</v>
+      </c>
     </row>
-    <row r="67" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98397403999999999</v>
       </c>
@@ -19075,8 +19487,14 @@
       <c r="FG67">
         <v>0.94973600000000002</v>
       </c>
+      <c r="FM67">
+        <v>1.0165868997573799</v>
+      </c>
+      <c r="FN67">
+        <v>1.0180546519193201</v>
+      </c>
     </row>
-    <row r="68" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.98311510000000002</v>
       </c>
@@ -19185,8 +19603,14 @@
       <c r="FG68">
         <v>0.93769199999999997</v>
       </c>
+      <c r="FM68">
+        <v>1.0174851417541499</v>
+      </c>
+      <c r="FN68">
+        <v>1.0104381771378399</v>
+      </c>
     </row>
-    <row r="69" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98196923999999997</v>
       </c>
@@ -19295,8 +19719,14 @@
       <c r="FG69">
         <v>0.93570399999999998</v>
       </c>
+      <c r="FM69">
+        <v>1.01776134967803</v>
+      </c>
+      <c r="FN69">
+        <v>1.0060465050493601</v>
+      </c>
     </row>
-    <row r="70" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98182570000000002</v>
       </c>
@@ -19405,8 +19835,14 @@
       <c r="FG70">
         <v>0.92675200000000002</v>
       </c>
+      <c r="FM70">
+        <v>1.01688468456268</v>
+      </c>
+      <c r="FN70">
+        <v>1.00559390116262</v>
+      </c>
     </row>
-    <row r="71" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98213433999999999</v>
       </c>
@@ -19515,8 +19951,14 @@
       <c r="FG71">
         <v>0.92732700000000001</v>
       </c>
+      <c r="FM71">
+        <v>1.01544857025146</v>
+      </c>
+      <c r="FN71">
+        <v>1.02159061978444</v>
+      </c>
     </row>
-    <row r="72" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.9820468</v>
       </c>
@@ -19625,8 +20067,14 @@
       <c r="FG72">
         <v>0.94387600000000005</v>
       </c>
+      <c r="FM72">
+        <v>1.0156944990157999</v>
+      </c>
+      <c r="FN72">
+        <v>1.02274334530847</v>
+      </c>
     </row>
-    <row r="73" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98158659999999998</v>
       </c>
@@ -19735,8 +20183,14 @@
       <c r="FG73">
         <v>0.94629399999999997</v>
       </c>
+      <c r="FM73">
+        <v>1.0183863639831501</v>
+      </c>
+      <c r="FN73">
+        <v>1.02731888772594</v>
+      </c>
     </row>
-    <row r="74" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98121685000000003</v>
       </c>
@@ -19845,8 +20299,14 @@
       <c r="FG74">
         <v>0.93654899999999996</v>
       </c>
+      <c r="FM74">
+        <v>1.0214498043060301</v>
+      </c>
+      <c r="FN74">
+        <v>1.0263500325309001</v>
+      </c>
     </row>
-    <row r="75" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98107100000000003</v>
       </c>
@@ -19955,8 +20415,14 @@
       <c r="FG75">
         <v>0.93015400000000004</v>
       </c>
+      <c r="FM75">
+        <v>1.0216107368469201</v>
+      </c>
+      <c r="FN75">
+        <v>1.02494978925631</v>
+      </c>
     </row>
-    <row r="76" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98125476</v>
       </c>
@@ -20065,8 +20531,14 @@
       <c r="FG76">
         <v>0.93798999999999999</v>
       </c>
+      <c r="FM76">
+        <v>1.02123570442199</v>
+      </c>
+      <c r="FN76">
+        <v>1.0284645413142399</v>
+      </c>
     </row>
-    <row r="77" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98163986000000003</v>
       </c>
@@ -20175,8 +20647,14 @@
       <c r="FG77">
         <v>0.94073099999999998</v>
       </c>
+      <c r="FM77">
+        <v>1.02392554283142</v>
+      </c>
+      <c r="FN77">
+        <v>1.02509829990665</v>
+      </c>
     </row>
-    <row r="78" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98200410000000005</v>
       </c>
@@ -20285,8 +20763,14 @@
       <c r="FG78">
         <v>0.95447300000000002</v>
       </c>
+      <c r="FM78">
+        <v>1.0236952304839999</v>
+      </c>
+      <c r="FN78">
+        <v>1.0096390484003199</v>
+      </c>
     </row>
-    <row r="79" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98241100000000003</v>
       </c>
@@ -20395,8 +20879,14 @@
       <c r="FG79">
         <v>0.94704100000000002</v>
       </c>
+      <c r="FM79">
+        <v>1.0214641094207699</v>
+      </c>
+      <c r="FN79">
+        <v>1.0232737404882399</v>
+      </c>
     </row>
-    <row r="80" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98286790000000002</v>
       </c>
@@ -20505,8 +20995,14 @@
       <c r="FG80">
         <v>0.95553699999999997</v>
       </c>
+      <c r="FM80">
+        <v>1.02102875709533</v>
+      </c>
+      <c r="FN80">
+        <v>1.0213713897768</v>
+      </c>
     </row>
-    <row r="81" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98338102999999999</v>
       </c>
@@ -20615,8 +21111,14 @@
       <c r="FG81">
         <v>0.95642899999999997</v>
       </c>
+      <c r="FM81">
+        <v>1.02062463760375</v>
+      </c>
+      <c r="FN81">
+        <v>1.0118949958982699</v>
+      </c>
     </row>
-    <row r="82" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.98389950000000004</v>
       </c>
@@ -20725,8 +21227,14 @@
       <c r="FG82">
         <v>0.94610899999999998</v>
       </c>
+      <c r="FM82">
+        <v>1.01658451557159</v>
+      </c>
+      <c r="FN82">
+        <v>1.0149642160051999</v>
+      </c>
     </row>
-    <row r="83" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98431873000000003</v>
       </c>
@@ -20835,8 +21343,14 @@
       <c r="FG83">
         <v>0.941967</v>
       </c>
+      <c r="FM83">
+        <v>1.0155836343765201</v>
+      </c>
+      <c r="FN83">
+        <v>1.0134578936946601</v>
+      </c>
     </row>
-    <row r="84" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98454370000000002</v>
       </c>
@@ -20945,8 +21459,14 @@
       <c r="FG84">
         <v>0.94142499999999996</v>
       </c>
+      <c r="FM84">
+        <v>1.0152505636215201</v>
+      </c>
+      <c r="FN84">
+        <v>1.01661904896608</v>
+      </c>
     </row>
-    <row r="85" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98472499999999996</v>
       </c>
@@ -21055,8 +21575,14 @@
       <c r="FG85">
         <v>0.91245500000000002</v>
       </c>
+      <c r="FM85">
+        <v>1.01634192466735</v>
+      </c>
+      <c r="FN85">
+        <v>1.0037269101298401</v>
+      </c>
     </row>
-    <row r="86" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.9847243</v>
       </c>
@@ -21165,8 +21691,14 @@
       <c r="FG86">
         <v>0.91606900000000002</v>
       </c>
+      <c r="FM86">
+        <v>1.0166990756988501</v>
+      </c>
+      <c r="FN86">
+        <v>1.00159825747503</v>
+      </c>
     </row>
-    <row r="87" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98449500000000001</v>
       </c>
@@ -21275,8 +21807,14 @@
       <c r="FG87">
         <v>0.92552299999999998</v>
       </c>
+      <c r="FM87">
+        <v>1.0135928392410201</v>
+      </c>
+      <c r="FN87">
+        <v>0.99201578456054995</v>
+      </c>
     </row>
-    <row r="88" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98391819999999997</v>
       </c>
@@ -21385,8 +21923,14 @@
       <c r="FG88">
         <v>0.92510000000000003</v>
       </c>
+      <c r="FM88">
+        <v>1.0079417228698699</v>
+      </c>
+      <c r="FN88">
+        <v>0.992631042969081</v>
+      </c>
     </row>
-    <row r="89" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98308605000000004</v>
       </c>
@@ -21495,8 +22039,14 @@
       <c r="FG89">
         <v>0.91980200000000001</v>
       </c>
+      <c r="FM89">
+        <v>1.00647485256195</v>
+      </c>
+      <c r="FN89">
+        <v>1.01034624197335</v>
+      </c>
     </row>
-    <row r="90" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98196300000000003</v>
       </c>
@@ -21605,8 +22155,14 @@
       <c r="FG90">
         <v>0.92811299999999997</v>
       </c>
+      <c r="FM90">
+        <v>1.0098950862884499</v>
+      </c>
+      <c r="FN90">
+        <v>1.0129345704506201</v>
+      </c>
     </row>
-    <row r="91" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.98071059999999999</v>
       </c>
@@ -21715,8 +22271,14 @@
       <c r="FG91">
         <v>0.90521399999999996</v>
       </c>
+      <c r="FM91">
+        <v>1.0125628709793</v>
+      </c>
+      <c r="FN91">
+        <v>1.0025034652485001</v>
+      </c>
     </row>
-    <row r="92" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.98030229999999996</v>
       </c>
@@ -21825,8 +22387,14 @@
       <c r="FG92">
         <v>0.908273</v>
       </c>
+      <c r="FM92">
+        <v>1.0100470781326201</v>
+      </c>
+      <c r="FN92">
+        <v>0.99565783146162701</v>
+      </c>
     </row>
-    <row r="93" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.98065959999999996</v>
       </c>
@@ -21935,8 +22503,14 @@
       <c r="FG93">
         <v>0.92499399999999998</v>
       </c>
+      <c r="FM93">
+        <v>1.00818884372711</v>
+      </c>
+      <c r="FN93">
+        <v>1.0040451472377001</v>
+      </c>
     </row>
-    <row r="94" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.98071193999999995</v>
       </c>
@@ -22045,8 +22619,14 @@
       <c r="FG94">
         <v>0.94017700000000004</v>
       </c>
+      <c r="FM94">
+        <v>1.00962805747985</v>
+      </c>
+      <c r="FN94">
+        <v>1.0069800005657501</v>
+      </c>
     </row>
-    <row r="95" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97984766999999995</v>
       </c>
@@ -22155,8 +22735,14 @@
       <c r="FG95">
         <v>0.94635400000000003</v>
       </c>
+      <c r="FM95">
+        <v>1.01183640956878</v>
+      </c>
+      <c r="FN95">
+        <v>1.02168962688467</v>
+      </c>
     </row>
-    <row r="96" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97908704999999996</v>
       </c>
@@ -22265,8 +22851,14 @@
       <c r="FG96">
         <v>0.94533</v>
       </c>
+      <c r="FM96">
+        <v>1.0135084390640201</v>
+      </c>
+      <c r="FN96">
+        <v>1.01373369918814</v>
+      </c>
     </row>
-    <row r="97" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97884300000000002</v>
       </c>
@@ -22375,8 +22967,14 @@
       <c r="FG97">
         <v>0.956488</v>
       </c>
+      <c r="FM97">
+        <v>1.0097806453704801</v>
+      </c>
+      <c r="FN97">
+        <v>1.02282820853724</v>
+      </c>
     </row>
-    <row r="98" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97900039999999999</v>
       </c>
@@ -22485,8 +23083,14 @@
       <c r="FG98">
         <v>0.95804100000000003</v>
       </c>
+      <c r="FM98">
+        <v>1.00779521465301</v>
+      </c>
+      <c r="FN98">
+        <v>1.0237829198608199</v>
+      </c>
     </row>
-    <row r="99" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97906053000000004</v>
       </c>
@@ -22595,8 +23199,14 @@
       <c r="FG99">
         <v>0.95912399999999998</v>
       </c>
+      <c r="FM99">
+        <v>1.0092089176177901</v>
+      </c>
+      <c r="FN99">
+        <v>1.01273655625017</v>
+      </c>
     </row>
-    <row r="100" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97900719999999997</v>
       </c>
@@ -22705,8 +23315,14 @@
       <c r="FG100">
         <v>0.95313199999999998</v>
       </c>
+      <c r="FM100">
+        <v>1.0094571113586399</v>
+      </c>
+      <c r="FN100">
+        <v>1.0083024525473101</v>
+      </c>
     </row>
-    <row r="101" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97931109999999999</v>
       </c>
@@ -22815,8 +23431,14 @@
       <c r="FG101">
         <v>0.94978899999999999</v>
       </c>
+      <c r="FM101">
+        <v>1.0071369409561099</v>
+      </c>
+      <c r="FN101">
+        <v>1.0077225538174299</v>
+      </c>
     </row>
-    <row r="102" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97974159999999999</v>
       </c>
@@ -22925,8 +23547,14 @@
       <c r="FG102">
         <v>0.94186099999999995</v>
       </c>
+      <c r="FM102">
+        <v>1.0058183670043901</v>
+      </c>
+      <c r="FN102">
+        <v>0.97671211564029203</v>
+      </c>
     </row>
-    <row r="103" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97993330000000001</v>
       </c>
@@ -23035,8 +23663,14 @@
       <c r="FG103">
         <v>0.92699600000000004</v>
       </c>
+      <c r="FM103">
+        <v>1.00343537330627</v>
+      </c>
+      <c r="FN103">
+        <v>0.98058046448473801</v>
+      </c>
     </row>
-    <row r="104" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97969764000000004</v>
       </c>
@@ -23145,8 +23779,14 @@
       <c r="FG104">
         <v>0.91906200000000005</v>
       </c>
+      <c r="FM104">
+        <v>0.99881750345230103</v>
+      </c>
+      <c r="FN104">
+        <v>0.99070040451472297</v>
+      </c>
     </row>
-    <row r="105" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97793596999999999</v>
       </c>
@@ -23255,8 +23895,14 @@
       <c r="FG105">
         <v>0.93598099999999995</v>
       </c>
+      <c r="FM105">
+        <v>0.997072994709014</v>
+      </c>
+      <c r="FN105">
+        <v>0.99024780062798801</v>
+      </c>
     </row>
-    <row r="106" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97617259999999995</v>
       </c>
@@ -23365,8 +24011,14 @@
       <c r="FG106">
         <v>0.94610300000000003</v>
       </c>
+      <c r="FM106">
+        <v>0.99919998645782404</v>
+      </c>
+      <c r="FN106">
+        <v>0.98457610817232899</v>
+      </c>
     </row>
-    <row r="107" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97623150000000003</v>
       </c>
@@ -23475,8 +24127,14 @@
       <c r="FG107">
         <v>0.94614200000000004</v>
       </c>
+      <c r="FM107">
+        <v>0.99935686588287298</v>
+      </c>
+      <c r="FN107">
+        <v>0.99347260332098097</v>
+      </c>
     </row>
-    <row r="108" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97707679999999997</v>
       </c>
@@ -23585,8 +24243,14 @@
       <c r="FG108">
         <v>0.94297799999999998</v>
       </c>
+      <c r="FM108">
+        <v>0.99955415725707997</v>
+      </c>
+      <c r="FN108">
+        <v>0.96896127407994104</v>
+      </c>
     </row>
-    <row r="109" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97745514</v>
       </c>
@@ -23695,8 +24359,14 @@
       <c r="FG109">
         <v>0.93914600000000004</v>
       </c>
+      <c r="FM109">
+        <v>0.99671715497970503</v>
+      </c>
+      <c r="FN109">
+        <v>0.97223558032304502</v>
+      </c>
     </row>
-    <row r="110" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97696110000000003</v>
       </c>
@@ -23805,8 +24475,14 @@
       <c r="FG110">
         <v>0.93602799999999997</v>
       </c>
+      <c r="FM110">
+        <v>0.99632769823074296</v>
+      </c>
+      <c r="FN110">
+        <v>0.99013464965630305</v>
+      </c>
     </row>
-    <row r="111" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97576605999999999</v>
       </c>
@@ -23915,8 +24591,14 @@
       <c r="FG111">
         <v>0.94033500000000003</v>
       </c>
+      <c r="FM111">
+        <v>0.99943816661834695</v>
+      </c>
+      <c r="FN111">
+        <v>1.0063859579644101</v>
+      </c>
     </row>
-    <row r="112" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97488629999999998</v>
       </c>
@@ -24025,8 +24707,14 @@
       <c r="FG112">
         <v>0.92957900000000004</v>
       </c>
+      <c r="FM112">
+        <v>1.0066496133804299</v>
+      </c>
+      <c r="FN112">
+        <v>1.0129982178721899</v>
+      </c>
     </row>
-    <row r="113" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97477650000000005</v>
       </c>
@@ -24135,8 +24823,14 @@
       <c r="FG113">
         <v>0.92562199999999994</v>
       </c>
+      <c r="FM113">
+        <v>1.01290607452392</v>
+      </c>
+      <c r="FN113">
+        <v>1.0119020678340001</v>
+      </c>
     </row>
-    <row r="114" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97557044000000004</v>
       </c>
@@ -24245,8 +24939,14 @@
       <c r="FG114">
         <v>0.94320199999999998</v>
       </c>
+      <c r="FM114">
+        <v>1.0142083168029701</v>
+      </c>
+      <c r="FN114">
+        <v>1.02384656728239</v>
+      </c>
     </row>
-    <row r="115" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97673255000000003</v>
       </c>
@@ -24355,8 +25055,14 @@
       <c r="FG115">
         <v>0.92991599999999996</v>
       </c>
+      <c r="FM115">
+        <v>1.0164432525634699</v>
+      </c>
+      <c r="FN115">
+        <v>1.025508472179</v>
+      </c>
     </row>
-    <row r="116" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.97761030000000004</v>
       </c>
@@ -24465,8 +25171,14 @@
       <c r="FG116">
         <v>0.93122400000000005</v>
       </c>
+      <c r="FM116">
+        <v>1.02039670944213</v>
+      </c>
+      <c r="FN116">
+        <v>1.0266682696387599</v>
+      </c>
     </row>
-    <row r="117" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.97834580000000004</v>
       </c>
@@ -24575,8 +25287,14 @@
       <c r="FG117">
         <v>0.92946700000000004</v>
       </c>
+      <c r="FM117">
+        <v>1.0245001316070499</v>
+      </c>
+      <c r="FN117">
+        <v>1.0202540239314299</v>
+      </c>
     </row>
-    <row r="118" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.97910260000000005</v>
       </c>
@@ -24685,8 +25403,14 @@
       <c r="FG118">
         <v>0.93485200000000002</v>
       </c>
+      <c r="FM118">
+        <v>1.02450275421142</v>
+      </c>
+      <c r="FN118">
+        <v>1.0166756244519199</v>
+      </c>
     </row>
-    <row r="119" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.97996780000000006</v>
       </c>
@@ -24795,8 +25519,14 @@
       <c r="FG119">
         <v>0.94205300000000003</v>
       </c>
+      <c r="FM119">
+        <v>1.0224347114562899</v>
+      </c>
+      <c r="FN119">
+        <v>1.00818930157562</v>
+      </c>
     </row>
-    <row r="120" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9808017</v>
       </c>
@@ -24905,8 +25635,14 @@
       <c r="FG120">
         <v>0.93840599999999996</v>
       </c>
+      <c r="FM120">
+        <v>1.0180481672286901</v>
+      </c>
+      <c r="FN120">
+        <v>0.99227744618256897</v>
+      </c>
     </row>
-    <row r="121" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98146533999999996</v>
       </c>
@@ -25015,8 +25751,14 @@
       <c r="FG121">
         <v>0.92696999999999996</v>
       </c>
+      <c r="FM121">
+        <v>1.0173407793045</v>
+      </c>
+      <c r="FN121">
+        <v>0.98378405137054004</v>
+      </c>
     </row>
-    <row r="122" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98195619999999995</v>
       </c>
@@ -25125,8 +25867,14 @@
       <c r="FG122">
         <v>0.89798</v>
       </c>
+      <c r="FM122">
+        <v>1.0138982534408501</v>
+      </c>
+      <c r="FN122">
+        <v>1.0018952787757001</v>
+      </c>
     </row>
-    <row r="123" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98239124</v>
       </c>
@@ -25235,8 +25983,14 @@
       <c r="FG123">
         <v>0.85514199999999996</v>
       </c>
+      <c r="FM123">
+        <v>1.01266157627105</v>
+      </c>
+      <c r="FN123">
+        <v>1.0127294843144401</v>
+      </c>
     </row>
-    <row r="124" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.9825874</v>
       </c>
@@ -25345,8 +26099,14 @@
       <c r="FG124">
         <v>0.80382100000000001</v>
       </c>
+      <c r="FM124">
+        <v>1.0161730051040601</v>
+      </c>
+      <c r="FN124">
+        <v>1.01277191592882</v>
+      </c>
     </row>
-    <row r="125" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98263029999999996</v>
       </c>
@@ -25455,8 +26215,14 @@
       <c r="FG125">
         <v>0.78690800000000005</v>
       </c>
+      <c r="FM125">
+        <v>1.0196281671523999</v>
+      </c>
+      <c r="FN125">
+        <v>1.0093844587140299</v>
+      </c>
     </row>
-    <row r="126" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98298450000000004</v>
       </c>
@@ -25565,8 +26331,14 @@
       <c r="FG126">
         <v>0.83507100000000001</v>
       </c>
+      <c r="FM126">
+        <v>1.0193610191345199</v>
+      </c>
+      <c r="FN126">
+        <v>1.0052827359904899</v>
+      </c>
     </row>
-    <row r="127" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98353460000000004</v>
       </c>
@@ -25675,8 +26447,14 @@
       <c r="FG127">
         <v>0.86622100000000002</v>
       </c>
+      <c r="FM127">
+        <v>1.01944899559021</v>
+      </c>
+      <c r="FN127">
+        <v>1.0019447823258101</v>
+      </c>
     </row>
-    <row r="128" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98405050000000005</v>
       </c>
@@ -25785,8 +26563,14 @@
       <c r="FG128">
         <v>0.86702100000000004</v>
       </c>
+      <c r="FM128">
+        <v>1.0185478925704901</v>
+      </c>
+      <c r="FN128">
+        <v>1.0065556844219301</v>
+      </c>
     </row>
-    <row r="129" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98429626000000003</v>
       </c>
@@ -25895,8 +26679,14 @@
       <c r="FG129">
         <v>0.85599400000000003</v>
       </c>
+      <c r="FM129">
+        <v>1.0173653364181501</v>
+      </c>
+      <c r="FN129">
+        <v>0.99504257305309496</v>
+      </c>
     </row>
-    <row r="130" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98426913999999999</v>
       </c>
@@ -26005,8 +26795,14 @@
       <c r="FG130">
         <v>0.81745699999999999</v>
       </c>
+      <c r="FM130">
+        <v>1.01549863815307</v>
+      </c>
+      <c r="FN130">
+        <v>0.99080648355067702</v>
+      </c>
     </row>
-    <row r="131" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98429429999999996</v>
       </c>
@@ -26115,8 +26911,14 @@
       <c r="FG131">
         <v>0.84058699999999997</v>
       </c>
+      <c r="FM131">
+        <v>1.01430940628051</v>
+      </c>
+      <c r="FN131">
+        <v>1.0096249045288599</v>
+      </c>
     </row>
-    <row r="132" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98417840000000001</v>
       </c>
@@ -26225,8 +27027,14 @@
       <c r="FG132">
         <v>0.84208700000000003</v>
       </c>
+      <c r="FM132">
+        <v>1.0156782865524201</v>
+      </c>
+      <c r="FN132">
+        <v>0.99540324177533801</v>
+      </c>
     </row>
-    <row r="133" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98372369999999998</v>
       </c>
@@ -26335,8 +27143,14 @@
       <c r="FG133">
         <v>0.82232700000000003</v>
       </c>
+      <c r="FM133">
+        <v>1.0164600610732999</v>
+      </c>
+      <c r="FN133">
+        <v>0.996803485049927</v>
+      </c>
     </row>
-    <row r="134" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98357570000000005</v>
       </c>
@@ -26445,8 +27259,14 @@
       <c r="FG134">
         <v>0.85416400000000003</v>
       </c>
+      <c r="FM134">
+        <v>1.01640307903289</v>
+      </c>
+      <c r="FN134">
+        <v>0.99492235014568098</v>
+      </c>
     </row>
-    <row r="135" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98368542999999997</v>
       </c>
@@ -26555,8 +27375,14 @@
       <c r="FG135">
         <v>0.83608199999999999</v>
       </c>
+      <c r="FM135">
+        <v>1.0139511823654099</v>
+      </c>
+      <c r="FN135">
+        <v>1.0006859777658299</v>
+      </c>
     </row>
-    <row r="136" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98327949999999997</v>
       </c>
@@ -26665,8 +27491,14 @@
       <c r="FG136">
         <v>0.84285399999999999</v>
       </c>
+      <c r="FM136">
+        <v>1.0117388963699301</v>
+      </c>
+      <c r="FN136">
+        <v>1.0083943877118</v>
+      </c>
     </row>
-    <row r="137" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98277073999999998</v>
       </c>
@@ -26775,8 +27607,14 @@
       <c r="FG137">
         <v>0.84864099999999998</v>
       </c>
+      <c r="FM137">
+        <v>1.0109792947769101</v>
+      </c>
+      <c r="FN137">
+        <v>1.0044906791887001</v>
+      </c>
     </row>
-    <row r="138" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.98254269999999999</v>
       </c>
@@ -26885,8 +27723,14 @@
       <c r="FG138">
         <v>0.84334200000000004</v>
       </c>
+      <c r="FM138">
+        <v>1.0107625722885101</v>
+      </c>
+      <c r="FN138">
+        <v>0.992249158439648</v>
+      </c>
     </row>
-    <row r="139" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.98247397000000003</v>
       </c>
@@ -26995,8 +27839,14 @@
       <c r="FG139">
         <v>0.85989899999999997</v>
       </c>
+      <c r="FM139">
+        <v>1.0070339441299401</v>
+      </c>
+      <c r="FN139">
+        <v>0.96121750445531895</v>
+      </c>
     </row>
-    <row r="140" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.98264300000000004</v>
       </c>
@@ -27105,8 +27955,14 @@
       <c r="FG140">
         <v>0.87127500000000002</v>
       </c>
+      <c r="FM140">
+        <v>1.0000983476638701</v>
+      </c>
+      <c r="FN140">
+        <v>0.91536307318039101</v>
+      </c>
     </row>
-    <row r="141" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.98228073000000005</v>
       </c>
@@ -27215,8 +28071,14 @@
       <c r="FG141">
         <v>0.86789899999999998</v>
       </c>
+      <c r="FM141">
+        <v>0.987354755401611</v>
+      </c>
+      <c r="FN141">
+        <v>0.86042827642782305</v>
+      </c>
     </row>
-    <row r="142" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.97903110000000004</v>
       </c>
@@ -27325,8 +28187,14 @@
       <c r="FG142">
         <v>0.84664600000000001</v>
       </c>
+      <c r="FM142">
+        <v>0.97044557332992498</v>
+      </c>
+      <c r="FN142">
+        <v>0.84232412095838805</v>
+      </c>
     </row>
-    <row r="143" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.97004630000000003</v>
       </c>
@@ -27435,8 +28303,14 @@
       <c r="FG143">
         <v>0.85255199999999998</v>
       </c>
+      <c r="FM143">
+        <v>0.953996241092681</v>
+      </c>
+      <c r="FN143">
+        <v>0.89387853243189697</v>
+      </c>
     </row>
-    <row r="144" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.9547544</v>
       </c>
@@ -27545,8 +28419,14 @@
       <c r="FG144">
         <v>0.83654399999999995</v>
       </c>
+      <c r="FM144">
+        <v>0.95009696483612005</v>
+      </c>
+      <c r="FN144">
+        <v>0.92722270940001605</v>
+      </c>
     </row>
-    <row r="145" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93693346</v>
       </c>
@@ -27655,8 +28535,14 @@
       <c r="FG145">
         <v>0.83391499999999996</v>
       </c>
+      <c r="FM145">
+        <v>0.95840388536453203</v>
+      </c>
+      <c r="FN145">
+        <v>0.92807841362337595</v>
+      </c>
     </row>
-    <row r="146" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92407969999999995</v>
       </c>
@@ -27765,8 +28651,14 @@
       <c r="FG146">
         <v>0.82960699999999998</v>
       </c>
+      <c r="FM146">
+        <v>0.96781522035598699</v>
+      </c>
+      <c r="FN146">
+        <v>0.91627535288959205</v>
+      </c>
     </row>
-    <row r="147" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.92545204999999997</v>
       </c>
@@ -27875,8 +28767,14 @@
       <c r="FG147">
         <v>0.829013</v>
       </c>
+      <c r="FM147">
+        <v>0.96602702140808105</v>
+      </c>
+      <c r="FN147">
+        <v>0.87502475177505501</v>
+      </c>
     </row>
-    <row r="148" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.933639</v>
       </c>
@@ -27985,8 +28883,14 @@
       <c r="FG148">
         <v>0.79626300000000005</v>
       </c>
+      <c r="FM148">
+        <v>0.95380336046218805</v>
+      </c>
+      <c r="FN148">
+        <v>0.89978359876665404</v>
+      </c>
     </row>
-    <row r="149" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.93672144000000002</v>
       </c>
@@ -28095,8 +28999,14 @@
       <c r="FG149">
         <v>0.79779599999999995</v>
       </c>
+      <c r="FM149">
+        <v>0.94913601875305098</v>
+      </c>
+      <c r="FN149">
+        <v>0.90138892817742</v>
+      </c>
     </row>
-    <row r="150" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.92697589999999996</v>
       </c>
@@ -28205,8 +29115,14 @@
       <c r="FG150">
         <v>0.82154000000000005</v>
       </c>
+      <c r="FM150">
+        <v>0.95265716314315796</v>
+      </c>
+      <c r="FN150">
+        <v>0.88023676840824805</v>
+      </c>
     </row>
-    <row r="151" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.91321622999999996</v>
       </c>
@@ -28315,8 +29231,14 @@
       <c r="FG151">
         <v>0.824044</v>
       </c>
+      <c r="FM151">
+        <v>0.95474910736083896</v>
+      </c>
+      <c r="FN151">
+        <v>0.91431642669231405</v>
+      </c>
     </row>
-    <row r="152" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.90451545</v>
       </c>
@@ -28425,8 +29347,14 @@
       <c r="FG152">
         <v>0.84223899999999996</v>
       </c>
+      <c r="FM152">
+        <v>0.96031379699706998</v>
+      </c>
+      <c r="FN152">
+        <v>0.89496053859862501</v>
+      </c>
     </row>
-    <row r="153" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.89857799999999999</v>
       </c>
@@ -28535,8 +29463,14 @@
       <c r="FG153">
         <v>0.86581799999999998</v>
       </c>
+      <c r="FM153">
+        <v>0.96053314208984297</v>
+      </c>
+      <c r="FN153">
+        <v>0.90220927272212903</v>
+      </c>
     </row>
-    <row r="154" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.90034729999999996</v>
       </c>
@@ -28645,8 +29579,14 @@
       <c r="FG154">
         <v>0.86110799999999998</v>
       </c>
+      <c r="FM154">
+        <v>0.96194553375244096</v>
+      </c>
+      <c r="FN154">
+        <v>0.90840428842182597</v>
+      </c>
     </row>
-    <row r="155" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.90802103000000001</v>
       </c>
@@ -28755,8 +29695,14 @@
       <c r="FG155">
         <v>0.87161900000000003</v>
       </c>
+      <c r="FM155">
+        <v>0.96502238512039096</v>
+      </c>
+      <c r="FN155">
+        <v>0.90273259596616695</v>
+      </c>
     </row>
-    <row r="156" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.91741079999999997</v>
       </c>
@@ -28865,8 +29811,14 @@
       <c r="FG156">
         <v>0.883247</v>
       </c>
+      <c r="FM156">
+        <v>0.96192061901092496</v>
+      </c>
+      <c r="FN156">
+        <v>0.92045486690616896</v>
+      </c>
     </row>
-    <row r="157" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.92375510000000005</v>
       </c>
@@ -28975,8 +29927,14 @@
       <c r="FG157">
         <v>0.88421099999999997</v>
       </c>
+      <c r="FM157">
+        <v>0.96332740783691395</v>
+      </c>
+      <c r="FN157">
+        <v>0.93263274023365605</v>
+      </c>
     </row>
-    <row r="158" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.92515199999999997</v>
       </c>
@@ -29085,8 +30043,14 @@
       <c r="FG158">
         <v>0.88590899999999995</v>
       </c>
+      <c r="FM158">
+        <v>0.96839618682861295</v>
+      </c>
+      <c r="FN158">
+        <v>0.92901898107549896</v>
+      </c>
     </row>
-    <row r="159" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.92614399999999997</v>
       </c>
@@ -29195,8 +30159,14 @@
       <c r="FG159">
         <v>0.87681200000000004</v>
       </c>
+      <c r="FM159">
+        <v>0.97174263000488204</v>
+      </c>
+      <c r="FN159">
+        <v>0.90626856383129095</v>
+      </c>
     </row>
-    <row r="160" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.93095874999999995</v>
       </c>
@@ -29305,8 +30275,14 @@
       <c r="FG160">
         <v>0.87056900000000004</v>
       </c>
+      <c r="FM160">
+        <v>0.96184819936752297</v>
+      </c>
+      <c r="FN160">
+        <v>0.912590874374133</v>
+      </c>
     </row>
-    <row r="161" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.93712969999999995</v>
       </c>
@@ -29415,8 +30391,14 @@
       <c r="FG161">
         <v>0.89013799999999998</v>
       </c>
+      <c r="FM161">
+        <v>0.95251077413558904</v>
+      </c>
+      <c r="FN161">
+        <v>0.89545557409974197</v>
+      </c>
     </row>
-    <row r="162" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.93991696999999996</v>
       </c>
@@ -29525,8 +30507,14 @@
       <c r="FG162">
         <v>0.89624899999999996</v>
       </c>
+      <c r="FM162">
+        <v>0.94675964117050104</v>
+      </c>
+      <c r="FN162">
+        <v>0.89264094367910296</v>
+      </c>
     </row>
-    <row r="163" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94084129999999999</v>
       </c>
@@ -29635,8 +30623,14 @@
       <c r="FG163">
         <v>0.89661199999999996</v>
       </c>
+      <c r="FM163">
+        <v>0.94504433870315496</v>
+      </c>
+      <c r="FN163">
+        <v>0.88803004158298204</v>
+      </c>
     </row>
-    <row r="164" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94026430000000005</v>
       </c>
@@ -29745,8 +30739,14 @@
       <c r="FG164">
         <v>0.89470300000000003</v>
       </c>
+      <c r="FM164">
+        <v>0.94631862640380804</v>
+      </c>
+      <c r="FN164">
+        <v>0.88739356736725905</v>
+      </c>
     </row>
-    <row r="165" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.94110380000000005</v>
       </c>
@@ -29855,8 +30855,14 @@
       <c r="FG165">
         <v>0.88688699999999998</v>
       </c>
+      <c r="FM165">
+        <v>0.94995838403701705</v>
+      </c>
+      <c r="FN165">
+        <v>0.85233798195241905</v>
+      </c>
     </row>
-    <row r="166" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.94173353999999998</v>
       </c>
@@ -29965,8 +30971,14 @@
       <c r="FG166">
         <v>0.90906600000000004</v>
       </c>
+      <c r="FM166">
+        <v>0.94827443361282304</v>
+      </c>
+      <c r="FN166">
+        <v>0.853978671041837</v>
+      </c>
     </row>
-    <row r="167" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.94368196000000004</v>
       </c>
@@ -30075,8 +31087,14 @@
       <c r="FG167">
         <v>0.92402300000000004</v>
       </c>
+      <c r="FM167">
+        <v>0.94347298145294101</v>
+      </c>
+      <c r="FN167">
+        <v>0.87939520805634896</v>
+      </c>
     </row>
-    <row r="168" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.94127249999999996</v>
       </c>
@@ -30185,8 +31203,14 @@
       <c r="FG168">
         <v>0.9214</v>
       </c>
+      <c r="FM168">
+        <v>0.93718779087066595</v>
+      </c>
+      <c r="FN168">
+        <v>0.88207547169811296</v>
+      </c>
     </row>
-    <row r="169" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.93782215999999996</v>
       </c>
@@ -30295,8 +31319,14 @@
       <c r="FG169">
         <v>0.91790499999999997</v>
       </c>
+      <c r="FM169">
+        <v>0.92913889884948697</v>
+      </c>
+      <c r="FN169">
+        <v>0.90155158269921598</v>
+      </c>
     </row>
-    <row r="170" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.93808895000000003</v>
       </c>
@@ -30405,8 +31435,14 @@
       <c r="FG170">
         <v>0.93406500000000003</v>
       </c>
+      <c r="FM170">
+        <v>0.92820668220519997</v>
+      </c>
+      <c r="FN170">
+        <v>0.92679132132047104</v>
+      </c>
     </row>
-    <row r="171" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.93920802999999997</v>
       </c>
@@ -30515,8 +31551,14 @@
       <c r="FG171">
         <v>0.93344400000000005</v>
       </c>
+      <c r="FM171">
+        <v>0.93966144323348999</v>
+      </c>
+      <c r="FN171">
+        <v>0.921749031144804</v>
+      </c>
     </row>
-    <row r="172" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.93959300000000001</v>
       </c>
@@ -30625,8 +31667,14 @@
       <c r="FG172">
         <v>0.92680499999999999</v>
       </c>
+      <c r="FM172">
+        <v>0.95220363140106201</v>
+      </c>
+      <c r="FN172">
+        <v>0.93300048089162901</v>
+      </c>
     </row>
-    <row r="173" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.94315260000000001</v>
       </c>
@@ -30735,8 +31783,14 @@
       <c r="FG173">
         <v>0.94311699999999998</v>
       </c>
+      <c r="FM173">
+        <v>0.95730113983154297</v>
+      </c>
+      <c r="FN173">
+        <v>0.94544708777686604</v>
+      </c>
     </row>
-    <row r="174" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.94766163999999997</v>
       </c>
@@ -30845,8 +31899,14 @@
       <c r="FG174">
         <v>0.946909</v>
       </c>
+      <c r="FM174">
+        <v>0.96093851327896096</v>
+      </c>
+      <c r="FN174">
+        <v>0.94647959039348195</v>
+      </c>
     </row>
-    <row r="175" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.95133719999999999</v>
       </c>
@@ -30955,8 +32015,14 @@
       <c r="FG175">
         <v>0.941967</v>
       </c>
+      <c r="FM175">
+        <v>0.96631276607513406</v>
+      </c>
+      <c r="FN175">
+        <v>0.94829707787615602</v>
+      </c>
     </row>
-    <row r="176" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.95438230000000002</v>
       </c>
@@ -31065,8 +32131,14 @@
       <c r="FG176">
         <v>0.94039499999999998</v>
       </c>
+      <c r="FM176">
+        <v>0.96776479482650701</v>
+      </c>
+      <c r="FN176">
+        <v>0.93855902237560396</v>
+      </c>
     </row>
-    <row r="177" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.95731500000000003</v>
       </c>
@@ -31175,8 +32247,14 @@
       <c r="FG177">
         <v>0.93991199999999997</v>
       </c>
+      <c r="FM177">
+        <v>0.968147933483123</v>
+      </c>
+      <c r="FN177">
+        <v>0.93187604311051997</v>
+      </c>
     </row>
-    <row r="178" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.95968229999999999</v>
       </c>
@@ -31285,8 +32363,14 @@
       <c r="FG178">
         <v>0.92628900000000003</v>
       </c>
+      <c r="FM178">
+        <v>0.96544402837753296</v>
+      </c>
+      <c r="FN178">
+        <v>0.95282311674351405</v>
+      </c>
     </row>
-    <row r="179" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96201610000000004</v>
       </c>
@@ -31395,8 +32479,14 @@
       <c r="FG179">
         <v>0.92836399999999997</v>
       </c>
+      <c r="FM179">
+        <v>0.966175436973571</v>
+      </c>
+      <c r="FN179">
+        <v>0.95936465729399401</v>
+      </c>
     </row>
-    <row r="180" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.96395209999999998</v>
       </c>
@@ -31505,8 +32595,14 @@
       <c r="FG180">
         <v>0.92392399999999997</v>
       </c>
+      <c r="FM180">
+        <v>0.97228217124938898</v>
+      </c>
+      <c r="FN180">
+        <v>0.95975361375915802</v>
+      </c>
     </row>
-    <row r="181" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.96586989999999995</v>
       </c>
@@ -31615,8 +32711,14 @@
       <c r="FG181">
         <v>0.90474500000000002</v>
       </c>
+      <c r="FM181">
+        <v>0.97492891550063998</v>
+      </c>
+      <c r="FN181">
+        <v>0.95770982433311602</v>
+      </c>
     </row>
-    <row r="182" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.96764075999999999</v>
       </c>
@@ -31725,8 +32827,14 @@
       <c r="FG182">
         <v>0.88959600000000005</v>
       </c>
+      <c r="FM182">
+        <v>0.97195899486541704</v>
+      </c>
+      <c r="FN182">
+        <v>0.94934372436423198</v>
+      </c>
     </row>
-    <row r="183" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.96969530000000004</v>
       </c>
@@ -31835,8 +32943,14 @@
       <c r="FG183">
         <v>0.90951499999999996</v>
       </c>
+      <c r="FM183">
+        <v>0.96747559309005704</v>
+      </c>
+      <c r="FN183">
+        <v>0.97308421261067501</v>
+      </c>
     </row>
-    <row r="184" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97170460000000003</v>
       </c>
@@ -31945,8 +33059,14 @@
       <c r="FG184">
         <v>0.907698</v>
       </c>
+      <c r="FM184">
+        <v>0.97721481323242099</v>
+      </c>
+      <c r="FN184">
+        <v>0.989095075103957</v>
+      </c>
     </row>
-    <row r="185" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97299707000000002</v>
       </c>
@@ -32055,8 +33175,14 @@
       <c r="FG185">
         <v>0.929593</v>
       </c>
+      <c r="FM185">
+        <v>0.98746055364608698</v>
+      </c>
+      <c r="FN185">
+        <v>0.98628751661904801</v>
+      </c>
     </row>
-    <row r="186" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.97433950000000003</v>
       </c>
@@ -32165,8 +33291,14 @@
       <c r="FG186">
         <v>0.92804699999999996</v>
       </c>
+      <c r="FM186">
+        <v>0.99231338500976496</v>
+      </c>
+      <c r="FN186">
+        <v>0.98254646261774703</v>
+      </c>
     </row>
-    <row r="187" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.97554255000000001</v>
       </c>
@@ -32275,8 +33407,14 @@
       <c r="FG187">
         <v>0.93328599999999995</v>
       </c>
+      <c r="FM187">
+        <v>0.99316519498824996</v>
+      </c>
+      <c r="FN187">
+        <v>0.99984441741393404</v>
+      </c>
     </row>
-    <row r="188" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.97656359999999998</v>
       </c>
@@ -32385,8 +33523,14 @@
       <c r="FG188">
         <v>0.93158099999999999</v>
       </c>
+      <c r="FM188">
+        <v>0.99678659439086903</v>
+      </c>
+      <c r="FN188">
+        <v>0.99917965545529097</v>
+      </c>
     </row>
-    <row r="189" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.97792214</v>
       </c>
@@ -32495,8 +33639,14 @@
       <c r="FG189">
         <v>0.93326600000000004</v>
       </c>
+      <c r="FM189">
+        <v>1.00116622447967</v>
+      </c>
+      <c r="FN189">
+        <v>0.99207236004639099</v>
+      </c>
     </row>
-    <row r="190" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.9793828</v>
       </c>
@@ -32605,8 +33755,14 @@
       <c r="FG190">
         <v>0.93308800000000003</v>
       </c>
+      <c r="FM190">
+        <v>1.0045871734619101</v>
+      </c>
+      <c r="FN190">
+        <v>1.00953296936437</v>
+      </c>
     </row>
-    <row r="191" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98040729999999998</v>
       </c>
@@ -32715,8 +33871,14 @@
       <c r="FG191">
         <v>0.93390700000000004</v>
       </c>
+      <c r="FM191">
+        <v>1.0087532997131301</v>
+      </c>
+      <c r="FN191">
+        <v>1.0135922604735299</v>
+      </c>
     </row>
-    <row r="192" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98111605999999996</v>
       </c>
@@ -32825,8 +33987,14 @@
       <c r="FG192">
         <v>0.92749800000000004</v>
       </c>
+      <c r="FM192">
+        <v>1.0095733404159499</v>
+      </c>
+      <c r="FN192">
+        <v>1.0083024525473101</v>
+      </c>
     </row>
-    <row r="193" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98187243999999996</v>
       </c>
@@ -32935,8 +34103,14 @@
       <c r="FG193">
         <v>0.94217799999999996</v>
       </c>
+      <c r="FM193">
+        <v>1.0087524652480999</v>
+      </c>
+      <c r="FN193">
+        <v>1.0066193318435099</v>
+      </c>
     </row>
-    <row r="194" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98256403000000003</v>
       </c>
@@ -33045,8 +34219,14 @@
       <c r="FG194">
         <v>0.92690399999999995</v>
       </c>
+      <c r="FM194">
+        <v>1.00748980045318</v>
+      </c>
+      <c r="FN194">
+        <v>1.0061030805352</v>
+      </c>
     </row>
-    <row r="195" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98312259999999996</v>
       </c>
@@ -33155,8 +34335,14 @@
       <c r="FG195">
         <v>0.90715599999999996</v>
       </c>
+      <c r="FM195">
+        <v>1.00518190860748</v>
+      </c>
+      <c r="FN195">
+        <v>0.99152074905943199</v>
+      </c>
     </row>
-    <row r="196" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98375254999999995</v>
       </c>
@@ -33265,8 +34451,14 @@
       <c r="FG196">
         <v>0.93495099999999998</v>
       </c>
+      <c r="FM196">
+        <v>1.0033276081085201</v>
+      </c>
+      <c r="FN196">
+        <v>0.99374133687873001</v>
+      </c>
     </row>
-    <row r="197" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98449209999999998</v>
       </c>
@@ -33375,8 +34567,14 @@
       <c r="FG197">
         <v>0.925292</v>
       </c>
+      <c r="FM197">
+        <v>1.00152146816253</v>
+      </c>
+      <c r="FN197">
+        <v>0.98898899606800295</v>
+      </c>
     </row>
-    <row r="198" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98514500000000005</v>
       </c>
@@ -33485,8 +34683,14 @@
       <c r="FG198">
         <v>0.91638600000000003</v>
       </c>
+      <c r="FM198">
+        <v>0.99712210893630904</v>
+      </c>
+      <c r="FN198">
+        <v>0.96845916664309295</v>
+      </c>
     </row>
-    <row r="199" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98565453000000003</v>
       </c>
@@ -33595,8 +34799,14 @@
       <c r="FG199">
         <v>0.90583499999999995</v>
       </c>
+      <c r="FM199">
+        <v>0.99056982994079501</v>
+      </c>
+      <c r="FN199">
+        <v>0.95224321801363399</v>
+      </c>
     </row>
-    <row r="200" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98607814000000005</v>
       </c>
@@ -33705,8 +34915,14 @@
       <c r="FG200">
         <v>0.90888100000000005</v>
       </c>
+      <c r="FM200">
+        <v>0.98212361335754395</v>
+      </c>
+      <c r="FN200">
+        <v>0.97356510424033205</v>
+      </c>
     </row>
-    <row r="201" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98608105999999995</v>
       </c>
@@ -33815,8 +35031,14 @@
       <c r="FG201">
         <v>0.88254600000000005</v>
       </c>
+      <c r="FM201">
+        <v>0.98153644800186102</v>
+      </c>
+      <c r="FN201">
+        <v>0.97162032191451397</v>
+      </c>
     </row>
-    <row r="202" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98535790000000001</v>
       </c>
@@ -33925,8 +35147,14 @@
       <c r="FG202">
         <v>0.88886900000000002</v>
       </c>
+      <c r="FM202">
+        <v>0.98370540142059304</v>
+      </c>
+      <c r="FN202">
+        <v>0.995056716924556</v>
+      </c>
     </row>
-    <row r="203" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98483220000000005</v>
       </c>
@@ -34035,8 +35263,14 @@
       <c r="FG203">
         <v>0.90305400000000002</v>
       </c>
+      <c r="FM203">
+        <v>0.98520624637603704</v>
+      </c>
+      <c r="FN203">
+        <v>0.99340188396367801</v>
+      </c>
     </row>
-    <row r="204" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98502339999999999</v>
       </c>
@@ -34145,8 +35379,14 @@
       <c r="FG204">
         <v>0.92264900000000005</v>
       </c>
+      <c r="FM204">
+        <v>0.983562052249908</v>
+      </c>
+      <c r="FN204">
+        <v>0.99900992899776497</v>
+      </c>
     </row>
-    <row r="205" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98543809999999998</v>
       </c>
@@ -34255,8 +35495,14 @@
       <c r="FG205">
         <v>0.90204899999999999</v>
       </c>
+      <c r="FM205">
+        <v>0.98463231325149503</v>
+      </c>
+      <c r="FN205">
+        <v>0.99718536957936099</v>
+      </c>
     </row>
-    <row r="206" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98574779999999995</v>
       </c>
@@ -34365,8 +35611,14 @@
       <c r="FG206">
         <v>0.87804099999999996</v>
       </c>
+      <c r="FM206">
+        <v>0.98758941888809204</v>
+      </c>
+      <c r="FN206">
+        <v>0.99898871319057403</v>
+      </c>
     </row>
-    <row r="207" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98582709999999996</v>
       </c>
@@ -34475,8 +35727,14 @@
       <c r="FG207">
         <v>0.888347</v>
       </c>
+      <c r="FM207">
+        <v>0.99315053224563599</v>
+      </c>
+      <c r="FN207">
+        <v>0.99879777092585698</v>
+      </c>
     </row>
-    <row r="208" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98575102999999997</v>
       </c>
@@ -34585,8 +35843,14 @@
       <c r="FG208">
         <v>0.90012000000000003</v>
       </c>
+      <c r="FM208">
+        <v>0.99416458606719904</v>
+      </c>
+      <c r="FN208">
+        <v>0.99967469095640804</v>
+      </c>
     </row>
-    <row r="209" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98565930000000002</v>
       </c>
@@ -34695,8 +35959,14 @@
       <c r="FG209">
         <v>0.916848</v>
       </c>
+      <c r="FM209">
+        <v>0.99233424663543701</v>
+      </c>
+      <c r="FN209">
+        <v>0.99281491329806704</v>
+      </c>
     </row>
-    <row r="210" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98564845000000001</v>
       </c>
@@ -34805,8 +36075,14 @@
       <c r="FG210">
         <v>0.91466800000000004</v>
       </c>
+      <c r="FM210">
+        <v>0.99002879858016901</v>
+      </c>
+      <c r="FN210">
+        <v>1.00852875449067</v>
+      </c>
     </row>
-    <row r="211" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98571235000000001</v>
       </c>
@@ -34915,8 +36191,14 @@
       <c r="FG211">
         <v>0.91170200000000001</v>
       </c>
+      <c r="FM211">
+        <v>0.99386817216873102</v>
+      </c>
+      <c r="FN211">
+        <v>0.99217843908234504</v>
+      </c>
     </row>
-    <row r="212" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98587716000000003</v>
       </c>
@@ -35025,8 +36307,14 @@
       <c r="FG212">
         <v>0.92614399999999997</v>
       </c>
+      <c r="FM212">
+        <v>0.99295479059219305</v>
+      </c>
+      <c r="FN212">
+        <v>0.97104042318463302</v>
+      </c>
     </row>
-    <row r="213" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98601127</v>
       </c>
@@ -35135,8 +36423,14 @@
       <c r="FG213">
         <v>0.91623399999999999</v>
       </c>
+      <c r="FM213">
+        <v>0.98756235837936401</v>
+      </c>
+      <c r="FN213">
+        <v>1.0007920568017801</v>
+      </c>
     </row>
-    <row r="214" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98605670000000001</v>
       </c>
@@ -35245,8 +36539,14 @@
       <c r="FG214">
         <v>0.90340399999999998</v>
       </c>
+      <c r="FM214">
+        <v>0.99039822816848699</v>
+      </c>
+      <c r="FN214">
+        <v>0.99045288676416499</v>
+      </c>
     </row>
-    <row r="215" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98566529999999997</v>
       </c>
@@ -35355,8 +36655,14 @@
       <c r="FG215">
         <v>0.88273800000000002</v>
       </c>
+      <c r="FM215">
+        <v>0.98993378877639704</v>
+      </c>
+      <c r="FN215">
+        <v>0.98091991739979001</v>
+      </c>
     </row>
-    <row r="216" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98518830000000002</v>
       </c>
@@ -35465,8 +36771,14 @@
       <c r="FG216">
         <v>0.88541400000000003</v>
       </c>
+      <c r="FM216">
+        <v>0.98566704988479603</v>
+      </c>
+      <c r="FN216">
+        <v>0.96962603603858399</v>
+      </c>
     </row>
-    <row r="217" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.98497619999999997</v>
       </c>
@@ -35575,8 +36887,14 @@
       <c r="FG217">
         <v>0.86793900000000002</v>
       </c>
+      <c r="FM217">
+        <v>0.98220533132553101</v>
+      </c>
+      <c r="FN217">
+        <v>0.97288619841022805</v>
+      </c>
     </row>
-    <row r="218" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.98432993999999996</v>
       </c>
@@ -35685,8 +37003,14 @@
       <c r="FG218">
         <v>0.83677500000000005</v>
       </c>
+      <c r="FM218">
+        <v>0.98138678073883001</v>
+      </c>
+      <c r="FN218">
+        <v>0.94469746258945897</v>
+      </c>
     </row>
-    <row r="219" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.98297506999999995</v>
       </c>
@@ -35795,8 +37119,14 @@
       <c r="FG219">
         <v>0.82286199999999998</v>
       </c>
+      <c r="FM219">
+        <v>0.97667139768600397</v>
+      </c>
+      <c r="FN219">
+        <v>0.95146530508330696</v>
+      </c>
     </row>
-    <row r="220" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.98185619999999996</v>
       </c>
@@ -35905,8 +37235,14 @@
       <c r="FG220">
         <v>0.82394500000000004</v>
       </c>
+      <c r="FM220">
+        <v>0.97521162033080999</v>
+      </c>
+      <c r="FN220">
+        <v>0.96664875109614901</v>
+      </c>
     </row>
-    <row r="221" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97993699999999995</v>
       </c>
@@ -36015,8 +37351,14 @@
       <c r="FG221">
         <v>0.83386199999999999</v>
       </c>
+      <c r="FM221">
+        <v>0.97642326354980402</v>
+      </c>
+      <c r="FN221">
+        <v>0.98762411247206505</v>
+      </c>
     </row>
-    <row r="222" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.97773109999999996</v>
       </c>
@@ -36125,8 +37467,14 @@
       <c r="FG222">
         <v>0.80188599999999999</v>
       </c>
+      <c r="FM222">
+        <v>0.98268967866897505</v>
+      </c>
+      <c r="FN222">
+        <v>0.96557381686515198</v>
+      </c>
     </row>
-    <row r="223" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97719294000000001</v>
       </c>
@@ -36235,8 +37583,14 @@
       <c r="FG223">
         <v>0.82273600000000002</v>
       </c>
+      <c r="FM223">
+        <v>0.98641669750213601</v>
+      </c>
+      <c r="FN223">
+        <v>0.93987440242143006</v>
+      </c>
     </row>
-    <row r="224" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97773339999999997</v>
       </c>
@@ -36345,8 +37699,14 @@
       <c r="FG224">
         <v>0.79531200000000002</v>
       </c>
+      <c r="FM224">
+        <v>0.98009830713272095</v>
+      </c>
+      <c r="FN224">
+        <v>0.95090662216061705</v>
+      </c>
     </row>
-    <row r="225" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.97787120000000005</v>
       </c>
@@ -36455,8 +37815,14 @@
       <c r="FG225">
         <v>0.79597300000000004</v>
       </c>
+      <c r="FM225">
+        <v>0.97362500429153398</v>
+      </c>
+      <c r="FN225">
+        <v>0.96350881163191904</v>
+      </c>
     </row>
-    <row r="226" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.9758656</v>
       </c>
@@ -36565,8 +37931,14 @@
       <c r="FG226">
         <v>0.78143799999999997</v>
       </c>
+      <c r="FM226">
+        <v>0.97435337305068903</v>
+      </c>
+      <c r="FN226">
+        <v>0.98141495290090797</v>
+      </c>
     </row>
-    <row r="227" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97317940000000003</v>
       </c>
@@ -36675,8 +38047,14 @@
       <c r="FG227">
         <v>0.78781999999999996</v>
       </c>
+      <c r="FM227">
+        <v>0.97833043336868197</v>
+      </c>
+      <c r="FN227">
+        <v>0.97908121410992499</v>
+      </c>
     </row>
-    <row r="228" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97173726999999999</v>
       </c>
@@ -36785,8 +38163,14 @@
       <c r="FG228">
         <v>0.81286599999999998</v>
       </c>
+      <c r="FM228">
+        <v>0.98307061195373502</v>
+      </c>
+      <c r="FN228">
+        <v>0.97590591496704404</v>
+      </c>
     </row>
-    <row r="229" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.9718755</v>
       </c>
@@ -36895,8 +38279,14 @@
       <c r="FG229">
         <v>0.79316500000000001</v>
       </c>
+      <c r="FM229">
+        <v>0.98458713293075495</v>
+      </c>
+      <c r="FN229">
+        <v>0.99136516647336703</v>
+      </c>
     </row>
-    <row r="230" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97275659999999997</v>
       </c>
@@ -37005,8 +38395,14 @@
       <c r="FG230">
         <v>0.81070500000000001</v>
       </c>
+      <c r="FM230">
+        <v>0.98773866891860895</v>
+      </c>
+      <c r="FN230">
+        <v>0.98075726287799503</v>
+      </c>
     </row>
-    <row r="231" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97297889999999998</v>
       </c>
@@ -37115,8 +38511,14 @@
       <c r="FG231">
         <v>0.79704299999999995</v>
       </c>
+      <c r="FM231">
+        <v>0.98830193281173695</v>
+      </c>
+      <c r="FN231">
+        <v>0.96702356368985298</v>
+      </c>
     </row>
-    <row r="232" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.97284649999999995</v>
       </c>
@@ -37225,8 +38627,14 @@
       <c r="FG232">
         <v>0.80391999999999997</v>
       </c>
+      <c r="FM232">
+        <v>0.98576736450195301</v>
+      </c>
+      <c r="FN232">
+        <v>0.94490254872563695</v>
+      </c>
     </row>
-    <row r="233" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97313136</v>
       </c>
@@ -37335,8 +38743,14 @@
       <c r="FG233">
         <v>0.834893</v>
       </c>
+      <c r="FM233">
+        <v>0.98010420799255304</v>
+      </c>
+      <c r="FN233">
+        <v>0.94776668269638698</v>
+      </c>
     </row>
-    <row r="234" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.97397869999999998</v>
       </c>
@@ -37445,8 +38859,14 @@
       <c r="FG234">
         <v>0.83432399999999995</v>
       </c>
+      <c r="FM234">
+        <v>0.97923058271408003</v>
+      </c>
+      <c r="FN234">
+        <v>0.92906141268988096</v>
+      </c>
     </row>
-    <row r="235" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.97337216000000004</v>
       </c>
@@ -37555,8 +38975,14 @@
       <c r="FG235">
         <v>0.81030899999999995</v>
       </c>
+      <c r="FM235">
+        <v>0.97287797927856401</v>
+      </c>
+      <c r="FN235">
+        <v>0.89570309185030095</v>
+      </c>
     </row>
-    <row r="236" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.9720879</v>
       </c>
@@ -37665,8 +39091,14 @@
       <c r="FG236">
         <v>0.81658500000000001</v>
       </c>
+      <c r="FM236">
+        <v>0.96307742595672596</v>
+      </c>
+      <c r="FN236">
+        <v>0.88080959520239799</v>
+      </c>
     </row>
-    <row r="237" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.97014034000000005</v>
       </c>
@@ -37775,8 +39207,14 @@
       <c r="FG237">
         <v>0.81851499999999999</v>
       </c>
+      <c r="FM237">
+        <v>0.95401406288146895</v>
+      </c>
+      <c r="FN237">
+        <v>0.88196939266215901</v>
+      </c>
     </row>
-    <row r="238" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.96636515999999995</v>
       </c>
@@ -37885,8 +39323,14 @@
       <c r="FG238">
         <v>0.79512700000000003</v>
       </c>
+      <c r="FM238">
+        <v>0.94243878126144398</v>
+      </c>
+      <c r="FN238">
+        <v>0.89258436819326104</v>
+      </c>
     </row>
-    <row r="239" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.96120554000000002</v>
       </c>
@@ -37995,8 +39439,14 @@
       <c r="FG239">
         <v>0.77754699999999999</v>
       </c>
+      <c r="FM239">
+        <v>0.93744707107543901</v>
+      </c>
+      <c r="FN239">
+        <v>0.85835619925886097</v>
+      </c>
     </row>
-    <row r="240" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.95493567000000001</v>
       </c>
@@ -38105,8 +39555,14 @@
       <c r="FG240">
         <v>0.77673400000000004</v>
       </c>
+      <c r="FM240">
+        <v>0.93177968263626099</v>
+      </c>
+      <c r="FN240">
+        <v>0.88067522842352397</v>
+      </c>
     </row>
-    <row r="241" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.94963056000000001</v>
       </c>
@@ -38215,8 +39671,14 @@
       <c r="FG241">
         <v>0.77650300000000005</v>
       </c>
+      <c r="FM241">
+        <v>0.93128806352615301</v>
+      </c>
+      <c r="FN241">
+        <v>0.85131962320726395</v>
+      </c>
     </row>
-    <row r="242" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.94228979999999996</v>
       </c>
@@ -38325,8 +39787,14 @@
       <c r="FG242">
         <v>0.76145300000000005</v>
       </c>
+      <c r="FM242">
+        <v>0.92487788200378396</v>
+      </c>
+      <c r="FN242">
+        <v>0.85202681678028802</v>
+      </c>
     </row>
-    <row r="243" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.93428235999999998</v>
       </c>
@@ -38435,8 +39903,14 @@
       <c r="FG243">
         <v>0.78503900000000004</v>
       </c>
+      <c r="FM243">
+        <v>0.92053675651550204</v>
+      </c>
+      <c r="FN243">
+        <v>0.83646855817374299</v>
+      </c>
     </row>
-    <row r="244" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.92244440000000005</v>
       </c>
@@ -38545,8 +40019,14 @@
       <c r="FG244">
         <v>0.80538699999999996</v>
       </c>
+      <c r="FM244">
+        <v>0.913582503795623</v>
+      </c>
+      <c r="FN244">
+        <v>0.84330004808916204</v>
+      </c>
     </row>
-    <row r="245" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.90962129999999997</v>
       </c>
@@ -38655,8 +40135,14 @@
       <c r="FG245">
         <v>0.82602600000000004</v>
       </c>
+      <c r="FM245">
+        <v>0.90646296739578203</v>
+      </c>
+      <c r="FN245">
+        <v>0.87010975644253297</v>
+      </c>
     </row>
-    <row r="246" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.89433295000000002</v>
       </c>
@@ -38765,8 +40251,14 @@
       <c r="FG246">
         <v>0.82008700000000001</v>
       </c>
+      <c r="FM246">
+        <v>0.90529644489288297</v>
+      </c>
+      <c r="FN246">
+        <v>0.84902124409493296</v>
+      </c>
     </row>
-    <row r="247" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87948110000000002</v>
       </c>
@@ -38875,8 +40367,14 @@
       <c r="FG247">
         <v>0.82005399999999995</v>
       </c>
+      <c r="FM247">
+        <v>0.90606731176376298</v>
+      </c>
+      <c r="FN247">
+        <v>0.86779723345874205</v>
+      </c>
     </row>
-    <row r="248" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.86989700000000003</v>
       </c>
@@ -38985,8 +40483,14 @@
       <c r="FG248">
         <v>0.838368</v>
       </c>
+      <c r="FM248">
+        <v>0.921983242034912</v>
+      </c>
+      <c r="FN248">
+        <v>0.85317247036858901</v>
+      </c>
     </row>
-    <row r="249" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.8644366</v>
       </c>
@@ -39095,8 +40599,14 @@
       <c r="FG249">
         <v>0.82235999999999998</v>
       </c>
+      <c r="FM249">
+        <v>0.92834097146987904</v>
+      </c>
+      <c r="FN249">
+        <v>0.86053435546377699</v>
+      </c>
     </row>
-    <row r="250" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.86798613999999996</v>
       </c>
@@ -39205,8 +40715,14 @@
       <c r="FG250">
         <v>0.82799500000000004</v>
       </c>
+      <c r="FM250">
+        <v>0.92605626583099299</v>
+      </c>
+      <c r="FN250">
+        <v>0.89368759016718002</v>
+      </c>
     </row>
-    <row r="251" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.87286010000000003</v>
       </c>
@@ -39315,8 +40831,14 @@
       <c r="FG251">
         <v>0.84246399999999999</v>
       </c>
+      <c r="FM251">
+        <v>0.92753809690475397</v>
+      </c>
+      <c r="FN251">
+        <v>0.89307940369437899</v>
+      </c>
     </row>
-    <row r="252" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.87586359999999996</v>
       </c>
@@ -39425,8 +40947,14 @@
       <c r="FG252">
         <v>0.84005200000000002</v>
       </c>
+      <c r="FM252">
+        <v>0.93204766511917103</v>
+      </c>
+      <c r="FN252">
+        <v>0.86737291731492705</v>
+      </c>
     </row>
-    <row r="253" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.88215639999999995</v>
       </c>
@@ -39535,8 +41063,14 @@
       <c r="FG253">
         <v>0.82960100000000003</v>
       </c>
+      <c r="FM253">
+        <v>0.93152332305908203</v>
+      </c>
+      <c r="FN253">
+        <v>0.87409125625866202</v>
+      </c>
     </row>
-    <row r="254" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.89292145000000001</v>
       </c>
@@ -39645,8 +41179,14 @@
       <c r="FG254">
         <v>0.86007100000000003</v>
       </c>
+      <c r="FM254">
+        <v>0.92843663692474299</v>
+      </c>
+      <c r="FN254">
+        <v>0.87615626149189496</v>
+      </c>
     </row>
-    <row r="255" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.89778703000000004</v>
       </c>
@@ -39755,8 +41295,14 @@
       <c r="FG255">
         <v>0.86542200000000002</v>
       </c>
+      <c r="FM255">
+        <v>0.92861670255661</v>
+      </c>
+      <c r="FN255">
+        <v>0.85112160900681699</v>
+      </c>
     </row>
-    <row r="256" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89979105999999998</v>
       </c>
@@ -39865,8 +41411,14 @@
       <c r="FG256">
         <v>0.87001399999999995</v>
       </c>
+      <c r="FM256">
+        <v>0.926380515098571</v>
+      </c>
+      <c r="FN256">
+        <v>0.83230318802862702</v>
+      </c>
     </row>
-    <row r="257" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.90518330000000002</v>
       </c>
@@ -39975,8 +41527,14 @@
       <c r="FG257">
         <v>0.87436700000000001</v>
       </c>
+      <c r="FM257">
+        <v>0.92067325115203802</v>
+      </c>
+      <c r="FN257">
+        <v>0.83143333993380597</v>
+      </c>
     </row>
-    <row r="258" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.9069429</v>
       </c>
@@ -40085,8 +41643,14 @@
       <c r="FG258">
         <v>0.87553700000000001</v>
       </c>
+      <c r="FM258">
+        <v>0.913135826587677</v>
+      </c>
+      <c r="FN258">
+        <v>0.83118582218324699</v>
+      </c>
     </row>
-    <row r="259" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.90196759999999998</v>
       </c>
@@ -40195,8 +41759,14 @@
       <c r="FG259">
         <v>0.86067199999999999</v>
       </c>
+      <c r="FM259">
+        <v>0.90764647722244196</v>
+      </c>
+      <c r="FN259">
+        <v>0.81507595258974197</v>
+      </c>
     </row>
-    <row r="260" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.89463972999999997</v>
       </c>
@@ -40305,8 +41875,14 @@
       <c r="FG260">
         <v>0.86727799999999999</v>
       </c>
+      <c r="FM260">
+        <v>0.90328872203826904</v>
+      </c>
+      <c r="FN260">
+        <v>0.84032276314672805</v>
+      </c>
     </row>
-    <row r="261" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.89197749999999998</v>
       </c>
@@ -40415,8 +41991,14 @@
       <c r="FG261">
         <v>0.867483</v>
       </c>
+      <c r="FM261">
+        <v>0.90615379810333196</v>
+      </c>
+      <c r="FN261">
+        <v>0.86210432519589197</v>
+      </c>
     </row>
-    <row r="262" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.88822409999999996</v>
       </c>
@@ -40525,8 +42107,14 @@
       <c r="FG262">
         <v>0.88903399999999999</v>
       </c>
+      <c r="FM262">
+        <v>0.91311538219451904</v>
+      </c>
+      <c r="FN262">
+        <v>0.88419705241718705</v>
+      </c>
     </row>
-    <row r="263" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.89092505</v>
       </c>
@@ -40635,8 +42223,14 @@
       <c r="FG263">
         <v>0.88734999999999997</v>
       </c>
+      <c r="FM263">
+        <v>0.91954547166824296</v>
+      </c>
+      <c r="FN263">
+        <v>0.87783938219569402</v>
+      </c>
     </row>
-    <row r="264" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.90219819999999995</v>
       </c>
@@ -40745,8 +42339,14 @@
       <c r="FG264">
         <v>0.88489799999999996</v>
       </c>
+      <c r="FM264">
+        <v>0.92337125539779596</v>
+      </c>
+      <c r="FN264">
+        <v>0.87780402251704304</v>
+      </c>
     </row>
-    <row r="265" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.91393124999999997</v>
       </c>
@@ -40855,8 +42455,14 @@
       <c r="FG265">
         <v>0.89235699999999996</v>
       </c>
+      <c r="FM265">
+        <v>0.92264533042907704</v>
+      </c>
+      <c r="FN265">
+        <v>0.89740742836129095</v>
+      </c>
     </row>
-    <row r="266" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.92070680000000005</v>
       </c>
@@ -40965,8 +42571,14 @@
       <c r="FG266">
         <v>0.90119099999999996</v>
       </c>
+      <c r="FM266">
+        <v>0.92996680736541704</v>
+      </c>
+      <c r="FN266">
+        <v>0.88027212808689903</v>
+      </c>
     </row>
-    <row r="267" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.92520279999999999</v>
       </c>
@@ -41075,8 +42687,14 @@
       <c r="FG267">
         <v>0.90712999999999999</v>
       </c>
+      <c r="FM267">
+        <v>0.93391144275665205</v>
+      </c>
+      <c r="FN267">
+        <v>0.88630448926480099</v>
+      </c>
     </row>
-    <row r="268" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.93181879999999995</v>
       </c>
@@ -41185,8 +42803,14 @@
       <c r="FG268">
         <v>0.90846400000000005</v>
       </c>
+      <c r="FM268">
+        <v>0.93668681383132901</v>
+      </c>
+      <c r="FN268">
+        <v>0.90179202851404405</v>
+      </c>
     </row>
-    <row r="269" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.93664895999999997</v>
       </c>
@@ -41295,8 +42919,14 @@
       <c r="FG269">
         <v>0.90727500000000005</v>
       </c>
+      <c r="FM269">
+        <v>0.93945562839508001</v>
+      </c>
+      <c r="FN269">
+        <v>0.89921077197250399</v>
+      </c>
     </row>
-    <row r="270" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.94140214</v>
       </c>
@@ -41405,8 +43035,14 @@
       <c r="FG270">
         <v>0.89862699999999995</v>
       </c>
+      <c r="FM270">
+        <v>0.93589049577713002</v>
+      </c>
+      <c r="FN270">
+        <v>0.88802296964725103</v>
+      </c>
     </row>
-    <row r="271" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.94735837000000001</v>
       </c>
@@ -41515,8 +43151,14 @@
       <c r="FG271">
         <v>0.89811799999999997</v>
       </c>
+      <c r="FM271">
+        <v>0.93355047702789296</v>
+      </c>
+      <c r="FN271">
+        <v>0.92063873723515499</v>
+      </c>
     </row>
-    <row r="272" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.95195174000000005</v>
       </c>
@@ -41625,8 +43267,14 @@
       <c r="FG272">
         <v>0.89885199999999998</v>
       </c>
+      <c r="FM272">
+        <v>0.93486046791076605</v>
+      </c>
+      <c r="FN272">
+        <v>0.92636700517665604</v>
+      </c>
     </row>
-    <row r="273" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.95576954000000003</v>
       </c>
@@ -41735,8 +43383,14 @@
       <c r="FG273">
         <v>0.910717</v>
       </c>
+      <c r="FM273">
+        <v>0.94102776050567605</v>
+      </c>
+      <c r="FN273">
+        <v>0.93128200050917898</v>
+      </c>
     </row>
-    <row r="274" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96027689999999999</v>
       </c>
@@ -41845,8 +43499,14 @@
       <c r="FG274">
         <v>0.91662399999999999</v>
       </c>
+      <c r="FM274">
+        <v>0.94581592082977295</v>
+      </c>
+      <c r="FN274">
+        <v>0.93594240615541202</v>
+      </c>
     </row>
-    <row r="275" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.96422905000000003</v>
       </c>
@@ -41955,8 +43615,14 @@
       <c r="FG275">
         <v>0.91384200000000004</v>
       </c>
+      <c r="FM275">
+        <v>0.94302213191985995</v>
+      </c>
+      <c r="FN275">
+        <v>0.93719413877966595</v>
+      </c>
     </row>
-    <row r="276" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.96671706000000002</v>
       </c>
@@ -42065,8 +43731,14 @@
       <c r="FG276">
         <v>0.92245699999999997</v>
       </c>
+      <c r="FM276">
+        <v>0.94173675775527899</v>
+      </c>
+      <c r="FN276">
+        <v>0.921282283386608</v>
+      </c>
     </row>
-    <row r="277" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.96816409999999997</v>
       </c>
@@ -42175,8 +43847,14 @@
       <c r="FG277">
         <v>0.91806399999999999</v>
       </c>
+      <c r="FM277">
+        <v>0.94256001710891701</v>
+      </c>
+      <c r="FN277">
+        <v>0.92835421911685601</v>
+      </c>
     </row>
-    <row r="278" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.96929679999999996</v>
       </c>
@@ -42285,8 +43963,14 @@
       <c r="FG278">
         <v>0.90421600000000002</v>
       </c>
+      <c r="FM278">
+        <v>0.94502049684524503</v>
+      </c>
+      <c r="FN278">
+        <v>0.92857344912449402</v>
+      </c>
     </row>
-    <row r="279" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.9700704</v>
       </c>
@@ -42395,8 +44079,14 @@
       <c r="FG279">
         <v>0.91841399999999995</v>
       </c>
+      <c r="FM279">
+        <v>0.94562083482742298</v>
+      </c>
+      <c r="FN279">
+        <v>0.95164210347656297</v>
+      </c>
     </row>
-    <row r="280" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97097354999999996</v>
       </c>
@@ -42505,8 +44195,14 @@
       <c r="FG280">
         <v>0.90206299999999995</v>
       </c>
+      <c r="FM280">
+        <v>0.95265722274780196</v>
+      </c>
+      <c r="FN280">
+        <v>0.94983875986535005</v>
+      </c>
     </row>
-    <row r="281" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97236250000000002</v>
       </c>
@@ -42615,8 +44311,14 @@
       <c r="FG281">
         <v>0.90582200000000002</v>
       </c>
+      <c r="FM281">
+        <v>0.96001398563384999</v>
+      </c>
+      <c r="FN281">
+        <v>0.94721507170942798</v>
+      </c>
     </row>
-    <row r="282" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97372190000000003</v>
       </c>
@@ -42725,8 +44427,14 @@
       <c r="FG282">
         <v>0.902115</v>
       </c>
+      <c r="FM282">
+        <v>0.96291357278823797</v>
+      </c>
+      <c r="FN282">
+        <v>0.95519928714887803</v>
+      </c>
     </row>
-    <row r="283" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.97404086999999995</v>
       </c>
@@ -42835,8 +44543,14 @@
       <c r="FG283">
         <v>0.91515000000000002</v>
       </c>
+      <c r="FM283">
+        <v>0.96609419584274203</v>
+      </c>
+      <c r="FN283">
+        <v>0.96465446522022003</v>
+      </c>
     </row>
-    <row r="284" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97437090000000004</v>
       </c>
@@ -42945,8 +44659,14 @@
       <c r="FG284">
         <v>0.92882600000000004</v>
       </c>
+      <c r="FM284">
+        <v>0.97266161441802901</v>
+      </c>
+      <c r="FN284">
+        <v>0.97101213544171205</v>
+      </c>
     </row>
-    <row r="285" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97535263999999999</v>
       </c>
@@ -43055,8 +44775,14 @@
       <c r="FG285">
         <v>0.929064</v>
       </c>
+      <c r="FM285">
+        <v>0.97926342487335205</v>
+      </c>
+      <c r="FN285">
+        <v>0.972440666459223</v>
+      </c>
     </row>
-    <row r="286" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97585449999999996</v>
       </c>
@@ -43165,8 +44891,14 @@
       <c r="FG286">
         <v>0.92771000000000003</v>
       </c>
+      <c r="FM286">
+        <v>0.98074060678482</v>
+      </c>
+      <c r="FN286">
+        <v>0.97116771802777802</v>
+      </c>
     </row>
-    <row r="287" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.9758175</v>
       </c>
@@ -43275,8 +45007,14 @@
       <c r="FG287">
         <v>0.93670100000000001</v>
       </c>
+      <c r="FM287">
+        <v>0.97905695438384999</v>
+      </c>
+      <c r="FN287">
+        <v>0.96191055415688298</v>
+      </c>
     </row>
-    <row r="288" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97472689999999995</v>
       </c>
@@ -43385,8 +45123,14 @@
       <c r="FG288">
         <v>0.94096900000000006</v>
       </c>
+      <c r="FM288">
+        <v>0.97929072380065896</v>
+      </c>
+      <c r="FN288">
+        <v>0.961366015105654</v>
+      </c>
     </row>
-    <row r="289" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97435210000000005</v>
       </c>
@@ -43495,8 +45239,14 @@
       <c r="FG289">
         <v>0.94202600000000003</v>
       </c>
+      <c r="FM289">
+        <v>0.98122292757034302</v>
+      </c>
+      <c r="FN289">
+        <v>0.96215099997171205</v>
+      </c>
     </row>
-    <row r="290" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97502480000000002</v>
       </c>
@@ -43605,8 +45355,14 @@
       <c r="FG290">
         <v>0.93481199999999998</v>
       </c>
+      <c r="FM290">
+        <v>0.97994738817214899</v>
+      </c>
+      <c r="FN290">
+        <v>0.97485219654323796</v>
+      </c>
     </row>
-    <row r="291" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97573244999999997</v>
       </c>
@@ -43715,8 +45471,14 @@
       <c r="FG291">
         <v>0.93487799999999999</v>
       </c>
+      <c r="FM291">
+        <v>0.98306763172149603</v>
+      </c>
+      <c r="FN291">
+        <v>0.98117450708607901</v>
+      </c>
     </row>
-    <row r="292" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97630053999999999</v>
       </c>
@@ -43825,8 +45587,14 @@
       <c r="FG292">
         <v>0.93237400000000004</v>
       </c>
+      <c r="FM292">
+        <v>0.98597323894500699</v>
+      </c>
+      <c r="FN292">
+        <v>0.97819722214364402</v>
+      </c>
     </row>
-    <row r="293" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97684835999999997</v>
       </c>
@@ -43935,8 +45703,14 @@
       <c r="FG293">
         <v>0.93495700000000004</v>
       </c>
+      <c r="FM293">
+        <v>0.984460890293121</v>
+      </c>
+      <c r="FN293">
+        <v>0.98741902633588796</v>
+      </c>
     </row>
-    <row r="294" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97703636000000005</v>
       </c>
@@ -44045,8 +45819,14 @@
       <c r="FG294">
         <v>0.93723699999999999</v>
       </c>
+      <c r="FM294">
+        <v>0.98628503084182695</v>
+      </c>
+      <c r="FN294">
+        <v>0.98271618907527303</v>
+      </c>
     </row>
-    <row r="295" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97686580000000001</v>
       </c>
@@ -44155,8 +45935,14 @@
       <c r="FG295">
         <v>0.92445900000000003</v>
       </c>
+      <c r="FM295">
+        <v>0.98932486772537198</v>
+      </c>
+      <c r="FN295">
+        <v>0.96789341178467303</v>
+      </c>
     </row>
-    <row r="296" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97698795999999999</v>
       </c>
@@ -44265,8 +46051,14 @@
       <c r="FG296">
         <v>0.917516</v>
       </c>
+      <c r="FM296">
+        <v>0.98534697294235196</v>
+      </c>
+      <c r="FN296">
+        <v>0.98309100166897601</v>
+      </c>
     </row>
-    <row r="297" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.97700050000000005</v>
       </c>
@@ -44375,8 +46167,14 @@
       <c r="FG297">
         <v>0.928172</v>
       </c>
+      <c r="FM297">
+        <v>0.98343253135681097</v>
+      </c>
+      <c r="FN297">
+        <v>0.96558796073661202</v>
+      </c>
     </row>
-    <row r="298" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.97664399999999996</v>
       </c>
@@ -44485,8 +46283,14 @@
       <c r="FG298">
         <v>0.91624099999999997</v>
       </c>
+      <c r="FM298">
+        <v>0.98067808151245095</v>
+      </c>
+      <c r="FN298">
+        <v>0.96961189216712296</v>
+      </c>
     </row>
-    <row r="299" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.97655619999999999</v>
       </c>
@@ -44595,8 +46399,14 @@
       <c r="FG299">
         <v>0.90814700000000004</v>
       </c>
+      <c r="FM299">
+        <v>0.97909921407699496</v>
+      </c>
+      <c r="FN299">
+        <v>0.96564453622245405</v>
+      </c>
     </row>
-    <row r="300" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.97605410000000004</v>
       </c>
@@ -44705,8 +46515,14 @@
       <c r="FG300">
         <v>0.90782399999999996</v>
       </c>
+      <c r="FM300">
+        <v>0.97701615095138505</v>
+      </c>
+      <c r="FN300">
+        <v>0.979597465418234</v>
+      </c>
     </row>
-    <row r="301" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.97562736000000005</v>
       </c>
@@ -44815,8 +46631,14 @@
       <c r="FG301">
         <v>0.91212499999999996</v>
       </c>
+      <c r="FM301">
+        <v>0.98103708028793302</v>
+      </c>
+      <c r="FN301">
+        <v>0.99423637237984697</v>
+      </c>
     </row>
-    <row r="302" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.97557896</v>
       </c>
@@ -44925,8 +46747,14 @@
       <c r="FG302">
         <v>0.91314899999999999</v>
       </c>
+      <c r="FM302">
+        <v>0.98596215248107899</v>
+      </c>
+      <c r="FN302">
+        <v>0.99449096206613596</v>
+      </c>
     </row>
-    <row r="303" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.97580385000000003</v>
       </c>
@@ -45035,8 +46863,14 @@
       <c r="FG303">
         <v>0.93012799999999995</v>
       </c>
+      <c r="FM303">
+        <v>0.98886954784393299</v>
+      </c>
+      <c r="FN303">
+        <v>0.99304121524143496</v>
+      </c>
     </row>
-    <row r="304" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.97629889999999997</v>
       </c>
@@ -45145,8 +46979,14 @@
       <c r="FG304">
         <v>0.91696100000000003</v>
       </c>
+      <c r="FM304">
+        <v>0.986980020999908</v>
+      </c>
+      <c r="FN304">
+        <v>1.0026661197703</v>
+      </c>
     </row>
-    <row r="305" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.97639699999999996</v>
       </c>
@@ -45255,8 +47095,14 @@
       <c r="FG305">
         <v>0.91672900000000002</v>
       </c>
+      <c r="FM305">
+        <v>0.98869770765304499</v>
+      </c>
+      <c r="FN305">
+        <v>1.0072345902520401</v>
+      </c>
     </row>
-    <row r="306" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.97631769999999996</v>
       </c>
@@ -45365,8 +47211,14 @@
       <c r="FG306">
         <v>0.90516799999999997</v>
       </c>
+      <c r="FM306">
+        <v>0.99326419830322199</v>
+      </c>
+      <c r="FN306">
+        <v>1.0083660999688799</v>
+      </c>
     </row>
-    <row r="307" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.97649870000000005</v>
       </c>
@@ -45475,8 +47327,14 @@
       <c r="FG307">
         <v>0.91841399999999995</v>
       </c>
+      <c r="FM307">
+        <v>0.99606484174728305</v>
+      </c>
+      <c r="FN307">
+        <v>1.00064354615145</v>
+      </c>
     </row>
-    <row r="308" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.97667420000000005</v>
       </c>
@@ -45585,8 +47443,14 @@
       <c r="FG308">
         <v>0.90556400000000004</v>
       </c>
+      <c r="FM308">
+        <v>0.99453699588775601</v>
+      </c>
+      <c r="FN308">
+        <v>1.00071426550875</v>
+      </c>
     </row>
-    <row r="309" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.97665659999999999</v>
       </c>
@@ -45695,8 +47559,14 @@
       <c r="FG309">
         <v>0.90584200000000004</v>
       </c>
+      <c r="FM309">
+        <v>0.98866814374923695</v>
+      </c>
+      <c r="FN309">
+        <v>0.99803400186698998</v>
+      </c>
     </row>
-    <row r="310" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.97653455</v>
       </c>
@@ -45805,8 +47675,14 @@
       <c r="FG310">
         <v>0.90082700000000004</v>
       </c>
+      <c r="FM310">
+        <v>0.985454320907592</v>
+      </c>
+      <c r="FN310">
+        <v>1.00079912873751</v>
+      </c>
     </row>
-    <row r="311" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.97648729999999995</v>
       </c>
@@ -45915,8 +47791,14 @@
       <c r="FG311">
         <v>0.90893999999999997</v>
       </c>
+      <c r="FM311">
+        <v>0.98654848337173395</v>
+      </c>
+      <c r="FN311">
+        <v>1.00323894656445</v>
+      </c>
     </row>
-    <row r="312" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.97666350000000002</v>
       </c>
@@ -46025,8 +47907,14 @@
       <c r="FG312">
         <v>0.90611200000000003</v>
       </c>
+      <c r="FM312">
+        <v>0.99130320549011197</v>
+      </c>
+      <c r="FN312">
+        <v>0.989561822862153</v>
+      </c>
     </row>
-    <row r="313" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.97705774999999995</v>
       </c>
@@ -46135,8 +48023,14 @@
       <c r="FG313">
         <v>0.924624</v>
       </c>
+      <c r="FM313">
+        <v>0.99142426252365101</v>
+      </c>
+      <c r="FN313">
+        <v>0.98212921840966305</v>
+      </c>
     </row>
-    <row r="314" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.97749949999999997</v>
       </c>
@@ -46245,8 +48139,14 @@
       <c r="FG314">
         <v>0.93419099999999999</v>
       </c>
+      <c r="FM314">
+        <v>0.98801922798156705</v>
+      </c>
+      <c r="FN314">
+        <v>0.99353625074255203</v>
+      </c>
     </row>
-    <row r="315" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.97729239999999995</v>
       </c>
@@ -46355,8 +48255,14 @@
       <c r="FG315">
         <v>0.93389999999999995</v>
       </c>
+      <c r="FM315">
+        <v>0.98612147569656305</v>
+      </c>
+      <c r="FN315">
+        <v>0.98076433481372405</v>
+      </c>
     </row>
-    <row r="316" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.97550930000000002</v>
       </c>
@@ -46465,8 +48371,14 @@
       <c r="FG316">
         <v>0.93981999999999999</v>
       </c>
+      <c r="FM316">
+        <v>0.98279702663421598</v>
+      </c>
+      <c r="FN316">
+        <v>0.97210121354417101</v>
+      </c>
     </row>
-    <row r="317" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.97413653</v>
       </c>
@@ -46575,8 +48487,14 @@
       <c r="FG317">
         <v>0.93843200000000004</v>
       </c>
+      <c r="FM317">
+        <v>0.97996556758880604</v>
+      </c>
+      <c r="FN317">
+        <v>0.97175468869338899</v>
+      </c>
     </row>
-    <row r="318" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.97274530000000003</v>
       </c>
@@ -46685,8 +48603,14 @@
       <c r="FG318">
         <v>0.939998</v>
       </c>
+      <c r="FM318">
+        <v>0.97678846120834295</v>
+      </c>
+      <c r="FN318">
+        <v>0.97635851885378</v>
+      </c>
     </row>
-    <row r="319" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.97043495999999996</v>
       </c>
@@ -46795,8 +48719,14 @@
       <c r="FG319">
         <v>0.94391599999999998</v>
       </c>
+      <c r="FM319">
+        <v>0.97869765758514404</v>
+      </c>
+      <c r="FN319">
+        <v>0.97745466889196897</v>
+      </c>
     </row>
-    <row r="320" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.96884899999999996</v>
       </c>
@@ -46905,8 +48835,14 @@
       <c r="FG320">
         <v>0.93986599999999998</v>
       </c>
+      <c r="FM320">
+        <v>0.98414880037307695</v>
+      </c>
+      <c r="FN320">
+        <v>0.99562954371870604</v>
+      </c>
     </row>
-    <row r="321" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.96835726</v>
       </c>
@@ -47015,8 +48951,14 @@
       <c r="FG321">
         <v>0.946658</v>
       </c>
+      <c r="FM321">
+        <v>0.988089859485626</v>
+      </c>
+      <c r="FN321">
+        <v>0.98153517580832195</v>
+      </c>
     </row>
-    <row r="322" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.96878850000000005</v>
       </c>
@@ -47125,8 +49067,14 @@
       <c r="FG322">
         <v>0.94845500000000005</v>
       </c>
+      <c r="FM322">
+        <v>0.98895454406738204</v>
+      </c>
+      <c r="FN322">
+        <v>0.98128765805776297</v>
+      </c>
     </row>
-    <row r="323" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.96974444000000004</v>
       </c>
@@ -47235,8 +49183,14 @@
       <c r="FG323">
         <v>0.95307299999999995</v>
       </c>
+      <c r="FM323">
+        <v>0.988403260707855</v>
+      </c>
+      <c r="FN323">
+        <v>0.96891177052982902</v>
+      </c>
     </row>
-    <row r="324" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.96988445999999995</v>
       </c>
@@ -47345,8 +49299,14 @@
       <c r="FG324">
         <v>0.95066799999999996</v>
       </c>
+      <c r="FM324">
+        <v>0.98741596937179499</v>
+      </c>
+      <c r="FN324">
+        <v>0.98309100166897601</v>
+      </c>
     </row>
-    <row r="325" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.96913755000000001</v>
       </c>
@@ -47455,8 +49415,14 @@
       <c r="FG325">
         <v>0.93784400000000001</v>
       </c>
+      <c r="FM325">
+        <v>0.98799759149551303</v>
+      </c>
+      <c r="FN325">
+        <v>0.96933608667364402</v>
+      </c>
     </row>
-    <row r="326" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.96801804999999996</v>
       </c>
@@ -47565,8 +49531,14 @@
       <c r="FG326">
         <v>0.92660600000000004</v>
       </c>
+      <c r="FM326">
+        <v>0.98394900560378995</v>
+      </c>
+      <c r="FN326">
+        <v>0.96963310797431401</v>
+      </c>
     </row>
-    <row r="327" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.96810819999999997</v>
       </c>
@@ -47675,8 +49647,14 @@
       <c r="FG327">
         <v>0.92413599999999996</v>
       </c>
+      <c r="FM327">
+        <v>0.98163342475891102</v>
+      </c>
+      <c r="FN327">
+        <v>0.96426550875505601</v>
+      </c>
     </row>
-    <row r="328" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.96792023999999999</v>
       </c>
@@ -47785,8 +49763,14 @@
       <c r="FG328">
         <v>0.92161199999999999</v>
       </c>
+      <c r="FM328">
+        <v>0.98183488845825195</v>
+      </c>
+      <c r="FN328">
+        <v>0.972949845831801</v>
+      </c>
     </row>
-    <row r="329" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.96698810000000002</v>
       </c>
@@ -47895,8 +49879,14 @@
       <c r="FG329">
         <v>0.92589900000000003</v>
       </c>
+      <c r="FM329">
+        <v>0.98299878835678101</v>
+      </c>
+      <c r="FN329">
+        <v>0.96992305733925399</v>
+      </c>
     </row>
-    <row r="330" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.96567879999999995</v>
       </c>
@@ -48005,8 +49995,14 @@
       <c r="FG330">
         <v>0.921427</v>
       </c>
+      <c r="FM330">
+        <v>0.98136091232299805</v>
+      </c>
+      <c r="FN330">
+        <v>0.98973862125540901</v>
+      </c>
     </row>
-    <row r="331" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.96592359999999999</v>
       </c>
@@ -48115,8 +50111,14 @@
       <c r="FG331">
         <v>0.92937499999999995</v>
       </c>
+      <c r="FM331">
+        <v>0.98275005817413297</v>
+      </c>
+      <c r="FN331">
+        <v>0.99997878419280894</v>
+      </c>
     </row>
-    <row r="332" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.96687173999999998</v>
       </c>
@@ -48225,8 +50227,14 @@
       <c r="FG332">
         <v>0.93310700000000002</v>
       </c>
+      <c r="FM332">
+        <v>0.98946404457092196</v>
+      </c>
+      <c r="FN332">
+        <v>0.99966761902067802</v>
+      </c>
     </row>
-    <row r="333" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.96827202999999995</v>
       </c>
@@ -48335,8 +50343,14 @@
       <c r="FG333">
         <v>0.93082799999999999</v>
       </c>
+      <c r="FM333">
+        <v>0.99428421258926303</v>
+      </c>
+      <c r="FN333">
+        <v>1.00600407343498</v>
+      </c>
     </row>
-    <row r="334" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.969808</v>
       </c>
@@ -48445,8 +50459,14 @@
       <c r="FG334">
         <v>0.949241</v>
       </c>
+      <c r="FM334">
+        <v>0.99934625625610296</v>
+      </c>
+      <c r="FN334">
+        <v>1.0045189669316199</v>
+      </c>
     </row>
-    <row r="335" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.97052349999999998</v>
       </c>
@@ -48555,8 +50575,14 @@
       <c r="FG335">
         <v>0.89908999999999994</v>
       </c>
+      <c r="FM335">
+        <v>1.0011018514633101</v>
+      </c>
+      <c r="FN335">
+        <v>1.0061950156996899</v>
+      </c>
     </row>
-    <row r="336" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.97123139999999997</v>
       </c>
@@ -48665,8 +50691,14 @@
       <c r="FG336">
         <v>0.87473100000000004</v>
       </c>
+      <c r="FM336">
+        <v>1.0024670362472501</v>
+      </c>
+      <c r="FN336">
+        <v>1.0103886735877301</v>
+      </c>
     </row>
-    <row r="337" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.97233550000000002</v>
       </c>
@@ -48775,8 +50807,14 @@
       <c r="FG337">
         <v>0.89821799999999996</v>
       </c>
+      <c r="FM337">
+        <v>1.0069278478622401</v>
+      </c>
+      <c r="FN337">
+        <v>1.00605357698509</v>
+      </c>
     </row>
-    <row r="338" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.97333395</v>
       </c>
@@ -48885,8 +50923,14 @@
       <c r="FG338">
         <v>0.92112899999999998</v>
       </c>
+      <c r="FM338">
+        <v>1.0107477903366</v>
+      </c>
+      <c r="FN338">
+        <v>1.0133235269157801</v>
+      </c>
     </row>
-    <row r="339" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.97426729999999995</v>
       </c>
@@ -48995,8 +51039,14 @@
       <c r="FG339">
         <v>0.93968799999999997</v>
       </c>
+      <c r="FM339">
+        <v>1.0123667716979901</v>
+      </c>
+      <c r="FN339">
+        <v>1.01524709343441</v>
+      </c>
     </row>
-    <row r="340" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.97498339999999994</v>
       </c>
@@ -49105,8 +51155,14 @@
       <c r="FG340">
         <v>0.94238999999999995</v>
       </c>
+      <c r="FM340">
+        <v>1.0152008533477701</v>
+      </c>
+      <c r="FN340">
+        <v>1.0201903765098499</v>
+      </c>
     </row>
-    <row r="341" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.97546659999999996</v>
       </c>
@@ -49215,8 +51271,14 @@
       <c r="FG341">
         <v>0.93287600000000004</v>
       </c>
+      <c r="FM341">
+        <v>1.0203006267547601</v>
+      </c>
+      <c r="FN341">
+        <v>1.0176161919040401</v>
+      </c>
     </row>
-    <row r="342" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.97600319999999996</v>
       </c>
@@ -49325,8 +51387,14 @@
       <c r="FG342">
         <v>0.94026200000000004</v>
       </c>
+      <c r="FM342">
+        <v>1.02348804473876</v>
+      </c>
+      <c r="FN342">
+        <v>1.0038895646516299</v>
+      </c>
     </row>
-    <row r="343" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.97668529999999998</v>
       </c>
@@ -49435,8 +51503,14 @@
       <c r="FG343">
         <v>0.93905300000000003</v>
       </c>
+      <c r="FM343">
+        <v>1.02160167694091</v>
+      </c>
+      <c r="FN343">
+        <v>0.99186020197448399</v>
+      </c>
     </row>
-    <row r="344" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.97734670000000001</v>
       </c>
@@ -49545,8 +51619,14 @@
       <c r="FG344">
         <v>0.96019500000000002</v>
       </c>
+      <c r="FM344">
+        <v>1.0175365209579399</v>
+      </c>
+      <c r="FN344">
+        <v>0.98921529801137098</v>
+      </c>
     </row>
-    <row r="345" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.97774079999999997</v>
       </c>
@@ -49655,8 +51735,14 @@
       <c r="FG345">
         <v>0.96499100000000004</v>
       </c>
+      <c r="FM345">
+        <v>1.0128868818282999</v>
+      </c>
+      <c r="FN345">
+        <v>0.98651381856241604</v>
+      </c>
     </row>
-    <row r="346" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.9775104</v>
       </c>
@@ -49765,8 +51851,14 @@
       <c r="FG346">
         <v>0.97488799999999998</v>
       </c>
+      <c r="FM346">
+        <v>1.0118700265884399</v>
+      </c>
+      <c r="FN346">
+        <v>0.99110350485134702</v>
+      </c>
     </row>
-    <row r="347" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.97654885000000002</v>
       </c>
@@ -49875,8 +51967,14 @@
       <c r="FG347">
         <v>0.97507999999999995</v>
       </c>
+      <c r="FM347">
+        <v>1.01309597492218</v>
+      </c>
+      <c r="FN347">
+        <v>0.98631580436196897</v>
+      </c>
     </row>
-    <row r="348" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.97579895999999999</v>
       </c>
@@ -49985,8 +52083,14 @@
       <c r="FG348">
         <v>0.98255800000000004</v>
       </c>
+      <c r="FM348">
+        <v>1.01222419738769</v>
+      </c>
+      <c r="FN348">
+        <v>0.99482334304545805</v>
+      </c>
     </row>
-    <row r="349" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.97529434999999998</v>
       </c>
@@ -50095,8 +52199,14 @@
       <c r="FG349">
         <v>0.98123000000000005</v>
       </c>
+      <c r="FM349">
+        <v>1.0098085403442301</v>
+      </c>
+      <c r="FN349">
+        <v>0.99881898673304803</v>
+      </c>
     </row>
-    <row r="350" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.97480935000000002</v>
       </c>
@@ -50205,8 +52315,14 @@
       <c r="FG350">
         <v>0.98463299999999998</v>
       </c>
+      <c r="FM350">
+        <v>1.0110994577407799</v>
+      </c>
+      <c r="FN350">
+        <v>0.996379168906112</v>
+      </c>
     </row>
-    <row r="351" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.97479737</v>
       </c>
@@ -50315,8 +52431,14 @@
       <c r="FG351">
         <v>0.98257799999999995</v>
       </c>
+      <c r="FM351">
+        <v>1.0116454362869201</v>
+      </c>
+      <c r="FN351">
+        <v>1.0160886537863101</v>
+      </c>
     </row>
-    <row r="352" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.97511420000000004</v>
       </c>
@@ -50425,8 +52547,14 @@
       <c r="FG352">
         <v>0.98868299999999998</v>
       </c>
+      <c r="FM352">
+        <v>1.0148191452026301</v>
+      </c>
+      <c r="FN352">
+        <v>0.96240558965800105</v>
+      </c>
     </row>
-    <row r="353" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.97518340000000003</v>
       </c>
@@ -50535,8 +52663,14 @@
       <c r="FG353">
         <v>0.98349699999999995</v>
       </c>
+      <c r="FM353">
+        <v>1.0083934068679801</v>
+      </c>
+      <c r="FN353">
+        <v>0.93633136262057604</v>
+      </c>
     </row>
-    <row r="354" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.97530890000000003</v>
       </c>
@@ -50645,8 +52779,14 @@
       <c r="FG354">
         <v>0.99001099999999997</v>
       </c>
+      <c r="FM354">
+        <v>0.99920892715454102</v>
+      </c>
+      <c r="FN354">
+        <v>0.96147209414160795</v>
+      </c>
     </row>
-    <row r="355" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.97224337000000005</v>
       </c>
@@ -50755,8 +52895,14 @@
       <c r="FG355">
         <v>0.98568299999999998</v>
       </c>
+      <c r="FM355">
+        <v>0.99511808156967096</v>
+      </c>
+      <c r="FN355">
+        <v>0.98599756725410803</v>
+      </c>
     </row>
-    <row r="356" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.96590339999999997</v>
       </c>
@@ -50865,8 +53011,14 @@
       <c r="FG356">
         <v>0.98614599999999997</v>
       </c>
+      <c r="FM356">
+        <v>0.99619829654693604</v>
+      </c>
+      <c r="FN356">
+        <v>1.0058626347203701</v>
+      </c>
     </row>
-    <row r="357" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.96321296999999995</v>
       </c>
@@ -50975,8 +53127,14 @@
       <c r="FG357">
         <v>0.98442799999999997</v>
       </c>
+      <c r="FM357">
+        <v>1.0026539564132599</v>
+      </c>
+      <c r="FN357">
+        <v>1.00875505643404</v>
+      </c>
     </row>
-    <row r="358" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.96538749999999995</v>
       </c>
@@ -51085,8 +53243,14 @@
       <c r="FG358">
         <v>0.98672700000000002</v>
       </c>
+      <c r="FM358">
+        <v>1.0063571929931601</v>
+      </c>
+      <c r="FN358">
+        <v>0.99857146898248905</v>
+      </c>
     </row>
-    <row r="359" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.96879404999999996</v>
       </c>
@@ -51195,8 +53359,14 @@
       <c r="FG359">
         <v>0.989066</v>
       </c>
+      <c r="FM359">
+        <v>1.0072674751281701</v>
+      </c>
+      <c r="FN359">
+        <v>1.0064778931289</v>
+      </c>
     </row>
-    <row r="360" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.97070204999999998</v>
       </c>
@@ -51305,8 +53475,14 @@
       <c r="FG360">
         <v>0.98724299999999998</v>
       </c>
+      <c r="FM360">
+        <v>1.0085988044738701</v>
+      </c>
+      <c r="FN360">
+        <v>1.0051837288902701</v>
+      </c>
     </row>
-    <row r="361" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.97089630000000005</v>
       </c>
@@ -51415,8 +53591,14 @@
       <c r="FG361">
         <v>0.97811899999999996</v>
       </c>
+      <c r="FM361">
+        <v>1.00882709026336</v>
+      </c>
+      <c r="FN361">
+        <v>1.02781392322706</v>
+      </c>
     </row>
-    <row r="362" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.97087760000000001</v>
       </c>
@@ -51525,8 +53707,14 @@
       <c r="FG362">
         <v>0.98258500000000004</v>
       </c>
+      <c r="FM362">
+        <v>1.0130201578140201</v>
+      </c>
+      <c r="FN362">
+        <v>1.0329481485672201</v>
+      </c>
     </row>
-    <row r="363" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.971665</v>
       </c>
@@ -51635,8 +53823,14 @@
       <c r="FG363">
         <v>0.98288900000000001</v>
       </c>
+      <c r="FM363">
+        <v>1.0169359445571899</v>
+      </c>
+      <c r="FN363">
+        <v>1.0435419082911299</v>
+      </c>
     </row>
-    <row r="364" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.97328853999999998</v>
       </c>
@@ -51745,8 +53939,14 @@
       <c r="FG364">
         <v>0.99519000000000002</v>
       </c>
+      <c r="FM364">
+        <v>1.02126359939575</v>
+      </c>
+      <c r="FN364">
+        <v>1.0437469944273099</v>
+      </c>
     </row>
-    <row r="365" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.97475959999999995</v>
       </c>
@@ -51855,8 +54055,14 @@
       <c r="FG365">
         <v>0.99388200000000004</v>
       </c>
+      <c r="FM365">
+        <v>1.02296650409698</v>
+      </c>
+      <c r="FN365">
+        <v>1.0517524256739501</v>
+      </c>
     </row>
-    <row r="366" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.97580029999999995</v>
       </c>
@@ -51965,8 +54171,14 @@
       <c r="FG366">
         <v>0.99444399999999999</v>
       </c>
+      <c r="FM366">
+        <v>1.02545619010925</v>
+      </c>
+      <c r="FN366">
+        <v>1.0503309665921701</v>
+      </c>
     </row>
-    <row r="367" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.97638740000000002</v>
       </c>
@@ -52075,8 +54287,14 @@
       <c r="FG367">
         <v>0.99031499999999995</v>
       </c>
+      <c r="FM367">
+        <v>1.02864873409271</v>
+      </c>
+      <c r="FN367">
+        <v>1.0539730134932499</v>
+      </c>
     </row>
-    <row r="368" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.97707635000000004</v>
       </c>
@@ -52185,8 +54403,14 @@
       <c r="FG368">
         <v>0.99711899999999998</v>
       </c>
+      <c r="FM368">
+        <v>1.0329494476318299</v>
+      </c>
+      <c r="FN368">
+        <v>1.0517736414811401</v>
+      </c>
     </row>
-    <row r="369" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.97819822999999995</v>
       </c>
@@ -52295,8 +54519,14 @@
       <c r="FG369">
         <v>0.99597000000000002</v>
       </c>
+      <c r="FM369">
+        <v>1.0355529785156199</v>
+      </c>
+      <c r="FN369">
+        <v>1.05830811009589</v>
+      </c>
     </row>
-    <row r="370" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.97951080000000001</v>
       </c>
@@ -52405,8 +54635,14 @@
       <c r="FG370">
         <v>1</v>
       </c>
+      <c r="FM370">
+        <v>1.03816974163055</v>
+      </c>
+      <c r="FN370">
+        <v>1.0527566405476501</v>
+      </c>
     </row>
-    <row r="371" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.98080425999999998</v>
       </c>
@@ -52515,8 +54751,14 @@
       <c r="FG371">
         <v>0.99207199999999995</v>
       </c>
+      <c r="FM371">
+        <v>1.03807926177978</v>
+      </c>
+      <c r="FN371">
+        <v>1.05972956917767</v>
+      </c>
     </row>
-    <row r="372" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.98196519999999998</v>
       </c>
@@ -52625,8 +54867,14 @@
       <c r="FG372">
         <v>0.99476100000000001</v>
       </c>
+      <c r="FM372">
+        <v>1.0405800342559799</v>
+      </c>
+      <c r="FN372">
+        <v>1.0550974512743601</v>
+      </c>
     </row>
-    <row r="373" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.98292480000000004</v>
       </c>
@@ -52735,8 +54983,14 @@
       <c r="FG373">
         <v>0.99793200000000004</v>
       </c>
+      <c r="FM373">
+        <v>1.0415281057357699</v>
+      </c>
+      <c r="FN373">
+        <v>1.05559248677548</v>
+      </c>
     </row>
-    <row r="374" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.98375164999999998</v>
       </c>
@@ -52845,8 +55099,14 @@
       <c r="FG374">
         <v>0.99585100000000004</v>
       </c>
+      <c r="FM374">
+        <v>1.0410622358322099</v>
+      </c>
+      <c r="FN374">
+        <v>1.0537537834856101</v>
+      </c>
     </row>
-    <row r="375" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.98455559999999998</v>
       </c>
@@ -52955,8 +55215,14 @@
       <c r="FG375">
         <v>0.99503799999999998</v>
       </c>
+      <c r="FM375">
+        <v>1.0408661365509</v>
+      </c>
+      <c r="FN375">
+        <v>1.0562148171197401</v>
+      </c>
     </row>
-    <row r="376" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.98526970000000003</v>
       </c>
@@ -53065,8 +55331,14 @@
       <c r="FG376">
         <v>0.99785299999999999</v>
       </c>
+      <c r="FM376">
+        <v>1.0401517152786199</v>
+      </c>
+      <c r="FN376">
+        <v>1.0587182823682399</v>
+      </c>
     </row>
-    <row r="377" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.98582166000000004</v>
       </c>
@@ -53175,8 +55447,14 @@
       <c r="FG377">
         <v>0.990282</v>
       </c>
+      <c r="FM377">
+        <v>1.0440932512283301</v>
+      </c>
+      <c r="FN377">
+        <v>1.0567664281067</v>
+      </c>
     </row>
-    <row r="378" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.98619723000000004</v>
       </c>
@@ -53285,8 +55563,14 @@
       <c r="FG378">
         <v>0.98831899999999995</v>
       </c>
+      <c r="FM378">
+        <v>1.0480042695999101</v>
+      </c>
+      <c r="FN378">
+        <v>1.0470000848632199</v>
+      </c>
     </row>
-    <row r="379" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.98649900000000001</v>
       </c>
@@ -53395,8 +55679,14 @@
       <c r="FG379">
         <v>0.98605299999999996</v>
       </c>
+      <c r="FM379">
+        <v>1.0461841821670499</v>
+      </c>
+      <c r="FN379">
+        <v>1.05178071341687</v>
+      </c>
     </row>
-    <row r="380" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.98674779999999995</v>
       </c>
@@ -53505,8 +55795,14 @@
       <c r="FG380">
         <v>0.99354500000000001</v>
       </c>
+      <c r="FM380">
+        <v>1.04306828975677</v>
+      </c>
+      <c r="FN380">
+        <v>1.0521060224604599</v>
+      </c>
     </row>
-    <row r="381" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.98627379999999998</v>
       </c>
@@ -53615,8 +55911,14 @@
       <c r="FG381">
         <v>0.99073100000000003</v>
       </c>
+      <c r="FM381">
+        <v>1.040132522583</v>
+      </c>
+      <c r="FN381">
+        <v>1.06527396679018</v>
+      </c>
     </row>
-    <row r="382" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.98551679999999997</v>
       </c>
@@ -53725,8 +56027,14 @@
       <c r="FG382">
         <v>0.98731500000000005</v>
       </c>
+      <c r="FM382">
+        <v>1.0408288240432699</v>
+      </c>
+      <c r="FN382">
+        <v>1.0638737235155999</v>
+      </c>
     </row>
-    <row r="383" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.98539659999999996</v>
       </c>
@@ -53835,8 +56143,14 @@
       <c r="FG383">
         <v>0.98725600000000002</v>
       </c>
+      <c r="FM383">
+        <v>1.0429452657699501</v>
+      </c>
+      <c r="FN383">
+        <v>1.0644748380526701</v>
+      </c>
     </row>
-    <row r="384" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.98581620000000003</v>
       </c>
@@ -53945,8 +56259,14 @@
       <c r="FG384">
         <v>0.99328099999999997</v>
       </c>
+      <c r="FM384">
+        <v>1.0432593822479199</v>
+      </c>
+      <c r="FN384">
+        <v>1.06005487822126</v>
+      </c>
     </row>
-    <row r="385" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.98637200000000003</v>
       </c>
@@ -54055,8 +56375,14 @@
       <c r="FG385">
         <v>0.99757499999999999</v>
       </c>
+      <c r="FM385">
+        <v>1.0424268245696999</v>
+      </c>
+      <c r="FN385">
+        <v>1.0673389720234201</v>
+      </c>
     </row>
-    <row r="386" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.98662760000000005</v>
       </c>
@@ -54165,8 +56491,14 @@
       <c r="FG386">
         <v>0.99736400000000003</v>
       </c>
+      <c r="FM386">
+        <v>1.0415786504745399</v>
+      </c>
+      <c r="FN386">
+        <v>1.06610845520635</v>
+      </c>
     </row>
-    <row r="387" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.98661829999999995</v>
       </c>
@@ -54275,8 +56607,14 @@
       <c r="FG387">
         <v>0.99415299999999995</v>
       </c>
+      <c r="FM387">
+        <v>1.0409797430038401</v>
+      </c>
+      <c r="FN387">
+        <v>1.0704223360018099</v>
+      </c>
     </row>
-    <row r="388" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.98651279999999997</v>
       </c>
@@ -54385,8 +56723,14 @@
       <c r="FG388">
         <v>0.95881400000000006</v>
       </c>
+      <c r="FM388">
+        <v>1.0405728816986</v>
+      </c>
+      <c r="FN388">
+        <v>1.06193601312551</v>
+      </c>
     </row>
-    <row r="389" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.98646842999999995</v>
       </c>
@@ -54495,8 +56839,14 @@
       <c r="FG389">
         <v>0.97944699999999996</v>
       </c>
+      <c r="FM389">
+        <v>1.0395194292068399</v>
+      </c>
+      <c r="FN389">
+        <v>1.0648142909677201</v>
+      </c>
     </row>
-    <row r="390" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.98648190000000002</v>
       </c>
@@ -54605,8 +56955,14 @@
       <c r="FG390">
         <v>0.95829200000000003</v>
       </c>
+      <c r="FM390">
+        <v>1.03877353668212</v>
+      </c>
+      <c r="FN390">
+        <v>1.06820882011824</v>
+      </c>
     </row>
-    <row r="391" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.98642843999999996</v>
       </c>
@@ -54715,8 +57071,14 @@
       <c r="FG391">
         <v>0.95746600000000004</v>
       </c>
+      <c r="FM391">
+        <v>1.0403872728347701</v>
+      </c>
+      <c r="FN391">
+        <v>1.0659811603632099</v>
+      </c>
     </row>
-    <row r="392" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.98617213999999997</v>
       </c>
@@ -54825,8 +57187,14 @@
       <c r="FG392">
         <v>0.97166399999999997</v>
       </c>
+      <c r="FM392">
+        <v>1.0410060882568299</v>
+      </c>
+      <c r="FN392">
+        <v>1.06511131226839</v>
+      </c>
     </row>
-    <row r="393" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.98593989999999998</v>
       </c>
@@ -54935,8 +57303,14 @@
       <c r="FG393">
         <v>0.96631299999999998</v>
       </c>
+      <c r="FM393">
+        <v>1.04109394550323</v>
+      </c>
+      <c r="FN393">
+        <v>1.06812395688947</v>
+      </c>
     </row>
-    <row r="394" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.98576710000000001</v>
       </c>
@@ -55045,8 +57419,14 @@
       <c r="FG394">
         <v>0.96628599999999998</v>
       </c>
+      <c r="FM394">
+        <v>1.04021704196929</v>
+      </c>
+      <c r="FN394">
+        <v>1.06001951854261</v>
+      </c>
     </row>
-    <row r="395" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.98563880000000004</v>
       </c>
@@ -55155,8 +57535,14 @@
       <c r="FG395">
         <v>0.96670900000000004</v>
       </c>
+      <c r="FM395">
+        <v>1.0396381616592401</v>
+      </c>
+      <c r="FN395">
+        <v>1.05791915363073</v>
+      </c>
     </row>
-    <row r="396" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.98567515999999999</v>
       </c>
@@ -55265,8 +57651,14 @@
       <c r="FG396">
         <v>0.98214199999999996</v>
       </c>
+      <c r="FM396">
+        <v>1.0384596586227399</v>
+      </c>
+      <c r="FN396">
+        <v>1.05549347967525</v>
+      </c>
     </row>
-    <row r="397" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.98541179999999995</v>
       </c>
@@ -55375,8 +57767,14 @@
       <c r="FG397">
         <v>0.99143099999999995</v>
       </c>
+      <c r="FM397">
+        <v>1.0380951166152901</v>
+      </c>
+      <c r="FN397">
+        <v>1.06351305479335</v>
+      </c>
     </row>
-    <row r="398" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.98455349999999997</v>
       </c>
@@ -55485,8 +57883,14 @@
       <c r="FG398">
         <v>0.98317900000000003</v>
       </c>
+      <c r="FM398">
+        <v>1.0393825769424401</v>
+      </c>
+      <c r="FN398">
+        <v>1.0605004101722699</v>
+      </c>
     </row>
-    <row r="399" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.98377769999999998</v>
       </c>
@@ -55595,8 +57999,14 @@
       <c r="FG399">
         <v>0.97089800000000004</v>
       </c>
+      <c r="FM399">
+        <v>1.0403864383697501</v>
+      </c>
+      <c r="FN399">
+        <v>1.0568442193997301</v>
+      </c>
     </row>
-    <row r="400" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.9837089</v>
       </c>
@@ -55705,8 +58115,14 @@
       <c r="FG400">
         <v>0.98003499999999999</v>
       </c>
+      <c r="FM400">
+        <v>1.0397216081619201</v>
+      </c>
+      <c r="FN400">
+        <v>1.05678057197816</v>
+      </c>
     </row>
-    <row r="401" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.98400030000000005</v>
       </c>
@@ -55815,8 +58231,14 @@
       <c r="FG401">
         <v>0.98759300000000005</v>
       </c>
+      <c r="FM401">
+        <v>1.0382161140441799</v>
+      </c>
+      <c r="FN401">
+        <v>1.0632301773641399</v>
+      </c>
     </row>
-    <row r="402" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.98391134000000002</v>
       </c>
@@ -55925,8 +58347,14 @@
       <c r="FG402">
         <v>0.974221</v>
       </c>
+      <c r="FM402">
+        <v>1.0382990837097099</v>
+      </c>
+      <c r="FN402">
+        <v>1.0678269355887999</v>
+      </c>
     </row>
-    <row r="403" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.98338040000000004</v>
       </c>
@@ -56017,8 +58445,14 @@
       <c r="EL403">
         <v>1.0632299999999999</v>
       </c>
+      <c r="FM403">
+        <v>1.04078197479248</v>
+      </c>
+      <c r="FN403">
+        <v>1.06760063364544</v>
+      </c>
     </row>
-    <row r="404" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.98326469999999999</v>
       </c>
@@ -56109,8 +58543,14 @@
       <c r="EL404">
         <v>1.0678300000000001</v>
       </c>
+      <c r="FM404">
+        <v>1.0419880151748599</v>
+      </c>
+      <c r="FN404">
+        <v>1.0641636728805399</v>
+      </c>
     </row>
-    <row r="405" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.98359346000000003</v>
       </c>
@@ -56201,8 +58641,14 @@
       <c r="EL405">
         <v>1.0676000000000001</v>
       </c>
+      <c r="FM405">
+        <v>1.04184913635253</v>
+      </c>
+      <c r="FN405">
+        <v>1.02633588865944</v>
+      </c>
     </row>
-    <row r="406" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.98378940000000004</v>
       </c>
@@ -56293,8 +58739,14 @@
       <c r="EL406">
         <v>1.06416</v>
       </c>
+      <c r="FM406">
+        <v>1.0369956493377599</v>
+      </c>
+      <c r="FN406">
+        <v>1.048421543945</v>
+      </c>
     </row>
-    <row r="407" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.98379930000000004</v>
       </c>
@@ -56385,8 +58837,14 @@
       <c r="EL407">
         <v>1.02634</v>
       </c>
+      <c r="FM407">
+        <v>1.0356014966964699</v>
+      </c>
+      <c r="FN407">
+        <v>1.02577720573675</v>
+      </c>
     </row>
-    <row r="408" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.98101899999999997</v>
       </c>
@@ -56477,8 +58935,14 @@
       <c r="EL408">
         <v>1.0484199999999999</v>
       </c>
+      <c r="FM408">
+        <v>1.0339667797088601</v>
+      </c>
+      <c r="FN408">
+        <v>1.02489321377047</v>
+      </c>
     </row>
-    <row r="409" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.97816723999999999</v>
       </c>
@@ -56569,8 +59033,14 @@
       <c r="EL409">
         <v>1.0257799999999999</v>
       </c>
+      <c r="FM409">
+        <v>1.03285312652587</v>
+      </c>
+      <c r="FN409">
+        <v>1.04009080365477</v>
+      </c>
     </row>
-    <row r="410" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.97710496000000002</v>
       </c>
@@ -56661,8 +59131,14 @@
       <c r="EL410">
         <v>1.0248900000000001</v>
       </c>
+      <c r="FM410">
+        <v>1.0326066017150799</v>
+      </c>
+      <c r="FN410">
+        <v>1.03436253571327</v>
+      </c>
     </row>
-    <row r="411" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.97680425999999998</v>
       </c>
@@ -56753,8 +59229,14 @@
       <c r="EL411">
         <v>1.04009</v>
       </c>
+      <c r="FM411">
+        <v>1.02986848354339</v>
+      </c>
+      <c r="FN411">
+        <v>1.0343342479703499</v>
+      </c>
     </row>
-    <row r="412" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.97728289999999995</v>
       </c>
@@ -56845,8 +59327,14 @@
       <c r="EL412">
         <v>1.0343599999999999</v>
       </c>
+      <c r="FM412">
+        <v>1.02665698528289</v>
+      </c>
+      <c r="FN412">
+        <v>1.03478685185709</v>
+      </c>
     </row>
-    <row r="413" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.97758089999999997</v>
       </c>
@@ -56937,8 +59425,14 @@
       <c r="EL413">
         <v>1.03433</v>
       </c>
+      <c r="FM413">
+        <v>1.0259050130844101</v>
+      </c>
+      <c r="FN413">
+        <v>1.05130689372294</v>
+      </c>
     </row>
-    <row r="414" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.97770559999999995</v>
       </c>
@@ -57029,8 +59523,14 @@
       <c r="EL414">
         <v>1.0347900000000001</v>
       </c>
+      <c r="FM414">
+        <v>1.0276734828948899</v>
+      </c>
+      <c r="FN414">
+        <v>1.0612500353596701</v>
+      </c>
     </row>
-    <row r="415" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.97786200000000001</v>
       </c>
@@ -57121,8 +59621,14 @@
       <c r="EL415">
         <v>1.05131</v>
       </c>
+      <c r="FM415">
+        <v>1.0297001600265501</v>
+      </c>
+      <c r="FN415">
+        <v>1.0524171876325901</v>
+      </c>
     </row>
-    <row r="416" spans="1:163" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.97793699999999995</v>
       </c>
@@ -57213,8 +59719,14 @@
       <c r="EL416">
         <v>1.06125</v>
       </c>
+      <c r="FM416">
+        <v>1.02971398830413</v>
+      </c>
+      <c r="FN416">
+        <v>1.0392704591100601</v>
+      </c>
     </row>
-    <row r="417" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.97808569999999995</v>
       </c>
@@ -57305,8 +59817,14 @@
       <c r="EL417">
         <v>1.0524199999999999</v>
       </c>
+      <c r="FM417">
+        <v>1.0274128913879299</v>
+      </c>
+      <c r="FN417">
+        <v>1.0490509462249999</v>
+      </c>
     </row>
-    <row r="418" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0.97822229999999999</v>
       </c>
@@ -57397,8 +59915,14 @@
       <c r="EL418">
         <v>1.0392699999999999</v>
       </c>
+      <c r="FM418">
+        <v>1.0275189876556301</v>
+      </c>
+      <c r="FN418">
+        <v>1.0571412407003999</v>
+      </c>
     </row>
-    <row r="419" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0.97795860000000001</v>
       </c>
@@ -57489,8 +60013,14 @@
       <c r="EL419">
         <v>1.04905</v>
       </c>
+      <c r="FM419">
+        <v>1.03046762943267</v>
+      </c>
+      <c r="FN419">
+        <v>1.0428276427823799</v>
+      </c>
     </row>
-    <row r="420" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.97803753999999998</v>
       </c>
@@ -57583,7 +60113,7 @@
         <v>1.05714</v>
       </c>
     </row>
-    <row r="421" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0.97871710000000001</v>
       </c>
@@ -57670,7 +60200,7 @@
         <v>1.0428299999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:142" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:170" x14ac:dyDescent="0.2">
       <c r="T422" s="1"/>
       <c r="X422" s="1"/>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="27">
   <si>
     <t>_0.975178</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>WLSTM without Closing Price</t>
+  </si>
+  <si>
+    <t>WLSTM with Closing Price</t>
   </si>
 </sst>
 </file>
@@ -10844,10 +10847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR422"/>
+  <dimension ref="A1:FS422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="FC1" zoomScaleNormal="283" workbookViewId="0">
-      <selection activeCell="FR20" sqref="FR20"/>
+      <selection activeCell="FO9" sqref="FO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10865,7 +10868,7 @@
     <col min="40" max="40" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11317,7 +11320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11763,13 +11766,13 @@
         <v>200</v>
       </c>
       <c r="FQ2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="FR2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:175" x14ac:dyDescent="0.2">
       <c r="AF3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="CN3" t="s">
@@ -11779,7 +11782,7 @@
         <v>0.93972289370239603</v>
       </c>
     </row>
-    <row r="4" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:175" x14ac:dyDescent="0.2">
       <c r="CG4">
         <v>0</v>
       </c>
@@ -11829,8 +11832,18 @@
         <f>CORREL(FM4:FM419,FN4:FN419)</f>
         <v>0.92372884988652393</v>
       </c>
+      <c r="FQ4">
+        <v>0.94669586420059204</v>
+      </c>
+      <c r="FR4">
+        <v>0.97517750558682903</v>
+      </c>
+      <c r="FS4">
+        <f>CORREL(FQ4:FQ419,FR4:FR419)</f>
+        <v>0.90683921899351538</v>
+      </c>
     </row>
-    <row r="5" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -11992,8 +12005,14 @@
       <c r="FN5">
         <v>0.96900370569432204</v>
       </c>
+      <c r="FQ5">
+        <v>0.95058202743530196</v>
+      </c>
+      <c r="FR5">
+        <v>0.96900370569432204</v>
+      </c>
     </row>
-    <row r="6" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.97099155000000004</v>
       </c>
@@ -12183,8 +12202,14 @@
       <c r="FN6">
         <v>0.98445588526491401</v>
       </c>
+      <c r="FQ6">
+        <v>0.95278704166412298</v>
+      </c>
+      <c r="FR6">
+        <v>0.98445588526491401</v>
+      </c>
     </row>
-    <row r="7" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.97150199999999998</v>
       </c>
@@ -12332,8 +12357,14 @@
       <c r="FN7">
         <v>0.98441345365053301</v>
       </c>
+      <c r="FQ7">
+        <v>0.95650458335876398</v>
+      </c>
+      <c r="FR7">
+        <v>0.98441345365053301</v>
+      </c>
     </row>
-    <row r="8" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.97180370000000005</v>
       </c>
@@ -12477,8 +12508,14 @@
       <c r="FN8">
         <v>0.99852196543237803</v>
       </c>
+      <c r="FQ8">
+        <v>0.95900952816009499</v>
+      </c>
+      <c r="FR8">
+        <v>0.99852196543237803</v>
+      </c>
     </row>
-    <row r="9" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.97260636</v>
       </c>
@@ -12618,8 +12655,14 @@
       <c r="FN9">
         <v>1.0045401827388101</v>
       </c>
+      <c r="FQ9">
+        <v>0.96079856157302801</v>
+      </c>
+      <c r="FR9">
+        <v>1.0045401827388101</v>
+      </c>
     </row>
-    <row r="10" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.97358080000000002</v>
       </c>
@@ -12759,8 +12802,14 @@
       <c r="FN10">
         <v>1.0069092812084499</v>
       </c>
+      <c r="FQ10">
+        <v>0.96560275554656905</v>
+      </c>
+      <c r="FR10">
+        <v>1.0069092812084499</v>
+      </c>
     </row>
-    <row r="11" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.97455656999999996</v>
       </c>
@@ -12896,8 +12945,14 @@
       <c r="FN11">
         <v>1.00644253345025</v>
       </c>
+      <c r="FQ11">
+        <v>0.97316551208496005</v>
+      </c>
+      <c r="FR11">
+        <v>1.00644253345025</v>
+      </c>
     </row>
-    <row r="12" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.97525066000000005</v>
       </c>
@@ -13037,8 +13092,14 @@
       <c r="FN12">
         <v>1.00486549178241</v>
       </c>
+      <c r="FQ12">
+        <v>0.97987008094787598</v>
+      </c>
+      <c r="FR12">
+        <v>1.00486549178241</v>
+      </c>
     </row>
-    <row r="13" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.97576589999999996</v>
       </c>
@@ -13178,8 +13239,14 @@
       <c r="FN13">
         <v>1.0139529291957701</v>
       </c>
+      <c r="FQ13">
+        <v>0.98376142978668202</v>
+      </c>
+      <c r="FR13">
+        <v>1.0139529291957701</v>
+      </c>
     </row>
-    <row r="14" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.97638970000000003</v>
       </c>
@@ -13315,8 +13382,14 @@
       <c r="FN14">
         <v>1.01350032530904</v>
       </c>
+      <c r="FQ14">
+        <v>0.98748737573623602</v>
+      </c>
+      <c r="FR14">
+        <v>1.01350032530904</v>
+      </c>
     </row>
-    <row r="15" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.97705995999999995</v>
       </c>
@@ -13449,8 +13522,14 @@
       <c r="FN15">
         <v>1.0176161919040401</v>
       </c>
+      <c r="FQ15">
+        <v>0.98857271671295099</v>
+      </c>
+      <c r="FR15">
+        <v>1.0176161919040401</v>
+      </c>
     </row>
-    <row r="16" spans="1:174" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.97779329999999998</v>
       </c>
@@ -13577,8 +13656,14 @@
       <c r="FN16">
         <v>1.01647053831574</v>
       </c>
+      <c r="FQ16">
+        <v>0.98886799812316895</v>
+      </c>
+      <c r="FR16">
+        <v>1.01647053831574</v>
+      </c>
     </row>
-    <row r="17" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.97823757</v>
       </c>
@@ -13693,8 +13778,14 @@
       <c r="FN17">
         <v>1.01426409436791</v>
       </c>
+      <c r="FQ17">
+        <v>0.98864322900772095</v>
+      </c>
+      <c r="FR17">
+        <v>1.01426409436791</v>
+      </c>
     </row>
-    <row r="18" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.97857236999999997</v>
       </c>
@@ -13809,8 +13900,14 @@
       <c r="FN18">
         <v>1.00985120647223</v>
       </c>
+      <c r="FQ18">
+        <v>0.98688459396362305</v>
+      </c>
+      <c r="FR18">
+        <v>1.00985120647223</v>
+      </c>
     </row>
-    <row r="19" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.97901819999999995</v>
       </c>
@@ -13925,8 +14022,14 @@
       <c r="FN19">
         <v>1.0189669316285199</v>
       </c>
+      <c r="FQ19">
+        <v>0.98554313182830799</v>
+      </c>
+      <c r="FR19">
+        <v>1.0189669316285199</v>
+      </c>
     </row>
-    <row r="20" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.97968084</v>
       </c>
@@ -14041,8 +14144,14 @@
       <c r="FN20">
         <v>1.0121708013917501</v>
       </c>
+      <c r="FQ20">
+        <v>0.98660051822662298</v>
+      </c>
+      <c r="FR20">
+        <v>1.0121708013917501</v>
+      </c>
     </row>
-    <row r="21" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.98058440000000002</v>
       </c>
@@ -14157,8 +14266,14 @@
       <c r="FN21">
         <v>1.00562926084127</v>
       </c>
+      <c r="FQ21">
+        <v>0.988933205604553</v>
+      </c>
+      <c r="FR21">
+        <v>1.00562926084127</v>
+      </c>
     </row>
-    <row r="22" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.98153466</v>
       </c>
@@ -14273,8 +14388,14 @@
       <c r="FN22">
         <v>1.0074043167095601</v>
       </c>
+      <c r="FQ22">
+        <v>0.99092668294906605</v>
+      </c>
+      <c r="FR22">
+        <v>1.0074043167095601</v>
+      </c>
     </row>
-    <row r="23" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.98224412999999999</v>
       </c>
@@ -14389,8 +14510,14 @@
       <c r="FN23">
         <v>0.98634409210489005</v>
       </c>
+      <c r="FQ23">
+        <v>0.99078780412673895</v>
+      </c>
+      <c r="FR23">
+        <v>0.98634409210489005</v>
+      </c>
     </row>
-    <row r="24" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.98255320000000002</v>
       </c>
@@ -14505,8 +14632,14 @@
       <c r="FN24">
         <v>0.99212186359650301</v>
       </c>
+      <c r="FQ24">
+        <v>0.98880082368850697</v>
+      </c>
+      <c r="FR24">
+        <v>0.99212186359650301</v>
+      </c>
     </row>
-    <row r="25" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.98284079999999996</v>
       </c>
@@ -14621,8 +14754,14 @@
       <c r="FN25">
         <v>0.96717914627591794</v>
       </c>
+      <c r="FQ25">
+        <v>0.98596310615539495</v>
+      </c>
+      <c r="FR25">
+        <v>0.96717914627591794</v>
+      </c>
     </row>
-    <row r="26" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.98285610000000001</v>
       </c>
@@ -14737,8 +14876,14 @@
       <c r="FN26">
         <v>0.96440694746966105</v>
       </c>
+      <c r="FQ26">
+        <v>0.97898405790328902</v>
+      </c>
+      <c r="FR26">
+        <v>0.96440694746966105</v>
+      </c>
     </row>
-    <row r="27" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.98284786999999996</v>
       </c>
@@ -14853,8 +14998,14 @@
       <c r="FN27">
         <v>0.98258889423212903</v>
       </c>
+      <c r="FQ27">
+        <v>0.97162240743636996</v>
+      </c>
+      <c r="FR27">
+        <v>0.98258889423212903</v>
+      </c>
     </row>
-    <row r="28" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.98268955999999996</v>
       </c>
@@ -14969,8 +15120,14 @@
       <c r="FN28">
         <v>0.97371361489066699</v>
       </c>
+      <c r="FQ28">
+        <v>0.96788901090621904</v>
+      </c>
+      <c r="FR28">
+        <v>0.97371361489066699</v>
+      </c>
     </row>
-    <row r="29" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.98256449999999995</v>
       </c>
@@ -15085,8 +15242,14 @@
       <c r="FN29">
         <v>0.99336652428502703</v>
       </c>
+      <c r="FQ29">
+        <v>0.96728956699371305</v>
+      </c>
+      <c r="FR29">
+        <v>0.99336652428502703</v>
+      </c>
     </row>
-    <row r="30" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.98294619999999999</v>
       </c>
@@ -15201,8 +15364,14 @@
       <c r="FN30">
         <v>0.98847981669542495</v>
       </c>
+      <c r="FQ30">
+        <v>0.97100788354873602</v>
+      </c>
+      <c r="FR30">
+        <v>0.98847981669542495</v>
+      </c>
     </row>
-    <row r="31" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.98345654999999998</v>
       </c>
@@ -15317,8 +15486,14 @@
       <c r="FN31">
         <v>1.0063152386071099</v>
       </c>
+      <c r="FQ31">
+        <v>0.97364187240600497</v>
+      </c>
+      <c r="FR31">
+        <v>1.0063152386071099</v>
+      </c>
     </row>
-    <row r="32" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.98399853999999998</v>
       </c>
@@ -15433,8 +15608,14 @@
       <c r="FN32">
         <v>0.99908064835506705</v>
       </c>
+      <c r="FQ32">
+        <v>0.97601133584976196</v>
+      </c>
+      <c r="FR32">
+        <v>0.99908064835506705</v>
+      </c>
     </row>
-    <row r="33" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.98438859999999995</v>
       </c>
@@ -15549,8 +15730,14 @@
       <c r="FN33">
         <v>1.01239710333512</v>
       </c>
+      <c r="FQ33">
+        <v>0.97573828697204501</v>
+      </c>
+      <c r="FR33">
+        <v>1.01239710333512</v>
+      </c>
     </row>
-    <row r="34" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.98442929999999995</v>
       </c>
@@ -15665,8 +15852,14 @@
       <c r="FN34">
         <v>1.0097946309863901</v>
       </c>
+      <c r="FQ34">
+        <v>0.97744923830032304</v>
+      </c>
+      <c r="FR34">
+        <v>1.0097946309863901</v>
+      </c>
     </row>
-    <row r="35" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.98425054999999995</v>
       </c>
@@ -15781,8 +15974,14 @@
       <c r="FN35">
         <v>1.0006576900229101</v>
       </c>
+      <c r="FQ35">
+        <v>0.98014080524444502</v>
+      </c>
+      <c r="FR35">
+        <v>1.0006576900229101</v>
+      </c>
     </row>
-    <row r="36" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.98417069999999995</v>
       </c>
@@ -15897,8 +16096,14 @@
       <c r="FN36">
         <v>0.97912364572430699</v>
       </c>
+      <c r="FQ36">
+        <v>0.98116648197173995</v>
+      </c>
+      <c r="FR36">
+        <v>0.97912364572430699</v>
+      </c>
     </row>
-    <row r="37" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.98401810000000001</v>
       </c>
@@ -16013,8 +16218,14 @@
       <c r="FN37">
         <v>0.97565839721648595</v>
       </c>
+      <c r="FQ37">
+        <v>0.97911673784255904</v>
+      </c>
+      <c r="FR37">
+        <v>0.97565839721648595</v>
+      </c>
     </row>
-    <row r="38" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.98382769999999997</v>
       </c>
@@ -16129,8 +16340,14 @@
       <c r="FN38">
         <v>0.97910242991711605</v>
       </c>
+      <c r="FQ38">
+        <v>0.97475576400756803</v>
+      </c>
+      <c r="FR38">
+        <v>0.97910242991711605</v>
+      </c>
     </row>
-    <row r="39" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.98361200000000004</v>
       </c>
@@ -16245,8 +16462,14 @@
       <c r="FN39">
         <v>0.99693785182880201</v>
       </c>
+      <c r="FQ39">
+        <v>0.97182917594909601</v>
+      </c>
+      <c r="FR39">
+        <v>0.99693785182880201</v>
+      </c>
     </row>
-    <row r="40" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.98328775000000002</v>
       </c>
@@ -16361,8 +16584,14 @@
       <c r="FN40">
         <v>0.98396084976379705</v>
       </c>
+      <c r="FQ40">
+        <v>0.972040474414825</v>
+      </c>
+      <c r="FR40">
+        <v>0.98396084976379705</v>
+      </c>
     </row>
-    <row r="41" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.98314743999999998</v>
       </c>
@@ -16477,8 +16706,14 @@
       <c r="FN41">
         <v>0.97816186246499304</v>
       </c>
+      <c r="FQ41">
+        <v>0.97178566455840998</v>
+      </c>
+      <c r="FR41">
+        <v>0.97816186246499304</v>
+      </c>
     </row>
-    <row r="42" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.98334580000000005</v>
       </c>
@@ -16593,8 +16828,14 @@
       <c r="FN42">
         <v>0.983303159740884</v>
       </c>
+      <c r="FQ42">
+        <v>0.97035199403762795</v>
+      </c>
+      <c r="FR42">
+        <v>0.983303159740884</v>
+      </c>
     </row>
-    <row r="43" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.98371410000000004</v>
       </c>
@@ -16709,8 +16950,14 @@
       <c r="FN43">
         <v>0.99296342394840198</v>
       </c>
+      <c r="FQ43">
+        <v>0.97087895870208696</v>
+      </c>
+      <c r="FR43">
+        <v>0.99296342394840198</v>
+      </c>
     </row>
-    <row r="44" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.98371017000000005</v>
       </c>
@@ -16825,8 +17072,14 @@
       <c r="FN44">
         <v>0.98992956352012595</v>
       </c>
+      <c r="FQ44">
+        <v>0.97221481800079301</v>
+      </c>
+      <c r="FR44">
+        <v>0.98992956352012595</v>
+      </c>
     </row>
-    <row r="45" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.98339765999999995</v>
       </c>
@@ -16941,8 +17194,14 @@
       <c r="FN45">
         <v>0.99386863172187401</v>
       </c>
+      <c r="FQ45">
+        <v>0.97344905138015703</v>
+      </c>
+      <c r="FR45">
+        <v>0.99386863172187401</v>
+      </c>
     </row>
-    <row r="46" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.98303289999999999</v>
       </c>
@@ -17057,8 +17316,14 @@
       <c r="FN46">
         <v>1.0004313880795399</v>
       </c>
+      <c r="FQ46">
+        <v>0.97550296783447199</v>
+      </c>
+      <c r="FR46">
+        <v>1.0004313880795399</v>
+      </c>
     </row>
-    <row r="47" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.98286753999999998</v>
       </c>
@@ -17173,8 +17438,14 @@
       <c r="FN47">
         <v>1.00812565415405</v>
       </c>
+      <c r="FQ47">
+        <v>0.97802960872650102</v>
+      </c>
+      <c r="FR47">
+        <v>1.00812565415405</v>
+      </c>
     </row>
-    <row r="48" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.98300432999999998</v>
       </c>
@@ -17289,8 +17560,14 @@
       <c r="FN48">
         <v>1.0013153800458201</v>
       </c>
+      <c r="FQ48">
+        <v>0.98345899581909102</v>
+      </c>
+      <c r="FR48">
+        <v>1.0013153800458201</v>
+      </c>
     </row>
-    <row r="49" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.9832651</v>
       </c>
@@ -17405,8 +17682,14 @@
       <c r="FN49">
         <v>1.0037269101298401</v>
       </c>
+      <c r="FQ49">
+        <v>0.98649835586547796</v>
+      </c>
+      <c r="FR49">
+        <v>1.0037269101298401</v>
+      </c>
     </row>
-    <row r="50" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.98372643999999998</v>
       </c>
@@ -17521,8 +17804,14 @@
       <c r="FN50">
         <v>1.0113575287827701</v>
       </c>
+      <c r="FQ50">
+        <v>0.98876708745956399</v>
+      </c>
+      <c r="FR50">
+        <v>1.0113575287827701</v>
+      </c>
     </row>
-    <row r="51" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.98432560000000002</v>
       </c>
@@ -17637,8 +17926,14 @@
       <c r="FN51">
         <v>1.0101977313230099</v>
       </c>
+      <c r="FQ51">
+        <v>0.99213498830795199</v>
+      </c>
+      <c r="FR51">
+        <v>1.0101977313230099</v>
+      </c>
     </row>
-    <row r="52" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.98475860000000004</v>
       </c>
@@ -17753,8 +18048,14 @@
       <c r="FN52">
         <v>0.99335945234929601</v>
       </c>
+      <c r="FQ52">
+        <v>0.993327796459198</v>
+      </c>
+      <c r="FR52">
+        <v>0.99335945234929601</v>
+      </c>
     </row>
-    <row r="53" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.98492480000000004</v>
       </c>
@@ -17869,8 +18170,14 @@
       <c r="FN53">
         <v>1.00695171282283</v>
       </c>
+      <c r="FQ53">
+        <v>0.991638243198394</v>
+      </c>
+      <c r="FR53">
+        <v>1.00695171282283</v>
+      </c>
     </row>
-    <row r="54" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.98489547</v>
       </c>
@@ -17985,8 +18292,14 @@
       <c r="FN54">
         <v>1.00475234081072</v>
       </c>
+      <c r="FQ54">
+        <v>0.98932105302810602</v>
+      </c>
+      <c r="FR54">
+        <v>1.00475234081072</v>
+      </c>
     </row>
-    <row r="55" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.98475820000000003</v>
       </c>
@@ -18101,8 +18414,14 @@
       <c r="FN55">
         <v>1.0122980962349</v>
       </c>
+      <c r="FQ55">
+        <v>0.988256335258483</v>
+      </c>
+      <c r="FR55">
+        <v>1.0122980962349</v>
+      </c>
     </row>
-    <row r="56" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.98481363</v>
       </c>
@@ -18217,8 +18536,14 @@
       <c r="FN56">
         <v>1.0158128482928299</v>
       </c>
+      <c r="FQ56">
+        <v>0.98847937583923295</v>
+      </c>
+      <c r="FR56">
+        <v>1.0158128482928299</v>
+      </c>
     </row>
-    <row r="57" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.9850875</v>
       </c>
@@ -18333,8 +18658,14 @@
       <c r="FN57">
         <v>1.01917908970043</v>
       </c>
+      <c r="FQ57">
+        <v>0.99114817380905096</v>
+      </c>
+      <c r="FR57">
+        <v>1.01917908970043</v>
+      </c>
     </row>
-    <row r="58" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.98536449999999998</v>
       </c>
@@ -18449,8 +18780,14 @@
       <c r="FN58">
         <v>1.012977002065</v>
       </c>
+      <c r="FQ58">
+        <v>0.99196690320968595</v>
+      </c>
+      <c r="FR58">
+        <v>1.012977002065</v>
+      </c>
     </row>
-    <row r="59" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.98559750000000002</v>
       </c>
@@ -18565,8 +18902,14 @@
       <c r="FN59">
         <v>1.0171070125314701</v>
       </c>
+      <c r="FQ59">
+        <v>0.990805864334106</v>
+      </c>
+      <c r="FR59">
+        <v>1.0171070125314701</v>
+      </c>
     </row>
-    <row r="60" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.9857051</v>
       </c>
@@ -18681,8 +19024,14 @@
       <c r="FN60">
         <v>1.01151311136884</v>
       </c>
+      <c r="FQ60">
+        <v>0.99132293462753296</v>
+      </c>
+      <c r="FR60">
+        <v>1.01151311136884</v>
+      </c>
     </row>
-    <row r="61" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.98565130000000001</v>
       </c>
@@ -18797,8 +19146,14 @@
       <c r="FN61">
         <v>0.996421600520494</v>
       </c>
+      <c r="FQ61">
+        <v>0.99359309673309304</v>
+      </c>
+      <c r="FR61">
+        <v>0.996421600520494</v>
+      </c>
     </row>
-    <row r="62" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.98549973999999996</v>
       </c>
@@ -18913,8 +19268,14 @@
       <c r="FN62">
         <v>1.01253147011399</v>
       </c>
+      <c r="FQ62">
+        <v>0.99355334043502797</v>
+      </c>
+      <c r="FR62">
+        <v>1.01253147011399</v>
+      </c>
     </row>
-    <row r="63" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.98522779999999999</v>
       </c>
@@ -19029,8 +19390,14 @@
       <c r="FN63">
         <v>1.0169160702667499</v>
       </c>
+      <c r="FQ63">
+        <v>0.99249655008315996</v>
+      </c>
+      <c r="FR63">
+        <v>1.0169160702667499</v>
+      </c>
     </row>
-    <row r="64" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.98444646999999996</v>
       </c>
@@ -19145,8 +19512,14 @@
       <c r="FN64">
         <v>0.99921501513394195</v>
       </c>
+      <c r="FQ64">
+        <v>0.99119520187377896</v>
+      </c>
+      <c r="FR64">
+        <v>0.99921501513394195</v>
+      </c>
     </row>
-    <row r="65" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.98378679999999996</v>
       </c>
@@ -19261,8 +19634,14 @@
       <c r="FN65">
         <v>0.992631042969081</v>
       </c>
+      <c r="FQ65">
+        <v>0.99045342206954901</v>
+      </c>
+      <c r="FR65">
+        <v>0.992631042969081</v>
+      </c>
     </row>
-    <row r="66" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.98387910000000001</v>
       </c>
@@ -19377,8 +19756,14 @@
       <c r="FN66">
         <v>0.99818251251732604</v>
       </c>
+      <c r="FQ66">
+        <v>0.98987191915511996</v>
+      </c>
+      <c r="FR66">
+        <v>0.99818251251732604</v>
+      </c>
     </row>
-    <row r="67" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.98397403999999999</v>
       </c>
@@ -19493,8 +19878,14 @@
       <c r="FN67">
         <v>1.0180546519193201</v>
       </c>
+      <c r="FQ67">
+        <v>0.98923027515411299</v>
+      </c>
+      <c r="FR67">
+        <v>1.0180546519193201</v>
+      </c>
     </row>
-    <row r="68" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.98311510000000002</v>
       </c>
@@ -19609,8 +20000,14 @@
       <c r="FN68">
         <v>1.0104381771378399</v>
       </c>
+      <c r="FQ68">
+        <v>0.989859819412231</v>
+      </c>
+      <c r="FR68">
+        <v>1.0104381771378399</v>
+      </c>
     </row>
-    <row r="69" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.98196923999999997</v>
       </c>
@@ -19725,8 +20122,14 @@
       <c r="FN69">
         <v>1.0060465050493601</v>
       </c>
+      <c r="FQ69">
+        <v>0.99068009853363004</v>
+      </c>
+      <c r="FR69">
+        <v>1.0060465050493601</v>
+      </c>
     </row>
-    <row r="70" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.98182570000000002</v>
       </c>
@@ -19841,8 +20244,14 @@
       <c r="FN70">
         <v>1.00559390116262</v>
       </c>
+      <c r="FQ70">
+        <v>0.99049335718154896</v>
+      </c>
+      <c r="FR70">
+        <v>1.00559390116262</v>
+      </c>
     </row>
-    <row r="71" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.98213433999999999</v>
       </c>
@@ -19957,8 +20366,14 @@
       <c r="FN71">
         <v>1.02159061978444</v>
       </c>
+      <c r="FQ71">
+        <v>0.98932242393493597</v>
+      </c>
+      <c r="FR71">
+        <v>1.02159061978444</v>
+      </c>
     </row>
-    <row r="72" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.9820468</v>
       </c>
@@ -20073,8 +20488,14 @@
       <c r="FN72">
         <v>1.02274334530847</v>
       </c>
+      <c r="FQ72">
+        <v>0.98924505710601796</v>
+      </c>
+      <c r="FR72">
+        <v>1.02274334530847</v>
+      </c>
     </row>
-    <row r="73" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.98158659999999998</v>
       </c>
@@ -20189,8 +20610,14 @@
       <c r="FN73">
         <v>1.02731888772594</v>
       </c>
+      <c r="FQ73">
+        <v>0.99184995889663696</v>
+      </c>
+      <c r="FR73">
+        <v>1.02731888772594</v>
+      </c>
     </row>
-    <row r="74" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.98121685000000003</v>
       </c>
@@ -20305,8 +20732,14 @@
       <c r="FN74">
         <v>1.0263500325309001</v>
       </c>
+      <c r="FQ74">
+        <v>0.99602311849594105</v>
+      </c>
+      <c r="FR74">
+        <v>1.0263500325309001</v>
+      </c>
     </row>
-    <row r="75" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.98107100000000003</v>
       </c>
@@ -20421,8 +20854,14 @@
       <c r="FN75">
         <v>1.02494978925631</v>
       </c>
+      <c r="FQ75">
+        <v>0.99823200702667203</v>
+      </c>
+      <c r="FR75">
+        <v>1.02494978925631</v>
+      </c>
     </row>
-    <row r="76" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.98125476</v>
       </c>
@@ -20537,8 +20976,14 @@
       <c r="FN76">
         <v>1.0284645413142399</v>
       </c>
+      <c r="FQ76">
+        <v>0.99864196777343694</v>
+      </c>
+      <c r="FR76">
+        <v>1.0284645413142399</v>
+      </c>
     </row>
-    <row r="77" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.98163986000000003</v>
       </c>
@@ -20653,8 +21098,14 @@
       <c r="FN77">
         <v>1.02509829990665</v>
       </c>
+      <c r="FQ77">
+        <v>1.0006467103958101</v>
+      </c>
+      <c r="FR77">
+        <v>1.02509829990665</v>
+      </c>
     </row>
-    <row r="78" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.98200410000000005</v>
       </c>
@@ -20769,8 +21220,14 @@
       <c r="FN78">
         <v>1.0096390484003199</v>
       </c>
+      <c r="FQ78">
+        <v>1.00124299526214</v>
+      </c>
+      <c r="FR78">
+        <v>1.0096390484003199</v>
+      </c>
     </row>
-    <row r="79" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.98241100000000003</v>
       </c>
@@ -20885,8 +21342,14 @@
       <c r="FN79">
         <v>1.0232737404882399</v>
       </c>
+      <c r="FQ79">
+        <v>0.99930483102798395</v>
+      </c>
+      <c r="FR79">
+        <v>1.0232737404882399</v>
+      </c>
     </row>
-    <row r="80" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.98286790000000002</v>
       </c>
@@ -21001,8 +21464,14 @@
       <c r="FN80">
         <v>1.0213713897768</v>
       </c>
+      <c r="FQ80">
+        <v>0.99778360128402699</v>
+      </c>
+      <c r="FR80">
+        <v>1.0213713897768</v>
+      </c>
     </row>
-    <row r="81" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.98338102999999999</v>
       </c>
@@ -21117,8 +21586,14 @@
       <c r="FN81">
         <v>1.0118949958982699</v>
       </c>
+      <c r="FQ81">
+        <v>0.99700188636779696</v>
+      </c>
+      <c r="FR81">
+        <v>1.0118949958982699</v>
+      </c>
     </row>
-    <row r="82" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.98389950000000004</v>
       </c>
@@ -21233,8 +21708,14 @@
       <c r="FN82">
         <v>1.0149642160051999</v>
       </c>
+      <c r="FQ82">
+        <v>0.99397855997085505</v>
+      </c>
+      <c r="FR82">
+        <v>1.0149642160051999</v>
+      </c>
     </row>
-    <row r="83" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.98431873000000003</v>
       </c>
@@ -21349,8 +21830,14 @@
       <c r="FN83">
         <v>1.0134578936946601</v>
       </c>
+      <c r="FQ83">
+        <v>0.99219608306884699</v>
+      </c>
+      <c r="FR83">
+        <v>1.0134578936946601</v>
+      </c>
     </row>
-    <row r="84" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.98454370000000002</v>
       </c>
@@ -21465,8 +21952,14 @@
       <c r="FN84">
         <v>1.01661904896608</v>
       </c>
+      <c r="FQ84">
+        <v>0.99190855026245095</v>
+      </c>
+      <c r="FR84">
+        <v>1.01661904896608</v>
+      </c>
     </row>
-    <row r="85" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.98472499999999996</v>
       </c>
@@ -21581,8 +22074,14 @@
       <c r="FN85">
         <v>1.0037269101298401</v>
       </c>
+      <c r="FQ85">
+        <v>0.99334841966628995</v>
+      </c>
+      <c r="FR85">
+        <v>1.0037269101298401</v>
+      </c>
     </row>
-    <row r="86" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.9847243</v>
       </c>
@@ -21697,8 +22196,14 @@
       <c r="FN86">
         <v>1.00159825747503</v>
       </c>
+      <c r="FQ86">
+        <v>0.99468755722045898</v>
+      </c>
+      <c r="FR86">
+        <v>1.00159825747503</v>
+      </c>
     </row>
-    <row r="87" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.98449500000000001</v>
       </c>
@@ -21813,8 +22318,14 @@
       <c r="FN87">
         <v>0.99201578456054995</v>
       </c>
+      <c r="FQ87">
+        <v>0.99303132295608498</v>
+      </c>
+      <c r="FR87">
+        <v>0.99201578456054995</v>
+      </c>
     </row>
-    <row r="88" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.98391819999999997</v>
       </c>
@@ -21929,8 +22440,14 @@
       <c r="FN88">
         <v>0.992631042969081</v>
       </c>
+      <c r="FQ88">
+        <v>0.988000988960266</v>
+      </c>
+      <c r="FR88">
+        <v>0.992631042969081</v>
+      </c>
     </row>
-    <row r="89" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.98308605000000004</v>
       </c>
@@ -22045,8 +22562,14 @@
       <c r="FN89">
         <v>1.01034624197335</v>
       </c>
+      <c r="FQ89">
+        <v>0.98456543684005704</v>
+      </c>
+      <c r="FR89">
+        <v>1.01034624197335</v>
+      </c>
     </row>
-    <row r="90" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.98196300000000003</v>
       </c>
@@ -22161,8 +22684,14 @@
       <c r="FN90">
         <v>1.0129345704506201</v>
       </c>
+      <c r="FQ90">
+        <v>0.98608815670013406</v>
+      </c>
+      <c r="FR90">
+        <v>1.0129345704506201</v>
+      </c>
     </row>
-    <row r="91" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.98071059999999999</v>
       </c>
@@ -22277,8 +22806,14 @@
       <c r="FN91">
         <v>1.0025034652485001</v>
       </c>
+      <c r="FQ91">
+        <v>0.98954010009765603</v>
+      </c>
+      <c r="FR91">
+        <v>1.0025034652485001</v>
+      </c>
     </row>
-    <row r="92" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.98030229999999996</v>
       </c>
@@ -22393,8 +22928,14 @@
       <c r="FN92">
         <v>0.99565783146162701</v>
       </c>
+      <c r="FQ92">
+        <v>0.989579617977142</v>
+      </c>
+      <c r="FR92">
+        <v>0.99565783146162701</v>
+      </c>
     </row>
-    <row r="93" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.98065959999999996</v>
       </c>
@@ -22509,8 +23050,14 @@
       <c r="FN93">
         <v>1.0040451472377001</v>
       </c>
+      <c r="FQ93">
+        <v>0.98795211315154996</v>
+      </c>
+      <c r="FR93">
+        <v>1.0040451472377001</v>
+      </c>
     </row>
-    <row r="94" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.98071193999999995</v>
       </c>
@@ -22625,8 +23172,14 @@
       <c r="FN94">
         <v>1.0069800005657501</v>
       </c>
+      <c r="FQ94">
+        <v>0.988156378269195</v>
+      </c>
+      <c r="FR94">
+        <v>1.0069800005657501</v>
+      </c>
     </row>
-    <row r="95" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.97984766999999995</v>
       </c>
@@ -22741,8 +23294,14 @@
       <c r="FN95">
         <v>1.02168962688467</v>
       </c>
+      <c r="FQ95">
+        <v>0.99006336927413896</v>
+      </c>
+      <c r="FR95">
+        <v>1.02168962688467</v>
+      </c>
     </row>
-    <row r="96" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.97908704999999996</v>
       </c>
@@ -22857,8 +23416,14 @@
       <c r="FN96">
         <v>1.01373369918814</v>
       </c>
+      <c r="FQ96">
+        <v>0.99235606193542403</v>
+      </c>
+      <c r="FR96">
+        <v>1.01373369918814</v>
+      </c>
     </row>
-    <row r="97" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.97884300000000002</v>
       </c>
@@ -22973,8 +23538,14 @@
       <c r="FN97">
         <v>1.02282820853724</v>
       </c>
+      <c r="FQ97">
+        <v>0.99084436893463101</v>
+      </c>
+      <c r="FR97">
+        <v>1.02282820853724</v>
+      </c>
     </row>
-    <row r="98" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.97900039999999999</v>
       </c>
@@ -23089,8 +23660,14 @@
       <c r="FN98">
         <v>1.0237829198608199</v>
       </c>
+      <c r="FQ98">
+        <v>0.98877590894699097</v>
+      </c>
+      <c r="FR98">
+        <v>1.0237829198608199</v>
+      </c>
     </row>
-    <row r="99" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97906053000000004</v>
       </c>
@@ -23205,8 +23782,14 @@
       <c r="FN99">
         <v>1.01273655625017</v>
       </c>
+      <c r="FQ99">
+        <v>0.98940300941467196</v>
+      </c>
+      <c r="FR99">
+        <v>1.01273655625017</v>
+      </c>
     </row>
-    <row r="100" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.97900719999999997</v>
       </c>
@@ -23321,8 +23904,14 @@
       <c r="FN100">
         <v>1.0083024525473101</v>
       </c>
+      <c r="FQ100">
+        <v>0.99062055349349898</v>
+      </c>
+      <c r="FR100">
+        <v>1.0083024525473101</v>
+      </c>
     </row>
-    <row r="101" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.97931109999999999</v>
       </c>
@@ -23437,8 +24026,14 @@
       <c r="FN101">
         <v>1.0077225538174299</v>
       </c>
+      <c r="FQ101">
+        <v>0.99001359939575195</v>
+      </c>
+      <c r="FR101">
+        <v>1.0077225538174299</v>
+      </c>
     </row>
-    <row r="102" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.97974159999999999</v>
       </c>
@@ -23553,8 +24148,14 @@
       <c r="FN102">
         <v>0.97671211564029203</v>
       </c>
+      <c r="FQ102">
+        <v>0.989083111286163</v>
+      </c>
+      <c r="FR102">
+        <v>0.97671211564029203</v>
+      </c>
     </row>
-    <row r="103" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.97993330000000001</v>
       </c>
@@ -23669,8 +24270,14 @@
       <c r="FN103">
         <v>0.98058046448473801</v>
       </c>
+      <c r="FQ103">
+        <v>0.98716157674789395</v>
+      </c>
+      <c r="FR103">
+        <v>0.98058046448473801</v>
+      </c>
     </row>
-    <row r="104" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.97969764000000004</v>
       </c>
@@ -23785,8 +24392,14 @@
       <c r="FN104">
         <v>0.99070040451472297</v>
       </c>
+      <c r="FQ104">
+        <v>0.98322033882141102</v>
+      </c>
+      <c r="FR104">
+        <v>0.99070040451472297</v>
+      </c>
     </row>
-    <row r="105" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.97793596999999999</v>
       </c>
@@ -23901,8 +24514,14 @@
       <c r="FN105">
         <v>0.99024780062798801</v>
       </c>
+      <c r="FQ105">
+        <v>0.98036444187164296</v>
+      </c>
+      <c r="FR105">
+        <v>0.99024780062798801</v>
+      </c>
     </row>
-    <row r="106" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.97617259999999995</v>
       </c>
@@ -24017,8 +24636,14 @@
       <c r="FN106">
         <v>0.98457610817232899</v>
       </c>
+      <c r="FQ106">
+        <v>0.98084551095962502</v>
+      </c>
+      <c r="FR106">
+        <v>0.98457610817232899</v>
+      </c>
     </row>
-    <row r="107" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.97623150000000003</v>
       </c>
@@ -24133,8 +24758,14 @@
       <c r="FN107">
         <v>0.99347260332098097</v>
       </c>
+      <c r="FQ107">
+        <v>0.981442511081695</v>
+      </c>
+      <c r="FR107">
+        <v>0.99347260332098097</v>
+      </c>
     </row>
-    <row r="108" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.97707679999999997</v>
       </c>
@@ -24249,8 +24880,14 @@
       <c r="FN108">
         <v>0.96896127407994104</v>
       </c>
+      <c r="FQ108">
+        <v>0.981695115566253</v>
+      </c>
+      <c r="FR108">
+        <v>0.96896127407994104</v>
+      </c>
     </row>
-    <row r="109" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.97745514</v>
       </c>
@@ -24365,8 +25002,14 @@
       <c r="FN109">
         <v>0.97223558032304502</v>
       </c>
+      <c r="FQ109">
+        <v>0.97963064908981301</v>
+      </c>
+      <c r="FR109">
+        <v>0.97223558032304502</v>
+      </c>
     </row>
-    <row r="110" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.97696110000000003</v>
       </c>
@@ -24481,8 +25124,14 @@
       <c r="FN110">
         <v>0.99013464965630305</v>
       </c>
+      <c r="FQ110">
+        <v>0.97791683673858598</v>
+      </c>
+      <c r="FR110">
+        <v>0.99013464965630305</v>
+      </c>
     </row>
-    <row r="111" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.97576605999999999</v>
       </c>
@@ -24597,8 +25246,14 @@
       <c r="FN111">
         <v>1.0063859579644101</v>
       </c>
+      <c r="FQ111">
+        <v>0.97910863161087003</v>
+      </c>
+      <c r="FR111">
+        <v>1.0063859579644101</v>
+      </c>
     </row>
-    <row r="112" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.97488629999999998</v>
       </c>
@@ -24713,8 +25368,14 @@
       <c r="FN112">
         <v>1.0129982178721899</v>
       </c>
+      <c r="FQ112">
+        <v>0.98469549417495705</v>
+      </c>
+      <c r="FR112">
+        <v>1.0129982178721899</v>
+      </c>
     </row>
-    <row r="113" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.97477650000000005</v>
       </c>
@@ -24829,8 +25490,14 @@
       <c r="FN113">
         <v>1.0119020678340001</v>
       </c>
+      <c r="FQ113">
+        <v>0.99156236648559504</v>
+      </c>
+      <c r="FR113">
+        <v>1.0119020678340001</v>
+      </c>
     </row>
-    <row r="114" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.97557044000000004</v>
       </c>
@@ -24945,8 +25612,14 @@
       <c r="FN114">
         <v>1.02384656728239</v>
       </c>
+      <c r="FQ114">
+        <v>0.99486428499221802</v>
+      </c>
+      <c r="FR114">
+        <v>1.02384656728239</v>
+      </c>
     </row>
-    <row r="115" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.97673255000000003</v>
       </c>
@@ -25061,8 +25734,14 @@
       <c r="FN115">
         <v>1.025508472179</v>
       </c>
+      <c r="FQ115">
+        <v>0.99685239791870095</v>
+      </c>
+      <c r="FR115">
+        <v>1.025508472179</v>
+      </c>
     </row>
-    <row r="116" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.97761030000000004</v>
       </c>
@@ -25177,8 +25856,14 @@
       <c r="FN116">
         <v>1.0266682696387599</v>
       </c>
+      <c r="FQ116">
+        <v>0.99991738796234098</v>
+      </c>
+      <c r="FR116">
+        <v>1.0266682696387599</v>
+      </c>
     </row>
-    <row r="117" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.97834580000000004</v>
       </c>
@@ -25293,8 +25978,14 @@
       <c r="FN117">
         <v>1.0202540239314299</v>
       </c>
+      <c r="FQ117">
+        <v>1.00390625</v>
+      </c>
+      <c r="FR117">
+        <v>1.0202540239314299</v>
+      </c>
     </row>
-    <row r="118" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.97910260000000005</v>
       </c>
@@ -25409,8 +26100,14 @@
       <c r="FN118">
         <v>1.0166756244519199</v>
       </c>
+      <c r="FQ118">
+        <v>1.0049868822097701</v>
+      </c>
+      <c r="FR118">
+        <v>1.0166756244519199</v>
+      </c>
     </row>
-    <row r="119" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.97996780000000006</v>
       </c>
@@ -25525,8 +26222,14 @@
       <c r="FN119">
         <v>1.00818930157562</v>
       </c>
+      <c r="FQ119">
+        <v>1.00292897224426</v>
+      </c>
+      <c r="FR119">
+        <v>1.00818930157562</v>
+      </c>
     </row>
-    <row r="120" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.9808017</v>
       </c>
@@ -25641,8 +26344,14 @@
       <c r="FN120">
         <v>0.99227744618256897</v>
       </c>
+      <c r="FQ120">
+        <v>0.99803775548934903</v>
+      </c>
+      <c r="FR120">
+        <v>0.99227744618256897</v>
+      </c>
     </row>
-    <row r="121" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.98146533999999996</v>
       </c>
@@ -25757,8 +26466,14 @@
       <c r="FN121">
         <v>0.98378405137054004</v>
       </c>
+      <c r="FQ121">
+        <v>0.99491387605667103</v>
+      </c>
+      <c r="FR121">
+        <v>0.98378405137054004</v>
+      </c>
     </row>
-    <row r="122" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.98195619999999995</v>
       </c>
@@ -25873,8 +26588,14 @@
       <c r="FN122">
         <v>1.0018952787757001</v>
       </c>
+      <c r="FQ122">
+        <v>0.99118828773498502</v>
+      </c>
+      <c r="FR122">
+        <v>1.0018952787757001</v>
+      </c>
     </row>
-    <row r="123" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.98239124</v>
       </c>
@@ -25989,8 +26710,14 @@
       <c r="FN123">
         <v>1.0127294843144401</v>
       </c>
+      <c r="FQ123">
+        <v>0.98888957500457697</v>
+      </c>
+      <c r="FR123">
+        <v>1.0127294843144401</v>
+      </c>
     </row>
-    <row r="124" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.9825874</v>
       </c>
@@ -26105,8 +26832,14 @@
       <c r="FN124">
         <v>1.01277191592882</v>
       </c>
+      <c r="FQ124">
+        <v>0.99110656976699796</v>
+      </c>
+      <c r="FR124">
+        <v>1.01277191592882</v>
+      </c>
     </row>
-    <row r="125" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.98263029999999996</v>
       </c>
@@ -26221,8 +26954,14 @@
       <c r="FN125">
         <v>1.0093844587140299</v>
       </c>
+      <c r="FQ125">
+        <v>0.99533724784850997</v>
+      </c>
+      <c r="FR125">
+        <v>1.0093844587140299</v>
+      </c>
     </row>
-    <row r="126" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.98298450000000004</v>
       </c>
@@ -26337,8 +27076,14 @@
       <c r="FN126">
         <v>1.0052827359904899</v>
       </c>
+      <c r="FQ126">
+        <v>0.99690061807632402</v>
+      </c>
+      <c r="FR126">
+        <v>1.0052827359904899</v>
+      </c>
     </row>
-    <row r="127" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.98353460000000004</v>
       </c>
@@ -26453,8 +27198,14 @@
       <c r="FN127">
         <v>1.0019447823258101</v>
       </c>
+      <c r="FQ127">
+        <v>0.99682486057281405</v>
+      </c>
+      <c r="FR127">
+        <v>1.0019447823258101</v>
+      </c>
     </row>
-    <row r="128" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.98405050000000005</v>
       </c>
@@ -26569,8 +27320,14 @@
       <c r="FN128">
         <v>1.0065556844219301</v>
       </c>
+      <c r="FQ128">
+        <v>0.99532824754714899</v>
+      </c>
+      <c r="FR128">
+        <v>1.0065556844219301</v>
+      </c>
     </row>
-    <row r="129" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.98429626000000003</v>
       </c>
@@ -26685,8 +27442,14 @@
       <c r="FN129">
         <v>0.99504257305309496</v>
       </c>
+      <c r="FQ129">
+        <v>0.99324506521224898</v>
+      </c>
+      <c r="FR129">
+        <v>0.99504257305309496</v>
+      </c>
     </row>
-    <row r="130" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.98426913999999999</v>
       </c>
@@ -26801,8 +27564,14 @@
       <c r="FN130">
         <v>0.99080648355067702</v>
       </c>
+      <c r="FQ130">
+        <v>0.99070453643798795</v>
+      </c>
+      <c r="FR130">
+        <v>0.99080648355067702</v>
+      </c>
     </row>
-    <row r="131" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.98429429999999996</v>
       </c>
@@ -26917,8 +27686,14 @@
       <c r="FN131">
         <v>1.0096249045288599</v>
       </c>
+      <c r="FQ131">
+        <v>0.98872148990631104</v>
+      </c>
+      <c r="FR131">
+        <v>1.0096249045288599</v>
+      </c>
     </row>
-    <row r="132" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.98417840000000001</v>
       </c>
@@ -27033,8 +27808,14 @@
       <c r="FN132">
         <v>0.99540324177533801</v>
       </c>
+      <c r="FQ132">
+        <v>0.98934590816497803</v>
+      </c>
+      <c r="FR132">
+        <v>0.99540324177533801</v>
+      </c>
     </row>
-    <row r="133" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.98372369999999998</v>
       </c>
@@ -27149,8 +27930,14 @@
       <c r="FN133">
         <v>0.996803485049927</v>
       </c>
+      <c r="FQ133">
+        <v>0.99079179763793901</v>
+      </c>
+      <c r="FR133">
+        <v>0.996803485049927</v>
+      </c>
     </row>
-    <row r="134" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.98357570000000005</v>
       </c>
@@ -27265,8 +28052,14 @@
       <c r="FN134">
         <v>0.99492235014568098</v>
       </c>
+      <c r="FQ134">
+        <v>0.99157887697219804</v>
+      </c>
+      <c r="FR134">
+        <v>0.99492235014568098</v>
+      </c>
     </row>
-    <row r="135" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.98368542999999997</v>
       </c>
@@ -27381,8 +28174,14 @@
       <c r="FN135">
         <v>1.0006859777658299</v>
       </c>
+      <c r="FQ135">
+        <v>0.990012407302856</v>
+      </c>
+      <c r="FR135">
+        <v>1.0006859777658299</v>
+      </c>
     </row>
-    <row r="136" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.98327949999999997</v>
       </c>
@@ -27497,8 +28296,14 @@
       <c r="FN136">
         <v>1.0083943877118</v>
       </c>
+      <c r="FQ136">
+        <v>0.98750847578048695</v>
+      </c>
+      <c r="FR136">
+        <v>1.0083943877118</v>
+      </c>
     </row>
-    <row r="137" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.98277073999999998</v>
       </c>
@@ -27613,8 +28418,14 @@
       <c r="FN137">
         <v>1.0044906791887001</v>
       </c>
+      <c r="FQ137">
+        <v>0.98604077100753695</v>
+      </c>
+      <c r="FR137">
+        <v>1.0044906791887001</v>
+      </c>
     </row>
-    <row r="138" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.98254269999999999</v>
       </c>
@@ -27729,8 +28540,14 @@
       <c r="FN138">
         <v>0.992249158439648</v>
       </c>
+      <c r="FQ138">
+        <v>0.985750973224639</v>
+      </c>
+      <c r="FR138">
+        <v>0.992249158439648</v>
+      </c>
     </row>
-    <row r="139" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.98247397000000003</v>
       </c>
@@ -27845,8 +28662,14 @@
       <c r="FN139">
         <v>0.96121750445531895</v>
       </c>
+      <c r="FQ139">
+        <v>0.983506560325622</v>
+      </c>
+      <c r="FR139">
+        <v>0.96121750445531895</v>
+      </c>
     </row>
-    <row r="140" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.98264300000000004</v>
       </c>
@@ -27961,8 +28784,14 @@
       <c r="FN140">
         <v>0.91536307318039101</v>
       </c>
+      <c r="FQ140">
+        <v>0.97787225246429399</v>
+      </c>
+      <c r="FR140">
+        <v>0.91536307318039101</v>
+      </c>
     </row>
-    <row r="141" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.98228073000000005</v>
       </c>
@@ -28077,8 +28906,14 @@
       <c r="FN141">
         <v>0.86042827642782305</v>
       </c>
+      <c r="FQ141">
+        <v>0.96694076061248702</v>
+      </c>
+      <c r="FR141">
+        <v>0.86042827642782305</v>
+      </c>
     </row>
-    <row r="142" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.97903110000000004</v>
       </c>
@@ -28193,8 +29028,14 @@
       <c r="FN142">
         <v>0.84232412095838805</v>
       </c>
+      <c r="FQ142">
+        <v>0.95117223262786799</v>
+      </c>
+      <c r="FR142">
+        <v>0.84232412095838805</v>
+      </c>
     </row>
-    <row r="143" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.97004630000000003</v>
       </c>
@@ -28309,8 +29150,14 @@
       <c r="FN143">
         <v>0.89387853243189697</v>
       </c>
+      <c r="FQ143">
+        <v>0.93423801660537698</v>
+      </c>
+      <c r="FR143">
+        <v>0.89387853243189697</v>
+      </c>
     </row>
-    <row r="144" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.9547544</v>
       </c>
@@ -28425,8 +29272,14 @@
       <c r="FN144">
         <v>0.92722270940001605</v>
       </c>
+      <c r="FQ144">
+        <v>0.92539590597152699</v>
+      </c>
+      <c r="FR144">
+        <v>0.92722270940001605</v>
+      </c>
     </row>
-    <row r="145" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.93693346</v>
       </c>
@@ -28541,8 +29394,14 @@
       <c r="FN145">
         <v>0.92807841362337595</v>
       </c>
+      <c r="FQ145">
+        <v>0.92827194929122903</v>
+      </c>
+      <c r="FR145">
+        <v>0.92807841362337595</v>
+      </c>
     </row>
-    <row r="146" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.92407969999999995</v>
       </c>
@@ -28657,8 +29516,14 @@
       <c r="FN146">
         <v>0.91627535288959205</v>
       </c>
+      <c r="FQ146">
+        <v>0.936323702335357</v>
+      </c>
+      <c r="FR146">
+        <v>0.91627535288959205</v>
+      </c>
     </row>
-    <row r="147" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.92545204999999997</v>
       </c>
@@ -28773,8 +29638,14 @@
       <c r="FN147">
         <v>0.87502475177505501</v>
       </c>
+      <c r="FQ147">
+        <v>0.93846344947814897</v>
+      </c>
+      <c r="FR147">
+        <v>0.87502475177505501</v>
+      </c>
     </row>
-    <row r="148" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.933639</v>
       </c>
@@ -28889,8 +29760,14 @@
       <c r="FN148">
         <v>0.89978359876665404</v>
       </c>
+      <c r="FQ148">
+        <v>0.93070125579833896</v>
+      </c>
+      <c r="FR148">
+        <v>0.89978359876665404</v>
+      </c>
     </row>
-    <row r="149" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.93672144000000002</v>
       </c>
@@ -29005,8 +29882,14 @@
       <c r="FN149">
         <v>0.90138892817742</v>
       </c>
+      <c r="FQ149">
+        <v>0.92316061258315996</v>
+      </c>
+      <c r="FR149">
+        <v>0.90138892817742</v>
+      </c>
     </row>
-    <row r="150" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.92697589999999996</v>
       </c>
@@ -29121,8 +30004,14 @@
       <c r="FN150">
         <v>0.88023676840824805</v>
       </c>
+      <c r="FQ150">
+        <v>0.92166334390640203</v>
+      </c>
+      <c r="FR150">
+        <v>0.88023676840824805</v>
+      </c>
     </row>
-    <row r="151" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.91321622999999996</v>
       </c>
@@ -29237,8 +30126,14 @@
       <c r="FN151">
         <v>0.91431642669231405</v>
       </c>
+      <c r="FQ151">
+        <v>0.92207664251327504</v>
+      </c>
+      <c r="FR151">
+        <v>0.91431642669231405</v>
+      </c>
     </row>
-    <row r="152" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.90451545</v>
       </c>
@@ -29353,8 +30248,14 @@
       <c r="FN152">
         <v>0.89496053859862501</v>
       </c>
+      <c r="FQ152">
+        <v>0.92515867948532104</v>
+      </c>
+      <c r="FR152">
+        <v>0.89496053859862501</v>
+      </c>
     </row>
-    <row r="153" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.89857799999999999</v>
       </c>
@@ -29469,8 +30370,14 @@
       <c r="FN153">
         <v>0.90220927272212903</v>
       </c>
+      <c r="FQ153">
+        <v>0.92607271671295099</v>
+      </c>
+      <c r="FR153">
+        <v>0.90220927272212903</v>
+      </c>
     </row>
-    <row r="154" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.90034729999999996</v>
       </c>
@@ -29585,8 +30492,14 @@
       <c r="FN154">
         <v>0.90840428842182597</v>
       </c>
+      <c r="FQ154">
+        <v>0.92626863718032804</v>
+      </c>
+      <c r="FR154">
+        <v>0.90840428842182597</v>
+      </c>
     </row>
-    <row r="155" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.90802103000000001</v>
       </c>
@@ -29701,8 +30614,14 @@
       <c r="FN155">
         <v>0.90273259596616695</v>
       </c>
+      <c r="FQ155">
+        <v>0.92723882198333696</v>
+      </c>
+      <c r="FR155">
+        <v>0.90273259596616695</v>
+      </c>
     </row>
-    <row r="156" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.91741079999999997</v>
       </c>
@@ -29817,8 +30736,14 @@
       <c r="FN156">
         <v>0.92045486690616896</v>
       </c>
+      <c r="FQ156">
+        <v>0.92477226257324197</v>
+      </c>
+      <c r="FR156">
+        <v>0.92045486690616896</v>
+      </c>
     </row>
-    <row r="157" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.92375510000000005</v>
       </c>
@@ -29933,8 +30858,14 @@
       <c r="FN157">
         <v>0.93263274023365605</v>
       </c>
+      <c r="FQ157">
+        <v>0.92352813482284501</v>
+      </c>
+      <c r="FR157">
+        <v>0.93263274023365605</v>
+      </c>
     </row>
-    <row r="158" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.92515199999999997</v>
       </c>
@@ -30049,8 +30980,14 @@
       <c r="FN158">
         <v>0.92901898107549896</v>
       </c>
+      <c r="FQ158">
+        <v>0.925800800323486</v>
+      </c>
+      <c r="FR158">
+        <v>0.92901898107549896</v>
+      </c>
     </row>
-    <row r="159" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.92614399999999997</v>
       </c>
@@ -30165,8 +31102,14 @@
       <c r="FN159">
         <v>0.90626856383129095</v>
       </c>
+      <c r="FQ159">
+        <v>0.92869967222213701</v>
+      </c>
+      <c r="FR159">
+        <v>0.90626856383129095</v>
+      </c>
     </row>
-    <row r="160" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.93095874999999995</v>
       </c>
@@ -30281,8 +31224,14 @@
       <c r="FN160">
         <v>0.912590874374133</v>
       </c>
+      <c r="FQ160">
+        <v>0.92330020666122403</v>
+      </c>
+      <c r="FR160">
+        <v>0.912590874374133</v>
+      </c>
     </row>
-    <row r="161" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.93712969999999995</v>
       </c>
@@ -30397,8 +31346,14 @@
       <c r="FN161">
         <v>0.89545557409974197</v>
       </c>
+      <c r="FQ161">
+        <v>0.91473317146301203</v>
+      </c>
+      <c r="FR161">
+        <v>0.89545557409974197</v>
+      </c>
     </row>
-    <row r="162" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.93991696999999996</v>
       </c>
@@ -30513,8 +31468,14 @@
       <c r="FN162">
         <v>0.89264094367910296</v>
       </c>
+      <c r="FQ162">
+        <v>0.9078009724617</v>
+      </c>
+      <c r="FR162">
+        <v>0.89264094367910296</v>
+      </c>
     </row>
-    <row r="163" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.94084129999999999</v>
       </c>
@@ -30629,8 +31590,14 @@
       <c r="FN163">
         <v>0.88803004158298204</v>
       </c>
+      <c r="FQ163">
+        <v>0.90455579757690396</v>
+      </c>
+      <c r="FR163">
+        <v>0.88803004158298204</v>
+      </c>
     </row>
-    <row r="164" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.94026430000000005</v>
       </c>
@@ -30745,8 +31712,14 @@
       <c r="FN164">
         <v>0.88739356736725905</v>
       </c>
+      <c r="FQ164">
+        <v>0.90475952625274603</v>
+      </c>
+      <c r="FR164">
+        <v>0.88739356736725905</v>
+      </c>
     </row>
-    <row r="165" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.94110380000000005</v>
       </c>
@@ -30861,8 +31834,14 @@
       <c r="FN165">
         <v>0.85233798195241905</v>
       </c>
+      <c r="FQ165">
+        <v>0.90759032964706399</v>
+      </c>
+      <c r="FR165">
+        <v>0.85233798195241905</v>
+      </c>
     </row>
-    <row r="166" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.94173353999999998</v>
       </c>
@@ -30977,8 +31956,14 @@
       <c r="FN166">
         <v>0.853978671041837</v>
       </c>
+      <c r="FQ166">
+        <v>0.90746140480041504</v>
+      </c>
+      <c r="FR166">
+        <v>0.853978671041837</v>
+      </c>
     </row>
-    <row r="167" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.94368196000000004</v>
       </c>
@@ -31093,8 +32078,14 @@
       <c r="FN167">
         <v>0.87939520805634896</v>
       </c>
+      <c r="FQ167">
+        <v>0.90338653326034501</v>
+      </c>
+      <c r="FR167">
+        <v>0.87939520805634896</v>
+      </c>
     </row>
-    <row r="168" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.94127249999999996</v>
       </c>
@@ -31209,8 +32200,14 @@
       <c r="FN168">
         <v>0.88207547169811296</v>
       </c>
+      <c r="FQ168">
+        <v>0.896919846534729</v>
+      </c>
+      <c r="FR168">
+        <v>0.88207547169811296</v>
+      </c>
     </row>
-    <row r="169" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.93782215999999996</v>
       </c>
@@ -31325,8 +32322,14 @@
       <c r="FN169">
         <v>0.90155158269921598</v>
       </c>
+      <c r="FQ169">
+        <v>0.88904172182083097</v>
+      </c>
+      <c r="FR169">
+        <v>0.90155158269921598</v>
+      </c>
     </row>
-    <row r="170" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.93808895000000003</v>
       </c>
@@ -31441,8 +32444,14 @@
       <c r="FN170">
         <v>0.92679132132047104</v>
       </c>
+      <c r="FQ170">
+        <v>0.88549685478210405</v>
+      </c>
+      <c r="FR170">
+        <v>0.92679132132047104</v>
+      </c>
     </row>
-    <row r="171" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.93920802999999997</v>
       </c>
@@ -31557,8 +32566,14 @@
       <c r="FN171">
         <v>0.921749031144804</v>
       </c>
+      <c r="FQ171">
+        <v>0.89227467775344804</v>
+      </c>
+      <c r="FR171">
+        <v>0.921749031144804</v>
+      </c>
     </row>
-    <row r="172" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.93959300000000001</v>
       </c>
@@ -31673,8 +32688,14 @@
       <c r="FN172">
         <v>0.93300048089162901</v>
       </c>
+      <c r="FQ172">
+        <v>0.90461689233779896</v>
+      </c>
+      <c r="FR172">
+        <v>0.93300048089162901</v>
+      </c>
     </row>
-    <row r="173" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.94315260000000001</v>
       </c>
@@ -31789,8 +32810,14 @@
       <c r="FN173">
         <v>0.94544708777686604</v>
       </c>
+      <c r="FQ173">
+        <v>0.91403442621231001</v>
+      </c>
+      <c r="FR173">
+        <v>0.94544708777686604</v>
+      </c>
     </row>
-    <row r="174" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.94766163999999997</v>
       </c>
@@ -31905,8 +32932,14 @@
       <c r="FN174">
         <v>0.94647959039348195</v>
       </c>
+      <c r="FQ174">
+        <v>0.92042785882949796</v>
+      </c>
+      <c r="FR174">
+        <v>0.94647959039348195</v>
+      </c>
     </row>
-    <row r="175" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.95133719999999999</v>
       </c>
@@ -32021,8 +33054,14 @@
       <c r="FN175">
         <v>0.94829707787615602</v>
       </c>
+      <c r="FQ175">
+        <v>0.92618042230606001</v>
+      </c>
+      <c r="FR175">
+        <v>0.94829707787615602</v>
+      </c>
     </row>
-    <row r="176" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.95438230000000002</v>
       </c>
@@ -32137,8 +33176,14 @@
       <c r="FN176">
         <v>0.93855902237560396</v>
       </c>
+      <c r="FQ176">
+        <v>0.92887932062149003</v>
+      </c>
+      <c r="FR176">
+        <v>0.93855902237560396</v>
+      </c>
     </row>
-    <row r="177" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.95731500000000003</v>
       </c>
@@ -32253,8 +33298,14 @@
       <c r="FN177">
         <v>0.93187604311051997</v>
       </c>
+      <c r="FQ177">
+        <v>0.92929166555404596</v>
+      </c>
+      <c r="FR177">
+        <v>0.93187604311051997</v>
+      </c>
     </row>
-    <row r="178" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.95968229999999999</v>
       </c>
@@ -32369,8 +33420,14 @@
       <c r="FN178">
         <v>0.95282311674351405</v>
       </c>
+      <c r="FQ178">
+        <v>0.92691004276275601</v>
+      </c>
+      <c r="FR178">
+        <v>0.95282311674351405</v>
+      </c>
     </row>
-    <row r="179" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.96201610000000004</v>
       </c>
@@ -32485,8 +33542,14 @@
       <c r="FN179">
         <v>0.95936465729399401</v>
       </c>
+      <c r="FQ179">
+        <v>0.92619824409484797</v>
+      </c>
+      <c r="FR179">
+        <v>0.95936465729399401</v>
+      </c>
     </row>
-    <row r="180" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.96395209999999998</v>
       </c>
@@ -32601,8 +33664,14 @@
       <c r="FN180">
         <v>0.95975361375915802</v>
       </c>
+      <c r="FQ180">
+        <v>0.93063545227050704</v>
+      </c>
+      <c r="FR180">
+        <v>0.95975361375915802</v>
+      </c>
     </row>
-    <row r="181" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.96586989999999995</v>
       </c>
@@ -32717,8 +33786,14 @@
       <c r="FN181">
         <v>0.95770982433311602</v>
       </c>
+      <c r="FQ181">
+        <v>0.93520200252532903</v>
+      </c>
+      <c r="FR181">
+        <v>0.95770982433311602</v>
+      </c>
     </row>
-    <row r="182" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.96764075999999999</v>
       </c>
@@ -32833,8 +33908,14 @@
       <c r="FN182">
         <v>0.94934372436423198</v>
       </c>
+      <c r="FQ182">
+        <v>0.93553984165191595</v>
+      </c>
+      <c r="FR182">
+        <v>0.94934372436423198</v>
+      </c>
     </row>
-    <row r="183" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.96969530000000004</v>
       </c>
@@ -32949,8 +34030,14 @@
       <c r="FN183">
         <v>0.97308421261067501</v>
       </c>
+      <c r="FQ183">
+        <v>0.932628393173217</v>
+      </c>
+      <c r="FR183">
+        <v>0.97308421261067501</v>
+      </c>
     </row>
-    <row r="184" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.97170460000000003</v>
       </c>
@@ -33065,8 +34152,14 @@
       <c r="FN184">
         <v>0.989095075103957</v>
       </c>
+      <c r="FQ184">
+        <v>0.93815302848815896</v>
+      </c>
+      <c r="FR184">
+        <v>0.989095075103957</v>
+      </c>
     </row>
-    <row r="185" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.97299707000000002</v>
       </c>
@@ -33181,8 +34274,14 @@
       <c r="FN185">
         <v>0.98628751661904801</v>
       </c>
+      <c r="FQ185">
+        <v>0.94873964786529497</v>
+      </c>
+      <c r="FR185">
+        <v>0.98628751661904801</v>
+      </c>
     </row>
-    <row r="186" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.97433950000000003</v>
       </c>
@@ -33297,8 +34396,14 @@
       <c r="FN186">
         <v>0.98254646261774703</v>
       </c>
+      <c r="FQ186">
+        <v>0.95700794458389205</v>
+      </c>
+      <c r="FR186">
+        <v>0.98254646261774703</v>
+      </c>
     </row>
-    <row r="187" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.97554255000000001</v>
       </c>
@@ -33413,8 +34518,14 @@
       <c r="FN187">
         <v>0.99984441741393404</v>
       </c>
+      <c r="FQ187">
+        <v>0.96020877361297596</v>
+      </c>
+      <c r="FR187">
+        <v>0.99984441741393404</v>
+      </c>
     </row>
-    <row r="188" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.97656359999999998</v>
       </c>
@@ -33529,8 +34640,14 @@
       <c r="FN188">
         <v>0.99917965545529097</v>
       </c>
+      <c r="FQ188">
+        <v>0.96283495426177901</v>
+      </c>
+      <c r="FR188">
+        <v>0.99917965545529097</v>
+      </c>
     </row>
-    <row r="189" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.97792214</v>
       </c>
@@ -33645,8 +34762,14 @@
       <c r="FN189">
         <v>0.99207236004639099</v>
       </c>
+      <c r="FQ189">
+        <v>0.966291964054107</v>
+      </c>
+      <c r="FR189">
+        <v>0.99207236004639099</v>
+      </c>
     </row>
-    <row r="190" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.9793828</v>
       </c>
@@ -33761,8 +34884,14 @@
       <c r="FN190">
         <v>1.00953296936437</v>
       </c>
+      <c r="FQ190">
+        <v>0.96977829933166504</v>
+      </c>
+      <c r="FR190">
+        <v>1.00953296936437</v>
+      </c>
     </row>
-    <row r="191" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.98040729999999998</v>
       </c>
@@ -33877,8 +35006,14 @@
       <c r="FN191">
         <v>1.0135922604735299</v>
       </c>
+      <c r="FQ191">
+        <v>0.97427511215209905</v>
+      </c>
+      <c r="FR191">
+        <v>1.0135922604735299</v>
+      </c>
     </row>
-    <row r="192" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.98111605999999996</v>
       </c>
@@ -33993,8 +35128,14 @@
       <c r="FN192">
         <v>1.0083024525473101</v>
       </c>
+      <c r="FQ192">
+        <v>0.97676455974578802</v>
+      </c>
+      <c r="FR192">
+        <v>1.0083024525473101</v>
+      </c>
     </row>
-    <row r="193" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.98187243999999996</v>
       </c>
@@ -34109,8 +35250,14 @@
       <c r="FN193">
         <v>1.0066193318435099</v>
       </c>
+      <c r="FQ193">
+        <v>0.97681415081024103</v>
+      </c>
+      <c r="FR193">
+        <v>1.0066193318435099</v>
+      </c>
     </row>
-    <row r="194" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.98256403000000003</v>
       </c>
@@ -34225,8 +35372,14 @@
       <c r="FN194">
         <v>1.0061030805352</v>
       </c>
+      <c r="FQ194">
+        <v>0.97551274299621504</v>
+      </c>
+      <c r="FR194">
+        <v>1.0061030805352</v>
+      </c>
     </row>
-    <row r="195" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.98312259999999996</v>
       </c>
@@ -34341,8 +35494,14 @@
       <c r="FN195">
         <v>0.99152074905943199</v>
       </c>
+      <c r="FQ195">
+        <v>0.97326588630676203</v>
+      </c>
+      <c r="FR195">
+        <v>0.99152074905943199</v>
+      </c>
     </row>
-    <row r="196" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.98375254999999995</v>
       </c>
@@ -34457,8 +35616,14 @@
       <c r="FN196">
         <v>0.99374133687873001</v>
       </c>
+      <c r="FQ196">
+        <v>0.97128051519393899</v>
+      </c>
+      <c r="FR196">
+        <v>0.99374133687873001</v>
+      </c>
     </row>
-    <row r="197" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.98449209999999998</v>
       </c>
@@ -34573,8 +35738,14 @@
       <c r="FN197">
         <v>0.98898899606800295</v>
       </c>
+      <c r="FQ197">
+        <v>0.96982115507125799</v>
+      </c>
+      <c r="FR197">
+        <v>0.98898899606800295</v>
+      </c>
     </row>
-    <row r="198" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.98514500000000005</v>
       </c>
@@ -34689,8 +35860,14 @@
       <c r="FN198">
         <v>0.96845916664309295</v>
       </c>
+      <c r="FQ198">
+        <v>0.96684634685516302</v>
+      </c>
+      <c r="FR198">
+        <v>0.96845916664309295</v>
+      </c>
     </row>
-    <row r="199" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.98565453000000003</v>
       </c>
@@ -34805,8 +35982,14 @@
       <c r="FN199">
         <v>0.95224321801363399</v>
       </c>
+      <c r="FQ199">
+        <v>0.96148508787155096</v>
+      </c>
+      <c r="FR199">
+        <v>0.95224321801363399</v>
+      </c>
     </row>
-    <row r="200" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.98607814000000005</v>
       </c>
@@ -34921,8 +36104,14 @@
       <c r="FN200">
         <v>0.97356510424033205</v>
       </c>
+      <c r="FQ200">
+        <v>0.95382106304168701</v>
+      </c>
+      <c r="FR200">
+        <v>0.97356510424033205</v>
+      </c>
     </row>
-    <row r="201" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.98608105999999995</v>
       </c>
@@ -35037,8 +36226,14 @@
       <c r="FN201">
         <v>0.97162032191451397</v>
       </c>
+      <c r="FQ201">
+        <v>0.95078450441360396</v>
+      </c>
+      <c r="FR201">
+        <v>0.97162032191451397</v>
+      </c>
     </row>
-    <row r="202" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.98535790000000001</v>
       </c>
@@ -35153,8 +36348,14 @@
       <c r="FN202">
         <v>0.995056716924556</v>
       </c>
+      <c r="FQ202">
+        <v>0.95229667425155595</v>
+      </c>
+      <c r="FR202">
+        <v>0.995056716924556</v>
+      </c>
     </row>
-    <row r="203" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.98483220000000005</v>
       </c>
@@ -35269,8 +36470,14 @@
       <c r="FN203">
         <v>0.99340188396367801</v>
       </c>
+      <c r="FQ203">
+        <v>0.95535218715667702</v>
+      </c>
+      <c r="FR203">
+        <v>0.99340188396367801</v>
+      </c>
     </row>
-    <row r="204" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.98502339999999999</v>
       </c>
@@ -35385,8 +36592,14 @@
       <c r="FN204">
         <v>0.99900992899776497</v>
       </c>
+      <c r="FQ204">
+        <v>0.95646464824676503</v>
+      </c>
+      <c r="FR204">
+        <v>0.99900992899776497</v>
+      </c>
     </row>
-    <row r="205" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.98543809999999998</v>
       </c>
@@ -35501,8 +36714,14 @@
       <c r="FN205">
         <v>0.99718536957936099</v>
       </c>
+      <c r="FQ205">
+        <v>0.95798784494400002</v>
+      </c>
+      <c r="FR205">
+        <v>0.99718536957936099</v>
+      </c>
     </row>
-    <row r="206" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.98574779999999995</v>
       </c>
@@ -35617,8 +36836,14 @@
       <c r="FN206">
         <v>0.99898871319057403</v>
       </c>
+      <c r="FQ206">
+        <v>0.96091574430465698</v>
+      </c>
+      <c r="FR206">
+        <v>0.99898871319057403</v>
+      </c>
     </row>
-    <row r="207" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.98582709999999996</v>
       </c>
@@ -35733,8 +36958,14 @@
       <c r="FN207">
         <v>0.99879777092585698</v>
       </c>
+      <c r="FQ207">
+        <v>0.96617650985717696</v>
+      </c>
+      <c r="FR207">
+        <v>0.99879777092585698</v>
+      </c>
     </row>
-    <row r="208" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.98575102999999997</v>
       </c>
@@ -35849,8 +37080,14 @@
       <c r="FN208">
         <v>0.99967469095640804</v>
       </c>
+      <c r="FQ208">
+        <v>0.96927130222320501</v>
+      </c>
+      <c r="FR208">
+        <v>0.99967469095640804</v>
+      </c>
     </row>
-    <row r="209" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.98565930000000002</v>
       </c>
@@ -35965,8 +37202,14 @@
       <c r="FN209">
         <v>0.99281491329806704</v>
       </c>
+      <c r="FQ209">
+        <v>0.96915674209594704</v>
+      </c>
+      <c r="FR209">
+        <v>0.99281491329806704</v>
+      </c>
     </row>
-    <row r="210" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.98564845000000001</v>
       </c>
@@ -36081,8 +37324,14 @@
       <c r="FN210">
         <v>1.00852875449067</v>
       </c>
+      <c r="FQ210">
+        <v>0.96732014417648304</v>
+      </c>
+      <c r="FR210">
+        <v>1.00852875449067</v>
+      </c>
     </row>
-    <row r="211" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.98571235000000001</v>
       </c>
@@ -36197,8 +37446,14 @@
       <c r="FN211">
         <v>0.99217843908234504</v>
       </c>
+      <c r="FQ211">
+        <v>0.969255030155181</v>
+      </c>
+      <c r="FR211">
+        <v>0.99217843908234504</v>
+      </c>
     </row>
-    <row r="212" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.98587716000000003</v>
       </c>
@@ -36313,8 +37568,14 @@
       <c r="FN212">
         <v>0.97104042318463302</v>
       </c>
+      <c r="FQ212">
+        <v>0.97004932165145796</v>
+      </c>
+      <c r="FR212">
+        <v>0.97104042318463302</v>
+      </c>
     </row>
-    <row r="213" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.98601127</v>
       </c>
@@ -36429,8 +37690,14 @@
       <c r="FN213">
         <v>1.0007920568017801</v>
       </c>
+      <c r="FQ213">
+        <v>0.96698117256164495</v>
+      </c>
+      <c r="FR213">
+        <v>1.0007920568017801</v>
+      </c>
     </row>
-    <row r="214" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.98605670000000001</v>
       </c>
@@ -36545,8 +37812,14 @@
       <c r="FN214">
         <v>0.99045288676416499</v>
       </c>
+      <c r="FQ214">
+        <v>0.96765387058258001</v>
+      </c>
+      <c r="FR214">
+        <v>0.99045288676416499</v>
+      </c>
     </row>
-    <row r="215" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.98566529999999997</v>
       </c>
@@ -36661,8 +37934,14 @@
       <c r="FN215">
         <v>0.98091991739979001</v>
       </c>
+      <c r="FQ215">
+        <v>0.96834409236907903</v>
+      </c>
+      <c r="FR215">
+        <v>0.98091991739979001</v>
+      </c>
     </row>
-    <row r="216" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.98518830000000002</v>
       </c>
@@ -36777,8 +38056,14 @@
       <c r="FN216">
         <v>0.96962603603858399</v>
       </c>
+      <c r="FQ216">
+        <v>0.96619892120361295</v>
+      </c>
+      <c r="FR216">
+        <v>0.96962603603858399</v>
+      </c>
     </row>
-    <row r="217" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.98497619999999997</v>
       </c>
@@ -36893,8 +38178,14 @@
       <c r="FN217">
         <v>0.97288619841022805</v>
       </c>
+      <c r="FQ217">
+        <v>0.96307986974716098</v>
+      </c>
+      <c r="FR217">
+        <v>0.97288619841022805</v>
+      </c>
     </row>
-    <row r="218" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.98432993999999996</v>
       </c>
@@ -37009,8 +38300,14 @@
       <c r="FN218">
         <v>0.94469746258945897</v>
       </c>
+      <c r="FQ218">
+        <v>0.96140104532241799</v>
+      </c>
+      <c r="FR218">
+        <v>0.94469746258945897</v>
+      </c>
     </row>
-    <row r="219" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.98297506999999995</v>
       </c>
@@ -37125,8 +38422,14 @@
       <c r="FN219">
         <v>0.95146530508330696</v>
       </c>
+      <c r="FQ219">
+        <v>0.95794922113418501</v>
+      </c>
+      <c r="FR219">
+        <v>0.95146530508330696</v>
+      </c>
     </row>
-    <row r="220" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.98185619999999996</v>
       </c>
@@ -37241,8 +38544,14 @@
       <c r="FN220">
         <v>0.96664875109614901</v>
       </c>
+      <c r="FQ220">
+        <v>0.95544761419296198</v>
+      </c>
+      <c r="FR220">
+        <v>0.96664875109614901</v>
+      </c>
     </row>
-    <row r="221" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.97993699999999995</v>
       </c>
@@ -37357,8 +38666,14 @@
       <c r="FN221">
         <v>0.98762411247206505</v>
       </c>
+      <c r="FQ221">
+        <v>0.95536494255065896</v>
+      </c>
+      <c r="FR221">
+        <v>0.98762411247206505</v>
+      </c>
     </row>
-    <row r="222" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.97773109999999996</v>
       </c>
@@ -37473,8 +38788,14 @@
       <c r="FN222">
         <v>0.96557381686515198</v>
       </c>
+      <c r="FQ222">
+        <v>0.959650158882141</v>
+      </c>
+      <c r="FR222">
+        <v>0.96557381686515198</v>
+      </c>
     </row>
-    <row r="223" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.97719294000000001</v>
       </c>
@@ -37589,8 +38910,14 @@
       <c r="FN223">
         <v>0.93987440242143006</v>
       </c>
+      <c r="FQ223">
+        <v>0.96388727426528897</v>
+      </c>
+      <c r="FR223">
+        <v>0.93987440242143006</v>
+      </c>
     </row>
-    <row r="224" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.97773339999999997</v>
       </c>
@@ -37705,8 +39032,14 @@
       <c r="FN224">
         <v>0.95090662216061705</v>
       </c>
+      <c r="FQ224">
+        <v>0.96096199750900202</v>
+      </c>
+      <c r="FR224">
+        <v>0.95090662216061705</v>
+      </c>
     </row>
-    <row r="225" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.97787120000000005</v>
       </c>
@@ -37821,8 +39154,14 @@
       <c r="FN225">
         <v>0.96350881163191904</v>
       </c>
+      <c r="FQ225">
+        <v>0.954520583152771</v>
+      </c>
+      <c r="FR225">
+        <v>0.96350881163191904</v>
+      </c>
     </row>
-    <row r="226" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.9758656</v>
       </c>
@@ -37937,8 +39276,14 @@
       <c r="FN226">
         <v>0.98141495290090797</v>
       </c>
+      <c r="FQ226">
+        <v>0.95173287391662598</v>
+      </c>
+      <c r="FR226">
+        <v>0.98141495290090797</v>
+      </c>
     </row>
-    <row r="227" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.97317940000000003</v>
       </c>
@@ -38053,8 +39398,14 @@
       <c r="FN227">
         <v>0.97908121410992499</v>
       </c>
+      <c r="FQ227">
+        <v>0.95358890295028598</v>
+      </c>
+      <c r="FR227">
+        <v>0.97908121410992499</v>
+      </c>
     </row>
-    <row r="228" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.97173726999999999</v>
       </c>
@@ -38169,8 +39520,14 @@
       <c r="FN228">
         <v>0.97590591496704404</v>
       </c>
+      <c r="FQ228">
+        <v>0.95802378654479903</v>
+      </c>
+      <c r="FR228">
+        <v>0.97590591496704404</v>
+      </c>
     </row>
-    <row r="229" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.9718755</v>
       </c>
@@ -38285,8 +39642,14 @@
       <c r="FN229">
         <v>0.99136516647336703</v>
       </c>
+      <c r="FQ229">
+        <v>0.96118420362472501</v>
+      </c>
+      <c r="FR229">
+        <v>0.99136516647336703</v>
+      </c>
     </row>
-    <row r="230" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.97275659999999997</v>
       </c>
@@ -38401,8 +39764,14 @@
       <c r="FN230">
         <v>0.98075726287799503</v>
       </c>
+      <c r="FQ230">
+        <v>0.96450144052505404</v>
+      </c>
+      <c r="FR230">
+        <v>0.98075726287799503</v>
+      </c>
     </row>
-    <row r="231" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.97297889999999998</v>
       </c>
@@ -38517,8 +39886,14 @@
       <c r="FN231">
         <v>0.96702356368985298</v>
       </c>
+      <c r="FQ231">
+        <v>0.96615815162658603</v>
+      </c>
+      <c r="FR231">
+        <v>0.96702356368985298</v>
+      </c>
     </row>
-    <row r="232" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.97284649999999995</v>
       </c>
@@ -38633,8 +40008,14 @@
       <c r="FN232">
         <v>0.94490254872563695</v>
       </c>
+      <c r="FQ232">
+        <v>0.96476107835769598</v>
+      </c>
+      <c r="FR232">
+        <v>0.94490254872563695</v>
+      </c>
     </row>
-    <row r="233" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.97313136</v>
       </c>
@@ -38749,8 +40130,14 @@
       <c r="FN233">
         <v>0.94776668269638698</v>
       </c>
+      <c r="FQ233">
+        <v>0.95989012718200595</v>
+      </c>
+      <c r="FR233">
+        <v>0.94776668269638698</v>
+      </c>
     </row>
-    <row r="234" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.97397869999999998</v>
       </c>
@@ -38865,8 +40252,14 @@
       <c r="FN234">
         <v>0.92906141268988096</v>
       </c>
+      <c r="FQ234">
+        <v>0.95655751228332497</v>
+      </c>
+      <c r="FR234">
+        <v>0.92906141268988096</v>
+      </c>
     </row>
-    <row r="235" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.97337216000000004</v>
       </c>
@@ -38981,8 +40374,14 @@
       <c r="FN235">
         <v>0.89570309185030095</v>
       </c>
+      <c r="FQ235">
+        <v>0.95108294486999501</v>
+      </c>
+      <c r="FR235">
+        <v>0.89570309185030095</v>
+      </c>
     </row>
-    <row r="236" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.9720879</v>
       </c>
@@ -39097,8 +40496,14 @@
       <c r="FN236">
         <v>0.88080959520239799</v>
       </c>
+      <c r="FQ236">
+        <v>0.94234317541122403</v>
+      </c>
+      <c r="FR236">
+        <v>0.88080959520239799</v>
+      </c>
     </row>
-    <row r="237" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.97014034000000005</v>
       </c>
@@ -39213,8 +40618,14 @@
       <c r="FN237">
         <v>0.88196939266215901</v>
       </c>
+      <c r="FQ237">
+        <v>0.93273723125457697</v>
+      </c>
+      <c r="FR237">
+        <v>0.88196939266215901</v>
+      </c>
     </row>
-    <row r="238" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.96636515999999995</v>
       </c>
@@ -39329,8 +40740,14 @@
       <c r="FN238">
         <v>0.89258436819326104</v>
       </c>
+      <c r="FQ238">
+        <v>0.92206823825836104</v>
+      </c>
+      <c r="FR238">
+        <v>0.89258436819326104</v>
+      </c>
     </row>
-    <row r="239" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.96120554000000002</v>
       </c>
@@ -39445,8 +40862,14 @@
       <c r="FN239">
         <v>0.85835619925886097</v>
       </c>
+      <c r="FQ239">
+        <v>0.915105581283569</v>
+      </c>
+      <c r="FR239">
+        <v>0.85835619925886097</v>
+      </c>
     </row>
-    <row r="240" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.95493567000000001</v>
       </c>
@@ -39561,8 +40984,14 @@
       <c r="FN240">
         <v>0.88067522842352397</v>
       </c>
+      <c r="FQ240">
+        <v>0.909521043300628</v>
+      </c>
+      <c r="FR240">
+        <v>0.88067522842352397</v>
+      </c>
     </row>
-    <row r="241" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.94963056000000001</v>
       </c>
@@ -39677,8 +41106,14 @@
       <c r="FN241">
         <v>0.85131962320726395</v>
       </c>
+      <c r="FQ241">
+        <v>0.90707868337631203</v>
+      </c>
+      <c r="FR241">
+        <v>0.85131962320726395</v>
+      </c>
     </row>
-    <row r="242" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.94228979999999996</v>
       </c>
@@ -39793,8 +41228,14 @@
       <c r="FN242">
         <v>0.85202681678028802</v>
       </c>
+      <c r="FQ242">
+        <v>0.90249991416931097</v>
+      </c>
+      <c r="FR242">
+        <v>0.85202681678028802</v>
+      </c>
     </row>
-    <row r="243" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.93428235999999998</v>
       </c>
@@ -39909,8 +41350,14 @@
       <c r="FN243">
         <v>0.83646855817374299</v>
       </c>
+      <c r="FQ243">
+        <v>0.89761292934417702</v>
+      </c>
+      <c r="FR243">
+        <v>0.83646855817374299</v>
+      </c>
     </row>
-    <row r="244" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.92244440000000005</v>
       </c>
@@ -40025,8 +41472,14 @@
       <c r="FN244">
         <v>0.84330004808916204</v>
       </c>
+      <c r="FQ244">
+        <v>0.89118838310241699</v>
+      </c>
+      <c r="FR244">
+        <v>0.84330004808916204</v>
+      </c>
     </row>
-    <row r="245" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.90962129999999997</v>
       </c>
@@ -40141,8 +41594,14 @@
       <c r="FN245">
         <v>0.87010975644253297</v>
       </c>
+      <c r="FQ245">
+        <v>0.88412511348724299</v>
+      </c>
+      <c r="FR245">
+        <v>0.87010975644253297</v>
+      </c>
     </row>
-    <row r="246" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.89433295000000002</v>
       </c>
@@ -40257,8 +41716,14 @@
       <c r="FN246">
         <v>0.84902124409493296</v>
       </c>
+      <c r="FQ246">
+        <v>0.88049703836440996</v>
+      </c>
+      <c r="FR246">
+        <v>0.84902124409493296</v>
+      </c>
     </row>
-    <row r="247" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.87948110000000002</v>
       </c>
@@ -40373,8 +41838,14 @@
       <c r="FN247">
         <v>0.86779723345874205</v>
       </c>
+      <c r="FQ247">
+        <v>0.87942266464233398</v>
+      </c>
+      <c r="FR247">
+        <v>0.86779723345874205</v>
+      </c>
     </row>
-    <row r="248" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.86989700000000003</v>
       </c>
@@ -40489,8 +41960,14 @@
       <c r="FN248">
         <v>0.85317247036858901</v>
       </c>
+      <c r="FQ248">
+        <v>0.887240409851074</v>
+      </c>
+      <c r="FR248">
+        <v>0.85317247036858901</v>
+      </c>
     </row>
-    <row r="249" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.8644366</v>
       </c>
@@ -40605,8 +42082,14 @@
       <c r="FN249">
         <v>0.86053435546377699</v>
       </c>
+      <c r="FQ249">
+        <v>0.89314621686935403</v>
+      </c>
+      <c r="FR249">
+        <v>0.86053435546377699</v>
+      </c>
     </row>
-    <row r="250" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.86798613999999996</v>
       </c>
@@ -40721,8 +42204,14 @@
       <c r="FN250">
         <v>0.89368759016718002</v>
       </c>
+      <c r="FQ250">
+        <v>0.89259260892867998</v>
+      </c>
+      <c r="FR250">
+        <v>0.89368759016718002</v>
+      </c>
     </row>
-    <row r="251" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.87286010000000003</v>
       </c>
@@ -40837,8 +42326,14 @@
       <c r="FN251">
         <v>0.89307940369437899</v>
       </c>
+      <c r="FQ251">
+        <v>0.89162969589233398</v>
+      </c>
+      <c r="FR251">
+        <v>0.89307940369437899</v>
+      </c>
     </row>
-    <row r="252" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.87586359999999996</v>
       </c>
@@ -40953,8 +42448,14 @@
       <c r="FN252">
         <v>0.86737291731492705</v>
       </c>
+      <c r="FQ252">
+        <v>0.89283537864685003</v>
+      </c>
+      <c r="FR252">
+        <v>0.86737291731492705</v>
+      </c>
     </row>
-    <row r="253" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.88215639999999995</v>
       </c>
@@ -41069,8 +42570,14 @@
       <c r="FN253">
         <v>0.87409125625866202</v>
       </c>
+      <c r="FQ253">
+        <v>0.89203077554702703</v>
+      </c>
+      <c r="FR253">
+        <v>0.87409125625866202</v>
+      </c>
     </row>
-    <row r="254" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.89292145000000001</v>
       </c>
@@ -41185,8 +42692,14 @@
       <c r="FN254">
         <v>0.87615626149189496</v>
       </c>
+      <c r="FQ254">
+        <v>0.88890647888183505</v>
+      </c>
+      <c r="FR254">
+        <v>0.87615626149189496</v>
+      </c>
     </row>
-    <row r="255" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.89778703000000004</v>
       </c>
@@ -41301,8 +42814,14 @@
       <c r="FN255">
         <v>0.85112160900681699</v>
       </c>
+      <c r="FQ255">
+        <v>0.88708376884460405</v>
+      </c>
+      <c r="FR255">
+        <v>0.85112160900681699</v>
+      </c>
     </row>
-    <row r="256" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.89979105999999998</v>
       </c>
@@ -41417,8 +42936,14 @@
       <c r="FN256">
         <v>0.83230318802862702</v>
       </c>
+      <c r="FQ256">
+        <v>0.88463211059570301</v>
+      </c>
+      <c r="FR256">
+        <v>0.83230318802862702</v>
+      </c>
     </row>
-    <row r="257" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.90518330000000002</v>
       </c>
@@ -41533,8 +43058,14 @@
       <c r="FN257">
         <v>0.83143333993380597</v>
       </c>
+      <c r="FQ257">
+        <v>0.87972396612167303</v>
+      </c>
+      <c r="FR257">
+        <v>0.83143333993380597</v>
+      </c>
     </row>
-    <row r="258" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.9069429</v>
       </c>
@@ -41649,8 +43180,14 @@
       <c r="FN258">
         <v>0.83118582218324699</v>
       </c>
+      <c r="FQ258">
+        <v>0.87282788753509499</v>
+      </c>
+      <c r="FR258">
+        <v>0.83118582218324699</v>
+      </c>
     </row>
-    <row r="259" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.90196759999999998</v>
       </c>
@@ -41765,8 +43302,14 @@
       <c r="FN259">
         <v>0.81507595258974197</v>
       </c>
+      <c r="FQ259">
+        <v>0.86653697490692105</v>
+      </c>
+      <c r="FR259">
+        <v>0.81507595258974197</v>
+      </c>
     </row>
-    <row r="260" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.89463972999999997</v>
       </c>
@@ -41881,8 +43424,14 @@
       <c r="FN260">
         <v>0.84032276314672805</v>
       </c>
+      <c r="FQ260">
+        <v>0.86122518777847201</v>
+      </c>
+      <c r="FR260">
+        <v>0.84032276314672805</v>
+      </c>
     </row>
-    <row r="261" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.89197749999999998</v>
       </c>
@@ -41997,8 +43546,14 @@
       <c r="FN261">
         <v>0.86210432519589197</v>
       </c>
+      <c r="FQ261">
+        <v>0.86071705818176203</v>
+      </c>
+      <c r="FR261">
+        <v>0.86210432519589197</v>
+      </c>
     </row>
-    <row r="262" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.88822409999999996</v>
       </c>
@@ -42113,8 +43668,14 @@
       <c r="FN262">
         <v>0.88419705241718705</v>
       </c>
+      <c r="FQ262">
+        <v>0.86512970924377397</v>
+      </c>
+      <c r="FR262">
+        <v>0.88419705241718705</v>
+      </c>
     </row>
-    <row r="263" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.89092505</v>
       </c>
@@ -42229,8 +43790,14 @@
       <c r="FN263">
         <v>0.87783938219569402</v>
       </c>
+      <c r="FQ263">
+        <v>0.87148833274841297</v>
+      </c>
+      <c r="FR263">
+        <v>0.87783938219569402</v>
+      </c>
     </row>
-    <row r="264" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.90219819999999995</v>
       </c>
@@ -42345,8 +43912,14 @@
       <c r="FN264">
         <v>0.87780402251704304</v>
       </c>
+      <c r="FQ264">
+        <v>0.87660324573516801</v>
+      </c>
+      <c r="FR264">
+        <v>0.87780402251704304</v>
+      </c>
     </row>
-    <row r="265" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.91393124999999997</v>
       </c>
@@ -42461,8 +44034,14 @@
       <c r="FN265">
         <v>0.89740742836129095</v>
       </c>
+      <c r="FQ265">
+        <v>0.87786054611205999</v>
+      </c>
+      <c r="FR265">
+        <v>0.89740742836129095</v>
+      </c>
     </row>
-    <row r="266" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.92070680000000005</v>
       </c>
@@ -42577,8 +44156,14 @@
       <c r="FN266">
         <v>0.88027212808689903</v>
       </c>
+      <c r="FQ266">
+        <v>0.882424116134643</v>
+      </c>
+      <c r="FR266">
+        <v>0.88027212808689903</v>
+      </c>
     </row>
-    <row r="267" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.92520279999999999</v>
       </c>
@@ -42693,8 +44278,14 @@
       <c r="FN267">
         <v>0.88630448926480099</v>
       </c>
+      <c r="FQ267">
+        <v>0.88663506507873502</v>
+      </c>
+      <c r="FR267">
+        <v>0.88630448926480099</v>
+      </c>
     </row>
-    <row r="268" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.93181879999999995</v>
       </c>
@@ -42809,8 +44400,14 @@
       <c r="FN268">
         <v>0.90179202851404405</v>
       </c>
+      <c r="FQ268">
+        <v>0.88995236158370905</v>
+      </c>
+      <c r="FR268">
+        <v>0.90179202851404405</v>
+      </c>
     </row>
-    <row r="269" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.93664895999999997</v>
       </c>
@@ -42925,8 +44522,14 @@
       <c r="FN269">
         <v>0.89921077197250399</v>
       </c>
+      <c r="FQ269">
+        <v>0.89312863349914495</v>
+      </c>
+      <c r="FR269">
+        <v>0.89921077197250399</v>
+      </c>
     </row>
-    <row r="270" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.94140214</v>
       </c>
@@ -43041,8 +44644,14 @@
       <c r="FN270">
         <v>0.88802296964725103</v>
       </c>
+      <c r="FQ270">
+        <v>0.89218318462371804</v>
+      </c>
+      <c r="FR270">
+        <v>0.88802296964725103</v>
+      </c>
     </row>
-    <row r="271" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.94735837000000001</v>
       </c>
@@ -43157,8 +44766,14 @@
       <c r="FN271">
         <v>0.92063873723515499</v>
       </c>
+      <c r="FQ271">
+        <v>0.88996797800063998</v>
+      </c>
+      <c r="FR271">
+        <v>0.92063873723515499</v>
+      </c>
     </row>
-    <row r="272" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.95195174000000005</v>
       </c>
@@ -43273,8 +44888,14 @@
       <c r="FN272">
         <v>0.92636700517665604</v>
       </c>
+      <c r="FQ272">
+        <v>0.89025330543518</v>
+      </c>
+      <c r="FR272">
+        <v>0.92636700517665604</v>
+      </c>
     </row>
-    <row r="273" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.95576954000000003</v>
       </c>
@@ -43389,8 +45010,14 @@
       <c r="FN273">
         <v>0.93128200050917898</v>
       </c>
+      <c r="FQ273">
+        <v>0.89549690485000599</v>
+      </c>
+      <c r="FR273">
+        <v>0.93128200050917898</v>
+      </c>
     </row>
-    <row r="274" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.96027689999999999</v>
       </c>
@@ -43505,8 +45132,14 @@
       <c r="FN274">
         <v>0.93594240615541202</v>
       </c>
+      <c r="FQ274">
+        <v>0.90213072299957198</v>
+      </c>
+      <c r="FR274">
+        <v>0.93594240615541202</v>
+      </c>
     </row>
-    <row r="275" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.96422905000000003</v>
       </c>
@@ -43621,8 +45254,14 @@
       <c r="FN275">
         <v>0.93719413877966595</v>
       </c>
+      <c r="FQ275">
+        <v>0.90375560522079401</v>
+      </c>
+      <c r="FR275">
+        <v>0.93719413877966595</v>
+      </c>
     </row>
-    <row r="276" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.96671706000000002</v>
       </c>
@@ -43737,8 +45376,14 @@
       <c r="FN276">
         <v>0.921282283386608</v>
       </c>
+      <c r="FQ276">
+        <v>0.90351629257202104</v>
+      </c>
+      <c r="FR276">
+        <v>0.921282283386608</v>
+      </c>
     </row>
-    <row r="277" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.96816409999999997</v>
       </c>
@@ -43853,8 +45498,14 @@
       <c r="FN277">
         <v>0.92835421911685601</v>
       </c>
+      <c r="FQ277">
+        <v>0.90370559692382801</v>
+      </c>
+      <c r="FR277">
+        <v>0.92835421911685601</v>
+      </c>
     </row>
-    <row r="278" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.96929679999999996</v>
       </c>
@@ -43969,8 +45620,14 @@
       <c r="FN278">
         <v>0.92857344912449402</v>
       </c>
+      <c r="FQ278">
+        <v>0.90549069643020597</v>
+      </c>
+      <c r="FR278">
+        <v>0.92857344912449402</v>
+      </c>
     </row>
-    <row r="279" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.9700704</v>
       </c>
@@ -44085,8 +45742,14 @@
       <c r="FN279">
         <v>0.95164210347656297</v>
       </c>
+      <c r="FQ279">
+        <v>0.90701812505722001</v>
+      </c>
+      <c r="FR279">
+        <v>0.95164210347656297</v>
+      </c>
     </row>
-    <row r="280" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.97097354999999996</v>
       </c>
@@ -44201,8 +45864,14 @@
       <c r="FN280">
         <v>0.94983875986535005</v>
       </c>
+      <c r="FQ280">
+        <v>0.912944555282592</v>
+      </c>
+      <c r="FR280">
+        <v>0.94983875986535005</v>
+      </c>
     </row>
-    <row r="281" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.97236250000000002</v>
       </c>
@@ -44317,8 +45986,14 @@
       <c r="FN281">
         <v>0.94721507170942798</v>
       </c>
+      <c r="FQ281">
+        <v>0.92106503248214699</v>
+      </c>
+      <c r="FR281">
+        <v>0.94721507170942798</v>
+      </c>
     </row>
-    <row r="282" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.97372190000000003</v>
       </c>
@@ -44433,8 +46108,14 @@
       <c r="FN282">
         <v>0.95519928714887803</v>
       </c>
+      <c r="FQ282">
+        <v>0.92632722854614202</v>
+      </c>
+      <c r="FR282">
+        <v>0.95519928714887803</v>
+      </c>
     </row>
-    <row r="283" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.97404086999999995</v>
       </c>
@@ -44549,8 +46230,14 @@
       <c r="FN283">
         <v>0.96465446522022003</v>
       </c>
+      <c r="FQ283">
+        <v>0.92979800701141302</v>
+      </c>
+      <c r="FR283">
+        <v>0.96465446522022003</v>
+      </c>
     </row>
-    <row r="284" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.97437090000000004</v>
       </c>
@@ -44665,8 +46352,14 @@
       <c r="FN284">
         <v>0.97101213544171205</v>
       </c>
+      <c r="FQ284">
+        <v>0.93494623899459794</v>
+      </c>
+      <c r="FR284">
+        <v>0.97101213544171205</v>
+      </c>
     </row>
-    <row r="285" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.97535263999999999</v>
       </c>
@@ -44781,8 +46474,14 @@
       <c r="FN285">
         <v>0.972440666459223</v>
       </c>
+      <c r="FQ285">
+        <v>0.94138002395629805</v>
+      </c>
+      <c r="FR285">
+        <v>0.972440666459223</v>
+      </c>
     </row>
-    <row r="286" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.97585449999999996</v>
       </c>
@@ -44897,8 +46596,14 @@
       <c r="FN286">
         <v>0.97116771802777802</v>
       </c>
+      <c r="FQ286">
+        <v>0.94463437795639005</v>
+      </c>
+      <c r="FR286">
+        <v>0.97116771802777802</v>
+      </c>
     </row>
-    <row r="287" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.9758175</v>
       </c>
@@ -45013,8 +46718,14 @@
       <c r="FN287">
         <v>0.96191055415688298</v>
       </c>
+      <c r="FQ287">
+        <v>0.94377404451370195</v>
+      </c>
+      <c r="FR287">
+        <v>0.96191055415688298</v>
+      </c>
     </row>
-    <row r="288" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.97472689999999995</v>
       </c>
@@ -45129,8 +46840,14 @@
       <c r="FN288">
         <v>0.961366015105654</v>
       </c>
+      <c r="FQ288">
+        <v>0.94257086515426602</v>
+      </c>
+      <c r="FR288">
+        <v>0.961366015105654</v>
+      </c>
     </row>
-    <row r="289" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.97435210000000005</v>
       </c>
@@ -45245,8 +46962,14 @@
       <c r="FN289">
         <v>0.96215099997171205</v>
       </c>
+      <c r="FQ289">
+        <v>0.94335752725601196</v>
+      </c>
+      <c r="FR289">
+        <v>0.96215099997171205</v>
+      </c>
     </row>
-    <row r="290" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.97502480000000002</v>
       </c>
@@ -45361,8 +47084,14 @@
       <c r="FN290">
         <v>0.97485219654323796</v>
       </c>
+      <c r="FQ290">
+        <v>0.94336718320846502</v>
+      </c>
+      <c r="FR290">
+        <v>0.97485219654323796</v>
+      </c>
     </row>
-    <row r="291" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.97573244999999997</v>
       </c>
@@ -45477,8 +47206,14 @@
       <c r="FN291">
         <v>0.98117450708607901</v>
       </c>
+      <c r="FQ291">
+        <v>0.94638711214065496</v>
+      </c>
+      <c r="FR291">
+        <v>0.98117450708607901</v>
+      </c>
     </row>
-    <row r="292" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.97630053999999999</v>
       </c>
@@ -45593,8 +47328,14 @@
       <c r="FN292">
         <v>0.97819722214364402</v>
       </c>
+      <c r="FQ292">
+        <v>0.95070338249206499</v>
+      </c>
+      <c r="FR292">
+        <v>0.97819722214364402</v>
+      </c>
     </row>
-    <row r="293" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.97684835999999997</v>
       </c>
@@ -45709,8 +47450,14 @@
       <c r="FN293">
         <v>0.98741902633588796</v>
       </c>
+      <c r="FQ293">
+        <v>0.95164477825164795</v>
+      </c>
+      <c r="FR293">
+        <v>0.98741902633588796</v>
+      </c>
     </row>
-    <row r="294" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.97703636000000005</v>
       </c>
@@ -45825,8 +47572,14 @@
       <c r="FN294">
         <v>0.98271618907527303</v>
       </c>
+      <c r="FQ294">
+        <v>0.95291221141815097</v>
+      </c>
+      <c r="FR294">
+        <v>0.98271618907527303</v>
+      </c>
     </row>
-    <row r="295" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.97686580000000001</v>
       </c>
@@ -45941,8 +47694,14 @@
       <c r="FN295">
         <v>0.96789341178467303</v>
       </c>
+      <c r="FQ295">
+        <v>0.95536524057388295</v>
+      </c>
+      <c r="FR295">
+        <v>0.96789341178467303</v>
+      </c>
     </row>
-    <row r="296" spans="1:170" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.97698795999999999<